--- a/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
+++ b/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="522">
   <si>
     <t>id_cliente</t>
   </si>
@@ -190,286 +190,304 @@
     <t>INATIVO - 38.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 41.2 meses sem comprar</t>
+    <t>INATIVO - 41.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 49.0 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 44.8 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 28.7 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 38.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 47.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 47.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.3 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 38.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 47.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 47.7 meses sem comprar</t>
+    <t>INATIVO - 34.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 47.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 19.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 48.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 45.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 47.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.5 meses sem comprar</t>
+    <t>INATIVO - 11.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 32.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.8 meses sem comprar</t>
+    <t>INATIVO - 18.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 17.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 32.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.7 meses sem comprar</t>
+    <t>INATIVO - 12.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.2 meses sem comprar</t>
@@ -487,19 +505,16 @@
     <t>INATIVO - 6.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 9.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
+    <t>INATIVO - 10.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 11.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 9.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
+    <t>INATIVO - 9.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
   </si>
   <si>
     <t>FRANCISCO SAMPAIO</t>
@@ -2031,7 +2046,7 @@
         <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2066,7 +2081,7 @@
         <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2101,7 +2116,7 @@
         <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2136,7 +2151,7 @@
         <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2171,7 +2186,7 @@
         <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2206,7 +2221,7 @@
         <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2241,7 +2256,7 @@
         <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2276,7 +2291,7 @@
         <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2311,7 +2326,7 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2346,7 +2361,7 @@
         <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2378,10 +2393,10 @@
         <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K12" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2413,10 +2428,10 @@
         <v>51</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K13" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2448,10 +2463,10 @@
         <v>51</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K14" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2483,10 +2498,10 @@
         <v>51</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K15" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2518,10 +2533,10 @@
         <v>51</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2556,7 +2571,7 @@
         <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2588,10 +2603,10 @@
         <v>51</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2623,10 +2638,10 @@
         <v>51</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2658,10 +2673,10 @@
         <v>51</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2693,10 +2708,10 @@
         <v>51</v>
       </c>
       <c r="J21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K21" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2728,10 +2743,10 @@
         <v>51</v>
       </c>
       <c r="J22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K22" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2763,10 +2778,10 @@
         <v>51</v>
       </c>
       <c r="J23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K23" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2801,7 +2816,7 @@
         <v>52</v>
       </c>
       <c r="K24" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2833,10 +2848,10 @@
         <v>51</v>
       </c>
       <c r="J25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K25" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2868,10 +2883,10 @@
         <v>51</v>
       </c>
       <c r="J26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K26" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2906,7 +2921,7 @@
         <v>52</v>
       </c>
       <c r="K27" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2938,10 +2953,10 @@
         <v>51</v>
       </c>
       <c r="J28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K28" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2976,7 +2991,7 @@
         <v>52</v>
       </c>
       <c r="K29" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3011,7 +3026,7 @@
         <v>52</v>
       </c>
       <c r="K30" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3046,7 +3061,7 @@
         <v>52</v>
       </c>
       <c r="K31" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3078,10 +3093,10 @@
         <v>51</v>
       </c>
       <c r="J32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K32" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3113,10 +3128,10 @@
         <v>51</v>
       </c>
       <c r="J33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K33" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3148,10 +3163,10 @@
         <v>51</v>
       </c>
       <c r="J34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3183,10 +3198,10 @@
         <v>51</v>
       </c>
       <c r="J35" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3221,7 +3236,7 @@
         <v>52</v>
       </c>
       <c r="K36" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3256,7 +3271,7 @@
         <v>52</v>
       </c>
       <c r="K37" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3291,7 +3306,7 @@
         <v>52</v>
       </c>
       <c r="K38" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3323,10 +3338,10 @@
         <v>51</v>
       </c>
       <c r="J39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K39" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3358,10 +3373,10 @@
         <v>51</v>
       </c>
       <c r="J40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3396,7 +3411,7 @@
         <v>52</v>
       </c>
       <c r="K41" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3428,10 +3443,10 @@
         <v>51</v>
       </c>
       <c r="J42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3466,7 +3481,7 @@
         <v>52</v>
       </c>
       <c r="K43" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3498,10 +3513,10 @@
         <v>51</v>
       </c>
       <c r="J44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3536,7 +3551,7 @@
         <v>52</v>
       </c>
       <c r="K45" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3571,7 +3586,7 @@
         <v>52</v>
       </c>
       <c r="K46" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3606,7 +3621,7 @@
         <v>52</v>
       </c>
       <c r="K47" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3641,7 +3656,7 @@
         <v>52</v>
       </c>
       <c r="K48" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3673,10 +3688,10 @@
         <v>51</v>
       </c>
       <c r="J49" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3711,7 +3726,7 @@
         <v>52</v>
       </c>
       <c r="K50" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3746,7 +3761,7 @@
         <v>52</v>
       </c>
       <c r="K51" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3778,10 +3793,10 @@
         <v>51</v>
       </c>
       <c r="J52" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3813,10 +3828,10 @@
         <v>51</v>
       </c>
       <c r="J53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3848,10 +3863,10 @@
         <v>51</v>
       </c>
       <c r="J54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K54" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3883,10 +3898,10 @@
         <v>51</v>
       </c>
       <c r="J55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3918,10 +3933,10 @@
         <v>51</v>
       </c>
       <c r="J56" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K56" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3953,10 +3968,10 @@
         <v>51</v>
       </c>
       <c r="J57" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K57" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3988,10 +4003,10 @@
         <v>51</v>
       </c>
       <c r="J58" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4023,10 +4038,10 @@
         <v>51</v>
       </c>
       <c r="J59" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4058,10 +4073,10 @@
         <v>51</v>
       </c>
       <c r="J60" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K60" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4093,10 +4108,10 @@
         <v>51</v>
       </c>
       <c r="J61" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K61" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4128,10 +4143,10 @@
         <v>51</v>
       </c>
       <c r="J62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K62" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4163,10 +4178,10 @@
         <v>51</v>
       </c>
       <c r="J63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4198,10 +4213,10 @@
         <v>51</v>
       </c>
       <c r="J64" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K64" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4236,7 +4251,7 @@
         <v>52</v>
       </c>
       <c r="K65" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4268,10 +4283,10 @@
         <v>51</v>
       </c>
       <c r="J66" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4306,7 +4321,7 @@
         <v>52</v>
       </c>
       <c r="K67" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4338,10 +4353,10 @@
         <v>51</v>
       </c>
       <c r="J68" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4373,10 +4388,10 @@
         <v>51</v>
       </c>
       <c r="J69" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K69" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4408,10 +4423,10 @@
         <v>51</v>
       </c>
       <c r="J70" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4446,7 +4461,7 @@
         <v>52</v>
       </c>
       <c r="K71" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4478,10 +4493,10 @@
         <v>51</v>
       </c>
       <c r="J72" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K72" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4516,7 +4531,7 @@
         <v>52</v>
       </c>
       <c r="K73" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4548,10 +4563,10 @@
         <v>51</v>
       </c>
       <c r="J74" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K74" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4583,10 +4598,10 @@
         <v>51</v>
       </c>
       <c r="J75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K75" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4621,7 +4636,7 @@
         <v>52</v>
       </c>
       <c r="K76" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4653,10 +4668,10 @@
         <v>51</v>
       </c>
       <c r="J77" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K77" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4688,10 +4703,10 @@
         <v>51</v>
       </c>
       <c r="J78" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K78" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4726,7 +4741,7 @@
         <v>52</v>
       </c>
       <c r="K79" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4758,10 +4773,10 @@
         <v>51</v>
       </c>
       <c r="J80" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K80" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4796,7 +4811,7 @@
         <v>52</v>
       </c>
       <c r="K81" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4828,10 +4843,10 @@
         <v>51</v>
       </c>
       <c r="J82" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K82" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4866,7 +4881,7 @@
         <v>52</v>
       </c>
       <c r="K83" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4898,10 +4913,10 @@
         <v>51</v>
       </c>
       <c r="J84" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K84" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4933,10 +4948,10 @@
         <v>51</v>
       </c>
       <c r="J85" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K85" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4971,7 +4986,7 @@
         <v>52</v>
       </c>
       <c r="K86" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5003,10 +5018,10 @@
         <v>51</v>
       </c>
       <c r="J87" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K87" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -5038,10 +5053,10 @@
         <v>51</v>
       </c>
       <c r="J88" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K88" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5073,10 +5088,10 @@
         <v>51</v>
       </c>
       <c r="J89" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K89" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5111,7 +5126,7 @@
         <v>52</v>
       </c>
       <c r="K90" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5143,10 +5158,10 @@
         <v>51</v>
       </c>
       <c r="J91" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K91" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5181,7 +5196,7 @@
         <v>52</v>
       </c>
       <c r="K92" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5216,7 +5231,7 @@
         <v>52</v>
       </c>
       <c r="K93" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5248,10 +5263,10 @@
         <v>51</v>
       </c>
       <c r="J94" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K94" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5286,7 +5301,7 @@
         <v>52</v>
       </c>
       <c r="K95" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5318,10 +5333,10 @@
         <v>51</v>
       </c>
       <c r="J96" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="K96" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5353,10 +5368,10 @@
         <v>51</v>
       </c>
       <c r="J97" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K97" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5388,10 +5403,10 @@
         <v>51</v>
       </c>
       <c r="J98" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K98" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5423,10 +5438,10 @@
         <v>51</v>
       </c>
       <c r="J99" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K99" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5461,7 +5476,7 @@
         <v>52</v>
       </c>
       <c r="K100" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5496,7 +5511,7 @@
         <v>52</v>
       </c>
       <c r="K101" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5528,10 +5543,10 @@
         <v>51</v>
       </c>
       <c r="J102" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K102" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5563,10 +5578,10 @@
         <v>51</v>
       </c>
       <c r="J103" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K103" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5601,7 +5616,7 @@
         <v>52</v>
       </c>
       <c r="K104" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5633,10 +5648,10 @@
         <v>51</v>
       </c>
       <c r="J105" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K105" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5668,10 +5683,10 @@
         <v>51</v>
       </c>
       <c r="J106" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K106" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5703,10 +5718,10 @@
         <v>51</v>
       </c>
       <c r="J107" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K107" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5741,7 +5756,7 @@
         <v>52</v>
       </c>
       <c r="K108" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5773,10 +5788,10 @@
         <v>51</v>
       </c>
       <c r="J109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K109" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5808,10 +5823,10 @@
         <v>51</v>
       </c>
       <c r="J110" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K110" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5843,10 +5858,10 @@
         <v>51</v>
       </c>
       <c r="J111" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K111" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5878,10 +5893,10 @@
         <v>51</v>
       </c>
       <c r="J112" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K112" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5913,10 +5928,10 @@
         <v>51</v>
       </c>
       <c r="J113" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K113" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5948,10 +5963,10 @@
         <v>51</v>
       </c>
       <c r="J114" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K114" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -5983,10 +5998,10 @@
         <v>51</v>
       </c>
       <c r="J115" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K115" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6021,7 +6036,7 @@
         <v>52</v>
       </c>
       <c r="K116" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -6053,10 +6068,10 @@
         <v>51</v>
       </c>
       <c r="J117" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K117" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6091,7 +6106,7 @@
         <v>52</v>
       </c>
       <c r="K118" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6126,7 +6141,7 @@
         <v>52</v>
       </c>
       <c r="K119" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6158,10 +6173,10 @@
         <v>51</v>
       </c>
       <c r="J120" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K120" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6193,10 +6208,10 @@
         <v>51</v>
       </c>
       <c r="J121" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="K121" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6231,7 +6246,7 @@
         <v>52</v>
       </c>
       <c r="K122" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6266,7 +6281,7 @@
         <v>52</v>
       </c>
       <c r="K123" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6298,10 +6313,10 @@
         <v>51</v>
       </c>
       <c r="J124" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="K124" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6333,10 +6348,10 @@
         <v>51</v>
       </c>
       <c r="J125" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K125" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6371,7 +6386,7 @@
         <v>52</v>
       </c>
       <c r="K126" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6403,10 +6418,10 @@
         <v>51</v>
       </c>
       <c r="J127" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K127" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6441,7 +6456,7 @@
         <v>52</v>
       </c>
       <c r="K128" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6476,7 +6491,7 @@
         <v>52</v>
       </c>
       <c r="K129" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6511,7 +6526,7 @@
         <v>52</v>
       </c>
       <c r="K130" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6543,10 +6558,10 @@
         <v>51</v>
       </c>
       <c r="J131" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K131" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6578,10 +6593,10 @@
         <v>51</v>
       </c>
       <c r="J132" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="K132" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6616,7 +6631,7 @@
         <v>52</v>
       </c>
       <c r="K133" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6648,10 +6663,10 @@
         <v>51</v>
       </c>
       <c r="J134" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K134" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -6683,10 +6698,10 @@
         <v>51</v>
       </c>
       <c r="J135" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K135" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -6718,10 +6733,10 @@
         <v>51</v>
       </c>
       <c r="J136" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K136" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6753,10 +6768,10 @@
         <v>51</v>
       </c>
       <c r="J137" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K137" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6791,7 +6806,7 @@
         <v>52</v>
       </c>
       <c r="K138" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6823,10 +6838,10 @@
         <v>51</v>
       </c>
       <c r="J139" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="K139" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6861,7 +6876,7 @@
         <v>52</v>
       </c>
       <c r="K140" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6896,7 +6911,7 @@
         <v>52</v>
       </c>
       <c r="K141" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6928,10 +6943,10 @@
         <v>51</v>
       </c>
       <c r="J142" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K142" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -6966,7 +6981,7 @@
         <v>52</v>
       </c>
       <c r="K143" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -7001,7 +7016,7 @@
         <v>52</v>
       </c>
       <c r="K144" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -7036,7 +7051,7 @@
         <v>52</v>
       </c>
       <c r="K145" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -7071,7 +7086,7 @@
         <v>52</v>
       </c>
       <c r="K146" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7106,7 +7121,7 @@
         <v>52</v>
       </c>
       <c r="K147" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7138,10 +7153,10 @@
         <v>51</v>
       </c>
       <c r="J148" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K148" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7176,7 +7191,7 @@
         <v>52</v>
       </c>
       <c r="K149" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7211,7 +7226,7 @@
         <v>52</v>
       </c>
       <c r="K150" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7243,10 +7258,10 @@
         <v>51</v>
       </c>
       <c r="J151" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K151" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7281,7 +7296,7 @@
         <v>52</v>
       </c>
       <c r="K152" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7316,7 +7331,7 @@
         <v>52</v>
       </c>
       <c r="K153" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7351,7 +7366,7 @@
         <v>52</v>
       </c>
       <c r="K154" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7386,7 +7401,7 @@
         <v>52</v>
       </c>
       <c r="K155" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7421,7 +7436,7 @@
         <v>52</v>
       </c>
       <c r="K156" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -7456,7 +7471,7 @@
         <v>52</v>
       </c>
       <c r="K157" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -7491,7 +7506,7 @@
         <v>52</v>
       </c>
       <c r="K158" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -7523,10 +7538,10 @@
         <v>51</v>
       </c>
       <c r="J159" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K159" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -7561,7 +7576,7 @@
         <v>52</v>
       </c>
       <c r="K160" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -7596,7 +7611,7 @@
         <v>52</v>
       </c>
       <c r="K161" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7628,10 +7643,10 @@
         <v>51</v>
       </c>
       <c r="J162" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="K162" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7663,10 +7678,10 @@
         <v>51</v>
       </c>
       <c r="J163" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K163" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -7701,7 +7716,7 @@
         <v>52</v>
       </c>
       <c r="K164" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7736,7 +7751,7 @@
         <v>52</v>
       </c>
       <c r="K165" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7771,7 +7786,7 @@
         <v>52</v>
       </c>
       <c r="K166" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7806,7 +7821,7 @@
         <v>52</v>
       </c>
       <c r="K167" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -7841,7 +7856,7 @@
         <v>52</v>
       </c>
       <c r="K168" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7876,7 +7891,7 @@
         <v>52</v>
       </c>
       <c r="K169" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -7908,10 +7923,10 @@
         <v>51</v>
       </c>
       <c r="J170" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K170" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7946,7 +7961,7 @@
         <v>52</v>
       </c>
       <c r="K171" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -7981,7 +7996,7 @@
         <v>52</v>
       </c>
       <c r="K172" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -8016,7 +8031,7 @@
         <v>52</v>
       </c>
       <c r="K173" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -8051,7 +8066,7 @@
         <v>52</v>
       </c>
       <c r="K174" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -8086,7 +8101,7 @@
         <v>52</v>
       </c>
       <c r="K175" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -8121,7 +8136,7 @@
         <v>52</v>
       </c>
       <c r="K176" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -8156,7 +8171,7 @@
         <v>52</v>
       </c>
       <c r="K177" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -8191,7 +8206,7 @@
         <v>52</v>
       </c>
       <c r="K178" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -8223,10 +8238,10 @@
         <v>51</v>
       </c>
       <c r="J179" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K179" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -8261,7 +8276,7 @@
         <v>52</v>
       </c>
       <c r="K180" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -8296,7 +8311,7 @@
         <v>52</v>
       </c>
       <c r="K181" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -8331,7 +8346,7 @@
         <v>52</v>
       </c>
       <c r="K182" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -8366,7 +8381,7 @@
         <v>52</v>
       </c>
       <c r="K183" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -8401,7 +8416,7 @@
         <v>52</v>
       </c>
       <c r="K184" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -8433,10 +8448,10 @@
         <v>51</v>
       </c>
       <c r="J185" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K185" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -8468,10 +8483,10 @@
         <v>51</v>
       </c>
       <c r="J186" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K186" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -8503,10 +8518,10 @@
         <v>51</v>
       </c>
       <c r="J187" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K187" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -8541,7 +8556,7 @@
         <v>52</v>
       </c>
       <c r="K188" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -8576,7 +8591,7 @@
         <v>52</v>
       </c>
       <c r="K189" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -8611,7 +8626,7 @@
         <v>52</v>
       </c>
       <c r="K190" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -8646,7 +8661,7 @@
         <v>52</v>
       </c>
       <c r="K191" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -8681,7 +8696,7 @@
         <v>52</v>
       </c>
       <c r="K192" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -8713,10 +8728,10 @@
         <v>51</v>
       </c>
       <c r="J193" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K193" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -8751,7 +8766,7 @@
         <v>52</v>
       </c>
       <c r="K194" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8786,7 +8801,7 @@
         <v>52</v>
       </c>
       <c r="K195" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -8821,7 +8836,7 @@
         <v>52</v>
       </c>
       <c r="K196" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -8853,10 +8868,10 @@
         <v>51</v>
       </c>
       <c r="J197" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K197" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -8891,7 +8906,7 @@
         <v>52</v>
       </c>
       <c r="K198" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -8926,7 +8941,7 @@
         <v>52</v>
       </c>
       <c r="K199" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -8961,7 +8976,7 @@
         <v>52</v>
       </c>
       <c r="K200" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -8996,7 +9011,7 @@
         <v>52</v>
       </c>
       <c r="K201" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -9031,7 +9046,7 @@
         <v>52</v>
       </c>
       <c r="K202" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -9063,10 +9078,10 @@
         <v>51</v>
       </c>
       <c r="J203" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K203" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -9101,7 +9116,7 @@
         <v>52</v>
       </c>
       <c r="K204" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -9133,10 +9148,10 @@
         <v>51</v>
       </c>
       <c r="J205" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K205" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -9171,7 +9186,7 @@
         <v>52</v>
       </c>
       <c r="K206" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -9203,10 +9218,10 @@
         <v>51</v>
       </c>
       <c r="J207" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K207" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -9241,7 +9256,7 @@
         <v>52</v>
       </c>
       <c r="K208" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -9273,10 +9288,10 @@
         <v>51</v>
       </c>
       <c r="J209" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K209" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -9311,7 +9326,7 @@
         <v>52</v>
       </c>
       <c r="K210" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -9343,10 +9358,10 @@
         <v>51</v>
       </c>
       <c r="J211" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K211" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -9378,10 +9393,10 @@
         <v>51</v>
       </c>
       <c r="J212" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K212" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -9416,7 +9431,7 @@
         <v>52</v>
       </c>
       <c r="K213" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -9448,10 +9463,10 @@
         <v>51</v>
       </c>
       <c r="J214" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K214" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -9486,7 +9501,7 @@
         <v>52</v>
       </c>
       <c r="K215" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -9521,7 +9536,7 @@
         <v>52</v>
       </c>
       <c r="K216" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -9556,7 +9571,7 @@
         <v>52</v>
       </c>
       <c r="K217" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -9591,7 +9606,7 @@
         <v>52</v>
       </c>
       <c r="K218" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -9626,7 +9641,7 @@
         <v>52</v>
       </c>
       <c r="K219" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -9661,7 +9676,7 @@
         <v>52</v>
       </c>
       <c r="K220" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -9696,7 +9711,7 @@
         <v>52</v>
       </c>
       <c r="K221" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -9731,7 +9746,7 @@
         <v>52</v>
       </c>
       <c r="K222" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -9766,7 +9781,7 @@
         <v>52</v>
       </c>
       <c r="K223" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -9798,10 +9813,10 @@
         <v>51</v>
       </c>
       <c r="J224" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K224" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -9836,7 +9851,7 @@
         <v>52</v>
       </c>
       <c r="K225" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -9871,7 +9886,7 @@
         <v>52</v>
       </c>
       <c r="K226" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -9903,10 +9918,10 @@
         <v>51</v>
       </c>
       <c r="J227" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K227" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -9941,7 +9956,7 @@
         <v>52</v>
       </c>
       <c r="K228" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -9976,7 +9991,7 @@
         <v>52</v>
       </c>
       <c r="K229" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -10011,7 +10026,7 @@
         <v>52</v>
       </c>
       <c r="K230" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -10043,10 +10058,10 @@
         <v>51</v>
       </c>
       <c r="J231" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K231" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -10081,7 +10096,7 @@
         <v>52</v>
       </c>
       <c r="K232" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -10116,7 +10131,7 @@
         <v>52</v>
       </c>
       <c r="K233" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -10151,7 +10166,7 @@
         <v>52</v>
       </c>
       <c r="K234" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -10186,7 +10201,7 @@
         <v>52</v>
       </c>
       <c r="K235" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -10221,7 +10236,7 @@
         <v>52</v>
       </c>
       <c r="K236" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -10256,7 +10271,7 @@
         <v>52</v>
       </c>
       <c r="K237" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -10288,10 +10303,10 @@
         <v>51</v>
       </c>
       <c r="J238" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K238" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -10326,7 +10341,7 @@
         <v>52</v>
       </c>
       <c r="K239" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -10361,7 +10376,7 @@
         <v>52</v>
       </c>
       <c r="K240" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -10393,10 +10408,10 @@
         <v>51</v>
       </c>
       <c r="J241" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K241" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -10431,7 +10446,7 @@
         <v>52</v>
       </c>
       <c r="K242" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -10463,10 +10478,10 @@
         <v>51</v>
       </c>
       <c r="J243" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="K243" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -10501,7 +10516,7 @@
         <v>52</v>
       </c>
       <c r="K244" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -10536,7 +10551,7 @@
         <v>52</v>
       </c>
       <c r="K245" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -10571,7 +10586,7 @@
         <v>52</v>
       </c>
       <c r="K246" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -10603,10 +10618,10 @@
         <v>51</v>
       </c>
       <c r="J247" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K247" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -10638,10 +10653,10 @@
         <v>51</v>
       </c>
       <c r="J248" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K248" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -10676,7 +10691,7 @@
         <v>52</v>
       </c>
       <c r="K249" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -10711,7 +10726,7 @@
         <v>52</v>
       </c>
       <c r="K250" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -10746,7 +10761,7 @@
         <v>52</v>
       </c>
       <c r="K251" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -10778,10 +10793,10 @@
         <v>51</v>
       </c>
       <c r="J252" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K252" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -10816,7 +10831,7 @@
         <v>52</v>
       </c>
       <c r="K253" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -10848,10 +10863,10 @@
         <v>51</v>
       </c>
       <c r="J254" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="K254" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -10886,7 +10901,7 @@
         <v>52</v>
       </c>
       <c r="K255" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -10921,7 +10936,7 @@
         <v>52</v>
       </c>
       <c r="K256" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -10956,7 +10971,7 @@
         <v>52</v>
       </c>
       <c r="K257" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -10988,10 +11003,10 @@
         <v>51</v>
       </c>
       <c r="J258" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K258" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -11026,7 +11041,7 @@
         <v>52</v>
       </c>
       <c r="K259" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -11061,7 +11076,7 @@
         <v>52</v>
       </c>
       <c r="K260" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -11096,7 +11111,7 @@
         <v>52</v>
       </c>
       <c r="K261" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -11128,10 +11143,10 @@
         <v>51</v>
       </c>
       <c r="J262" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K262" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -11166,7 +11181,7 @@
         <v>52</v>
       </c>
       <c r="K263" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -11198,10 +11213,10 @@
         <v>51</v>
       </c>
       <c r="J264" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K264" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -11233,10 +11248,10 @@
         <v>51</v>
       </c>
       <c r="J265" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K265" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -11271,7 +11286,7 @@
         <v>52</v>
       </c>
       <c r="K266" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -11303,10 +11318,10 @@
         <v>51</v>
       </c>
       <c r="J267" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K267" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -11338,10 +11353,10 @@
         <v>51</v>
       </c>
       <c r="J268" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K268" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -11376,7 +11391,7 @@
         <v>52</v>
       </c>
       <c r="K269" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -11411,7 +11426,7 @@
         <v>52</v>
       </c>
       <c r="K270" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -11446,7 +11461,7 @@
         <v>52</v>
       </c>
       <c r="K271" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -11481,7 +11496,7 @@
         <v>52</v>
       </c>
       <c r="K272" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -11516,7 +11531,7 @@
         <v>52</v>
       </c>
       <c r="K273" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -11551,7 +11566,7 @@
         <v>52</v>
       </c>
       <c r="K274" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -11583,10 +11598,10 @@
         <v>51</v>
       </c>
       <c r="J275" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K275" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -11618,10 +11633,10 @@
         <v>51</v>
       </c>
       <c r="J276" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K276" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -11656,7 +11671,7 @@
         <v>52</v>
       </c>
       <c r="K277" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -11691,7 +11706,7 @@
         <v>52</v>
       </c>
       <c r="K278" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -11726,7 +11741,7 @@
         <v>52</v>
       </c>
       <c r="K279" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -11761,7 +11776,7 @@
         <v>52</v>
       </c>
       <c r="K280" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -11796,7 +11811,7 @@
         <v>52</v>
       </c>
       <c r="K281" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -11828,10 +11843,10 @@
         <v>51</v>
       </c>
       <c r="J282" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K282" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -11866,7 +11881,7 @@
         <v>52</v>
       </c>
       <c r="K283" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -11901,7 +11916,7 @@
         <v>52</v>
       </c>
       <c r="K284" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -11936,7 +11951,7 @@
         <v>52</v>
       </c>
       <c r="K285" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -11971,7 +11986,7 @@
         <v>52</v>
       </c>
       <c r="K286" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -12003,10 +12018,10 @@
         <v>51</v>
       </c>
       <c r="J287" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="K287" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -12041,7 +12056,7 @@
         <v>52</v>
       </c>
       <c r="K288" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -12073,10 +12088,10 @@
         <v>51</v>
       </c>
       <c r="J289" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="K289" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -12108,10 +12123,10 @@
         <v>51</v>
       </c>
       <c r="J290" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K290" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -12146,7 +12161,7 @@
         <v>52</v>
       </c>
       <c r="K291" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -12181,7 +12196,7 @@
         <v>52</v>
       </c>
       <c r="K292" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -12216,7 +12231,7 @@
         <v>52</v>
       </c>
       <c r="K293" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -12251,7 +12266,7 @@
         <v>52</v>
       </c>
       <c r="K294" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -12286,7 +12301,7 @@
         <v>52</v>
       </c>
       <c r="K295" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -12321,7 +12336,7 @@
         <v>52</v>
       </c>
       <c r="K296" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -12356,7 +12371,7 @@
         <v>52</v>
       </c>
       <c r="K297" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -12391,7 +12406,7 @@
         <v>52</v>
       </c>
       <c r="K298" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -12423,10 +12438,10 @@
         <v>51</v>
       </c>
       <c r="J299" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K299" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -12461,7 +12476,7 @@
         <v>52</v>
       </c>
       <c r="K300" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -12496,7 +12511,7 @@
         <v>52</v>
       </c>
       <c r="K301" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -12531,7 +12546,7 @@
         <v>52</v>
       </c>
       <c r="K302" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -12563,10 +12578,10 @@
         <v>51</v>
       </c>
       <c r="J303" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K303" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -12601,7 +12616,7 @@
         <v>52</v>
       </c>
       <c r="K304" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -12636,7 +12651,7 @@
         <v>52</v>
       </c>
       <c r="K305" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -12671,7 +12686,7 @@
         <v>52</v>
       </c>
       <c r="K306" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -12703,10 +12718,10 @@
         <v>51</v>
       </c>
       <c r="J307" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K307" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -12741,7 +12756,7 @@
         <v>52</v>
       </c>
       <c r="K308" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -12776,7 +12791,7 @@
         <v>52</v>
       </c>
       <c r="K309" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -12811,7 +12826,7 @@
         <v>52</v>
       </c>
       <c r="K310" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -12846,7 +12861,7 @@
         <v>52</v>
       </c>
       <c r="K311" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -12881,7 +12896,7 @@
         <v>52</v>
       </c>
       <c r="K312" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -12916,7 +12931,7 @@
         <v>52</v>
       </c>
       <c r="K313" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -12948,10 +12963,10 @@
         <v>51</v>
       </c>
       <c r="J314" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K314" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -12986,7 +13001,7 @@
         <v>52</v>
       </c>
       <c r="K315" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -13021,7 +13036,7 @@
         <v>52</v>
       </c>
       <c r="K316" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -13053,10 +13068,10 @@
         <v>51</v>
       </c>
       <c r="J317" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K317" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -13091,7 +13106,7 @@
         <v>52</v>
       </c>
       <c r="K318" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -13126,7 +13141,7 @@
         <v>52</v>
       </c>
       <c r="K319" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -13158,10 +13173,10 @@
         <v>51</v>
       </c>
       <c r="J320" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K320" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -13193,10 +13208,10 @@
         <v>51</v>
       </c>
       <c r="J321" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K321" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -13231,7 +13246,7 @@
         <v>52</v>
       </c>
       <c r="K322" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -13263,10 +13278,10 @@
         <v>51</v>
       </c>
       <c r="J323" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K323" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -13301,7 +13316,7 @@
         <v>52</v>
       </c>
       <c r="K324" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -13333,10 +13348,10 @@
         <v>51</v>
       </c>
       <c r="J325" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K325" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -13368,10 +13383,10 @@
         <v>51</v>
       </c>
       <c r="J326" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K326" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -13406,7 +13421,7 @@
         <v>52</v>
       </c>
       <c r="K327" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -13441,7 +13456,7 @@
         <v>52</v>
       </c>
       <c r="K328" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -13476,7 +13491,7 @@
         <v>52</v>
       </c>
       <c r="K329" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -13508,10 +13523,10 @@
         <v>51</v>
       </c>
       <c r="J330" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K330" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -13546,7 +13561,7 @@
         <v>52</v>
       </c>
       <c r="K331" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -13581,7 +13596,7 @@
         <v>52</v>
       </c>
       <c r="K332" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -13616,7 +13631,7 @@
         <v>52</v>
       </c>
       <c r="K333" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -13651,7 +13666,7 @@
         <v>52</v>
       </c>
       <c r="K334" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -13686,7 +13701,7 @@
         <v>52</v>
       </c>
       <c r="K335" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -13721,7 +13736,7 @@
         <v>52</v>
       </c>
       <c r="K336" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -13753,10 +13768,10 @@
         <v>51</v>
       </c>
       <c r="J337" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K337" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -13791,7 +13806,7 @@
         <v>52</v>
       </c>
       <c r="K338" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -13826,7 +13841,7 @@
         <v>52</v>
       </c>
       <c r="K339" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -13861,7 +13876,7 @@
         <v>52</v>
       </c>
       <c r="K340" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -13896,7 +13911,7 @@
         <v>52</v>
       </c>
       <c r="K341" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -13931,7 +13946,7 @@
         <v>52</v>
       </c>
       <c r="K342" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -13963,10 +13978,10 @@
         <v>51</v>
       </c>
       <c r="J343" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K343" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -14001,7 +14016,7 @@
         <v>52</v>
       </c>
       <c r="K344" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -14036,7 +14051,7 @@
         <v>52</v>
       </c>
       <c r="K345" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -14071,7 +14086,7 @@
         <v>52</v>
       </c>
       <c r="K346" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -14106,7 +14121,7 @@
         <v>52</v>
       </c>
       <c r="K347" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -14141,7 +14156,7 @@
         <v>52</v>
       </c>
       <c r="K348" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -14176,7 +14191,7 @@
         <v>52</v>
       </c>
       <c r="K349" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -14211,7 +14226,7 @@
         <v>52</v>
       </c>
       <c r="K350" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -14246,7 +14261,7 @@
         <v>52</v>
       </c>
       <c r="K351" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -14281,7 +14296,7 @@
         <v>52</v>
       </c>
       <c r="K352" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -14316,7 +14331,7 @@
         <v>52</v>
       </c>
       <c r="K353" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -14351,7 +14366,7 @@
         <v>52</v>
       </c>
       <c r="K354" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -14386,7 +14401,7 @@
         <v>52</v>
       </c>
       <c r="K355" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -14421,7 +14436,7 @@
         <v>52</v>
       </c>
       <c r="K356" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -14456,7 +14471,7 @@
         <v>52</v>
       </c>
       <c r="K357" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -14491,7 +14506,7 @@
         <v>52</v>
       </c>
       <c r="K358" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -14526,7 +14541,7 @@
         <v>52</v>
       </c>
       <c r="K359" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -14561,7 +14576,7 @@
         <v>52</v>
       </c>
       <c r="K360" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -14596,7 +14611,7 @@
         <v>52</v>
       </c>
       <c r="K361" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -14631,7 +14646,7 @@
         <v>52</v>
       </c>
       <c r="K362" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -14666,7 +14681,7 @@
         <v>52</v>
       </c>
       <c r="K363" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -14701,7 +14716,7 @@
         <v>52</v>
       </c>
       <c r="K364" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -14736,7 +14751,7 @@
         <v>52</v>
       </c>
       <c r="K365" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -14771,7 +14786,7 @@
         <v>52</v>
       </c>
       <c r="K366" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -14806,7 +14821,7 @@
         <v>52</v>
       </c>
       <c r="K367" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -14841,7 +14856,7 @@
         <v>52</v>
       </c>
       <c r="K368" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -14876,7 +14891,7 @@
         <v>52</v>
       </c>
       <c r="K369" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -14911,7 +14926,7 @@
         <v>52</v>
       </c>
       <c r="K370" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -14946,7 +14961,7 @@
         <v>52</v>
       </c>
       <c r="K371" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -14981,7 +14996,7 @@
         <v>52</v>
       </c>
       <c r="K372" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -15016,7 +15031,7 @@
         <v>52</v>
       </c>
       <c r="K373" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -15051,7 +15066,7 @@
         <v>52</v>
       </c>
       <c r="K374" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -15086,7 +15101,7 @@
         <v>52</v>
       </c>
       <c r="K375" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -15121,7 +15136,7 @@
         <v>52</v>
       </c>
       <c r="K376" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -15156,7 +15171,7 @@
         <v>52</v>
       </c>
       <c r="K377" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -15191,7 +15206,7 @@
         <v>52</v>
       </c>
       <c r="K378" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -15226,7 +15241,7 @@
         <v>52</v>
       </c>
       <c r="K379" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -15261,7 +15276,7 @@
         <v>52</v>
       </c>
       <c r="K380" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -15296,7 +15311,7 @@
         <v>52</v>
       </c>
       <c r="K381" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -15331,7 +15346,7 @@
         <v>52</v>
       </c>
       <c r="K382" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -15366,7 +15381,7 @@
         <v>52</v>
       </c>
       <c r="K383" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -15401,7 +15416,7 @@
         <v>52</v>
       </c>
       <c r="K384" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -15436,7 +15451,7 @@
         <v>52</v>
       </c>
       <c r="K385" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -15471,7 +15486,7 @@
         <v>52</v>
       </c>
       <c r="K386" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -15506,7 +15521,7 @@
         <v>52</v>
       </c>
       <c r="K387" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -15541,7 +15556,7 @@
         <v>52</v>
       </c>
       <c r="K388" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -15576,7 +15591,7 @@
         <v>52</v>
       </c>
       <c r="K389" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -15611,7 +15626,7 @@
         <v>52</v>
       </c>
       <c r="K390" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -15646,7 +15661,7 @@
         <v>52</v>
       </c>
       <c r="K391" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -15678,10 +15693,10 @@
         <v>51</v>
       </c>
       <c r="J392" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K392" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -15716,7 +15731,7 @@
         <v>52</v>
       </c>
       <c r="K393" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -15751,7 +15766,7 @@
         <v>52</v>
       </c>
       <c r="K394" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -15786,7 +15801,7 @@
         <v>52</v>
       </c>
       <c r="K395" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -15821,7 +15836,7 @@
         <v>52</v>
       </c>
       <c r="K396" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -15856,7 +15871,7 @@
         <v>52</v>
       </c>
       <c r="K397" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -15891,7 +15906,7 @@
         <v>52</v>
       </c>
       <c r="K398" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -15926,7 +15941,7 @@
         <v>52</v>
       </c>
       <c r="K399" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -15961,7 +15976,7 @@
         <v>52</v>
       </c>
       <c r="K400" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -15996,7 +16011,7 @@
         <v>52</v>
       </c>
       <c r="K401" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -16031,7 +16046,7 @@
         <v>52</v>
       </c>
       <c r="K402" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -16066,7 +16081,7 @@
         <v>52</v>
       </c>
       <c r="K403" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -16101,7 +16116,7 @@
         <v>52</v>
       </c>
       <c r="K404" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -16136,7 +16151,7 @@
         <v>52</v>
       </c>
       <c r="K405" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -16171,7 +16186,7 @@
         <v>52</v>
       </c>
       <c r="K406" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -16206,7 +16221,7 @@
         <v>52</v>
       </c>
       <c r="K407" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -16241,7 +16256,7 @@
         <v>52</v>
       </c>
       <c r="K408" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -16276,7 +16291,7 @@
         <v>52</v>
       </c>
       <c r="K409" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -16311,7 +16326,7 @@
         <v>52</v>
       </c>
       <c r="K410" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -16346,7 +16361,7 @@
         <v>52</v>
       </c>
       <c r="K411" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
+++ b/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="516">
   <si>
     <t>id_cliente</t>
   </si>
@@ -175,10 +175,10 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 44.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.5 meses sem comprar</t>
+    <t>INATIVO - 44.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 44.3 meses sem comprar</t>
@@ -187,7 +187,7 @@
     <t>INATIVO - 37.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.2 meses sem comprar</t>
+    <t>INATIVO - 38.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 41.3 meses sem comprar</t>
@@ -196,22 +196,19 @@
     <t>INATIVO - 49.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 44.8 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 28.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 38.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 47.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 47.7 meses sem comprar</t>
+    <t>INATIVO - 47.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 47.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 19.8 meses sem comprar</t>
@@ -220,298 +217,283 @@
     <t>INATIVO - 48.1 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 10.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 47.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.4 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 10.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 17.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 45.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 47.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
+    <t>INATIVO - 11.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 10.0 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 11.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 9.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.5 meses sem comprar</t>
@@ -2046,7 +2028,7 @@
         <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2081,7 +2063,7 @@
         <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2116,7 +2098,7 @@
         <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2151,7 +2133,7 @@
         <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2186,7 +2168,7 @@
         <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2221,7 +2203,7 @@
         <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2256,7 +2238,7 @@
         <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2291,7 +2273,7 @@
         <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2326,7 +2308,7 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2361,7 +2343,7 @@
         <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2393,10 +2375,10 @@
         <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2428,10 +2410,10 @@
         <v>51</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K13" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2463,10 +2445,10 @@
         <v>51</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K14" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2498,10 +2480,10 @@
         <v>51</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K15" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2533,10 +2515,10 @@
         <v>51</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K16" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2568,10 +2550,10 @@
         <v>51</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2603,10 +2585,10 @@
         <v>51</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K18" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2638,10 +2620,10 @@
         <v>51</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2673,10 +2655,10 @@
         <v>51</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2708,10 +2690,10 @@
         <v>51</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K21" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2743,10 +2725,10 @@
         <v>51</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2778,10 +2760,10 @@
         <v>51</v>
       </c>
       <c r="J23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K23" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2816,7 +2798,7 @@
         <v>52</v>
       </c>
       <c r="K24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2848,10 +2830,10 @@
         <v>51</v>
       </c>
       <c r="J25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K25" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2883,10 +2865,10 @@
         <v>51</v>
       </c>
       <c r="J26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K26" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2921,7 +2903,7 @@
         <v>52</v>
       </c>
       <c r="K27" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2953,10 +2935,10 @@
         <v>51</v>
       </c>
       <c r="J28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K28" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2991,7 +2973,7 @@
         <v>52</v>
       </c>
       <c r="K29" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3026,7 +3008,7 @@
         <v>52</v>
       </c>
       <c r="K30" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3061,7 +3043,7 @@
         <v>52</v>
       </c>
       <c r="K31" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3093,10 +3075,10 @@
         <v>51</v>
       </c>
       <c r="J32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K32" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3128,10 +3110,10 @@
         <v>51</v>
       </c>
       <c r="J33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K33" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3163,10 +3145,10 @@
         <v>51</v>
       </c>
       <c r="J34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K34" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3198,10 +3180,10 @@
         <v>51</v>
       </c>
       <c r="J35" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="K35" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3236,7 +3218,7 @@
         <v>52</v>
       </c>
       <c r="K36" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3271,7 +3253,7 @@
         <v>52</v>
       </c>
       <c r="K37" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3306,7 +3288,7 @@
         <v>52</v>
       </c>
       <c r="K38" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3338,10 +3320,10 @@
         <v>51</v>
       </c>
       <c r="J39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K39" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3373,10 +3355,10 @@
         <v>51</v>
       </c>
       <c r="J40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3411,7 +3393,7 @@
         <v>52</v>
       </c>
       <c r="K41" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3443,10 +3425,10 @@
         <v>51</v>
       </c>
       <c r="J42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3481,7 +3463,7 @@
         <v>52</v>
       </c>
       <c r="K43" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3513,10 +3495,10 @@
         <v>51</v>
       </c>
       <c r="J44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3551,7 +3533,7 @@
         <v>52</v>
       </c>
       <c r="K45" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3586,7 +3568,7 @@
         <v>52</v>
       </c>
       <c r="K46" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3621,7 +3603,7 @@
         <v>52</v>
       </c>
       <c r="K47" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3656,7 +3638,7 @@
         <v>52</v>
       </c>
       <c r="K48" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3688,10 +3670,10 @@
         <v>51</v>
       </c>
       <c r="J49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K49" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3726,7 +3708,7 @@
         <v>52</v>
       </c>
       <c r="K50" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3761,7 +3743,7 @@
         <v>52</v>
       </c>
       <c r="K51" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3793,10 +3775,10 @@
         <v>51</v>
       </c>
       <c r="J52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3828,10 +3810,10 @@
         <v>51</v>
       </c>
       <c r="J53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3863,10 +3845,10 @@
         <v>51</v>
       </c>
       <c r="J54" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K54" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3898,10 +3880,10 @@
         <v>51</v>
       </c>
       <c r="J55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K55" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3933,10 +3915,10 @@
         <v>51</v>
       </c>
       <c r="J56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K56" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3968,10 +3950,10 @@
         <v>51</v>
       </c>
       <c r="J57" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -4003,10 +3985,10 @@
         <v>51</v>
       </c>
       <c r="J58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K58" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4038,10 +4020,10 @@
         <v>51</v>
       </c>
       <c r="J59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K59" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4073,10 +4055,10 @@
         <v>51</v>
       </c>
       <c r="J60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K60" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4108,10 +4090,10 @@
         <v>51</v>
       </c>
       <c r="J61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4143,10 +4125,10 @@
         <v>51</v>
       </c>
       <c r="J62" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K62" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4178,10 +4160,10 @@
         <v>51</v>
       </c>
       <c r="J63" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K63" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4213,10 +4195,10 @@
         <v>51</v>
       </c>
       <c r="J64" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K64" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4251,7 +4233,7 @@
         <v>52</v>
       </c>
       <c r="K65" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4283,10 +4265,10 @@
         <v>51</v>
       </c>
       <c r="J66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K66" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4321,7 +4303,7 @@
         <v>52</v>
       </c>
       <c r="K67" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4353,10 +4335,10 @@
         <v>51</v>
       </c>
       <c r="J68" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K68" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4388,10 +4370,10 @@
         <v>51</v>
       </c>
       <c r="J69" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K69" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4423,10 +4405,10 @@
         <v>51</v>
       </c>
       <c r="J70" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4461,7 +4443,7 @@
         <v>52</v>
       </c>
       <c r="K71" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4493,10 +4475,10 @@
         <v>51</v>
       </c>
       <c r="J72" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4531,7 +4513,7 @@
         <v>52</v>
       </c>
       <c r="K73" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4563,10 +4545,10 @@
         <v>51</v>
       </c>
       <c r="J74" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K74" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4598,10 +4580,10 @@
         <v>51</v>
       </c>
       <c r="J75" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K75" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4636,7 +4618,7 @@
         <v>52</v>
       </c>
       <c r="K76" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4668,10 +4650,10 @@
         <v>51</v>
       </c>
       <c r="J77" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K77" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4703,10 +4685,10 @@
         <v>51</v>
       </c>
       <c r="J78" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K78" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4741,7 +4723,7 @@
         <v>52</v>
       </c>
       <c r="K79" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4773,10 +4755,10 @@
         <v>51</v>
       </c>
       <c r="J80" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K80" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4811,7 +4793,7 @@
         <v>52</v>
       </c>
       <c r="K81" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4843,10 +4825,10 @@
         <v>51</v>
       </c>
       <c r="J82" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K82" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4881,7 +4863,7 @@
         <v>52</v>
       </c>
       <c r="K83" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4913,10 +4895,10 @@
         <v>51</v>
       </c>
       <c r="J84" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K84" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4948,10 +4930,10 @@
         <v>51</v>
       </c>
       <c r="J85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K85" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4986,7 +4968,7 @@
         <v>52</v>
       </c>
       <c r="K86" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5018,10 +5000,10 @@
         <v>51</v>
       </c>
       <c r="J87" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K87" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -5053,10 +5035,10 @@
         <v>51</v>
       </c>
       <c r="J88" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K88" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5088,10 +5070,10 @@
         <v>51</v>
       </c>
       <c r="J89" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K89" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5126,7 +5108,7 @@
         <v>52</v>
       </c>
       <c r="K90" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5158,10 +5140,10 @@
         <v>51</v>
       </c>
       <c r="J91" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K91" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5196,7 +5178,7 @@
         <v>52</v>
       </c>
       <c r="K92" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5231,7 +5213,7 @@
         <v>52</v>
       </c>
       <c r="K93" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5263,10 +5245,10 @@
         <v>51</v>
       </c>
       <c r="J94" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K94" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5301,7 +5283,7 @@
         <v>52</v>
       </c>
       <c r="K95" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5333,10 +5315,10 @@
         <v>51</v>
       </c>
       <c r="J96" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="K96" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5368,10 +5350,10 @@
         <v>51</v>
       </c>
       <c r="J97" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K97" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5403,10 +5385,10 @@
         <v>51</v>
       </c>
       <c r="J98" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K98" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5438,10 +5420,10 @@
         <v>51</v>
       </c>
       <c r="J99" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K99" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5476,7 +5458,7 @@
         <v>52</v>
       </c>
       <c r="K100" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5511,7 +5493,7 @@
         <v>52</v>
       </c>
       <c r="K101" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5543,10 +5525,10 @@
         <v>51</v>
       </c>
       <c r="J102" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K102" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5578,10 +5560,10 @@
         <v>51</v>
       </c>
       <c r="J103" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K103" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5616,7 +5598,7 @@
         <v>52</v>
       </c>
       <c r="K104" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5648,10 +5630,10 @@
         <v>51</v>
       </c>
       <c r="J105" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K105" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5683,10 +5665,10 @@
         <v>51</v>
       </c>
       <c r="J106" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K106" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5718,10 +5700,10 @@
         <v>51</v>
       </c>
       <c r="J107" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="K107" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5756,7 +5738,7 @@
         <v>52</v>
       </c>
       <c r="K108" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5788,10 +5770,10 @@
         <v>51</v>
       </c>
       <c r="J109" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K109" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5823,10 +5805,10 @@
         <v>51</v>
       </c>
       <c r="J110" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K110" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5858,10 +5840,10 @@
         <v>51</v>
       </c>
       <c r="J111" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K111" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5893,10 +5875,10 @@
         <v>51</v>
       </c>
       <c r="J112" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K112" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5928,10 +5910,10 @@
         <v>51</v>
       </c>
       <c r="J113" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K113" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5963,10 +5945,10 @@
         <v>51</v>
       </c>
       <c r="J114" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K114" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -5998,10 +5980,10 @@
         <v>51</v>
       </c>
       <c r="J115" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K115" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6036,7 +6018,7 @@
         <v>52</v>
       </c>
       <c r="K116" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -6068,10 +6050,10 @@
         <v>51</v>
       </c>
       <c r="J117" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K117" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6106,7 +6088,7 @@
         <v>52</v>
       </c>
       <c r="K118" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6141,7 +6123,7 @@
         <v>52</v>
       </c>
       <c r="K119" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6173,10 +6155,10 @@
         <v>51</v>
       </c>
       <c r="J120" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K120" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6208,10 +6190,10 @@
         <v>51</v>
       </c>
       <c r="J121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K121" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6246,7 +6228,7 @@
         <v>52</v>
       </c>
       <c r="K122" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6281,7 +6263,7 @@
         <v>52</v>
       </c>
       <c r="K123" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6313,10 +6295,10 @@
         <v>51</v>
       </c>
       <c r="J124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K124" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6348,10 +6330,10 @@
         <v>51</v>
       </c>
       <c r="J125" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K125" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6386,7 +6368,7 @@
         <v>52</v>
       </c>
       <c r="K126" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6418,10 +6400,10 @@
         <v>51</v>
       </c>
       <c r="J127" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K127" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6456,7 +6438,7 @@
         <v>52</v>
       </c>
       <c r="K128" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6491,7 +6473,7 @@
         <v>52</v>
       </c>
       <c r="K129" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6526,7 +6508,7 @@
         <v>52</v>
       </c>
       <c r="K130" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6558,10 +6540,10 @@
         <v>51</v>
       </c>
       <c r="J131" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K131" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6593,10 +6575,10 @@
         <v>51</v>
       </c>
       <c r="J132" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K132" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6631,7 +6613,7 @@
         <v>52</v>
       </c>
       <c r="K133" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6663,10 +6645,10 @@
         <v>51</v>
       </c>
       <c r="J134" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K134" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -6698,10 +6680,10 @@
         <v>51</v>
       </c>
       <c r="J135" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K135" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -6733,10 +6715,10 @@
         <v>51</v>
       </c>
       <c r="J136" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K136" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6768,10 +6750,10 @@
         <v>51</v>
       </c>
       <c r="J137" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K137" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6806,7 +6788,7 @@
         <v>52</v>
       </c>
       <c r="K138" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6838,10 +6820,10 @@
         <v>51</v>
       </c>
       <c r="J139" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="K139" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6876,7 +6858,7 @@
         <v>52</v>
       </c>
       <c r="K140" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6911,7 +6893,7 @@
         <v>52</v>
       </c>
       <c r="K141" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6943,10 +6925,10 @@
         <v>51</v>
       </c>
       <c r="J142" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K142" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -6981,7 +6963,7 @@
         <v>52</v>
       </c>
       <c r="K143" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -7016,7 +6998,7 @@
         <v>52</v>
       </c>
       <c r="K144" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -7051,7 +7033,7 @@
         <v>52</v>
       </c>
       <c r="K145" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -7086,7 +7068,7 @@
         <v>52</v>
       </c>
       <c r="K146" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7121,7 +7103,7 @@
         <v>52</v>
       </c>
       <c r="K147" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7153,10 +7135,10 @@
         <v>51</v>
       </c>
       <c r="J148" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K148" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7191,7 +7173,7 @@
         <v>52</v>
       </c>
       <c r="K149" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7226,7 +7208,7 @@
         <v>52</v>
       </c>
       <c r="K150" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7258,10 +7240,10 @@
         <v>51</v>
       </c>
       <c r="J151" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K151" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7296,7 +7278,7 @@
         <v>52</v>
       </c>
       <c r="K152" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7331,7 +7313,7 @@
         <v>52</v>
       </c>
       <c r="K153" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7366,7 +7348,7 @@
         <v>52</v>
       </c>
       <c r="K154" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7401,7 +7383,7 @@
         <v>52</v>
       </c>
       <c r="K155" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7436,7 +7418,7 @@
         <v>52</v>
       </c>
       <c r="K156" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -7471,7 +7453,7 @@
         <v>52</v>
       </c>
       <c r="K157" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -7506,7 +7488,7 @@
         <v>52</v>
       </c>
       <c r="K158" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -7538,10 +7520,10 @@
         <v>51</v>
       </c>
       <c r="J159" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K159" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -7576,7 +7558,7 @@
         <v>52</v>
       </c>
       <c r="K160" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -7611,7 +7593,7 @@
         <v>52</v>
       </c>
       <c r="K161" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7643,10 +7625,10 @@
         <v>51</v>
       </c>
       <c r="J162" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="K162" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7678,10 +7660,10 @@
         <v>51</v>
       </c>
       <c r="J163" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K163" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -7716,7 +7698,7 @@
         <v>52</v>
       </c>
       <c r="K164" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7751,7 +7733,7 @@
         <v>52</v>
       </c>
       <c r="K165" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7786,7 +7768,7 @@
         <v>52</v>
       </c>
       <c r="K166" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7821,7 +7803,7 @@
         <v>52</v>
       </c>
       <c r="K167" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -7856,7 +7838,7 @@
         <v>52</v>
       </c>
       <c r="K168" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7891,7 +7873,7 @@
         <v>52</v>
       </c>
       <c r="K169" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -7923,10 +7905,10 @@
         <v>51</v>
       </c>
       <c r="J170" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K170" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7961,7 +7943,7 @@
         <v>52</v>
       </c>
       <c r="K171" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -7996,7 +7978,7 @@
         <v>52</v>
       </c>
       <c r="K172" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -8031,7 +8013,7 @@
         <v>52</v>
       </c>
       <c r="K173" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -8066,7 +8048,7 @@
         <v>52</v>
       </c>
       <c r="K174" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -8101,7 +8083,7 @@
         <v>52</v>
       </c>
       <c r="K175" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -8136,7 +8118,7 @@
         <v>52</v>
       </c>
       <c r="K176" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -8171,7 +8153,7 @@
         <v>52</v>
       </c>
       <c r="K177" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -8206,7 +8188,7 @@
         <v>52</v>
       </c>
       <c r="K178" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -8238,10 +8220,10 @@
         <v>51</v>
       </c>
       <c r="J179" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K179" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -8276,7 +8258,7 @@
         <v>52</v>
       </c>
       <c r="K180" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -8311,7 +8293,7 @@
         <v>52</v>
       </c>
       <c r="K181" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -8346,7 +8328,7 @@
         <v>52</v>
       </c>
       <c r="K182" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -8381,7 +8363,7 @@
         <v>52</v>
       </c>
       <c r="K183" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -8416,7 +8398,7 @@
         <v>52</v>
       </c>
       <c r="K184" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -8448,10 +8430,10 @@
         <v>51</v>
       </c>
       <c r="J185" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K185" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -8483,10 +8465,10 @@
         <v>51</v>
       </c>
       <c r="J186" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K186" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -8518,10 +8500,10 @@
         <v>51</v>
       </c>
       <c r="J187" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K187" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -8556,7 +8538,7 @@
         <v>52</v>
       </c>
       <c r="K188" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -8591,7 +8573,7 @@
         <v>52</v>
       </c>
       <c r="K189" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -8626,7 +8608,7 @@
         <v>52</v>
       </c>
       <c r="K190" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -8661,7 +8643,7 @@
         <v>52</v>
       </c>
       <c r="K191" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -8696,7 +8678,7 @@
         <v>52</v>
       </c>
       <c r="K192" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -8728,10 +8710,10 @@
         <v>51</v>
       </c>
       <c r="J193" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K193" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -8766,7 +8748,7 @@
         <v>52</v>
       </c>
       <c r="K194" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8801,7 +8783,7 @@
         <v>52</v>
       </c>
       <c r="K195" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -8836,7 +8818,7 @@
         <v>52</v>
       </c>
       <c r="K196" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -8868,10 +8850,10 @@
         <v>51</v>
       </c>
       <c r="J197" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K197" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -8906,7 +8888,7 @@
         <v>52</v>
       </c>
       <c r="K198" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -8941,7 +8923,7 @@
         <v>52</v>
       </c>
       <c r="K199" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -8976,7 +8958,7 @@
         <v>52</v>
       </c>
       <c r="K200" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -9011,7 +8993,7 @@
         <v>52</v>
       </c>
       <c r="K201" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -9046,7 +9028,7 @@
         <v>52</v>
       </c>
       <c r="K202" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -9078,10 +9060,10 @@
         <v>51</v>
       </c>
       <c r="J203" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K203" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -9116,7 +9098,7 @@
         <v>52</v>
       </c>
       <c r="K204" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -9148,10 +9130,10 @@
         <v>51</v>
       </c>
       <c r="J205" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K205" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -9186,7 +9168,7 @@
         <v>52</v>
       </c>
       <c r="K206" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -9218,10 +9200,10 @@
         <v>51</v>
       </c>
       <c r="J207" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K207" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -9256,7 +9238,7 @@
         <v>52</v>
       </c>
       <c r="K208" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -9288,10 +9270,10 @@
         <v>51</v>
       </c>
       <c r="J209" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K209" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -9326,7 +9308,7 @@
         <v>52</v>
       </c>
       <c r="K210" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -9358,10 +9340,10 @@
         <v>51</v>
       </c>
       <c r="J211" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K211" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -9393,10 +9375,10 @@
         <v>51</v>
       </c>
       <c r="J212" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K212" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -9431,7 +9413,7 @@
         <v>52</v>
       </c>
       <c r="K213" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -9463,10 +9445,10 @@
         <v>51</v>
       </c>
       <c r="J214" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K214" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -9501,7 +9483,7 @@
         <v>52</v>
       </c>
       <c r="K215" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -9536,7 +9518,7 @@
         <v>52</v>
       </c>
       <c r="K216" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -9571,7 +9553,7 @@
         <v>52</v>
       </c>
       <c r="K217" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -9606,7 +9588,7 @@
         <v>52</v>
       </c>
       <c r="K218" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -9641,7 +9623,7 @@
         <v>52</v>
       </c>
       <c r="K219" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -9676,7 +9658,7 @@
         <v>52</v>
       </c>
       <c r="K220" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -9711,7 +9693,7 @@
         <v>52</v>
       </c>
       <c r="K221" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -9746,7 +9728,7 @@
         <v>52</v>
       </c>
       <c r="K222" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -9781,7 +9763,7 @@
         <v>52</v>
       </c>
       <c r="K223" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -9813,10 +9795,10 @@
         <v>51</v>
       </c>
       <c r="J224" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K224" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -9851,7 +9833,7 @@
         <v>52</v>
       </c>
       <c r="K225" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -9886,7 +9868,7 @@
         <v>52</v>
       </c>
       <c r="K226" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -9918,10 +9900,10 @@
         <v>51</v>
       </c>
       <c r="J227" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K227" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -9956,7 +9938,7 @@
         <v>52</v>
       </c>
       <c r="K228" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -9991,7 +9973,7 @@
         <v>52</v>
       </c>
       <c r="K229" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -10026,7 +10008,7 @@
         <v>52</v>
       </c>
       <c r="K230" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -10058,10 +10040,10 @@
         <v>51</v>
       </c>
       <c r="J231" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K231" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -10096,7 +10078,7 @@
         <v>52</v>
       </c>
       <c r="K232" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -10131,7 +10113,7 @@
         <v>52</v>
       </c>
       <c r="K233" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -10166,7 +10148,7 @@
         <v>52</v>
       </c>
       <c r="K234" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -10201,7 +10183,7 @@
         <v>52</v>
       </c>
       <c r="K235" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -10236,7 +10218,7 @@
         <v>52</v>
       </c>
       <c r="K236" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -10271,7 +10253,7 @@
         <v>52</v>
       </c>
       <c r="K237" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -10303,10 +10285,10 @@
         <v>51</v>
       </c>
       <c r="J238" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="K238" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -10341,7 +10323,7 @@
         <v>52</v>
       </c>
       <c r="K239" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -10376,7 +10358,7 @@
         <v>52</v>
       </c>
       <c r="K240" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -10408,10 +10390,10 @@
         <v>51</v>
       </c>
       <c r="J241" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K241" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -10446,7 +10428,7 @@
         <v>52</v>
       </c>
       <c r="K242" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -10478,10 +10460,10 @@
         <v>51</v>
       </c>
       <c r="J243" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="K243" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -10516,7 +10498,7 @@
         <v>52</v>
       </c>
       <c r="K244" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -10551,7 +10533,7 @@
         <v>52</v>
       </c>
       <c r="K245" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -10586,7 +10568,7 @@
         <v>52</v>
       </c>
       <c r="K246" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -10618,10 +10600,10 @@
         <v>51</v>
       </c>
       <c r="J247" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K247" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -10653,10 +10635,10 @@
         <v>51</v>
       </c>
       <c r="J248" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K248" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -10691,7 +10673,7 @@
         <v>52</v>
       </c>
       <c r="K249" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -10726,7 +10708,7 @@
         <v>52</v>
       </c>
       <c r="K250" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -10761,7 +10743,7 @@
         <v>52</v>
       </c>
       <c r="K251" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -10793,10 +10775,10 @@
         <v>51</v>
       </c>
       <c r="J252" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K252" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -10831,7 +10813,7 @@
         <v>52</v>
       </c>
       <c r="K253" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -10863,10 +10845,10 @@
         <v>51</v>
       </c>
       <c r="J254" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K254" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -10901,7 +10883,7 @@
         <v>52</v>
       </c>
       <c r="K255" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -10936,7 +10918,7 @@
         <v>52</v>
       </c>
       <c r="K256" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -10971,7 +10953,7 @@
         <v>52</v>
       </c>
       <c r="K257" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -11003,10 +10985,10 @@
         <v>51</v>
       </c>
       <c r="J258" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="K258" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -11041,7 +11023,7 @@
         <v>52</v>
       </c>
       <c r="K259" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -11076,7 +11058,7 @@
         <v>52</v>
       </c>
       <c r="K260" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -11111,7 +11093,7 @@
         <v>52</v>
       </c>
       <c r="K261" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -11143,10 +11125,10 @@
         <v>51</v>
       </c>
       <c r="J262" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K262" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -11181,7 +11163,7 @@
         <v>52</v>
       </c>
       <c r="K263" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -11213,10 +11195,10 @@
         <v>51</v>
       </c>
       <c r="J264" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K264" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -11248,10 +11230,10 @@
         <v>51</v>
       </c>
       <c r="J265" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K265" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -11286,7 +11268,7 @@
         <v>52</v>
       </c>
       <c r="K266" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -11318,10 +11300,10 @@
         <v>51</v>
       </c>
       <c r="J267" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K267" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -11353,10 +11335,10 @@
         <v>51</v>
       </c>
       <c r="J268" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K268" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -11391,7 +11373,7 @@
         <v>52</v>
       </c>
       <c r="K269" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -11426,7 +11408,7 @@
         <v>52</v>
       </c>
       <c r="K270" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -11461,7 +11443,7 @@
         <v>52</v>
       </c>
       <c r="K271" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -11496,7 +11478,7 @@
         <v>52</v>
       </c>
       <c r="K272" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -11531,7 +11513,7 @@
         <v>52</v>
       </c>
       <c r="K273" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -11566,7 +11548,7 @@
         <v>52</v>
       </c>
       <c r="K274" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -11598,10 +11580,10 @@
         <v>51</v>
       </c>
       <c r="J275" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K275" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -11633,10 +11615,10 @@
         <v>51</v>
       </c>
       <c r="J276" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K276" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -11671,7 +11653,7 @@
         <v>52</v>
       </c>
       <c r="K277" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -11706,7 +11688,7 @@
         <v>52</v>
       </c>
       <c r="K278" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -11741,7 +11723,7 @@
         <v>52</v>
       </c>
       <c r="K279" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -11776,7 +11758,7 @@
         <v>52</v>
       </c>
       <c r="K280" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -11811,7 +11793,7 @@
         <v>52</v>
       </c>
       <c r="K281" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -11843,10 +11825,10 @@
         <v>51</v>
       </c>
       <c r="J282" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K282" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -11881,7 +11863,7 @@
         <v>52</v>
       </c>
       <c r="K283" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -11916,7 +11898,7 @@
         <v>52</v>
       </c>
       <c r="K284" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -11951,7 +11933,7 @@
         <v>52</v>
       </c>
       <c r="K285" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -11986,7 +11968,7 @@
         <v>52</v>
       </c>
       <c r="K286" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -12018,10 +12000,10 @@
         <v>51</v>
       </c>
       <c r="J287" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="K287" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -12056,7 +12038,7 @@
         <v>52</v>
       </c>
       <c r="K288" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -12088,10 +12070,10 @@
         <v>51</v>
       </c>
       <c r="J289" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="K289" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -12123,10 +12105,10 @@
         <v>51</v>
       </c>
       <c r="J290" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K290" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -12161,7 +12143,7 @@
         <v>52</v>
       </c>
       <c r="K291" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -12196,7 +12178,7 @@
         <v>52</v>
       </c>
       <c r="K292" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -12231,7 +12213,7 @@
         <v>52</v>
       </c>
       <c r="K293" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -12266,7 +12248,7 @@
         <v>52</v>
       </c>
       <c r="K294" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -12301,7 +12283,7 @@
         <v>52</v>
       </c>
       <c r="K295" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -12336,7 +12318,7 @@
         <v>52</v>
       </c>
       <c r="K296" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -12371,7 +12353,7 @@
         <v>52</v>
       </c>
       <c r="K297" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -12406,7 +12388,7 @@
         <v>52</v>
       </c>
       <c r="K298" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -12438,10 +12420,10 @@
         <v>51</v>
       </c>
       <c r="J299" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K299" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -12476,7 +12458,7 @@
         <v>52</v>
       </c>
       <c r="K300" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -12511,7 +12493,7 @@
         <v>52</v>
       </c>
       <c r="K301" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -12546,7 +12528,7 @@
         <v>52</v>
       </c>
       <c r="K302" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -12578,10 +12560,10 @@
         <v>51</v>
       </c>
       <c r="J303" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K303" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -12616,7 +12598,7 @@
         <v>52</v>
       </c>
       <c r="K304" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -12651,7 +12633,7 @@
         <v>52</v>
       </c>
       <c r="K305" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -12686,7 +12668,7 @@
         <v>52</v>
       </c>
       <c r="K306" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -12718,10 +12700,10 @@
         <v>51</v>
       </c>
       <c r="J307" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="K307" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -12756,7 +12738,7 @@
         <v>52</v>
       </c>
       <c r="K308" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -12791,7 +12773,7 @@
         <v>52</v>
       </c>
       <c r="K309" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -12826,7 +12808,7 @@
         <v>52</v>
       </c>
       <c r="K310" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -12861,7 +12843,7 @@
         <v>52</v>
       </c>
       <c r="K311" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -12896,7 +12878,7 @@
         <v>52</v>
       </c>
       <c r="K312" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -12931,7 +12913,7 @@
         <v>52</v>
       </c>
       <c r="K313" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -12963,10 +12945,10 @@
         <v>51</v>
       </c>
       <c r="J314" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K314" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -13001,7 +12983,7 @@
         <v>52</v>
       </c>
       <c r="K315" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -13036,7 +13018,7 @@
         <v>52</v>
       </c>
       <c r="K316" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -13068,10 +13050,10 @@
         <v>51</v>
       </c>
       <c r="J317" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K317" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -13106,7 +13088,7 @@
         <v>52</v>
       </c>
       <c r="K318" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -13141,7 +13123,7 @@
         <v>52</v>
       </c>
       <c r="K319" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -13173,10 +13155,10 @@
         <v>51</v>
       </c>
       <c r="J320" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="K320" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -13208,10 +13190,10 @@
         <v>51</v>
       </c>
       <c r="J321" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="K321" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -13246,7 +13228,7 @@
         <v>52</v>
       </c>
       <c r="K322" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -13278,10 +13260,10 @@
         <v>51</v>
       </c>
       <c r="J323" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K323" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -13316,7 +13298,7 @@
         <v>52</v>
       </c>
       <c r="K324" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -13348,10 +13330,10 @@
         <v>51</v>
       </c>
       <c r="J325" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K325" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -13383,10 +13365,10 @@
         <v>51</v>
       </c>
       <c r="J326" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="K326" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -13421,7 +13403,7 @@
         <v>52</v>
       </c>
       <c r="K327" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -13456,7 +13438,7 @@
         <v>52</v>
       </c>
       <c r="K328" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -13491,7 +13473,7 @@
         <v>52</v>
       </c>
       <c r="K329" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -13523,10 +13505,10 @@
         <v>51</v>
       </c>
       <c r="J330" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K330" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -13561,7 +13543,7 @@
         <v>52</v>
       </c>
       <c r="K331" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -13596,7 +13578,7 @@
         <v>52</v>
       </c>
       <c r="K332" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -13631,7 +13613,7 @@
         <v>52</v>
       </c>
       <c r="K333" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -13666,7 +13648,7 @@
         <v>52</v>
       </c>
       <c r="K334" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -13701,7 +13683,7 @@
         <v>52</v>
       </c>
       <c r="K335" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -13736,7 +13718,7 @@
         <v>52</v>
       </c>
       <c r="K336" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -13768,10 +13750,10 @@
         <v>51</v>
       </c>
       <c r="J337" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K337" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -13806,7 +13788,7 @@
         <v>52</v>
       </c>
       <c r="K338" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -13841,7 +13823,7 @@
         <v>52</v>
       </c>
       <c r="K339" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -13876,7 +13858,7 @@
         <v>52</v>
       </c>
       <c r="K340" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -13911,7 +13893,7 @@
         <v>52</v>
       </c>
       <c r="K341" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -13946,7 +13928,7 @@
         <v>52</v>
       </c>
       <c r="K342" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -13978,10 +13960,10 @@
         <v>51</v>
       </c>
       <c r="J343" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K343" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -14016,7 +13998,7 @@
         <v>52</v>
       </c>
       <c r="K344" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -14051,7 +14033,7 @@
         <v>52</v>
       </c>
       <c r="K345" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -14086,7 +14068,7 @@
         <v>52</v>
       </c>
       <c r="K346" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -14121,7 +14103,7 @@
         <v>52</v>
       </c>
       <c r="K347" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -14156,7 +14138,7 @@
         <v>52</v>
       </c>
       <c r="K348" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -14191,7 +14173,7 @@
         <v>52</v>
       </c>
       <c r="K349" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -14226,7 +14208,7 @@
         <v>52</v>
       </c>
       <c r="K350" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -14261,7 +14243,7 @@
         <v>52</v>
       </c>
       <c r="K351" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -14296,7 +14278,7 @@
         <v>52</v>
       </c>
       <c r="K352" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -14331,7 +14313,7 @@
         <v>52</v>
       </c>
       <c r="K353" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -14366,7 +14348,7 @@
         <v>52</v>
       </c>
       <c r="K354" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -14401,7 +14383,7 @@
         <v>52</v>
       </c>
       <c r="K355" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -14436,7 +14418,7 @@
         <v>52</v>
       </c>
       <c r="K356" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -14471,7 +14453,7 @@
         <v>52</v>
       </c>
       <c r="K357" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -14506,7 +14488,7 @@
         <v>52</v>
       </c>
       <c r="K358" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -14541,7 +14523,7 @@
         <v>52</v>
       </c>
       <c r="K359" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -14576,7 +14558,7 @@
         <v>52</v>
       </c>
       <c r="K360" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -14611,7 +14593,7 @@
         <v>52</v>
       </c>
       <c r="K361" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -14646,7 +14628,7 @@
         <v>52</v>
       </c>
       <c r="K362" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -14681,7 +14663,7 @@
         <v>52</v>
       </c>
       <c r="K363" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -14716,7 +14698,7 @@
         <v>52</v>
       </c>
       <c r="K364" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -14751,7 +14733,7 @@
         <v>52</v>
       </c>
       <c r="K365" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -14786,7 +14768,7 @@
         <v>52</v>
       </c>
       <c r="K366" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -14821,7 +14803,7 @@
         <v>52</v>
       </c>
       <c r="K367" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -14856,7 +14838,7 @@
         <v>52</v>
       </c>
       <c r="K368" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -14891,7 +14873,7 @@
         <v>52</v>
       </c>
       <c r="K369" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -14926,7 +14908,7 @@
         <v>52</v>
       </c>
       <c r="K370" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -14961,7 +14943,7 @@
         <v>52</v>
       </c>
       <c r="K371" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -14996,7 +14978,7 @@
         <v>52</v>
       </c>
       <c r="K372" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -15031,7 +15013,7 @@
         <v>52</v>
       </c>
       <c r="K373" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -15066,7 +15048,7 @@
         <v>52</v>
       </c>
       <c r="K374" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -15101,7 +15083,7 @@
         <v>52</v>
       </c>
       <c r="K375" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -15136,7 +15118,7 @@
         <v>52</v>
       </c>
       <c r="K376" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -15171,7 +15153,7 @@
         <v>52</v>
       </c>
       <c r="K377" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -15206,7 +15188,7 @@
         <v>52</v>
       </c>
       <c r="K378" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -15241,7 +15223,7 @@
         <v>52</v>
       </c>
       <c r="K379" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -15276,7 +15258,7 @@
         <v>52</v>
       </c>
       <c r="K380" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -15311,7 +15293,7 @@
         <v>52</v>
       </c>
       <c r="K381" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -15346,7 +15328,7 @@
         <v>52</v>
       </c>
       <c r="K382" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -15381,7 +15363,7 @@
         <v>52</v>
       </c>
       <c r="K383" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -15416,7 +15398,7 @@
         <v>52</v>
       </c>
       <c r="K384" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -15451,7 +15433,7 @@
         <v>52</v>
       </c>
       <c r="K385" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -15486,7 +15468,7 @@
         <v>52</v>
       </c>
       <c r="K386" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -15521,7 +15503,7 @@
         <v>52</v>
       </c>
       <c r="K387" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -15556,7 +15538,7 @@
         <v>52</v>
       </c>
       <c r="K388" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -15591,7 +15573,7 @@
         <v>52</v>
       </c>
       <c r="K389" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -15626,7 +15608,7 @@
         <v>52</v>
       </c>
       <c r="K390" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -15661,7 +15643,7 @@
         <v>52</v>
       </c>
       <c r="K391" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -15693,10 +15675,10 @@
         <v>51</v>
       </c>
       <c r="J392" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K392" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -15731,7 +15713,7 @@
         <v>52</v>
       </c>
       <c r="K393" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -15766,7 +15748,7 @@
         <v>52</v>
       </c>
       <c r="K394" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -15801,7 +15783,7 @@
         <v>52</v>
       </c>
       <c r="K395" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -15836,7 +15818,7 @@
         <v>52</v>
       </c>
       <c r="K396" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -15871,7 +15853,7 @@
         <v>52</v>
       </c>
       <c r="K397" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -15906,7 +15888,7 @@
         <v>52</v>
       </c>
       <c r="K398" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -15941,7 +15923,7 @@
         <v>52</v>
       </c>
       <c r="K399" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -15976,7 +15958,7 @@
         <v>52</v>
       </c>
       <c r="K400" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -16011,7 +15993,7 @@
         <v>52</v>
       </c>
       <c r="K401" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -16046,7 +16028,7 @@
         <v>52</v>
       </c>
       <c r="K402" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -16081,7 +16063,7 @@
         <v>52</v>
       </c>
       <c r="K403" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -16116,7 +16098,7 @@
         <v>52</v>
       </c>
       <c r="K404" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -16151,7 +16133,7 @@
         <v>52</v>
       </c>
       <c r="K405" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -16186,7 +16168,7 @@
         <v>52</v>
       </c>
       <c r="K406" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -16221,7 +16203,7 @@
         <v>52</v>
       </c>
       <c r="K407" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -16256,7 +16238,7 @@
         <v>52</v>
       </c>
       <c r="K408" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -16291,7 +16273,7 @@
         <v>52</v>
       </c>
       <c r="K409" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -16326,7 +16308,7 @@
         <v>52</v>
       </c>
       <c r="K410" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -16361,7 +16343,7 @@
         <v>52</v>
       </c>
       <c r="K411" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
+++ b/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="517">
   <si>
     <t>id_cliente</t>
   </si>
@@ -181,10 +181,10 @@
     <t>INATIVO - 44.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 44.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.8 meses sem comprar</t>
+    <t>INATIVO - 44.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 38.3 meses sem comprar</t>
@@ -193,10 +193,10 @@
     <t>INATIVO - 41.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 49.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.7 meses sem comprar</t>
+    <t>INATIVO - 49.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 38.8 meses sem comprar</t>
@@ -205,9 +205,6 @@
     <t>INATIVO - 47.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 44.4 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 47.8 meses sem comprar</t>
   </si>
   <si>
@@ -220,10 +217,10 @@
     <t>INATIVO - 10.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 17.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.6 meses sem comprar</t>
+    <t>INATIVO - 17.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 43.9 meses sem comprar</t>
@@ -235,7 +232,7 @@
     <t>INATIVO - 45.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 8.4 meses sem comprar</t>
+    <t>INATIVO - 8.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 11.0 meses sem comprar</t>
@@ -244,6 +241,9 @@
     <t>INATIVO - 27.3 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 44.0 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 34.7 meses sem comprar</t>
   </si>
   <si>
@@ -262,10 +262,10 @@
     <t>INATIVO - 13.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.1 meses sem comprar</t>
+    <t>INATIVO - 38.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 37.6 meses sem comprar</t>
@@ -274,7 +274,7 @@
     <t>INATIVO - 42.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
+    <t>INATIVO - 7.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.8 meses sem comprar</t>
@@ -283,10 +283,10 @@
     <t>INATIVO - 14.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.8 meses sem comprar</t>
+    <t>INATIVO - 14.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 9.4 meses sem comprar</t>
@@ -295,7 +295,7 @@
     <t>INATIVO - 15.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
+    <t>INATIVO - 7.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 47.4 meses sem comprar</t>
@@ -310,150 +310,150 @@
     <t>INATIVO - 41.5 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 17.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 17.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 25.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.0 meses sem comprar</t>
+    <t>INATIVO - 9.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 12.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 11.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.3 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 7.7 meses sem comprar</t>
   </si>
   <si>
@@ -472,7 +472,7 @@
     <t>INATIVO - 8.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.4 meses sem comprar</t>
+    <t>INATIVO - 7.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 10.6 meses sem comprar</t>
@@ -481,19 +481,22 @@
     <t>INATIVO - 11.9 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 6.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 10.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 11.1 meses sem comprar</t>
+    <t>INATIVO - 11.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 9.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.5 meses sem comprar</t>
@@ -2028,7 +2031,7 @@
         <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2063,7 +2066,7 @@
         <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2098,7 +2101,7 @@
         <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2133,7 +2136,7 @@
         <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2168,7 +2171,7 @@
         <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2203,7 +2206,7 @@
         <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2238,7 +2241,7 @@
         <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2273,7 +2276,7 @@
         <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2308,7 +2311,7 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2343,7 +2346,7 @@
         <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2378,7 +2381,7 @@
         <v>53</v>
       </c>
       <c r="K12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2413,7 +2416,7 @@
         <v>60</v>
       </c>
       <c r="K13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2448,7 +2451,7 @@
         <v>61</v>
       </c>
       <c r="K14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2483,7 +2486,7 @@
         <v>62</v>
       </c>
       <c r="K15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2518,7 +2521,7 @@
         <v>54</v>
       </c>
       <c r="K16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2550,10 +2553,10 @@
         <v>51</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2585,10 +2588,10 @@
         <v>51</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2620,10 +2623,10 @@
         <v>51</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2655,10 +2658,10 @@
         <v>51</v>
       </c>
       <c r="J20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2690,10 +2693,10 @@
         <v>51</v>
       </c>
       <c r="J21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2725,10 +2728,10 @@
         <v>51</v>
       </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2760,10 +2763,10 @@
         <v>51</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2798,7 +2801,7 @@
         <v>52</v>
       </c>
       <c r="K24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2830,10 +2833,10 @@
         <v>51</v>
       </c>
       <c r="J25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2865,10 +2868,10 @@
         <v>51</v>
       </c>
       <c r="J26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2903,7 +2906,7 @@
         <v>52</v>
       </c>
       <c r="K27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2935,10 +2938,10 @@
         <v>51</v>
       </c>
       <c r="J28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2973,7 +2976,7 @@
         <v>52</v>
       </c>
       <c r="K29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3008,7 +3011,7 @@
         <v>52</v>
       </c>
       <c r="K30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3043,7 +3046,7 @@
         <v>52</v>
       </c>
       <c r="K31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3075,10 +3078,10 @@
         <v>51</v>
       </c>
       <c r="J32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3110,10 +3113,10 @@
         <v>51</v>
       </c>
       <c r="J33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3145,10 +3148,10 @@
         <v>51</v>
       </c>
       <c r="J34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3183,7 +3186,7 @@
         <v>61</v>
       </c>
       <c r="K35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3218,7 +3221,7 @@
         <v>52</v>
       </c>
       <c r="K36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3253,7 +3256,7 @@
         <v>52</v>
       </c>
       <c r="K37" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3288,7 +3291,7 @@
         <v>52</v>
       </c>
       <c r="K38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3320,10 +3323,10 @@
         <v>51</v>
       </c>
       <c r="J39" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3358,7 +3361,7 @@
         <v>76</v>
       </c>
       <c r="K40" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3393,7 +3396,7 @@
         <v>52</v>
       </c>
       <c r="K41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3428,7 +3431,7 @@
         <v>77</v>
       </c>
       <c r="K42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3463,7 +3466,7 @@
         <v>52</v>
       </c>
       <c r="K43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3498,7 +3501,7 @@
         <v>78</v>
       </c>
       <c r="K44" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3533,7 +3536,7 @@
         <v>52</v>
       </c>
       <c r="K45" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3568,7 +3571,7 @@
         <v>52</v>
       </c>
       <c r="K46" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3603,7 +3606,7 @@
         <v>52</v>
       </c>
       <c r="K47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3638,7 +3641,7 @@
         <v>52</v>
       </c>
       <c r="K48" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3673,7 +3676,7 @@
         <v>79</v>
       </c>
       <c r="K49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3708,7 +3711,7 @@
         <v>52</v>
       </c>
       <c r="K50" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3743,7 +3746,7 @@
         <v>52</v>
       </c>
       <c r="K51" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3778,7 +3781,7 @@
         <v>80</v>
       </c>
       <c r="K52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3813,7 +3816,7 @@
         <v>81</v>
       </c>
       <c r="K53" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3848,7 +3851,7 @@
         <v>82</v>
       </c>
       <c r="K54" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3883,7 +3886,7 @@
         <v>83</v>
       </c>
       <c r="K55" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3918,7 +3921,7 @@
         <v>84</v>
       </c>
       <c r="K56" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3953,7 +3956,7 @@
         <v>84</v>
       </c>
       <c r="K57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3988,7 +3991,7 @@
         <v>83</v>
       </c>
       <c r="K58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4023,7 +4026,7 @@
         <v>84</v>
       </c>
       <c r="K59" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4058,7 +4061,7 @@
         <v>84</v>
       </c>
       <c r="K60" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4093,7 +4096,7 @@
         <v>84</v>
       </c>
       <c r="K61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4128,7 +4131,7 @@
         <v>85</v>
       </c>
       <c r="K62" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4163,7 +4166,7 @@
         <v>86</v>
       </c>
       <c r="K63" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4198,7 +4201,7 @@
         <v>84</v>
       </c>
       <c r="K64" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4233,7 +4236,7 @@
         <v>52</v>
       </c>
       <c r="K65" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4268,7 +4271,7 @@
         <v>87</v>
       </c>
       <c r="K66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4303,7 +4306,7 @@
         <v>52</v>
       </c>
       <c r="K67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4338,7 +4341,7 @@
         <v>83</v>
       </c>
       <c r="K68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4373,7 +4376,7 @@
         <v>82</v>
       </c>
       <c r="K69" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4408,7 +4411,7 @@
         <v>87</v>
       </c>
       <c r="K70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4443,7 +4446,7 @@
         <v>52</v>
       </c>
       <c r="K71" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4478,7 +4481,7 @@
         <v>88</v>
       </c>
       <c r="K72" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4513,7 +4516,7 @@
         <v>52</v>
       </c>
       <c r="K73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4548,7 +4551,7 @@
         <v>84</v>
       </c>
       <c r="K74" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4583,7 +4586,7 @@
         <v>89</v>
       </c>
       <c r="K75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4618,7 +4621,7 @@
         <v>52</v>
       </c>
       <c r="K76" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4653,7 +4656,7 @@
         <v>90</v>
       </c>
       <c r="K77" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4688,7 +4691,7 @@
         <v>91</v>
       </c>
       <c r="K78" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4723,7 +4726,7 @@
         <v>52</v>
       </c>
       <c r="K79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4758,7 +4761,7 @@
         <v>92</v>
       </c>
       <c r="K80" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4793,7 +4796,7 @@
         <v>52</v>
       </c>
       <c r="K81" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4828,7 +4831,7 @@
         <v>93</v>
       </c>
       <c r="K82" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4863,7 +4866,7 @@
         <v>52</v>
       </c>
       <c r="K83" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4898,7 +4901,7 @@
         <v>94</v>
       </c>
       <c r="K84" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4933,7 +4936,7 @@
         <v>95</v>
       </c>
       <c r="K85" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4968,7 +4971,7 @@
         <v>52</v>
       </c>
       <c r="K86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5003,7 +5006,7 @@
         <v>96</v>
       </c>
       <c r="K87" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -5038,7 +5041,7 @@
         <v>97</v>
       </c>
       <c r="K88" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5073,7 +5076,7 @@
         <v>82</v>
       </c>
       <c r="K89" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5108,7 +5111,7 @@
         <v>52</v>
       </c>
       <c r="K90" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5143,7 +5146,7 @@
         <v>98</v>
       </c>
       <c r="K91" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5178,7 +5181,7 @@
         <v>52</v>
       </c>
       <c r="K92" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5213,7 +5216,7 @@
         <v>52</v>
       </c>
       <c r="K93" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5248,7 +5251,7 @@
         <v>99</v>
       </c>
       <c r="K94" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5283,7 +5286,7 @@
         <v>52</v>
       </c>
       <c r="K95" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5318,7 +5321,7 @@
         <v>61</v>
       </c>
       <c r="K96" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5353,7 +5356,7 @@
         <v>100</v>
       </c>
       <c r="K97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5388,7 +5391,7 @@
         <v>88</v>
       </c>
       <c r="K98" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5423,7 +5426,7 @@
         <v>101</v>
       </c>
       <c r="K99" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5458,7 +5461,7 @@
         <v>52</v>
       </c>
       <c r="K100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5493,7 +5496,7 @@
         <v>52</v>
       </c>
       <c r="K101" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5528,7 +5531,7 @@
         <v>102</v>
       </c>
       <c r="K102" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5563,7 +5566,7 @@
         <v>103</v>
       </c>
       <c r="K103" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5598,7 +5601,7 @@
         <v>52</v>
       </c>
       <c r="K104" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5633,7 +5636,7 @@
         <v>104</v>
       </c>
       <c r="K105" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5668,7 +5671,7 @@
         <v>105</v>
       </c>
       <c r="K106" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5700,10 +5703,10 @@
         <v>51</v>
       </c>
       <c r="J107" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="K107" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5738,7 +5741,7 @@
         <v>52</v>
       </c>
       <c r="K108" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5773,7 +5776,7 @@
         <v>60</v>
       </c>
       <c r="K109" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5805,10 +5808,10 @@
         <v>51</v>
       </c>
       <c r="J110" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K110" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5840,10 +5843,10 @@
         <v>51</v>
       </c>
       <c r="J111" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K111" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5875,10 +5878,10 @@
         <v>51</v>
       </c>
       <c r="J112" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K112" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5910,10 +5913,10 @@
         <v>51</v>
       </c>
       <c r="J113" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K113" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5948,7 +5951,7 @@
         <v>90</v>
       </c>
       <c r="K114" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -5980,10 +5983,10 @@
         <v>51</v>
       </c>
       <c r="J115" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K115" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6018,7 +6021,7 @@
         <v>52</v>
       </c>
       <c r="K116" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -6050,10 +6053,10 @@
         <v>51</v>
       </c>
       <c r="J117" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K117" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6088,7 +6091,7 @@
         <v>52</v>
       </c>
       <c r="K118" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6123,7 +6126,7 @@
         <v>52</v>
       </c>
       <c r="K119" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6155,10 +6158,10 @@
         <v>51</v>
       </c>
       <c r="J120" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="K120" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6190,10 +6193,10 @@
         <v>51</v>
       </c>
       <c r="J121" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="K121" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6228,7 +6231,7 @@
         <v>52</v>
       </c>
       <c r="K122" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6263,7 +6266,7 @@
         <v>52</v>
       </c>
       <c r="K123" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6295,10 +6298,10 @@
         <v>51</v>
       </c>
       <c r="J124" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="K124" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6330,10 +6333,10 @@
         <v>51</v>
       </c>
       <c r="J125" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K125" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6368,7 +6371,7 @@
         <v>52</v>
       </c>
       <c r="K126" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6400,10 +6403,10 @@
         <v>51</v>
       </c>
       <c r="J127" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K127" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6438,7 +6441,7 @@
         <v>52</v>
       </c>
       <c r="K128" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6473,7 +6476,7 @@
         <v>52</v>
       </c>
       <c r="K129" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6508,7 +6511,7 @@
         <v>52</v>
       </c>
       <c r="K130" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6540,10 +6543,10 @@
         <v>51</v>
       </c>
       <c r="J131" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K131" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6575,10 +6578,10 @@
         <v>51</v>
       </c>
       <c r="J132" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="K132" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6613,7 +6616,7 @@
         <v>52</v>
       </c>
       <c r="K133" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6645,10 +6648,10 @@
         <v>51</v>
       </c>
       <c r="J134" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K134" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -6680,10 +6683,10 @@
         <v>51</v>
       </c>
       <c r="J135" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K135" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -6715,10 +6718,10 @@
         <v>51</v>
       </c>
       <c r="J136" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K136" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6750,10 +6753,10 @@
         <v>51</v>
       </c>
       <c r="J137" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K137" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6788,7 +6791,7 @@
         <v>52</v>
       </c>
       <c r="K138" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6820,10 +6823,10 @@
         <v>51</v>
       </c>
       <c r="J139" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K139" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6858,7 +6861,7 @@
         <v>52</v>
       </c>
       <c r="K140" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6893,7 +6896,7 @@
         <v>52</v>
       </c>
       <c r="K141" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6925,10 +6928,10 @@
         <v>51</v>
       </c>
       <c r="J142" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K142" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -6963,7 +6966,7 @@
         <v>52</v>
       </c>
       <c r="K143" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -6998,7 +7001,7 @@
         <v>52</v>
       </c>
       <c r="K144" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -7033,7 +7036,7 @@
         <v>52</v>
       </c>
       <c r="K145" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -7068,7 +7071,7 @@
         <v>52</v>
       </c>
       <c r="K146" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7103,7 +7106,7 @@
         <v>52</v>
       </c>
       <c r="K147" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7138,7 +7141,7 @@
         <v>90</v>
       </c>
       <c r="K148" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7173,7 +7176,7 @@
         <v>52</v>
       </c>
       <c r="K149" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7208,7 +7211,7 @@
         <v>52</v>
       </c>
       <c r="K150" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7240,10 +7243,10 @@
         <v>51</v>
       </c>
       <c r="J151" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K151" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7278,7 +7281,7 @@
         <v>52</v>
       </c>
       <c r="K152" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7313,7 +7316,7 @@
         <v>52</v>
       </c>
       <c r="K153" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7348,7 +7351,7 @@
         <v>52</v>
       </c>
       <c r="K154" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7383,7 +7386,7 @@
         <v>52</v>
       </c>
       <c r="K155" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7418,7 +7421,7 @@
         <v>52</v>
       </c>
       <c r="K156" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -7453,7 +7456,7 @@
         <v>52</v>
       </c>
       <c r="K157" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -7488,7 +7491,7 @@
         <v>52</v>
       </c>
       <c r="K158" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -7520,10 +7523,10 @@
         <v>51</v>
       </c>
       <c r="J159" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K159" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -7558,7 +7561,7 @@
         <v>52</v>
       </c>
       <c r="K160" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -7593,7 +7596,7 @@
         <v>52</v>
       </c>
       <c r="K161" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7625,10 +7628,10 @@
         <v>51</v>
       </c>
       <c r="J162" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K162" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7660,10 +7663,10 @@
         <v>51</v>
       </c>
       <c r="J163" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K163" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -7698,7 +7701,7 @@
         <v>52</v>
       </c>
       <c r="K164" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7733,7 +7736,7 @@
         <v>52</v>
       </c>
       <c r="K165" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7768,7 +7771,7 @@
         <v>52</v>
       </c>
       <c r="K166" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7803,7 +7806,7 @@
         <v>52</v>
       </c>
       <c r="K167" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -7838,7 +7841,7 @@
         <v>52</v>
       </c>
       <c r="K168" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7873,7 +7876,7 @@
         <v>52</v>
       </c>
       <c r="K169" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -7905,10 +7908,10 @@
         <v>51</v>
       </c>
       <c r="J170" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K170" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7943,7 +7946,7 @@
         <v>52</v>
       </c>
       <c r="K171" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -7978,7 +7981,7 @@
         <v>52</v>
       </c>
       <c r="K172" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -8013,7 +8016,7 @@
         <v>52</v>
       </c>
       <c r="K173" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -8048,7 +8051,7 @@
         <v>52</v>
       </c>
       <c r="K174" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -8083,7 +8086,7 @@
         <v>52</v>
       </c>
       <c r="K175" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -8118,7 +8121,7 @@
         <v>52</v>
       </c>
       <c r="K176" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -8153,7 +8156,7 @@
         <v>52</v>
       </c>
       <c r="K177" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -8188,7 +8191,7 @@
         <v>52</v>
       </c>
       <c r="K178" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -8220,10 +8223,10 @@
         <v>51</v>
       </c>
       <c r="J179" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K179" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -8258,7 +8261,7 @@
         <v>52</v>
       </c>
       <c r="K180" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -8293,7 +8296,7 @@
         <v>52</v>
       </c>
       <c r="K181" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -8328,7 +8331,7 @@
         <v>52</v>
       </c>
       <c r="K182" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -8363,7 +8366,7 @@
         <v>52</v>
       </c>
       <c r="K183" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -8398,7 +8401,7 @@
         <v>52</v>
       </c>
       <c r="K184" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -8430,10 +8433,10 @@
         <v>51</v>
       </c>
       <c r="J185" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K185" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -8465,10 +8468,10 @@
         <v>51</v>
       </c>
       <c r="J186" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K186" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -8500,10 +8503,10 @@
         <v>51</v>
       </c>
       <c r="J187" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K187" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -8538,7 +8541,7 @@
         <v>52</v>
       </c>
       <c r="K188" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -8573,7 +8576,7 @@
         <v>52</v>
       </c>
       <c r="K189" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -8608,7 +8611,7 @@
         <v>52</v>
       </c>
       <c r="K190" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -8643,7 +8646,7 @@
         <v>52</v>
       </c>
       <c r="K191" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -8678,7 +8681,7 @@
         <v>52</v>
       </c>
       <c r="K192" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -8713,7 +8716,7 @@
         <v>80</v>
       </c>
       <c r="K193" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -8748,7 +8751,7 @@
         <v>52</v>
       </c>
       <c r="K194" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8783,7 +8786,7 @@
         <v>52</v>
       </c>
       <c r="K195" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -8818,7 +8821,7 @@
         <v>52</v>
       </c>
       <c r="K196" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -8850,10 +8853,10 @@
         <v>51</v>
       </c>
       <c r="J197" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K197" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -8888,7 +8891,7 @@
         <v>52</v>
       </c>
       <c r="K198" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -8923,7 +8926,7 @@
         <v>52</v>
       </c>
       <c r="K199" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -8958,7 +8961,7 @@
         <v>52</v>
       </c>
       <c r="K200" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -8993,7 +8996,7 @@
         <v>52</v>
       </c>
       <c r="K201" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -9028,7 +9031,7 @@
         <v>52</v>
       </c>
       <c r="K202" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -9060,10 +9063,10 @@
         <v>51</v>
       </c>
       <c r="J203" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K203" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -9098,7 +9101,7 @@
         <v>52</v>
       </c>
       <c r="K204" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -9133,7 +9136,7 @@
         <v>87</v>
       </c>
       <c r="K205" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -9168,7 +9171,7 @@
         <v>52</v>
       </c>
       <c r="K206" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -9200,10 +9203,10 @@
         <v>51</v>
       </c>
       <c r="J207" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K207" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -9238,7 +9241,7 @@
         <v>52</v>
       </c>
       <c r="K208" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -9270,10 +9273,10 @@
         <v>51</v>
       </c>
       <c r="J209" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K209" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -9308,7 +9311,7 @@
         <v>52</v>
       </c>
       <c r="K210" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -9340,10 +9343,10 @@
         <v>51</v>
       </c>
       <c r="J211" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K211" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -9375,10 +9378,10 @@
         <v>51</v>
       </c>
       <c r="J212" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K212" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -9413,7 +9416,7 @@
         <v>52</v>
       </c>
       <c r="K213" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -9445,10 +9448,10 @@
         <v>51</v>
       </c>
       <c r="J214" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K214" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -9483,7 +9486,7 @@
         <v>52</v>
       </c>
       <c r="K215" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -9518,7 +9521,7 @@
         <v>52</v>
       </c>
       <c r="K216" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -9553,7 +9556,7 @@
         <v>52</v>
       </c>
       <c r="K217" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -9588,7 +9591,7 @@
         <v>52</v>
       </c>
       <c r="K218" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -9623,7 +9626,7 @@
         <v>52</v>
       </c>
       <c r="K219" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -9658,7 +9661,7 @@
         <v>52</v>
       </c>
       <c r="K220" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -9693,7 +9696,7 @@
         <v>52</v>
       </c>
       <c r="K221" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -9728,7 +9731,7 @@
         <v>52</v>
       </c>
       <c r="K222" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -9763,7 +9766,7 @@
         <v>52</v>
       </c>
       <c r="K223" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -9795,10 +9798,10 @@
         <v>51</v>
       </c>
       <c r="J224" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K224" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -9833,7 +9836,7 @@
         <v>52</v>
       </c>
       <c r="K225" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -9868,7 +9871,7 @@
         <v>52</v>
       </c>
       <c r="K226" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -9900,10 +9903,10 @@
         <v>51</v>
       </c>
       <c r="J227" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K227" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -9938,7 +9941,7 @@
         <v>52</v>
       </c>
       <c r="K228" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -9973,7 +9976,7 @@
         <v>52</v>
       </c>
       <c r="K229" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -10008,7 +10011,7 @@
         <v>52</v>
       </c>
       <c r="K230" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -10040,10 +10043,10 @@
         <v>51</v>
       </c>
       <c r="J231" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K231" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -10078,7 +10081,7 @@
         <v>52</v>
       </c>
       <c r="K232" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -10113,7 +10116,7 @@
         <v>52</v>
       </c>
       <c r="K233" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -10148,7 +10151,7 @@
         <v>52</v>
       </c>
       <c r="K234" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -10183,7 +10186,7 @@
         <v>52</v>
       </c>
       <c r="K235" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -10218,7 +10221,7 @@
         <v>52</v>
       </c>
       <c r="K236" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -10253,7 +10256,7 @@
         <v>52</v>
       </c>
       <c r="K237" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -10285,10 +10288,10 @@
         <v>51</v>
       </c>
       <c r="J238" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="K238" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -10323,7 +10326,7 @@
         <v>52</v>
       </c>
       <c r="K239" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -10358,7 +10361,7 @@
         <v>52</v>
       </c>
       <c r="K240" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -10393,7 +10396,7 @@
         <v>139</v>
       </c>
       <c r="K241" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -10428,7 +10431,7 @@
         <v>52</v>
       </c>
       <c r="K242" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -10463,7 +10466,7 @@
         <v>81</v>
       </c>
       <c r="K243" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -10498,7 +10501,7 @@
         <v>52</v>
       </c>
       <c r="K244" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -10533,7 +10536,7 @@
         <v>52</v>
       </c>
       <c r="K245" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -10568,7 +10571,7 @@
         <v>52</v>
       </c>
       <c r="K246" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -10603,7 +10606,7 @@
         <v>140</v>
       </c>
       <c r="K247" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -10638,7 +10641,7 @@
         <v>141</v>
       </c>
       <c r="K248" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -10673,7 +10676,7 @@
         <v>52</v>
       </c>
       <c r="K249" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -10708,7 +10711,7 @@
         <v>52</v>
       </c>
       <c r="K250" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -10743,7 +10746,7 @@
         <v>52</v>
       </c>
       <c r="K251" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -10778,7 +10781,7 @@
         <v>142</v>
       </c>
       <c r="K252" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -10813,7 +10816,7 @@
         <v>52</v>
       </c>
       <c r="K253" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -10845,10 +10848,10 @@
         <v>51</v>
       </c>
       <c r="J254" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="K254" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -10883,7 +10886,7 @@
         <v>52</v>
       </c>
       <c r="K255" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -10918,7 +10921,7 @@
         <v>52</v>
       </c>
       <c r="K256" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -10953,7 +10956,7 @@
         <v>52</v>
       </c>
       <c r="K257" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -10985,10 +10988,10 @@
         <v>51</v>
       </c>
       <c r="J258" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="K258" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -11023,7 +11026,7 @@
         <v>52</v>
       </c>
       <c r="K259" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -11058,7 +11061,7 @@
         <v>52</v>
       </c>
       <c r="K260" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -11093,7 +11096,7 @@
         <v>52</v>
       </c>
       <c r="K261" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -11128,7 +11131,7 @@
         <v>144</v>
       </c>
       <c r="K262" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -11163,7 +11166,7 @@
         <v>52</v>
       </c>
       <c r="K263" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -11198,7 +11201,7 @@
         <v>145</v>
       </c>
       <c r="K264" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -11233,7 +11236,7 @@
         <v>146</v>
       </c>
       <c r="K265" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -11268,7 +11271,7 @@
         <v>52</v>
       </c>
       <c r="K266" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -11303,7 +11306,7 @@
         <v>147</v>
       </c>
       <c r="K267" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -11338,7 +11341,7 @@
         <v>148</v>
       </c>
       <c r="K268" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -11373,7 +11376,7 @@
         <v>52</v>
       </c>
       <c r="K269" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -11408,7 +11411,7 @@
         <v>52</v>
       </c>
       <c r="K270" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -11443,7 +11446,7 @@
         <v>52</v>
       </c>
       <c r="K271" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -11478,7 +11481,7 @@
         <v>52</v>
       </c>
       <c r="K272" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -11513,7 +11516,7 @@
         <v>52</v>
       </c>
       <c r="K273" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -11548,7 +11551,7 @@
         <v>52</v>
       </c>
       <c r="K274" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -11580,10 +11583,10 @@
         <v>51</v>
       </c>
       <c r="J275" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K275" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -11618,7 +11621,7 @@
         <v>149</v>
       </c>
       <c r="K276" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -11653,7 +11656,7 @@
         <v>52</v>
       </c>
       <c r="K277" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -11688,7 +11691,7 @@
         <v>52</v>
       </c>
       <c r="K278" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -11723,7 +11726,7 @@
         <v>52</v>
       </c>
       <c r="K279" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -11758,7 +11761,7 @@
         <v>52</v>
       </c>
       <c r="K280" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -11793,7 +11796,7 @@
         <v>52</v>
       </c>
       <c r="K281" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -11828,7 +11831,7 @@
         <v>150</v>
       </c>
       <c r="K282" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -11863,7 +11866,7 @@
         <v>52</v>
       </c>
       <c r="K283" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -11898,7 +11901,7 @@
         <v>52</v>
       </c>
       <c r="K284" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -11933,7 +11936,7 @@
         <v>52</v>
       </c>
       <c r="K285" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -11968,7 +11971,7 @@
         <v>52</v>
       </c>
       <c r="K286" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -12000,10 +12003,10 @@
         <v>51</v>
       </c>
       <c r="J287" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K287" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -12038,7 +12041,7 @@
         <v>52</v>
       </c>
       <c r="K288" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -12073,7 +12076,7 @@
         <v>139</v>
       </c>
       <c r="K289" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -12108,7 +12111,7 @@
         <v>151</v>
       </c>
       <c r="K290" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -12143,7 +12146,7 @@
         <v>52</v>
       </c>
       <c r="K291" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -12178,7 +12181,7 @@
         <v>52</v>
       </c>
       <c r="K292" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -12213,7 +12216,7 @@
         <v>52</v>
       </c>
       <c r="K293" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -12248,7 +12251,7 @@
         <v>52</v>
       </c>
       <c r="K294" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -12283,7 +12286,7 @@
         <v>52</v>
       </c>
       <c r="K295" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -12318,7 +12321,7 @@
         <v>52</v>
       </c>
       <c r="K296" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -12353,7 +12356,7 @@
         <v>52</v>
       </c>
       <c r="K297" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -12388,7 +12391,7 @@
         <v>52</v>
       </c>
       <c r="K298" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -12420,10 +12423,10 @@
         <v>51</v>
       </c>
       <c r="J299" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K299" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -12458,7 +12461,7 @@
         <v>52</v>
       </c>
       <c r="K300" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -12493,7 +12496,7 @@
         <v>52</v>
       </c>
       <c r="K301" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -12528,7 +12531,7 @@
         <v>52</v>
       </c>
       <c r="K302" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -12560,10 +12563,10 @@
         <v>51</v>
       </c>
       <c r="J303" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K303" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -12598,7 +12601,7 @@
         <v>52</v>
       </c>
       <c r="K304" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -12633,7 +12636,7 @@
         <v>52</v>
       </c>
       <c r="K305" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -12668,7 +12671,7 @@
         <v>52</v>
       </c>
       <c r="K306" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -12700,10 +12703,10 @@
         <v>51</v>
       </c>
       <c r="J307" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="K307" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -12738,7 +12741,7 @@
         <v>52</v>
       </c>
       <c r="K308" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -12773,7 +12776,7 @@
         <v>52</v>
       </c>
       <c r="K309" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -12808,7 +12811,7 @@
         <v>52</v>
       </c>
       <c r="K310" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -12843,7 +12846,7 @@
         <v>52</v>
       </c>
       <c r="K311" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -12878,7 +12881,7 @@
         <v>52</v>
       </c>
       <c r="K312" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -12913,7 +12916,7 @@
         <v>52</v>
       </c>
       <c r="K313" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -12948,7 +12951,7 @@
         <v>153</v>
       </c>
       <c r="K314" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -12983,7 +12986,7 @@
         <v>52</v>
       </c>
       <c r="K315" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -13018,7 +13021,7 @@
         <v>52</v>
       </c>
       <c r="K316" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -13053,7 +13056,7 @@
         <v>154</v>
       </c>
       <c r="K317" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -13088,7 +13091,7 @@
         <v>52</v>
       </c>
       <c r="K318" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -13123,7 +13126,7 @@
         <v>52</v>
       </c>
       <c r="K319" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -13155,10 +13158,10 @@
         <v>51</v>
       </c>
       <c r="J320" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="K320" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -13190,10 +13193,10 @@
         <v>51</v>
       </c>
       <c r="J321" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K321" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -13228,7 +13231,7 @@
         <v>52</v>
       </c>
       <c r="K322" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -13260,10 +13263,10 @@
         <v>51</v>
       </c>
       <c r="J323" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K323" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -13298,7 +13301,7 @@
         <v>52</v>
       </c>
       <c r="K324" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -13330,10 +13333,10 @@
         <v>51</v>
       </c>
       <c r="J325" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K325" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -13365,10 +13368,10 @@
         <v>51</v>
       </c>
       <c r="J326" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K326" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -13403,7 +13406,7 @@
         <v>52</v>
       </c>
       <c r="K327" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -13438,7 +13441,7 @@
         <v>52</v>
       </c>
       <c r="K328" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -13473,7 +13476,7 @@
         <v>52</v>
       </c>
       <c r="K329" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -13505,10 +13508,10 @@
         <v>51</v>
       </c>
       <c r="J330" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K330" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -13543,7 +13546,7 @@
         <v>52</v>
       </c>
       <c r="K331" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -13578,7 +13581,7 @@
         <v>52</v>
       </c>
       <c r="K332" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -13613,7 +13616,7 @@
         <v>52</v>
       </c>
       <c r="K333" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -13648,7 +13651,7 @@
         <v>52</v>
       </c>
       <c r="K334" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -13683,7 +13686,7 @@
         <v>52</v>
       </c>
       <c r="K335" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -13718,7 +13721,7 @@
         <v>52</v>
       </c>
       <c r="K336" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -13750,10 +13753,10 @@
         <v>51</v>
       </c>
       <c r="J337" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K337" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -13788,7 +13791,7 @@
         <v>52</v>
       </c>
       <c r="K338" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -13823,7 +13826,7 @@
         <v>52</v>
       </c>
       <c r="K339" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -13858,7 +13861,7 @@
         <v>52</v>
       </c>
       <c r="K340" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -13893,7 +13896,7 @@
         <v>52</v>
       </c>
       <c r="K341" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -13928,7 +13931,7 @@
         <v>52</v>
       </c>
       <c r="K342" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -13960,10 +13963,10 @@
         <v>51</v>
       </c>
       <c r="J343" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K343" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -13998,7 +14001,7 @@
         <v>52</v>
       </c>
       <c r="K344" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -14033,7 +14036,7 @@
         <v>52</v>
       </c>
       <c r="K345" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -14068,7 +14071,7 @@
         <v>52</v>
       </c>
       <c r="K346" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -14103,7 +14106,7 @@
         <v>52</v>
       </c>
       <c r="K347" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -14138,7 +14141,7 @@
         <v>52</v>
       </c>
       <c r="K348" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -14173,7 +14176,7 @@
         <v>52</v>
       </c>
       <c r="K349" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -14208,7 +14211,7 @@
         <v>52</v>
       </c>
       <c r="K350" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -14243,7 +14246,7 @@
         <v>52</v>
       </c>
       <c r="K351" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -14278,7 +14281,7 @@
         <v>52</v>
       </c>
       <c r="K352" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -14313,7 +14316,7 @@
         <v>52</v>
       </c>
       <c r="K353" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -14348,7 +14351,7 @@
         <v>52</v>
       </c>
       <c r="K354" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -14383,7 +14386,7 @@
         <v>52</v>
       </c>
       <c r="K355" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -14418,7 +14421,7 @@
         <v>52</v>
       </c>
       <c r="K356" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -14453,7 +14456,7 @@
         <v>52</v>
       </c>
       <c r="K357" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -14488,7 +14491,7 @@
         <v>52</v>
       </c>
       <c r="K358" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -14523,7 +14526,7 @@
         <v>52</v>
       </c>
       <c r="K359" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -14558,7 +14561,7 @@
         <v>52</v>
       </c>
       <c r="K360" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -14593,7 +14596,7 @@
         <v>52</v>
       </c>
       <c r="K361" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -14628,7 +14631,7 @@
         <v>52</v>
       </c>
       <c r="K362" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -14663,7 +14666,7 @@
         <v>52</v>
       </c>
       <c r="K363" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -14698,7 +14701,7 @@
         <v>52</v>
       </c>
       <c r="K364" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -14733,7 +14736,7 @@
         <v>52</v>
       </c>
       <c r="K365" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -14768,7 +14771,7 @@
         <v>52</v>
       </c>
       <c r="K366" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -14803,7 +14806,7 @@
         <v>52</v>
       </c>
       <c r="K367" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -14838,7 +14841,7 @@
         <v>52</v>
       </c>
       <c r="K368" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -14873,7 +14876,7 @@
         <v>52</v>
       </c>
       <c r="K369" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -14908,7 +14911,7 @@
         <v>52</v>
       </c>
       <c r="K370" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -14943,7 +14946,7 @@
         <v>52</v>
       </c>
       <c r="K371" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -14978,7 +14981,7 @@
         <v>52</v>
       </c>
       <c r="K372" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -15013,7 +15016,7 @@
         <v>52</v>
       </c>
       <c r="K373" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -15048,7 +15051,7 @@
         <v>52</v>
       </c>
       <c r="K374" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -15083,7 +15086,7 @@
         <v>52</v>
       </c>
       <c r="K375" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -15118,7 +15121,7 @@
         <v>52</v>
       </c>
       <c r="K376" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -15153,7 +15156,7 @@
         <v>52</v>
       </c>
       <c r="K377" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -15188,7 +15191,7 @@
         <v>52</v>
       </c>
       <c r="K378" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -15223,7 +15226,7 @@
         <v>52</v>
       </c>
       <c r="K379" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -15258,7 +15261,7 @@
         <v>52</v>
       </c>
       <c r="K380" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -15293,7 +15296,7 @@
         <v>52</v>
       </c>
       <c r="K381" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -15328,7 +15331,7 @@
         <v>52</v>
       </c>
       <c r="K382" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -15363,7 +15366,7 @@
         <v>52</v>
       </c>
       <c r="K383" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -15398,7 +15401,7 @@
         <v>52</v>
       </c>
       <c r="K384" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -15433,7 +15436,7 @@
         <v>52</v>
       </c>
       <c r="K385" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -15468,7 +15471,7 @@
         <v>52</v>
       </c>
       <c r="K386" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -15503,7 +15506,7 @@
         <v>52</v>
       </c>
       <c r="K387" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -15538,7 +15541,7 @@
         <v>52</v>
       </c>
       <c r="K388" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -15573,7 +15576,7 @@
         <v>52</v>
       </c>
       <c r="K389" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -15608,7 +15611,7 @@
         <v>52</v>
       </c>
       <c r="K390" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -15643,7 +15646,7 @@
         <v>52</v>
       </c>
       <c r="K391" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -15675,10 +15678,10 @@
         <v>51</v>
       </c>
       <c r="J392" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K392" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -15713,7 +15716,7 @@
         <v>52</v>
       </c>
       <c r="K393" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -15748,7 +15751,7 @@
         <v>52</v>
       </c>
       <c r="K394" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -15783,7 +15786,7 @@
         <v>52</v>
       </c>
       <c r="K395" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -15818,7 +15821,7 @@
         <v>52</v>
       </c>
       <c r="K396" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -15853,7 +15856,7 @@
         <v>52</v>
       </c>
       <c r="K397" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -15888,7 +15891,7 @@
         <v>52</v>
       </c>
       <c r="K398" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -15923,7 +15926,7 @@
         <v>52</v>
       </c>
       <c r="K399" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -15958,7 +15961,7 @@
         <v>52</v>
       </c>
       <c r="K400" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -15993,7 +15996,7 @@
         <v>52</v>
       </c>
       <c r="K401" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -16028,7 +16031,7 @@
         <v>52</v>
       </c>
       <c r="K402" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -16063,7 +16066,7 @@
         <v>52</v>
       </c>
       <c r="K403" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -16098,7 +16101,7 @@
         <v>52</v>
       </c>
       <c r="K404" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -16133,7 +16136,7 @@
         <v>52</v>
       </c>
       <c r="K405" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -16168,7 +16171,7 @@
         <v>52</v>
       </c>
       <c r="K406" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -16203,7 +16206,7 @@
         <v>52</v>
       </c>
       <c r="K407" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -16238,7 +16241,7 @@
         <v>52</v>
       </c>
       <c r="K408" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -16273,7 +16276,7 @@
         <v>52</v>
       </c>
       <c r="K409" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -16308,7 +16311,7 @@
         <v>52</v>
       </c>
       <c r="K410" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -16343,7 +16346,7 @@
         <v>52</v>
       </c>
       <c r="K411" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
+++ b/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="525">
   <si>
     <t>id_cliente</t>
   </si>
@@ -175,43 +175,37 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 45.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.6 meses sem comprar</t>
+    <t>INATIVO - 45.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 41.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 49.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 45.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.1 meses sem comprar</t>
+    <t>INATIVO - 49.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 39.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 47.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 45.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.1 meses sem comprar</t>
+    <t>INATIVO - 48.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.2 meses sem comprar</t>
@@ -220,298 +214,292 @@
     <t>INATIVO - 48.5 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 11.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 46.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 47.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 11.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 0.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 46.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 47.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.9 meses sem comprar</t>
+    <t>INATIVO - 12.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 12.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
+    <t>INATIVO - 7.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 10.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 11.5 meses sem comprar</t>
+    <t>INATIVO - 8.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 10.0 meses sem comprar</t>
@@ -2067,7 +2055,7 @@
         <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2102,7 +2090,7 @@
         <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2137,7 +2125,7 @@
         <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2172,7 +2160,7 @@
         <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2207,7 +2195,7 @@
         <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2242,7 +2230,7 @@
         <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2277,7 +2265,7 @@
         <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2312,7 +2300,7 @@
         <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2347,7 +2335,7 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2382,7 +2370,7 @@
         <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2414,10 +2402,10 @@
         <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2449,10 +2437,10 @@
         <v>51</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2484,10 +2472,10 @@
         <v>51</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K14" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2519,10 +2507,10 @@
         <v>51</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2554,10 +2542,10 @@
         <v>51</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2592,7 +2580,7 @@
         <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2624,10 +2612,10 @@
         <v>51</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2659,10 +2647,10 @@
         <v>51</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2694,10 +2682,10 @@
         <v>51</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2729,10 +2717,10 @@
         <v>51</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2764,10 +2752,10 @@
         <v>51</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2799,10 +2787,10 @@
         <v>51</v>
       </c>
       <c r="J23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2834,10 +2822,10 @@
         <v>51</v>
       </c>
       <c r="J24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2845,34 +2833,34 @@
         <v>3214165</v>
       </c>
       <c r="B25" s="1">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="C25" s="1">
         <v>0.5</v>
       </c>
       <c r="D25" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E25">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F25" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G25" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="4">
-        <v>45776</v>
+        <v>45803</v>
       </c>
       <c r="I25" s="4">
-        <v>45867</v>
+        <v>45895</v>
       </c>
       <c r="J25" t="s">
         <v>52</v>
       </c>
       <c r="K25" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2904,10 +2892,10 @@
         <v>51</v>
       </c>
       <c r="J26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K26" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2939,10 +2927,10 @@
         <v>51</v>
       </c>
       <c r="J27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K27" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2977,7 +2965,7 @@
         <v>52</v>
       </c>
       <c r="K28" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3009,10 +2997,10 @@
         <v>51</v>
       </c>
       <c r="J29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K29" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3047,7 +3035,7 @@
         <v>52</v>
       </c>
       <c r="K30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3082,7 +3070,7 @@
         <v>52</v>
       </c>
       <c r="K31" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3090,34 +3078,34 @@
         <v>3246517</v>
       </c>
       <c r="B32" s="1">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="C32" s="1">
         <v>0.83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F32" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
       </c>
       <c r="H32" s="4">
-        <v>45791</v>
+        <v>45800</v>
       </c>
       <c r="I32" s="4">
-        <v>45806</v>
+        <v>45815</v>
       </c>
       <c r="J32" t="s">
         <v>52</v>
       </c>
       <c r="K32" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3149,10 +3137,10 @@
         <v>51</v>
       </c>
       <c r="J33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3184,10 +3172,10 @@
         <v>51</v>
       </c>
       <c r="J34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3219,10 +3207,10 @@
         <v>51</v>
       </c>
       <c r="J35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K35" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3254,10 +3242,10 @@
         <v>51</v>
       </c>
       <c r="J36" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="K36" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3292,7 +3280,7 @@
         <v>52</v>
       </c>
       <c r="K37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3327,7 +3315,7 @@
         <v>52</v>
       </c>
       <c r="K38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3362,7 +3350,7 @@
         <v>52</v>
       </c>
       <c r="K39" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3394,10 +3382,10 @@
         <v>51</v>
       </c>
       <c r="J40" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3429,10 +3417,10 @@
         <v>51</v>
       </c>
       <c r="J41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3467,7 +3455,7 @@
         <v>52</v>
       </c>
       <c r="K42" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3499,10 +3487,10 @@
         <v>51</v>
       </c>
       <c r="J43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3537,7 +3525,7 @@
         <v>52</v>
       </c>
       <c r="K44" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3569,10 +3557,10 @@
         <v>51</v>
       </c>
       <c r="J45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3607,7 +3595,7 @@
         <v>52</v>
       </c>
       <c r="K46" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3642,7 +3630,7 @@
         <v>52</v>
       </c>
       <c r="K47" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3677,7 +3665,7 @@
         <v>52</v>
       </c>
       <c r="K48" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3712,7 +3700,7 @@
         <v>52</v>
       </c>
       <c r="K49" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3744,10 +3732,10 @@
         <v>51</v>
       </c>
       <c r="J50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3782,7 +3770,7 @@
         <v>52</v>
       </c>
       <c r="K51" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3817,7 +3805,7 @@
         <v>52</v>
       </c>
       <c r="K52" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3849,10 +3837,10 @@
         <v>51</v>
       </c>
       <c r="J53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3884,10 +3872,10 @@
         <v>51</v>
       </c>
       <c r="J54" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K54" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3919,10 +3907,10 @@
         <v>51</v>
       </c>
       <c r="J55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K55" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3954,10 +3942,10 @@
         <v>51</v>
       </c>
       <c r="J56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K56" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3989,10 +3977,10 @@
         <v>51</v>
       </c>
       <c r="J57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K57" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -4024,10 +4012,10 @@
         <v>51</v>
       </c>
       <c r="J58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4059,10 +4047,10 @@
         <v>51</v>
       </c>
       <c r="J59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K59" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4094,10 +4082,10 @@
         <v>51</v>
       </c>
       <c r="J60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K60" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4129,10 +4117,10 @@
         <v>51</v>
       </c>
       <c r="J61" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4164,10 +4152,10 @@
         <v>51</v>
       </c>
       <c r="J62" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K62" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4199,10 +4187,10 @@
         <v>51</v>
       </c>
       <c r="J63" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K63" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4234,10 +4222,10 @@
         <v>51</v>
       </c>
       <c r="J64" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K64" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4269,10 +4257,10 @@
         <v>51</v>
       </c>
       <c r="J65" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K65" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4307,7 +4295,7 @@
         <v>52</v>
       </c>
       <c r="K66" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4339,10 +4327,10 @@
         <v>51</v>
       </c>
       <c r="J67" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K67" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4377,7 +4365,7 @@
         <v>52</v>
       </c>
       <c r="K68" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4409,10 +4397,10 @@
         <v>51</v>
       </c>
       <c r="J69" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K69" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4444,10 +4432,10 @@
         <v>51</v>
       </c>
       <c r="J70" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K70" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4479,10 +4467,10 @@
         <v>51</v>
       </c>
       <c r="J71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K71" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4517,7 +4505,7 @@
         <v>52</v>
       </c>
       <c r="K72" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4549,10 +4537,10 @@
         <v>51</v>
       </c>
       <c r="J73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4587,7 +4575,7 @@
         <v>52</v>
       </c>
       <c r="K74" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4619,10 +4607,10 @@
         <v>51</v>
       </c>
       <c r="J75" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K75" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4654,10 +4642,10 @@
         <v>51</v>
       </c>
       <c r="J76" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K76" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4692,7 +4680,7 @@
         <v>52</v>
       </c>
       <c r="K77" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4724,10 +4712,10 @@
         <v>51</v>
       </c>
       <c r="J78" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K78" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4759,10 +4747,10 @@
         <v>51</v>
       </c>
       <c r="J79" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K79" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4797,7 +4785,7 @@
         <v>52</v>
       </c>
       <c r="K80" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4829,10 +4817,10 @@
         <v>51</v>
       </c>
       <c r="J81" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K81" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4867,7 +4855,7 @@
         <v>52</v>
       </c>
       <c r="K82" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4899,10 +4887,10 @@
         <v>51</v>
       </c>
       <c r="J83" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K83" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4919,7 +4907,7 @@
         <v>0.83</v>
       </c>
       <c r="E84">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F84" s="1">
         <v>0.83</v>
@@ -4928,16 +4916,16 @@
         <v>19</v>
       </c>
       <c r="H84" s="4">
-        <v>45762</v>
+        <v>45803</v>
       </c>
       <c r="I84" s="4">
-        <v>45777</v>
+        <v>45818</v>
       </c>
       <c r="J84" t="s">
         <v>52</v>
       </c>
       <c r="K84" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4969,10 +4957,10 @@
         <v>51</v>
       </c>
       <c r="J85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K85" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -5004,10 +4992,10 @@
         <v>51</v>
       </c>
       <c r="J86" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K86" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5039,10 +5027,10 @@
         <v>51</v>
       </c>
       <c r="J87" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K87" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -5074,10 +5062,10 @@
         <v>51</v>
       </c>
       <c r="J88" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K88" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5109,10 +5097,10 @@
         <v>51</v>
       </c>
       <c r="J89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K89" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5144,10 +5132,10 @@
         <v>51</v>
       </c>
       <c r="J90" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K90" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5182,7 +5170,7 @@
         <v>52</v>
       </c>
       <c r="K91" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5214,10 +5202,10 @@
         <v>51</v>
       </c>
       <c r="J92" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K92" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5252,7 +5240,7 @@
         <v>52</v>
       </c>
       <c r="K93" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5287,7 +5275,7 @@
         <v>52</v>
       </c>
       <c r="K94" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5319,10 +5307,10 @@
         <v>51</v>
       </c>
       <c r="J95" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K95" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5357,7 +5345,7 @@
         <v>52</v>
       </c>
       <c r="K96" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5389,10 +5377,10 @@
         <v>51</v>
       </c>
       <c r="J97" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="K97" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5424,10 +5412,10 @@
         <v>51</v>
       </c>
       <c r="J98" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K98" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5459,10 +5447,10 @@
         <v>51</v>
       </c>
       <c r="J99" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K99" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5494,10 +5482,10 @@
         <v>51</v>
       </c>
       <c r="J100" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K100" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5532,7 +5520,7 @@
         <v>52</v>
       </c>
       <c r="K101" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5567,7 +5555,7 @@
         <v>52</v>
       </c>
       <c r="K102" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5599,10 +5587,10 @@
         <v>51</v>
       </c>
       <c r="J103" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K103" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5634,10 +5622,10 @@
         <v>51</v>
       </c>
       <c r="J104" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K104" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5672,7 +5660,7 @@
         <v>52</v>
       </c>
       <c r="K105" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5704,10 +5692,10 @@
         <v>51</v>
       </c>
       <c r="J106" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K106" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5739,10 +5727,10 @@
         <v>51</v>
       </c>
       <c r="J107" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K107" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5774,10 +5762,10 @@
         <v>51</v>
       </c>
       <c r="J108" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K108" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5812,7 +5800,7 @@
         <v>52</v>
       </c>
       <c r="K109" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5844,10 +5832,10 @@
         <v>51</v>
       </c>
       <c r="J110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K110" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5879,10 +5867,10 @@
         <v>51</v>
       </c>
       <c r="J111" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K111" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5914,10 +5902,10 @@
         <v>51</v>
       </c>
       <c r="J112" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K112" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5949,10 +5937,10 @@
         <v>51</v>
       </c>
       <c r="J113" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K113" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5984,10 +5972,10 @@
         <v>51</v>
       </c>
       <c r="J114" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K114" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -6019,10 +6007,10 @@
         <v>51</v>
       </c>
       <c r="J115" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K115" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6054,10 +6042,10 @@
         <v>51</v>
       </c>
       <c r="J116" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K116" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -6092,7 +6080,7 @@
         <v>52</v>
       </c>
       <c r="K117" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6124,10 +6112,10 @@
         <v>51</v>
       </c>
       <c r="J118" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K118" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6162,7 +6150,7 @@
         <v>52</v>
       </c>
       <c r="K119" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6197,7 +6185,7 @@
         <v>52</v>
       </c>
       <c r="K120" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6229,10 +6217,10 @@
         <v>51</v>
       </c>
       <c r="J121" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="K121" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6264,10 +6252,10 @@
         <v>51</v>
       </c>
       <c r="J122" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="K122" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6302,7 +6290,7 @@
         <v>52</v>
       </c>
       <c r="K123" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6337,7 +6325,7 @@
         <v>52</v>
       </c>
       <c r="K124" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6369,10 +6357,10 @@
         <v>51</v>
       </c>
       <c r="J125" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="K125" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6404,10 +6392,10 @@
         <v>51</v>
       </c>
       <c r="J126" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K126" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6442,7 +6430,7 @@
         <v>52</v>
       </c>
       <c r="K127" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6474,10 +6462,10 @@
         <v>51</v>
       </c>
       <c r="J128" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K128" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6512,7 +6500,7 @@
         <v>52</v>
       </c>
       <c r="K129" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6547,7 +6535,7 @@
         <v>52</v>
       </c>
       <c r="K130" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6582,7 +6570,7 @@
         <v>52</v>
       </c>
       <c r="K131" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6614,10 +6602,10 @@
         <v>51</v>
       </c>
       <c r="J132" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K132" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6649,10 +6637,10 @@
         <v>51</v>
       </c>
       <c r="J133" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="K133" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6687,7 +6675,7 @@
         <v>52</v>
       </c>
       <c r="K134" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -6719,10 +6707,10 @@
         <v>51</v>
       </c>
       <c r="J135" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K135" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -6754,10 +6742,10 @@
         <v>51</v>
       </c>
       <c r="J136" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K136" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6789,10 +6777,10 @@
         <v>51</v>
       </c>
       <c r="J137" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K137" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6824,10 +6812,10 @@
         <v>51</v>
       </c>
       <c r="J138" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K138" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6862,7 +6850,7 @@
         <v>52</v>
       </c>
       <c r="K139" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6894,10 +6882,10 @@
         <v>51</v>
       </c>
       <c r="J140" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="K140" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6932,7 +6920,7 @@
         <v>52</v>
       </c>
       <c r="K141" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6967,7 +6955,7 @@
         <v>52</v>
       </c>
       <c r="K142" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -6999,10 +6987,10 @@
         <v>51</v>
       </c>
       <c r="J143" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K143" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -7037,7 +7025,7 @@
         <v>52</v>
       </c>
       <c r="K144" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -7072,7 +7060,7 @@
         <v>52</v>
       </c>
       <c r="K145" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -7107,7 +7095,7 @@
         <v>52</v>
       </c>
       <c r="K146" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7142,7 +7130,7 @@
         <v>52</v>
       </c>
       <c r="K147" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7177,7 +7165,7 @@
         <v>52</v>
       </c>
       <c r="K148" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7209,10 +7197,10 @@
         <v>51</v>
       </c>
       <c r="J149" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K149" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7247,7 +7235,7 @@
         <v>52</v>
       </c>
       <c r="K150" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7282,7 +7270,7 @@
         <v>52</v>
       </c>
       <c r="K151" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7314,10 +7302,10 @@
         <v>51</v>
       </c>
       <c r="J152" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K152" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7352,7 +7340,7 @@
         <v>52</v>
       </c>
       <c r="K153" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7360,34 +7348,34 @@
         <v>5144222</v>
       </c>
       <c r="B154" s="1">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="C154" s="1">
         <v>0.83</v>
       </c>
       <c r="D154" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F154" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G154" t="s">
         <v>19</v>
       </c>
       <c r="H154" s="4">
-        <v>45790</v>
+        <v>45803</v>
       </c>
       <c r="I154" s="4">
-        <v>45805</v>
+        <v>45818</v>
       </c>
       <c r="J154" t="s">
         <v>52</v>
       </c>
       <c r="K154" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7422,7 +7410,7 @@
         <v>52</v>
       </c>
       <c r="K155" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7457,7 +7445,7 @@
         <v>52</v>
       </c>
       <c r="K156" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -7492,7 +7480,7 @@
         <v>52</v>
       </c>
       <c r="K157" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -7527,7 +7515,7 @@
         <v>52</v>
       </c>
       <c r="K158" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -7562,7 +7550,7 @@
         <v>52</v>
       </c>
       <c r="K159" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -7594,10 +7582,10 @@
         <v>51</v>
       </c>
       <c r="J160" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K160" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -7625,14 +7613,14 @@
       <c r="H161" s="4">
         <v>45623</v>
       </c>
-      <c r="I161" s="4">
-        <v>45715</v>
+      <c r="I161" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="J161" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="K161" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7667,7 +7655,7 @@
         <v>52</v>
       </c>
       <c r="K162" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7699,10 +7687,10 @@
         <v>51</v>
       </c>
       <c r="J163" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="K163" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -7734,10 +7722,10 @@
         <v>51</v>
       </c>
       <c r="J164" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K164" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7772,7 +7760,7 @@
         <v>52</v>
       </c>
       <c r="K165" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7807,7 +7795,7 @@
         <v>52</v>
       </c>
       <c r="K166" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7842,7 +7830,7 @@
         <v>52</v>
       </c>
       <c r="K167" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -7877,7 +7865,7 @@
         <v>52</v>
       </c>
       <c r="K168" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7912,7 +7900,7 @@
         <v>52</v>
       </c>
       <c r="K169" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -7947,7 +7935,7 @@
         <v>52</v>
       </c>
       <c r="K170" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7979,10 +7967,10 @@
         <v>51</v>
       </c>
       <c r="J171" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K171" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -8017,7 +8005,7 @@
         <v>52</v>
       </c>
       <c r="K172" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -8052,7 +8040,7 @@
         <v>52</v>
       </c>
       <c r="K173" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -8087,7 +8075,7 @@
         <v>52</v>
       </c>
       <c r="K174" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -8122,7 +8110,7 @@
         <v>52</v>
       </c>
       <c r="K175" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -8157,7 +8145,7 @@
         <v>52</v>
       </c>
       <c r="K176" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -8192,7 +8180,7 @@
         <v>52</v>
       </c>
       <c r="K177" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -8227,7 +8215,7 @@
         <v>52</v>
       </c>
       <c r="K178" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -8262,7 +8250,7 @@
         <v>52</v>
       </c>
       <c r="K179" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -8294,10 +8282,10 @@
         <v>51</v>
       </c>
       <c r="J180" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K180" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -8314,7 +8302,7 @@
         <v>0.83</v>
       </c>
       <c r="E181">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F181" s="1">
         <v>0.83</v>
@@ -8323,16 +8311,16 @@
         <v>40</v>
       </c>
       <c r="H181" s="4">
-        <v>45799</v>
+        <v>45803</v>
       </c>
       <c r="I181" s="4">
-        <v>45806</v>
+        <v>45810</v>
       </c>
       <c r="J181" t="s">
         <v>52</v>
       </c>
       <c r="K181" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -8367,7 +8355,7 @@
         <v>52</v>
       </c>
       <c r="K182" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -8402,7 +8390,7 @@
         <v>52</v>
       </c>
       <c r="K183" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -8437,7 +8425,7 @@
         <v>52</v>
       </c>
       <c r="K184" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -8472,7 +8460,7 @@
         <v>52</v>
       </c>
       <c r="K185" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -8504,10 +8492,10 @@
         <v>51</v>
       </c>
       <c r="J186" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K186" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -8539,10 +8527,10 @@
         <v>51</v>
       </c>
       <c r="J187" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K187" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -8574,10 +8562,10 @@
         <v>51</v>
       </c>
       <c r="J188" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K188" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -8612,7 +8600,7 @@
         <v>52</v>
       </c>
       <c r="K189" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -8647,7 +8635,7 @@
         <v>52</v>
       </c>
       <c r="K190" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -8682,7 +8670,7 @@
         <v>52</v>
       </c>
       <c r="K191" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -8717,7 +8705,7 @@
         <v>52</v>
       </c>
       <c r="K192" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -8752,7 +8740,7 @@
         <v>52</v>
       </c>
       <c r="K193" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -8784,10 +8772,10 @@
         <v>51</v>
       </c>
       <c r="J194" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K194" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8822,7 +8810,7 @@
         <v>52</v>
       </c>
       <c r="K195" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -8857,7 +8845,7 @@
         <v>52</v>
       </c>
       <c r="K196" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -8892,7 +8880,7 @@
         <v>52</v>
       </c>
       <c r="K197" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -8924,10 +8912,10 @@
         <v>51</v>
       </c>
       <c r="J198" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K198" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -8962,7 +8950,7 @@
         <v>52</v>
       </c>
       <c r="K199" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -8997,7 +8985,7 @@
         <v>52</v>
       </c>
       <c r="K200" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -9032,7 +9020,7 @@
         <v>52</v>
       </c>
       <c r="K201" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -9067,7 +9055,7 @@
         <v>52</v>
       </c>
       <c r="K202" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -9102,7 +9090,7 @@
         <v>52</v>
       </c>
       <c r="K203" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -9134,10 +9122,10 @@
         <v>51</v>
       </c>
       <c r="J204" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K204" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -9154,7 +9142,7 @@
         <v>1</v>
       </c>
       <c r="E205">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F205" s="1">
         <v>1</v>
@@ -9163,16 +9151,16 @@
         <v>28</v>
       </c>
       <c r="H205" s="4">
-        <v>45799</v>
+        <v>45803</v>
       </c>
       <c r="I205" s="4">
-        <v>45814</v>
+        <v>45818</v>
       </c>
       <c r="J205" t="s">
         <v>52</v>
       </c>
       <c r="K205" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -9204,10 +9192,10 @@
         <v>51</v>
       </c>
       <c r="J206" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K206" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -9242,7 +9230,7 @@
         <v>52</v>
       </c>
       <c r="K207" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -9274,10 +9262,10 @@
         <v>51</v>
       </c>
       <c r="J208" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K208" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -9312,7 +9300,7 @@
         <v>52</v>
       </c>
       <c r="K209" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -9344,10 +9332,10 @@
         <v>51</v>
       </c>
       <c r="J210" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K210" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -9382,7 +9370,7 @@
         <v>52</v>
       </c>
       <c r="K211" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -9414,10 +9402,10 @@
         <v>51</v>
       </c>
       <c r="J212" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K212" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -9449,10 +9437,10 @@
         <v>51</v>
       </c>
       <c r="J213" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K213" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -9487,7 +9475,7 @@
         <v>52</v>
       </c>
       <c r="K214" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -9519,10 +9507,10 @@
         <v>51</v>
       </c>
       <c r="J215" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K215" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -9557,7 +9545,7 @@
         <v>52</v>
       </c>
       <c r="K216" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -9592,7 +9580,7 @@
         <v>52</v>
       </c>
       <c r="K217" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -9627,7 +9615,7 @@
         <v>52</v>
       </c>
       <c r="K218" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -9662,7 +9650,7 @@
         <v>52</v>
       </c>
       <c r="K219" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -9697,7 +9685,7 @@
         <v>52</v>
       </c>
       <c r="K220" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -9732,7 +9720,7 @@
         <v>52</v>
       </c>
       <c r="K221" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -9767,7 +9755,7 @@
         <v>52</v>
       </c>
       <c r="K222" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -9802,7 +9790,7 @@
         <v>52</v>
       </c>
       <c r="K223" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -9837,7 +9825,7 @@
         <v>52</v>
       </c>
       <c r="K224" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -9869,10 +9857,10 @@
         <v>51</v>
       </c>
       <c r="J225" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K225" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -9907,7 +9895,7 @@
         <v>52</v>
       </c>
       <c r="K226" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -9942,7 +9930,7 @@
         <v>52</v>
       </c>
       <c r="K227" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -9974,10 +9962,10 @@
         <v>51</v>
       </c>
       <c r="J228" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K228" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -10012,7 +10000,7 @@
         <v>52</v>
       </c>
       <c r="K229" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -10047,7 +10035,7 @@
         <v>52</v>
       </c>
       <c r="K230" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -10082,7 +10070,7 @@
         <v>52</v>
       </c>
       <c r="K231" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -10114,10 +10102,10 @@
         <v>51</v>
       </c>
       <c r="J232" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K232" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -10152,7 +10140,7 @@
         <v>52</v>
       </c>
       <c r="K233" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -10187,7 +10175,7 @@
         <v>52</v>
       </c>
       <c r="K234" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -10222,7 +10210,7 @@
         <v>52</v>
       </c>
       <c r="K235" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -10257,7 +10245,7 @@
         <v>52</v>
       </c>
       <c r="K236" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -10292,7 +10280,7 @@
         <v>52</v>
       </c>
       <c r="K237" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -10327,7 +10315,7 @@
         <v>52</v>
       </c>
       <c r="K238" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -10359,10 +10347,10 @@
         <v>51</v>
       </c>
       <c r="J239" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K239" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -10397,7 +10385,7 @@
         <v>52</v>
       </c>
       <c r="K240" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -10432,7 +10420,7 @@
         <v>52</v>
       </c>
       <c r="K241" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -10464,10 +10452,10 @@
         <v>51</v>
       </c>
       <c r="J242" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K242" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -10502,7 +10490,7 @@
         <v>52</v>
       </c>
       <c r="K243" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -10534,10 +10522,10 @@
         <v>51</v>
       </c>
       <c r="J244" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="K244" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -10572,7 +10560,7 @@
         <v>52</v>
       </c>
       <c r="K245" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -10607,7 +10595,7 @@
         <v>52</v>
       </c>
       <c r="K246" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -10642,7 +10630,7 @@
         <v>52</v>
       </c>
       <c r="K247" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -10674,10 +10662,10 @@
         <v>51</v>
       </c>
       <c r="J248" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K248" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -10709,10 +10697,10 @@
         <v>51</v>
       </c>
       <c r="J249" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K249" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -10747,7 +10735,7 @@
         <v>52</v>
       </c>
       <c r="K250" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -10782,7 +10770,7 @@
         <v>52</v>
       </c>
       <c r="K251" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -10817,7 +10805,7 @@
         <v>52</v>
       </c>
       <c r="K252" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -10849,10 +10837,10 @@
         <v>51</v>
       </c>
       <c r="J253" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K253" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -10887,7 +10875,7 @@
         <v>52</v>
       </c>
       <c r="K254" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -10922,7 +10910,7 @@
         <v>52</v>
       </c>
       <c r="K255" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -10954,10 +10942,10 @@
         <v>51</v>
       </c>
       <c r="J256" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="K256" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -10965,16 +10953,16 @@
         <v>14783429</v>
       </c>
       <c r="B257" s="1">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="C257" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="D257" s="1">
         <v>0.83</v>
       </c>
       <c r="E257">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F257" s="1">
         <v>0.83</v>
@@ -10983,16 +10971,16 @@
         <v>13</v>
       </c>
       <c r="H257" s="4">
-        <v>45785</v>
+        <v>45803</v>
       </c>
       <c r="I257" s="4">
-        <v>45816</v>
+        <v>45834</v>
       </c>
       <c r="J257" t="s">
         <v>52</v>
       </c>
       <c r="K257" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -11027,7 +11015,7 @@
         <v>52</v>
       </c>
       <c r="K258" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -11062,7 +11050,7 @@
         <v>52</v>
       </c>
       <c r="K259" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -11094,10 +11082,10 @@
         <v>51</v>
       </c>
       <c r="J260" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K260" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -11132,7 +11120,7 @@
         <v>52</v>
       </c>
       <c r="K261" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -11167,7 +11155,7 @@
         <v>52</v>
       </c>
       <c r="K262" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -11202,7 +11190,7 @@
         <v>52</v>
       </c>
       <c r="K263" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -11237,7 +11225,7 @@
         <v>52</v>
       </c>
       <c r="K264" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -11272,7 +11260,7 @@
         <v>52</v>
       </c>
       <c r="K265" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -11304,10 +11292,10 @@
         <v>51</v>
       </c>
       <c r="J266" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K266" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -11339,10 +11327,10 @@
         <v>51</v>
       </c>
       <c r="J267" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K267" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -11377,7 +11365,7 @@
         <v>52</v>
       </c>
       <c r="K268" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -11409,10 +11397,10 @@
         <v>51</v>
       </c>
       <c r="J269" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K269" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -11444,10 +11432,10 @@
         <v>51</v>
       </c>
       <c r="J270" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K270" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -11482,7 +11470,7 @@
         <v>52</v>
       </c>
       <c r="K271" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -11517,7 +11505,7 @@
         <v>52</v>
       </c>
       <c r="K272" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -11552,7 +11540,7 @@
         <v>52</v>
       </c>
       <c r="K273" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -11587,7 +11575,7 @@
         <v>52</v>
       </c>
       <c r="K274" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -11622,7 +11610,7 @@
         <v>52</v>
       </c>
       <c r="K275" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -11657,7 +11645,7 @@
         <v>52</v>
       </c>
       <c r="K276" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -11689,10 +11677,10 @@
         <v>51</v>
       </c>
       <c r="J277" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K277" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -11724,10 +11712,10 @@
         <v>51</v>
       </c>
       <c r="J278" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K278" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -11762,7 +11750,7 @@
         <v>52</v>
       </c>
       <c r="K279" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -11797,7 +11785,7 @@
         <v>52</v>
       </c>
       <c r="K280" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -11832,7 +11820,7 @@
         <v>52</v>
       </c>
       <c r="K281" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -11867,7 +11855,7 @@
         <v>52</v>
       </c>
       <c r="K282" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -11902,7 +11890,7 @@
         <v>52</v>
       </c>
       <c r="K283" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -11934,10 +11922,10 @@
         <v>51</v>
       </c>
       <c r="J284" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K284" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -11972,7 +11960,7 @@
         <v>52</v>
       </c>
       <c r="K285" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -12007,7 +11995,7 @@
         <v>52</v>
       </c>
       <c r="K286" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -12042,7 +12030,7 @@
         <v>52</v>
       </c>
       <c r="K287" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -12077,7 +12065,7 @@
         <v>52</v>
       </c>
       <c r="K288" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -12109,10 +12097,10 @@
         <v>51</v>
       </c>
       <c r="J289" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="K289" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -12147,7 +12135,7 @@
         <v>52</v>
       </c>
       <c r="K290" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -12182,7 +12170,7 @@
         <v>52</v>
       </c>
       <c r="K291" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -12214,10 +12202,10 @@
         <v>51</v>
       </c>
       <c r="J292" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K292" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -12249,10 +12237,10 @@
         <v>51</v>
       </c>
       <c r="J293" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K293" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -12287,7 +12275,7 @@
         <v>52</v>
       </c>
       <c r="K294" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -12322,7 +12310,7 @@
         <v>52</v>
       </c>
       <c r="K295" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -12357,7 +12345,7 @@
         <v>52</v>
       </c>
       <c r="K296" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -12392,7 +12380,7 @@
         <v>52</v>
       </c>
       <c r="K297" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -12427,7 +12415,7 @@
         <v>52</v>
       </c>
       <c r="K298" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -12462,7 +12450,7 @@
         <v>52</v>
       </c>
       <c r="K299" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -12497,7 +12485,7 @@
         <v>52</v>
       </c>
       <c r="K300" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -12532,7 +12520,7 @@
         <v>52</v>
       </c>
       <c r="K301" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -12564,10 +12552,10 @@
         <v>51</v>
       </c>
       <c r="J302" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K302" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -12575,16 +12563,16 @@
         <v>32930447</v>
       </c>
       <c r="B303" s="1">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="C303" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="D303" s="1">
         <v>0.83</v>
       </c>
       <c r="E303">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F303" s="1">
         <v>0.83</v>
@@ -12593,16 +12581,16 @@
         <v>19</v>
       </c>
       <c r="H303" s="4">
-        <v>45786</v>
+        <v>45800</v>
       </c>
       <c r="I303" s="4">
-        <v>45801</v>
+        <v>45815</v>
       </c>
       <c r="J303" t="s">
         <v>52</v>
       </c>
       <c r="K303" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -12637,7 +12625,7 @@
         <v>52</v>
       </c>
       <c r="K304" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -12672,7 +12660,7 @@
         <v>52</v>
       </c>
       <c r="K305" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -12704,10 +12692,10 @@
         <v>51</v>
       </c>
       <c r="J306" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K306" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -12742,7 +12730,7 @@
         <v>52</v>
       </c>
       <c r="K307" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -12777,7 +12765,7 @@
         <v>52</v>
       </c>
       <c r="K308" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -12812,7 +12800,7 @@
         <v>52</v>
       </c>
       <c r="K309" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -12844,10 +12832,10 @@
         <v>51</v>
       </c>
       <c r="J310" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K310" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -12882,7 +12870,7 @@
         <v>52</v>
       </c>
       <c r="K311" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -12917,7 +12905,7 @@
         <v>52</v>
       </c>
       <c r="K312" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -12952,7 +12940,7 @@
         <v>52</v>
       </c>
       <c r="K313" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -12987,7 +12975,7 @@
         <v>52</v>
       </c>
       <c r="K314" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -13022,7 +13010,7 @@
         <v>52</v>
       </c>
       <c r="K315" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -13057,7 +13045,7 @@
         <v>52</v>
       </c>
       <c r="K316" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -13089,10 +13077,10 @@
         <v>51</v>
       </c>
       <c r="J317" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K317" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -13127,7 +13115,7 @@
         <v>52</v>
       </c>
       <c r="K318" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -13162,7 +13150,7 @@
         <v>52</v>
       </c>
       <c r="K319" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -13194,10 +13182,10 @@
         <v>51</v>
       </c>
       <c r="J320" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K320" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -13232,7 +13220,7 @@
         <v>52</v>
       </c>
       <c r="K321" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -13267,7 +13255,7 @@
         <v>52</v>
       </c>
       <c r="K322" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -13299,10 +13287,10 @@
         <v>51</v>
       </c>
       <c r="J323" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K323" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -13334,10 +13322,10 @@
         <v>51</v>
       </c>
       <c r="J324" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K324" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -13372,7 +13360,7 @@
         <v>52</v>
       </c>
       <c r="K325" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -13404,10 +13392,10 @@
         <v>51</v>
       </c>
       <c r="J326" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K326" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -13442,7 +13430,7 @@
         <v>52</v>
       </c>
       <c r="K327" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -13474,10 +13462,10 @@
         <v>51</v>
       </c>
       <c r="J328" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="K328" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -13509,10 +13497,10 @@
         <v>51</v>
       </c>
       <c r="J329" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K329" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -13547,7 +13535,7 @@
         <v>52</v>
       </c>
       <c r="K330" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -13582,7 +13570,7 @@
         <v>52</v>
       </c>
       <c r="K331" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -13590,16 +13578,16 @@
         <v>39084614</v>
       </c>
       <c r="B332" s="1">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="C332" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="D332" s="1">
         <v>0.83</v>
       </c>
       <c r="E332">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F332" s="1">
         <v>0.83</v>
@@ -13608,16 +13596,16 @@
         <v>19</v>
       </c>
       <c r="H332" s="4">
-        <v>45782</v>
+        <v>45803</v>
       </c>
       <c r="I332" s="4">
-        <v>45797</v>
+        <v>45818</v>
       </c>
       <c r="J332" t="s">
         <v>52</v>
       </c>
       <c r="K332" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -13649,10 +13637,10 @@
         <v>51</v>
       </c>
       <c r="J333" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K333" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -13687,7 +13675,7 @@
         <v>52</v>
       </c>
       <c r="K334" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -13695,34 +13683,34 @@
         <v>39273367</v>
       </c>
       <c r="B335" s="1">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="C335" s="1">
         <v>0.17</v>
       </c>
       <c r="D335" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E335">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F335" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G335" t="s">
         <v>16</v>
       </c>
       <c r="H335" s="4">
-        <v>45771</v>
+        <v>45803</v>
       </c>
       <c r="I335" s="4">
-        <v>45832</v>
+        <v>45864</v>
       </c>
       <c r="J335" t="s">
         <v>52</v>
       </c>
       <c r="K335" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -13757,7 +13745,7 @@
         <v>52</v>
       </c>
       <c r="K336" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -13792,7 +13780,7 @@
         <v>52</v>
       </c>
       <c r="K337" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -13827,7 +13815,7 @@
         <v>52</v>
       </c>
       <c r="K338" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -13862,7 +13850,7 @@
         <v>52</v>
       </c>
       <c r="K339" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -13894,10 +13882,10 @@
         <v>51</v>
       </c>
       <c r="J340" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K340" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -13932,7 +13920,7 @@
         <v>52</v>
       </c>
       <c r="K341" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -13967,7 +13955,7 @@
         <v>52</v>
       </c>
       <c r="K342" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -14002,7 +13990,7 @@
         <v>52</v>
       </c>
       <c r="K343" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -14037,7 +14025,7 @@
         <v>52</v>
       </c>
       <c r="K344" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -14072,7 +14060,7 @@
         <v>52</v>
       </c>
       <c r="K345" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -14104,10 +14092,10 @@
         <v>51</v>
       </c>
       <c r="J346" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K346" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -14142,7 +14130,7 @@
         <v>52</v>
       </c>
       <c r="K347" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -14177,7 +14165,7 @@
         <v>52</v>
       </c>
       <c r="K348" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -14212,7 +14200,7 @@
         <v>52</v>
       </c>
       <c r="K349" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -14247,7 +14235,7 @@
         <v>52</v>
       </c>
       <c r="K350" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -14282,7 +14270,7 @@
         <v>52</v>
       </c>
       <c r="K351" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -14317,7 +14305,7 @@
         <v>52</v>
       </c>
       <c r="K352" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -14352,7 +14340,7 @@
         <v>52</v>
       </c>
       <c r="K353" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -14387,7 +14375,7 @@
         <v>52</v>
       </c>
       <c r="K354" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -14404,7 +14392,7 @@
         <v>0.67</v>
       </c>
       <c r="E355">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F355" s="1">
         <v>0.67</v>
@@ -14413,16 +14401,16 @@
         <v>11</v>
       </c>
       <c r="H355" s="4">
-        <v>45777</v>
+        <v>45803</v>
       </c>
       <c r="I355" s="4">
-        <v>45784</v>
+        <v>45810</v>
       </c>
       <c r="J355" t="s">
         <v>52</v>
       </c>
       <c r="K355" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -14457,7 +14445,7 @@
         <v>52</v>
       </c>
       <c r="K356" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -14492,7 +14480,7 @@
         <v>52</v>
       </c>
       <c r="K357" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -14527,7 +14515,7 @@
         <v>52</v>
       </c>
       <c r="K358" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -14562,7 +14550,7 @@
         <v>52</v>
       </c>
       <c r="K359" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -14597,7 +14585,7 @@
         <v>52</v>
       </c>
       <c r="K360" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -14632,7 +14620,7 @@
         <v>52</v>
       </c>
       <c r="K361" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -14667,7 +14655,7 @@
         <v>52</v>
       </c>
       <c r="K362" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -14702,7 +14690,7 @@
         <v>52</v>
       </c>
       <c r="K363" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -14737,7 +14725,7 @@
         <v>52</v>
       </c>
       <c r="K364" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -14772,7 +14760,7 @@
         <v>52</v>
       </c>
       <c r="K365" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -14807,7 +14795,7 @@
         <v>52</v>
       </c>
       <c r="K366" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -14842,7 +14830,7 @@
         <v>52</v>
       </c>
       <c r="K367" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -14877,7 +14865,7 @@
         <v>52</v>
       </c>
       <c r="K368" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -14912,7 +14900,7 @@
         <v>52</v>
       </c>
       <c r="K369" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -14947,7 +14935,7 @@
         <v>52</v>
       </c>
       <c r="K370" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -14982,7 +14970,7 @@
         <v>52</v>
       </c>
       <c r="K371" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -14999,7 +14987,7 @@
         <v>1</v>
       </c>
       <c r="E372">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F372" s="1">
         <v>1</v>
@@ -15008,16 +14996,16 @@
         <v>39</v>
       </c>
       <c r="H372" s="4">
-        <v>45775</v>
+        <v>45803</v>
       </c>
       <c r="I372" s="4">
-        <v>45805</v>
+        <v>45834</v>
       </c>
       <c r="J372" t="s">
         <v>52</v>
       </c>
       <c r="K372" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -15052,7 +15040,7 @@
         <v>52</v>
       </c>
       <c r="K373" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -15087,7 +15075,7 @@
         <v>52</v>
       </c>
       <c r="K374" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -15122,7 +15110,7 @@
         <v>52</v>
       </c>
       <c r="K375" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -15157,7 +15145,7 @@
         <v>52</v>
       </c>
       <c r="K376" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -15174,7 +15162,7 @@
         <v>1</v>
       </c>
       <c r="E377">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F377" s="1">
         <v>1</v>
@@ -15183,16 +15171,16 @@
         <v>11</v>
       </c>
       <c r="H377" s="4">
-        <v>45799</v>
+        <v>45803</v>
       </c>
       <c r="I377" s="4">
-        <v>45806</v>
+        <v>45810</v>
       </c>
       <c r="J377" t="s">
         <v>52</v>
       </c>
       <c r="K377" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -15227,7 +15215,7 @@
         <v>52</v>
       </c>
       <c r="K378" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -15262,7 +15250,7 @@
         <v>52</v>
       </c>
       <c r="K379" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -15297,7 +15285,7 @@
         <v>52</v>
       </c>
       <c r="K380" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -15332,7 +15320,7 @@
         <v>52</v>
       </c>
       <c r="K381" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -15367,7 +15355,7 @@
         <v>52</v>
       </c>
       <c r="K382" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -15402,7 +15390,7 @@
         <v>52</v>
       </c>
       <c r="K383" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -15437,7 +15425,7 @@
         <v>52</v>
       </c>
       <c r="K384" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -15472,7 +15460,7 @@
         <v>52</v>
       </c>
       <c r="K385" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -15489,7 +15477,7 @@
         <v>0.33</v>
       </c>
       <c r="E386">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F386" s="1">
         <v>0.33</v>
@@ -15498,16 +15486,16 @@
         <v>28</v>
       </c>
       <c r="H386" s="4">
-        <v>45793</v>
+        <v>45803</v>
       </c>
       <c r="I386" s="4">
-        <v>45808</v>
+        <v>45818</v>
       </c>
       <c r="J386" t="s">
         <v>52</v>
       </c>
       <c r="K386" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -15542,7 +15530,7 @@
         <v>52</v>
       </c>
       <c r="K387" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -15577,7 +15565,7 @@
         <v>52</v>
       </c>
       <c r="K388" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -15594,7 +15582,7 @@
         <v>1</v>
       </c>
       <c r="E389">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F389" s="1">
         <v>1</v>
@@ -15603,16 +15591,16 @@
         <v>19</v>
       </c>
       <c r="H389" s="4">
-        <v>45797</v>
+        <v>45803</v>
       </c>
       <c r="I389" s="4">
-        <v>45812</v>
+        <v>45818</v>
       </c>
       <c r="J389" t="s">
         <v>52</v>
       </c>
       <c r="K389" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -15647,7 +15635,7 @@
         <v>52</v>
       </c>
       <c r="K390" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -15682,7 +15670,7 @@
         <v>52</v>
       </c>
       <c r="K391" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -15717,7 +15705,7 @@
         <v>52</v>
       </c>
       <c r="K392" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -15752,7 +15740,7 @@
         <v>52</v>
       </c>
       <c r="K393" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -15787,7 +15775,7 @@
         <v>52</v>
       </c>
       <c r="K394" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -15819,10 +15807,10 @@
         <v>51</v>
       </c>
       <c r="J395" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K395" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -15857,7 +15845,7 @@
         <v>52</v>
       </c>
       <c r="K396" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -15892,7 +15880,7 @@
         <v>52</v>
       </c>
       <c r="K397" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -15927,7 +15915,7 @@
         <v>52</v>
       </c>
       <c r="K398" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -15962,7 +15950,7 @@
         <v>52</v>
       </c>
       <c r="K399" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -15997,7 +15985,7 @@
         <v>52</v>
       </c>
       <c r="K400" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -16032,7 +16020,7 @@
         <v>52</v>
       </c>
       <c r="K401" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -16040,16 +16028,16 @@
         <v>46420329</v>
       </c>
       <c r="B402" s="1">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="C402" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="D402" s="1">
         <v>1</v>
       </c>
       <c r="E402">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F402" s="1">
         <v>1</v>
@@ -16058,16 +16046,16 @@
         <v>31</v>
       </c>
       <c r="H402" s="4">
-        <v>45786</v>
+        <v>45803</v>
       </c>
       <c r="I402" s="4">
-        <v>45801</v>
+        <v>45818</v>
       </c>
       <c r="J402" t="s">
         <v>52</v>
       </c>
       <c r="K402" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -16102,7 +16090,7 @@
         <v>52</v>
       </c>
       <c r="K403" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -16137,7 +16125,7 @@
         <v>52</v>
       </c>
       <c r="K404" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -16172,7 +16160,7 @@
         <v>52</v>
       </c>
       <c r="K405" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -16207,7 +16195,7 @@
         <v>52</v>
       </c>
       <c r="K406" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -16242,7 +16230,7 @@
         <v>52</v>
       </c>
       <c r="K407" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -16277,7 +16265,7 @@
         <v>52</v>
       </c>
       <c r="K408" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -16312,7 +16300,7 @@
         <v>52</v>
       </c>
       <c r="K409" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -16347,7 +16335,7 @@
         <v>52</v>
       </c>
       <c r="K410" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -16382,7 +16370,7 @@
         <v>52</v>
       </c>
       <c r="K411" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -16417,7 +16405,7 @@
         <v>52</v>
       </c>
       <c r="K412" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -16452,7 +16440,7 @@
         <v>52</v>
       </c>
       <c r="K413" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -16487,7 +16475,7 @@
         <v>52</v>
       </c>
       <c r="K414" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -16522,7 +16510,7 @@
         <v>52</v>
       </c>
       <c r="K415" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -16557,7 +16545,7 @@
         <v>52</v>
       </c>
       <c r="K416" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -16592,7 +16580,7 @@
         <v>52</v>
       </c>
       <c r="K417" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
+++ b/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="530">
   <si>
     <t>id_cliente</t>
   </si>
@@ -190,292 +190,310 @@
     <t>INATIVO - 38.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 41.7 meses sem comprar</t>
+    <t>INATIVO - 41.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 49.5 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 45.3 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 29.2 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 39.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 46.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.8 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 39.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 48.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.2 meses sem comprar</t>
+    <t>INATIVO - 35.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 47.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 48.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 46.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 47.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.0 meses sem comprar</t>
+    <t>INATIVO - 12.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 33.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 19.3 meses sem comprar</t>
+    <t>INATIVO - 19.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 17.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 32.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.2 meses sem comprar</t>
+    <t>INATIVO - 13.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.7 meses sem comprar</t>
@@ -493,19 +511,16 @@
     <t>INATIVO - 7.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.2 meses sem comprar</t>
+    <t>INATIVO - 10.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 11.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
+    <t>INATIVO - 10.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.0 meses sem comprar</t>
   </si>
   <si>
     <t>FRANCISCO SAMPAIO</t>
@@ -2055,7 +2070,7 @@
         <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2090,7 +2105,7 @@
         <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2125,7 +2140,7 @@
         <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2160,7 +2175,7 @@
         <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2195,7 +2210,7 @@
         <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2230,7 +2245,7 @@
         <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2265,7 +2280,7 @@
         <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2300,7 +2315,7 @@
         <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2335,7 +2350,7 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2370,7 +2385,7 @@
         <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2402,10 +2417,10 @@
         <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K12" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2437,10 +2452,10 @@
         <v>51</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K13" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2472,10 +2487,10 @@
         <v>51</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K14" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2507,10 +2522,10 @@
         <v>51</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K15" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2542,10 +2557,10 @@
         <v>51</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K16" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2580,7 +2595,7 @@
         <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2612,10 +2627,10 @@
         <v>51</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2647,10 +2662,10 @@
         <v>51</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2682,10 +2697,10 @@
         <v>51</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2717,10 +2732,10 @@
         <v>51</v>
       </c>
       <c r="J21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K21" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2752,10 +2767,10 @@
         <v>51</v>
       </c>
       <c r="J22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2787,10 +2802,10 @@
         <v>51</v>
       </c>
       <c r="J23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2822,10 +2837,10 @@
         <v>51</v>
       </c>
       <c r="J24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K24" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2860,7 +2875,7 @@
         <v>52</v>
       </c>
       <c r="K25" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2892,10 +2907,10 @@
         <v>51</v>
       </c>
       <c r="J26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K26" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2927,10 +2942,10 @@
         <v>51</v>
       </c>
       <c r="J27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K27" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2965,7 +2980,7 @@
         <v>52</v>
       </c>
       <c r="K28" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2997,10 +3012,10 @@
         <v>51</v>
       </c>
       <c r="J29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3035,7 +3050,7 @@
         <v>52</v>
       </c>
       <c r="K30" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3070,7 +3085,7 @@
         <v>52</v>
       </c>
       <c r="K31" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3105,7 +3120,7 @@
         <v>52</v>
       </c>
       <c r="K32" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3137,10 +3152,10 @@
         <v>51</v>
       </c>
       <c r="J33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K33" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3172,10 +3187,10 @@
         <v>51</v>
       </c>
       <c r="J34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3207,10 +3222,10 @@
         <v>51</v>
       </c>
       <c r="J35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3242,10 +3257,10 @@
         <v>51</v>
       </c>
       <c r="J36" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3280,7 +3295,7 @@
         <v>52</v>
       </c>
       <c r="K37" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3315,7 +3330,7 @@
         <v>52</v>
       </c>
       <c r="K38" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3350,7 +3365,7 @@
         <v>52</v>
       </c>
       <c r="K39" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3382,10 +3397,10 @@
         <v>51</v>
       </c>
       <c r="J40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K40" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3417,10 +3432,10 @@
         <v>51</v>
       </c>
       <c r="J41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3455,7 +3470,7 @@
         <v>52</v>
       </c>
       <c r="K42" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3487,10 +3502,10 @@
         <v>51</v>
       </c>
       <c r="J43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3525,7 +3540,7 @@
         <v>52</v>
       </c>
       <c r="K44" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3557,10 +3572,10 @@
         <v>51</v>
       </c>
       <c r="J45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3595,7 +3610,7 @@
         <v>52</v>
       </c>
       <c r="K46" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3630,7 +3645,7 @@
         <v>52</v>
       </c>
       <c r="K47" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3638,34 +3653,34 @@
         <v>3421656</v>
       </c>
       <c r="B48" s="1">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="C48" s="1">
         <v>0.33</v>
       </c>
       <c r="D48" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="E48">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F48" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="G48" t="s">
         <v>19</v>
       </c>
       <c r="H48" s="4">
-        <v>45791</v>
+        <v>45804</v>
       </c>
       <c r="I48" s="4">
-        <v>45806</v>
+        <v>45819</v>
       </c>
       <c r="J48" t="s">
         <v>52</v>
       </c>
       <c r="K48" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3700,7 +3715,7 @@
         <v>52</v>
       </c>
       <c r="K49" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3732,10 +3747,10 @@
         <v>51</v>
       </c>
       <c r="J50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3770,7 +3785,7 @@
         <v>52</v>
       </c>
       <c r="K51" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3805,7 +3820,7 @@
         <v>52</v>
       </c>
       <c r="K52" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3837,10 +3852,10 @@
         <v>51</v>
       </c>
       <c r="J53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3872,10 +3887,10 @@
         <v>51</v>
       </c>
       <c r="J54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K54" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3907,10 +3922,10 @@
         <v>51</v>
       </c>
       <c r="J55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3942,10 +3957,10 @@
         <v>51</v>
       </c>
       <c r="J56" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K56" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3977,10 +3992,10 @@
         <v>51</v>
       </c>
       <c r="J57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -4012,10 +4027,10 @@
         <v>51</v>
       </c>
       <c r="J58" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K58" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4047,10 +4062,10 @@
         <v>51</v>
       </c>
       <c r="J59" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4082,10 +4097,10 @@
         <v>51</v>
       </c>
       <c r="J60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4117,10 +4132,10 @@
         <v>51</v>
       </c>
       <c r="J61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4152,10 +4167,10 @@
         <v>51</v>
       </c>
       <c r="J62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K62" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4187,10 +4202,10 @@
         <v>51</v>
       </c>
       <c r="J63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4222,10 +4237,10 @@
         <v>51</v>
       </c>
       <c r="J64" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4257,10 +4272,10 @@
         <v>51</v>
       </c>
       <c r="J65" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K65" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4295,7 +4310,7 @@
         <v>52</v>
       </c>
       <c r="K66" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4327,10 +4342,10 @@
         <v>51</v>
       </c>
       <c r="J67" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K67" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4365,7 +4380,7 @@
         <v>52</v>
       </c>
       <c r="K68" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4397,10 +4412,10 @@
         <v>51</v>
       </c>
       <c r="J69" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K69" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4432,10 +4447,10 @@
         <v>51</v>
       </c>
       <c r="J70" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K70" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4467,10 +4482,10 @@
         <v>51</v>
       </c>
       <c r="J71" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K71" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4505,7 +4520,7 @@
         <v>52</v>
       </c>
       <c r="K72" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4537,10 +4552,10 @@
         <v>51</v>
       </c>
       <c r="J73" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K73" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4575,7 +4590,7 @@
         <v>52</v>
       </c>
       <c r="K74" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4607,10 +4622,10 @@
         <v>51</v>
       </c>
       <c r="J75" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K75" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4642,10 +4657,10 @@
         <v>51</v>
       </c>
       <c r="J76" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K76" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4680,7 +4695,7 @@
         <v>52</v>
       </c>
       <c r="K77" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4712,10 +4727,10 @@
         <v>51</v>
       </c>
       <c r="J78" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K78" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4747,10 +4762,10 @@
         <v>51</v>
       </c>
       <c r="J79" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K79" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4785,7 +4800,7 @@
         <v>52</v>
       </c>
       <c r="K80" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4817,10 +4832,10 @@
         <v>51</v>
       </c>
       <c r="J81" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K81" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4855,7 +4870,7 @@
         <v>52</v>
       </c>
       <c r="K82" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4887,10 +4902,10 @@
         <v>51</v>
       </c>
       <c r="J83" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K83" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4925,7 +4940,7 @@
         <v>52</v>
       </c>
       <c r="K84" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4957,10 +4972,10 @@
         <v>51</v>
       </c>
       <c r="J85" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K85" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4992,10 +5007,10 @@
         <v>51</v>
       </c>
       <c r="J86" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K86" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5027,10 +5042,10 @@
         <v>51</v>
       </c>
       <c r="J87" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K87" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -5062,10 +5077,10 @@
         <v>51</v>
       </c>
       <c r="J88" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K88" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5097,10 +5112,10 @@
         <v>51</v>
       </c>
       <c r="J89" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K89" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5132,10 +5147,10 @@
         <v>51</v>
       </c>
       <c r="J90" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K90" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5170,7 +5185,7 @@
         <v>52</v>
       </c>
       <c r="K91" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5202,10 +5217,10 @@
         <v>51</v>
       </c>
       <c r="J92" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K92" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5240,7 +5255,7 @@
         <v>52</v>
       </c>
       <c r="K93" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5275,7 +5290,7 @@
         <v>52</v>
       </c>
       <c r="K94" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5307,10 +5322,10 @@
         <v>51</v>
       </c>
       <c r="J95" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K95" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5345,7 +5360,7 @@
         <v>52</v>
       </c>
       <c r="K96" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5377,10 +5392,10 @@
         <v>51</v>
       </c>
       <c r="J97" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="K97" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5412,10 +5427,10 @@
         <v>51</v>
       </c>
       <c r="J98" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K98" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5447,10 +5462,10 @@
         <v>51</v>
       </c>
       <c r="J99" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K99" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5482,10 +5497,10 @@
         <v>51</v>
       </c>
       <c r="J100" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K100" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5520,7 +5535,7 @@
         <v>52</v>
       </c>
       <c r="K101" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5537,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F102" s="1">
         <v>1</v>
@@ -5546,16 +5561,16 @@
         <v>11</v>
       </c>
       <c r="H102" s="4">
-        <v>45799</v>
+        <v>45804</v>
       </c>
       <c r="I102" s="4">
-        <v>45806</v>
+        <v>45811</v>
       </c>
       <c r="J102" t="s">
         <v>52</v>
       </c>
       <c r="K102" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5587,10 +5602,10 @@
         <v>51</v>
       </c>
       <c r="J103" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K103" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5622,10 +5637,10 @@
         <v>51</v>
       </c>
       <c r="J104" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K104" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5660,7 +5675,7 @@
         <v>52</v>
       </c>
       <c r="K105" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5692,10 +5707,10 @@
         <v>51</v>
       </c>
       <c r="J106" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K106" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5727,10 +5742,10 @@
         <v>51</v>
       </c>
       <c r="J107" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K107" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5762,10 +5777,10 @@
         <v>51</v>
       </c>
       <c r="J108" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K108" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5800,7 +5815,7 @@
         <v>52</v>
       </c>
       <c r="K109" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5832,10 +5847,10 @@
         <v>51</v>
       </c>
       <c r="J110" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K110" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5867,10 +5882,10 @@
         <v>51</v>
       </c>
       <c r="J111" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K111" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5902,10 +5917,10 @@
         <v>51</v>
       </c>
       <c r="J112" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K112" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5937,10 +5952,10 @@
         <v>51</v>
       </c>
       <c r="J113" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K113" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5972,10 +5987,10 @@
         <v>51</v>
       </c>
       <c r="J114" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K114" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -6007,10 +6022,10 @@
         <v>51</v>
       </c>
       <c r="J115" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K115" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6042,10 +6057,10 @@
         <v>51</v>
       </c>
       <c r="J116" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K116" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -6080,7 +6095,7 @@
         <v>52</v>
       </c>
       <c r="K117" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6112,10 +6127,10 @@
         <v>51</v>
       </c>
       <c r="J118" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K118" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6150,7 +6165,7 @@
         <v>52</v>
       </c>
       <c r="K119" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6185,7 +6200,7 @@
         <v>52</v>
       </c>
       <c r="K120" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6217,10 +6232,10 @@
         <v>51</v>
       </c>
       <c r="J121" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="K121" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6252,10 +6267,10 @@
         <v>51</v>
       </c>
       <c r="J122" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="K122" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6290,7 +6305,7 @@
         <v>52</v>
       </c>
       <c r="K123" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6325,7 +6340,7 @@
         <v>52</v>
       </c>
       <c r="K124" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6357,10 +6372,10 @@
         <v>51</v>
       </c>
       <c r="J125" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="K125" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6392,10 +6407,10 @@
         <v>51</v>
       </c>
       <c r="J126" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K126" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6430,7 +6445,7 @@
         <v>52</v>
       </c>
       <c r="K127" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6462,10 +6477,10 @@
         <v>51</v>
       </c>
       <c r="J128" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K128" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6500,7 +6515,7 @@
         <v>52</v>
       </c>
       <c r="K129" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6535,7 +6550,7 @@
         <v>52</v>
       </c>
       <c r="K130" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6570,7 +6585,7 @@
         <v>52</v>
       </c>
       <c r="K131" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6602,10 +6617,10 @@
         <v>51</v>
       </c>
       <c r="J132" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K132" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6637,10 +6652,10 @@
         <v>51</v>
       </c>
       <c r="J133" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="K133" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6675,7 +6690,7 @@
         <v>52</v>
       </c>
       <c r="K134" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -6707,10 +6722,10 @@
         <v>51</v>
       </c>
       <c r="J135" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K135" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -6742,10 +6757,10 @@
         <v>51</v>
       </c>
       <c r="J136" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K136" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6777,10 +6792,10 @@
         <v>51</v>
       </c>
       <c r="J137" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K137" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6812,10 +6827,10 @@
         <v>51</v>
       </c>
       <c r="J138" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K138" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6850,7 +6865,7 @@
         <v>52</v>
       </c>
       <c r="K139" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6882,10 +6897,10 @@
         <v>51</v>
       </c>
       <c r="J140" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="K140" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6920,7 +6935,7 @@
         <v>52</v>
       </c>
       <c r="K141" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6955,7 +6970,7 @@
         <v>52</v>
       </c>
       <c r="K142" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -6987,10 +7002,10 @@
         <v>51</v>
       </c>
       <c r="J143" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K143" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -7025,7 +7040,7 @@
         <v>52</v>
       </c>
       <c r="K144" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -7060,7 +7075,7 @@
         <v>52</v>
       </c>
       <c r="K145" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -7095,7 +7110,7 @@
         <v>52</v>
       </c>
       <c r="K146" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7130,7 +7145,7 @@
         <v>52</v>
       </c>
       <c r="K147" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7165,7 +7180,7 @@
         <v>52</v>
       </c>
       <c r="K148" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7197,10 +7212,10 @@
         <v>51</v>
       </c>
       <c r="J149" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K149" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7235,7 +7250,7 @@
         <v>52</v>
       </c>
       <c r="K150" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7270,7 +7285,7 @@
         <v>52</v>
       </c>
       <c r="K151" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7302,10 +7317,10 @@
         <v>51</v>
       </c>
       <c r="J152" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K152" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7340,7 +7355,7 @@
         <v>52</v>
       </c>
       <c r="K153" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7375,7 +7390,7 @@
         <v>52</v>
       </c>
       <c r="K154" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7410,7 +7425,7 @@
         <v>52</v>
       </c>
       <c r="K155" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7445,7 +7460,7 @@
         <v>52</v>
       </c>
       <c r="K156" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -7480,7 +7495,7 @@
         <v>52</v>
       </c>
       <c r="K157" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -7515,7 +7530,7 @@
         <v>52</v>
       </c>
       <c r="K158" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -7550,7 +7565,7 @@
         <v>52</v>
       </c>
       <c r="K159" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -7582,10 +7597,10 @@
         <v>51</v>
       </c>
       <c r="J160" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K160" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -7617,10 +7632,10 @@
         <v>51</v>
       </c>
       <c r="J161" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K161" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7655,7 +7670,7 @@
         <v>52</v>
       </c>
       <c r="K162" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7687,10 +7702,10 @@
         <v>51</v>
       </c>
       <c r="J163" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="K163" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -7722,10 +7737,10 @@
         <v>51</v>
       </c>
       <c r="J164" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K164" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7742,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="E165">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F165" s="1">
         <v>1</v>
@@ -7751,16 +7766,16 @@
         <v>28</v>
       </c>
       <c r="H165" s="4">
-        <v>45799</v>
+        <v>45803</v>
       </c>
       <c r="I165" s="4">
-        <v>45814</v>
+        <v>45818</v>
       </c>
       <c r="J165" t="s">
         <v>52</v>
       </c>
       <c r="K165" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7795,7 +7810,7 @@
         <v>52</v>
       </c>
       <c r="K166" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7830,7 +7845,7 @@
         <v>52</v>
       </c>
       <c r="K167" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -7847,7 +7862,7 @@
         <v>0.83</v>
       </c>
       <c r="E168">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F168" s="1">
         <v>0.83</v>
@@ -7856,16 +7871,16 @@
         <v>28</v>
       </c>
       <c r="H168" s="4">
-        <v>45799</v>
+        <v>45803</v>
       </c>
       <c r="I168" s="4">
-        <v>45814</v>
+        <v>45818</v>
       </c>
       <c r="J168" t="s">
         <v>52</v>
       </c>
       <c r="K168" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7900,7 +7915,7 @@
         <v>52</v>
       </c>
       <c r="K169" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -7935,7 +7950,7 @@
         <v>52</v>
       </c>
       <c r="K170" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7967,10 +7982,10 @@
         <v>51</v>
       </c>
       <c r="J171" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K171" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -8005,7 +8020,7 @@
         <v>52</v>
       </c>
       <c r="K172" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -8022,7 +8037,7 @@
         <v>0.83</v>
       </c>
       <c r="E173">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F173" s="1">
         <v>0.83</v>
@@ -8031,16 +8046,16 @@
         <v>28</v>
       </c>
       <c r="H173" s="4">
-        <v>45799</v>
+        <v>45803</v>
       </c>
       <c r="I173" s="4">
-        <v>45814</v>
+        <v>45818</v>
       </c>
       <c r="J173" t="s">
         <v>52</v>
       </c>
       <c r="K173" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -8075,7 +8090,7 @@
         <v>52</v>
       </c>
       <c r="K174" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -8110,7 +8125,7 @@
         <v>52</v>
       </c>
       <c r="K175" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -8127,7 +8142,7 @@
         <v>1</v>
       </c>
       <c r="E176">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F176" s="1">
         <v>1</v>
@@ -8136,16 +8151,16 @@
         <v>11</v>
       </c>
       <c r="H176" s="4">
-        <v>45799</v>
+        <v>45804</v>
       </c>
       <c r="I176" s="4">
-        <v>45806</v>
+        <v>45811</v>
       </c>
       <c r="J176" t="s">
         <v>52</v>
       </c>
       <c r="K176" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -8180,7 +8195,7 @@
         <v>52</v>
       </c>
       <c r="K177" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -8215,7 +8230,7 @@
         <v>52</v>
       </c>
       <c r="K178" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -8250,7 +8265,7 @@
         <v>52</v>
       </c>
       <c r="K179" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -8282,10 +8297,10 @@
         <v>51</v>
       </c>
       <c r="J180" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K180" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -8302,7 +8317,7 @@
         <v>0.83</v>
       </c>
       <c r="E181">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F181" s="1">
         <v>0.83</v>
@@ -8320,7 +8335,7 @@
         <v>52</v>
       </c>
       <c r="K181" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -8355,7 +8370,7 @@
         <v>52</v>
       </c>
       <c r="K182" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -8390,7 +8405,7 @@
         <v>52</v>
       </c>
       <c r="K183" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -8425,7 +8440,7 @@
         <v>52</v>
       </c>
       <c r="K184" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -8460,7 +8475,7 @@
         <v>52</v>
       </c>
       <c r="K185" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -8492,10 +8507,10 @@
         <v>51</v>
       </c>
       <c r="J186" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K186" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -8527,10 +8542,10 @@
         <v>51</v>
       </c>
       <c r="J187" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K187" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -8562,10 +8577,10 @@
         <v>51</v>
       </c>
       <c r="J188" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K188" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -8600,7 +8615,7 @@
         <v>52</v>
       </c>
       <c r="K189" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -8635,7 +8650,7 @@
         <v>52</v>
       </c>
       <c r="K190" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -8670,7 +8685,7 @@
         <v>52</v>
       </c>
       <c r="K191" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -8705,7 +8720,7 @@
         <v>52</v>
       </c>
       <c r="K192" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -8722,7 +8737,7 @@
         <v>1</v>
       </c>
       <c r="E193">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F193" s="1">
         <v>1</v>
@@ -8731,16 +8746,16 @@
         <v>13</v>
       </c>
       <c r="H193" s="4">
-        <v>45777</v>
+        <v>45803</v>
       </c>
       <c r="I193" s="4">
-        <v>45807</v>
+        <v>45834</v>
       </c>
       <c r="J193" t="s">
         <v>52</v>
       </c>
       <c r="K193" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -8772,10 +8787,10 @@
         <v>51</v>
       </c>
       <c r="J194" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K194" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8810,7 +8825,7 @@
         <v>52</v>
       </c>
       <c r="K195" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -8845,7 +8860,7 @@
         <v>52</v>
       </c>
       <c r="K196" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -8880,7 +8895,7 @@
         <v>52</v>
       </c>
       <c r="K197" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -8912,10 +8927,10 @@
         <v>51</v>
       </c>
       <c r="J198" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K198" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -8950,7 +8965,7 @@
         <v>52</v>
       </c>
       <c r="K199" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -8985,7 +9000,7 @@
         <v>52</v>
       </c>
       <c r="K200" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -9020,7 +9035,7 @@
         <v>52</v>
       </c>
       <c r="K201" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -9055,7 +9070,7 @@
         <v>52</v>
       </c>
       <c r="K202" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -9090,7 +9105,7 @@
         <v>52</v>
       </c>
       <c r="K203" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -9122,10 +9137,10 @@
         <v>51</v>
       </c>
       <c r="J204" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K204" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -9160,7 +9175,7 @@
         <v>52</v>
       </c>
       <c r="K205" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -9192,10 +9207,10 @@
         <v>51</v>
       </c>
       <c r="J206" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K206" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -9230,7 +9245,7 @@
         <v>52</v>
       </c>
       <c r="K207" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -9262,10 +9277,10 @@
         <v>51</v>
       </c>
       <c r="J208" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K208" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -9300,7 +9315,7 @@
         <v>52</v>
       </c>
       <c r="K209" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -9332,10 +9347,10 @@
         <v>51</v>
       </c>
       <c r="J210" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K210" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -9370,7 +9385,7 @@
         <v>52</v>
       </c>
       <c r="K211" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -9402,10 +9417,10 @@
         <v>51</v>
       </c>
       <c r="J212" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K212" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -9437,10 +9452,10 @@
         <v>51</v>
       </c>
       <c r="J213" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K213" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -9475,7 +9490,7 @@
         <v>52</v>
       </c>
       <c r="K214" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -9507,10 +9522,10 @@
         <v>51</v>
       </c>
       <c r="J215" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K215" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -9545,7 +9560,7 @@
         <v>52</v>
       </c>
       <c r="K216" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -9580,7 +9595,7 @@
         <v>52</v>
       </c>
       <c r="K217" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -9615,7 +9630,7 @@
         <v>52</v>
       </c>
       <c r="K218" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -9650,7 +9665,7 @@
         <v>52</v>
       </c>
       <c r="K219" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -9658,34 +9673,34 @@
         <v>6340700</v>
       </c>
       <c r="B220" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C220" s="1">
         <v>0.17</v>
       </c>
       <c r="D220" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="E220">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="G220" t="s">
         <v>37</v>
       </c>
       <c r="H220" s="4">
-        <v>45785</v>
+        <v>45797</v>
       </c>
       <c r="I220" s="4">
-        <v>45908</v>
+        <v>45920</v>
       </c>
       <c r="J220" t="s">
         <v>52</v>
       </c>
       <c r="K220" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -9720,7 +9735,7 @@
         <v>52</v>
       </c>
       <c r="K221" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -9755,7 +9770,7 @@
         <v>52</v>
       </c>
       <c r="K222" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -9790,7 +9805,7 @@
         <v>52</v>
       </c>
       <c r="K223" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -9825,7 +9840,7 @@
         <v>52</v>
       </c>
       <c r="K224" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -9857,10 +9872,10 @@
         <v>51</v>
       </c>
       <c r="J225" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K225" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -9895,7 +9910,7 @@
         <v>52</v>
       </c>
       <c r="K226" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -9930,7 +9945,7 @@
         <v>52</v>
       </c>
       <c r="K227" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -9962,10 +9977,10 @@
         <v>51</v>
       </c>
       <c r="J228" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K228" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -10000,7 +10015,7 @@
         <v>52</v>
       </c>
       <c r="K229" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -10035,7 +10050,7 @@
         <v>52</v>
       </c>
       <c r="K230" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -10070,7 +10085,7 @@
         <v>52</v>
       </c>
       <c r="K231" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -10102,10 +10117,10 @@
         <v>51</v>
       </c>
       <c r="J232" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K232" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -10140,7 +10155,7 @@
         <v>52</v>
       </c>
       <c r="K233" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -10175,7 +10190,7 @@
         <v>52</v>
       </c>
       <c r="K234" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -10210,7 +10225,7 @@
         <v>52</v>
       </c>
       <c r="K235" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -10245,7 +10260,7 @@
         <v>52</v>
       </c>
       <c r="K236" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -10280,7 +10295,7 @@
         <v>52</v>
       </c>
       <c r="K237" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -10315,7 +10330,7 @@
         <v>52</v>
       </c>
       <c r="K238" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -10347,10 +10362,10 @@
         <v>51</v>
       </c>
       <c r="J239" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K239" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -10385,7 +10400,7 @@
         <v>52</v>
       </c>
       <c r="K240" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -10420,7 +10435,7 @@
         <v>52</v>
       </c>
       <c r="K241" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -10452,10 +10467,10 @@
         <v>51</v>
       </c>
       <c r="J242" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K242" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -10490,7 +10505,7 @@
         <v>52</v>
       </c>
       <c r="K243" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -10522,10 +10537,10 @@
         <v>51</v>
       </c>
       <c r="J244" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="K244" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -10560,7 +10575,7 @@
         <v>52</v>
       </c>
       <c r="K245" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -10595,7 +10610,7 @@
         <v>52</v>
       </c>
       <c r="K246" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -10630,7 +10645,7 @@
         <v>52</v>
       </c>
       <c r="K247" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -10662,10 +10677,10 @@
         <v>51</v>
       </c>
       <c r="J248" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K248" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -10697,10 +10712,10 @@
         <v>51</v>
       </c>
       <c r="J249" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K249" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -10735,7 +10750,7 @@
         <v>52</v>
       </c>
       <c r="K250" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -10770,7 +10785,7 @@
         <v>52</v>
       </c>
       <c r="K251" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -10805,7 +10820,7 @@
         <v>52</v>
       </c>
       <c r="K252" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -10837,10 +10852,10 @@
         <v>51</v>
       </c>
       <c r="J253" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K253" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -10875,7 +10890,7 @@
         <v>52</v>
       </c>
       <c r="K254" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -10910,7 +10925,7 @@
         <v>52</v>
       </c>
       <c r="K255" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -10942,10 +10957,10 @@
         <v>51</v>
       </c>
       <c r="J256" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="K256" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -10980,7 +10995,7 @@
         <v>52</v>
       </c>
       <c r="K257" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -11015,7 +11030,7 @@
         <v>52</v>
       </c>
       <c r="K258" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -11050,7 +11065,7 @@
         <v>52</v>
       </c>
       <c r="K259" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -11082,10 +11097,10 @@
         <v>51</v>
       </c>
       <c r="J260" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K260" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -11120,7 +11135,7 @@
         <v>52</v>
       </c>
       <c r="K261" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -11155,7 +11170,7 @@
         <v>52</v>
       </c>
       <c r="K262" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -11190,7 +11205,7 @@
         <v>52</v>
       </c>
       <c r="K263" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -11225,7 +11240,7 @@
         <v>52</v>
       </c>
       <c r="K264" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -11260,7 +11275,7 @@
         <v>52</v>
       </c>
       <c r="K265" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -11292,10 +11307,10 @@
         <v>51</v>
       </c>
       <c r="J266" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K266" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -11327,10 +11342,10 @@
         <v>51</v>
       </c>
       <c r="J267" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K267" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -11365,7 +11380,7 @@
         <v>52</v>
       </c>
       <c r="K268" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -11397,10 +11412,10 @@
         <v>51</v>
       </c>
       <c r="J269" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K269" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -11432,10 +11447,10 @@
         <v>51</v>
       </c>
       <c r="J270" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K270" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -11470,7 +11485,7 @@
         <v>52</v>
       </c>
       <c r="K271" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -11505,7 +11520,7 @@
         <v>52</v>
       </c>
       <c r="K272" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -11540,7 +11555,7 @@
         <v>52</v>
       </c>
       <c r="K273" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -11575,7 +11590,7 @@
         <v>52</v>
       </c>
       <c r="K274" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -11610,7 +11625,7 @@
         <v>52</v>
       </c>
       <c r="K275" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -11645,7 +11660,7 @@
         <v>52</v>
       </c>
       <c r="K276" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -11677,10 +11692,10 @@
         <v>51</v>
       </c>
       <c r="J277" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K277" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -11712,10 +11727,10 @@
         <v>51</v>
       </c>
       <c r="J278" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K278" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -11750,7 +11765,7 @@
         <v>52</v>
       </c>
       <c r="K279" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -11785,7 +11800,7 @@
         <v>52</v>
       </c>
       <c r="K280" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -11796,31 +11811,31 @@
         <v>0.58</v>
       </c>
       <c r="C281" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D281" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="E281">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F281" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G281" t="s">
         <v>13</v>
       </c>
       <c r="H281" s="4">
-        <v>45750</v>
+        <v>45804</v>
       </c>
       <c r="I281" s="4">
-        <v>45780</v>
+        <v>45835</v>
       </c>
       <c r="J281" t="s">
         <v>52</v>
       </c>
       <c r="K281" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -11855,7 +11870,7 @@
         <v>52</v>
       </c>
       <c r="K282" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -11890,7 +11905,7 @@
         <v>52</v>
       </c>
       <c r="K283" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -11922,10 +11937,10 @@
         <v>51</v>
       </c>
       <c r="J284" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K284" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -11960,7 +11975,7 @@
         <v>52</v>
       </c>
       <c r="K285" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -11995,7 +12010,7 @@
         <v>52</v>
       </c>
       <c r="K286" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -12030,7 +12045,7 @@
         <v>52</v>
       </c>
       <c r="K287" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -12065,7 +12080,7 @@
         <v>52</v>
       </c>
       <c r="K288" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -12097,10 +12112,10 @@
         <v>51</v>
       </c>
       <c r="J289" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K289" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -12135,7 +12150,7 @@
         <v>52</v>
       </c>
       <c r="K290" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -12170,7 +12185,7 @@
         <v>52</v>
       </c>
       <c r="K291" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -12202,10 +12217,10 @@
         <v>51</v>
       </c>
       <c r="J292" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="K292" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -12237,10 +12252,10 @@
         <v>51</v>
       </c>
       <c r="J293" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K293" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -12275,7 +12290,7 @@
         <v>52</v>
       </c>
       <c r="K294" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -12310,7 +12325,7 @@
         <v>52</v>
       </c>
       <c r="K295" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -12345,7 +12360,7 @@
         <v>52</v>
       </c>
       <c r="K296" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -12380,7 +12395,7 @@
         <v>52</v>
       </c>
       <c r="K297" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -12415,7 +12430,7 @@
         <v>52</v>
       </c>
       <c r="K298" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -12450,7 +12465,7 @@
         <v>52</v>
       </c>
       <c r="K299" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -12485,7 +12500,7 @@
         <v>52</v>
       </c>
       <c r="K300" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -12520,7 +12535,7 @@
         <v>52</v>
       </c>
       <c r="K301" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -12552,10 +12567,10 @@
         <v>51</v>
       </c>
       <c r="J302" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K302" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -12590,7 +12605,7 @@
         <v>52</v>
       </c>
       <c r="K303" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -12625,7 +12640,7 @@
         <v>52</v>
       </c>
       <c r="K304" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -12660,7 +12675,7 @@
         <v>52</v>
       </c>
       <c r="K305" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -12692,10 +12707,10 @@
         <v>51</v>
       </c>
       <c r="J306" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K306" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -12730,7 +12745,7 @@
         <v>52</v>
       </c>
       <c r="K307" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -12765,7 +12780,7 @@
         <v>52</v>
       </c>
       <c r="K308" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -12800,7 +12815,7 @@
         <v>52</v>
       </c>
       <c r="K309" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -12832,10 +12847,10 @@
         <v>51</v>
       </c>
       <c r="J310" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K310" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -12870,7 +12885,7 @@
         <v>52</v>
       </c>
       <c r="K311" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -12905,7 +12920,7 @@
         <v>52</v>
       </c>
       <c r="K312" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -12940,7 +12955,7 @@
         <v>52</v>
       </c>
       <c r="K313" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -12975,7 +12990,7 @@
         <v>52</v>
       </c>
       <c r="K314" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -13010,7 +13025,7 @@
         <v>52</v>
       </c>
       <c r="K315" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -13045,7 +13060,7 @@
         <v>52</v>
       </c>
       <c r="K316" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -13077,10 +13092,10 @@
         <v>51</v>
       </c>
       <c r="J317" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K317" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -13115,7 +13130,7 @@
         <v>52</v>
       </c>
       <c r="K318" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -13150,7 +13165,7 @@
         <v>52</v>
       </c>
       <c r="K319" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -13182,10 +13197,10 @@
         <v>51</v>
       </c>
       <c r="J320" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K320" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -13220,7 +13235,7 @@
         <v>52</v>
       </c>
       <c r="K321" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -13255,7 +13270,7 @@
         <v>52</v>
       </c>
       <c r="K322" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -13287,10 +13302,10 @@
         <v>51</v>
       </c>
       <c r="J323" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K323" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -13322,10 +13337,10 @@
         <v>51</v>
       </c>
       <c r="J324" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K324" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -13360,7 +13375,7 @@
         <v>52</v>
       </c>
       <c r="K325" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -13392,10 +13407,10 @@
         <v>51</v>
       </c>
       <c r="J326" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K326" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -13430,7 +13445,7 @@
         <v>52</v>
       </c>
       <c r="K327" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -13462,10 +13477,10 @@
         <v>51</v>
       </c>
       <c r="J328" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K328" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -13497,10 +13512,10 @@
         <v>51</v>
       </c>
       <c r="J329" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K329" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -13535,7 +13550,7 @@
         <v>52</v>
       </c>
       <c r="K330" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -13570,7 +13585,7 @@
         <v>52</v>
       </c>
       <c r="K331" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -13605,7 +13620,7 @@
         <v>52</v>
       </c>
       <c r="K332" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -13637,10 +13652,10 @@
         <v>51</v>
       </c>
       <c r="J333" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K333" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -13675,7 +13690,7 @@
         <v>52</v>
       </c>
       <c r="K334" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -13710,7 +13725,7 @@
         <v>52</v>
       </c>
       <c r="K335" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -13745,7 +13760,7 @@
         <v>52</v>
       </c>
       <c r="K336" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -13780,7 +13795,7 @@
         <v>52</v>
       </c>
       <c r="K337" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -13815,7 +13830,7 @@
         <v>52</v>
       </c>
       <c r="K338" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -13850,7 +13865,7 @@
         <v>52</v>
       </c>
       <c r="K339" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -13882,10 +13897,10 @@
         <v>51</v>
       </c>
       <c r="J340" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K340" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -13920,7 +13935,7 @@
         <v>52</v>
       </c>
       <c r="K341" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -13955,7 +13970,7 @@
         <v>52</v>
       </c>
       <c r="K342" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -13990,7 +14005,7 @@
         <v>52</v>
       </c>
       <c r="K343" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -14025,7 +14040,7 @@
         <v>52</v>
       </c>
       <c r="K344" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -14060,7 +14075,7 @@
         <v>52</v>
       </c>
       <c r="K345" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -14092,10 +14107,10 @@
         <v>51</v>
       </c>
       <c r="J346" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K346" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -14130,7 +14145,7 @@
         <v>52</v>
       </c>
       <c r="K347" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -14165,7 +14180,7 @@
         <v>52</v>
       </c>
       <c r="K348" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -14200,7 +14215,7 @@
         <v>52</v>
       </c>
       <c r="K349" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -14235,7 +14250,7 @@
         <v>52</v>
       </c>
       <c r="K350" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -14270,7 +14285,7 @@
         <v>52</v>
       </c>
       <c r="K351" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -14305,7 +14320,7 @@
         <v>52</v>
       </c>
       <c r="K352" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -14340,7 +14355,7 @@
         <v>52</v>
       </c>
       <c r="K353" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -14375,7 +14390,7 @@
         <v>52</v>
       </c>
       <c r="K354" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -14410,7 +14425,7 @@
         <v>52</v>
       </c>
       <c r="K355" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -14445,7 +14460,7 @@
         <v>52</v>
       </c>
       <c r="K356" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -14480,7 +14495,7 @@
         <v>52</v>
       </c>
       <c r="K357" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -14515,7 +14530,7 @@
         <v>52</v>
       </c>
       <c r="K358" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -14550,7 +14565,7 @@
         <v>52</v>
       </c>
       <c r="K359" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -14585,7 +14600,7 @@
         <v>52</v>
       </c>
       <c r="K360" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -14620,7 +14635,7 @@
         <v>52</v>
       </c>
       <c r="K361" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -14655,7 +14670,7 @@
         <v>52</v>
       </c>
       <c r="K362" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -14690,7 +14705,7 @@
         <v>52</v>
       </c>
       <c r="K363" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -14725,7 +14740,7 @@
         <v>52</v>
       </c>
       <c r="K364" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -14760,7 +14775,7 @@
         <v>52</v>
       </c>
       <c r="K365" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -14795,7 +14810,7 @@
         <v>52</v>
       </c>
       <c r="K366" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -14830,7 +14845,7 @@
         <v>52</v>
       </c>
       <c r="K367" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -14865,7 +14880,7 @@
         <v>52</v>
       </c>
       <c r="K368" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -14882,7 +14897,7 @@
         <v>0.33</v>
       </c>
       <c r="E369">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F369" s="1">
         <v>0.33</v>
@@ -14891,16 +14906,16 @@
         <v>13</v>
       </c>
       <c r="H369" s="4">
-        <v>45796</v>
+        <v>45804</v>
       </c>
       <c r="I369" s="4">
-        <v>45827</v>
+        <v>45835</v>
       </c>
       <c r="J369" t="s">
         <v>52</v>
       </c>
       <c r="K369" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -14935,7 +14950,7 @@
         <v>52</v>
       </c>
       <c r="K370" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -14970,7 +14985,7 @@
         <v>52</v>
       </c>
       <c r="K371" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -15005,7 +15020,7 @@
         <v>52</v>
       </c>
       <c r="K372" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -15040,7 +15055,7 @@
         <v>52</v>
       </c>
       <c r="K373" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -15075,7 +15090,7 @@
         <v>52</v>
       </c>
       <c r="K374" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -15110,7 +15125,7 @@
         <v>52</v>
       </c>
       <c r="K375" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -15145,7 +15160,7 @@
         <v>52</v>
       </c>
       <c r="K376" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -15162,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="E377">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F377" s="1">
         <v>1</v>
@@ -15171,16 +15186,16 @@
         <v>11</v>
       </c>
       <c r="H377" s="4">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="I377" s="4">
-        <v>45810</v>
+        <v>45811</v>
       </c>
       <c r="J377" t="s">
         <v>52</v>
       </c>
       <c r="K377" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -15215,7 +15230,7 @@
         <v>52</v>
       </c>
       <c r="K378" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -15250,7 +15265,7 @@
         <v>52</v>
       </c>
       <c r="K379" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -15285,7 +15300,7 @@
         <v>52</v>
       </c>
       <c r="K380" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -15320,7 +15335,7 @@
         <v>52</v>
       </c>
       <c r="K381" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -15355,7 +15370,7 @@
         <v>52</v>
       </c>
       <c r="K382" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -15390,7 +15405,7 @@
         <v>52</v>
       </c>
       <c r="K383" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -15425,7 +15440,7 @@
         <v>52</v>
       </c>
       <c r="K384" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -15460,7 +15475,7 @@
         <v>52</v>
       </c>
       <c r="K385" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -15495,7 +15510,7 @@
         <v>52</v>
       </c>
       <c r="K386" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -15530,7 +15545,7 @@
         <v>52</v>
       </c>
       <c r="K387" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -15565,7 +15580,7 @@
         <v>52</v>
       </c>
       <c r="K388" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -15600,7 +15615,7 @@
         <v>52</v>
       </c>
       <c r="K389" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -15635,7 +15650,7 @@
         <v>52</v>
       </c>
       <c r="K390" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -15670,7 +15685,7 @@
         <v>52</v>
       </c>
       <c r="K391" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -15705,7 +15720,7 @@
         <v>52</v>
       </c>
       <c r="K392" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -15740,7 +15755,7 @@
         <v>52</v>
       </c>
       <c r="K393" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -15775,7 +15790,7 @@
         <v>52</v>
       </c>
       <c r="K394" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -15807,10 +15822,10 @@
         <v>51</v>
       </c>
       <c r="J395" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K395" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -15827,7 +15842,7 @@
         <v>0.83</v>
       </c>
       <c r="E396">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F396" s="1">
         <v>0.83</v>
@@ -15836,16 +15851,16 @@
         <v>11</v>
       </c>
       <c r="H396" s="4">
-        <v>45800</v>
+        <v>45804</v>
       </c>
       <c r="I396" s="4">
-        <v>45807</v>
+        <v>45811</v>
       </c>
       <c r="J396" t="s">
         <v>52</v>
       </c>
       <c r="K396" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -15880,7 +15895,7 @@
         <v>52</v>
       </c>
       <c r="K397" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -15915,7 +15930,7 @@
         <v>52</v>
       </c>
       <c r="K398" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -15950,7 +15965,7 @@
         <v>52</v>
       </c>
       <c r="K399" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -15985,7 +16000,7 @@
         <v>52</v>
       </c>
       <c r="K400" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -16020,7 +16035,7 @@
         <v>52</v>
       </c>
       <c r="K401" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -16055,7 +16070,7 @@
         <v>52</v>
       </c>
       <c r="K402" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -16090,7 +16105,7 @@
         <v>52</v>
       </c>
       <c r="K403" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -16125,7 +16140,7 @@
         <v>52</v>
       </c>
       <c r="K404" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -16160,7 +16175,7 @@
         <v>52</v>
       </c>
       <c r="K405" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -16195,7 +16210,7 @@
         <v>52</v>
       </c>
       <c r="K406" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -16230,7 +16245,7 @@
         <v>52</v>
       </c>
       <c r="K407" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -16265,7 +16280,7 @@
         <v>52</v>
       </c>
       <c r="K408" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -16300,7 +16315,7 @@
         <v>52</v>
       </c>
       <c r="K409" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -16335,7 +16350,7 @@
         <v>52</v>
       </c>
       <c r="K410" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -16370,7 +16385,7 @@
         <v>52</v>
       </c>
       <c r="K411" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -16405,7 +16420,7 @@
         <v>52</v>
       </c>
       <c r="K412" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -16440,7 +16455,7 @@
         <v>52</v>
       </c>
       <c r="K413" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -16457,25 +16472,25 @@
         <v>0.8</v>
       </c>
       <c r="E414">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F414" s="1">
         <v>0.8</v>
       </c>
       <c r="G414" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H414" s="4">
-        <v>45799</v>
+        <v>45804</v>
       </c>
       <c r="I414" s="4">
-        <v>45806</v>
+        <v>45811</v>
       </c>
       <c r="J414" t="s">
         <v>52</v>
       </c>
       <c r="K414" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -16510,7 +16525,7 @@
         <v>52</v>
       </c>
       <c r="K415" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -16545,7 +16560,7 @@
         <v>52</v>
       </c>
       <c r="K416" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -16580,7 +16595,7 @@
         <v>52</v>
       </c>
       <c r="K417" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
+++ b/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="526">
   <si>
     <t>id_cliente</t>
   </si>
@@ -181,10 +181,10 @@
     <t>INATIVO - 45.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 44.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.3 meses sem comprar</t>
+    <t>INATIVO - 44.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 38.8 meses sem comprar</t>
@@ -193,10 +193,10 @@
     <t>INATIVO - 41.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 49.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.2 meses sem comprar</t>
+    <t>INATIVO - 49.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 39.3 meses sem comprar</t>
@@ -205,9 +205,6 @@
     <t>INATIVO - 48.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 44.9 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 48.3 meses sem comprar</t>
   </si>
   <si>
@@ -223,10 +220,10 @@
     <t>INATIVO - 0.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.1 meses sem comprar</t>
+    <t>INATIVO - 18.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 44.4 meses sem comprar</t>
@@ -238,7 +235,7 @@
     <t>INATIVO - 46.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 8.9 meses sem comprar</t>
+    <t>INATIVO - 9.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 11.5 meses sem comprar</t>
@@ -247,6 +244,9 @@
     <t>INATIVO - 27.8 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 44.5 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 35.2 meses sem comprar</t>
   </si>
   <si>
@@ -268,10 +268,10 @@
     <t>INATIVO - 0.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.6 meses sem comprar</t>
+    <t>INATIVO - 38.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 38.1 meses sem comprar</t>
@@ -280,7 +280,7 @@
     <t>INATIVO - 42.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
+    <t>INATIVO - 7.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.3 meses sem comprar</t>
@@ -289,16 +289,16 @@
     <t>INATIVO - 14.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.3 meses sem comprar</t>
+    <t>INATIVO - 15.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 15.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
+    <t>INATIVO - 7.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 47.9 meses sem comprar</t>
@@ -316,150 +316,150 @@
     <t>INATIVO - 42.0 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 17.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 17.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 26.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.5 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 12.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 6.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.8 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 8.2 meses sem comprar</t>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <t>INATIVO - 9.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.9 meses sem comprar</t>
+    <t>INATIVO - 7.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 11.1 meses sem comprar</t>
@@ -487,19 +487,22 @@
     <t>INATIVO - 12.4 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 10.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 8.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 11.6 meses sem comprar</t>
+    <t>INATIVO - 11.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 10.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 8.0 meses sem comprar</t>
@@ -2055,7 +2058,7 @@
         <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2090,7 +2093,7 @@
         <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2125,7 +2128,7 @@
         <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2160,7 +2163,7 @@
         <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2195,7 +2198,7 @@
         <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2230,7 +2233,7 @@
         <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2265,7 +2268,7 @@
         <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2300,7 +2303,7 @@
         <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2335,7 +2338,7 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2370,7 +2373,7 @@
         <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2405,7 +2408,7 @@
         <v>53</v>
       </c>
       <c r="K12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2440,7 +2443,7 @@
         <v>60</v>
       </c>
       <c r="K13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2475,7 +2478,7 @@
         <v>61</v>
       </c>
       <c r="K14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2510,7 +2513,7 @@
         <v>62</v>
       </c>
       <c r="K15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2545,7 +2548,7 @@
         <v>54</v>
       </c>
       <c r="K16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2577,10 +2580,10 @@
         <v>51</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2612,10 +2615,10 @@
         <v>51</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2647,10 +2650,10 @@
         <v>51</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2682,10 +2685,10 @@
         <v>51</v>
       </c>
       <c r="J20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2717,10 +2720,10 @@
         <v>51</v>
       </c>
       <c r="J21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2752,10 +2755,10 @@
         <v>51</v>
       </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2787,10 +2790,10 @@
         <v>51</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2822,10 +2825,10 @@
         <v>51</v>
       </c>
       <c r="J24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2860,7 +2863,7 @@
         <v>52</v>
       </c>
       <c r="K25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2892,10 +2895,10 @@
         <v>51</v>
       </c>
       <c r="J26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2927,10 +2930,10 @@
         <v>51</v>
       </c>
       <c r="J27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2965,7 +2968,7 @@
         <v>52</v>
       </c>
       <c r="K28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2997,10 +3000,10 @@
         <v>51</v>
       </c>
       <c r="J29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3035,7 +3038,7 @@
         <v>52</v>
       </c>
       <c r="K30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3070,7 +3073,7 @@
         <v>52</v>
       </c>
       <c r="K31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3105,7 +3108,7 @@
         <v>52</v>
       </c>
       <c r="K32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3137,10 +3140,10 @@
         <v>51</v>
       </c>
       <c r="J33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3172,10 +3175,10 @@
         <v>51</v>
       </c>
       <c r="J34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3207,10 +3210,10 @@
         <v>51</v>
       </c>
       <c r="J35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3245,7 +3248,7 @@
         <v>61</v>
       </c>
       <c r="K36" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3280,7 +3283,7 @@
         <v>52</v>
       </c>
       <c r="K37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3315,7 +3318,7 @@
         <v>52</v>
       </c>
       <c r="K38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3350,7 +3353,7 @@
         <v>52</v>
       </c>
       <c r="K39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3382,10 +3385,10 @@
         <v>51</v>
       </c>
       <c r="J40" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3420,7 +3423,7 @@
         <v>77</v>
       </c>
       <c r="K41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3455,7 +3458,7 @@
         <v>52</v>
       </c>
       <c r="K42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3490,7 +3493,7 @@
         <v>78</v>
       </c>
       <c r="K43" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3525,7 +3528,7 @@
         <v>52</v>
       </c>
       <c r="K44" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3560,7 +3563,7 @@
         <v>79</v>
       </c>
       <c r="K45" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3595,7 +3598,7 @@
         <v>52</v>
       </c>
       <c r="K46" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3630,7 +3633,7 @@
         <v>52</v>
       </c>
       <c r="K47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3665,7 +3668,7 @@
         <v>52</v>
       </c>
       <c r="K48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3700,7 +3703,7 @@
         <v>52</v>
       </c>
       <c r="K49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3735,7 +3738,7 @@
         <v>80</v>
       </c>
       <c r="K50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3743,16 +3746,16 @@
         <v>3443841</v>
       </c>
       <c r="B51" s="1">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
@@ -3761,16 +3764,16 @@
         <v>19</v>
       </c>
       <c r="H51" s="4">
-        <v>45786</v>
+        <v>45806</v>
       </c>
       <c r="I51" s="4">
-        <v>45801</v>
+        <v>45821</v>
       </c>
       <c r="J51" t="s">
         <v>52</v>
       </c>
       <c r="K51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3805,7 +3808,7 @@
         <v>52</v>
       </c>
       <c r="K52" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3840,7 +3843,7 @@
         <v>81</v>
       </c>
       <c r="K53" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3875,7 +3878,7 @@
         <v>82</v>
       </c>
       <c r="K54" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3910,7 +3913,7 @@
         <v>83</v>
       </c>
       <c r="K55" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3945,7 +3948,7 @@
         <v>84</v>
       </c>
       <c r="K56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3980,7 +3983,7 @@
         <v>85</v>
       </c>
       <c r="K57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -4015,7 +4018,7 @@
         <v>86</v>
       </c>
       <c r="K58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4050,7 +4053,7 @@
         <v>86</v>
       </c>
       <c r="K59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4085,7 +4088,7 @@
         <v>85</v>
       </c>
       <c r="K60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4120,7 +4123,7 @@
         <v>86</v>
       </c>
       <c r="K61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4155,7 +4158,7 @@
         <v>86</v>
       </c>
       <c r="K62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4190,7 +4193,7 @@
         <v>86</v>
       </c>
       <c r="K63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4225,7 +4228,7 @@
         <v>87</v>
       </c>
       <c r="K64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4260,7 +4263,7 @@
         <v>88</v>
       </c>
       <c r="K65" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4295,7 +4298,7 @@
         <v>86</v>
       </c>
       <c r="K66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4312,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F67" s="1">
         <v>1</v>
@@ -4321,16 +4324,16 @@
         <v>28</v>
       </c>
       <c r="H67" s="4">
-        <v>45777</v>
+        <v>45806</v>
       </c>
       <c r="I67" s="4">
-        <v>45792</v>
+        <v>45821</v>
       </c>
       <c r="J67" t="s">
         <v>52</v>
       </c>
       <c r="K67" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4365,7 +4368,7 @@
         <v>89</v>
       </c>
       <c r="K68" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4400,7 +4403,7 @@
         <v>52</v>
       </c>
       <c r="K69" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4435,7 +4438,7 @@
         <v>85</v>
       </c>
       <c r="K70" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4470,7 +4473,7 @@
         <v>84</v>
       </c>
       <c r="K71" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4505,7 +4508,7 @@
         <v>89</v>
       </c>
       <c r="K72" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4540,7 +4543,7 @@
         <v>52</v>
       </c>
       <c r="K73" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4575,7 +4578,7 @@
         <v>90</v>
       </c>
       <c r="K74" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4610,7 +4613,7 @@
         <v>52</v>
       </c>
       <c r="K75" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4645,7 +4648,7 @@
         <v>86</v>
       </c>
       <c r="K76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4680,7 +4683,7 @@
         <v>91</v>
       </c>
       <c r="K77" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4715,7 +4718,7 @@
         <v>52</v>
       </c>
       <c r="K78" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4750,7 +4753,7 @@
         <v>92</v>
       </c>
       <c r="K79" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4785,7 +4788,7 @@
         <v>52</v>
       </c>
       <c r="K80" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4820,7 +4823,7 @@
         <v>52</v>
       </c>
       <c r="K81" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4855,7 +4858,7 @@
         <v>93</v>
       </c>
       <c r="K82" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4890,7 +4893,7 @@
         <v>52</v>
       </c>
       <c r="K83" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4925,7 +4928,7 @@
         <v>94</v>
       </c>
       <c r="K84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4960,7 +4963,7 @@
         <v>52</v>
       </c>
       <c r="K85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4995,7 +4998,7 @@
         <v>95</v>
       </c>
       <c r="K86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5030,7 +5033,7 @@
         <v>96</v>
       </c>
       <c r="K87" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -5065,7 +5068,7 @@
         <v>97</v>
       </c>
       <c r="K88" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5100,7 +5103,7 @@
         <v>98</v>
       </c>
       <c r="K89" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5135,7 +5138,7 @@
         <v>99</v>
       </c>
       <c r="K90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5170,7 +5173,7 @@
         <v>84</v>
       </c>
       <c r="K91" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5205,7 +5208,7 @@
         <v>52</v>
       </c>
       <c r="K92" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5240,7 +5243,7 @@
         <v>100</v>
       </c>
       <c r="K93" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5275,7 +5278,7 @@
         <v>52</v>
       </c>
       <c r="K94" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5310,7 +5313,7 @@
         <v>52</v>
       </c>
       <c r="K95" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5345,7 +5348,7 @@
         <v>101</v>
       </c>
       <c r="K96" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5380,7 +5383,7 @@
         <v>52</v>
       </c>
       <c r="K97" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5415,7 +5418,7 @@
         <v>61</v>
       </c>
       <c r="K98" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5450,7 +5453,7 @@
         <v>102</v>
       </c>
       <c r="K99" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5485,7 +5488,7 @@
         <v>90</v>
       </c>
       <c r="K100" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5520,7 +5523,7 @@
         <v>103</v>
       </c>
       <c r="K101" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5555,7 +5558,7 @@
         <v>52</v>
       </c>
       <c r="K102" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5590,7 +5593,7 @@
         <v>52</v>
       </c>
       <c r="K103" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5625,7 +5628,7 @@
         <v>104</v>
       </c>
       <c r="K104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5660,7 +5663,7 @@
         <v>105</v>
       </c>
       <c r="K105" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5695,7 +5698,7 @@
         <v>52</v>
       </c>
       <c r="K106" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5730,7 +5733,7 @@
         <v>106</v>
       </c>
       <c r="K107" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5765,7 +5768,7 @@
         <v>107</v>
       </c>
       <c r="K108" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5797,10 +5800,10 @@
         <v>51</v>
       </c>
       <c r="J109" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="K109" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5835,7 +5838,7 @@
         <v>52</v>
       </c>
       <c r="K110" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5870,7 +5873,7 @@
         <v>60</v>
       </c>
       <c r="K111" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5902,10 +5905,10 @@
         <v>51</v>
       </c>
       <c r="J112" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K112" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5937,10 +5940,10 @@
         <v>51</v>
       </c>
       <c r="J113" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K113" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5972,10 +5975,10 @@
         <v>51</v>
       </c>
       <c r="J114" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K114" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -6007,10 +6010,10 @@
         <v>51</v>
       </c>
       <c r="J115" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K115" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6045,7 +6048,7 @@
         <v>92</v>
       </c>
       <c r="K116" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -6077,10 +6080,10 @@
         <v>51</v>
       </c>
       <c r="J117" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K117" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6115,7 +6118,7 @@
         <v>52</v>
       </c>
       <c r="K118" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6147,10 +6150,10 @@
         <v>51</v>
       </c>
       <c r="J119" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K119" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6185,7 +6188,7 @@
         <v>52</v>
       </c>
       <c r="K120" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6220,7 +6223,7 @@
         <v>52</v>
       </c>
       <c r="K121" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6252,10 +6255,10 @@
         <v>51</v>
       </c>
       <c r="J122" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="K122" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6287,10 +6290,10 @@
         <v>51</v>
       </c>
       <c r="J123" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="K123" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6325,7 +6328,7 @@
         <v>52</v>
       </c>
       <c r="K124" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6360,7 +6363,7 @@
         <v>52</v>
       </c>
       <c r="K125" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6392,10 +6395,10 @@
         <v>51</v>
       </c>
       <c r="J126" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="K126" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6427,10 +6430,10 @@
         <v>51</v>
       </c>
       <c r="J127" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K127" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6465,7 +6468,7 @@
         <v>52</v>
       </c>
       <c r="K128" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6497,10 +6500,10 @@
         <v>51</v>
       </c>
       <c r="J129" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K129" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6535,7 +6538,7 @@
         <v>52</v>
       </c>
       <c r="K130" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6570,7 +6573,7 @@
         <v>52</v>
       </c>
       <c r="K131" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6605,7 +6608,7 @@
         <v>52</v>
       </c>
       <c r="K132" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6637,10 +6640,10 @@
         <v>51</v>
       </c>
       <c r="J133" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K133" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6672,10 +6675,10 @@
         <v>51</v>
       </c>
       <c r="J134" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="K134" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -6710,7 +6713,7 @@
         <v>52</v>
       </c>
       <c r="K135" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -6742,10 +6745,10 @@
         <v>51</v>
       </c>
       <c r="J136" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K136" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6777,10 +6780,10 @@
         <v>51</v>
       </c>
       <c r="J137" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K137" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6812,10 +6815,10 @@
         <v>51</v>
       </c>
       <c r="J138" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K138" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6847,10 +6850,10 @@
         <v>51</v>
       </c>
       <c r="J139" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K139" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6885,7 +6888,7 @@
         <v>52</v>
       </c>
       <c r="K140" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6917,10 +6920,10 @@
         <v>51</v>
       </c>
       <c r="J141" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K141" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6955,7 +6958,7 @@
         <v>52</v>
       </c>
       <c r="K142" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -6990,7 +6993,7 @@
         <v>52</v>
       </c>
       <c r="K143" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -7022,10 +7025,10 @@
         <v>51</v>
       </c>
       <c r="J144" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K144" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -7060,7 +7063,7 @@
         <v>52</v>
       </c>
       <c r="K145" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -7095,7 +7098,7 @@
         <v>52</v>
       </c>
       <c r="K146" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7130,7 +7133,7 @@
         <v>52</v>
       </c>
       <c r="K147" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7165,7 +7168,7 @@
         <v>52</v>
       </c>
       <c r="K148" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7200,7 +7203,7 @@
         <v>52</v>
       </c>
       <c r="K149" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7235,7 +7238,7 @@
         <v>92</v>
       </c>
       <c r="K150" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7270,7 +7273,7 @@
         <v>52</v>
       </c>
       <c r="K151" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7305,7 +7308,7 @@
         <v>52</v>
       </c>
       <c r="K152" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7337,10 +7340,10 @@
         <v>51</v>
       </c>
       <c r="J153" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K153" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7375,7 +7378,7 @@
         <v>52</v>
       </c>
       <c r="K154" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7410,7 +7413,7 @@
         <v>52</v>
       </c>
       <c r="K155" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7421,31 +7424,31 @@
         <v>0.25</v>
       </c>
       <c r="C156" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D156" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E156">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F156" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G156" t="s">
         <v>13</v>
       </c>
       <c r="H156" s="4">
-        <v>45755</v>
+        <v>45805</v>
       </c>
       <c r="I156" s="4">
-        <v>45785</v>
+        <v>45836</v>
       </c>
       <c r="J156" t="s">
         <v>52</v>
       </c>
       <c r="K156" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -7480,7 +7483,7 @@
         <v>52</v>
       </c>
       <c r="K157" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -7515,7 +7518,7 @@
         <v>52</v>
       </c>
       <c r="K158" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -7550,7 +7553,7 @@
         <v>52</v>
       </c>
       <c r="K159" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -7585,7 +7588,7 @@
         <v>52</v>
       </c>
       <c r="K160" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -7617,10 +7620,10 @@
         <v>51</v>
       </c>
       <c r="J161" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K161" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7652,10 +7655,10 @@
         <v>51</v>
       </c>
       <c r="J162" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K162" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7690,7 +7693,7 @@
         <v>52</v>
       </c>
       <c r="K163" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -7722,10 +7725,10 @@
         <v>51</v>
       </c>
       <c r="J164" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K164" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7757,10 +7760,10 @@
         <v>51</v>
       </c>
       <c r="J165" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K165" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7795,7 +7798,7 @@
         <v>52</v>
       </c>
       <c r="K166" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7830,7 +7833,7 @@
         <v>52</v>
       </c>
       <c r="K167" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -7865,7 +7868,7 @@
         <v>52</v>
       </c>
       <c r="K168" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7900,7 +7903,7 @@
         <v>52</v>
       </c>
       <c r="K169" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -7935,7 +7938,7 @@
         <v>52</v>
       </c>
       <c r="K170" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7952,7 +7955,7 @@
         <v>0.67</v>
       </c>
       <c r="E171">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F171" s="1">
         <v>0.67</v>
@@ -7961,16 +7964,16 @@
         <v>28</v>
       </c>
       <c r="H171" s="4">
-        <v>45799</v>
+        <v>45805</v>
       </c>
       <c r="I171" s="4">
-        <v>45814</v>
+        <v>45820</v>
       </c>
       <c r="J171" t="s">
         <v>52</v>
       </c>
       <c r="K171" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -8002,10 +8005,10 @@
         <v>51</v>
       </c>
       <c r="J172" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K172" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -8040,7 +8043,7 @@
         <v>52</v>
       </c>
       <c r="K173" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -8075,7 +8078,7 @@
         <v>52</v>
       </c>
       <c r="K174" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -8110,7 +8113,7 @@
         <v>52</v>
       </c>
       <c r="K175" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -8145,7 +8148,7 @@
         <v>52</v>
       </c>
       <c r="K176" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -8180,7 +8183,7 @@
         <v>52</v>
       </c>
       <c r="K177" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -8215,7 +8218,7 @@
         <v>52</v>
       </c>
       <c r="K178" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -8250,7 +8253,7 @@
         <v>52</v>
       </c>
       <c r="K179" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -8285,7 +8288,7 @@
         <v>52</v>
       </c>
       <c r="K180" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -8317,10 +8320,10 @@
         <v>51</v>
       </c>
       <c r="J181" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K181" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -8355,7 +8358,7 @@
         <v>52</v>
       </c>
       <c r="K182" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -8390,7 +8393,7 @@
         <v>52</v>
       </c>
       <c r="K183" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -8425,7 +8428,7 @@
         <v>52</v>
       </c>
       <c r="K184" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -8460,7 +8463,7 @@
         <v>52</v>
       </c>
       <c r="K185" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -8495,7 +8498,7 @@
         <v>52</v>
       </c>
       <c r="K186" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -8527,10 +8530,10 @@
         <v>51</v>
       </c>
       <c r="J187" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K187" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -8562,10 +8565,10 @@
         <v>51</v>
       </c>
       <c r="J188" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K188" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -8597,10 +8600,10 @@
         <v>51</v>
       </c>
       <c r="J189" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K189" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -8635,7 +8638,7 @@
         <v>52</v>
       </c>
       <c r="K190" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -8670,7 +8673,7 @@
         <v>52</v>
       </c>
       <c r="K191" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -8705,7 +8708,7 @@
         <v>52</v>
       </c>
       <c r="K192" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -8740,7 +8743,7 @@
         <v>52</v>
       </c>
       <c r="K193" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -8775,7 +8778,7 @@
         <v>52</v>
       </c>
       <c r="K194" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8810,7 +8813,7 @@
         <v>81</v>
       </c>
       <c r="K195" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -8827,7 +8830,7 @@
         <v>0.83</v>
       </c>
       <c r="E196">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F196" s="1">
         <v>0.83</v>
@@ -8836,16 +8839,16 @@
         <v>18</v>
       </c>
       <c r="H196" s="4">
-        <v>45796</v>
+        <v>45806</v>
       </c>
       <c r="I196" s="4">
-        <v>45827</v>
+        <v>45837</v>
       </c>
       <c r="J196" t="s">
         <v>52</v>
       </c>
       <c r="K196" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -8880,7 +8883,7 @@
         <v>52</v>
       </c>
       <c r="K197" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -8915,7 +8918,7 @@
         <v>52</v>
       </c>
       <c r="K198" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -8947,10 +8950,10 @@
         <v>51</v>
       </c>
       <c r="J199" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K199" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -8985,7 +8988,7 @@
         <v>52</v>
       </c>
       <c r="K200" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -9020,7 +9023,7 @@
         <v>52</v>
       </c>
       <c r="K201" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -9055,7 +9058,7 @@
         <v>52</v>
       </c>
       <c r="K202" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -9072,7 +9075,7 @@
         <v>1</v>
       </c>
       <c r="E203">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F203" s="1">
         <v>1</v>
@@ -9081,16 +9084,16 @@
         <v>13</v>
       </c>
       <c r="H203" s="4">
-        <v>45771</v>
+        <v>45803</v>
       </c>
       <c r="I203" s="4">
-        <v>45801</v>
+        <v>45834</v>
       </c>
       <c r="J203" t="s">
         <v>52</v>
       </c>
       <c r="K203" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -9125,7 +9128,7 @@
         <v>52</v>
       </c>
       <c r="K204" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -9157,10 +9160,10 @@
         <v>51</v>
       </c>
       <c r="J205" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K205" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -9195,7 +9198,7 @@
         <v>52</v>
       </c>
       <c r="K206" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -9230,7 +9233,7 @@
         <v>89</v>
       </c>
       <c r="K207" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -9265,7 +9268,7 @@
         <v>52</v>
       </c>
       <c r="K208" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -9297,10 +9300,10 @@
         <v>51</v>
       </c>
       <c r="J209" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K209" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -9335,7 +9338,7 @@
         <v>52</v>
       </c>
       <c r="K210" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -9367,10 +9370,10 @@
         <v>51</v>
       </c>
       <c r="J211" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K211" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -9405,7 +9408,7 @@
         <v>52</v>
       </c>
       <c r="K212" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -9437,10 +9440,10 @@
         <v>51</v>
       </c>
       <c r="J213" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K213" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -9472,10 +9475,10 @@
         <v>51</v>
       </c>
       <c r="J214" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K214" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -9510,7 +9513,7 @@
         <v>52</v>
       </c>
       <c r="K215" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -9542,10 +9545,10 @@
         <v>51</v>
       </c>
       <c r="J216" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K216" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -9580,7 +9583,7 @@
         <v>52</v>
       </c>
       <c r="K217" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -9615,7 +9618,7 @@
         <v>52</v>
       </c>
       <c r="K218" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -9650,7 +9653,7 @@
         <v>52</v>
       </c>
       <c r="K219" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -9685,7 +9688,7 @@
         <v>52</v>
       </c>
       <c r="K220" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -9720,7 +9723,7 @@
         <v>52</v>
       </c>
       <c r="K221" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -9755,7 +9758,7 @@
         <v>52</v>
       </c>
       <c r="K222" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -9790,7 +9793,7 @@
         <v>52</v>
       </c>
       <c r="K223" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -9825,7 +9828,7 @@
         <v>52</v>
       </c>
       <c r="K224" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -9860,7 +9863,7 @@
         <v>52</v>
       </c>
       <c r="K225" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -9892,10 +9895,10 @@
         <v>51</v>
       </c>
       <c r="J226" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K226" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -9930,7 +9933,7 @@
         <v>52</v>
       </c>
       <c r="K227" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -9965,7 +9968,7 @@
         <v>52</v>
       </c>
       <c r="K228" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -9997,10 +10000,10 @@
         <v>51</v>
       </c>
       <c r="J229" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K229" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -10035,7 +10038,7 @@
         <v>52</v>
       </c>
       <c r="K230" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -10070,7 +10073,7 @@
         <v>52</v>
       </c>
       <c r="K231" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -10105,7 +10108,7 @@
         <v>52</v>
       </c>
       <c r="K232" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -10137,10 +10140,10 @@
         <v>51</v>
       </c>
       <c r="J233" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K233" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -10175,7 +10178,7 @@
         <v>52</v>
       </c>
       <c r="K234" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -10210,7 +10213,7 @@
         <v>52</v>
       </c>
       <c r="K235" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -10245,7 +10248,7 @@
         <v>52</v>
       </c>
       <c r="K236" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -10280,7 +10283,7 @@
         <v>52</v>
       </c>
       <c r="K237" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -10315,7 +10318,7 @@
         <v>52</v>
       </c>
       <c r="K238" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -10350,7 +10353,7 @@
         <v>52</v>
       </c>
       <c r="K239" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -10382,10 +10385,10 @@
         <v>51</v>
       </c>
       <c r="J240" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="K240" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -10420,7 +10423,7 @@
         <v>52</v>
       </c>
       <c r="K241" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -10455,7 +10458,7 @@
         <v>52</v>
       </c>
       <c r="K242" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -10490,7 +10493,7 @@
         <v>142</v>
       </c>
       <c r="K243" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -10525,7 +10528,7 @@
         <v>52</v>
       </c>
       <c r="K244" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -10560,7 +10563,7 @@
         <v>82</v>
       </c>
       <c r="K245" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -10595,7 +10598,7 @@
         <v>52</v>
       </c>
       <c r="K246" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -10630,7 +10633,7 @@
         <v>52</v>
       </c>
       <c r="K247" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -10665,7 +10668,7 @@
         <v>52</v>
       </c>
       <c r="K248" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -10700,7 +10703,7 @@
         <v>143</v>
       </c>
       <c r="K249" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -10735,7 +10738,7 @@
         <v>144</v>
       </c>
       <c r="K250" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -10743,16 +10746,16 @@
         <v>12930514</v>
       </c>
       <c r="B251" s="1">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="C251" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D251" s="1">
         <v>0.33</v>
       </c>
       <c r="E251">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F251" s="1">
         <v>0.33</v>
@@ -10761,16 +10764,16 @@
         <v>33</v>
       </c>
       <c r="H251" s="4">
-        <v>45782</v>
+        <v>45806</v>
       </c>
       <c r="I251" s="4">
-        <v>45843</v>
+        <v>45867</v>
       </c>
       <c r="J251" t="s">
         <v>52</v>
       </c>
       <c r="K251" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -10805,7 +10808,7 @@
         <v>52</v>
       </c>
       <c r="K252" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -10840,7 +10843,7 @@
         <v>52</v>
       </c>
       <c r="K253" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -10875,7 +10878,7 @@
         <v>145</v>
       </c>
       <c r="K254" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -10910,7 +10913,7 @@
         <v>52</v>
       </c>
       <c r="K255" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -10945,7 +10948,7 @@
         <v>52</v>
       </c>
       <c r="K256" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -10977,10 +10980,10 @@
         <v>51</v>
       </c>
       <c r="J257" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="K257" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -11015,7 +11018,7 @@
         <v>52</v>
       </c>
       <c r="K258" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -11050,7 +11053,7 @@
         <v>52</v>
       </c>
       <c r="K259" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -11085,7 +11088,7 @@
         <v>52</v>
       </c>
       <c r="K260" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -11117,10 +11120,10 @@
         <v>51</v>
       </c>
       <c r="J261" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="K261" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -11155,7 +11158,7 @@
         <v>52</v>
       </c>
       <c r="K262" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -11190,7 +11193,7 @@
         <v>52</v>
       </c>
       <c r="K263" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -11225,7 +11228,7 @@
         <v>52</v>
       </c>
       <c r="K264" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -11260,7 +11263,7 @@
         <v>52</v>
       </c>
       <c r="K265" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -11295,7 +11298,7 @@
         <v>52</v>
       </c>
       <c r="K266" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -11330,7 +11333,7 @@
         <v>147</v>
       </c>
       <c r="K267" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -11365,7 +11368,7 @@
         <v>148</v>
       </c>
       <c r="K268" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -11400,7 +11403,7 @@
         <v>52</v>
       </c>
       <c r="K269" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -11435,7 +11438,7 @@
         <v>149</v>
       </c>
       <c r="K270" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -11470,7 +11473,7 @@
         <v>150</v>
       </c>
       <c r="K271" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -11505,7 +11508,7 @@
         <v>52</v>
       </c>
       <c r="K272" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -11540,7 +11543,7 @@
         <v>52</v>
       </c>
       <c r="K273" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -11575,7 +11578,7 @@
         <v>52</v>
       </c>
       <c r="K274" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -11610,7 +11613,7 @@
         <v>52</v>
       </c>
       <c r="K275" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -11645,7 +11648,7 @@
         <v>52</v>
       </c>
       <c r="K276" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -11680,7 +11683,7 @@
         <v>52</v>
       </c>
       <c r="K277" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -11712,10 +11715,10 @@
         <v>51</v>
       </c>
       <c r="J278" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K278" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -11750,7 +11753,7 @@
         <v>151</v>
       </c>
       <c r="K279" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -11785,7 +11788,7 @@
         <v>52</v>
       </c>
       <c r="K280" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -11820,7 +11823,7 @@
         <v>52</v>
       </c>
       <c r="K281" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -11855,7 +11858,7 @@
         <v>52</v>
       </c>
       <c r="K282" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -11890,7 +11893,7 @@
         <v>52</v>
       </c>
       <c r="K283" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -11925,7 +11928,7 @@
         <v>52</v>
       </c>
       <c r="K284" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -11960,7 +11963,7 @@
         <v>152</v>
       </c>
       <c r="K285" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -11995,7 +11998,7 @@
         <v>52</v>
       </c>
       <c r="K286" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -12030,7 +12033,7 @@
         <v>52</v>
       </c>
       <c r="K287" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -12065,7 +12068,7 @@
         <v>52</v>
       </c>
       <c r="K288" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -12100,7 +12103,7 @@
         <v>52</v>
       </c>
       <c r="K289" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -12132,10 +12135,10 @@
         <v>51</v>
       </c>
       <c r="J290" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K290" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -12170,7 +12173,7 @@
         <v>52</v>
       </c>
       <c r="K291" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -12205,7 +12208,7 @@
         <v>52</v>
       </c>
       <c r="K292" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -12240,7 +12243,7 @@
         <v>142</v>
       </c>
       <c r="K293" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -12275,7 +12278,7 @@
         <v>153</v>
       </c>
       <c r="K294" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -12310,7 +12313,7 @@
         <v>52</v>
       </c>
       <c r="K295" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -12345,7 +12348,7 @@
         <v>52</v>
       </c>
       <c r="K296" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -12362,7 +12365,7 @@
         <v>1</v>
       </c>
       <c r="E297">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F297" s="1">
         <v>1</v>
@@ -12371,16 +12374,16 @@
         <v>19</v>
       </c>
       <c r="H297" s="4">
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="I297" s="4">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="J297" t="s">
         <v>52</v>
       </c>
       <c r="K297" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -12415,7 +12418,7 @@
         <v>52</v>
       </c>
       <c r="K298" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -12450,7 +12453,7 @@
         <v>52</v>
       </c>
       <c r="K299" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -12485,7 +12488,7 @@
         <v>52</v>
       </c>
       <c r="K300" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -12520,7 +12523,7 @@
         <v>52</v>
       </c>
       <c r="K301" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -12555,7 +12558,7 @@
         <v>52</v>
       </c>
       <c r="K302" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -12587,10 +12590,10 @@
         <v>51</v>
       </c>
       <c r="J303" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K303" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -12625,7 +12628,7 @@
         <v>52</v>
       </c>
       <c r="K304" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -12660,7 +12663,7 @@
         <v>52</v>
       </c>
       <c r="K305" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -12695,7 +12698,7 @@
         <v>52</v>
       </c>
       <c r="K306" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -12727,10 +12730,10 @@
         <v>51</v>
       </c>
       <c r="J307" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K307" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -12765,7 +12768,7 @@
         <v>52</v>
       </c>
       <c r="K308" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -12800,7 +12803,7 @@
         <v>52</v>
       </c>
       <c r="K309" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -12835,7 +12838,7 @@
         <v>52</v>
       </c>
       <c r="K310" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -12867,10 +12870,10 @@
         <v>51</v>
       </c>
       <c r="J311" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="K311" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -12905,7 +12908,7 @@
         <v>52</v>
       </c>
       <c r="K312" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -12940,7 +12943,7 @@
         <v>52</v>
       </c>
       <c r="K313" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -12975,7 +12978,7 @@
         <v>52</v>
       </c>
       <c r="K314" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -13010,7 +13013,7 @@
         <v>52</v>
       </c>
       <c r="K315" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -13027,7 +13030,7 @@
         <v>1</v>
       </c>
       <c r="E316">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F316" s="1">
         <v>1</v>
@@ -13036,16 +13039,16 @@
         <v>43</v>
       </c>
       <c r="H316" s="4">
-        <v>45798</v>
+        <v>45805</v>
       </c>
       <c r="I316" s="4">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="J316" t="s">
         <v>52</v>
       </c>
       <c r="K316" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -13053,34 +13056,34 @@
         <v>35700662</v>
       </c>
       <c r="B317" s="1">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="C317" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D317" s="1">
         <v>0.5</v>
       </c>
       <c r="E317">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F317" s="1">
         <v>0.5</v>
       </c>
       <c r="G317" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H317" s="4">
-        <v>45735</v>
+        <v>45804</v>
       </c>
       <c r="I317" s="4">
-        <v>45750</v>
+        <v>45835</v>
       </c>
       <c r="J317" t="s">
         <v>52</v>
       </c>
       <c r="K317" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -13115,7 +13118,7 @@
         <v>155</v>
       </c>
       <c r="K318" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -13150,7 +13153,7 @@
         <v>52</v>
       </c>
       <c r="K319" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -13185,7 +13188,7 @@
         <v>52</v>
       </c>
       <c r="K320" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -13220,7 +13223,7 @@
         <v>156</v>
       </c>
       <c r="K321" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -13255,7 +13258,7 @@
         <v>52</v>
       </c>
       <c r="K322" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -13290,7 +13293,7 @@
         <v>52</v>
       </c>
       <c r="K323" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -13322,10 +13325,10 @@
         <v>51</v>
       </c>
       <c r="J324" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="K324" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -13357,10 +13360,10 @@
         <v>51</v>
       </c>
       <c r="J325" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="K325" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -13395,7 +13398,7 @@
         <v>52</v>
       </c>
       <c r="K326" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -13427,10 +13430,10 @@
         <v>51</v>
       </c>
       <c r="J327" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K327" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -13465,7 +13468,7 @@
         <v>52</v>
       </c>
       <c r="K328" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -13497,10 +13500,10 @@
         <v>51</v>
       </c>
       <c r="J329" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K329" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -13532,10 +13535,10 @@
         <v>51</v>
       </c>
       <c r="J330" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K330" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -13570,7 +13573,7 @@
         <v>52</v>
       </c>
       <c r="K331" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -13605,7 +13608,7 @@
         <v>52</v>
       </c>
       <c r="K332" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -13640,7 +13643,7 @@
         <v>52</v>
       </c>
       <c r="K333" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -13672,10 +13675,10 @@
         <v>51</v>
       </c>
       <c r="J334" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K334" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -13710,7 +13713,7 @@
         <v>52</v>
       </c>
       <c r="K335" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -13745,7 +13748,7 @@
         <v>52</v>
       </c>
       <c r="K336" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -13780,7 +13783,7 @@
         <v>52</v>
       </c>
       <c r="K337" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -13815,7 +13818,7 @@
         <v>52</v>
       </c>
       <c r="K338" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -13823,34 +13826,34 @@
         <v>39723847</v>
       </c>
       <c r="B339" s="1">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="C339" s="1">
         <v>0.33</v>
       </c>
       <c r="D339" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E339">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F339" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G339" t="s">
         <v>32</v>
       </c>
       <c r="H339" s="4">
-        <v>45790</v>
+        <v>45806</v>
       </c>
       <c r="I339" s="4">
-        <v>45805</v>
+        <v>45821</v>
       </c>
       <c r="J339" t="s">
         <v>52</v>
       </c>
       <c r="K339" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -13885,7 +13888,7 @@
         <v>52</v>
       </c>
       <c r="K340" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -13917,10 +13920,10 @@
         <v>51</v>
       </c>
       <c r="J341" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K341" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -13955,7 +13958,7 @@
         <v>52</v>
       </c>
       <c r="K342" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -13972,7 +13975,7 @@
         <v>0.83</v>
       </c>
       <c r="E343">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F343" s="1">
         <v>0.83</v>
@@ -13981,16 +13984,16 @@
         <v>18</v>
       </c>
       <c r="H343" s="4">
-        <v>45777</v>
+        <v>45805</v>
       </c>
       <c r="I343" s="4">
-        <v>45807</v>
+        <v>45836</v>
       </c>
       <c r="J343" t="s">
         <v>52</v>
       </c>
       <c r="K343" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -14025,7 +14028,7 @@
         <v>52</v>
       </c>
       <c r="K344" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -14060,7 +14063,7 @@
         <v>52</v>
       </c>
       <c r="K345" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -14095,7 +14098,7 @@
         <v>52</v>
       </c>
       <c r="K346" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -14127,10 +14130,10 @@
         <v>51</v>
       </c>
       <c r="J347" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K347" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -14165,7 +14168,7 @@
         <v>52</v>
       </c>
       <c r="K348" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -14173,16 +14176,16 @@
         <v>40799650</v>
       </c>
       <c r="B349" s="1">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="C349" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D349" s="1">
         <v>1</v>
       </c>
       <c r="E349">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F349" s="1">
         <v>1</v>
@@ -14191,16 +14194,16 @@
         <v>28</v>
       </c>
       <c r="H349" s="4">
-        <v>45775</v>
+        <v>45806</v>
       </c>
       <c r="I349" s="4">
-        <v>45790</v>
+        <v>45821</v>
       </c>
       <c r="J349" t="s">
         <v>52</v>
       </c>
       <c r="K349" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -14235,7 +14238,7 @@
         <v>52</v>
       </c>
       <c r="K350" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -14270,7 +14273,7 @@
         <v>52</v>
       </c>
       <c r="K351" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -14305,7 +14308,7 @@
         <v>52</v>
       </c>
       <c r="K352" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -14340,7 +14343,7 @@
         <v>52</v>
       </c>
       <c r="K353" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -14375,7 +14378,7 @@
         <v>52</v>
       </c>
       <c r="K354" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -14410,7 +14413,7 @@
         <v>52</v>
       </c>
       <c r="K355" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -14445,7 +14448,7 @@
         <v>52</v>
       </c>
       <c r="K356" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -14480,7 +14483,7 @@
         <v>52</v>
       </c>
       <c r="K357" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -14515,7 +14518,7 @@
         <v>52</v>
       </c>
       <c r="K358" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -14532,7 +14535,7 @@
         <v>0.83</v>
       </c>
       <c r="E359">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F359" s="1">
         <v>0.83</v>
@@ -14541,16 +14544,16 @@
         <v>28</v>
       </c>
       <c r="H359" s="4">
-        <v>45797</v>
+        <v>45804</v>
       </c>
       <c r="I359" s="4">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="J359" t="s">
         <v>52</v>
       </c>
       <c r="K359" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -14585,7 +14588,7 @@
         <v>52</v>
       </c>
       <c r="K360" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -14620,7 +14623,7 @@
         <v>52</v>
       </c>
       <c r="K361" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -14655,7 +14658,7 @@
         <v>52</v>
       </c>
       <c r="K362" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -14690,7 +14693,7 @@
         <v>52</v>
       </c>
       <c r="K363" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -14707,25 +14710,25 @@
         <v>0.67</v>
       </c>
       <c r="E364">
+        <v>14</v>
+      </c>
+      <c r="F364" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="G364" t="s">
         <v>13</v>
       </c>
-      <c r="F364" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="G364" t="s">
-        <v>15</v>
-      </c>
       <c r="H364" s="4">
-        <v>45797</v>
+        <v>45805</v>
       </c>
       <c r="I364" s="4">
-        <v>45828</v>
+        <v>45836</v>
       </c>
       <c r="J364" t="s">
         <v>52</v>
       </c>
       <c r="K364" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -14760,7 +14763,7 @@
         <v>52</v>
       </c>
       <c r="K365" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -14795,7 +14798,7 @@
         <v>52</v>
       </c>
       <c r="K366" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -14830,7 +14833,7 @@
         <v>52</v>
       </c>
       <c r="K367" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -14865,7 +14868,7 @@
         <v>52</v>
       </c>
       <c r="K368" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -14900,7 +14903,7 @@
         <v>52</v>
       </c>
       <c r="K369" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -14935,7 +14938,7 @@
         <v>52</v>
       </c>
       <c r="K370" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -14970,7 +14973,7 @@
         <v>52</v>
       </c>
       <c r="K371" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -14987,7 +14990,7 @@
         <v>1</v>
       </c>
       <c r="E372">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F372" s="1">
         <v>1</v>
@@ -14996,16 +14999,16 @@
         <v>28</v>
       </c>
       <c r="H372" s="4">
-        <v>45776</v>
+        <v>45805</v>
       </c>
       <c r="I372" s="4">
-        <v>45791</v>
+        <v>45820</v>
       </c>
       <c r="J372" t="s">
         <v>52</v>
       </c>
       <c r="K372" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -15040,7 +15043,7 @@
         <v>52</v>
       </c>
       <c r="K373" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -15075,7 +15078,7 @@
         <v>52</v>
       </c>
       <c r="K374" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -15110,7 +15113,7 @@
         <v>52</v>
       </c>
       <c r="K375" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -15145,7 +15148,7 @@
         <v>52</v>
       </c>
       <c r="K376" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -15180,7 +15183,7 @@
         <v>52</v>
       </c>
       <c r="K377" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -15215,7 +15218,7 @@
         <v>52</v>
       </c>
       <c r="K378" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -15250,7 +15253,7 @@
         <v>52</v>
       </c>
       <c r="K379" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -15285,7 +15288,7 @@
         <v>52</v>
       </c>
       <c r="K380" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -15320,7 +15323,7 @@
         <v>52</v>
       </c>
       <c r="K381" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -15355,7 +15358,7 @@
         <v>52</v>
       </c>
       <c r="K382" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -15390,7 +15393,7 @@
         <v>52</v>
       </c>
       <c r="K383" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -15425,7 +15428,7 @@
         <v>52</v>
       </c>
       <c r="K384" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -15460,7 +15463,7 @@
         <v>52</v>
       </c>
       <c r="K385" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -15495,7 +15498,7 @@
         <v>52</v>
       </c>
       <c r="K386" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -15530,7 +15533,7 @@
         <v>52</v>
       </c>
       <c r="K387" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -15565,7 +15568,7 @@
         <v>52</v>
       </c>
       <c r="K388" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -15600,7 +15603,7 @@
         <v>52</v>
       </c>
       <c r="K389" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -15617,7 +15620,7 @@
         <v>1</v>
       </c>
       <c r="E390">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F390" s="1">
         <v>1</v>
@@ -15626,16 +15629,16 @@
         <v>19</v>
       </c>
       <c r="H390" s="4">
-        <v>45803</v>
+        <v>45806</v>
       </c>
       <c r="I390" s="4">
-        <v>45818</v>
+        <v>45821</v>
       </c>
       <c r="J390" t="s">
         <v>52</v>
       </c>
       <c r="K390" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -15652,7 +15655,7 @@
         <v>0.83</v>
       </c>
       <c r="E391">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F391" s="1">
         <v>0.83</v>
@@ -15661,16 +15664,16 @@
         <v>19</v>
       </c>
       <c r="H391" s="4">
-        <v>45793</v>
+        <v>45805</v>
       </c>
       <c r="I391" s="4">
-        <v>45808</v>
+        <v>45820</v>
       </c>
       <c r="J391" t="s">
         <v>52</v>
       </c>
       <c r="K391" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -15705,7 +15708,7 @@
         <v>52</v>
       </c>
       <c r="K392" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -15740,7 +15743,7 @@
         <v>52</v>
       </c>
       <c r="K393" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -15775,7 +15778,7 @@
         <v>52</v>
       </c>
       <c r="K394" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -15810,7 +15813,7 @@
         <v>52</v>
       </c>
       <c r="K395" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -15842,10 +15845,10 @@
         <v>51</v>
       </c>
       <c r="J396" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K396" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -15880,7 +15883,7 @@
         <v>52</v>
       </c>
       <c r="K397" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -15915,7 +15918,7 @@
         <v>52</v>
       </c>
       <c r="K398" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -15950,7 +15953,7 @@
         <v>52</v>
       </c>
       <c r="K399" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -15985,7 +15988,7 @@
         <v>52</v>
       </c>
       <c r="K400" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -16020,7 +16023,7 @@
         <v>52</v>
       </c>
       <c r="K401" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -16055,7 +16058,7 @@
         <v>52</v>
       </c>
       <c r="K402" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -16090,7 +16093,7 @@
         <v>52</v>
       </c>
       <c r="K403" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -16125,7 +16128,7 @@
         <v>52</v>
       </c>
       <c r="K404" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -16160,7 +16163,7 @@
         <v>52</v>
       </c>
       <c r="K405" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -16177,7 +16180,7 @@
         <v>0.83</v>
       </c>
       <c r="E406">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F406" s="1">
         <v>0.83</v>
@@ -16186,16 +16189,16 @@
         <v>28</v>
       </c>
       <c r="H406" s="4">
-        <v>45776</v>
+        <v>45803</v>
       </c>
       <c r="I406" s="4">
-        <v>45791</v>
+        <v>45818</v>
       </c>
       <c r="J406" t="s">
         <v>52</v>
       </c>
       <c r="K406" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -16206,31 +16209,31 @@
         <v>0.5</v>
       </c>
       <c r="C407" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D407" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E407">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F407" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G407" t="s">
         <v>13</v>
       </c>
       <c r="H407" s="4">
-        <v>45776</v>
+        <v>45805</v>
       </c>
       <c r="I407" s="4">
-        <v>45806</v>
+        <v>45836</v>
       </c>
       <c r="J407" t="s">
         <v>52</v>
       </c>
       <c r="K407" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -16265,7 +16268,7 @@
         <v>52</v>
       </c>
       <c r="K408" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -16300,7 +16303,7 @@
         <v>52</v>
       </c>
       <c r="K409" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -16335,7 +16338,7 @@
         <v>52</v>
       </c>
       <c r="K410" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -16370,7 +16373,7 @@
         <v>52</v>
       </c>
       <c r="K411" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -16378,34 +16381,34 @@
         <v>47493967</v>
       </c>
       <c r="B412" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C412" s="1">
         <v>0.33</v>
       </c>
       <c r="D412" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E412">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F412" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G412" t="s">
         <v>18</v>
       </c>
       <c r="H412" s="4">
-        <v>45776</v>
+        <v>45805</v>
       </c>
       <c r="I412" s="4">
-        <v>45806</v>
+        <v>45836</v>
       </c>
       <c r="J412" t="s">
         <v>52</v>
       </c>
       <c r="K412" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -16440,7 +16443,7 @@
         <v>52</v>
       </c>
       <c r="K413" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -16475,7 +16478,7 @@
         <v>52</v>
       </c>
       <c r="K414" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -16510,7 +16513,7 @@
         <v>52</v>
       </c>
       <c r="K415" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -16545,7 +16548,7 @@
         <v>52</v>
       </c>
       <c r="K416" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -16580,7 +16583,7 @@
         <v>52</v>
       </c>
       <c r="K417" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="418" spans="1:11">
@@ -16588,34 +16591,34 @@
         <v>49788489</v>
       </c>
       <c r="B418" s="1">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="C418" s="1">
         <v>0.5</v>
       </c>
       <c r="D418" s="1">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E418">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F418" s="1">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G418" t="s">
         <v>41</v>
       </c>
       <c r="H418" s="4">
-        <v>45784</v>
+        <v>45806</v>
       </c>
       <c r="I418" s="4">
-        <v>45791</v>
+        <v>45813</v>
       </c>
       <c r="J418" t="s">
         <v>52</v>
       </c>
       <c r="K418" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
+++ b/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="527">
   <si>
     <t>id_cliente</t>
   </si>
@@ -175,337 +175,337 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 45.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 45.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 49.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.3 meses sem comprar</t>
+    <t>INATIVO - 45.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 49.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 46.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 48.6 meses sem comprar</t>
+    <t>INATIVO - 24.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 11.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 0.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 46.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 47.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.6 meses sem comprar</t>
+    <t>INATIVO - 12.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.0 meses sem comprar</t>
+    <t>INATIVO - 10.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.1 meses sem comprar</t>
   </si>
   <si>
     <t>FRANCISCO SAMPAIO</t>
@@ -1496,6 +1496,9 @@
   </si>
   <si>
     <t>MANJAR SERVICOS GERAIS SA</t>
+  </si>
+  <si>
+    <t>CARITAS ARQUIDIOCESANA DE MANAUS</t>
   </si>
   <si>
     <t>KORETECH EMBALAGENS DA AMAZONIA LTDA</t>
@@ -1978,7 +1981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K418"/>
+  <dimension ref="A1:K419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11201,16 +11204,16 @@
         <v>18572038</v>
       </c>
       <c r="B264" s="1">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="C264" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="D264" s="1">
         <v>0.83</v>
       </c>
       <c r="E264">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F264" s="1">
         <v>0.83</v>
@@ -11219,10 +11222,10 @@
         <v>13</v>
       </c>
       <c r="H264" s="4">
-        <v>45779</v>
+        <v>45806</v>
       </c>
       <c r="I264" s="4">
-        <v>45810</v>
+        <v>45837</v>
       </c>
       <c r="J264" t="s">
         <v>52</v>
@@ -14990,7 +14993,7 @@
         <v>1</v>
       </c>
       <c r="E372">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F372" s="1">
         <v>1</v>
@@ -14999,10 +15002,10 @@
         <v>28</v>
       </c>
       <c r="H372" s="4">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="I372" s="4">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="J372" t="s">
         <v>52</v>
@@ -15398,31 +15401,31 @@
     </row>
     <row r="384" spans="1:11">
       <c r="A384">
-        <v>42540364</v>
+        <v>42536471</v>
       </c>
       <c r="B384" s="1">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="C384" s="1">
         <v>0</v>
       </c>
       <c r="D384" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E384">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F384" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G384" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H384" s="4">
-        <v>45702</v>
+        <v>45807</v>
       </c>
       <c r="I384" s="4">
-        <v>45761</v>
+        <v>45868</v>
       </c>
       <c r="J384" t="s">
         <v>52</v>
@@ -15433,31 +15436,31 @@
     </row>
     <row r="385" spans="1:11">
       <c r="A385">
-        <v>42541112</v>
+        <v>42540364</v>
       </c>
       <c r="B385" s="1">
         <v>0.25</v>
       </c>
       <c r="C385" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D385" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E385">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F385" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G385" t="s">
         <v>14</v>
       </c>
       <c r="H385" s="4">
-        <v>45727</v>
+        <v>45702</v>
       </c>
       <c r="I385" s="4">
-        <v>45788</v>
+        <v>45761</v>
       </c>
       <c r="J385" t="s">
         <v>52</v>
@@ -15468,31 +15471,31 @@
     </row>
     <row r="386" spans="1:11">
       <c r="A386">
-        <v>42552059</v>
+        <v>42541112</v>
       </c>
       <c r="B386" s="1">
-        <v>0.58</v>
+        <v>0.25</v>
       </c>
       <c r="C386" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="D386" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E386">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F386" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G386" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H386" s="4">
-        <v>45776</v>
+        <v>45727</v>
       </c>
       <c r="I386" s="4">
-        <v>45806</v>
+        <v>45788</v>
       </c>
       <c r="J386" t="s">
         <v>52</v>
@@ -15503,31 +15506,31 @@
     </row>
     <row r="387" spans="1:11">
       <c r="A387">
-        <v>42552469</v>
+        <v>42552059</v>
       </c>
       <c r="B387" s="1">
-        <v>0.25</v>
+        <v>0.58</v>
       </c>
       <c r="C387" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="D387" s="1">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="E387">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F387" s="1">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="G387" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H387" s="4">
-        <v>45803</v>
+        <v>45776</v>
       </c>
       <c r="I387" s="4">
-        <v>45818</v>
+        <v>45806</v>
       </c>
       <c r="J387" t="s">
         <v>52</v>
@@ -15538,31 +15541,31 @@
     </row>
     <row r="388" spans="1:11">
       <c r="A388">
-        <v>42552750</v>
+        <v>42552469</v>
       </c>
       <c r="B388" s="1">
-        <v>0.58</v>
+        <v>0.25</v>
       </c>
       <c r="C388" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D388" s="1">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="E388">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F388" s="1">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="G388" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H388" s="4">
-        <v>45681</v>
+        <v>45803</v>
       </c>
       <c r="I388" s="4">
-        <v>45712</v>
+        <v>45818</v>
       </c>
       <c r="J388" t="s">
         <v>52</v>
@@ -15573,31 +15576,31 @@
     </row>
     <row r="389" spans="1:11">
       <c r="A389">
-        <v>42661492</v>
+        <v>42552750</v>
       </c>
       <c r="B389" s="1">
-        <v>0.25</v>
+        <v>0.58</v>
       </c>
       <c r="C389" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D389" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="E389">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F389" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="G389" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H389" s="4">
-        <v>45784</v>
+        <v>45681</v>
       </c>
       <c r="I389" s="4">
-        <v>45845</v>
+        <v>45712</v>
       </c>
       <c r="J389" t="s">
         <v>52</v>
@@ -15608,31 +15611,31 @@
     </row>
     <row r="390" spans="1:11">
       <c r="A390">
-        <v>42714199</v>
+        <v>42661492</v>
       </c>
       <c r="B390" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C390" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D390" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E390">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F390" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G390" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H390" s="4">
-        <v>45806</v>
+        <v>45784</v>
       </c>
       <c r="I390" s="4">
-        <v>45821</v>
+        <v>45845</v>
       </c>
       <c r="J390" t="s">
         <v>52</v>
@@ -15643,31 +15646,31 @@
     </row>
     <row r="391" spans="1:11">
       <c r="A391">
-        <v>42821101</v>
+        <v>42714199</v>
       </c>
       <c r="B391" s="1">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C391" s="1">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="D391" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E391">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F391" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G391" t="s">
         <v>19</v>
       </c>
       <c r="H391" s="4">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="I391" s="4">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="J391" t="s">
         <v>52</v>
@@ -15678,101 +15681,101 @@
     </row>
     <row r="392" spans="1:11">
       <c r="A392">
-        <v>43021223</v>
+        <v>42821101</v>
       </c>
       <c r="B392" s="1">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="C392" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="D392" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="E392">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F392" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="G392" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H392" s="4">
-        <v>45770</v>
+        <v>45805</v>
       </c>
       <c r="I392" s="4">
-        <v>45831</v>
+        <v>45820</v>
       </c>
       <c r="J392" t="s">
         <v>52</v>
       </c>
       <c r="K392" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
     </row>
     <row r="393" spans="1:11">
       <c r="A393">
-        <v>43069321</v>
+        <v>43021223</v>
       </c>
       <c r="B393" s="1">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="C393" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D393" s="1">
         <v>0.5</v>
       </c>
       <c r="E393">
+        <v>9</v>
+      </c>
+      <c r="F393" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G393" t="s">
         <v>12</v>
       </c>
-      <c r="F393" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G393" t="s">
-        <v>13</v>
-      </c>
       <c r="H393" s="4">
-        <v>45751</v>
+        <v>45770</v>
       </c>
       <c r="I393" s="4">
-        <v>45781</v>
+        <v>45831</v>
       </c>
       <c r="J393" t="s">
         <v>52</v>
       </c>
       <c r="K393" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
     </row>
     <row r="394" spans="1:11">
       <c r="A394">
-        <v>43406890</v>
+        <v>43069321</v>
       </c>
       <c r="B394" s="1">
         <v>0.42</v>
       </c>
       <c r="C394" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D394" s="1">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="E394">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F394" s="1">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="G394" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H394" s="4">
-        <v>45783</v>
+        <v>45751</v>
       </c>
       <c r="I394" s="4">
-        <v>45814</v>
+        <v>45781</v>
       </c>
       <c r="J394" t="s">
         <v>52</v>
@@ -15783,31 +15786,31 @@
     </row>
     <row r="395" spans="1:11">
       <c r="A395">
-        <v>43619679</v>
+        <v>43406890</v>
       </c>
       <c r="B395" s="1">
         <v>0.42</v>
       </c>
       <c r="C395" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D395" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="E395">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F395" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="G395" t="s">
         <v>15</v>
       </c>
       <c r="H395" s="4">
-        <v>45776</v>
+        <v>45783</v>
       </c>
       <c r="I395" s="4">
-        <v>45806</v>
+        <v>45814</v>
       </c>
       <c r="J395" t="s">
         <v>52</v>
@@ -15818,34 +15821,34 @@
     </row>
     <row r="396" spans="1:11">
       <c r="A396">
-        <v>43625606</v>
+        <v>43619679</v>
       </c>
       <c r="B396" s="1">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
       <c r="C396" s="1">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="D396" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E396">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F396" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G396" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H396" s="4">
-        <v>45566</v>
-      </c>
-      <c r="I396" s="2" t="s">
-        <v>51</v>
+        <v>45776</v>
+      </c>
+      <c r="I396" s="4">
+        <v>45806</v>
       </c>
       <c r="J396" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="K396" t="s">
         <v>505</v>
@@ -15853,34 +15856,34 @@
     </row>
     <row r="397" spans="1:11">
       <c r="A397">
-        <v>43854910</v>
+        <v>43625606</v>
       </c>
       <c r="B397" s="1">
-        <v>0.83</v>
+        <v>0.62</v>
       </c>
       <c r="C397" s="1">
-        <v>0.83</v>
+        <v>0.25</v>
       </c>
       <c r="D397" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E397">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="F397" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G397" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H397" s="4">
-        <v>45804</v>
-      </c>
-      <c r="I397" s="4">
-        <v>45811</v>
+        <v>45566</v>
+      </c>
+      <c r="I397" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="J397" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="K397" t="s">
         <v>506</v>
@@ -15888,31 +15891,31 @@
     </row>
     <row r="398" spans="1:11">
       <c r="A398">
-        <v>44111256</v>
+        <v>43854910</v>
       </c>
       <c r="B398" s="1">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="C398" s="1">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="D398" s="1">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="E398">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="F398" s="1">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="G398" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H398" s="4">
-        <v>45789</v>
+        <v>45807</v>
       </c>
       <c r="I398" s="4">
-        <v>45850</v>
+        <v>45814</v>
       </c>
       <c r="J398" t="s">
         <v>52</v>
@@ -15923,31 +15926,31 @@
     </row>
     <row r="399" spans="1:11">
       <c r="A399">
-        <v>44116467</v>
+        <v>44111256</v>
       </c>
       <c r="B399" s="1">
-        <v>0.7</v>
+        <v>0.17</v>
       </c>
       <c r="C399" s="1">
-        <v>0.6</v>
+        <v>0.17</v>
       </c>
       <c r="D399" s="1">
-        <v>0.8</v>
+        <v>0.17</v>
       </c>
       <c r="E399">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F399" s="1">
-        <v>0.8</v>
+        <v>0.17</v>
       </c>
       <c r="G399" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H399" s="4">
-        <v>45639</v>
+        <v>45789</v>
       </c>
       <c r="I399" s="4">
-        <v>45654</v>
+        <v>45850</v>
       </c>
       <c r="J399" t="s">
         <v>52</v>
@@ -15958,31 +15961,31 @@
     </row>
     <row r="400" spans="1:11">
       <c r="A400">
-        <v>45106276</v>
+        <v>44116467</v>
       </c>
       <c r="B400" s="1">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="C400" s="1">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="D400" s="1">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="E400">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F400" s="1">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="G400" t="s">
         <v>19</v>
       </c>
       <c r="H400" s="4">
-        <v>45798</v>
+        <v>45639</v>
       </c>
       <c r="I400" s="4">
-        <v>45813</v>
+        <v>45654</v>
       </c>
       <c r="J400" t="s">
         <v>52</v>
@@ -15993,31 +15996,31 @@
     </row>
     <row r="401" spans="1:11">
       <c r="A401">
-        <v>45352640</v>
+        <v>45106276</v>
       </c>
       <c r="B401" s="1">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C401" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="D401" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="E401">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F401" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="G401" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="H401" s="4">
-        <v>45792</v>
+        <v>45798</v>
       </c>
       <c r="I401" s="4">
-        <v>45807</v>
+        <v>45813</v>
       </c>
       <c r="J401" t="s">
         <v>52</v>
@@ -16028,101 +16031,101 @@
     </row>
     <row r="402" spans="1:11">
       <c r="A402">
-        <v>46101447</v>
+        <v>45352640</v>
       </c>
       <c r="B402" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C402" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D402" s="1">
         <v>0.5</v>
       </c>
       <c r="E402">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F402" s="1">
         <v>0.5</v>
       </c>
       <c r="G402" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H402" s="4">
-        <v>45750</v>
+        <v>45792</v>
       </c>
       <c r="I402" s="4">
-        <v>45765</v>
+        <v>45807</v>
       </c>
       <c r="J402" t="s">
         <v>52</v>
       </c>
       <c r="K402" t="s">
-        <v>183</v>
+        <v>511</v>
       </c>
     </row>
     <row r="403" spans="1:11">
       <c r="A403">
-        <v>46420329</v>
+        <v>46101447</v>
       </c>
       <c r="B403" s="1">
-        <v>0.92</v>
+        <v>0.42</v>
       </c>
       <c r="C403" s="1">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="D403" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E403">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F403" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G403" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H403" s="4">
-        <v>45803</v>
+        <v>45750</v>
       </c>
       <c r="I403" s="4">
-        <v>45818</v>
+        <v>45765</v>
       </c>
       <c r="J403" t="s">
         <v>52</v>
       </c>
       <c r="K403" t="s">
-        <v>511</v>
+        <v>183</v>
       </c>
     </row>
     <row r="404" spans="1:11">
       <c r="A404">
-        <v>46434280</v>
+        <v>46420329</v>
       </c>
       <c r="B404" s="1">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="C404" s="1">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="D404" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E404">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F404" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G404" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H404" s="4">
-        <v>45782</v>
+        <v>45803</v>
       </c>
       <c r="I404" s="4">
-        <v>45797</v>
+        <v>45818</v>
       </c>
       <c r="J404" t="s">
         <v>52</v>
@@ -16133,31 +16136,31 @@
     </row>
     <row r="405" spans="1:11">
       <c r="A405">
-        <v>46607426</v>
+        <v>46434280</v>
       </c>
       <c r="B405" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C405" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D405" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="E405">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F405" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="G405" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H405" s="4">
-        <v>45783</v>
+        <v>45782</v>
       </c>
       <c r="I405" s="4">
-        <v>45844</v>
+        <v>45797</v>
       </c>
       <c r="J405" t="s">
         <v>52</v>
@@ -16168,31 +16171,31 @@
     </row>
     <row r="406" spans="1:11">
       <c r="A406">
-        <v>46627477</v>
+        <v>46607426</v>
       </c>
       <c r="B406" s="1">
-        <v>0.67</v>
+        <v>0.42</v>
       </c>
       <c r="C406" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D406" s="1">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="E406">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F406" s="1">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="G406" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H406" s="4">
-        <v>45803</v>
+        <v>45783</v>
       </c>
       <c r="I406" s="4">
-        <v>45818</v>
+        <v>45844</v>
       </c>
       <c r="J406" t="s">
         <v>52</v>
@@ -16203,31 +16206,31 @@
     </row>
     <row r="407" spans="1:11">
       <c r="A407">
-        <v>46892702</v>
+        <v>46627477</v>
       </c>
       <c r="B407" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="C407" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D407" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="E407">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F407" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="G407" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H407" s="4">
-        <v>45805</v>
+        <v>45803</v>
       </c>
       <c r="I407" s="4">
-        <v>45836</v>
+        <v>45818</v>
       </c>
       <c r="J407" t="s">
         <v>52</v>
@@ -16238,31 +16241,31 @@
     </row>
     <row r="408" spans="1:11">
       <c r="A408">
-        <v>46894433</v>
+        <v>46892702</v>
       </c>
       <c r="B408" s="1">
         <v>0.5</v>
       </c>
       <c r="C408" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D408" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E408">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F408" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G408" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H408" s="4">
-        <v>45775</v>
+        <v>45805</v>
       </c>
       <c r="I408" s="4">
-        <v>45805</v>
+        <v>45836</v>
       </c>
       <c r="J408" t="s">
         <v>52</v>
@@ -16273,31 +16276,31 @@
     </row>
     <row r="409" spans="1:11">
       <c r="A409">
-        <v>47233429</v>
+        <v>46894433</v>
       </c>
       <c r="B409" s="1">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
       <c r="C409" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D409" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E409">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F409" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G409" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H409" s="4">
-        <v>45666</v>
+        <v>45807</v>
       </c>
       <c r="I409" s="4">
-        <v>45673</v>
+        <v>45838</v>
       </c>
       <c r="J409" t="s">
         <v>52</v>
@@ -16308,31 +16311,31 @@
     </row>
     <row r="410" spans="1:11">
       <c r="A410">
-        <v>47345090</v>
+        <v>47233429</v>
       </c>
       <c r="B410" s="1">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="C410" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="D410" s="1">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="E410">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F410" s="1">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="G410" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H410" s="4">
-        <v>45782</v>
+        <v>45666</v>
       </c>
       <c r="I410" s="4">
-        <v>45813</v>
+        <v>45673</v>
       </c>
       <c r="J410" t="s">
         <v>52</v>
@@ -16343,31 +16346,31 @@
     </row>
     <row r="411" spans="1:11">
       <c r="A411">
-        <v>47365963</v>
+        <v>47345090</v>
       </c>
       <c r="B411" s="1">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="C411" s="1">
         <v>0.17</v>
       </c>
       <c r="D411" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E411">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F411" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G411" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H411" s="4">
-        <v>45790</v>
+        <v>45782</v>
       </c>
       <c r="I411" s="4">
-        <v>45851</v>
+        <v>45813</v>
       </c>
       <c r="J411" t="s">
         <v>52</v>
@@ -16378,31 +16381,31 @@
     </row>
     <row r="412" spans="1:11">
       <c r="A412">
-        <v>47493967</v>
+        <v>47365963</v>
       </c>
       <c r="B412" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="C412" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D412" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="E412">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F412" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G412" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H412" s="4">
-        <v>45805</v>
+        <v>45790</v>
       </c>
       <c r="I412" s="4">
-        <v>45836</v>
+        <v>45851</v>
       </c>
       <c r="J412" t="s">
         <v>52</v>
@@ -16413,31 +16416,31 @@
     </row>
     <row r="413" spans="1:11">
       <c r="A413">
-        <v>48108538</v>
+        <v>47493967</v>
       </c>
       <c r="B413" s="1">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C413" s="1">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="D413" s="1">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="E413">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F413" s="1">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="G413" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H413" s="4">
-        <v>45770</v>
+        <v>45805</v>
       </c>
       <c r="I413" s="4">
-        <v>45785</v>
+        <v>45836</v>
       </c>
       <c r="J413" t="s">
         <v>52</v>
@@ -16448,31 +16451,31 @@
     </row>
     <row r="414" spans="1:11">
       <c r="A414">
-        <v>48544566</v>
+        <v>48108538</v>
       </c>
       <c r="B414" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C414" s="1">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D414" s="1">
         <v>0.8</v>
       </c>
       <c r="E414">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F414" s="1">
         <v>0.8</v>
       </c>
       <c r="G414" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H414" s="4">
-        <v>45803</v>
+        <v>45770</v>
       </c>
       <c r="I414" s="4">
-        <v>45834</v>
+        <v>45785</v>
       </c>
       <c r="J414" t="s">
         <v>52</v>
@@ -16483,77 +16486,77 @@
     </row>
     <row r="415" spans="1:11">
       <c r="A415">
-        <v>48999595</v>
+        <v>48544566</v>
       </c>
       <c r="B415" s="1">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C415" s="1">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D415" s="1">
         <v>0.8</v>
       </c>
       <c r="E415">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F415" s="1">
         <v>0.8</v>
       </c>
       <c r="G415" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="H415" s="4">
-        <v>45804</v>
+        <v>45803</v>
       </c>
       <c r="I415" s="4">
-        <v>45811</v>
+        <v>45834</v>
       </c>
       <c r="J415" t="s">
         <v>52</v>
       </c>
       <c r="K415" t="s">
-        <v>183</v>
+        <v>523</v>
       </c>
     </row>
     <row r="416" spans="1:11">
       <c r="A416">
-        <v>49339926</v>
+        <v>48999595</v>
       </c>
       <c r="B416" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C416" s="1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D416" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E416">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F416" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G416" t="s">
         <v>41</v>
       </c>
       <c r="H416" s="4">
-        <v>45776</v>
+        <v>45804</v>
       </c>
       <c r="I416" s="4">
-        <v>45783</v>
+        <v>45811</v>
       </c>
       <c r="J416" t="s">
         <v>52</v>
       </c>
       <c r="K416" t="s">
-        <v>523</v>
+        <v>183</v>
       </c>
     </row>
     <row r="417" spans="1:11">
       <c r="A417">
-        <v>49406143</v>
+        <v>49339926</v>
       </c>
       <c r="B417" s="1">
         <v>0.5</v>
@@ -16565,19 +16568,19 @@
         <v>1</v>
       </c>
       <c r="E417">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F417" s="1">
         <v>1</v>
       </c>
       <c r="G417" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="H417" s="4">
-        <v>45792</v>
+        <v>45776</v>
       </c>
       <c r="I417" s="4">
-        <v>45823</v>
+        <v>45783</v>
       </c>
       <c r="J417" t="s">
         <v>52</v>
@@ -16588,37 +16591,72 @@
     </row>
     <row r="418" spans="1:11">
       <c r="A418">
-        <v>49788489</v>
+        <v>49406143</v>
       </c>
       <c r="B418" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C418" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D418" s="1">
         <v>1</v>
       </c>
       <c r="E418">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F418" s="1">
         <v>1</v>
       </c>
       <c r="G418" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="H418" s="4">
-        <v>45806</v>
+        <v>45792</v>
       </c>
       <c r="I418" s="4">
-        <v>45813</v>
+        <v>45823</v>
       </c>
       <c r="J418" t="s">
         <v>52</v>
       </c>
       <c r="K418" t="s">
         <v>525</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11">
+      <c r="A419">
+        <v>49788489</v>
+      </c>
+      <c r="B419" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C419" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D419" s="1">
+        <v>1</v>
+      </c>
+      <c r="E419">
+        <v>19</v>
+      </c>
+      <c r="F419" s="1">
+        <v>1</v>
+      </c>
+      <c r="G419" t="s">
+        <v>41</v>
+      </c>
+      <c r="H419" s="4">
+        <v>45806</v>
+      </c>
+      <c r="I419" s="4">
+        <v>45813</v>
+      </c>
+      <c r="J419" t="s">
+        <v>52</v>
+      </c>
+      <c r="K419" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
+++ b/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="532">
   <si>
     <t>id_cliente</t>
   </si>
@@ -190,292 +190,310 @@
     <t>INATIVO - 38.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 41.9 meses sem comprar</t>
+    <t>INATIVO - 42.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 49.7 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 45.5 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 29.4 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 39.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 46.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.0 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 39.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 48.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.4 meses sem comprar</t>
+    <t>INATIVO - 35.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 48.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 46.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.2 meses sem comprar</t>
+    <t>INATIVO - 12.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 33.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 19.5 meses sem comprar</t>
+    <t>INATIVO - 19.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 32.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.4 meses sem comprar</t>
+    <t>INATIVO - 13.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.9 meses sem comprar</t>
@@ -493,19 +511,16 @@
     <t>INATIVO - 7.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.4 meses sem comprar</t>
+    <t>INATIVO - 10.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 11.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.1 meses sem comprar</t>
+    <t>INATIVO - 10.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.2 meses sem comprar</t>
   </si>
   <si>
     <t>FRANCISCO SAMPAIO</t>
@@ -2061,7 +2076,7 @@
         <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2096,7 +2111,7 @@
         <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2131,7 +2146,7 @@
         <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2166,7 +2181,7 @@
         <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2201,7 +2216,7 @@
         <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2236,7 +2251,7 @@
         <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2271,7 +2286,7 @@
         <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2306,7 +2321,7 @@
         <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2341,7 +2356,7 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2376,7 +2391,7 @@
         <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2408,10 +2423,10 @@
         <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K12" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2443,10 +2458,10 @@
         <v>51</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K13" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2478,10 +2493,10 @@
         <v>51</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K14" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2513,10 +2528,10 @@
         <v>51</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K15" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2548,10 +2563,10 @@
         <v>51</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K16" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2586,7 +2601,7 @@
         <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2618,10 +2633,10 @@
         <v>51</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2653,10 +2668,10 @@
         <v>51</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2688,10 +2703,10 @@
         <v>51</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2723,10 +2738,10 @@
         <v>51</v>
       </c>
       <c r="J21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K21" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2758,10 +2773,10 @@
         <v>51</v>
       </c>
       <c r="J22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2793,10 +2808,10 @@
         <v>51</v>
       </c>
       <c r="J23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2828,10 +2843,10 @@
         <v>51</v>
       </c>
       <c r="J24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K24" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2866,7 +2881,7 @@
         <v>52</v>
       </c>
       <c r="K25" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2898,10 +2913,10 @@
         <v>51</v>
       </c>
       <c r="J26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K26" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2933,10 +2948,10 @@
         <v>51</v>
       </c>
       <c r="J27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K27" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2971,7 +2986,7 @@
         <v>52</v>
       </c>
       <c r="K28" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3003,10 +3018,10 @@
         <v>51</v>
       </c>
       <c r="J29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3041,7 +3056,7 @@
         <v>52</v>
       </c>
       <c r="K30" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3076,7 +3091,7 @@
         <v>52</v>
       </c>
       <c r="K31" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3111,7 +3126,7 @@
         <v>52</v>
       </c>
       <c r="K32" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3143,10 +3158,10 @@
         <v>51</v>
       </c>
       <c r="J33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K33" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3178,10 +3193,10 @@
         <v>51</v>
       </c>
       <c r="J34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3213,10 +3228,10 @@
         <v>51</v>
       </c>
       <c r="J35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3248,10 +3263,10 @@
         <v>51</v>
       </c>
       <c r="J36" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3286,7 +3301,7 @@
         <v>52</v>
       </c>
       <c r="K37" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3321,7 +3336,7 @@
         <v>52</v>
       </c>
       <c r="K38" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3338,7 +3353,7 @@
         <v>0.5</v>
       </c>
       <c r="E39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F39" s="1">
         <v>0.5</v>
@@ -3347,16 +3362,16 @@
         <v>12</v>
       </c>
       <c r="H39" s="4">
-        <v>45775</v>
+        <v>45810</v>
       </c>
       <c r="I39" s="4">
-        <v>45836</v>
+        <v>45871</v>
       </c>
       <c r="J39" t="s">
         <v>52</v>
       </c>
       <c r="K39" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3388,10 +3403,10 @@
         <v>51</v>
       </c>
       <c r="J40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K40" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3423,10 +3438,10 @@
         <v>51</v>
       </c>
       <c r="J41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3461,7 +3476,7 @@
         <v>52</v>
       </c>
       <c r="K42" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3493,10 +3508,10 @@
         <v>51</v>
       </c>
       <c r="J43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3531,7 +3546,7 @@
         <v>52</v>
       </c>
       <c r="K44" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3563,10 +3578,10 @@
         <v>51</v>
       </c>
       <c r="J45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3601,7 +3616,7 @@
         <v>52</v>
       </c>
       <c r="K46" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3636,7 +3651,7 @@
         <v>52</v>
       </c>
       <c r="K47" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3671,7 +3686,7 @@
         <v>52</v>
       </c>
       <c r="K48" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3706,7 +3721,7 @@
         <v>52</v>
       </c>
       <c r="K49" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3738,10 +3753,10 @@
         <v>51</v>
       </c>
       <c r="J50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3776,7 +3791,7 @@
         <v>52</v>
       </c>
       <c r="K51" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3811,7 +3826,7 @@
         <v>52</v>
       </c>
       <c r="K52" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3843,10 +3858,10 @@
         <v>51</v>
       </c>
       <c r="J53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3878,10 +3893,10 @@
         <v>51</v>
       </c>
       <c r="J54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K54" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3913,10 +3928,10 @@
         <v>51</v>
       </c>
       <c r="J55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3948,10 +3963,10 @@
         <v>51</v>
       </c>
       <c r="J56" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K56" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3983,10 +3998,10 @@
         <v>51</v>
       </c>
       <c r="J57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -4018,10 +4033,10 @@
         <v>51</v>
       </c>
       <c r="J58" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4053,10 +4068,10 @@
         <v>51</v>
       </c>
       <c r="J59" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4088,10 +4103,10 @@
         <v>51</v>
       </c>
       <c r="J60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4123,10 +4138,10 @@
         <v>51</v>
       </c>
       <c r="J61" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4158,10 +4173,10 @@
         <v>51</v>
       </c>
       <c r="J62" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4193,10 +4208,10 @@
         <v>51</v>
       </c>
       <c r="J63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4228,10 +4243,10 @@
         <v>51</v>
       </c>
       <c r="J64" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4263,10 +4278,10 @@
         <v>51</v>
       </c>
       <c r="J65" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K65" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4298,10 +4313,10 @@
         <v>51</v>
       </c>
       <c r="J66" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K66" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4336,7 +4351,7 @@
         <v>52</v>
       </c>
       <c r="K67" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4368,10 +4383,10 @@
         <v>51</v>
       </c>
       <c r="J68" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K68" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4406,7 +4421,7 @@
         <v>52</v>
       </c>
       <c r="K69" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4438,10 +4453,10 @@
         <v>51</v>
       </c>
       <c r="J70" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4473,10 +4488,10 @@
         <v>51</v>
       </c>
       <c r="J71" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K71" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4508,10 +4523,10 @@
         <v>51</v>
       </c>
       <c r="J72" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K72" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4546,7 +4561,7 @@
         <v>52</v>
       </c>
       <c r="K73" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4578,10 +4593,10 @@
         <v>51</v>
       </c>
       <c r="J74" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K74" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4616,7 +4631,7 @@
         <v>52</v>
       </c>
       <c r="K75" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4648,10 +4663,10 @@
         <v>51</v>
       </c>
       <c r="J76" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K76" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4683,10 +4698,10 @@
         <v>51</v>
       </c>
       <c r="J77" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K77" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4721,7 +4736,7 @@
         <v>52</v>
       </c>
       <c r="K78" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4753,10 +4768,10 @@
         <v>51</v>
       </c>
       <c r="J79" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K79" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4791,7 +4806,7 @@
         <v>52</v>
       </c>
       <c r="K80" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4826,7 +4841,7 @@
         <v>52</v>
       </c>
       <c r="K81" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4858,10 +4873,10 @@
         <v>51</v>
       </c>
       <c r="J82" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K82" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4896,7 +4911,7 @@
         <v>52</v>
       </c>
       <c r="K83" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4928,10 +4943,10 @@
         <v>51</v>
       </c>
       <c r="J84" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K84" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4966,7 +4981,7 @@
         <v>52</v>
       </c>
       <c r="K85" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4998,10 +5013,10 @@
         <v>51</v>
       </c>
       <c r="J86" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K86" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5033,10 +5048,10 @@
         <v>51</v>
       </c>
       <c r="J87" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K87" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -5068,10 +5083,10 @@
         <v>51</v>
       </c>
       <c r="J88" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K88" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5103,10 +5118,10 @@
         <v>51</v>
       </c>
       <c r="J89" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K89" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5138,10 +5153,10 @@
         <v>51</v>
       </c>
       <c r="J90" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K90" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5173,10 +5188,10 @@
         <v>51</v>
       </c>
       <c r="J91" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K91" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5211,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="K92" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5243,10 +5258,10 @@
         <v>51</v>
       </c>
       <c r="J93" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K93" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5281,7 +5296,7 @@
         <v>52</v>
       </c>
       <c r="K94" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5316,7 +5331,7 @@
         <v>52</v>
       </c>
       <c r="K95" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5348,10 +5363,10 @@
         <v>51</v>
       </c>
       <c r="J96" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K96" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5362,31 +5377,31 @@
         <v>0.83</v>
       </c>
       <c r="C97" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="D97" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F97" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G97" t="s">
         <v>11</v>
       </c>
       <c r="H97" s="4">
-        <v>45789</v>
+        <v>45810</v>
       </c>
       <c r="I97" s="4">
-        <v>45796</v>
+        <v>45817</v>
       </c>
       <c r="J97" t="s">
         <v>52</v>
       </c>
       <c r="K97" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5418,10 +5433,10 @@
         <v>51</v>
       </c>
       <c r="J98" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="K98" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5453,10 +5468,10 @@
         <v>51</v>
       </c>
       <c r="J99" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K99" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5488,10 +5503,10 @@
         <v>51</v>
       </c>
       <c r="J100" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K100" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5523,10 +5538,10 @@
         <v>51</v>
       </c>
       <c r="J101" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K101" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5561,7 +5576,7 @@
         <v>52</v>
       </c>
       <c r="K102" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5578,7 +5593,7 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F103" s="1">
         <v>1</v>
@@ -5587,16 +5602,16 @@
         <v>11</v>
       </c>
       <c r="H103" s="4">
-        <v>45804</v>
+        <v>45807</v>
       </c>
       <c r="I103" s="4">
-        <v>45811</v>
+        <v>45814</v>
       </c>
       <c r="J103" t="s">
         <v>52</v>
       </c>
       <c r="K103" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5628,10 +5643,10 @@
         <v>51</v>
       </c>
       <c r="J104" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K104" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5663,10 +5678,10 @@
         <v>51</v>
       </c>
       <c r="J105" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K105" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5701,7 +5716,7 @@
         <v>52</v>
       </c>
       <c r="K106" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5733,10 +5748,10 @@
         <v>51</v>
       </c>
       <c r="J107" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K107" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5768,10 +5783,10 @@
         <v>51</v>
       </c>
       <c r="J108" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K108" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5803,10 +5818,10 @@
         <v>51</v>
       </c>
       <c r="J109" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K109" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5841,7 +5856,7 @@
         <v>52</v>
       </c>
       <c r="K110" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5873,10 +5888,10 @@
         <v>51</v>
       </c>
       <c r="J111" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K111" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5908,10 +5923,10 @@
         <v>51</v>
       </c>
       <c r="J112" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K112" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5943,10 +5958,10 @@
         <v>51</v>
       </c>
       <c r="J113" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K113" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5978,10 +5993,10 @@
         <v>51</v>
       </c>
       <c r="J114" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K114" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -6013,10 +6028,10 @@
         <v>51</v>
       </c>
       <c r="J115" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K115" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6048,10 +6063,10 @@
         <v>51</v>
       </c>
       <c r="J116" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K116" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -6083,10 +6098,10 @@
         <v>51</v>
       </c>
       <c r="J117" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K117" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6121,7 +6136,7 @@
         <v>52</v>
       </c>
       <c r="K118" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6153,10 +6168,10 @@
         <v>51</v>
       </c>
       <c r="J119" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K119" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6191,7 +6206,7 @@
         <v>52</v>
       </c>
       <c r="K120" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6226,7 +6241,7 @@
         <v>52</v>
       </c>
       <c r="K121" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6258,10 +6273,10 @@
         <v>51</v>
       </c>
       <c r="J122" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="K122" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6293,10 +6308,10 @@
         <v>51</v>
       </c>
       <c r="J123" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="K123" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6331,7 +6346,7 @@
         <v>52</v>
       </c>
       <c r="K124" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6366,7 +6381,7 @@
         <v>52</v>
       </c>
       <c r="K125" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6398,10 +6413,10 @@
         <v>51</v>
       </c>
       <c r="J126" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="K126" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6433,10 +6448,10 @@
         <v>51</v>
       </c>
       <c r="J127" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K127" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6471,7 +6486,7 @@
         <v>52</v>
       </c>
       <c r="K128" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6503,10 +6518,10 @@
         <v>51</v>
       </c>
       <c r="J129" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K129" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6541,7 +6556,7 @@
         <v>52</v>
       </c>
       <c r="K130" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6576,7 +6591,7 @@
         <v>52</v>
       </c>
       <c r="K131" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6611,7 +6626,7 @@
         <v>52</v>
       </c>
       <c r="K132" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6643,10 +6658,10 @@
         <v>51</v>
       </c>
       <c r="J133" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K133" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6678,10 +6693,10 @@
         <v>51</v>
       </c>
       <c r="J134" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="K134" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -6716,7 +6731,7 @@
         <v>52</v>
       </c>
       <c r="K135" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -6748,10 +6763,10 @@
         <v>51</v>
       </c>
       <c r="J136" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K136" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6783,10 +6798,10 @@
         <v>51</v>
       </c>
       <c r="J137" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K137" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6818,10 +6833,10 @@
         <v>51</v>
       </c>
       <c r="J138" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K138" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6853,10 +6868,10 @@
         <v>51</v>
       </c>
       <c r="J139" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K139" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6891,7 +6906,7 @@
         <v>52</v>
       </c>
       <c r="K140" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6923,10 +6938,10 @@
         <v>51</v>
       </c>
       <c r="J141" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="K141" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6934,34 +6949,34 @@
         <v>5044205</v>
       </c>
       <c r="B142" s="1">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="C142" s="1">
         <v>0.33</v>
       </c>
       <c r="D142" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="E142">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F142" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="G142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H142" s="4">
-        <v>45783</v>
+        <v>45804</v>
       </c>
       <c r="I142" s="4">
-        <v>45844</v>
+        <v>45835</v>
       </c>
       <c r="J142" t="s">
         <v>52</v>
       </c>
       <c r="K142" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -6996,7 +7011,7 @@
         <v>52</v>
       </c>
       <c r="K143" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -7028,10 +7043,10 @@
         <v>51</v>
       </c>
       <c r="J144" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K144" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -7066,7 +7081,7 @@
         <v>52</v>
       </c>
       <c r="K145" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -7074,34 +7089,34 @@
         <v>5073808</v>
       </c>
       <c r="B146" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C146" s="1">
         <v>0.33</v>
       </c>
       <c r="D146" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E146">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F146" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G146" t="s">
         <v>37</v>
       </c>
       <c r="H146" s="4">
-        <v>45779</v>
+        <v>45806</v>
       </c>
       <c r="I146" s="4">
-        <v>45810</v>
+        <v>45837</v>
       </c>
       <c r="J146" t="s">
         <v>52</v>
       </c>
       <c r="K146" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7136,7 +7151,7 @@
         <v>52</v>
       </c>
       <c r="K147" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7171,7 +7186,7 @@
         <v>52</v>
       </c>
       <c r="K148" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7206,7 +7221,7 @@
         <v>52</v>
       </c>
       <c r="K149" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7238,10 +7253,10 @@
         <v>51</v>
       </c>
       <c r="J150" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K150" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7276,7 +7291,7 @@
         <v>52</v>
       </c>
       <c r="K151" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7311,7 +7326,7 @@
         <v>52</v>
       </c>
       <c r="K152" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7343,10 +7358,10 @@
         <v>51</v>
       </c>
       <c r="J153" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K153" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7381,7 +7396,7 @@
         <v>52</v>
       </c>
       <c r="K154" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7416,7 +7431,7 @@
         <v>52</v>
       </c>
       <c r="K155" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7451,7 +7466,7 @@
         <v>52</v>
       </c>
       <c r="K156" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -7486,7 +7501,7 @@
         <v>52</v>
       </c>
       <c r="K157" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -7521,7 +7536,7 @@
         <v>52</v>
       </c>
       <c r="K158" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -7556,7 +7571,7 @@
         <v>52</v>
       </c>
       <c r="K159" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -7591,7 +7606,7 @@
         <v>52</v>
       </c>
       <c r="K160" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -7623,10 +7638,10 @@
         <v>51</v>
       </c>
       <c r="J161" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K161" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7658,10 +7673,10 @@
         <v>51</v>
       </c>
       <c r="J162" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K162" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7696,7 +7711,7 @@
         <v>52</v>
       </c>
       <c r="K163" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -7728,10 +7743,10 @@
         <v>51</v>
       </c>
       <c r="J164" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="K164" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7763,10 +7778,10 @@
         <v>51</v>
       </c>
       <c r="J165" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K165" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7801,7 +7816,7 @@
         <v>52</v>
       </c>
       <c r="K166" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7836,7 +7851,7 @@
         <v>52</v>
       </c>
       <c r="K167" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -7871,7 +7886,7 @@
         <v>52</v>
       </c>
       <c r="K168" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7906,7 +7921,7 @@
         <v>52</v>
       </c>
       <c r="K169" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -7941,7 +7956,7 @@
         <v>52</v>
       </c>
       <c r="K170" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7976,7 +7991,7 @@
         <v>52</v>
       </c>
       <c r="K171" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -8008,10 +8023,10 @@
         <v>51</v>
       </c>
       <c r="J172" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K172" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -8046,7 +8061,7 @@
         <v>52</v>
       </c>
       <c r="K173" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -8081,7 +8096,7 @@
         <v>52</v>
       </c>
       <c r="K174" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -8116,7 +8131,7 @@
         <v>52</v>
       </c>
       <c r="K175" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -8151,7 +8166,7 @@
         <v>52</v>
       </c>
       <c r="K176" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -8168,7 +8183,7 @@
         <v>1</v>
       </c>
       <c r="E177">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F177" s="1">
         <v>1</v>
@@ -8177,16 +8192,16 @@
         <v>11</v>
       </c>
       <c r="H177" s="4">
-        <v>45804</v>
+        <v>45807</v>
       </c>
       <c r="I177" s="4">
-        <v>45811</v>
+        <v>45814</v>
       </c>
       <c r="J177" t="s">
         <v>52</v>
       </c>
       <c r="K177" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -8221,7 +8236,7 @@
         <v>52</v>
       </c>
       <c r="K178" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -8256,7 +8271,7 @@
         <v>52</v>
       </c>
       <c r="K179" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -8291,7 +8306,7 @@
         <v>52</v>
       </c>
       <c r="K180" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -8323,10 +8338,10 @@
         <v>51</v>
       </c>
       <c r="J181" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K181" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -8361,7 +8376,7 @@
         <v>52</v>
       </c>
       <c r="K182" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -8396,7 +8411,7 @@
         <v>52</v>
       </c>
       <c r="K183" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -8431,7 +8446,7 @@
         <v>52</v>
       </c>
       <c r="K184" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -8466,7 +8481,7 @@
         <v>52</v>
       </c>
       <c r="K185" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -8501,7 +8516,7 @@
         <v>52</v>
       </c>
       <c r="K186" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -8533,10 +8548,10 @@
         <v>51</v>
       </c>
       <c r="J187" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K187" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -8568,10 +8583,10 @@
         <v>51</v>
       </c>
       <c r="J188" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K188" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -8603,10 +8618,10 @@
         <v>51</v>
       </c>
       <c r="J189" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K189" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -8641,7 +8656,7 @@
         <v>52</v>
       </c>
       <c r="K190" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -8676,7 +8691,7 @@
         <v>52</v>
       </c>
       <c r="K191" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -8711,7 +8726,7 @@
         <v>52</v>
       </c>
       <c r="K192" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -8746,7 +8761,7 @@
         <v>52</v>
       </c>
       <c r="K193" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -8781,7 +8796,7 @@
         <v>52</v>
       </c>
       <c r="K194" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8813,10 +8828,10 @@
         <v>51</v>
       </c>
       <c r="J195" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K195" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -8851,7 +8866,7 @@
         <v>52</v>
       </c>
       <c r="K196" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -8886,7 +8901,7 @@
         <v>52</v>
       </c>
       <c r="K197" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -8921,7 +8936,7 @@
         <v>52</v>
       </c>
       <c r="K198" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -8953,10 +8968,10 @@
         <v>51</v>
       </c>
       <c r="J199" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K199" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -8991,7 +9006,7 @@
         <v>52</v>
       </c>
       <c r="K200" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -9026,7 +9041,7 @@
         <v>52</v>
       </c>
       <c r="K201" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -9061,7 +9076,7 @@
         <v>52</v>
       </c>
       <c r="K202" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -9096,7 +9111,7 @@
         <v>52</v>
       </c>
       <c r="K203" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -9131,7 +9146,7 @@
         <v>52</v>
       </c>
       <c r="K204" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -9163,10 +9178,10 @@
         <v>51</v>
       </c>
       <c r="J205" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K205" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -9201,7 +9216,7 @@
         <v>52</v>
       </c>
       <c r="K206" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -9233,10 +9248,10 @@
         <v>51</v>
       </c>
       <c r="J207" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K207" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -9271,7 +9286,7 @@
         <v>52</v>
       </c>
       <c r="K208" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -9303,10 +9318,10 @@
         <v>51</v>
       </c>
       <c r="J209" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K209" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -9341,7 +9356,7 @@
         <v>52</v>
       </c>
       <c r="K210" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -9373,10 +9388,10 @@
         <v>51</v>
       </c>
       <c r="J211" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K211" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -9411,7 +9426,7 @@
         <v>52</v>
       </c>
       <c r="K212" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -9443,10 +9458,10 @@
         <v>51</v>
       </c>
       <c r="J213" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K213" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -9478,10 +9493,10 @@
         <v>51</v>
       </c>
       <c r="J214" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K214" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -9516,7 +9531,7 @@
         <v>52</v>
       </c>
       <c r="K215" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -9548,10 +9563,10 @@
         <v>51</v>
       </c>
       <c r="J216" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K216" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -9586,7 +9601,7 @@
         <v>52</v>
       </c>
       <c r="K217" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -9621,7 +9636,7 @@
         <v>52</v>
       </c>
       <c r="K218" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -9629,34 +9644,34 @@
         <v>6336327</v>
       </c>
       <c r="B219" s="1">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="C219" s="1">
         <v>0.33</v>
       </c>
       <c r="D219" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E219">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G219" t="s">
         <v>38</v>
       </c>
       <c r="H219" s="4">
-        <v>45782</v>
+        <v>45799</v>
       </c>
       <c r="I219" s="4">
-        <v>45905</v>
+        <v>45922</v>
       </c>
       <c r="J219" t="s">
         <v>52</v>
       </c>
       <c r="K219" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -9664,34 +9679,34 @@
         <v>6336342</v>
       </c>
       <c r="B220" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C220" s="1">
         <v>0.33</v>
       </c>
       <c r="D220" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E220">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F220" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G220" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H220" s="4">
-        <v>45782</v>
+        <v>45799</v>
       </c>
       <c r="I220" s="4">
-        <v>45874</v>
+        <v>45891</v>
       </c>
       <c r="J220" t="s">
         <v>52</v>
       </c>
       <c r="K220" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -9726,7 +9741,7 @@
         <v>52</v>
       </c>
       <c r="K221" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -9734,16 +9749,16 @@
         <v>6340977</v>
       </c>
       <c r="B222" s="1">
-        <v>0.58</v>
+        <v>0.67</v>
       </c>
       <c r="C222" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
       </c>
       <c r="E222">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F222" s="1">
         <v>1</v>
@@ -9752,16 +9767,16 @@
         <v>16</v>
       </c>
       <c r="H222" s="4">
-        <v>45783</v>
+        <v>45806</v>
       </c>
       <c r="I222" s="4">
-        <v>45844</v>
+        <v>45867</v>
       </c>
       <c r="J222" t="s">
         <v>52</v>
       </c>
       <c r="K222" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -9796,7 +9811,7 @@
         <v>52</v>
       </c>
       <c r="K223" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -9831,7 +9846,7 @@
         <v>52</v>
       </c>
       <c r="K224" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -9866,7 +9881,7 @@
         <v>52</v>
       </c>
       <c r="K225" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -9898,10 +9913,10 @@
         <v>51</v>
       </c>
       <c r="J226" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K226" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -9936,7 +9951,7 @@
         <v>52</v>
       </c>
       <c r="K227" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -9971,7 +9986,7 @@
         <v>52</v>
       </c>
       <c r="K228" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -10003,10 +10018,10 @@
         <v>51</v>
       </c>
       <c r="J229" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K229" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -10041,7 +10056,7 @@
         <v>52</v>
       </c>
       <c r="K230" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -10076,7 +10091,7 @@
         <v>52</v>
       </c>
       <c r="K231" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -10111,7 +10126,7 @@
         <v>52</v>
       </c>
       <c r="K232" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -10143,10 +10158,10 @@
         <v>51</v>
       </c>
       <c r="J233" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K233" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -10181,7 +10196,7 @@
         <v>52</v>
       </c>
       <c r="K234" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -10216,7 +10231,7 @@
         <v>52</v>
       </c>
       <c r="K235" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -10251,7 +10266,7 @@
         <v>52</v>
       </c>
       <c r="K236" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -10286,7 +10301,7 @@
         <v>52</v>
       </c>
       <c r="K237" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -10321,7 +10336,7 @@
         <v>52</v>
       </c>
       <c r="K238" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -10356,7 +10371,7 @@
         <v>52</v>
       </c>
       <c r="K239" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -10388,10 +10403,10 @@
         <v>51</v>
       </c>
       <c r="J240" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K240" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -10426,7 +10441,7 @@
         <v>52</v>
       </c>
       <c r="K241" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -10461,7 +10476,7 @@
         <v>52</v>
       </c>
       <c r="K242" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -10493,10 +10508,10 @@
         <v>51</v>
       </c>
       <c r="J243" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K243" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -10531,7 +10546,7 @@
         <v>52</v>
       </c>
       <c r="K244" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -10563,10 +10578,10 @@
         <v>51</v>
       </c>
       <c r="J245" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="K245" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -10601,7 +10616,7 @@
         <v>52</v>
       </c>
       <c r="K246" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -10636,7 +10651,7 @@
         <v>52</v>
       </c>
       <c r="K247" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -10671,7 +10686,7 @@
         <v>52</v>
       </c>
       <c r="K248" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -10703,10 +10718,10 @@
         <v>51</v>
       </c>
       <c r="J249" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K249" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -10738,10 +10753,10 @@
         <v>51</v>
       </c>
       <c r="J250" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K250" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -10776,7 +10791,7 @@
         <v>52</v>
       </c>
       <c r="K251" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -10811,7 +10826,7 @@
         <v>52</v>
       </c>
       <c r="K252" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -10846,7 +10861,7 @@
         <v>52</v>
       </c>
       <c r="K253" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -10878,10 +10893,10 @@
         <v>51</v>
       </c>
       <c r="J254" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K254" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -10916,7 +10931,7 @@
         <v>52</v>
       </c>
       <c r="K255" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -10951,7 +10966,7 @@
         <v>52</v>
       </c>
       <c r="K256" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -10983,10 +10998,10 @@
         <v>51</v>
       </c>
       <c r="J257" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="K257" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -11021,7 +11036,7 @@
         <v>52</v>
       </c>
       <c r="K258" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -11056,7 +11071,7 @@
         <v>52</v>
       </c>
       <c r="K259" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -11091,7 +11106,7 @@
         <v>52</v>
       </c>
       <c r="K260" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -11123,10 +11138,10 @@
         <v>51</v>
       </c>
       <c r="J261" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K261" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -11161,7 +11176,7 @@
         <v>52</v>
       </c>
       <c r="K262" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -11196,7 +11211,7 @@
         <v>52</v>
       </c>
       <c r="K263" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -11231,7 +11246,7 @@
         <v>52</v>
       </c>
       <c r="K264" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -11266,7 +11281,7 @@
         <v>52</v>
       </c>
       <c r="K265" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -11301,7 +11316,7 @@
         <v>52</v>
       </c>
       <c r="K266" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -11333,10 +11348,10 @@
         <v>51</v>
       </c>
       <c r="J267" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K267" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -11368,10 +11383,10 @@
         <v>51</v>
       </c>
       <c r="J268" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K268" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -11406,7 +11421,7 @@
         <v>52</v>
       </c>
       <c r="K269" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -11438,10 +11453,10 @@
         <v>51</v>
       </c>
       <c r="J270" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K270" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -11473,10 +11488,10 @@
         <v>51</v>
       </c>
       <c r="J271" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K271" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -11511,7 +11526,7 @@
         <v>52</v>
       </c>
       <c r="K272" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -11546,7 +11561,7 @@
         <v>52</v>
       </c>
       <c r="K273" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -11581,7 +11596,7 @@
         <v>52</v>
       </c>
       <c r="K274" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -11616,7 +11631,7 @@
         <v>52</v>
       </c>
       <c r="K275" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -11651,7 +11666,7 @@
         <v>52</v>
       </c>
       <c r="K276" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -11659,16 +11674,16 @@
         <v>23089045</v>
       </c>
       <c r="B277" s="1">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="C277" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D277" s="1">
         <v>0.83</v>
       </c>
       <c r="E277">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F277" s="1">
         <v>0.83</v>
@@ -11677,16 +11692,16 @@
         <v>15</v>
       </c>
       <c r="H277" s="4">
-        <v>45777</v>
+        <v>45807</v>
       </c>
       <c r="I277" s="4">
-        <v>45807</v>
+        <v>45838</v>
       </c>
       <c r="J277" t="s">
         <v>52</v>
       </c>
       <c r="K277" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -11718,10 +11733,10 @@
         <v>51</v>
       </c>
       <c r="J278" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K278" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -11753,10 +11768,10 @@
         <v>51</v>
       </c>
       <c r="J279" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K279" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -11791,7 +11806,7 @@
         <v>52</v>
       </c>
       <c r="K280" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -11826,7 +11841,7 @@
         <v>52</v>
       </c>
       <c r="K281" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -11861,7 +11876,7 @@
         <v>52</v>
       </c>
       <c r="K282" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -11896,7 +11911,7 @@
         <v>52</v>
       </c>
       <c r="K283" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -11931,7 +11946,7 @@
         <v>52</v>
       </c>
       <c r="K284" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -11963,10 +11978,10 @@
         <v>51</v>
       </c>
       <c r="J285" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K285" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -12001,7 +12016,7 @@
         <v>52</v>
       </c>
       <c r="K286" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -12036,7 +12051,7 @@
         <v>52</v>
       </c>
       <c r="K287" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -12071,7 +12086,7 @@
         <v>52</v>
       </c>
       <c r="K288" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -12106,7 +12121,7 @@
         <v>52</v>
       </c>
       <c r="K289" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -12138,10 +12153,10 @@
         <v>51</v>
       </c>
       <c r="J290" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K290" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -12176,7 +12191,7 @@
         <v>52</v>
       </c>
       <c r="K291" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -12211,7 +12226,7 @@
         <v>52</v>
       </c>
       <c r="K292" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -12243,10 +12258,10 @@
         <v>51</v>
       </c>
       <c r="J293" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="K293" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -12278,10 +12293,10 @@
         <v>51</v>
       </c>
       <c r="J294" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K294" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -12316,7 +12331,7 @@
         <v>52</v>
       </c>
       <c r="K295" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -12351,7 +12366,7 @@
         <v>52</v>
       </c>
       <c r="K296" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -12368,7 +12383,7 @@
         <v>1</v>
       </c>
       <c r="E297">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F297" s="1">
         <v>1</v>
@@ -12377,16 +12392,16 @@
         <v>19</v>
       </c>
       <c r="H297" s="4">
-        <v>45803</v>
+        <v>45807</v>
       </c>
       <c r="I297" s="4">
-        <v>45818</v>
+        <v>45822</v>
       </c>
       <c r="J297" t="s">
         <v>52</v>
       </c>
       <c r="K297" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -12421,7 +12436,7 @@
         <v>52</v>
       </c>
       <c r="K298" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -12456,7 +12471,7 @@
         <v>52</v>
       </c>
       <c r="K299" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -12491,7 +12506,7 @@
         <v>52</v>
       </c>
       <c r="K300" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -12526,7 +12541,7 @@
         <v>52</v>
       </c>
       <c r="K301" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -12561,7 +12576,7 @@
         <v>52</v>
       </c>
       <c r="K302" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -12593,10 +12608,10 @@
         <v>51</v>
       </c>
       <c r="J303" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K303" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -12631,7 +12646,7 @@
         <v>52</v>
       </c>
       <c r="K304" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -12666,7 +12681,7 @@
         <v>52</v>
       </c>
       <c r="K305" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -12701,7 +12716,7 @@
         <v>52</v>
       </c>
       <c r="K306" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -12733,10 +12748,10 @@
         <v>51</v>
       </c>
       <c r="J307" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K307" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -12771,7 +12786,7 @@
         <v>52</v>
       </c>
       <c r="K308" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -12806,7 +12821,7 @@
         <v>52</v>
       </c>
       <c r="K309" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -12841,7 +12856,7 @@
         <v>52</v>
       </c>
       <c r="K310" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -12873,10 +12888,10 @@
         <v>51</v>
       </c>
       <c r="J311" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K311" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -12911,7 +12926,7 @@
         <v>52</v>
       </c>
       <c r="K312" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -12946,7 +12961,7 @@
         <v>52</v>
       </c>
       <c r="K313" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -12981,7 +12996,7 @@
         <v>52</v>
       </c>
       <c r="K314" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -13016,7 +13031,7 @@
         <v>52</v>
       </c>
       <c r="K315" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -13051,7 +13066,7 @@
         <v>52</v>
       </c>
       <c r="K316" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -13086,7 +13101,7 @@
         <v>52</v>
       </c>
       <c r="K317" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -13118,10 +13133,10 @@
         <v>51</v>
       </c>
       <c r="J318" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K318" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -13156,7 +13171,7 @@
         <v>52</v>
       </c>
       <c r="K319" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -13191,7 +13206,7 @@
         <v>52</v>
       </c>
       <c r="K320" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -13223,10 +13238,10 @@
         <v>51</v>
       </c>
       <c r="J321" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K321" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -13261,7 +13276,7 @@
         <v>52</v>
       </c>
       <c r="K322" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -13296,7 +13311,7 @@
         <v>52</v>
       </c>
       <c r="K323" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -13328,10 +13343,10 @@
         <v>51</v>
       </c>
       <c r="J324" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K324" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -13363,10 +13378,10 @@
         <v>51</v>
       </c>
       <c r="J325" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K325" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -13401,7 +13416,7 @@
         <v>52</v>
       </c>
       <c r="K326" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -13433,10 +13448,10 @@
         <v>51</v>
       </c>
       <c r="J327" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K327" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -13471,7 +13486,7 @@
         <v>52</v>
       </c>
       <c r="K328" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -13503,10 +13518,10 @@
         <v>51</v>
       </c>
       <c r="J329" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K329" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -13538,10 +13553,10 @@
         <v>51</v>
       </c>
       <c r="J330" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K330" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -13576,7 +13591,7 @@
         <v>52</v>
       </c>
       <c r="K331" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -13611,7 +13626,7 @@
         <v>52</v>
       </c>
       <c r="K332" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -13646,7 +13661,7 @@
         <v>52</v>
       </c>
       <c r="K333" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -13678,10 +13693,10 @@
         <v>51</v>
       </c>
       <c r="J334" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K334" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -13716,7 +13731,7 @@
         <v>52</v>
       </c>
       <c r="K335" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -13751,7 +13766,7 @@
         <v>52</v>
       </c>
       <c r="K336" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -13786,7 +13801,7 @@
         <v>52</v>
       </c>
       <c r="K337" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -13821,7 +13836,7 @@
         <v>52</v>
       </c>
       <c r="K338" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -13856,7 +13871,7 @@
         <v>52</v>
       </c>
       <c r="K339" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -13864,34 +13879,34 @@
         <v>39794827</v>
       </c>
       <c r="B340" s="1">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="C340" s="1">
         <v>0.5</v>
       </c>
       <c r="D340" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E340">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F340" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G340" t="s">
         <v>13</v>
       </c>
       <c r="H340" s="4">
-        <v>45764</v>
+        <v>45798</v>
       </c>
       <c r="I340" s="4">
-        <v>45794</v>
+        <v>45829</v>
       </c>
       <c r="J340" t="s">
         <v>52</v>
       </c>
       <c r="K340" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -13923,10 +13938,10 @@
         <v>51</v>
       </c>
       <c r="J341" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K341" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -13961,7 +13976,7 @@
         <v>52</v>
       </c>
       <c r="K342" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -13996,7 +14011,7 @@
         <v>52</v>
       </c>
       <c r="K343" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -14031,7 +14046,7 @@
         <v>52</v>
       </c>
       <c r="K344" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -14066,7 +14081,7 @@
         <v>52</v>
       </c>
       <c r="K345" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -14101,7 +14116,7 @@
         <v>52</v>
       </c>
       <c r="K346" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -14133,10 +14148,10 @@
         <v>51</v>
       </c>
       <c r="J347" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K347" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -14171,7 +14186,7 @@
         <v>52</v>
       </c>
       <c r="K348" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -14206,7 +14221,7 @@
         <v>52</v>
       </c>
       <c r="K349" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -14241,7 +14256,7 @@
         <v>52</v>
       </c>
       <c r="K350" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -14276,7 +14291,7 @@
         <v>52</v>
       </c>
       <c r="K351" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -14311,7 +14326,7 @@
         <v>52</v>
       </c>
       <c r="K352" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -14346,7 +14361,7 @@
         <v>52</v>
       </c>
       <c r="K353" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -14381,7 +14396,7 @@
         <v>52</v>
       </c>
       <c r="K354" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -14389,34 +14404,34 @@
         <v>41223913</v>
       </c>
       <c r="B355" s="1">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="C355" s="1">
         <v>0.17</v>
       </c>
       <c r="D355" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="E355">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F355" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G355" t="s">
         <v>33</v>
       </c>
       <c r="H355" s="4">
-        <v>45777</v>
+        <v>45810</v>
       </c>
       <c r="I355" s="4">
-        <v>45838</v>
+        <v>45871</v>
       </c>
       <c r="J355" t="s">
         <v>52</v>
       </c>
       <c r="K355" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -14451,7 +14466,7 @@
         <v>52</v>
       </c>
       <c r="K356" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -14486,7 +14501,7 @@
         <v>52</v>
       </c>
       <c r="K357" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -14521,7 +14536,7 @@
         <v>52</v>
       </c>
       <c r="K358" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -14556,7 +14571,7 @@
         <v>52</v>
       </c>
       <c r="K359" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -14591,7 +14606,7 @@
         <v>52</v>
       </c>
       <c r="K360" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -14626,7 +14641,7 @@
         <v>52</v>
       </c>
       <c r="K361" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -14661,7 +14676,7 @@
         <v>52</v>
       </c>
       <c r="K362" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -14696,7 +14711,7 @@
         <v>52</v>
       </c>
       <c r="K363" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -14731,7 +14746,7 @@
         <v>52</v>
       </c>
       <c r="K364" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -14766,7 +14781,7 @@
         <v>52</v>
       </c>
       <c r="K365" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -14801,7 +14816,7 @@
         <v>52</v>
       </c>
       <c r="K366" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -14836,7 +14851,7 @@
         <v>52</v>
       </c>
       <c r="K367" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -14853,25 +14868,25 @@
         <v>1</v>
       </c>
       <c r="E368">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F368" s="1">
         <v>1</v>
       </c>
       <c r="G368" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H368" s="4">
-        <v>45777</v>
+        <v>45807</v>
       </c>
       <c r="I368" s="4">
-        <v>45784</v>
+        <v>45822</v>
       </c>
       <c r="J368" t="s">
         <v>52</v>
       </c>
       <c r="K368" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -14906,7 +14921,7 @@
         <v>52</v>
       </c>
       <c r="K369" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -14941,7 +14956,7 @@
         <v>52</v>
       </c>
       <c r="K370" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -14976,7 +14991,7 @@
         <v>52</v>
       </c>
       <c r="K371" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -15011,7 +15026,7 @@
         <v>52</v>
       </c>
       <c r="K372" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -15046,7 +15061,7 @@
         <v>52</v>
       </c>
       <c r="K373" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -15081,7 +15096,7 @@
         <v>52</v>
       </c>
       <c r="K374" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -15116,7 +15131,7 @@
         <v>52</v>
       </c>
       <c r="K375" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -15151,7 +15166,7 @@
         <v>52</v>
       </c>
       <c r="K376" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -15186,7 +15201,7 @@
         <v>52</v>
       </c>
       <c r="K377" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -15221,7 +15236,7 @@
         <v>52</v>
       </c>
       <c r="K378" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -15256,7 +15271,7 @@
         <v>52</v>
       </c>
       <c r="K379" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -15291,7 +15306,7 @@
         <v>52</v>
       </c>
       <c r="K380" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -15308,7 +15323,7 @@
         <v>1</v>
       </c>
       <c r="E381">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F381" s="1">
         <v>1</v>
@@ -15317,16 +15332,16 @@
         <v>41</v>
       </c>
       <c r="H381" s="4">
-        <v>45775</v>
+        <v>45807</v>
       </c>
       <c r="I381" s="4">
-        <v>45782</v>
+        <v>45814</v>
       </c>
       <c r="J381" t="s">
         <v>52</v>
       </c>
       <c r="K381" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -15334,34 +15349,34 @@
         <v>42420174</v>
       </c>
       <c r="B382" s="1">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C382" s="1">
         <v>0.17</v>
       </c>
       <c r="D382" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E382">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F382" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G382" t="s">
         <v>16</v>
       </c>
       <c r="H382" s="4">
-        <v>45782</v>
+        <v>45797</v>
       </c>
       <c r="I382" s="4">
-        <v>45843</v>
+        <v>45858</v>
       </c>
       <c r="J382" t="s">
         <v>52</v>
       </c>
       <c r="K382" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -15378,7 +15393,7 @@
         <v>1</v>
       </c>
       <c r="E383">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F383" s="1">
         <v>1</v>
@@ -15387,16 +15402,16 @@
         <v>28</v>
       </c>
       <c r="H383" s="4">
-        <v>45798</v>
+        <v>45807</v>
       </c>
       <c r="I383" s="4">
-        <v>45813</v>
+        <v>45822</v>
       </c>
       <c r="J383" t="s">
         <v>52</v>
       </c>
       <c r="K383" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -15431,7 +15446,7 @@
         <v>52</v>
       </c>
       <c r="K384" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -15466,7 +15481,7 @@
         <v>52</v>
       </c>
       <c r="K385" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -15501,7 +15516,7 @@
         <v>52</v>
       </c>
       <c r="K386" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -15536,7 +15551,7 @@
         <v>52</v>
       </c>
       <c r="K387" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -15571,7 +15586,7 @@
         <v>52</v>
       </c>
       <c r="K388" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -15606,7 +15621,7 @@
         <v>52</v>
       </c>
       <c r="K389" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -15641,7 +15656,7 @@
         <v>52</v>
       </c>
       <c r="K390" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -15676,7 +15691,7 @@
         <v>52</v>
       </c>
       <c r="K391" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -15693,7 +15708,7 @@
         <v>0.83</v>
       </c>
       <c r="E392">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F392" s="1">
         <v>0.83</v>
@@ -15711,7 +15726,7 @@
         <v>52</v>
       </c>
       <c r="K392" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -15746,7 +15761,7 @@
         <v>52</v>
       </c>
       <c r="K393" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -15781,7 +15796,7 @@
         <v>52</v>
       </c>
       <c r="K394" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -15816,7 +15831,7 @@
         <v>52</v>
       </c>
       <c r="K395" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -15824,34 +15839,34 @@
         <v>43619679</v>
       </c>
       <c r="B396" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C396" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D396" s="1">
         <v>0.5</v>
       </c>
       <c r="E396">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F396" s="1">
         <v>0.5</v>
       </c>
       <c r="G396" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H396" s="4">
-        <v>45776</v>
+        <v>45805</v>
       </c>
       <c r="I396" s="4">
-        <v>45806</v>
+        <v>45836</v>
       </c>
       <c r="J396" t="s">
         <v>52</v>
       </c>
       <c r="K396" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -15883,10 +15898,10 @@
         <v>51</v>
       </c>
       <c r="J397" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K397" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -15894,16 +15909,16 @@
         <v>43854910</v>
       </c>
       <c r="B398" s="1">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="C398" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="D398" s="1">
         <v>0.83</v>
       </c>
       <c r="E398">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F398" s="1">
         <v>0.83</v>
@@ -15912,16 +15927,16 @@
         <v>11</v>
       </c>
       <c r="H398" s="4">
-        <v>45807</v>
+        <v>45810</v>
       </c>
       <c r="I398" s="4">
-        <v>45814</v>
+        <v>45817</v>
       </c>
       <c r="J398" t="s">
         <v>52</v>
       </c>
       <c r="K398" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -15956,7 +15971,7 @@
         <v>52</v>
       </c>
       <c r="K399" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -15991,7 +16006,7 @@
         <v>52</v>
       </c>
       <c r="K400" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -16026,7 +16041,7 @@
         <v>52</v>
       </c>
       <c r="K401" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -16061,7 +16076,7 @@
         <v>52</v>
       </c>
       <c r="K402" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -16096,7 +16111,7 @@
         <v>52</v>
       </c>
       <c r="K403" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -16113,7 +16128,7 @@
         <v>1</v>
       </c>
       <c r="E404">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F404" s="1">
         <v>1</v>
@@ -16131,7 +16146,7 @@
         <v>52</v>
       </c>
       <c r="K404" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -16166,7 +16181,7 @@
         <v>52</v>
       </c>
       <c r="K405" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -16201,7 +16216,7 @@
         <v>52</v>
       </c>
       <c r="K406" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -16236,7 +16251,7 @@
         <v>52</v>
       </c>
       <c r="K407" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -16271,7 +16286,7 @@
         <v>52</v>
       </c>
       <c r="K408" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -16306,7 +16321,7 @@
         <v>52</v>
       </c>
       <c r="K409" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -16341,7 +16356,7 @@
         <v>52</v>
       </c>
       <c r="K410" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -16376,7 +16391,7 @@
         <v>52</v>
       </c>
       <c r="K411" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -16411,7 +16426,7 @@
         <v>52</v>
       </c>
       <c r="K412" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -16446,7 +16461,7 @@
         <v>52</v>
       </c>
       <c r="K413" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -16481,7 +16496,7 @@
         <v>52</v>
       </c>
       <c r="K414" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -16516,7 +16531,7 @@
         <v>52</v>
       </c>
       <c r="K415" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -16551,7 +16566,7 @@
         <v>52</v>
       </c>
       <c r="K416" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -16586,7 +16601,7 @@
         <v>52</v>
       </c>
       <c r="K417" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="418" spans="1:11">
@@ -16621,7 +16636,7 @@
         <v>52</v>
       </c>
       <c r="K418" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="419" spans="1:11">
@@ -16638,7 +16653,7 @@
         <v>1</v>
       </c>
       <c r="E419">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F419" s="1">
         <v>1</v>
@@ -16647,16 +16662,16 @@
         <v>41</v>
       </c>
       <c r="H419" s="4">
-        <v>45806</v>
+        <v>45807</v>
       </c>
       <c r="I419" s="4">
-        <v>45813</v>
+        <v>45814</v>
       </c>
       <c r="J419" t="s">
         <v>52</v>
       </c>
       <c r="K419" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
+++ b/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="526">
   <si>
     <t>id_cliente</t>
   </si>
@@ -175,10 +175,10 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 45.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 45.2 meses sem comprar</t>
+    <t>INATIVO - 45.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 45.0 meses sem comprar</t>
@@ -187,7 +187,7 @@
     <t>INATIVO - 38.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.9 meses sem comprar</t>
+    <t>INATIVO - 39.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 42.0 meses sem comprar</t>
@@ -196,22 +196,19 @@
     <t>INATIVO - 49.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 45.5 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 29.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 39.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 48.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 45.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.4 meses sem comprar</t>
+    <t>INATIVO - 48.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.5 meses sem comprar</t>
@@ -220,304 +217,289 @@
     <t>INATIVO - 48.8 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 11.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 46.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.1 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 11.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 0.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 46.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
+    <t>INATIVO - 12.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 10.7 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 8.5 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 11.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 10.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 8.2 meses sem comprar</t>
@@ -2076,7 +2058,7 @@
         <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2111,7 +2093,7 @@
         <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2146,7 +2128,7 @@
         <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2181,7 +2163,7 @@
         <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2216,7 +2198,7 @@
         <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2251,7 +2233,7 @@
         <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2286,7 +2268,7 @@
         <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2321,7 +2303,7 @@
         <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2356,7 +2338,7 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2391,7 +2373,7 @@
         <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2423,10 +2405,10 @@
         <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2458,10 +2440,10 @@
         <v>51</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2493,10 +2475,10 @@
         <v>51</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K14" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2528,10 +2510,10 @@
         <v>51</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K15" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2563,10 +2545,10 @@
         <v>51</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K16" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2598,10 +2580,10 @@
         <v>51</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2633,10 +2615,10 @@
         <v>51</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2668,10 +2650,10 @@
         <v>51</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2703,10 +2685,10 @@
         <v>51</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2738,10 +2720,10 @@
         <v>51</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K21" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2773,10 +2755,10 @@
         <v>51</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2808,10 +2790,10 @@
         <v>51</v>
       </c>
       <c r="J23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K23" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2843,10 +2825,10 @@
         <v>51</v>
       </c>
       <c r="J24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K24" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2881,7 +2863,7 @@
         <v>52</v>
       </c>
       <c r="K25" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2913,10 +2895,10 @@
         <v>51</v>
       </c>
       <c r="J26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K26" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2948,10 +2930,10 @@
         <v>51</v>
       </c>
       <c r="J27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K27" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2986,7 +2968,7 @@
         <v>52</v>
       </c>
       <c r="K28" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3018,10 +3000,10 @@
         <v>51</v>
       </c>
       <c r="J29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K29" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3056,7 +3038,7 @@
         <v>52</v>
       </c>
       <c r="K30" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3091,7 +3073,7 @@
         <v>52</v>
       </c>
       <c r="K31" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3126,7 +3108,7 @@
         <v>52</v>
       </c>
       <c r="K32" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3158,10 +3140,10 @@
         <v>51</v>
       </c>
       <c r="J33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K33" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3193,10 +3175,10 @@
         <v>51</v>
       </c>
       <c r="J34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K34" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3228,10 +3210,10 @@
         <v>51</v>
       </c>
       <c r="J35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3263,10 +3245,10 @@
         <v>51</v>
       </c>
       <c r="J36" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="K36" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3301,7 +3283,7 @@
         <v>52</v>
       </c>
       <c r="K37" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3336,7 +3318,7 @@
         <v>52</v>
       </c>
       <c r="K38" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3371,7 +3353,7 @@
         <v>52</v>
       </c>
       <c r="K39" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3403,10 +3385,10 @@
         <v>51</v>
       </c>
       <c r="J40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K40" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3438,10 +3420,10 @@
         <v>51</v>
       </c>
       <c r="J41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3476,7 +3458,7 @@
         <v>52</v>
       </c>
       <c r="K42" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3508,10 +3490,10 @@
         <v>51</v>
       </c>
       <c r="J43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3546,7 +3528,7 @@
         <v>52</v>
       </c>
       <c r="K44" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3578,10 +3560,10 @@
         <v>51</v>
       </c>
       <c r="J45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3616,7 +3598,7 @@
         <v>52</v>
       </c>
       <c r="K46" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3651,7 +3633,7 @@
         <v>52</v>
       </c>
       <c r="K47" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3662,31 +3644,31 @@
         <v>0.58</v>
       </c>
       <c r="C48" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D48" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="E48">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F48" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G48" t="s">
         <v>19</v>
       </c>
       <c r="H48" s="4">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="I48" s="4">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="J48" t="s">
         <v>52</v>
       </c>
       <c r="K48" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3721,7 +3703,7 @@
         <v>52</v>
       </c>
       <c r="K49" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3753,10 +3735,10 @@
         <v>51</v>
       </c>
       <c r="J50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3791,7 +3773,7 @@
         <v>52</v>
       </c>
       <c r="K51" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3826,7 +3808,7 @@
         <v>52</v>
       </c>
       <c r="K52" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3858,10 +3840,10 @@
         <v>51</v>
       </c>
       <c r="J53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3893,10 +3875,10 @@
         <v>51</v>
       </c>
       <c r="J54" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K54" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3928,10 +3910,10 @@
         <v>51</v>
       </c>
       <c r="J55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K55" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3963,10 +3945,10 @@
         <v>51</v>
       </c>
       <c r="J56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K56" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3998,10 +3980,10 @@
         <v>51</v>
       </c>
       <c r="J57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K57" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -4033,10 +4015,10 @@
         <v>51</v>
       </c>
       <c r="J58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K58" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4068,10 +4050,10 @@
         <v>51</v>
       </c>
       <c r="J59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4103,10 +4085,10 @@
         <v>51</v>
       </c>
       <c r="J60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K60" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4138,10 +4120,10 @@
         <v>51</v>
       </c>
       <c r="J61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K61" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4173,10 +4155,10 @@
         <v>51</v>
       </c>
       <c r="J62" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K62" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4208,10 +4190,10 @@
         <v>51</v>
       </c>
       <c r="J63" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K63" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4243,10 +4225,10 @@
         <v>51</v>
       </c>
       <c r="J64" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K64" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4278,10 +4260,10 @@
         <v>51</v>
       </c>
       <c r="J65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4313,10 +4295,10 @@
         <v>51</v>
       </c>
       <c r="J66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K66" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4351,7 +4333,7 @@
         <v>52</v>
       </c>
       <c r="K67" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4383,10 +4365,10 @@
         <v>51</v>
       </c>
       <c r="J68" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4421,7 +4403,7 @@
         <v>52</v>
       </c>
       <c r="K69" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4453,10 +4435,10 @@
         <v>51</v>
       </c>
       <c r="J70" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K70" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4488,10 +4470,10 @@
         <v>51</v>
       </c>
       <c r="J71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K71" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4523,10 +4505,10 @@
         <v>51</v>
       </c>
       <c r="J72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4561,7 +4543,7 @@
         <v>52</v>
       </c>
       <c r="K73" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4593,10 +4575,10 @@
         <v>51</v>
       </c>
       <c r="J74" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K74" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4631,7 +4613,7 @@
         <v>52</v>
       </c>
       <c r="K75" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4663,10 +4645,10 @@
         <v>51</v>
       </c>
       <c r="J76" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K76" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4698,10 +4680,10 @@
         <v>51</v>
       </c>
       <c r="J77" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K77" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4736,7 +4718,7 @@
         <v>52</v>
       </c>
       <c r="K78" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4768,10 +4750,10 @@
         <v>51</v>
       </c>
       <c r="J79" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K79" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4806,7 +4788,7 @@
         <v>52</v>
       </c>
       <c r="K80" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4841,7 +4823,7 @@
         <v>52</v>
       </c>
       <c r="K81" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4873,10 +4855,10 @@
         <v>51</v>
       </c>
       <c r="J82" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K82" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4911,7 +4893,7 @@
         <v>52</v>
       </c>
       <c r="K83" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4943,10 +4925,10 @@
         <v>51</v>
       </c>
       <c r="J84" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K84" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4981,7 +4963,7 @@
         <v>52</v>
       </c>
       <c r="K85" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -5013,10 +4995,10 @@
         <v>51</v>
       </c>
       <c r="J86" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K86" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5048,10 +5030,10 @@
         <v>51</v>
       </c>
       <c r="J87" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K87" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -5083,10 +5065,10 @@
         <v>51</v>
       </c>
       <c r="J88" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K88" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5118,10 +5100,10 @@
         <v>51</v>
       </c>
       <c r="J89" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K89" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5153,10 +5135,10 @@
         <v>51</v>
       </c>
       <c r="J90" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K90" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5188,10 +5170,10 @@
         <v>51</v>
       </c>
       <c r="J91" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K91" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5226,7 +5208,7 @@
         <v>52</v>
       </c>
       <c r="K92" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5258,10 +5240,10 @@
         <v>51</v>
       </c>
       <c r="J93" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K93" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5296,7 +5278,7 @@
         <v>52</v>
       </c>
       <c r="K94" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5331,7 +5313,7 @@
         <v>52</v>
       </c>
       <c r="K95" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5363,10 +5345,10 @@
         <v>51</v>
       </c>
       <c r="J96" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K96" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5401,7 +5383,7 @@
         <v>52</v>
       </c>
       <c r="K97" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5433,10 +5415,10 @@
         <v>51</v>
       </c>
       <c r="J98" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="K98" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5468,10 +5450,10 @@
         <v>51</v>
       </c>
       <c r="J99" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K99" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5503,10 +5485,10 @@
         <v>51</v>
       </c>
       <c r="J100" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K100" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5538,10 +5520,10 @@
         <v>51</v>
       </c>
       <c r="J101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K101" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5576,7 +5558,7 @@
         <v>52</v>
       </c>
       <c r="K102" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5611,7 +5593,7 @@
         <v>52</v>
       </c>
       <c r="K103" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5643,10 +5625,10 @@
         <v>51</v>
       </c>
       <c r="J104" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K104" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5678,10 +5660,10 @@
         <v>51</v>
       </c>
       <c r="J105" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K105" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5716,7 +5698,7 @@
         <v>52</v>
       </c>
       <c r="K106" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5748,10 +5730,10 @@
         <v>51</v>
       </c>
       <c r="J107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K107" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5783,10 +5765,10 @@
         <v>51</v>
       </c>
       <c r="J108" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K108" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5818,10 +5800,10 @@
         <v>51</v>
       </c>
       <c r="J109" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="K109" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5856,7 +5838,7 @@
         <v>52</v>
       </c>
       <c r="K110" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5888,10 +5870,10 @@
         <v>51</v>
       </c>
       <c r="J111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K111" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5923,10 +5905,10 @@
         <v>51</v>
       </c>
       <c r="J112" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K112" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5958,10 +5940,10 @@
         <v>51</v>
       </c>
       <c r="J113" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K113" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5993,10 +5975,10 @@
         <v>51</v>
       </c>
       <c r="J114" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K114" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -6028,10 +6010,10 @@
         <v>51</v>
       </c>
       <c r="J115" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K115" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6063,10 +6045,10 @@
         <v>51</v>
       </c>
       <c r="J116" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K116" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -6098,10 +6080,10 @@
         <v>51</v>
       </c>
       <c r="J117" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K117" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6136,7 +6118,7 @@
         <v>52</v>
       </c>
       <c r="K118" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6168,10 +6150,10 @@
         <v>51</v>
       </c>
       <c r="J119" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K119" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6206,7 +6188,7 @@
         <v>52</v>
       </c>
       <c r="K120" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6241,7 +6223,7 @@
         <v>52</v>
       </c>
       <c r="K121" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6273,10 +6255,10 @@
         <v>51</v>
       </c>
       <c r="J122" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K122" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6308,10 +6290,10 @@
         <v>51</v>
       </c>
       <c r="J123" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K123" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6346,7 +6328,7 @@
         <v>52</v>
       </c>
       <c r="K124" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6381,7 +6363,7 @@
         <v>52</v>
       </c>
       <c r="K125" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6413,10 +6395,10 @@
         <v>51</v>
       </c>
       <c r="J126" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K126" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6448,10 +6430,10 @@
         <v>51</v>
       </c>
       <c r="J127" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K127" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6486,7 +6468,7 @@
         <v>52</v>
       </c>
       <c r="K128" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6518,10 +6500,10 @@
         <v>51</v>
       </c>
       <c r="J129" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K129" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6556,7 +6538,7 @@
         <v>52</v>
       </c>
       <c r="K130" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6591,7 +6573,7 @@
         <v>52</v>
       </c>
       <c r="K131" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6626,7 +6608,7 @@
         <v>52</v>
       </c>
       <c r="K132" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6658,10 +6640,10 @@
         <v>51</v>
       </c>
       <c r="J133" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K133" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6693,10 +6675,10 @@
         <v>51</v>
       </c>
       <c r="J134" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K134" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -6731,7 +6713,7 @@
         <v>52</v>
       </c>
       <c r="K135" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -6763,10 +6745,10 @@
         <v>51</v>
       </c>
       <c r="J136" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K136" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6798,10 +6780,10 @@
         <v>51</v>
       </c>
       <c r="J137" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K137" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6833,10 +6815,10 @@
         <v>51</v>
       </c>
       <c r="J138" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K138" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6868,10 +6850,10 @@
         <v>51</v>
       </c>
       <c r="J139" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K139" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6906,7 +6888,7 @@
         <v>52</v>
       </c>
       <c r="K140" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6938,10 +6920,10 @@
         <v>51</v>
       </c>
       <c r="J141" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="K141" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6976,7 +6958,7 @@
         <v>52</v>
       </c>
       <c r="K142" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -7011,7 +6993,7 @@
         <v>52</v>
       </c>
       <c r="K143" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -7043,10 +7025,10 @@
         <v>51</v>
       </c>
       <c r="J144" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K144" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -7081,7 +7063,7 @@
         <v>52</v>
       </c>
       <c r="K145" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -7116,7 +7098,7 @@
         <v>52</v>
       </c>
       <c r="K146" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7151,7 +7133,7 @@
         <v>52</v>
       </c>
       <c r="K147" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7186,7 +7168,7 @@
         <v>52</v>
       </c>
       <c r="K148" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7197,31 +7179,31 @@
         <v>0.67</v>
       </c>
       <c r="C149" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="D149" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="E149">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F149" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G149" t="s">
         <v>13</v>
       </c>
       <c r="H149" s="4">
-        <v>45796</v>
+        <v>45810</v>
       </c>
       <c r="I149" s="4">
-        <v>45827</v>
+        <v>45840</v>
       </c>
       <c r="J149" t="s">
         <v>52</v>
       </c>
       <c r="K149" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7253,10 +7235,10 @@
         <v>51</v>
       </c>
       <c r="J150" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K150" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7291,7 +7273,7 @@
         <v>52</v>
       </c>
       <c r="K151" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7326,7 +7308,7 @@
         <v>52</v>
       </c>
       <c r="K152" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7358,10 +7340,10 @@
         <v>51</v>
       </c>
       <c r="J153" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K153" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7396,7 +7378,7 @@
         <v>52</v>
       </c>
       <c r="K154" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7431,7 +7413,7 @@
         <v>52</v>
       </c>
       <c r="K155" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7466,7 +7448,7 @@
         <v>52</v>
       </c>
       <c r="K156" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -7501,7 +7483,7 @@
         <v>52</v>
       </c>
       <c r="K157" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -7536,7 +7518,7 @@
         <v>52</v>
       </c>
       <c r="K158" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -7571,7 +7553,7 @@
         <v>52</v>
       </c>
       <c r="K159" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -7606,7 +7588,7 @@
         <v>52</v>
       </c>
       <c r="K160" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -7638,10 +7620,10 @@
         <v>51</v>
       </c>
       <c r="J161" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K161" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7673,10 +7655,10 @@
         <v>51</v>
       </c>
       <c r="J162" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K162" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7711,7 +7693,7 @@
         <v>52</v>
       </c>
       <c r="K163" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -7743,10 +7725,10 @@
         <v>51</v>
       </c>
       <c r="J164" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="K164" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7778,10 +7760,10 @@
         <v>51</v>
       </c>
       <c r="J165" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K165" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7789,34 +7771,34 @@
         <v>5216904</v>
       </c>
       <c r="B166" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C166" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="D166" s="1">
         <v>0.83</v>
       </c>
-      <c r="C166" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="D166" s="1">
-        <v>1</v>
-      </c>
       <c r="E166">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F166" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G166" t="s">
         <v>28</v>
       </c>
       <c r="H166" s="4">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="I166" s="4">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="J166" t="s">
         <v>52</v>
       </c>
       <c r="K166" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7851,7 +7833,7 @@
         <v>52</v>
       </c>
       <c r="K167" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -7886,7 +7868,7 @@
         <v>52</v>
       </c>
       <c r="K168" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7921,7 +7903,7 @@
         <v>52</v>
       </c>
       <c r="K169" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -7956,7 +7938,7 @@
         <v>52</v>
       </c>
       <c r="K170" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7991,7 +7973,7 @@
         <v>52</v>
       </c>
       <c r="K171" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -8023,10 +8005,10 @@
         <v>51</v>
       </c>
       <c r="J172" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K172" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -8034,16 +8016,16 @@
         <v>5216989</v>
       </c>
       <c r="B173" s="1">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="C173" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="D173" s="1">
         <v>0.67</v>
       </c>
       <c r="E173">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F173" s="1">
         <v>0.67</v>
@@ -8052,16 +8034,16 @@
         <v>28</v>
       </c>
       <c r="H173" s="4">
-        <v>45796</v>
+        <v>45810</v>
       </c>
       <c r="I173" s="4">
-        <v>45811</v>
+        <v>45825</v>
       </c>
       <c r="J173" t="s">
         <v>52</v>
       </c>
       <c r="K173" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -8069,34 +8051,34 @@
         <v>5216993</v>
       </c>
       <c r="B174" s="1">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="C174" s="1">
         <v>0.5</v>
       </c>
       <c r="D174" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="E174">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F174" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G174" t="s">
         <v>28</v>
       </c>
       <c r="H174" s="4">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="I174" s="4">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="J174" t="s">
         <v>52</v>
       </c>
       <c r="K174" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -8131,7 +8113,7 @@
         <v>52</v>
       </c>
       <c r="K175" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -8166,7 +8148,7 @@
         <v>52</v>
       </c>
       <c r="K176" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -8201,7 +8183,7 @@
         <v>52</v>
       </c>
       <c r="K177" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -8236,7 +8218,7 @@
         <v>52</v>
       </c>
       <c r="K178" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -8271,7 +8253,7 @@
         <v>52</v>
       </c>
       <c r="K179" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -8306,7 +8288,7 @@
         <v>52</v>
       </c>
       <c r="K180" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -8338,10 +8320,10 @@
         <v>51</v>
       </c>
       <c r="J181" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K181" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -8349,34 +8331,34 @@
         <v>5342620</v>
       </c>
       <c r="B182" s="1">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="C182" s="1">
         <v>0.5</v>
       </c>
       <c r="D182" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="E182">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F182" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G182" t="s">
         <v>41</v>
       </c>
       <c r="H182" s="4">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="I182" s="4">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="J182" t="s">
         <v>52</v>
       </c>
       <c r="K182" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -8384,34 +8366,34 @@
         <v>5414658</v>
       </c>
       <c r="B183" s="1">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="C183" s="1">
         <v>0.5</v>
       </c>
       <c r="D183" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="E183">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F183" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G183" t="s">
         <v>28</v>
       </c>
       <c r="H183" s="4">
-        <v>45799</v>
+        <v>45810</v>
       </c>
       <c r="I183" s="4">
-        <v>45814</v>
+        <v>45825</v>
       </c>
       <c r="J183" t="s">
         <v>52</v>
       </c>
       <c r="K183" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -8422,31 +8404,31 @@
         <v>0.83</v>
       </c>
       <c r="C184" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="D184" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="E184">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F184" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G184" t="s">
         <v>28</v>
       </c>
       <c r="H184" s="4">
-        <v>45804</v>
+        <v>45810</v>
       </c>
       <c r="I184" s="4">
-        <v>45819</v>
+        <v>45825</v>
       </c>
       <c r="J184" t="s">
         <v>52</v>
       </c>
       <c r="K184" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -8481,7 +8463,7 @@
         <v>52</v>
       </c>
       <c r="K185" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -8516,7 +8498,7 @@
         <v>52</v>
       </c>
       <c r="K186" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -8548,10 +8530,10 @@
         <v>51</v>
       </c>
       <c r="J187" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K187" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -8583,10 +8565,10 @@
         <v>51</v>
       </c>
       <c r="J188" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K188" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -8618,10 +8600,10 @@
         <v>51</v>
       </c>
       <c r="J189" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K189" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -8656,7 +8638,7 @@
         <v>52</v>
       </c>
       <c r="K190" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -8664,16 +8646,16 @@
         <v>5710471</v>
       </c>
       <c r="B191" s="1">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="C191" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D191" s="1">
         <v>0.5</v>
       </c>
       <c r="E191">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F191" s="1">
         <v>0.5</v>
@@ -8682,16 +8664,16 @@
         <v>28</v>
       </c>
       <c r="H191" s="4">
-        <v>45792</v>
+        <v>45810</v>
       </c>
       <c r="I191" s="4">
-        <v>45807</v>
+        <v>45825</v>
       </c>
       <c r="J191" t="s">
         <v>52</v>
       </c>
       <c r="K191" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -8699,34 +8681,34 @@
         <v>5711642</v>
       </c>
       <c r="B192" s="1">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="C192" s="1">
         <v>0.5</v>
       </c>
       <c r="D192" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="E192">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F192" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G192" t="s">
         <v>18</v>
       </c>
       <c r="H192" s="4">
-        <v>45799</v>
+        <v>45810</v>
       </c>
       <c r="I192" s="4">
-        <v>45830</v>
+        <v>45840</v>
       </c>
       <c r="J192" t="s">
         <v>52</v>
       </c>
       <c r="K192" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -8761,7 +8743,7 @@
         <v>52</v>
       </c>
       <c r="K193" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -8796,7 +8778,7 @@
         <v>52</v>
       </c>
       <c r="K194" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8828,10 +8810,10 @@
         <v>51</v>
       </c>
       <c r="J195" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K195" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -8866,7 +8848,7 @@
         <v>52</v>
       </c>
       <c r="K196" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -8901,7 +8883,7 @@
         <v>52</v>
       </c>
       <c r="K197" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -8936,7 +8918,7 @@
         <v>52</v>
       </c>
       <c r="K198" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -8968,10 +8950,10 @@
         <v>51</v>
       </c>
       <c r="J199" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K199" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -9006,7 +8988,7 @@
         <v>52</v>
       </c>
       <c r="K200" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -9041,7 +9023,7 @@
         <v>52</v>
       </c>
       <c r="K201" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -9076,7 +9058,7 @@
         <v>52</v>
       </c>
       <c r="K202" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -9111,7 +9093,7 @@
         <v>52</v>
       </c>
       <c r="K203" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -9146,7 +9128,7 @@
         <v>52</v>
       </c>
       <c r="K204" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -9178,10 +9160,10 @@
         <v>51</v>
       </c>
       <c r="J205" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K205" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -9189,34 +9171,34 @@
         <v>6074351</v>
       </c>
       <c r="B206" s="1">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="C206" s="1">
         <v>0.5</v>
       </c>
       <c r="D206" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="E206">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F206" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G206" t="s">
         <v>28</v>
       </c>
       <c r="H206" s="4">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="I206" s="4">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="J206" t="s">
         <v>52</v>
       </c>
       <c r="K206" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -9248,10 +9230,10 @@
         <v>51</v>
       </c>
       <c r="J207" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K207" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -9262,31 +9244,31 @@
         <v>0.25</v>
       </c>
       <c r="C208" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D208" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E208">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F208" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G208" t="s">
         <v>14</v>
       </c>
       <c r="H208" s="4">
-        <v>45785</v>
+        <v>45811</v>
       </c>
       <c r="I208" s="4">
-        <v>45846</v>
+        <v>45872</v>
       </c>
       <c r="J208" t="s">
         <v>52</v>
       </c>
       <c r="K208" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -9318,10 +9300,10 @@
         <v>51</v>
       </c>
       <c r="J209" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K209" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -9356,7 +9338,7 @@
         <v>52</v>
       </c>
       <c r="K210" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -9388,10 +9370,10 @@
         <v>51</v>
       </c>
       <c r="J211" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K211" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -9426,7 +9408,7 @@
         <v>52</v>
       </c>
       <c r="K212" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -9458,10 +9440,10 @@
         <v>51</v>
       </c>
       <c r="J213" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K213" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -9493,10 +9475,10 @@
         <v>51</v>
       </c>
       <c r="J214" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K214" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -9531,7 +9513,7 @@
         <v>52</v>
       </c>
       <c r="K215" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -9563,10 +9545,10 @@
         <v>51</v>
       </c>
       <c r="J216" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K216" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -9601,7 +9583,7 @@
         <v>52</v>
       </c>
       <c r="K217" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -9636,7 +9618,7 @@
         <v>52</v>
       </c>
       <c r="K218" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -9671,7 +9653,7 @@
         <v>52</v>
       </c>
       <c r="K219" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -9706,7 +9688,7 @@
         <v>52</v>
       </c>
       <c r="K220" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -9741,7 +9723,7 @@
         <v>52</v>
       </c>
       <c r="K221" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -9776,7 +9758,7 @@
         <v>52</v>
       </c>
       <c r="K222" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -9811,7 +9793,7 @@
         <v>52</v>
       </c>
       <c r="K223" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -9846,7 +9828,7 @@
         <v>52</v>
       </c>
       <c r="K224" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -9881,7 +9863,7 @@
         <v>52</v>
       </c>
       <c r="K225" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -9913,10 +9895,10 @@
         <v>51</v>
       </c>
       <c r="J226" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K226" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -9951,7 +9933,7 @@
         <v>52</v>
       </c>
       <c r="K227" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -9986,7 +9968,7 @@
         <v>52</v>
       </c>
       <c r="K228" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -10018,10 +10000,10 @@
         <v>51</v>
       </c>
       <c r="J229" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K229" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -10056,7 +10038,7 @@
         <v>52</v>
       </c>
       <c r="K230" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -10091,7 +10073,7 @@
         <v>52</v>
       </c>
       <c r="K231" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -10126,7 +10108,7 @@
         <v>52</v>
       </c>
       <c r="K232" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -10158,10 +10140,10 @@
         <v>51</v>
       </c>
       <c r="J233" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K233" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -10196,7 +10178,7 @@
         <v>52</v>
       </c>
       <c r="K234" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -10231,7 +10213,7 @@
         <v>52</v>
       </c>
       <c r="K235" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -10266,7 +10248,7 @@
         <v>52</v>
       </c>
       <c r="K236" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -10301,7 +10283,7 @@
         <v>52</v>
       </c>
       <c r="K237" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -10336,7 +10318,7 @@
         <v>52</v>
       </c>
       <c r="K238" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -10371,7 +10353,7 @@
         <v>52</v>
       </c>
       <c r="K239" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -10403,10 +10385,10 @@
         <v>51</v>
       </c>
       <c r="J240" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K240" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -10441,7 +10423,7 @@
         <v>52</v>
       </c>
       <c r="K241" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -10476,7 +10458,7 @@
         <v>52</v>
       </c>
       <c r="K242" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -10508,10 +10490,10 @@
         <v>51</v>
       </c>
       <c r="J243" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K243" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -10546,7 +10528,7 @@
         <v>52</v>
       </c>
       <c r="K244" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -10578,10 +10560,10 @@
         <v>51</v>
       </c>
       <c r="J245" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="K245" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -10616,7 +10598,7 @@
         <v>52</v>
       </c>
       <c r="K246" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -10651,7 +10633,7 @@
         <v>52</v>
       </c>
       <c r="K247" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -10686,7 +10668,7 @@
         <v>52</v>
       </c>
       <c r="K248" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -10718,10 +10700,10 @@
         <v>51</v>
       </c>
       <c r="J249" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K249" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -10753,10 +10735,10 @@
         <v>51</v>
       </c>
       <c r="J250" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K250" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -10791,7 +10773,7 @@
         <v>52</v>
       </c>
       <c r="K251" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -10826,7 +10808,7 @@
         <v>52</v>
       </c>
       <c r="K252" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -10837,31 +10819,31 @@
         <v>0.58</v>
       </c>
       <c r="C253" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D253" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="E253">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F253" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G253" t="s">
         <v>28</v>
       </c>
       <c r="H253" s="4">
-        <v>45782</v>
+        <v>45811</v>
       </c>
       <c r="I253" s="4">
-        <v>45797</v>
+        <v>45826</v>
       </c>
       <c r="J253" t="s">
         <v>52</v>
       </c>
       <c r="K253" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -10893,10 +10875,10 @@
         <v>51</v>
       </c>
       <c r="J254" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K254" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -10931,7 +10913,7 @@
         <v>52</v>
       </c>
       <c r="K255" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -10966,7 +10948,7 @@
         <v>52</v>
       </c>
       <c r="K256" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -10998,10 +10980,10 @@
         <v>51</v>
       </c>
       <c r="J257" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K257" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -11036,7 +11018,7 @@
         <v>52</v>
       </c>
       <c r="K258" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -11071,7 +11053,7 @@
         <v>52</v>
       </c>
       <c r="K259" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -11106,7 +11088,7 @@
         <v>52</v>
       </c>
       <c r="K260" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -11138,10 +11120,10 @@
         <v>51</v>
       </c>
       <c r="J261" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="K261" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -11176,7 +11158,7 @@
         <v>52</v>
       </c>
       <c r="K262" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -11211,7 +11193,7 @@
         <v>52</v>
       </c>
       <c r="K263" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -11246,7 +11228,7 @@
         <v>52</v>
       </c>
       <c r="K264" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -11281,7 +11263,7 @@
         <v>52</v>
       </c>
       <c r="K265" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -11316,7 +11298,7 @@
         <v>52</v>
       </c>
       <c r="K266" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -11348,10 +11330,10 @@
         <v>51</v>
       </c>
       <c r="J267" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K267" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -11383,10 +11365,10 @@
         <v>51</v>
       </c>
       <c r="J268" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K268" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -11421,7 +11403,7 @@
         <v>52</v>
       </c>
       <c r="K269" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -11453,10 +11435,10 @@
         <v>51</v>
       </c>
       <c r="J270" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K270" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -11488,10 +11470,10 @@
         <v>51</v>
       </c>
       <c r="J271" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K271" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -11526,7 +11508,7 @@
         <v>52</v>
       </c>
       <c r="K272" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -11561,7 +11543,7 @@
         <v>52</v>
       </c>
       <c r="K273" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -11596,7 +11578,7 @@
         <v>52</v>
       </c>
       <c r="K274" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -11631,7 +11613,7 @@
         <v>52</v>
       </c>
       <c r="K275" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -11666,7 +11648,7 @@
         <v>52</v>
       </c>
       <c r="K276" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -11701,7 +11683,7 @@
         <v>52</v>
       </c>
       <c r="K277" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -11733,10 +11715,10 @@
         <v>51</v>
       </c>
       <c r="J278" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K278" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -11768,10 +11750,10 @@
         <v>51</v>
       </c>
       <c r="J279" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K279" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -11806,7 +11788,7 @@
         <v>52</v>
       </c>
       <c r="K280" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -11841,7 +11823,7 @@
         <v>52</v>
       </c>
       <c r="K281" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -11876,7 +11858,7 @@
         <v>52</v>
       </c>
       <c r="K282" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -11911,7 +11893,7 @@
         <v>52</v>
       </c>
       <c r="K283" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -11928,7 +11910,7 @@
         <v>1</v>
       </c>
       <c r="E284">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F284" s="1">
         <v>1</v>
@@ -11937,16 +11919,16 @@
         <v>15</v>
       </c>
       <c r="H284" s="4">
-        <v>45783</v>
+        <v>45811</v>
       </c>
       <c r="I284" s="4">
-        <v>45814</v>
+        <v>45841</v>
       </c>
       <c r="J284" t="s">
         <v>52</v>
       </c>
       <c r="K284" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -11978,10 +11960,10 @@
         <v>51</v>
       </c>
       <c r="J285" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K285" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -12016,7 +11998,7 @@
         <v>52</v>
       </c>
       <c r="K286" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -12051,7 +12033,7 @@
         <v>52</v>
       </c>
       <c r="K287" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -12086,7 +12068,7 @@
         <v>52</v>
       </c>
       <c r="K288" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -12121,7 +12103,7 @@
         <v>52</v>
       </c>
       <c r="K289" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -12153,10 +12135,10 @@
         <v>51</v>
       </c>
       <c r="J290" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="K290" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -12191,7 +12173,7 @@
         <v>52</v>
       </c>
       <c r="K291" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -12226,7 +12208,7 @@
         <v>52</v>
       </c>
       <c r="K292" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -12258,10 +12240,10 @@
         <v>51</v>
       </c>
       <c r="J293" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="K293" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -12293,10 +12275,10 @@
         <v>51</v>
       </c>
       <c r="J294" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K294" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -12331,7 +12313,7 @@
         <v>52</v>
       </c>
       <c r="K295" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -12366,7 +12348,7 @@
         <v>52</v>
       </c>
       <c r="K296" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -12401,7 +12383,7 @@
         <v>52</v>
       </c>
       <c r="K297" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -12436,7 +12418,7 @@
         <v>52</v>
       </c>
       <c r="K298" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -12471,7 +12453,7 @@
         <v>52</v>
       </c>
       <c r="K299" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -12506,7 +12488,7 @@
         <v>52</v>
       </c>
       <c r="K300" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -12541,7 +12523,7 @@
         <v>52</v>
       </c>
       <c r="K301" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -12576,7 +12558,7 @@
         <v>52</v>
       </c>
       <c r="K302" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -12608,10 +12590,10 @@
         <v>51</v>
       </c>
       <c r="J303" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K303" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -12646,7 +12628,7 @@
         <v>52</v>
       </c>
       <c r="K304" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -12681,7 +12663,7 @@
         <v>52</v>
       </c>
       <c r="K305" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -12716,7 +12698,7 @@
         <v>52</v>
       </c>
       <c r="K306" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -12748,10 +12730,10 @@
         <v>51</v>
       </c>
       <c r="J307" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K307" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -12786,7 +12768,7 @@
         <v>52</v>
       </c>
       <c r="K308" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -12821,7 +12803,7 @@
         <v>52</v>
       </c>
       <c r="K309" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -12856,7 +12838,7 @@
         <v>52</v>
       </c>
       <c r="K310" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -12888,10 +12870,10 @@
         <v>51</v>
       </c>
       <c r="J311" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="K311" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -12926,7 +12908,7 @@
         <v>52</v>
       </c>
       <c r="K312" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -12961,7 +12943,7 @@
         <v>52</v>
       </c>
       <c r="K313" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -12996,7 +12978,7 @@
         <v>52</v>
       </c>
       <c r="K314" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -13031,7 +13013,7 @@
         <v>52</v>
       </c>
       <c r="K315" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -13066,7 +13048,7 @@
         <v>52</v>
       </c>
       <c r="K316" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -13101,7 +13083,7 @@
         <v>52</v>
       </c>
       <c r="K317" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -13133,10 +13115,10 @@
         <v>51</v>
       </c>
       <c r="J318" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K318" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -13171,7 +13153,7 @@
         <v>52</v>
       </c>
       <c r="K319" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -13206,7 +13188,7 @@
         <v>52</v>
       </c>
       <c r="K320" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -13238,10 +13220,10 @@
         <v>51</v>
       </c>
       <c r="J321" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K321" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -13258,7 +13240,7 @@
         <v>1</v>
       </c>
       <c r="E322">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F322" s="1">
         <v>1</v>
@@ -13267,16 +13249,16 @@
         <v>13</v>
       </c>
       <c r="H322" s="4">
-        <v>45782</v>
+        <v>45810</v>
       </c>
       <c r="I322" s="4">
-        <v>45813</v>
+        <v>45840</v>
       </c>
       <c r="J322" t="s">
         <v>52</v>
       </c>
       <c r="K322" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -13311,7 +13293,7 @@
         <v>52</v>
       </c>
       <c r="K323" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -13343,10 +13325,10 @@
         <v>51</v>
       </c>
       <c r="J324" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="K324" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -13378,10 +13360,10 @@
         <v>51</v>
       </c>
       <c r="J325" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="K325" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -13416,7 +13398,7 @@
         <v>52</v>
       </c>
       <c r="K326" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -13448,10 +13430,10 @@
         <v>51</v>
       </c>
       <c r="J327" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="K327" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -13486,7 +13468,7 @@
         <v>52</v>
       </c>
       <c r="K328" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -13518,10 +13500,10 @@
         <v>51</v>
       </c>
       <c r="J329" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K329" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -13553,10 +13535,10 @@
         <v>51</v>
       </c>
       <c r="J330" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K330" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -13591,7 +13573,7 @@
         <v>52</v>
       </c>
       <c r="K331" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -13626,7 +13608,7 @@
         <v>52</v>
       </c>
       <c r="K332" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -13661,7 +13643,7 @@
         <v>52</v>
       </c>
       <c r="K333" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -13693,10 +13675,10 @@
         <v>51</v>
       </c>
       <c r="J334" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K334" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -13731,7 +13713,7 @@
         <v>52</v>
       </c>
       <c r="K335" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -13766,7 +13748,7 @@
         <v>52</v>
       </c>
       <c r="K336" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -13801,7 +13783,7 @@
         <v>52</v>
       </c>
       <c r="K337" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -13836,7 +13818,7 @@
         <v>52</v>
       </c>
       <c r="K338" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -13871,7 +13853,7 @@
         <v>52</v>
       </c>
       <c r="K339" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -13906,7 +13888,7 @@
         <v>52</v>
       </c>
       <c r="K340" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -13938,10 +13920,10 @@
         <v>51</v>
       </c>
       <c r="J341" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K341" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -13976,7 +13958,7 @@
         <v>52</v>
       </c>
       <c r="K342" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -14011,7 +13993,7 @@
         <v>52</v>
       </c>
       <c r="K343" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -14019,34 +14001,34 @@
         <v>40337092</v>
       </c>
       <c r="B344" s="1">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="C344" s="1">
         <v>0.33</v>
       </c>
       <c r="D344" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="E344">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F344" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G344" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H344" s="4">
-        <v>45747</v>
+        <v>45810</v>
       </c>
       <c r="I344" s="4">
-        <v>45777</v>
+        <v>45871</v>
       </c>
       <c r="J344" t="s">
         <v>52</v>
       </c>
       <c r="K344" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -14081,7 +14063,7 @@
         <v>52</v>
       </c>
       <c r="K345" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -14116,7 +14098,7 @@
         <v>52</v>
       </c>
       <c r="K346" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -14148,10 +14130,10 @@
         <v>51</v>
       </c>
       <c r="J347" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K347" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -14186,7 +14168,7 @@
         <v>52</v>
       </c>
       <c r="K348" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -14221,7 +14203,7 @@
         <v>52</v>
       </c>
       <c r="K349" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -14256,7 +14238,7 @@
         <v>52</v>
       </c>
       <c r="K350" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -14291,7 +14273,7 @@
         <v>52</v>
       </c>
       <c r="K351" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -14326,7 +14308,7 @@
         <v>52</v>
       </c>
       <c r="K352" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -14361,7 +14343,7 @@
         <v>52</v>
       </c>
       <c r="K353" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -14396,7 +14378,7 @@
         <v>52</v>
       </c>
       <c r="K354" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -14431,7 +14413,7 @@
         <v>52</v>
       </c>
       <c r="K355" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -14439,10 +14421,10 @@
         <v>41224053</v>
       </c>
       <c r="B356" s="1">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="C356" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="D356" s="1">
         <v>0.67</v>
@@ -14457,16 +14439,16 @@
         <v>11</v>
       </c>
       <c r="H356" s="4">
-        <v>45803</v>
+        <v>45811</v>
       </c>
       <c r="I356" s="4">
-        <v>45810</v>
+        <v>45818</v>
       </c>
       <c r="J356" t="s">
         <v>52</v>
       </c>
       <c r="K356" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -14501,7 +14483,7 @@
         <v>52</v>
       </c>
       <c r="K357" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -14536,7 +14518,7 @@
         <v>52</v>
       </c>
       <c r="K358" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -14571,7 +14553,7 @@
         <v>52</v>
       </c>
       <c r="K359" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -14606,7 +14588,7 @@
         <v>52</v>
       </c>
       <c r="K360" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -14617,31 +14599,31 @@
         <v>0.58</v>
       </c>
       <c r="C361" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D361" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="E361">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F361" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G361" t="s">
         <v>13</v>
       </c>
       <c r="H361" s="4">
-        <v>45777</v>
+        <v>45806</v>
       </c>
       <c r="I361" s="4">
-        <v>45807</v>
+        <v>45837</v>
       </c>
       <c r="J361" t="s">
         <v>52</v>
       </c>
       <c r="K361" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -14649,34 +14631,34 @@
         <v>41403389</v>
       </c>
       <c r="B362" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C362" s="1">
         <v>0</v>
       </c>
       <c r="D362" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E362">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F362" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G362" t="s">
         <v>13</v>
       </c>
       <c r="H362" s="4">
-        <v>45782</v>
+        <v>45810</v>
       </c>
       <c r="I362" s="4">
-        <v>45813</v>
+        <v>45840</v>
       </c>
       <c r="J362" t="s">
         <v>52</v>
       </c>
       <c r="K362" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -14711,7 +14693,7 @@
         <v>52</v>
       </c>
       <c r="K363" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -14746,7 +14728,7 @@
         <v>52</v>
       </c>
       <c r="K364" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -14781,7 +14763,7 @@
         <v>52</v>
       </c>
       <c r="K365" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -14816,7 +14798,7 @@
         <v>52</v>
       </c>
       <c r="K366" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -14851,7 +14833,7 @@
         <v>52</v>
       </c>
       <c r="K367" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -14886,7 +14868,7 @@
         <v>52</v>
       </c>
       <c r="K368" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -14921,7 +14903,7 @@
         <v>52</v>
       </c>
       <c r="K369" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -14956,7 +14938,7 @@
         <v>52</v>
       </c>
       <c r="K370" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -14991,7 +14973,7 @@
         <v>52</v>
       </c>
       <c r="K371" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -15026,7 +15008,7 @@
         <v>52</v>
       </c>
       <c r="K372" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -15061,7 +15043,7 @@
         <v>52</v>
       </c>
       <c r="K373" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -15096,7 +15078,7 @@
         <v>52</v>
       </c>
       <c r="K374" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -15131,7 +15113,7 @@
         <v>52</v>
       </c>
       <c r="K375" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -15166,7 +15148,7 @@
         <v>52</v>
       </c>
       <c r="K376" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -15174,34 +15156,34 @@
         <v>42017745</v>
       </c>
       <c r="B377" s="1">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="C377" s="1">
         <v>0.83</v>
       </c>
       <c r="D377" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="E377">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F377" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G377" t="s">
         <v>41</v>
       </c>
       <c r="H377" s="4">
-        <v>45804</v>
+        <v>45810</v>
       </c>
       <c r="I377" s="4">
-        <v>45811</v>
+        <v>45817</v>
       </c>
       <c r="J377" t="s">
         <v>52</v>
       </c>
       <c r="K377" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -15209,16 +15191,16 @@
         <v>42017749</v>
       </c>
       <c r="B378" s="1">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="C378" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="D378" s="1">
         <v>1</v>
       </c>
       <c r="E378">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F378" s="1">
         <v>1</v>
@@ -15227,16 +15209,16 @@
         <v>11</v>
       </c>
       <c r="H378" s="4">
-        <v>45804</v>
+        <v>45810</v>
       </c>
       <c r="I378" s="4">
-        <v>45811</v>
+        <v>45817</v>
       </c>
       <c r="J378" t="s">
         <v>52</v>
       </c>
       <c r="K378" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -15271,7 +15253,7 @@
         <v>52</v>
       </c>
       <c r="K379" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -15306,7 +15288,7 @@
         <v>52</v>
       </c>
       <c r="K380" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -15341,7 +15323,7 @@
         <v>52</v>
       </c>
       <c r="K381" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -15376,7 +15358,7 @@
         <v>52</v>
       </c>
       <c r="K382" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -15411,7 +15393,7 @@
         <v>52</v>
       </c>
       <c r="K383" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -15446,7 +15428,7 @@
         <v>52</v>
       </c>
       <c r="K384" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -15481,7 +15463,7 @@
         <v>52</v>
       </c>
       <c r="K385" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -15516,7 +15498,7 @@
         <v>52</v>
       </c>
       <c r="K386" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -15551,7 +15533,7 @@
         <v>52</v>
       </c>
       <c r="K387" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -15586,7 +15568,7 @@
         <v>52</v>
       </c>
       <c r="K388" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -15621,7 +15603,7 @@
         <v>52</v>
       </c>
       <c r="K389" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -15656,7 +15638,7 @@
         <v>52</v>
       </c>
       <c r="K390" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -15664,16 +15646,16 @@
         <v>42714199</v>
       </c>
       <c r="B391" s="1">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="C391" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="D391" s="1">
         <v>1</v>
       </c>
       <c r="E391">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F391" s="1">
         <v>1</v>
@@ -15682,16 +15664,16 @@
         <v>19</v>
       </c>
       <c r="H391" s="4">
-        <v>45806</v>
+        <v>45810</v>
       </c>
       <c r="I391" s="4">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="J391" t="s">
         <v>52</v>
       </c>
       <c r="K391" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -15726,7 +15708,7 @@
         <v>52</v>
       </c>
       <c r="K392" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -15761,7 +15743,7 @@
         <v>52</v>
       </c>
       <c r="K393" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -15796,7 +15778,7 @@
         <v>52</v>
       </c>
       <c r="K394" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -15831,7 +15813,7 @@
         <v>52</v>
       </c>
       <c r="K395" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -15866,7 +15848,7 @@
         <v>52</v>
       </c>
       <c r="K396" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -15898,10 +15880,10 @@
         <v>51</v>
       </c>
       <c r="J397" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K397" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -15918,7 +15900,7 @@
         <v>0.83</v>
       </c>
       <c r="E398">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F398" s="1">
         <v>0.83</v>
@@ -15927,16 +15909,16 @@
         <v>11</v>
       </c>
       <c r="H398" s="4">
-        <v>45810</v>
+        <v>45811</v>
       </c>
       <c r="I398" s="4">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="J398" t="s">
         <v>52</v>
       </c>
       <c r="K398" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -15971,7 +15953,7 @@
         <v>52</v>
       </c>
       <c r="K399" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -16006,7 +15988,7 @@
         <v>52</v>
       </c>
       <c r="K400" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -16041,7 +16023,7 @@
         <v>52</v>
       </c>
       <c r="K401" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -16076,7 +16058,7 @@
         <v>52</v>
       </c>
       <c r="K402" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -16111,7 +16093,7 @@
         <v>52</v>
       </c>
       <c r="K403" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -16146,7 +16128,7 @@
         <v>52</v>
       </c>
       <c r="K404" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -16181,7 +16163,7 @@
         <v>52</v>
       </c>
       <c r="K405" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -16216,7 +16198,7 @@
         <v>52</v>
       </c>
       <c r="K406" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -16251,7 +16233,7 @@
         <v>52</v>
       </c>
       <c r="K407" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -16286,7 +16268,7 @@
         <v>52</v>
       </c>
       <c r="K408" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -16321,7 +16303,7 @@
         <v>52</v>
       </c>
       <c r="K409" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -16356,7 +16338,7 @@
         <v>52</v>
       </c>
       <c r="K410" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -16391,7 +16373,7 @@
         <v>52</v>
       </c>
       <c r="K411" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -16426,7 +16408,7 @@
         <v>52</v>
       </c>
       <c r="K412" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -16461,7 +16443,7 @@
         <v>52</v>
       </c>
       <c r="K413" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -16496,7 +16478,7 @@
         <v>52</v>
       </c>
       <c r="K414" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -16531,7 +16513,7 @@
         <v>52</v>
       </c>
       <c r="K415" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -16539,34 +16521,34 @@
         <v>48999595</v>
       </c>
       <c r="B416" s="1">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="C416" s="1">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="D416" s="1">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="E416">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F416" s="1">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="G416" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H416" s="4">
-        <v>45804</v>
+        <v>45810</v>
       </c>
       <c r="I416" s="4">
-        <v>45811</v>
+        <v>45817</v>
       </c>
       <c r="J416" t="s">
         <v>52</v>
       </c>
       <c r="K416" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -16601,7 +16583,7 @@
         <v>52</v>
       </c>
       <c r="K417" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="418" spans="1:11">
@@ -16636,7 +16618,7 @@
         <v>52</v>
       </c>
       <c r="K418" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="419" spans="1:11">
@@ -16671,7 +16653,7 @@
         <v>52</v>
       </c>
       <c r="K419" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
+++ b/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="534">
   <si>
     <t>id_cliente</t>
   </si>
@@ -193,295 +193,313 @@
     <t>INATIVO - 39.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 42.0 meses sem comprar</t>
+    <t>INATIVO - 42.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 49.8 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 45.6 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 29.5 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 39.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 46.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.1 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 39.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 48.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.5 meses sem comprar</t>
+    <t>INATIVO - 35.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 48.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 46.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.3 meses sem comprar</t>
+    <t>INATIVO - 12.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 33.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 19.6 meses sem comprar</t>
+    <t>INATIVO - 19.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 32.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.5 meses sem comprar</t>
+    <t>INATIVO - 13.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 8.0 meses sem comprar</t>
@@ -499,19 +517,16 @@
     <t>INATIVO - 7.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.5 meses sem comprar</t>
+    <t>INATIVO - 10.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 11.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.2 meses sem comprar</t>
+    <t>INATIVO - 10.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.3 meses sem comprar</t>
   </si>
   <si>
     <t>FRANCISCO SAMPAIO</t>
@@ -2067,7 +2082,7 @@
         <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2102,7 +2117,7 @@
         <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2137,7 +2152,7 @@
         <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2172,7 +2187,7 @@
         <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2207,7 +2222,7 @@
         <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2242,7 +2257,7 @@
         <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2277,7 +2292,7 @@
         <v>57</v>
       </c>
       <c r="K8" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2312,7 +2327,7 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2347,7 +2362,7 @@
         <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2382,7 +2397,7 @@
         <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2414,10 +2429,10 @@
         <v>52</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K12" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2449,10 +2464,10 @@
         <v>52</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2484,10 +2499,10 @@
         <v>52</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K14" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2519,10 +2534,10 @@
         <v>52</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2554,10 +2569,10 @@
         <v>52</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K16" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2592,7 +2607,7 @@
         <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2624,10 +2639,10 @@
         <v>52</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2659,10 +2674,10 @@
         <v>52</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2694,10 +2709,10 @@
         <v>52</v>
       </c>
       <c r="J20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2729,10 +2744,10 @@
         <v>52</v>
       </c>
       <c r="J21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K21" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2764,10 +2779,10 @@
         <v>52</v>
       </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K22" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2799,10 +2814,10 @@
         <v>52</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2834,10 +2849,10 @@
         <v>52</v>
       </c>
       <c r="J24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K24" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2872,7 +2887,7 @@
         <v>53</v>
       </c>
       <c r="K25" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2904,10 +2919,10 @@
         <v>52</v>
       </c>
       <c r="J26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K26" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2939,10 +2954,10 @@
         <v>52</v>
       </c>
       <c r="J27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2977,7 +2992,7 @@
         <v>53</v>
       </c>
       <c r="K28" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3009,10 +3024,10 @@
         <v>52</v>
       </c>
       <c r="J29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K29" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3047,7 +3062,7 @@
         <v>53</v>
       </c>
       <c r="K30" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3082,7 +3097,7 @@
         <v>53</v>
       </c>
       <c r="K31" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3117,7 +3132,7 @@
         <v>53</v>
       </c>
       <c r="K32" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3149,10 +3164,10 @@
         <v>52</v>
       </c>
       <c r="J33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3184,10 +3199,10 @@
         <v>52</v>
       </c>
       <c r="J34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3219,10 +3234,10 @@
         <v>52</v>
       </c>
       <c r="J35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3254,10 +3269,10 @@
         <v>52</v>
       </c>
       <c r="J36" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="K36" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3292,7 +3307,7 @@
         <v>53</v>
       </c>
       <c r="K37" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3327,7 +3342,7 @@
         <v>53</v>
       </c>
       <c r="K38" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3362,7 +3377,7 @@
         <v>53</v>
       </c>
       <c r="K39" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3394,10 +3409,10 @@
         <v>52</v>
       </c>
       <c r="J40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K40" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3429,10 +3444,10 @@
         <v>52</v>
       </c>
       <c r="J41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3467,7 +3482,7 @@
         <v>53</v>
       </c>
       <c r="K42" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3499,10 +3514,10 @@
         <v>52</v>
       </c>
       <c r="J43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3537,7 +3552,7 @@
         <v>53</v>
       </c>
       <c r="K44" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3569,10 +3584,10 @@
         <v>52</v>
       </c>
       <c r="J45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3607,7 +3622,7 @@
         <v>53</v>
       </c>
       <c r="K46" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3642,7 +3657,7 @@
         <v>53</v>
       </c>
       <c r="K47" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3677,7 +3692,7 @@
         <v>53</v>
       </c>
       <c r="K48" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3712,7 +3727,7 @@
         <v>53</v>
       </c>
       <c r="K49" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3744,10 +3759,10 @@
         <v>52</v>
       </c>
       <c r="J50" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3782,7 +3797,7 @@
         <v>53</v>
       </c>
       <c r="K51" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3817,7 +3832,7 @@
         <v>53</v>
       </c>
       <c r="K52" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3849,10 +3864,10 @@
         <v>52</v>
       </c>
       <c r="J53" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K53" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3884,10 +3899,10 @@
         <v>52</v>
       </c>
       <c r="J54" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3919,10 +3934,10 @@
         <v>52</v>
       </c>
       <c r="J55" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K55" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3954,10 +3969,10 @@
         <v>52</v>
       </c>
       <c r="J56" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3989,10 +4004,10 @@
         <v>52</v>
       </c>
       <c r="J57" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -4024,10 +4039,10 @@
         <v>52</v>
       </c>
       <c r="J58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4059,10 +4074,10 @@
         <v>52</v>
       </c>
       <c r="J59" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4094,10 +4109,10 @@
         <v>52</v>
       </c>
       <c r="J60" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4129,10 +4144,10 @@
         <v>52</v>
       </c>
       <c r="J61" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4164,10 +4179,10 @@
         <v>52</v>
       </c>
       <c r="J62" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4199,10 +4214,10 @@
         <v>52</v>
       </c>
       <c r="J63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4234,10 +4249,10 @@
         <v>52</v>
       </c>
       <c r="J64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K64" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4269,10 +4284,10 @@
         <v>52</v>
       </c>
       <c r="J65" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K65" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4304,10 +4319,10 @@
         <v>52</v>
       </c>
       <c r="J66" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4342,7 +4357,7 @@
         <v>53</v>
       </c>
       <c r="K67" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4374,10 +4389,10 @@
         <v>52</v>
       </c>
       <c r="J68" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K68" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4412,7 +4427,7 @@
         <v>53</v>
       </c>
       <c r="K69" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4444,10 +4459,10 @@
         <v>52</v>
       </c>
       <c r="J70" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K70" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4479,10 +4494,10 @@
         <v>52</v>
       </c>
       <c r="J71" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K71" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4514,10 +4529,10 @@
         <v>52</v>
       </c>
       <c r="J72" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K72" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4552,7 +4567,7 @@
         <v>53</v>
       </c>
       <c r="K73" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4584,10 +4599,10 @@
         <v>52</v>
       </c>
       <c r="J74" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K74" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4622,7 +4637,7 @@
         <v>53</v>
       </c>
       <c r="K75" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4654,10 +4669,10 @@
         <v>52</v>
       </c>
       <c r="J76" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4689,10 +4704,10 @@
         <v>52</v>
       </c>
       <c r="J77" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K77" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4727,7 +4742,7 @@
         <v>53</v>
       </c>
       <c r="K78" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4759,10 +4774,10 @@
         <v>52</v>
       </c>
       <c r="J79" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K79" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4797,7 +4812,7 @@
         <v>53</v>
       </c>
       <c r="K80" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4832,7 +4847,7 @@
         <v>53</v>
       </c>
       <c r="K81" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4864,10 +4879,10 @@
         <v>52</v>
       </c>
       <c r="J82" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K82" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4902,7 +4917,7 @@
         <v>53</v>
       </c>
       <c r="K83" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4934,10 +4949,10 @@
         <v>52</v>
       </c>
       <c r="J84" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K84" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4972,7 +4987,7 @@
         <v>53</v>
       </c>
       <c r="K85" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -5004,10 +5019,10 @@
         <v>52</v>
       </c>
       <c r="J86" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K86" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5039,10 +5054,10 @@
         <v>52</v>
       </c>
       <c r="J87" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K87" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -5074,10 +5089,10 @@
         <v>52</v>
       </c>
       <c r="J88" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K88" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5109,10 +5124,10 @@
         <v>52</v>
       </c>
       <c r="J89" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K89" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5144,10 +5159,10 @@
         <v>52</v>
       </c>
       <c r="J90" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K90" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5179,10 +5194,10 @@
         <v>52</v>
       </c>
       <c r="J91" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K91" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5217,7 +5232,7 @@
         <v>53</v>
       </c>
       <c r="K92" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5249,10 +5264,10 @@
         <v>52</v>
       </c>
       <c r="J93" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K93" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5287,7 +5302,7 @@
         <v>53</v>
       </c>
       <c r="K94" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5322,7 +5337,7 @@
         <v>53</v>
       </c>
       <c r="K95" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5354,10 +5369,10 @@
         <v>52</v>
       </c>
       <c r="J96" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K96" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5392,7 +5407,7 @@
         <v>53</v>
       </c>
       <c r="K97" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5424,10 +5439,10 @@
         <v>52</v>
       </c>
       <c r="J98" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="K98" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5459,10 +5474,10 @@
         <v>52</v>
       </c>
       <c r="J99" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K99" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5494,10 +5509,10 @@
         <v>52</v>
       </c>
       <c r="J100" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K100" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5529,10 +5544,10 @@
         <v>52</v>
       </c>
       <c r="J101" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K101" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5567,7 +5582,7 @@
         <v>53</v>
       </c>
       <c r="K102" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5575,16 +5590,16 @@
         <v>4206822</v>
       </c>
       <c r="B103" s="1">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="C103" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="D103" s="1">
         <v>1</v>
       </c>
       <c r="E103">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F103" s="1">
         <v>1</v>
@@ -5593,16 +5608,16 @@
         <v>11</v>
       </c>
       <c r="H103" s="4">
-        <v>45807</v>
+        <v>45813</v>
       </c>
       <c r="I103" s="4">
-        <v>45814</v>
+        <v>45820</v>
       </c>
       <c r="J103" t="s">
         <v>53</v>
       </c>
       <c r="K103" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5634,10 +5649,10 @@
         <v>52</v>
       </c>
       <c r="J104" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K104" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5669,10 +5684,10 @@
         <v>52</v>
       </c>
       <c r="J105" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K105" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5707,7 +5722,7 @@
         <v>53</v>
       </c>
       <c r="K106" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5739,10 +5754,10 @@
         <v>52</v>
       </c>
       <c r="J107" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K107" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5774,10 +5789,10 @@
         <v>52</v>
       </c>
       <c r="J108" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K108" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5809,10 +5824,10 @@
         <v>52</v>
       </c>
       <c r="J109" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K109" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5847,7 +5862,7 @@
         <v>53</v>
       </c>
       <c r="K110" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5879,10 +5894,10 @@
         <v>52</v>
       </c>
       <c r="J111" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K111" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5914,10 +5929,10 @@
         <v>52</v>
       </c>
       <c r="J112" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K112" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5949,10 +5964,10 @@
         <v>52</v>
       </c>
       <c r="J113" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K113" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5984,10 +5999,10 @@
         <v>52</v>
       </c>
       <c r="J114" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K114" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -6019,10 +6034,10 @@
         <v>52</v>
       </c>
       <c r="J115" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K115" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6054,10 +6069,10 @@
         <v>52</v>
       </c>
       <c r="J116" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K116" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -6089,10 +6104,10 @@
         <v>52</v>
       </c>
       <c r="J117" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K117" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6127,7 +6142,7 @@
         <v>53</v>
       </c>
       <c r="K118" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6159,10 +6174,10 @@
         <v>52</v>
       </c>
       <c r="J119" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K119" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6197,7 +6212,7 @@
         <v>53</v>
       </c>
       <c r="K120" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6232,7 +6247,7 @@
         <v>53</v>
       </c>
       <c r="K121" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6264,10 +6279,10 @@
         <v>52</v>
       </c>
       <c r="J122" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="K122" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6299,10 +6314,10 @@
         <v>52</v>
       </c>
       <c r="J123" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="K123" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6337,7 +6352,7 @@
         <v>53</v>
       </c>
       <c r="K124" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6372,7 +6387,7 @@
         <v>53</v>
       </c>
       <c r="K125" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6404,10 +6419,10 @@
         <v>52</v>
       </c>
       <c r="J126" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="K126" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6439,10 +6454,10 @@
         <v>52</v>
       </c>
       <c r="J127" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K127" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6477,7 +6492,7 @@
         <v>53</v>
       </c>
       <c r="K128" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6509,10 +6524,10 @@
         <v>52</v>
       </c>
       <c r="J129" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K129" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6547,7 +6562,7 @@
         <v>53</v>
       </c>
       <c r="K130" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6582,7 +6597,7 @@
         <v>53</v>
       </c>
       <c r="K131" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6617,7 +6632,7 @@
         <v>53</v>
       </c>
       <c r="K132" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6649,10 +6664,10 @@
         <v>52</v>
       </c>
       <c r="J133" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K133" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6684,10 +6699,10 @@
         <v>52</v>
       </c>
       <c r="J134" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="K134" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -6722,7 +6737,7 @@
         <v>53</v>
       </c>
       <c r="K135" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -6754,10 +6769,10 @@
         <v>52</v>
       </c>
       <c r="J136" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K136" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6789,10 +6804,10 @@
         <v>52</v>
       </c>
       <c r="J137" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K137" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6824,10 +6839,10 @@
         <v>52</v>
       </c>
       <c r="J138" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K138" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6859,10 +6874,10 @@
         <v>52</v>
       </c>
       <c r="J139" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K139" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6897,7 +6912,7 @@
         <v>53</v>
       </c>
       <c r="K140" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6929,10 +6944,10 @@
         <v>52</v>
       </c>
       <c r="J141" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="K141" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6967,7 +6982,7 @@
         <v>53</v>
       </c>
       <c r="K142" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -7002,7 +7017,7 @@
         <v>53</v>
       </c>
       <c r="K143" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -7034,10 +7049,10 @@
         <v>52</v>
       </c>
       <c r="J144" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K144" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -7072,7 +7087,7 @@
         <v>53</v>
       </c>
       <c r="K145" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -7107,7 +7122,7 @@
         <v>53</v>
       </c>
       <c r="K146" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7142,7 +7157,7 @@
         <v>53</v>
       </c>
       <c r="K147" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7177,7 +7192,7 @@
         <v>53</v>
       </c>
       <c r="K148" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7212,7 +7227,7 @@
         <v>53</v>
       </c>
       <c r="K149" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7244,10 +7259,10 @@
         <v>52</v>
       </c>
       <c r="J150" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K150" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7282,7 +7297,7 @@
         <v>53</v>
       </c>
       <c r="K151" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7317,7 +7332,7 @@
         <v>53</v>
       </c>
       <c r="K152" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7349,10 +7364,10 @@
         <v>52</v>
       </c>
       <c r="J153" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K153" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7387,7 +7402,7 @@
         <v>53</v>
       </c>
       <c r="K154" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7422,7 +7437,7 @@
         <v>53</v>
       </c>
       <c r="K155" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7457,7 +7472,7 @@
         <v>53</v>
       </c>
       <c r="K156" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -7492,7 +7507,7 @@
         <v>53</v>
       </c>
       <c r="K157" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -7527,7 +7542,7 @@
         <v>53</v>
       </c>
       <c r="K158" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -7562,7 +7577,7 @@
         <v>53</v>
       </c>
       <c r="K159" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -7597,7 +7612,7 @@
         <v>53</v>
       </c>
       <c r="K160" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -7629,10 +7644,10 @@
         <v>52</v>
       </c>
       <c r="J161" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K161" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7664,10 +7679,10 @@
         <v>52</v>
       </c>
       <c r="J162" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K162" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7702,7 +7717,7 @@
         <v>53</v>
       </c>
       <c r="K163" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -7734,10 +7749,10 @@
         <v>52</v>
       </c>
       <c r="J164" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="K164" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7769,10 +7784,10 @@
         <v>52</v>
       </c>
       <c r="J165" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K165" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7789,7 +7804,7 @@
         <v>0.83</v>
       </c>
       <c r="E166">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F166" s="1">
         <v>0.83</v>
@@ -7798,16 +7813,16 @@
         <v>29</v>
       </c>
       <c r="H166" s="4">
-        <v>45810</v>
+        <v>45811</v>
       </c>
       <c r="I166" s="4">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="J166" t="s">
         <v>53</v>
       </c>
       <c r="K166" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7824,7 +7839,7 @@
         <v>0.67</v>
       </c>
       <c r="E167">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F167" s="1">
         <v>0.67</v>
@@ -7833,16 +7848,16 @@
         <v>29</v>
       </c>
       <c r="H167" s="4">
-        <v>45810</v>
+        <v>45811</v>
       </c>
       <c r="I167" s="4">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="J167" t="s">
         <v>53</v>
       </c>
       <c r="K167" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -7877,7 +7892,7 @@
         <v>53</v>
       </c>
       <c r="K168" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7894,7 +7909,7 @@
         <v>0.67</v>
       </c>
       <c r="E169">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F169" s="1">
         <v>0.67</v>
@@ -7903,16 +7918,16 @@
         <v>29</v>
       </c>
       <c r="H169" s="4">
-        <v>45810</v>
+        <v>45811</v>
       </c>
       <c r="I169" s="4">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="J169" t="s">
         <v>53</v>
       </c>
       <c r="K169" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -7929,7 +7944,7 @@
         <v>0.5</v>
       </c>
       <c r="E170">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F170" s="1">
         <v>0.5</v>
@@ -7938,16 +7953,16 @@
         <v>41</v>
       </c>
       <c r="H170" s="4">
-        <v>45810</v>
+        <v>45811</v>
       </c>
       <c r="I170" s="4">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="J170" t="s">
         <v>53</v>
       </c>
       <c r="K170" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7964,7 +7979,7 @@
         <v>0.5</v>
       </c>
       <c r="E171">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F171" s="1">
         <v>0.5</v>
@@ -7973,16 +7988,16 @@
         <v>29</v>
       </c>
       <c r="H171" s="4">
-        <v>45810</v>
+        <v>45811</v>
       </c>
       <c r="I171" s="4">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="J171" t="s">
         <v>53</v>
       </c>
       <c r="K171" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -8014,10 +8029,10 @@
         <v>52</v>
       </c>
       <c r="J172" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K172" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -8052,7 +8067,7 @@
         <v>53</v>
       </c>
       <c r="K173" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -8069,7 +8084,7 @@
         <v>0.67</v>
       </c>
       <c r="E174">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F174" s="1">
         <v>0.67</v>
@@ -8078,16 +8093,16 @@
         <v>29</v>
       </c>
       <c r="H174" s="4">
-        <v>45810</v>
+        <v>45811</v>
       </c>
       <c r="I174" s="4">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="J174" t="s">
         <v>53</v>
       </c>
       <c r="K174" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -8095,34 +8110,34 @@
         <v>5220361</v>
       </c>
       <c r="B175" s="1">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="C175" s="1">
         <v>0.5</v>
       </c>
       <c r="D175" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="E175">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F175" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G175" t="s">
         <v>19</v>
       </c>
       <c r="H175" s="4">
-        <v>45798</v>
+        <v>45812</v>
       </c>
       <c r="I175" s="4">
-        <v>45813</v>
+        <v>45827</v>
       </c>
       <c r="J175" t="s">
         <v>53</v>
       </c>
       <c r="K175" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -8157,7 +8172,7 @@
         <v>53</v>
       </c>
       <c r="K176" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -8192,7 +8207,7 @@
         <v>53</v>
       </c>
       <c r="K177" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -8227,7 +8242,7 @@
         <v>53</v>
       </c>
       <c r="K178" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -8262,7 +8277,7 @@
         <v>53</v>
       </c>
       <c r="K179" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -8297,7 +8312,7 @@
         <v>53</v>
       </c>
       <c r="K180" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -8329,10 +8344,10 @@
         <v>52</v>
       </c>
       <c r="J181" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K181" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -8349,7 +8364,7 @@
         <v>0.67</v>
       </c>
       <c r="E182">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F182" s="1">
         <v>0.67</v>
@@ -8358,16 +8373,16 @@
         <v>42</v>
       </c>
       <c r="H182" s="4">
-        <v>45810</v>
+        <v>45811</v>
       </c>
       <c r="I182" s="4">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="J182" t="s">
         <v>53</v>
       </c>
       <c r="K182" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -8384,7 +8399,7 @@
         <v>0.5</v>
       </c>
       <c r="E183">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F183" s="1">
         <v>0.5</v>
@@ -8393,16 +8408,16 @@
         <v>29</v>
       </c>
       <c r="H183" s="4">
-        <v>45810</v>
+        <v>45811</v>
       </c>
       <c r="I183" s="4">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="J183" t="s">
         <v>53</v>
       </c>
       <c r="K183" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -8437,7 +8452,7 @@
         <v>53</v>
       </c>
       <c r="K184" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -8472,7 +8487,7 @@
         <v>53</v>
       </c>
       <c r="K185" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -8507,7 +8522,7 @@
         <v>53</v>
       </c>
       <c r="K186" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -8539,10 +8554,10 @@
         <v>52</v>
       </c>
       <c r="J187" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K187" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -8574,10 +8589,10 @@
         <v>52</v>
       </c>
       <c r="J188" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K188" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -8609,10 +8624,10 @@
         <v>52</v>
       </c>
       <c r="J189" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K189" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -8647,7 +8662,7 @@
         <v>53</v>
       </c>
       <c r="K190" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -8664,7 +8679,7 @@
         <v>0.5</v>
       </c>
       <c r="E191">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F191" s="1">
         <v>0.5</v>
@@ -8673,16 +8688,16 @@
         <v>29</v>
       </c>
       <c r="H191" s="4">
-        <v>45810</v>
+        <v>45811</v>
       </c>
       <c r="I191" s="4">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="J191" t="s">
         <v>53</v>
       </c>
       <c r="K191" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -8699,7 +8714,7 @@
         <v>0.5</v>
       </c>
       <c r="E192">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F192" s="1">
         <v>0.5</v>
@@ -8708,16 +8723,16 @@
         <v>18</v>
       </c>
       <c r="H192" s="4">
-        <v>45810</v>
+        <v>45811</v>
       </c>
       <c r="I192" s="4">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="J192" t="s">
         <v>53</v>
       </c>
       <c r="K192" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -8752,7 +8767,7 @@
         <v>53</v>
       </c>
       <c r="K193" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -8787,7 +8802,7 @@
         <v>53</v>
       </c>
       <c r="K194" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8819,10 +8834,10 @@
         <v>52</v>
       </c>
       <c r="J195" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K195" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -8857,7 +8872,7 @@
         <v>53</v>
       </c>
       <c r="K196" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -8892,7 +8907,7 @@
         <v>53</v>
       </c>
       <c r="K197" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -8927,7 +8942,7 @@
         <v>53</v>
       </c>
       <c r="K198" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -8959,10 +8974,10 @@
         <v>52</v>
       </c>
       <c r="J199" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K199" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -8997,7 +9012,7 @@
         <v>53</v>
       </c>
       <c r="K200" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -9032,7 +9047,7 @@
         <v>53</v>
       </c>
       <c r="K201" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -9067,7 +9082,7 @@
         <v>53</v>
       </c>
       <c r="K202" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -9102,7 +9117,7 @@
         <v>53</v>
       </c>
       <c r="K203" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -9137,7 +9152,7 @@
         <v>53</v>
       </c>
       <c r="K204" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -9169,10 +9184,10 @@
         <v>52</v>
       </c>
       <c r="J205" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K205" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -9189,7 +9204,7 @@
         <v>0.83</v>
       </c>
       <c r="E206">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F206" s="1">
         <v>0.83</v>
@@ -9198,16 +9213,16 @@
         <v>29</v>
       </c>
       <c r="H206" s="4">
-        <v>45810</v>
+        <v>45811</v>
       </c>
       <c r="I206" s="4">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="J206" t="s">
         <v>53</v>
       </c>
       <c r="K206" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -9239,10 +9254,10 @@
         <v>52</v>
       </c>
       <c r="J207" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K207" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -9277,7 +9292,7 @@
         <v>53</v>
       </c>
       <c r="K208" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -9309,10 +9324,10 @@
         <v>52</v>
       </c>
       <c r="J209" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K209" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -9347,7 +9362,7 @@
         <v>53</v>
       </c>
       <c r="K210" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -9379,10 +9394,10 @@
         <v>52</v>
       </c>
       <c r="J211" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K211" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -9414,10 +9429,10 @@
         <v>52</v>
       </c>
       <c r="J212" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K212" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -9449,10 +9464,10 @@
         <v>52</v>
       </c>
       <c r="J213" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K213" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -9484,10 +9499,10 @@
         <v>52</v>
       </c>
       <c r="J214" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K214" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -9522,7 +9537,7 @@
         <v>53</v>
       </c>
       <c r="K215" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -9554,10 +9569,10 @@
         <v>52</v>
       </c>
       <c r="J216" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K216" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -9592,7 +9607,7 @@
         <v>53</v>
       </c>
       <c r="K217" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -9627,7 +9642,7 @@
         <v>53</v>
       </c>
       <c r="K218" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -9662,7 +9677,7 @@
         <v>53</v>
       </c>
       <c r="K219" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -9697,7 +9712,7 @@
         <v>53</v>
       </c>
       <c r="K220" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -9732,7 +9747,7 @@
         <v>53</v>
       </c>
       <c r="K221" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -9767,7 +9782,7 @@
         <v>53</v>
       </c>
       <c r="K222" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -9802,7 +9817,7 @@
         <v>53</v>
       </c>
       <c r="K223" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -9837,7 +9852,7 @@
         <v>53</v>
       </c>
       <c r="K224" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -9872,7 +9887,7 @@
         <v>53</v>
       </c>
       <c r="K225" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -9904,10 +9919,10 @@
         <v>52</v>
       </c>
       <c r="J226" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K226" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -9942,7 +9957,7 @@
         <v>53</v>
       </c>
       <c r="K227" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -9977,7 +9992,7 @@
         <v>53</v>
       </c>
       <c r="K228" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -10009,10 +10024,10 @@
         <v>52</v>
       </c>
       <c r="J229" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K229" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -10047,7 +10062,7 @@
         <v>53</v>
       </c>
       <c r="K230" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -10082,7 +10097,7 @@
         <v>53</v>
       </c>
       <c r="K231" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -10117,7 +10132,7 @@
         <v>53</v>
       </c>
       <c r="K232" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -10149,10 +10164,10 @@
         <v>52</v>
       </c>
       <c r="J233" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K233" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -10187,7 +10202,7 @@
         <v>53</v>
       </c>
       <c r="K234" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -10222,7 +10237,7 @@
         <v>53</v>
       </c>
       <c r="K235" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -10257,7 +10272,7 @@
         <v>53</v>
       </c>
       <c r="K236" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -10292,7 +10307,7 @@
         <v>53</v>
       </c>
       <c r="K237" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -10327,7 +10342,7 @@
         <v>53</v>
       </c>
       <c r="K238" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -10362,7 +10377,7 @@
         <v>53</v>
       </c>
       <c r="K239" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -10394,10 +10409,10 @@
         <v>52</v>
       </c>
       <c r="J240" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K240" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -10432,7 +10447,7 @@
         <v>53</v>
       </c>
       <c r="K241" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -10467,7 +10482,7 @@
         <v>53</v>
       </c>
       <c r="K242" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -10499,10 +10514,10 @@
         <v>52</v>
       </c>
       <c r="J243" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K243" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -10537,7 +10552,7 @@
         <v>53</v>
       </c>
       <c r="K244" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -10569,10 +10584,10 @@
         <v>52</v>
       </c>
       <c r="J245" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="K245" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -10607,7 +10622,7 @@
         <v>53</v>
       </c>
       <c r="K246" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -10642,7 +10657,7 @@
         <v>53</v>
       </c>
       <c r="K247" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -10677,7 +10692,7 @@
         <v>53</v>
       </c>
       <c r="K248" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -10709,10 +10724,10 @@
         <v>52</v>
       </c>
       <c r="J249" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K249" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -10744,10 +10759,10 @@
         <v>52</v>
       </c>
       <c r="J250" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K250" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -10782,7 +10797,7 @@
         <v>53</v>
       </c>
       <c r="K251" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -10817,7 +10832,7 @@
         <v>53</v>
       </c>
       <c r="K252" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -10852,7 +10867,7 @@
         <v>53</v>
       </c>
       <c r="K253" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -10884,10 +10899,10 @@
         <v>52</v>
       </c>
       <c r="J254" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K254" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -10922,7 +10937,7 @@
         <v>53</v>
       </c>
       <c r="K255" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -10957,7 +10972,7 @@
         <v>53</v>
       </c>
       <c r="K256" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -10989,10 +11004,10 @@
         <v>52</v>
       </c>
       <c r="J257" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="K257" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -11027,7 +11042,7 @@
         <v>53</v>
       </c>
       <c r="K258" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -11062,7 +11077,7 @@
         <v>53</v>
       </c>
       <c r="K259" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -11097,7 +11112,7 @@
         <v>53</v>
       </c>
       <c r="K260" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -11129,10 +11144,10 @@
         <v>52</v>
       </c>
       <c r="J261" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K261" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -11167,7 +11182,7 @@
         <v>53</v>
       </c>
       <c r="K262" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -11202,7 +11217,7 @@
         <v>53</v>
       </c>
       <c r="K263" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -11237,7 +11252,7 @@
         <v>53</v>
       </c>
       <c r="K264" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -11272,7 +11287,7 @@
         <v>53</v>
       </c>
       <c r="K265" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -11307,7 +11322,7 @@
         <v>53</v>
       </c>
       <c r="K266" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -11339,10 +11354,10 @@
         <v>52</v>
       </c>
       <c r="J267" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K267" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -11374,10 +11389,10 @@
         <v>52</v>
       </c>
       <c r="J268" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K268" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -11412,7 +11427,7 @@
         <v>53</v>
       </c>
       <c r="K269" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -11444,10 +11459,10 @@
         <v>52</v>
       </c>
       <c r="J270" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K270" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -11479,10 +11494,10 @@
         <v>52</v>
       </c>
       <c r="J271" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K271" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -11517,7 +11532,7 @@
         <v>53</v>
       </c>
       <c r="K272" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -11552,7 +11567,7 @@
         <v>53</v>
       </c>
       <c r="K273" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -11587,7 +11602,7 @@
         <v>53</v>
       </c>
       <c r="K274" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -11622,7 +11637,7 @@
         <v>53</v>
       </c>
       <c r="K275" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -11657,7 +11672,7 @@
         <v>53</v>
       </c>
       <c r="K276" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -11692,7 +11707,7 @@
         <v>53</v>
       </c>
       <c r="K277" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -11727,7 +11742,7 @@
         <v>53</v>
       </c>
       <c r="K278" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -11759,10 +11774,10 @@
         <v>52</v>
       </c>
       <c r="J279" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K279" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -11794,10 +11809,10 @@
         <v>52</v>
       </c>
       <c r="J280" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K280" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -11832,7 +11847,7 @@
         <v>53</v>
       </c>
       <c r="K281" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -11867,7 +11882,7 @@
         <v>53</v>
       </c>
       <c r="K282" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -11902,7 +11917,7 @@
         <v>53</v>
       </c>
       <c r="K283" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -11937,7 +11952,7 @@
         <v>53</v>
       </c>
       <c r="K284" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -11972,7 +11987,7 @@
         <v>53</v>
       </c>
       <c r="K285" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -12004,10 +12019,10 @@
         <v>52</v>
       </c>
       <c r="J286" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K286" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -12042,7 +12057,7 @@
         <v>53</v>
       </c>
       <c r="K287" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -12077,7 +12092,7 @@
         <v>53</v>
       </c>
       <c r="K288" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -12112,7 +12127,7 @@
         <v>53</v>
       </c>
       <c r="K289" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -12147,7 +12162,7 @@
         <v>53</v>
       </c>
       <c r="K290" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -12179,10 +12194,10 @@
         <v>52</v>
       </c>
       <c r="J291" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="K291" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -12217,7 +12232,7 @@
         <v>53</v>
       </c>
       <c r="K292" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -12252,7 +12267,7 @@
         <v>53</v>
       </c>
       <c r="K293" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -12284,10 +12299,10 @@
         <v>52</v>
       </c>
       <c r="J294" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K294" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -12319,10 +12334,10 @@
         <v>52</v>
       </c>
       <c r="J295" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K295" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -12357,7 +12372,7 @@
         <v>53</v>
       </c>
       <c r="K296" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -12392,7 +12407,7 @@
         <v>53</v>
       </c>
       <c r="K297" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -12427,7 +12442,7 @@
         <v>53</v>
       </c>
       <c r="K298" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -12462,7 +12477,7 @@
         <v>53</v>
       </c>
       <c r="K299" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -12497,7 +12512,7 @@
         <v>53</v>
       </c>
       <c r="K300" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -12532,7 +12547,7 @@
         <v>53</v>
       </c>
       <c r="K301" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -12540,34 +12555,34 @@
         <v>31456677</v>
       </c>
       <c r="B302" s="1">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="C302" s="1">
         <v>0.5</v>
       </c>
       <c r="D302" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E302">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F302" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G302" t="s">
         <v>12</v>
       </c>
       <c r="H302" s="4">
-        <v>45769</v>
+        <v>45779</v>
       </c>
       <c r="I302" s="4">
-        <v>45830</v>
+        <v>45840</v>
       </c>
       <c r="J302" t="s">
         <v>53</v>
       </c>
       <c r="K302" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -12602,7 +12617,7 @@
         <v>53</v>
       </c>
       <c r="K303" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -12634,10 +12649,10 @@
         <v>52</v>
       </c>
       <c r="J304" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K304" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -12672,7 +12687,7 @@
         <v>53</v>
       </c>
       <c r="K305" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -12707,7 +12722,7 @@
         <v>53</v>
       </c>
       <c r="K306" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -12742,7 +12757,7 @@
         <v>53</v>
       </c>
       <c r="K307" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -12774,10 +12789,10 @@
         <v>52</v>
       </c>
       <c r="J308" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K308" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -12812,7 +12827,7 @@
         <v>53</v>
       </c>
       <c r="K309" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -12847,7 +12862,7 @@
         <v>53</v>
       </c>
       <c r="K310" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -12882,7 +12897,7 @@
         <v>53</v>
       </c>
       <c r="K311" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -12914,10 +12929,10 @@
         <v>52</v>
       </c>
       <c r="J312" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K312" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -12925,34 +12940,34 @@
         <v>34522225</v>
       </c>
       <c r="B313" s="1">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="C313" s="1">
         <v>0.17</v>
       </c>
       <c r="D313" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E313">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F313" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G313" t="s">
         <v>18</v>
       </c>
       <c r="H313" s="4">
-        <v>45782</v>
+        <v>45813</v>
       </c>
       <c r="I313" s="4">
-        <v>45813</v>
+        <v>45843</v>
       </c>
       <c r="J313" t="s">
         <v>53</v>
       </c>
       <c r="K313" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -12987,7 +13002,7 @@
         <v>53</v>
       </c>
       <c r="K314" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -13022,7 +13037,7 @@
         <v>53</v>
       </c>
       <c r="K315" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -13057,7 +13072,7 @@
         <v>53</v>
       </c>
       <c r="K316" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -13092,7 +13107,7 @@
         <v>53</v>
       </c>
       <c r="K317" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -13100,16 +13115,16 @@
         <v>35700662</v>
       </c>
       <c r="B318" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C318" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D318" s="1">
         <v>0.5</v>
       </c>
       <c r="E318">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F318" s="1">
         <v>0.5</v>
@@ -13118,16 +13133,16 @@
         <v>13</v>
       </c>
       <c r="H318" s="4">
-        <v>45804</v>
+        <v>45812</v>
       </c>
       <c r="I318" s="4">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="J318" t="s">
         <v>53</v>
       </c>
       <c r="K318" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -13159,10 +13174,10 @@
         <v>52</v>
       </c>
       <c r="J319" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K319" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -13197,7 +13212,7 @@
         <v>53</v>
       </c>
       <c r="K320" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -13232,7 +13247,7 @@
         <v>53</v>
       </c>
       <c r="K321" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -13264,10 +13279,10 @@
         <v>52</v>
       </c>
       <c r="J322" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K322" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -13302,7 +13317,7 @@
         <v>53</v>
       </c>
       <c r="K323" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -13337,7 +13352,7 @@
         <v>53</v>
       </c>
       <c r="K324" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -13369,10 +13384,10 @@
         <v>52</v>
       </c>
       <c r="J325" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K325" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -13404,10 +13419,10 @@
         <v>52</v>
       </c>
       <c r="J326" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K326" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -13442,7 +13457,7 @@
         <v>53</v>
       </c>
       <c r="K327" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -13474,10 +13489,10 @@
         <v>52</v>
       </c>
       <c r="J328" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="K328" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -13512,7 +13527,7 @@
         <v>53</v>
       </c>
       <c r="K329" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -13544,10 +13559,10 @@
         <v>52</v>
       </c>
       <c r="J330" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="K330" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -13579,10 +13594,10 @@
         <v>52</v>
       </c>
       <c r="J331" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K331" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -13617,7 +13632,7 @@
         <v>53</v>
       </c>
       <c r="K332" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -13652,7 +13667,7 @@
         <v>53</v>
       </c>
       <c r="K333" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -13687,7 +13702,7 @@
         <v>53</v>
       </c>
       <c r="K334" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -13719,10 +13734,10 @@
         <v>52</v>
       </c>
       <c r="J335" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K335" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -13757,7 +13772,7 @@
         <v>53</v>
       </c>
       <c r="K336" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -13792,7 +13807,7 @@
         <v>53</v>
       </c>
       <c r="K337" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -13827,7 +13842,7 @@
         <v>53</v>
       </c>
       <c r="K338" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -13862,7 +13877,7 @@
         <v>53</v>
       </c>
       <c r="K339" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -13897,7 +13912,7 @@
         <v>53</v>
       </c>
       <c r="K340" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -13932,7 +13947,7 @@
         <v>53</v>
       </c>
       <c r="K341" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -13964,10 +13979,10 @@
         <v>52</v>
       </c>
       <c r="J342" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K342" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -14002,7 +14017,7 @@
         <v>53</v>
       </c>
       <c r="K343" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -14037,7 +14052,7 @@
         <v>53</v>
       </c>
       <c r="K344" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -14072,7 +14087,7 @@
         <v>53</v>
       </c>
       <c r="K345" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -14107,7 +14122,7 @@
         <v>53</v>
       </c>
       <c r="K346" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -14142,7 +14157,7 @@
         <v>53</v>
       </c>
       <c r="K347" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -14174,10 +14189,10 @@
         <v>52</v>
       </c>
       <c r="J348" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K348" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -14212,7 +14227,7 @@
         <v>53</v>
       </c>
       <c r="K349" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -14247,7 +14262,7 @@
         <v>53</v>
       </c>
       <c r="K350" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -14282,7 +14297,7 @@
         <v>53</v>
       </c>
       <c r="K351" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -14317,7 +14332,7 @@
         <v>53</v>
       </c>
       <c r="K352" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -14352,7 +14367,7 @@
         <v>53</v>
       </c>
       <c r="K353" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -14360,16 +14375,16 @@
         <v>41201605</v>
       </c>
       <c r="B354" s="1">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="C354" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="D354" s="1">
         <v>1</v>
       </c>
       <c r="E354">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F354" s="1">
         <v>1</v>
@@ -14378,16 +14393,16 @@
         <v>11</v>
       </c>
       <c r="H354" s="4">
-        <v>45800</v>
+        <v>45812</v>
       </c>
       <c r="I354" s="4">
-        <v>45807</v>
+        <v>45819</v>
       </c>
       <c r="J354" t="s">
         <v>53</v>
       </c>
       <c r="K354" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -14422,7 +14437,7 @@
         <v>53</v>
       </c>
       <c r="K355" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -14457,7 +14472,7 @@
         <v>53</v>
       </c>
       <c r="K356" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -14474,7 +14489,7 @@
         <v>0.67</v>
       </c>
       <c r="E357">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F357" s="1">
         <v>0.67</v>
@@ -14492,7 +14507,7 @@
         <v>53</v>
       </c>
       <c r="K357" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -14500,34 +14515,34 @@
         <v>41224247</v>
       </c>
       <c r="B358" s="1">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="C358" s="1">
         <v>0.67</v>
       </c>
       <c r="D358" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="E358">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F358" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G358" t="s">
         <v>11</v>
       </c>
       <c r="H358" s="4">
-        <v>45796</v>
+        <v>45812</v>
       </c>
       <c r="I358" s="4">
-        <v>45803</v>
+        <v>45819</v>
       </c>
       <c r="J358" t="s">
         <v>53</v>
       </c>
       <c r="K358" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -14562,7 +14577,7 @@
         <v>53</v>
       </c>
       <c r="K359" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -14597,7 +14612,7 @@
         <v>53</v>
       </c>
       <c r="K360" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -14632,7 +14647,7 @@
         <v>53</v>
       </c>
       <c r="K361" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -14667,7 +14682,7 @@
         <v>53</v>
       </c>
       <c r="K362" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -14702,7 +14717,7 @@
         <v>53</v>
       </c>
       <c r="K363" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -14737,7 +14752,7 @@
         <v>53</v>
       </c>
       <c r="K364" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -14772,7 +14787,7 @@
         <v>53</v>
       </c>
       <c r="K365" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -14807,7 +14822,7 @@
         <v>53</v>
       </c>
       <c r="K366" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -14842,7 +14857,7 @@
         <v>53</v>
       </c>
       <c r="K367" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -14877,7 +14892,7 @@
         <v>53</v>
       </c>
       <c r="K368" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -14912,7 +14927,7 @@
         <v>53</v>
       </c>
       <c r="K369" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -14947,7 +14962,7 @@
         <v>53</v>
       </c>
       <c r="K370" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -14982,7 +14997,7 @@
         <v>53</v>
       </c>
       <c r="K371" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -15017,7 +15032,7 @@
         <v>53</v>
       </c>
       <c r="K372" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -15052,7 +15067,7 @@
         <v>53</v>
       </c>
       <c r="K373" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -15087,7 +15102,7 @@
         <v>53</v>
       </c>
       <c r="K374" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -15122,7 +15137,7 @@
         <v>53</v>
       </c>
       <c r="K375" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -15157,7 +15172,7 @@
         <v>53</v>
       </c>
       <c r="K376" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -15192,7 +15207,7 @@
         <v>53</v>
       </c>
       <c r="K377" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -15227,7 +15242,7 @@
         <v>53</v>
       </c>
       <c r="K378" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -15262,7 +15277,7 @@
         <v>53</v>
       </c>
       <c r="K379" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -15297,7 +15312,7 @@
         <v>53</v>
       </c>
       <c r="K380" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -15332,7 +15347,7 @@
         <v>53</v>
       </c>
       <c r="K381" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -15343,31 +15358,31 @@
         <v>0.58</v>
       </c>
       <c r="C382" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D382" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="E382">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F382" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G382" t="s">
         <v>42</v>
       </c>
       <c r="H382" s="4">
-        <v>45807</v>
+        <v>45811</v>
       </c>
       <c r="I382" s="4">
-        <v>45814</v>
+        <v>45818</v>
       </c>
       <c r="J382" t="s">
         <v>53</v>
       </c>
       <c r="K382" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -15402,7 +15417,7 @@
         <v>53</v>
       </c>
       <c r="K383" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -15437,7 +15452,7 @@
         <v>53</v>
       </c>
       <c r="K384" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -15472,7 +15487,7 @@
         <v>53</v>
       </c>
       <c r="K385" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -15507,7 +15522,7 @@
         <v>53</v>
       </c>
       <c r="K386" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -15542,7 +15557,7 @@
         <v>53</v>
       </c>
       <c r="K387" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -15577,7 +15592,7 @@
         <v>53</v>
       </c>
       <c r="K388" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -15612,7 +15627,7 @@
         <v>53</v>
       </c>
       <c r="K389" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -15647,7 +15662,7 @@
         <v>53</v>
       </c>
       <c r="K390" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -15682,7 +15697,7 @@
         <v>53</v>
       </c>
       <c r="K391" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -15717,7 +15732,7 @@
         <v>53</v>
       </c>
       <c r="K392" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -15752,7 +15767,7 @@
         <v>53</v>
       </c>
       <c r="K393" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -15787,7 +15802,7 @@
         <v>53</v>
       </c>
       <c r="K394" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -15822,7 +15837,7 @@
         <v>53</v>
       </c>
       <c r="K395" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -15857,7 +15872,7 @@
         <v>53</v>
       </c>
       <c r="K396" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -15892,7 +15907,7 @@
         <v>53</v>
       </c>
       <c r="K397" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -15924,10 +15939,10 @@
         <v>52</v>
       </c>
       <c r="J398" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K398" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -15962,7 +15977,7 @@
         <v>53</v>
       </c>
       <c r="K399" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -15997,7 +16012,7 @@
         <v>53</v>
       </c>
       <c r="K400" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -16032,7 +16047,7 @@
         <v>53</v>
       </c>
       <c r="K401" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -16067,7 +16082,7 @@
         <v>53</v>
       </c>
       <c r="K402" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -16102,7 +16117,7 @@
         <v>53</v>
       </c>
       <c r="K403" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -16137,7 +16152,7 @@
         <v>53</v>
       </c>
       <c r="K404" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -16172,7 +16187,7 @@
         <v>53</v>
       </c>
       <c r="K405" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -16207,7 +16222,7 @@
         <v>53</v>
       </c>
       <c r="K406" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -16242,7 +16257,7 @@
         <v>53</v>
       </c>
       <c r="K407" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -16277,7 +16292,7 @@
         <v>53</v>
       </c>
       <c r="K408" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -16312,7 +16327,7 @@
         <v>53</v>
       </c>
       <c r="K409" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -16347,7 +16362,7 @@
         <v>53</v>
       </c>
       <c r="K410" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -16382,7 +16397,7 @@
         <v>53</v>
       </c>
       <c r="K411" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -16417,7 +16432,7 @@
         <v>53</v>
       </c>
       <c r="K412" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -16452,7 +16467,7 @@
         <v>53</v>
       </c>
       <c r="K413" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -16487,7 +16502,7 @@
         <v>53</v>
       </c>
       <c r="K414" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -16522,7 +16537,7 @@
         <v>53</v>
       </c>
       <c r="K415" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -16557,7 +16572,7 @@
         <v>53</v>
       </c>
       <c r="K416" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -16574,7 +16589,7 @@
         <v>0.67</v>
       </c>
       <c r="E417">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F417" s="1">
         <v>0.67</v>
@@ -16583,16 +16598,16 @@
         <v>11</v>
       </c>
       <c r="H417" s="4">
-        <v>45810</v>
+        <v>45811</v>
       </c>
       <c r="I417" s="4">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="J417" t="s">
         <v>53</v>
       </c>
       <c r="K417" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="418" spans="1:11">
@@ -16627,7 +16642,7 @@
         <v>53</v>
       </c>
       <c r="K418" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="419" spans="1:11">
@@ -16662,7 +16677,7 @@
         <v>53</v>
       </c>
       <c r="K419" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="420" spans="1:11">
@@ -16697,7 +16712,7 @@
         <v>53</v>
       </c>
       <c r="K420" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
+++ b/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="532">
   <si>
     <t>id_cliente</t>
   </si>
@@ -199,235 +199,244 @@
     <t>INATIVO - 39.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 42.1 meses sem comprar</t>
+    <t>INATIVO - 42.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 49.9 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 45.7 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 29.6 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 39.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 49.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 46.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.2 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 39.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 48.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.6 meses sem comprar</t>
+    <t>INATIVO - 35.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 48.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 46.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.4 meses sem comprar</t>
+    <t>INATIVO - 12.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 33.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 19.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.0 meses sem comprar</t>
+    <t>INATIVO - 19.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 23.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 29.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.9 meses sem comprar</t>
+    <t>INATIVO - 29.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 30.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 16.5 meses sem comprar</t>
+    <t>INATIVO - 16.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 34.5 meses sem comprar</t>
@@ -445,6 +454,9 @@
     <t>INATIVO - 13.5 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 14.5 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 17.9 meses sem comprar</t>
   </si>
   <si>
@@ -454,13 +466,13 @@
     <t>INATIVO - 7.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 17.1 meses sem comprar</t>
+    <t>INATIVO - 17.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 13.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 13.8 meses sem comprar</t>
+    <t>INATIVO - 13.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.8 meses sem comprar</t>
@@ -469,7 +481,7 @@
     <t>INATIVO - 11.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 9.6 meses sem comprar</t>
+    <t>INATIVO - 9.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 8.1 meses sem comprar</t>
@@ -484,16 +496,16 @@
     <t>INATIVO - 7.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.8 meses sem comprar</t>
+    <t>INATIVO - 10.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 8.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.3 meses sem comprar</t>
+    <t>INATIVO - 10.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.4 meses sem comprar</t>
   </si>
   <si>
     <t>FRANCISCO SAMPAIO</t>
@@ -2064,7 +2076,7 @@
         <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2099,7 +2111,7 @@
         <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2134,7 +2146,7 @@
         <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2169,7 +2181,7 @@
         <v>57</v>
       </c>
       <c r="K5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2204,7 +2216,7 @@
         <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2239,7 +2251,7 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2274,7 +2286,7 @@
         <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2309,7 +2321,7 @@
         <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2344,7 +2356,7 @@
         <v>61</v>
       </c>
       <c r="K10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2379,7 +2391,7 @@
         <v>62</v>
       </c>
       <c r="K11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2411,10 +2423,10 @@
         <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K12" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2446,10 +2458,10 @@
         <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2481,10 +2493,10 @@
         <v>54</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K14" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2516,10 +2528,10 @@
         <v>54</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K15" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2551,10 +2563,10 @@
         <v>54</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2589,7 +2601,7 @@
         <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2624,7 +2636,7 @@
         <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2656,10 +2668,10 @@
         <v>54</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2691,10 +2703,10 @@
         <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2726,10 +2738,10 @@
         <v>54</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K21" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2761,10 +2773,10 @@
         <v>54</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K22" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2796,10 +2808,10 @@
         <v>54</v>
       </c>
       <c r="J23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K23" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2831,10 +2843,10 @@
         <v>54</v>
       </c>
       <c r="J24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K24" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2866,10 +2878,10 @@
         <v>54</v>
       </c>
       <c r="J25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2904,7 +2916,7 @@
         <v>55</v>
       </c>
       <c r="K26" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2936,10 +2948,10 @@
         <v>54</v>
       </c>
       <c r="J27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K27" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2971,10 +2983,10 @@
         <v>54</v>
       </c>
       <c r="J28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3009,7 +3021,7 @@
         <v>55</v>
       </c>
       <c r="K29" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3041,10 +3053,10 @@
         <v>54</v>
       </c>
       <c r="J30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3079,7 +3091,7 @@
         <v>55</v>
       </c>
       <c r="K31" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3114,7 +3126,7 @@
         <v>55</v>
       </c>
       <c r="K32" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3149,7 +3161,7 @@
         <v>55</v>
       </c>
       <c r="K33" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3184,7 +3196,7 @@
         <v>55</v>
       </c>
       <c r="K34" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3216,10 +3228,10 @@
         <v>54</v>
       </c>
       <c r="J35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3251,10 +3263,10 @@
         <v>54</v>
       </c>
       <c r="J36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K36" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3286,10 +3298,10 @@
         <v>54</v>
       </c>
       <c r="J37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3321,10 +3333,10 @@
         <v>54</v>
       </c>
       <c r="J38" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3359,7 +3371,7 @@
         <v>55</v>
       </c>
       <c r="K39" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3394,7 +3406,7 @@
         <v>55</v>
       </c>
       <c r="K40" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3429,7 +3441,7 @@
         <v>55</v>
       </c>
       <c r="K41" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3461,10 +3473,10 @@
         <v>54</v>
       </c>
       <c r="J42" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K42" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3496,10 +3508,10 @@
         <v>54</v>
       </c>
       <c r="J43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K43" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3534,7 +3546,7 @@
         <v>55</v>
       </c>
       <c r="K44" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3566,10 +3578,10 @@
         <v>54</v>
       </c>
       <c r="J45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K45" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3604,7 +3616,7 @@
         <v>55</v>
       </c>
       <c r="K46" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3636,10 +3648,10 @@
         <v>54</v>
       </c>
       <c r="J47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K47" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3674,7 +3686,7 @@
         <v>55</v>
       </c>
       <c r="K48" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3709,7 +3721,7 @@
         <v>55</v>
       </c>
       <c r="K49" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3744,7 +3756,7 @@
         <v>55</v>
       </c>
       <c r="K50" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3779,7 +3791,7 @@
         <v>55</v>
       </c>
       <c r="K51" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3811,10 +3823,10 @@
         <v>54</v>
       </c>
       <c r="J52" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3849,7 +3861,7 @@
         <v>55</v>
       </c>
       <c r="K53" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3884,7 +3896,7 @@
         <v>55</v>
       </c>
       <c r="K54" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3916,10 +3928,10 @@
         <v>54</v>
       </c>
       <c r="J55" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K55" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3951,10 +3963,10 @@
         <v>54</v>
       </c>
       <c r="J56" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3989,7 +4001,7 @@
         <v>55</v>
       </c>
       <c r="K57" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -4021,10 +4033,10 @@
         <v>54</v>
       </c>
       <c r="J58" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4056,10 +4068,10 @@
         <v>54</v>
       </c>
       <c r="J59" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4091,10 +4103,10 @@
         <v>54</v>
       </c>
       <c r="J60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4126,10 +4138,10 @@
         <v>54</v>
       </c>
       <c r="J61" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K61" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4161,10 +4173,10 @@
         <v>54</v>
       </c>
       <c r="J62" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4196,10 +4208,10 @@
         <v>54</v>
       </c>
       <c r="J63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4231,10 +4243,10 @@
         <v>54</v>
       </c>
       <c r="J64" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K64" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4266,10 +4278,10 @@
         <v>54</v>
       </c>
       <c r="J65" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K65" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4301,10 +4313,10 @@
         <v>54</v>
       </c>
       <c r="J66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4336,10 +4348,10 @@
         <v>54</v>
       </c>
       <c r="J67" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K67" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4371,10 +4383,10 @@
         <v>54</v>
       </c>
       <c r="J68" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K68" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4406,10 +4418,10 @@
         <v>54</v>
       </c>
       <c r="J69" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K69" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4444,7 +4456,7 @@
         <v>55</v>
       </c>
       <c r="K70" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4476,10 +4488,10 @@
         <v>54</v>
       </c>
       <c r="J71" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K71" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4514,7 +4526,7 @@
         <v>55</v>
       </c>
       <c r="K72" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4546,10 +4558,10 @@
         <v>54</v>
       </c>
       <c r="J73" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K73" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4581,10 +4593,10 @@
         <v>54</v>
       </c>
       <c r="J74" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K74" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4616,10 +4628,10 @@
         <v>54</v>
       </c>
       <c r="J75" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K75" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4654,7 +4666,7 @@
         <v>55</v>
       </c>
       <c r="K76" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4689,7 +4701,7 @@
         <v>55</v>
       </c>
       <c r="K77" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4724,7 +4736,7 @@
         <v>55</v>
       </c>
       <c r="K78" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4756,10 +4768,10 @@
         <v>54</v>
       </c>
       <c r="J79" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K79" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4791,10 +4803,10 @@
         <v>54</v>
       </c>
       <c r="J80" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K80" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4829,7 +4841,7 @@
         <v>55</v>
       </c>
       <c r="K81" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4861,10 +4873,10 @@
         <v>54</v>
       </c>
       <c r="J82" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K82" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4899,7 +4911,7 @@
         <v>55</v>
       </c>
       <c r="K83" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4934,7 +4946,7 @@
         <v>55</v>
       </c>
       <c r="K84" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4966,10 +4978,10 @@
         <v>54</v>
       </c>
       <c r="J85" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K85" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -5004,7 +5016,7 @@
         <v>55</v>
       </c>
       <c r="K86" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5036,10 +5048,10 @@
         <v>54</v>
       </c>
       <c r="J87" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K87" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -5074,7 +5086,7 @@
         <v>55</v>
       </c>
       <c r="K88" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5106,10 +5118,10 @@
         <v>54</v>
       </c>
       <c r="J89" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K89" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5141,10 +5153,10 @@
         <v>54</v>
       </c>
       <c r="J90" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K90" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5179,7 +5191,7 @@
         <v>55</v>
       </c>
       <c r="K91" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5211,10 +5223,10 @@
         <v>54</v>
       </c>
       <c r="J92" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K92" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5246,10 +5258,10 @@
         <v>54</v>
       </c>
       <c r="J93" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K93" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5281,10 +5293,10 @@
         <v>54</v>
       </c>
       <c r="J94" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K94" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5319,7 +5331,7 @@
         <v>55</v>
       </c>
       <c r="K95" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5351,10 +5363,10 @@
         <v>54</v>
       </c>
       <c r="J96" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K96" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5389,7 +5401,7 @@
         <v>55</v>
       </c>
       <c r="K97" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5424,7 +5436,7 @@
         <v>55</v>
       </c>
       <c r="K98" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5456,10 +5468,10 @@
         <v>54</v>
       </c>
       <c r="J99" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K99" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5494,7 +5506,7 @@
         <v>55</v>
       </c>
       <c r="K100" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5526,10 +5538,10 @@
         <v>54</v>
       </c>
       <c r="J101" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="K101" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5561,10 +5573,10 @@
         <v>54</v>
       </c>
       <c r="J102" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K102" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5599,7 +5611,7 @@
         <v>55</v>
       </c>
       <c r="K103" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5631,10 +5643,10 @@
         <v>54</v>
       </c>
       <c r="J104" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K104" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5669,7 +5681,7 @@
         <v>55</v>
       </c>
       <c r="K105" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5704,7 +5716,7 @@
         <v>55</v>
       </c>
       <c r="K106" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5736,10 +5748,10 @@
         <v>54</v>
       </c>
       <c r="J107" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K107" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5771,10 +5783,10 @@
         <v>54</v>
       </c>
       <c r="J108" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K108" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5809,7 +5821,7 @@
         <v>55</v>
       </c>
       <c r="K109" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5841,10 +5853,10 @@
         <v>54</v>
       </c>
       <c r="J110" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K110" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5876,10 +5888,10 @@
         <v>54</v>
       </c>
       <c r="J111" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K111" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5911,10 +5923,10 @@
         <v>54</v>
       </c>
       <c r="J112" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K112" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5949,7 +5961,7 @@
         <v>55</v>
       </c>
       <c r="K113" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5981,10 +5993,10 @@
         <v>54</v>
       </c>
       <c r="J114" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K114" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -6016,10 +6028,10 @@
         <v>54</v>
       </c>
       <c r="J115" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K115" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6051,10 +6063,10 @@
         <v>54</v>
       </c>
       <c r="J116" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K116" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -6086,10 +6098,10 @@
         <v>54</v>
       </c>
       <c r="J117" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K117" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6121,10 +6133,10 @@
         <v>54</v>
       </c>
       <c r="J118" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K118" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6156,10 +6168,10 @@
         <v>54</v>
       </c>
       <c r="J119" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K119" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6191,10 +6203,10 @@
         <v>54</v>
       </c>
       <c r="J120" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K120" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6229,7 +6241,7 @@
         <v>55</v>
       </c>
       <c r="K121" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6261,10 +6273,10 @@
         <v>54</v>
       </c>
       <c r="J122" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K122" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6299,7 +6311,7 @@
         <v>55</v>
       </c>
       <c r="K123" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6334,7 +6346,7 @@
         <v>55</v>
       </c>
       <c r="K124" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6366,10 +6378,10 @@
         <v>54</v>
       </c>
       <c r="J125" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="K125" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6401,10 +6413,10 @@
         <v>54</v>
       </c>
       <c r="J126" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K126" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6439,7 +6451,7 @@
         <v>55</v>
       </c>
       <c r="K127" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6474,7 +6486,7 @@
         <v>55</v>
       </c>
       <c r="K128" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6506,10 +6518,10 @@
         <v>54</v>
       </c>
       <c r="J129" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="K129" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6541,10 +6553,10 @@
         <v>54</v>
       </c>
       <c r="J130" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K130" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6579,7 +6591,7 @@
         <v>55</v>
       </c>
       <c r="K131" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6611,10 +6623,10 @@
         <v>54</v>
       </c>
       <c r="J132" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K132" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6649,7 +6661,7 @@
         <v>55</v>
       </c>
       <c r="K133" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6684,7 +6696,7 @@
         <v>55</v>
       </c>
       <c r="K134" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -6719,7 +6731,7 @@
         <v>55</v>
       </c>
       <c r="K135" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -6751,10 +6763,10 @@
         <v>54</v>
       </c>
       <c r="J136" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K136" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6786,10 +6798,10 @@
         <v>54</v>
       </c>
       <c r="J137" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="K137" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6824,7 +6836,7 @@
         <v>55</v>
       </c>
       <c r="K138" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6856,10 +6868,10 @@
         <v>54</v>
       </c>
       <c r="J139" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K139" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6891,10 +6903,10 @@
         <v>54</v>
       </c>
       <c r="J140" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K140" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6926,10 +6938,10 @@
         <v>54</v>
       </c>
       <c r="J141" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K141" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6961,10 +6973,10 @@
         <v>54</v>
       </c>
       <c r="J142" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K142" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -6999,7 +7011,7 @@
         <v>55</v>
       </c>
       <c r="K143" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -7031,10 +7043,10 @@
         <v>54</v>
       </c>
       <c r="J144" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K144" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -7069,7 +7081,7 @@
         <v>55</v>
       </c>
       <c r="K145" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -7104,7 +7116,7 @@
         <v>55</v>
       </c>
       <c r="K146" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7136,10 +7148,10 @@
         <v>54</v>
       </c>
       <c r="J147" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K147" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7174,7 +7186,7 @@
         <v>55</v>
       </c>
       <c r="K148" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7209,7 +7221,7 @@
         <v>55</v>
       </c>
       <c r="K149" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7244,7 +7256,7 @@
         <v>55</v>
       </c>
       <c r="K150" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7279,7 +7291,7 @@
         <v>55</v>
       </c>
       <c r="K151" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7314,7 +7326,7 @@
         <v>55</v>
       </c>
       <c r="K152" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7346,10 +7358,10 @@
         <v>54</v>
       </c>
       <c r="J153" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K153" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7384,7 +7396,7 @@
         <v>55</v>
       </c>
       <c r="K154" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7419,7 +7431,7 @@
         <v>55</v>
       </c>
       <c r="K155" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7451,10 +7463,10 @@
         <v>54</v>
       </c>
       <c r="J156" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K156" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -7489,7 +7501,7 @@
         <v>55</v>
       </c>
       <c r="K157" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -7524,7 +7536,7 @@
         <v>55</v>
       </c>
       <c r="K158" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -7559,7 +7571,7 @@
         <v>55</v>
       </c>
       <c r="K159" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -7594,7 +7606,7 @@
         <v>55</v>
       </c>
       <c r="K160" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -7629,7 +7641,7 @@
         <v>55</v>
       </c>
       <c r="K161" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7664,7 +7676,7 @@
         <v>55</v>
       </c>
       <c r="K162" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7699,7 +7711,7 @@
         <v>55</v>
       </c>
       <c r="K163" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -7731,10 +7743,10 @@
         <v>54</v>
       </c>
       <c r="J164" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K164" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7766,10 +7778,10 @@
         <v>54</v>
       </c>
       <c r="J165" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K165" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7804,7 +7816,7 @@
         <v>55</v>
       </c>
       <c r="K166" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7836,10 +7848,10 @@
         <v>54</v>
       </c>
       <c r="J167" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="K167" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -7871,10 +7883,10 @@
         <v>54</v>
       </c>
       <c r="J168" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K168" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7909,7 +7921,7 @@
         <v>55</v>
       </c>
       <c r="K169" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -7944,7 +7956,7 @@
         <v>55</v>
       </c>
       <c r="K170" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7979,7 +7991,7 @@
         <v>55</v>
       </c>
       <c r="K171" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -8014,7 +8026,7 @@
         <v>55</v>
       </c>
       <c r="K172" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -8049,7 +8061,7 @@
         <v>55</v>
       </c>
       <c r="K173" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -8084,7 +8096,7 @@
         <v>55</v>
       </c>
       <c r="K174" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -8116,10 +8128,10 @@
         <v>54</v>
       </c>
       <c r="J175" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K175" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -8154,7 +8166,7 @@
         <v>55</v>
       </c>
       <c r="K176" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -8189,7 +8201,7 @@
         <v>55</v>
       </c>
       <c r="K177" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -8224,7 +8236,7 @@
         <v>55</v>
       </c>
       <c r="K178" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -8259,7 +8271,7 @@
         <v>55</v>
       </c>
       <c r="K179" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -8294,7 +8306,7 @@
         <v>55</v>
       </c>
       <c r="K180" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -8329,7 +8341,7 @@
         <v>55</v>
       </c>
       <c r="K181" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -8364,7 +8376,7 @@
         <v>55</v>
       </c>
       <c r="K182" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -8399,7 +8411,7 @@
         <v>55</v>
       </c>
       <c r="K183" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -8431,10 +8443,10 @@
         <v>54</v>
       </c>
       <c r="J184" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K184" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -8469,7 +8481,7 @@
         <v>55</v>
       </c>
       <c r="K185" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -8504,7 +8516,7 @@
         <v>55</v>
       </c>
       <c r="K186" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -8539,7 +8551,7 @@
         <v>55</v>
       </c>
       <c r="K187" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -8574,7 +8586,7 @@
         <v>55</v>
       </c>
       <c r="K188" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -8609,7 +8621,7 @@
         <v>55</v>
       </c>
       <c r="K189" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -8641,10 +8653,10 @@
         <v>54</v>
       </c>
       <c r="J190" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K190" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -8676,10 +8688,10 @@
         <v>54</v>
       </c>
       <c r="J191" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K191" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -8711,10 +8723,10 @@
         <v>54</v>
       </c>
       <c r="J192" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K192" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -8749,7 +8761,7 @@
         <v>55</v>
       </c>
       <c r="K193" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -8784,7 +8796,7 @@
         <v>55</v>
       </c>
       <c r="K194" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8819,7 +8831,7 @@
         <v>55</v>
       </c>
       <c r="K195" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -8854,7 +8866,7 @@
         <v>55</v>
       </c>
       <c r="K196" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -8889,7 +8901,7 @@
         <v>55</v>
       </c>
       <c r="K197" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -8921,10 +8933,10 @@
         <v>54</v>
       </c>
       <c r="J198" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K198" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -8959,7 +8971,7 @@
         <v>55</v>
       </c>
       <c r="K199" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -8994,7 +9006,7 @@
         <v>55</v>
       </c>
       <c r="K200" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -9029,7 +9041,7 @@
         <v>55</v>
       </c>
       <c r="K201" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -9061,10 +9073,10 @@
         <v>54</v>
       </c>
       <c r="J202" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K202" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -9099,7 +9111,7 @@
         <v>55</v>
       </c>
       <c r="K203" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -9134,7 +9146,7 @@
         <v>55</v>
       </c>
       <c r="K204" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -9169,7 +9181,7 @@
         <v>55</v>
       </c>
       <c r="K205" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -9204,7 +9216,7 @@
         <v>55</v>
       </c>
       <c r="K206" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -9239,7 +9251,7 @@
         <v>55</v>
       </c>
       <c r="K207" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -9271,10 +9283,10 @@
         <v>54</v>
       </c>
       <c r="J208" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K208" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -9309,7 +9321,7 @@
         <v>55</v>
       </c>
       <c r="K209" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -9344,7 +9356,7 @@
         <v>55</v>
       </c>
       <c r="K210" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -9379,7 +9391,7 @@
         <v>55</v>
       </c>
       <c r="K211" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -9414,7 +9426,7 @@
         <v>55</v>
       </c>
       <c r="K212" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -9449,7 +9461,7 @@
         <v>55</v>
       </c>
       <c r="K213" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -9484,7 +9496,7 @@
         <v>55</v>
       </c>
       <c r="K214" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -9519,7 +9531,7 @@
         <v>55</v>
       </c>
       <c r="K215" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -9554,7 +9566,7 @@
         <v>55</v>
       </c>
       <c r="K216" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -9586,10 +9598,10 @@
         <v>54</v>
       </c>
       <c r="J217" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K217" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -9624,7 +9636,7 @@
         <v>55</v>
       </c>
       <c r="K218" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -9656,10 +9668,10 @@
         <v>54</v>
       </c>
       <c r="J219" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K219" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -9694,7 +9706,7 @@
         <v>55</v>
       </c>
       <c r="K220" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -9729,7 +9741,7 @@
         <v>55</v>
       </c>
       <c r="K221" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -9764,7 +9776,7 @@
         <v>55</v>
       </c>
       <c r="K222" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -9799,7 +9811,7 @@
         <v>55</v>
       </c>
       <c r="K223" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -9834,7 +9846,7 @@
         <v>55</v>
       </c>
       <c r="K224" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -9869,7 +9881,7 @@
         <v>55</v>
       </c>
       <c r="K225" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -9904,7 +9916,7 @@
         <v>55</v>
       </c>
       <c r="K226" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -9939,7 +9951,7 @@
         <v>55</v>
       </c>
       <c r="K227" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -9974,7 +9986,7 @@
         <v>55</v>
       </c>
       <c r="K228" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -10006,10 +10018,10 @@
         <v>54</v>
       </c>
       <c r="J229" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K229" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -10044,7 +10056,7 @@
         <v>55</v>
       </c>
       <c r="K230" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -10079,7 +10091,7 @@
         <v>55</v>
       </c>
       <c r="K231" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -10111,10 +10123,10 @@
         <v>54</v>
       </c>
       <c r="J232" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K232" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -10149,7 +10161,7 @@
         <v>55</v>
       </c>
       <c r="K233" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -10184,7 +10196,7 @@
         <v>55</v>
       </c>
       <c r="K234" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -10219,7 +10231,7 @@
         <v>55</v>
       </c>
       <c r="K235" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -10251,10 +10263,10 @@
         <v>54</v>
       </c>
       <c r="J236" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K236" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -10289,7 +10301,7 @@
         <v>55</v>
       </c>
       <c r="K237" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -10324,7 +10336,7 @@
         <v>55</v>
       </c>
       <c r="K238" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -10359,7 +10371,7 @@
         <v>55</v>
       </c>
       <c r="K239" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -10394,7 +10406,7 @@
         <v>55</v>
       </c>
       <c r="K240" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -10429,7 +10441,7 @@
         <v>55</v>
       </c>
       <c r="K241" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -10464,7 +10476,7 @@
         <v>55</v>
       </c>
       <c r="K242" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -10496,10 +10508,10 @@
         <v>54</v>
       </c>
       <c r="J243" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K243" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -10534,7 +10546,7 @@
         <v>55</v>
       </c>
       <c r="K244" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -10569,7 +10581,7 @@
         <v>55</v>
       </c>
       <c r="K245" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -10601,10 +10613,10 @@
         <v>54</v>
       </c>
       <c r="J246" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K246" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -10639,7 +10651,7 @@
         <v>55</v>
       </c>
       <c r="K247" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -10671,10 +10683,10 @@
         <v>54</v>
       </c>
       <c r="J248" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="K248" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -10709,7 +10721,7 @@
         <v>55</v>
       </c>
       <c r="K249" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -10744,7 +10756,7 @@
         <v>55</v>
       </c>
       <c r="K250" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -10779,7 +10791,7 @@
         <v>55</v>
       </c>
       <c r="K251" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -10811,10 +10823,10 @@
         <v>54</v>
       </c>
       <c r="J252" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K252" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -10846,10 +10858,10 @@
         <v>54</v>
       </c>
       <c r="J253" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K253" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -10884,7 +10896,7 @@
         <v>55</v>
       </c>
       <c r="K254" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -10919,7 +10931,7 @@
         <v>55</v>
       </c>
       <c r="K255" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -10954,7 +10966,7 @@
         <v>55</v>
       </c>
       <c r="K256" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -10986,10 +10998,10 @@
         <v>54</v>
       </c>
       <c r="J257" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K257" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -11024,7 +11036,7 @@
         <v>55</v>
       </c>
       <c r="K258" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -11059,7 +11071,7 @@
         <v>55</v>
       </c>
       <c r="K259" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -11091,10 +11103,10 @@
         <v>54</v>
       </c>
       <c r="J260" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K260" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -11129,7 +11141,7 @@
         <v>55</v>
       </c>
       <c r="K261" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -11164,7 +11176,7 @@
         <v>55</v>
       </c>
       <c r="K262" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -11199,7 +11211,7 @@
         <v>55</v>
       </c>
       <c r="K263" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -11231,10 +11243,10 @@
         <v>54</v>
       </c>
       <c r="J264" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K264" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -11269,7 +11281,7 @@
         <v>55</v>
       </c>
       <c r="K265" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -11304,7 +11316,7 @@
         <v>55</v>
       </c>
       <c r="K266" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -11339,7 +11351,7 @@
         <v>55</v>
       </c>
       <c r="K267" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -11374,7 +11386,7 @@
         <v>55</v>
       </c>
       <c r="K268" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -11409,7 +11421,7 @@
         <v>55</v>
       </c>
       <c r="K269" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -11441,10 +11453,10 @@
         <v>54</v>
       </c>
       <c r="J270" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K270" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -11479,7 +11491,7 @@
         <v>55</v>
       </c>
       <c r="K271" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -11514,7 +11526,7 @@
         <v>55</v>
       </c>
       <c r="K272" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -11549,7 +11561,7 @@
         <v>55</v>
       </c>
       <c r="K273" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -11581,10 +11593,10 @@
         <v>54</v>
       </c>
       <c r="J274" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K274" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -11619,7 +11631,7 @@
         <v>55</v>
       </c>
       <c r="K275" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -11654,7 +11666,7 @@
         <v>55</v>
       </c>
       <c r="K276" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -11689,7 +11701,7 @@
         <v>55</v>
       </c>
       <c r="K277" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -11724,7 +11736,7 @@
         <v>55</v>
       </c>
       <c r="K278" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -11759,7 +11771,7 @@
         <v>55</v>
       </c>
       <c r="K279" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -11794,7 +11806,7 @@
         <v>55</v>
       </c>
       <c r="K280" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -11829,7 +11841,7 @@
         <v>55</v>
       </c>
       <c r="K281" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -11864,7 +11876,7 @@
         <v>55</v>
       </c>
       <c r="K282" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -11896,10 +11908,10 @@
         <v>54</v>
       </c>
       <c r="J283" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K283" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -11934,7 +11946,7 @@
         <v>55</v>
       </c>
       <c r="K284" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -11969,7 +11981,7 @@
         <v>55</v>
       </c>
       <c r="K285" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -12004,7 +12016,7 @@
         <v>55</v>
       </c>
       <c r="K286" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -12039,7 +12051,7 @@
         <v>55</v>
       </c>
       <c r="K287" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -12074,7 +12086,7 @@
         <v>55</v>
       </c>
       <c r="K288" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -12106,10 +12118,10 @@
         <v>54</v>
       </c>
       <c r="J289" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K289" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -12144,7 +12156,7 @@
         <v>55</v>
       </c>
       <c r="K290" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -12179,7 +12191,7 @@
         <v>55</v>
       </c>
       <c r="K291" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -12214,7 +12226,7 @@
         <v>55</v>
       </c>
       <c r="K292" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -12249,7 +12261,7 @@
         <v>55</v>
       </c>
       <c r="K293" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -12281,10 +12293,10 @@
         <v>54</v>
       </c>
       <c r="J294" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K294" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -12319,7 +12331,7 @@
         <v>55</v>
       </c>
       <c r="K295" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -12354,7 +12366,7 @@
         <v>55</v>
       </c>
       <c r="K296" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -12389,7 +12401,7 @@
         <v>55</v>
       </c>
       <c r="K297" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -12421,10 +12433,10 @@
         <v>54</v>
       </c>
       <c r="J298" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K298" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -12459,7 +12471,7 @@
         <v>55</v>
       </c>
       <c r="K299" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -12494,7 +12506,7 @@
         <v>55</v>
       </c>
       <c r="K300" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -12529,7 +12541,7 @@
         <v>55</v>
       </c>
       <c r="K301" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -12564,7 +12576,7 @@
         <v>55</v>
       </c>
       <c r="K302" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -12599,7 +12611,7 @@
         <v>55</v>
       </c>
       <c r="K303" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -12634,7 +12646,7 @@
         <v>55</v>
       </c>
       <c r="K304" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -12669,7 +12681,7 @@
         <v>55</v>
       </c>
       <c r="K305" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -12704,7 +12716,7 @@
         <v>55</v>
       </c>
       <c r="K306" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -12736,10 +12748,10 @@
         <v>54</v>
       </c>
       <c r="J307" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K307" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -12774,7 +12786,7 @@
         <v>55</v>
       </c>
       <c r="K308" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -12809,7 +12821,7 @@
         <v>55</v>
       </c>
       <c r="K309" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -12844,7 +12856,7 @@
         <v>55</v>
       </c>
       <c r="K310" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -12876,10 +12888,10 @@
         <v>54</v>
       </c>
       <c r="J311" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K311" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -12914,7 +12926,7 @@
         <v>55</v>
       </c>
       <c r="K312" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -12949,7 +12961,7 @@
         <v>55</v>
       </c>
       <c r="K313" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -12984,7 +12996,7 @@
         <v>55</v>
       </c>
       <c r="K314" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -13016,10 +13028,10 @@
         <v>54</v>
       </c>
       <c r="J315" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K315" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -13054,7 +13066,7 @@
         <v>55</v>
       </c>
       <c r="K316" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -13089,7 +13101,7 @@
         <v>55</v>
       </c>
       <c r="K317" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -13124,7 +13136,7 @@
         <v>55</v>
       </c>
       <c r="K318" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -13159,7 +13171,7 @@
         <v>55</v>
       </c>
       <c r="K319" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -13194,7 +13206,7 @@
         <v>55</v>
       </c>
       <c r="K320" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -13229,7 +13241,7 @@
         <v>55</v>
       </c>
       <c r="K321" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -13264,7 +13276,7 @@
         <v>55</v>
       </c>
       <c r="K322" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -13296,10 +13308,10 @@
         <v>54</v>
       </c>
       <c r="J323" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K323" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -13334,7 +13346,7 @@
         <v>55</v>
       </c>
       <c r="K324" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -13369,7 +13381,7 @@
         <v>55</v>
       </c>
       <c r="K325" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -13401,10 +13413,10 @@
         <v>54</v>
       </c>
       <c r="J326" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K326" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -13439,7 +13451,7 @@
         <v>55</v>
       </c>
       <c r="K327" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -13474,7 +13486,7 @@
         <v>55</v>
       </c>
       <c r="K328" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -13506,10 +13518,10 @@
         <v>54</v>
       </c>
       <c r="J329" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K329" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -13541,10 +13553,10 @@
         <v>54</v>
       </c>
       <c r="J330" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K330" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -13579,7 +13591,7 @@
         <v>55</v>
       </c>
       <c r="K331" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -13611,10 +13623,10 @@
         <v>54</v>
       </c>
       <c r="J332" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K332" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -13649,7 +13661,7 @@
         <v>55</v>
       </c>
       <c r="K333" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -13681,10 +13693,10 @@
         <v>54</v>
       </c>
       <c r="J334" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K334" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -13716,10 +13728,10 @@
         <v>54</v>
       </c>
       <c r="J335" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K335" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -13754,7 +13766,7 @@
         <v>55</v>
       </c>
       <c r="K336" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -13789,7 +13801,7 @@
         <v>55</v>
       </c>
       <c r="K337" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -13824,7 +13836,7 @@
         <v>55</v>
       </c>
       <c r="K338" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -13856,10 +13868,10 @@
         <v>54</v>
       </c>
       <c r="J339" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K339" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -13894,7 +13906,7 @@
         <v>55</v>
       </c>
       <c r="K340" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -13929,7 +13941,7 @@
         <v>55</v>
       </c>
       <c r="K341" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -13964,7 +13976,7 @@
         <v>55</v>
       </c>
       <c r="K342" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -13999,7 +14011,7 @@
         <v>55</v>
       </c>
       <c r="K343" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -14034,7 +14046,7 @@
         <v>55</v>
       </c>
       <c r="K344" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -14069,7 +14081,7 @@
         <v>55</v>
       </c>
       <c r="K345" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -14101,10 +14113,10 @@
         <v>54</v>
       </c>
       <c r="J346" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K346" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -14139,7 +14151,7 @@
         <v>55</v>
       </c>
       <c r="K347" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -14174,7 +14186,7 @@
         <v>55</v>
       </c>
       <c r="K348" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -14209,7 +14221,7 @@
         <v>55</v>
       </c>
       <c r="K349" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -14244,7 +14256,7 @@
         <v>55</v>
       </c>
       <c r="K350" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -14279,7 +14291,7 @@
         <v>55</v>
       </c>
       <c r="K351" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -14311,10 +14323,10 @@
         <v>54</v>
       </c>
       <c r="J352" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K352" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -14349,7 +14361,7 @@
         <v>55</v>
       </c>
       <c r="K353" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -14384,7 +14396,7 @@
         <v>55</v>
       </c>
       <c r="K354" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -14419,7 +14431,7 @@
         <v>55</v>
       </c>
       <c r="K355" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -14454,7 +14466,7 @@
         <v>55</v>
       </c>
       <c r="K356" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -14489,7 +14501,7 @@
         <v>55</v>
       </c>
       <c r="K357" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -14524,7 +14536,7 @@
         <v>55</v>
       </c>
       <c r="K358" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -14559,7 +14571,7 @@
         <v>55</v>
       </c>
       <c r="K359" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -14594,7 +14606,7 @@
         <v>55</v>
       </c>
       <c r="K360" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -14629,7 +14641,7 @@
         <v>55</v>
       </c>
       <c r="K361" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -14664,7 +14676,7 @@
         <v>55</v>
       </c>
       <c r="K362" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -14699,7 +14711,7 @@
         <v>55</v>
       </c>
       <c r="K363" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -14734,7 +14746,7 @@
         <v>55</v>
       </c>
       <c r="K364" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -14769,7 +14781,7 @@
         <v>55</v>
       </c>
       <c r="K365" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -14804,7 +14816,7 @@
         <v>55</v>
       </c>
       <c r="K366" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -14839,7 +14851,7 @@
         <v>55</v>
       </c>
       <c r="K367" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -14874,7 +14886,7 @@
         <v>55</v>
       </c>
       <c r="K368" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -14909,7 +14921,7 @@
         <v>55</v>
       </c>
       <c r="K369" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -14944,7 +14956,7 @@
         <v>55</v>
       </c>
       <c r="K370" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -14979,7 +14991,7 @@
         <v>55</v>
       </c>
       <c r="K371" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -15014,7 +15026,7 @@
         <v>55</v>
       </c>
       <c r="K372" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -15049,7 +15061,7 @@
         <v>55</v>
       </c>
       <c r="K373" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -15084,7 +15096,7 @@
         <v>55</v>
       </c>
       <c r="K374" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -15119,7 +15131,7 @@
         <v>55</v>
       </c>
       <c r="K375" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -15154,7 +15166,7 @@
         <v>55</v>
       </c>
       <c r="K376" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -15189,7 +15201,7 @@
         <v>55</v>
       </c>
       <c r="K377" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -15224,7 +15236,7 @@
         <v>55</v>
       </c>
       <c r="K378" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -15259,7 +15271,7 @@
         <v>55</v>
       </c>
       <c r="K379" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -15294,7 +15306,7 @@
         <v>55</v>
       </c>
       <c r="K380" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -15329,7 +15341,7 @@
         <v>55</v>
       </c>
       <c r="K381" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -15364,7 +15376,7 @@
         <v>55</v>
       </c>
       <c r="K382" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -15399,7 +15411,7 @@
         <v>55</v>
       </c>
       <c r="K383" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -15434,7 +15446,7 @@
         <v>55</v>
       </c>
       <c r="K384" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -15469,7 +15481,7 @@
         <v>55</v>
       </c>
       <c r="K385" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -15504,7 +15516,7 @@
         <v>55</v>
       </c>
       <c r="K386" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -15539,7 +15551,7 @@
         <v>55</v>
       </c>
       <c r="K387" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -15574,7 +15586,7 @@
         <v>55</v>
       </c>
       <c r="K388" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -15609,7 +15621,7 @@
         <v>55</v>
       </c>
       <c r="K389" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -15644,7 +15656,7 @@
         <v>55</v>
       </c>
       <c r="K390" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -15679,7 +15691,7 @@
         <v>55</v>
       </c>
       <c r="K391" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -15714,7 +15726,7 @@
         <v>55</v>
       </c>
       <c r="K392" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -15749,7 +15761,7 @@
         <v>55</v>
       </c>
       <c r="K393" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -15784,7 +15796,7 @@
         <v>55</v>
       </c>
       <c r="K394" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -15819,7 +15831,7 @@
         <v>55</v>
       </c>
       <c r="K395" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -15854,7 +15866,7 @@
         <v>55</v>
       </c>
       <c r="K396" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -15889,7 +15901,7 @@
         <v>55</v>
       </c>
       <c r="K397" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -15924,7 +15936,7 @@
         <v>55</v>
       </c>
       <c r="K398" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -15959,7 +15971,7 @@
         <v>55</v>
       </c>
       <c r="K399" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -15994,7 +16006,7 @@
         <v>55</v>
       </c>
       <c r="K400" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -16029,7 +16041,7 @@
         <v>55</v>
       </c>
       <c r="K401" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -16061,10 +16073,10 @@
         <v>54</v>
       </c>
       <c r="J402" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K402" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -16099,7 +16111,7 @@
         <v>55</v>
       </c>
       <c r="K403" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -16134,7 +16146,7 @@
         <v>55</v>
       </c>
       <c r="K404" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -16169,7 +16181,7 @@
         <v>55</v>
       </c>
       <c r="K405" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -16204,7 +16216,7 @@
         <v>55</v>
       </c>
       <c r="K406" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -16239,7 +16251,7 @@
         <v>55</v>
       </c>
       <c r="K407" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -16274,7 +16286,7 @@
         <v>55</v>
       </c>
       <c r="K408" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -16309,7 +16321,7 @@
         <v>55</v>
       </c>
       <c r="K409" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -16344,7 +16356,7 @@
         <v>55</v>
       </c>
       <c r="K410" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -16379,7 +16391,7 @@
         <v>55</v>
       </c>
       <c r="K411" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -16414,7 +16426,7 @@
         <v>55</v>
       </c>
       <c r="K412" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -16449,7 +16461,7 @@
         <v>55</v>
       </c>
       <c r="K413" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -16484,7 +16496,7 @@
         <v>55</v>
       </c>
       <c r="K414" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -16519,7 +16531,7 @@
         <v>55</v>
       </c>
       <c r="K415" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -16554,7 +16566,7 @@
         <v>55</v>
       </c>
       <c r="K416" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -16589,7 +16601,7 @@
         <v>55</v>
       </c>
       <c r="K417" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="418" spans="1:11">
@@ -16624,7 +16636,7 @@
         <v>55</v>
       </c>
       <c r="K418" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="419" spans="1:11">
@@ -16659,7 +16671,7 @@
         <v>55</v>
       </c>
       <c r="K419" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="420" spans="1:11">
@@ -16694,7 +16706,7 @@
         <v>55</v>
       </c>
       <c r="K420" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="421" spans="1:11">
@@ -16729,7 +16741,7 @@
         <v>55</v>
       </c>
       <c r="K421" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="422" spans="1:11">
@@ -16764,7 +16776,7 @@
         <v>55</v>
       </c>
       <c r="K422" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="423" spans="1:11">
@@ -16799,7 +16811,7 @@
         <v>55</v>
       </c>
       <c r="K423" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="424" spans="1:11">
@@ -16834,7 +16846,7 @@
         <v>55</v>
       </c>
       <c r="K424" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="425" spans="1:11">
@@ -16869,7 +16881,7 @@
         <v>55</v>
       </c>
       <c r="K425" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
+++ b/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="529">
   <si>
     <t>id_cliente</t>
   </si>
@@ -88,9 +88,6 @@
     <t>1x a cada 4 meses - irregular</t>
   </si>
   <si>
-    <t>1x a cada 11 meses - irregular (preferencialmente na 2ª quinzena)</t>
-  </si>
-  <si>
     <t>2x por quinzena - regular</t>
   </si>
   <si>
@@ -184,10 +181,10 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 45.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 45.4 meses sem comprar</t>
+    <t>INATIVO - 45.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 45.2 meses sem comprar</t>
@@ -196,7 +193,7 @@
     <t>INATIVO - 38.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 39.1 meses sem comprar</t>
+    <t>INATIVO - 39.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 42.2 meses sem comprar</t>
@@ -205,22 +202,19 @@
     <t>INATIVO - 49.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 45.7 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 29.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 39.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 48.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 45.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.6 meses sem comprar</t>
+    <t>INATIVO - 48.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.7 meses sem comprar</t>
@@ -229,280 +223,277 @@
     <t>INATIVO - 49.0 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 11.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 46.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.1 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 11.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 0.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 46.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.7 meses sem comprar</t>
+    <t>INATIVO - 12.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 10.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 8.6 meses sem comprar</t>
+    <t>INATIVO - 8.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 10.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 8.4 meses sem comprar</t>
@@ -2073,10 +2064,10 @@
         <v>45797</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2105,13 +2096,13 @@
         <v>44448</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2143,10 +2134,10 @@
         <v>45788</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2175,13 +2166,13 @@
         <v>44454</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2213,10 +2204,10 @@
         <v>45821</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2245,13 +2236,13 @@
         <v>44461</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2280,13 +2271,13 @@
         <v>44656</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2315,13 +2306,13 @@
         <v>44643</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2350,13 +2341,13 @@
         <v>44552</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2385,13 +2376,13 @@
         <v>44320</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2420,13 +2411,13 @@
         <v>44447</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2455,13 +2446,13 @@
         <v>44929</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2490,13 +2481,13 @@
         <v>44627</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2525,13 +2516,13 @@
         <v>44364</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2560,13 +2551,13 @@
         <v>44453</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2595,13 +2586,13 @@
         <v>44460</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2633,10 +2624,10 @@
         <v>45835</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2665,13 +2656,13 @@
         <v>44358</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2700,13 +2691,13 @@
         <v>45197</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2735,13 +2726,13 @@
         <v>44348</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2770,13 +2761,13 @@
         <v>45471</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2805,13 +2796,13 @@
         <v>45812</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2840,13 +2831,13 @@
         <v>45259</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K24" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2875,13 +2866,13 @@
         <v>44812</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2913,10 +2904,10 @@
         <v>45895</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K26" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2945,13 +2936,13 @@
         <v>44474</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2980,13 +2971,13 @@
         <v>44510</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3018,10 +3009,10 @@
         <v>45750</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3050,13 +3041,13 @@
         <v>44420</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3088,10 +3079,10 @@
         <v>45753</v>
       </c>
       <c r="J31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3123,10 +3114,10 @@
         <v>45800</v>
       </c>
       <c r="J32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K32" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3158,10 +3149,10 @@
         <v>45827</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3193,10 +3184,10 @@
         <v>45864</v>
       </c>
       <c r="J34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K34" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3225,13 +3216,13 @@
         <v>45461</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3260,13 +3251,13 @@
         <v>45580</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3295,13 +3286,13 @@
         <v>44972</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3330,13 +3321,13 @@
         <v>44628</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J38" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K38" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3368,10 +3359,10 @@
         <v>45744</v>
       </c>
       <c r="J39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3403,10 +3394,10 @@
         <v>45822</v>
       </c>
       <c r="J40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3438,10 +3429,10 @@
         <v>45871</v>
       </c>
       <c r="J41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3470,13 +3461,13 @@
         <v>44473</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K42" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3505,13 +3496,13 @@
         <v>44750</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3543,10 +3534,10 @@
         <v>45808</v>
       </c>
       <c r="J44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K44" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3575,13 +3566,13 @@
         <v>44586</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3613,10 +3604,10 @@
         <v>45861</v>
       </c>
       <c r="J46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K46" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3645,13 +3636,13 @@
         <v>44571</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J47" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3683,10 +3674,10 @@
         <v>45820</v>
       </c>
       <c r="J48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K48" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3718,10 +3709,10 @@
         <v>45827</v>
       </c>
       <c r="J49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K49" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3753,10 +3744,10 @@
         <v>45826</v>
       </c>
       <c r="J50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K50" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3788,10 +3779,10 @@
         <v>45847</v>
       </c>
       <c r="J51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K51" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3820,13 +3811,13 @@
         <v>45155</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3858,10 +3849,10 @@
         <v>45826</v>
       </c>
       <c r="J53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K53" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3893,10 +3884,10 @@
         <v>45807</v>
       </c>
       <c r="J54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K54" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3925,13 +3916,13 @@
         <v>44669</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J55" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3960,13 +3951,13 @@
         <v>45384</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J56" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K56" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3998,10 +3989,10 @@
         <v>45872</v>
       </c>
       <c r="J57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K57" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -4009,34 +4000,34 @@
         <v>3486896</v>
       </c>
       <c r="B58" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C58" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D58" s="1">
         <v>0.17</v>
       </c>
       <c r="E58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F58" s="1">
         <v>0.17</v>
       </c>
       <c r="G58" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H58" s="4">
-        <v>45804</v>
+        <v>45817</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J58" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4059,19 +4050,19 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H59" s="4">
         <v>44650</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J59" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4100,13 +4091,13 @@
         <v>44617</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J60" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4129,19 +4120,19 @@
         <v>0.83</v>
       </c>
       <c r="G61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H61" s="4">
         <v>44663</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J61" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4164,19 +4155,19 @@
         <v>0.83</v>
       </c>
       <c r="G62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H62" s="4">
         <v>44663</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J62" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4199,19 +4190,19 @@
         <v>0.83</v>
       </c>
       <c r="G63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H63" s="4">
         <v>44617</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K63" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4240,13 +4231,13 @@
         <v>44663</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J64" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4269,19 +4260,19 @@
         <v>0.67</v>
       </c>
       <c r="G65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H65" s="4">
         <v>44663</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J65" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4304,19 +4295,19 @@
         <v>0.83</v>
       </c>
       <c r="G66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H66" s="4">
         <v>44663</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J66" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K66" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4339,19 +4330,19 @@
         <v>0.67</v>
       </c>
       <c r="G67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H67" s="4">
         <v>44529</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J67" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4380,13 +4371,13 @@
         <v>45583</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J68" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K68" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4409,19 +4400,19 @@
         <v>0.83</v>
       </c>
       <c r="G69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H69" s="4">
         <v>44663</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J69" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K69" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4444,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H70" s="4">
         <v>45806</v>
@@ -4453,10 +4444,10 @@
         <v>45821</v>
       </c>
       <c r="J70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K70" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4485,13 +4476,13 @@
         <v>45587</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J71" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4514,7 +4505,7 @@
         <v>0.17</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H72" s="4">
         <v>45756</v>
@@ -4523,10 +4514,10 @@
         <v>45939</v>
       </c>
       <c r="J72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4549,19 +4540,19 @@
         <v>0.83</v>
       </c>
       <c r="G73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H73" s="4">
         <v>44617</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J73" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K73" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4590,13 +4581,13 @@
         <v>44650</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J74" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K74" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4625,13 +4616,13 @@
         <v>45587</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J75" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K75" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4663,10 +4654,10 @@
         <v>45847</v>
       </c>
       <c r="J76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K76" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4689,7 +4680,7 @@
         <v>0.17</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H77" s="4">
         <v>45712</v>
@@ -4698,10 +4689,10 @@
         <v>45832</v>
       </c>
       <c r="J77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K77" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4733,10 +4724,10 @@
         <v>45844</v>
       </c>
       <c r="J78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K78" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4765,13 +4756,13 @@
         <v>44663</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J79" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K79" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4800,13 +4791,13 @@
         <v>45355</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J80" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K80" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4832,16 +4823,16 @@
         <v>15</v>
       </c>
       <c r="H81" s="4">
-        <v>45814</v>
+        <v>45817</v>
       </c>
       <c r="I81" s="4">
-        <v>45844</v>
+        <v>45847</v>
       </c>
       <c r="J81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K81" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4870,13 +4861,13 @@
         <v>44986</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J82" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K82" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4899,7 +4890,7 @@
         <v>0.17</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H83" s="4">
         <v>45803</v>
@@ -4908,10 +4899,10 @@
         <v>45926</v>
       </c>
       <c r="J83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K83" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4934,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H84" s="4">
         <v>45804</v>
@@ -4943,10 +4934,10 @@
         <v>45865</v>
       </c>
       <c r="J84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K84" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4975,13 +4966,13 @@
         <v>45329</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J85" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K85" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -5013,10 +5004,10 @@
         <v>45865</v>
       </c>
       <c r="J86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K86" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5045,13 +5036,13 @@
         <v>45580</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J87" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K87" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -5083,10 +5074,10 @@
         <v>45828</v>
       </c>
       <c r="J88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5109,19 +5100,19 @@
         <v>0.67</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H89" s="4">
         <v>44370</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J89" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K89" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5150,13 +5141,13 @@
         <v>45072</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J90" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K90" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5173,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F91" s="1">
         <v>1</v>
@@ -5182,16 +5173,16 @@
         <v>11</v>
       </c>
       <c r="H91" s="4">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="I91" s="4">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="J91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K91" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5220,13 +5211,13 @@
         <v>44673</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J92" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K92" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5255,13 +5246,13 @@
         <v>44546</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J93" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K93" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5284,19 +5275,19 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H94" s="4">
         <v>44650</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J94" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K94" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5328,10 +5319,10 @@
         <v>45859</v>
       </c>
       <c r="J95" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K95" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5360,13 +5351,13 @@
         <v>45274</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J96" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K96" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5389,7 +5380,7 @@
         <v>0.17</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H97" s="4">
         <v>45734</v>
@@ -5398,10 +5389,10 @@
         <v>45887</v>
       </c>
       <c r="J97" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K97" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5418,7 +5409,7 @@
         <v>0.5</v>
       </c>
       <c r="E98">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F98" s="1">
         <v>0.5</v>
@@ -5427,16 +5418,16 @@
         <v>20</v>
       </c>
       <c r="H98" s="4">
-        <v>45797</v>
+        <v>45817</v>
       </c>
       <c r="I98" s="4">
-        <v>45889</v>
+        <v>45909</v>
       </c>
       <c r="J98" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K98" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5459,19 +5450,19 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H99" s="4">
         <v>45026</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J99" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K99" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5488,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F100" s="1">
         <v>1</v>
@@ -5497,16 +5488,16 @@
         <v>11</v>
       </c>
       <c r="H100" s="4">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="I100" s="4">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="J100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K100" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5529,19 +5520,19 @@
         <v>0.33</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H101" s="4">
         <v>44628</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J101" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5570,13 +5561,13 @@
         <v>45191</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J102" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K102" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5608,10 +5599,10 @@
         <v>45742</v>
       </c>
       <c r="J103" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K103" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5640,13 +5631,13 @@
         <v>44677</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K104" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5678,10 +5669,10 @@
         <v>45899</v>
       </c>
       <c r="J105" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K105" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5713,10 +5704,10 @@
         <v>45820</v>
       </c>
       <c r="J106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K106" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5745,13 +5736,13 @@
         <v>45363</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J107" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K107" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5780,13 +5771,13 @@
         <v>44483</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J108" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K108" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5818,10 +5809,10 @@
         <v>45805</v>
       </c>
       <c r="J109" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K109" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5850,13 +5841,13 @@
         <v>44595</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J110" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K110" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5885,13 +5876,13 @@
         <v>44761</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J111" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K111" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5920,13 +5911,13 @@
         <v>44641</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J112" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="K112" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5943,25 +5934,25 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F113" s="1">
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H113" s="4">
-        <v>45813</v>
+        <v>45817</v>
       </c>
       <c r="I113" s="4">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="J113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K113" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5990,13 +5981,13 @@
         <v>44929</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J114" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K114" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -6019,19 +6010,19 @@
         <v>0.33</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H115" s="4">
         <v>45782</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J115" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K115" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6060,13 +6051,13 @@
         <v>45201</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J116" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K116" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -6095,13 +6086,13 @@
         <v>45063</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J117" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K117" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6124,19 +6115,19 @@
         <v>0.75</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H118" s="4">
         <v>44473</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J118" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K118" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6165,13 +6156,13 @@
         <v>44986</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J119" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K119" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6200,13 +6191,13 @@
         <v>45019</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J120" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K120" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6238,10 +6229,10 @@
         <v>45813</v>
       </c>
       <c r="J121" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K121" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6270,13 +6261,13 @@
         <v>45512</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J122" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K122" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6299,7 +6290,7 @@
         <v>0.33</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H123" s="4">
         <v>45813</v>
@@ -6308,10 +6299,10 @@
         <v>45966</v>
       </c>
       <c r="J123" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K123" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6334,7 +6325,7 @@
         <v>0.5</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H124" s="4">
         <v>45754</v>
@@ -6343,10 +6334,10 @@
         <v>45815</v>
       </c>
       <c r="J124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K124" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6369,19 +6360,19 @@
         <v>0.67</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H125" s="4">
         <v>44662</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J125" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K125" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6410,13 +6401,13 @@
         <v>44971</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J126" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K126" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6448,10 +6439,10 @@
         <v>45872</v>
       </c>
       <c r="J127" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K127" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6483,10 +6474,10 @@
         <v>45677</v>
       </c>
       <c r="J128" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K128" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6515,13 +6506,13 @@
         <v>44984</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J129" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K129" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6550,13 +6541,13 @@
         <v>44740</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J130" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K130" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6588,10 +6579,10 @@
         <v>45802</v>
       </c>
       <c r="J131" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K131" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6620,13 +6611,13 @@
         <v>45590</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J132" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K132" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6658,10 +6649,10 @@
         <v>45823</v>
       </c>
       <c r="J133" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K133" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6693,10 +6684,10 @@
         <v>45844</v>
       </c>
       <c r="J134" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K134" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -6728,10 +6719,10 @@
         <v>45815</v>
       </c>
       <c r="J135" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K135" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -6754,19 +6745,19 @@
         <v>0.5</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H136" s="4">
         <v>45569</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J136" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K136" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6795,13 +6786,13 @@
         <v>44810</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J137" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K137" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6833,10 +6824,10 @@
         <v>45873</v>
       </c>
       <c r="J138" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K138" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6865,13 +6856,13 @@
         <v>44599</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J139" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K139" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6900,13 +6891,13 @@
         <v>45112</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J140" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K140" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6929,19 +6920,19 @@
         <v>0.83</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H141" s="4">
         <v>45237</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J141" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K141" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6970,13 +6961,13 @@
         <v>44791</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J142" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K142" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -7008,10 +6999,10 @@
         <v>45854</v>
       </c>
       <c r="J143" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K143" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -7040,13 +7031,13 @@
         <v>45457</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J144" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K144" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -7078,10 +7069,10 @@
         <v>45835</v>
       </c>
       <c r="J145" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K145" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -7113,10 +7104,10 @@
         <v>45872</v>
       </c>
       <c r="J146" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K146" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7139,19 +7130,19 @@
         <v>0.17</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H147" s="4">
         <v>45530</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J147" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K147" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7159,34 +7150,34 @@
         <v>5069390</v>
       </c>
       <c r="B148" s="1">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="C148" s="1">
         <v>0</v>
       </c>
       <c r="D148" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="E148">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F148" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H148" s="4">
-        <v>45756</v>
+        <v>45817</v>
       </c>
       <c r="I148" s="4">
-        <v>45771</v>
+        <v>45847</v>
       </c>
       <c r="J148" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K148" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7209,7 +7200,7 @@
         <v>0.67</v>
       </c>
       <c r="G149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H149" s="4">
         <v>45806</v>
@@ -7218,10 +7209,10 @@
         <v>45837</v>
       </c>
       <c r="J149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K149" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7253,10 +7244,10 @@
         <v>45854</v>
       </c>
       <c r="J150" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K150" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7288,10 +7279,10 @@
         <v>45845</v>
       </c>
       <c r="J151" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K151" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7323,10 +7314,10 @@
         <v>45840</v>
       </c>
       <c r="J152" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K152" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7355,13 +7346,13 @@
         <v>44986</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J153" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K153" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7393,10 +7384,10 @@
         <v>45851</v>
       </c>
       <c r="J154" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K154" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7419,7 +7410,7 @@
         <v>0.83</v>
       </c>
       <c r="G155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H155" s="4">
         <v>45772</v>
@@ -7428,10 +7419,10 @@
         <v>45894</v>
       </c>
       <c r="J155" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K155" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7460,13 +7451,13 @@
         <v>45041</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J156" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K156" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -7498,10 +7489,10 @@
         <v>45873</v>
       </c>
       <c r="J157" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K157" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -7533,10 +7524,10 @@
         <v>45829</v>
       </c>
       <c r="J158" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K158" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -7568,10 +7559,10 @@
         <v>45836</v>
       </c>
       <c r="J159" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K159" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -7594,7 +7585,7 @@
         <v>0.17</v>
       </c>
       <c r="G160" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H160" s="4">
         <v>45776</v>
@@ -7603,10 +7594,10 @@
         <v>45929</v>
       </c>
       <c r="J160" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K160" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -7638,10 +7629,10 @@
         <v>45829</v>
       </c>
       <c r="J161" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K161" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7673,10 +7664,10 @@
         <v>45829</v>
       </c>
       <c r="J162" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K162" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7708,10 +7699,10 @@
         <v>45822</v>
       </c>
       <c r="J163" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K163" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -7740,13 +7731,13 @@
         <v>45418</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J164" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K164" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7775,13 +7766,13 @@
         <v>45623</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J165" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K165" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7813,10 +7804,10 @@
         <v>45803</v>
       </c>
       <c r="J166" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K166" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7839,19 +7830,19 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H167" s="4">
         <v>45198</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J167" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="K167" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -7874,19 +7865,19 @@
         <v>0.67</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H168" s="4">
         <v>45443</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J168" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K168" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7909,7 +7900,7 @@
         <v>0.83</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H169" s="4">
         <v>45811</v>
@@ -7918,10 +7909,10 @@
         <v>45826</v>
       </c>
       <c r="J169" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K169" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -7944,7 +7935,7 @@
         <v>0.67</v>
       </c>
       <c r="G170" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H170" s="4">
         <v>45811</v>
@@ -7953,10 +7944,10 @@
         <v>45826</v>
       </c>
       <c r="J170" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K170" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7979,7 +7970,7 @@
         <v>0.67</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H171" s="4">
         <v>45811</v>
@@ -7988,10 +7979,10 @@
         <v>45826</v>
       </c>
       <c r="J171" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K171" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -8014,7 +8005,7 @@
         <v>0.67</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H172" s="4">
         <v>45811</v>
@@ -8023,10 +8014,10 @@
         <v>45826</v>
       </c>
       <c r="J172" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K172" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -8049,7 +8040,7 @@
         <v>0.5</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H173" s="4">
         <v>45811</v>
@@ -8058,10 +8049,10 @@
         <v>45841</v>
       </c>
       <c r="J173" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K173" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -8084,7 +8075,7 @@
         <v>0.5</v>
       </c>
       <c r="G174" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H174" s="4">
         <v>45811</v>
@@ -8093,10 +8084,10 @@
         <v>45826</v>
       </c>
       <c r="J174" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K174" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -8119,19 +8110,19 @@
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H175" s="4">
         <v>44803</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J175" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K175" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -8154,7 +8145,7 @@
         <v>0.67</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H176" s="4">
         <v>45811</v>
@@ -8163,10 +8154,10 @@
         <v>45826</v>
       </c>
       <c r="J176" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K176" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -8189,7 +8180,7 @@
         <v>0.67</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H177" s="4">
         <v>45811</v>
@@ -8198,10 +8189,10 @@
         <v>45826</v>
       </c>
       <c r="J177" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K177" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -8233,10 +8224,10 @@
         <v>45827</v>
       </c>
       <c r="J178" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K178" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -8268,10 +8259,10 @@
         <v>45854</v>
       </c>
       <c r="J179" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K179" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -8303,10 +8294,10 @@
         <v>45814</v>
       </c>
       <c r="J180" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K180" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -8338,10 +8329,10 @@
         <v>45846</v>
       </c>
       <c r="J181" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K181" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -8373,10 +8364,10 @@
         <v>45817</v>
       </c>
       <c r="J182" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K182" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -8408,10 +8399,10 @@
         <v>45915</v>
       </c>
       <c r="J183" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K183" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -8434,19 +8425,19 @@
         <v>0.83</v>
       </c>
       <c r="G184" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H184" s="4">
         <v>45224</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J184" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K184" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -8469,7 +8460,7 @@
         <v>0.67</v>
       </c>
       <c r="G185" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H185" s="4">
         <v>45811</v>
@@ -8478,10 +8469,10 @@
         <v>45818</v>
       </c>
       <c r="J185" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K185" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -8504,7 +8495,7 @@
         <v>0.5</v>
       </c>
       <c r="G186" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H186" s="4">
         <v>45811</v>
@@ -8513,10 +8504,10 @@
         <v>45826</v>
       </c>
       <c r="J186" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K186" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -8539,7 +8530,7 @@
         <v>0.83</v>
       </c>
       <c r="G187" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H187" s="4">
         <v>45810</v>
@@ -8548,10 +8539,10 @@
         <v>45825</v>
       </c>
       <c r="J187" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K187" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -8583,10 +8574,10 @@
         <v>45769</v>
       </c>
       <c r="J188" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K188" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -8603,7 +8594,7 @@
         <v>1</v>
       </c>
       <c r="E189">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F189" s="1">
         <v>1</v>
@@ -8612,16 +8603,16 @@
         <v>18</v>
       </c>
       <c r="H189" s="4">
-        <v>45791</v>
+        <v>45817</v>
       </c>
       <c r="I189" s="4">
-        <v>45806</v>
+        <v>45832</v>
       </c>
       <c r="J189" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K189" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -8650,13 +8641,13 @@
         <v>45266</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J190" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K190" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -8685,13 +8676,13 @@
         <v>44825</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J191" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K191" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -8720,13 +8711,13 @@
         <v>45100</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J192" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K192" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -8758,10 +8749,10 @@
         <v>45819</v>
       </c>
       <c r="J193" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K193" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -8784,7 +8775,7 @@
         <v>0.5</v>
       </c>
       <c r="G194" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H194" s="4">
         <v>45811</v>
@@ -8793,10 +8784,10 @@
         <v>45826</v>
       </c>
       <c r="J194" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K194" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8819,7 +8810,7 @@
         <v>0.5</v>
       </c>
       <c r="G195" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H195" s="4">
         <v>45811</v>
@@ -8828,10 +8819,10 @@
         <v>45841</v>
       </c>
       <c r="J195" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K195" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -8863,10 +8854,10 @@
         <v>45872</v>
       </c>
       <c r="J196" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K196" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -8889,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H197" s="4">
         <v>45803</v>
@@ -8898,10 +8889,10 @@
         <v>45834</v>
       </c>
       <c r="J197" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K197" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -8924,19 +8915,19 @@
         <v>1</v>
       </c>
       <c r="G198" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H198" s="4">
         <v>44669</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J198" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K198" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -8959,7 +8950,7 @@
         <v>0.83</v>
       </c>
       <c r="G199" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H199" s="4">
         <v>45806</v>
@@ -8968,10 +8959,10 @@
         <v>45837</v>
       </c>
       <c r="J199" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K199" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -9003,10 +8994,10 @@
         <v>45807</v>
       </c>
       <c r="J200" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K200" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -9038,10 +9029,10 @@
         <v>45858</v>
       </c>
       <c r="J201" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K201" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -9070,13 +9061,13 @@
         <v>44924</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J202" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K202" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -9108,10 +9099,10 @@
         <v>45844</v>
       </c>
       <c r="J203" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K203" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -9143,10 +9134,10 @@
         <v>45853</v>
       </c>
       <c r="J204" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K204" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -9178,10 +9169,10 @@
         <v>45835</v>
       </c>
       <c r="J205" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K205" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -9213,10 +9204,10 @@
         <v>45834</v>
       </c>
       <c r="J206" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K206" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -9248,10 +9239,10 @@
         <v>45775</v>
       </c>
       <c r="J207" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K207" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -9274,19 +9265,19 @@
         <v>0.17</v>
       </c>
       <c r="G208" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H208" s="4">
         <v>45008</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J208" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K208" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -9309,7 +9300,7 @@
         <v>0.83</v>
       </c>
       <c r="G209" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H209" s="4">
         <v>45811</v>
@@ -9318,10 +9309,10 @@
         <v>45826</v>
       </c>
       <c r="J209" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K209" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -9353,10 +9344,10 @@
         <v>45744</v>
       </c>
       <c r="J210" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K210" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -9388,10 +9379,10 @@
         <v>45872</v>
       </c>
       <c r="J211" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K211" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -9399,34 +9390,34 @@
         <v>6161980</v>
       </c>
       <c r="B212" s="1">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="C212" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
       </c>
       <c r="E212">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F212" s="1">
         <v>1</v>
       </c>
       <c r="G212" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H212" s="4">
-        <v>45807</v>
+        <v>45817</v>
       </c>
       <c r="I212" s="4">
-        <v>45814</v>
+        <v>45824</v>
       </c>
       <c r="J212" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K212" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -9458,10 +9449,10 @@
         <v>45827</v>
       </c>
       <c r="J213" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K213" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -9469,34 +9460,34 @@
         <v>6178316</v>
       </c>
       <c r="B214" s="1">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="C214" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="D214" s="1">
         <v>1</v>
       </c>
       <c r="E214">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F214" s="1">
         <v>1</v>
       </c>
       <c r="G214" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H214" s="4">
-        <v>45807</v>
+        <v>45817</v>
       </c>
       <c r="I214" s="4">
-        <v>45814</v>
+        <v>45824</v>
       </c>
       <c r="J214" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K214" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -9528,10 +9519,10 @@
         <v>45800</v>
       </c>
       <c r="J215" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K215" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -9563,10 +9554,10 @@
         <v>45850</v>
       </c>
       <c r="J216" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K216" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -9589,19 +9580,19 @@
         <v>1</v>
       </c>
       <c r="G217" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H217" s="4">
         <v>44911</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J217" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K217" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -9633,10 +9624,10 @@
         <v>45815</v>
       </c>
       <c r="J218" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K218" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -9665,13 +9656,13 @@
         <v>45320</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J219" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K219" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -9694,7 +9685,7 @@
         <v>0.33</v>
       </c>
       <c r="G220" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H220" s="4">
         <v>45789</v>
@@ -9703,10 +9694,10 @@
         <v>45820</v>
       </c>
       <c r="J220" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K220" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -9729,7 +9720,7 @@
         <v>0.67</v>
       </c>
       <c r="G221" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H221" s="4">
         <v>45714</v>
@@ -9738,10 +9729,10 @@
         <v>45864</v>
       </c>
       <c r="J221" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K221" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -9764,7 +9755,7 @@
         <v>0.5</v>
       </c>
       <c r="G222" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H222" s="4">
         <v>45799</v>
@@ -9773,10 +9764,10 @@
         <v>45922</v>
       </c>
       <c r="J222" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K222" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -9808,10 +9799,10 @@
         <v>45891</v>
       </c>
       <c r="J223" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K223" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -9834,7 +9825,7 @@
         <v>0.83</v>
       </c>
       <c r="G224" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H224" s="4">
         <v>45797</v>
@@ -9843,10 +9834,10 @@
         <v>45920</v>
       </c>
       <c r="J224" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K224" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -9878,10 +9869,10 @@
         <v>45867</v>
       </c>
       <c r="J225" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K225" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -9913,10 +9904,10 @@
         <v>45841</v>
       </c>
       <c r="J226" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K226" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -9948,10 +9939,10 @@
         <v>45859</v>
       </c>
       <c r="J227" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K227" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -9983,10 +9974,10 @@
         <v>45838</v>
       </c>
       <c r="J228" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K228" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -10009,19 +10000,19 @@
         <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H229" s="4">
         <v>44781</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J229" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K229" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -10053,10 +10044,10 @@
         <v>45844</v>
       </c>
       <c r="J230" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K230" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -10088,10 +10079,10 @@
         <v>45845</v>
       </c>
       <c r="J231" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K231" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -10120,13 +10111,13 @@
         <v>45141</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J232" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K232" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -10158,10 +10149,10 @@
         <v>45840</v>
       </c>
       <c r="J233" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K233" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -10193,10 +10184,10 @@
         <v>45847</v>
       </c>
       <c r="J234" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K234" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -10228,10 +10219,10 @@
         <v>45830</v>
       </c>
       <c r="J235" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K235" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -10260,13 +10251,13 @@
         <v>45090</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J236" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K236" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -10298,10 +10289,10 @@
         <v>45871</v>
       </c>
       <c r="J237" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K237" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -10333,10 +10324,10 @@
         <v>45760</v>
       </c>
       <c r="J238" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K238" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -10368,10 +10359,10 @@
         <v>45841</v>
       </c>
       <c r="J239" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K239" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -10403,10 +10394,10 @@
         <v>45857</v>
       </c>
       <c r="J240" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K240" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -10438,10 +10429,10 @@
         <v>45689</v>
       </c>
       <c r="J241" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K241" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -10473,10 +10464,10 @@
         <v>45810</v>
       </c>
       <c r="J242" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K242" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -10505,13 +10496,13 @@
         <v>45537</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J243" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K243" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -10543,10 +10534,10 @@
         <v>45843</v>
       </c>
       <c r="J244" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K244" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -10578,10 +10569,10 @@
         <v>45874</v>
       </c>
       <c r="J245" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K245" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -10610,13 +10601,13 @@
         <v>45411</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J246" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K246" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -10648,10 +10639,10 @@
         <v>45844</v>
       </c>
       <c r="J247" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K247" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -10680,13 +10671,13 @@
         <v>45383</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J248" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="K248" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -10709,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="G249" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H249" s="4">
         <v>45811</v>
@@ -10718,10 +10709,10 @@
         <v>45826</v>
       </c>
       <c r="J249" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K249" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -10753,10 +10744,10 @@
         <v>45816</v>
       </c>
       <c r="J250" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K250" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -10788,10 +10779,10 @@
         <v>45875</v>
       </c>
       <c r="J251" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K251" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -10820,13 +10811,13 @@
         <v>45280</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J252" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K252" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -10855,13 +10846,13 @@
         <v>44994</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J253" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K253" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -10869,34 +10860,34 @@
         <v>12930514</v>
       </c>
       <c r="B254" s="1">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="C254" s="1">
         <v>0.33</v>
       </c>
       <c r="D254" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E254">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F254" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G254" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H254" s="4">
-        <v>45806</v>
+        <v>45817</v>
       </c>
       <c r="I254" s="4">
-        <v>45867</v>
+        <v>45878</v>
       </c>
       <c r="J254" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K254" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -10928,10 +10919,10 @@
         <v>45820</v>
       </c>
       <c r="J255" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K255" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -10954,7 +10945,7 @@
         <v>0.67</v>
       </c>
       <c r="G256" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H256" s="4">
         <v>45811</v>
@@ -10963,10 +10954,10 @@
         <v>45826</v>
       </c>
       <c r="J256" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K256" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -10989,19 +10980,19 @@
         <v>0.17</v>
       </c>
       <c r="G257" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H257" s="4">
         <v>45597</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J257" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K257" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -11024,7 +11015,7 @@
         <v>0.33</v>
       </c>
       <c r="G258" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H258" s="4">
         <v>45796</v>
@@ -11033,10 +11024,10 @@
         <v>45949</v>
       </c>
       <c r="J258" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K258" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -11068,10 +11059,10 @@
         <v>45853</v>
       </c>
       <c r="J259" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K259" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -11094,19 +11085,19 @@
         <v>1</v>
       </c>
       <c r="G260" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H260" s="4">
         <v>45302</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J260" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K260" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -11138,10 +11129,10 @@
         <v>45841</v>
       </c>
       <c r="J261" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K261" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -11158,25 +11149,25 @@
         <v>1</v>
       </c>
       <c r="E262">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F262" s="1">
         <v>1</v>
       </c>
       <c r="G262" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H262" s="4">
-        <v>45789</v>
+        <v>45817</v>
       </c>
       <c r="I262" s="4">
-        <v>45820</v>
+        <v>45847</v>
       </c>
       <c r="J262" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K262" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -11199,7 +11190,7 @@
         <v>0.5</v>
       </c>
       <c r="G263" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H263" s="4">
         <v>45783</v>
@@ -11208,10 +11199,10 @@
         <v>45814</v>
       </c>
       <c r="J263" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K263" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -11234,19 +11225,19 @@
         <v>0.33</v>
       </c>
       <c r="G264" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H264" s="4">
         <v>45111</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J264" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="K264" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -11278,10 +11269,10 @@
         <v>45825</v>
       </c>
       <c r="J265" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K265" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -11304,7 +11295,7 @@
         <v>0.67</v>
       </c>
       <c r="G266" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H266" s="4">
         <v>45811</v>
@@ -11313,10 +11304,10 @@
         <v>45818</v>
       </c>
       <c r="J266" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K266" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -11348,10 +11339,10 @@
         <v>45837</v>
       </c>
       <c r="J267" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K267" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -11383,10 +11374,10 @@
         <v>45846</v>
       </c>
       <c r="J268" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K268" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -11418,10 +11409,10 @@
         <v>45836</v>
       </c>
       <c r="J269" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K269" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -11444,19 +11435,19 @@
         <v>1</v>
       </c>
       <c r="G270" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H270" s="4">
         <v>45421</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J270" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K270" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -11479,7 +11470,7 @@
         <v>0.33</v>
       </c>
       <c r="G271" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H271" s="4">
         <v>45708</v>
@@ -11488,10 +11479,10 @@
         <v>45828</v>
       </c>
       <c r="J271" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K271" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -11514,7 +11505,7 @@
         <v>0.83</v>
       </c>
       <c r="G272" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H272" s="4">
         <v>45792</v>
@@ -11523,10 +11514,10 @@
         <v>45915</v>
       </c>
       <c r="J272" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K272" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -11558,10 +11549,10 @@
         <v>45780</v>
       </c>
       <c r="J273" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K273" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -11590,13 +11581,13 @@
         <v>45401</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J274" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K274" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -11628,10 +11619,10 @@
         <v>45784</v>
       </c>
       <c r="J275" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K275" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -11663,10 +11654,10 @@
         <v>45801</v>
       </c>
       <c r="J276" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K276" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -11689,7 +11680,7 @@
         <v>0.17</v>
       </c>
       <c r="G277" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H277" s="4">
         <v>45758</v>
@@ -11698,10 +11689,10 @@
         <v>45911</v>
       </c>
       <c r="J277" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K277" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -11724,7 +11715,7 @@
         <v>0.67</v>
       </c>
       <c r="G278" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H278" s="4">
         <v>45811</v>
@@ -11733,10 +11724,10 @@
         <v>45964</v>
       </c>
       <c r="J278" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K278" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -11759,7 +11750,7 @@
         <v>0.67</v>
       </c>
       <c r="G279" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H279" s="4">
         <v>45811</v>
@@ -11768,10 +11759,10 @@
         <v>45933</v>
       </c>
       <c r="J279" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K279" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -11803,10 +11794,10 @@
         <v>45915</v>
       </c>
       <c r="J280" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K280" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -11838,10 +11829,10 @@
         <v>45838</v>
       </c>
       <c r="J281" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K281" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -11849,16 +11840,16 @@
         <v>23662805</v>
       </c>
       <c r="B282" s="1">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="C282" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="D282" s="1">
         <v>1</v>
       </c>
       <c r="E282">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F282" s="1">
         <v>1</v>
@@ -11867,16 +11858,16 @@
         <v>11</v>
       </c>
       <c r="H282" s="4">
-        <v>45807</v>
+        <v>45817</v>
       </c>
       <c r="I282" s="4">
-        <v>45814</v>
+        <v>45824</v>
       </c>
       <c r="J282" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K282" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -11905,13 +11896,13 @@
         <v>45372</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J283" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K283" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -11943,10 +11934,10 @@
         <v>45824</v>
       </c>
       <c r="J284" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K284" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -11969,7 +11960,7 @@
         <v>0.17</v>
       </c>
       <c r="G285" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H285" s="4">
         <v>45735</v>
@@ -11978,10 +11969,10 @@
         <v>45888</v>
       </c>
       <c r="J285" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K285" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -12013,10 +12004,10 @@
         <v>45835</v>
       </c>
       <c r="J286" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K286" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -12048,10 +12039,10 @@
         <v>45814</v>
       </c>
       <c r="J287" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K287" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -12083,10 +12074,10 @@
         <v>45841</v>
       </c>
       <c r="J288" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K288" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -12115,13 +12106,13 @@
         <v>45477</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J289" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K289" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -12144,7 +12135,7 @@
         <v>0.17</v>
       </c>
       <c r="G290" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H290" s="4">
         <v>45740</v>
@@ -12153,10 +12144,10 @@
         <v>45893</v>
       </c>
       <c r="J290" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K290" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -12188,10 +12179,10 @@
         <v>45836</v>
       </c>
       <c r="J291" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K291" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -12223,10 +12214,10 @@
         <v>45831</v>
       </c>
       <c r="J292" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K292" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -12258,10 +12249,10 @@
         <v>45798</v>
       </c>
       <c r="J293" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K293" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -12290,13 +12281,13 @@
         <v>45583</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J294" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K294" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -12319,7 +12310,7 @@
         <v>0.33</v>
       </c>
       <c r="G295" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H295" s="4">
         <v>45797</v>
@@ -12328,10 +12319,10 @@
         <v>45920</v>
       </c>
       <c r="J295" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K295" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -12363,10 +12354,10 @@
         <v>45716</v>
       </c>
       <c r="J296" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K296" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -12398,10 +12389,10 @@
         <v>45830</v>
       </c>
       <c r="J297" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K297" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -12430,13 +12421,13 @@
         <v>45527</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J298" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K298" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -12468,10 +12459,10 @@
         <v>45836</v>
       </c>
       <c r="J299" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K299" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -12494,7 +12485,7 @@
         <v>0.67</v>
       </c>
       <c r="G300" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H300" s="4">
         <v>45814</v>
@@ -12503,10 +12494,10 @@
         <v>45844</v>
       </c>
       <c r="J300" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K300" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -12538,10 +12529,10 @@
         <v>45828</v>
       </c>
       <c r="J301" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K301" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -12564,7 +12555,7 @@
         <v>0.5</v>
       </c>
       <c r="G302" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H302" s="4">
         <v>45790</v>
@@ -12573,10 +12564,10 @@
         <v>45821</v>
       </c>
       <c r="J302" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K302" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -12608,10 +12599,10 @@
         <v>45851</v>
       </c>
       <c r="J303" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K303" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -12643,10 +12634,10 @@
         <v>45843</v>
       </c>
       <c r="J304" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K304" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -12678,10 +12669,10 @@
         <v>45810</v>
       </c>
       <c r="J305" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K305" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -12713,10 +12704,10 @@
         <v>45865</v>
       </c>
       <c r="J306" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K306" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -12745,13 +12736,13 @@
         <v>45478</v>
       </c>
       <c r="I307" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J307" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K307" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -12783,10 +12774,10 @@
         <v>45815</v>
       </c>
       <c r="J308" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K308" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -12818,10 +12809,10 @@
         <v>45822</v>
       </c>
       <c r="J309" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K309" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -12844,7 +12835,7 @@
         <v>0.17</v>
       </c>
       <c r="G310" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H310" s="4">
         <v>45797</v>
@@ -12853,10 +12844,10 @@
         <v>45889</v>
       </c>
       <c r="J310" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K310" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -12885,13 +12876,13 @@
         <v>45418</v>
       </c>
       <c r="I311" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J311" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K311" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -12914,7 +12905,7 @@
         <v>0.67</v>
       </c>
       <c r="G312" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H312" s="4">
         <v>45705</v>
@@ -12923,10 +12914,10 @@
         <v>45712</v>
       </c>
       <c r="J312" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K312" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -12958,10 +12949,10 @@
         <v>45776</v>
       </c>
       <c r="J313" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K313" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -12993,10 +12984,10 @@
         <v>45797</v>
       </c>
       <c r="J314" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K314" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -13025,13 +13016,13 @@
         <v>45574</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J315" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K315" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -13063,10 +13054,10 @@
         <v>45843</v>
       </c>
       <c r="J316" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K316" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -13089,7 +13080,7 @@
         <v>0.17</v>
       </c>
       <c r="G317" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H317" s="4">
         <v>45792</v>
@@ -13098,10 +13089,10 @@
         <v>45915</v>
       </c>
       <c r="J317" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K317" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -13124,7 +13115,7 @@
         <v>0.33</v>
       </c>
       <c r="G318" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H318" s="4">
         <v>45673</v>
@@ -13133,10 +13124,10 @@
         <v>45704</v>
       </c>
       <c r="J318" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K318" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -13168,10 +13159,10 @@
         <v>45780</v>
       </c>
       <c r="J319" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K319" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -13203,10 +13194,10 @@
         <v>45836</v>
       </c>
       <c r="J320" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K320" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -13229,7 +13220,7 @@
         <v>1</v>
       </c>
       <c r="G321" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H321" s="4">
         <v>45812</v>
@@ -13238,10 +13229,10 @@
         <v>45819</v>
       </c>
       <c r="J321" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K321" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -13273,10 +13264,10 @@
         <v>45842</v>
       </c>
       <c r="J322" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K322" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -13299,19 +13290,19 @@
         <v>1</v>
       </c>
       <c r="G323" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H323" s="4">
         <v>45472</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J323" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="K323" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -13343,10 +13334,10 @@
         <v>45841</v>
       </c>
       <c r="J324" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K324" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -13369,7 +13360,7 @@
         <v>0.5</v>
       </c>
       <c r="G325" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H325" s="4">
         <v>45789</v>
@@ -13378,10 +13369,10 @@
         <v>45820</v>
       </c>
       <c r="J325" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K325" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -13410,13 +13401,13 @@
         <v>45435</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J326" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K326" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -13448,10 +13439,10 @@
         <v>45840</v>
       </c>
       <c r="J327" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K327" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -13483,10 +13474,10 @@
         <v>45871</v>
       </c>
       <c r="J328" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K328" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -13515,13 +13506,13 @@
         <v>45601</v>
       </c>
       <c r="I329" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J329" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K329" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -13544,19 +13535,19 @@
         <v>1</v>
       </c>
       <c r="G330" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H330" s="4">
         <v>45595</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J330" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="K330" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -13588,10 +13579,10 @@
         <v>45835</v>
       </c>
       <c r="J331" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K331" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -13620,13 +13611,13 @@
         <v>45491</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J332" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K332" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -13649,7 +13640,7 @@
         <v>0.33</v>
       </c>
       <c r="G333" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H333" s="4">
         <v>45811</v>
@@ -13658,10 +13649,10 @@
         <v>45872</v>
       </c>
       <c r="J333" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K333" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -13690,13 +13681,13 @@
         <v>45558</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J334" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K334" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -13725,13 +13716,13 @@
         <v>45457</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J335" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K335" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -13763,10 +13754,10 @@
         <v>45823</v>
       </c>
       <c r="J336" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K336" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -13798,10 +13789,10 @@
         <v>45701</v>
       </c>
       <c r="J337" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K337" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -13833,10 +13824,10 @@
         <v>45818</v>
       </c>
       <c r="J338" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K338" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -13865,13 +13856,13 @@
         <v>45471</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J339" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K339" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -13903,10 +13894,10 @@
         <v>45805</v>
       </c>
       <c r="J340" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K340" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -13938,10 +13929,10 @@
         <v>45864</v>
       </c>
       <c r="J341" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K341" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -13964,7 +13955,7 @@
         <v>1</v>
       </c>
       <c r="G342" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H342" s="4">
         <v>45776</v>
@@ -13973,10 +13964,10 @@
         <v>45806</v>
       </c>
       <c r="J342" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K342" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -14008,10 +13999,10 @@
         <v>45845</v>
       </c>
       <c r="J343" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K343" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -14043,10 +14034,10 @@
         <v>45821</v>
       </c>
       <c r="J344" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K344" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -14078,10 +14069,10 @@
         <v>45829</v>
       </c>
       <c r="J345" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K345" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -14110,13 +14101,13 @@
         <v>45503</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J346" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K346" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -14148,10 +14139,10 @@
         <v>45819</v>
       </c>
       <c r="J347" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K347" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -14174,7 +14165,7 @@
         <v>0.83</v>
       </c>
       <c r="G348" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H348" s="4">
         <v>45805</v>
@@ -14183,10 +14174,10 @@
         <v>45836</v>
       </c>
       <c r="J348" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K348" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -14218,10 +14209,10 @@
         <v>45871</v>
       </c>
       <c r="J349" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K349" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -14253,10 +14244,10 @@
         <v>45823</v>
       </c>
       <c r="J350" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K350" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -14279,7 +14270,7 @@
         <v>0.33</v>
       </c>
       <c r="G351" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H351" s="4">
         <v>45722</v>
@@ -14288,10 +14279,10 @@
         <v>45753</v>
       </c>
       <c r="J351" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K351" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -14320,13 +14311,13 @@
         <v>45594</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J352" t="s">
         <v>159</v>
       </c>
       <c r="K352" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -14358,10 +14349,10 @@
         <v>45825</v>
       </c>
       <c r="J353" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K353" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -14384,7 +14375,7 @@
         <v>1</v>
       </c>
       <c r="G354" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H354" s="4">
         <v>45806</v>
@@ -14393,10 +14384,10 @@
         <v>45821</v>
       </c>
       <c r="J354" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K354" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -14428,10 +14419,10 @@
         <v>45841</v>
       </c>
       <c r="J355" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K355" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -14463,10 +14454,10 @@
         <v>45853</v>
       </c>
       <c r="J356" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K356" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -14498,10 +14489,10 @@
         <v>45820</v>
       </c>
       <c r="J357" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K357" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -14533,10 +14524,10 @@
         <v>45819</v>
       </c>
       <c r="J358" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K358" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -14568,10 +14559,10 @@
         <v>45824</v>
       </c>
       <c r="J359" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K359" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -14603,10 +14594,10 @@
         <v>45789</v>
       </c>
       <c r="J360" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K360" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -14629,7 +14620,7 @@
         <v>0.5</v>
       </c>
       <c r="G361" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H361" s="4">
         <v>45810</v>
@@ -14638,10 +14629,10 @@
         <v>45871</v>
       </c>
       <c r="J361" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K361" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -14658,7 +14649,7 @@
         <v>0.67</v>
       </c>
       <c r="E362">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F362" s="1">
         <v>0.67</v>
@@ -14667,16 +14658,16 @@
         <v>11</v>
       </c>
       <c r="H362" s="4">
-        <v>45811</v>
+        <v>45817</v>
       </c>
       <c r="I362" s="4">
-        <v>45818</v>
+        <v>45824</v>
       </c>
       <c r="J362" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K362" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -14708,10 +14699,10 @@
         <v>45821</v>
       </c>
       <c r="J363" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K363" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -14743,10 +14734,10 @@
         <v>45853</v>
       </c>
       <c r="J364" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K364" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -14769,7 +14760,7 @@
         <v>0.83</v>
       </c>
       <c r="G365" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H365" s="4">
         <v>45804</v>
@@ -14778,10 +14769,10 @@
         <v>45819</v>
       </c>
       <c r="J365" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K365" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -14813,10 +14804,10 @@
         <v>45761</v>
       </c>
       <c r="J366" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K366" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -14848,10 +14839,10 @@
         <v>45837</v>
       </c>
       <c r="J367" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K367" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -14883,10 +14874,10 @@
         <v>45840</v>
       </c>
       <c r="J368" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K368" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -14909,19 +14900,19 @@
         <v>0.33</v>
       </c>
       <c r="G369" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H369" s="4">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="I369" s="4">
-        <v>45871</v>
+        <v>45878</v>
       </c>
       <c r="J369" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K369" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -14929,34 +14920,34 @@
         <v>41650084</v>
       </c>
       <c r="B370" s="1">
-        <v>0.58</v>
+        <v>0.67</v>
       </c>
       <c r="C370" s="1">
         <v>0.5</v>
       </c>
       <c r="D370" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="E370">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F370" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="G370" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H370" s="4">
-        <v>45805</v>
+        <v>45817</v>
       </c>
       <c r="I370" s="4">
-        <v>45836</v>
+        <v>45847</v>
       </c>
       <c r="J370" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K370" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -14979,7 +14970,7 @@
         <v>0.83</v>
       </c>
       <c r="G371" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H371" s="4">
         <v>45792</v>
@@ -14988,10 +14979,10 @@
         <v>45799</v>
       </c>
       <c r="J371" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K371" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -15023,10 +15014,10 @@
         <v>45771</v>
       </c>
       <c r="J372" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K372" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -15058,10 +15049,10 @@
         <v>45791</v>
       </c>
       <c r="J373" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K373" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -15084,7 +15075,7 @@
         <v>0.83</v>
       </c>
       <c r="G374" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H374" s="4">
         <v>45814</v>
@@ -15093,10 +15084,10 @@
         <v>45829</v>
       </c>
       <c r="J374" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K374" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -15128,10 +15119,10 @@
         <v>45736</v>
       </c>
       <c r="J375" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K375" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -15163,10 +15154,10 @@
         <v>45835</v>
       </c>
       <c r="J376" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K376" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -15189,7 +15180,7 @@
         <v>0.33</v>
       </c>
       <c r="G377" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H377" s="4">
         <v>45695</v>
@@ -15198,10 +15189,10 @@
         <v>45754</v>
       </c>
       <c r="J377" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K377" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -15224,7 +15215,7 @@
         <v>1</v>
       </c>
       <c r="G378" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H378" s="4">
         <v>45806</v>
@@ -15233,10 +15224,10 @@
         <v>45821</v>
       </c>
       <c r="J378" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K378" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -15259,7 +15250,7 @@
         <v>1</v>
       </c>
       <c r="G379" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H379" s="4">
         <v>45803</v>
@@ -15268,10 +15259,10 @@
         <v>45834</v>
       </c>
       <c r="J379" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K379" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -15294,7 +15285,7 @@
         <v>0.67</v>
       </c>
       <c r="G380" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H380" s="4">
         <v>45672</v>
@@ -15303,10 +15294,10 @@
         <v>45687</v>
       </c>
       <c r="J380" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K380" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -15338,10 +15329,10 @@
         <v>45794</v>
       </c>
       <c r="J381" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K381" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -15349,34 +15340,34 @@
         <v>41997778</v>
       </c>
       <c r="B382" s="1">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="C382" s="1">
         <v>0.33</v>
       </c>
       <c r="D382" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E382">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F382" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G382" t="s">
         <v>12</v>
       </c>
       <c r="H382" s="4">
-        <v>45789</v>
+        <v>45817</v>
       </c>
       <c r="I382" s="4">
-        <v>45850</v>
+        <v>45878</v>
       </c>
       <c r="J382" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K382" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -15399,7 +15390,7 @@
         <v>0.83</v>
       </c>
       <c r="G383" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H383" s="4">
         <v>45810</v>
@@ -15408,10 +15399,10 @@
         <v>45817</v>
       </c>
       <c r="J383" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K383" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -15443,10 +15434,10 @@
         <v>45817</v>
       </c>
       <c r="J384" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K384" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -15478,10 +15469,10 @@
         <v>45721</v>
       </c>
       <c r="J385" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K385" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -15513,10 +15504,10 @@
         <v>45768</v>
       </c>
       <c r="J386" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K386" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -15539,7 +15530,7 @@
         <v>0.83</v>
       </c>
       <c r="G387" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H387" s="4">
         <v>45814</v>
@@ -15548,10 +15539,10 @@
         <v>45821</v>
       </c>
       <c r="J387" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K387" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -15583,10 +15574,10 @@
         <v>45858</v>
       </c>
       <c r="J388" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K388" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -15609,7 +15600,7 @@
         <v>1</v>
       </c>
       <c r="G389" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H389" s="4">
         <v>45807</v>
@@ -15618,10 +15609,10 @@
         <v>45822</v>
       </c>
       <c r="J389" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K389" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -15653,10 +15644,10 @@
         <v>45761</v>
       </c>
       <c r="J390" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K390" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -15679,7 +15670,7 @@
         <v>0.33</v>
       </c>
       <c r="G391" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H391" s="4">
         <v>45807</v>
@@ -15688,10 +15679,10 @@
         <v>45868</v>
       </c>
       <c r="J391" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K391" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -15723,10 +15714,10 @@
         <v>45817</v>
       </c>
       <c r="J392" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K392" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -15749,7 +15740,7 @@
         <v>0.33</v>
       </c>
       <c r="G393" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H393" s="4">
         <v>45803</v>
@@ -15758,10 +15749,10 @@
         <v>45818</v>
       </c>
       <c r="J393" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K393" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -15784,7 +15775,7 @@
         <v>0.83</v>
       </c>
       <c r="G394" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H394" s="4">
         <v>45681</v>
@@ -15793,10 +15784,10 @@
         <v>45712</v>
       </c>
       <c r="J394" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K394" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -15828,10 +15819,10 @@
         <v>45845</v>
       </c>
       <c r="J395" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K395" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -15863,10 +15854,10 @@
         <v>45825</v>
       </c>
       <c r="J396" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K396" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -15898,10 +15889,10 @@
         <v>45820</v>
       </c>
       <c r="J397" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K397" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -15933,10 +15924,10 @@
         <v>45831</v>
       </c>
       <c r="J398" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K398" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -15968,10 +15959,10 @@
         <v>45781</v>
       </c>
       <c r="J399" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K399" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -16003,10 +15994,10 @@
         <v>45814</v>
       </c>
       <c r="J400" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K400" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -16038,10 +16029,10 @@
         <v>45836</v>
       </c>
       <c r="J401" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K401" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -16064,19 +16055,19 @@
         <v>1</v>
       </c>
       <c r="G402" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H402" s="4">
         <v>45566</v>
       </c>
       <c r="I402" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J402" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K402" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -16093,7 +16084,7 @@
         <v>0.83</v>
       </c>
       <c r="E403">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F403" s="1">
         <v>0.83</v>
@@ -16102,16 +16093,16 @@
         <v>11</v>
       </c>
       <c r="H403" s="4">
-        <v>45811</v>
+        <v>45817</v>
       </c>
       <c r="I403" s="4">
-        <v>45818</v>
+        <v>45824</v>
       </c>
       <c r="J403" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K403" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -16143,10 +16134,10 @@
         <v>45850</v>
       </c>
       <c r="J404" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K404" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -16154,16 +16145,16 @@
         <v>44116467</v>
       </c>
       <c r="B405" s="1">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="C405" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="D405" s="1">
         <v>1</v>
       </c>
       <c r="E405">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F405" s="1">
         <v>1</v>
@@ -16172,16 +16163,16 @@
         <v>18</v>
       </c>
       <c r="H405" s="4">
-        <v>45800</v>
+        <v>45817</v>
       </c>
       <c r="I405" s="4">
-        <v>45815</v>
+        <v>45832</v>
       </c>
       <c r="J405" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K405" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -16213,10 +16204,10 @@
         <v>45822</v>
       </c>
       <c r="J406" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K406" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -16239,7 +16230,7 @@
         <v>0.5</v>
       </c>
       <c r="G407" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H407" s="4">
         <v>45792</v>
@@ -16248,10 +16239,10 @@
         <v>45823</v>
       </c>
       <c r="J407" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K407" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -16274,7 +16265,7 @@
         <v>0.5</v>
       </c>
       <c r="G408" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H408" s="4">
         <v>45750</v>
@@ -16283,10 +16274,10 @@
         <v>45765</v>
       </c>
       <c r="J408" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K408" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -16309,7 +16300,7 @@
         <v>1</v>
       </c>
       <c r="G409" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H409" s="4">
         <v>45803</v>
@@ -16318,10 +16309,10 @@
         <v>45818</v>
       </c>
       <c r="J409" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K409" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -16344,7 +16335,7 @@
         <v>0.83</v>
       </c>
       <c r="G410" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H410" s="4">
         <v>45811</v>
@@ -16353,10 +16344,10 @@
         <v>45826</v>
       </c>
       <c r="J410" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K410" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -16388,10 +16379,10 @@
         <v>45873</v>
       </c>
       <c r="J411" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K411" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -16414,7 +16405,7 @@
         <v>0.83</v>
       </c>
       <c r="G412" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H412" s="4">
         <v>45803</v>
@@ -16423,10 +16414,10 @@
         <v>45818</v>
       </c>
       <c r="J412" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K412" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -16458,10 +16449,10 @@
         <v>45836</v>
       </c>
       <c r="J413" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K413" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -16493,10 +16484,10 @@
         <v>45838</v>
       </c>
       <c r="J414" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K414" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -16519,7 +16510,7 @@
         <v>0.75</v>
       </c>
       <c r="G415" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H415" s="4">
         <v>45666</v>
@@ -16528,10 +16519,10 @@
         <v>45673</v>
       </c>
       <c r="J415" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K415" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -16539,34 +16530,34 @@
         <v>47345090</v>
       </c>
       <c r="B416" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C416" s="1">
         <v>0.17</v>
       </c>
       <c r="D416" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="E416">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F416" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="G416" t="s">
         <v>13</v>
       </c>
       <c r="H416" s="4">
-        <v>45782</v>
+        <v>45817</v>
       </c>
       <c r="I416" s="4">
-        <v>45813</v>
+        <v>45847</v>
       </c>
       <c r="J416" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K416" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -16598,10 +16589,10 @@
         <v>45851</v>
       </c>
       <c r="J417" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K417" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="418" spans="1:11">
@@ -16609,34 +16600,34 @@
         <v>47493967</v>
       </c>
       <c r="B418" s="1">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="C418" s="1">
         <v>0.33</v>
       </c>
       <c r="D418" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="E418">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F418" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G418" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H418" s="4">
-        <v>45805</v>
+        <v>45817</v>
       </c>
       <c r="I418" s="4">
-        <v>45836</v>
+        <v>45847</v>
       </c>
       <c r="J418" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K418" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="419" spans="1:11">
@@ -16659,7 +16650,7 @@
         <v>0.8</v>
       </c>
       <c r="G419" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H419" s="4">
         <v>45770</v>
@@ -16668,10 +16659,10 @@
         <v>45785</v>
       </c>
       <c r="J419" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K419" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="420" spans="1:11">
@@ -16694,7 +16685,7 @@
         <v>0.8</v>
       </c>
       <c r="G420" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H420" s="4">
         <v>45803</v>
@@ -16703,10 +16694,10 @@
         <v>45834</v>
       </c>
       <c r="J420" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K420" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="421" spans="1:11">
@@ -16738,10 +16729,10 @@
         <v>45818</v>
       </c>
       <c r="J421" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K421" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="422" spans="1:11">
@@ -16764,7 +16755,7 @@
         <v>1</v>
       </c>
       <c r="G422" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H422" s="4">
         <v>45797</v>
@@ -16773,10 +16764,10 @@
         <v>45812</v>
       </c>
       <c r="J422" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K422" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="423" spans="1:11">
@@ -16799,7 +16790,7 @@
         <v>1</v>
       </c>
       <c r="G423" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H423" s="4">
         <v>45807</v>
@@ -16808,10 +16799,10 @@
         <v>45814</v>
       </c>
       <c r="J423" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K423" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="424" spans="1:11">
@@ -16834,7 +16825,7 @@
         <v>1</v>
       </c>
       <c r="G424" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H424" s="4">
         <v>45791</v>
@@ -16843,10 +16834,10 @@
         <v>45806</v>
       </c>
       <c r="J424" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K424" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="425" spans="1:11">
@@ -16869,7 +16860,7 @@
         <v>1</v>
       </c>
       <c r="G425" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H425" s="4">
         <v>45814</v>
@@ -16878,10 +16869,10 @@
         <v>45821</v>
       </c>
       <c r="J425" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K425" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
+++ b/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="527">
   <si>
     <t>id_cliente</t>
   </si>
@@ -187,10 +187,10 @@
     <t>INATIVO - 45.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 45.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.7 meses sem comprar</t>
+    <t>INATIVO - 45.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 39.2 meses sem comprar</t>
@@ -199,10 +199,10 @@
     <t>INATIVO - 42.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 49.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.6 meses sem comprar</t>
+    <t>INATIVO - 50.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 39.7 meses sem comprar</t>
@@ -211,9 +211,6 @@
     <t>INATIVO - 48.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 45.3 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 48.7 meses sem comprar</t>
   </si>
   <si>
@@ -229,10 +226,10 @@
     <t>INATIVO - 0.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.5 meses sem comprar</t>
+    <t>INATIVO - 18.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 44.8 meses sem comprar</t>
@@ -247,55 +244,58 @@
     <t>INATIVO - 11.9 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 8.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.0 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 7.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 28.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 7.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.7 meses sem comprar</t>
+    <t>INATIVO - 15.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 16.3 meses sem comprar</t>
@@ -313,7 +313,7 @@
     <t>INATIVO - 42.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.1 meses sem comprar</t>
+    <t>INATIVO - 18.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 26.4 meses sem comprar</t>
@@ -322,7 +322,7 @@
     <t>INATIVO - 20.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.0 meses sem comprar</t>
+    <t>INATIVO - 38.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 15.2 meses sem comprar</t>
@@ -334,7 +334,10 @@
     <t>INATIVO - 40.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 35.2 meses sem comprar</t>
+    <t>INATIVO - 35.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 1.2 meses sem comprar</t>
@@ -346,16 +349,19 @@
     <t>INATIVO - 25.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 26.6 meses sem comprar</t>
+    <t>INATIVO - 26.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 10.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 27.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.9 meses sem comprar</t>
+    <t>INATIVO - 38.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.6 meses sem comprar</t>
@@ -364,22 +370,19 @@
     <t>INATIVO - 8.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 33.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.5 meses sem comprar</t>
+    <t>INATIVO - 40.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 19.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 34.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.0 meses sem comprar</t>
+    <t>INATIVO - 34.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 9.6 meses sem comprar</t>
@@ -388,75 +391,72 @@
     <t>INATIVO - 25.9 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 13.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.2 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 13.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.2 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 13.9 meses sem comprar</t>
   </si>
   <si>
@@ -469,19 +469,16 @@
     <t>INATIVO - 9.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 11.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.5 meses sem comprar</t>
+    <t>INATIVO - 8.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 12.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
+    <t>INATIVO - 7.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 10.9 meses sem comprar</t>
@@ -491,9 +488,6 @@
   </si>
   <si>
     <t>INATIVO - 10.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 8.4 meses sem comprar</t>
@@ -2067,7 +2061,7 @@
         <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2102,7 +2096,7 @@
         <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2137,7 +2131,7 @@
         <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2172,7 +2166,7 @@
         <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2207,7 +2201,7 @@
         <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2242,7 +2236,7 @@
         <v>57</v>
       </c>
       <c r="K7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2277,7 +2271,7 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2312,7 +2306,7 @@
         <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2347,7 +2341,7 @@
         <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2382,7 +2376,7 @@
         <v>61</v>
       </c>
       <c r="K11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2417,7 +2411,7 @@
         <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2452,7 +2446,7 @@
         <v>62</v>
       </c>
       <c r="K13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2487,7 +2481,7 @@
         <v>63</v>
       </c>
       <c r="K14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2522,7 +2516,7 @@
         <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2557,7 +2551,7 @@
         <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2589,10 +2583,10 @@
         <v>53</v>
       </c>
       <c r="J17" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2627,7 +2621,7 @@
         <v>54</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2659,10 +2653,10 @@
         <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2694,10 +2688,10 @@
         <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2729,10 +2723,10 @@
         <v>53</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2764,10 +2758,10 @@
         <v>53</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2799,10 +2793,10 @@
         <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2834,10 +2828,10 @@
         <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2869,10 +2863,10 @@
         <v>53</v>
       </c>
       <c r="J25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2907,7 +2901,7 @@
         <v>54</v>
       </c>
       <c r="K26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2939,10 +2933,10 @@
         <v>53</v>
       </c>
       <c r="J27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2974,10 +2968,10 @@
         <v>53</v>
       </c>
       <c r="J28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3012,7 +3006,7 @@
         <v>54</v>
       </c>
       <c r="K29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3044,10 +3038,10 @@
         <v>53</v>
       </c>
       <c r="J30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3082,7 +3076,7 @@
         <v>54</v>
       </c>
       <c r="K31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3117,7 +3111,7 @@
         <v>54</v>
       </c>
       <c r="K32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3152,7 +3146,7 @@
         <v>54</v>
       </c>
       <c r="K33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3187,7 +3181,7 @@
         <v>54</v>
       </c>
       <c r="K34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3219,10 +3213,10 @@
         <v>53</v>
       </c>
       <c r="J35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3254,10 +3248,10 @@
         <v>53</v>
       </c>
       <c r="J36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3289,10 +3283,10 @@
         <v>53</v>
       </c>
       <c r="J37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3327,7 +3321,7 @@
         <v>63</v>
       </c>
       <c r="K38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3362,7 +3356,7 @@
         <v>54</v>
       </c>
       <c r="K39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3397,7 +3391,7 @@
         <v>54</v>
       </c>
       <c r="K40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3432,7 +3426,7 @@
         <v>54</v>
       </c>
       <c r="K41" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3464,10 +3458,10 @@
         <v>53</v>
       </c>
       <c r="J42" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3502,7 +3496,7 @@
         <v>79</v>
       </c>
       <c r="K43" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3537,7 +3531,7 @@
         <v>54</v>
       </c>
       <c r="K44" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3572,7 +3566,7 @@
         <v>80</v>
       </c>
       <c r="K45" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3607,7 +3601,7 @@
         <v>54</v>
       </c>
       <c r="K46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3642,7 +3636,7 @@
         <v>81</v>
       </c>
       <c r="K47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3677,7 +3671,7 @@
         <v>54</v>
       </c>
       <c r="K48" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3712,7 +3706,7 @@
         <v>54</v>
       </c>
       <c r="K49" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3747,7 +3741,7 @@
         <v>54</v>
       </c>
       <c r="K50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3755,34 +3749,34 @@
         <v>3426766</v>
       </c>
       <c r="B51" s="1">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
       </c>
       <c r="D51" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E51">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F51" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
       </c>
       <c r="H51" s="4">
-        <v>45786</v>
+        <v>45817</v>
       </c>
       <c r="I51" s="4">
-        <v>45847</v>
+        <v>45878</v>
       </c>
       <c r="J51" t="s">
         <v>54</v>
       </c>
       <c r="K51" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3817,7 +3811,7 @@
         <v>82</v>
       </c>
       <c r="K52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3852,7 +3846,7 @@
         <v>54</v>
       </c>
       <c r="K53" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3887,7 +3881,7 @@
         <v>54</v>
       </c>
       <c r="K54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3922,7 +3916,7 @@
         <v>83</v>
       </c>
       <c r="K55" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3957,7 +3951,7 @@
         <v>84</v>
       </c>
       <c r="K56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3992,7 +3986,7 @@
         <v>54</v>
       </c>
       <c r="K57" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -4027,7 +4021,7 @@
         <v>85</v>
       </c>
       <c r="K58" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4062,7 +4056,7 @@
         <v>86</v>
       </c>
       <c r="K59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4097,7 +4091,7 @@
         <v>87</v>
       </c>
       <c r="K60" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4132,7 +4126,7 @@
         <v>88</v>
       </c>
       <c r="K61" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4167,7 +4161,7 @@
         <v>88</v>
       </c>
       <c r="K62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4202,7 +4196,7 @@
         <v>87</v>
       </c>
       <c r="K63" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4237,7 +4231,7 @@
         <v>88</v>
       </c>
       <c r="K64" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4272,7 +4266,7 @@
         <v>88</v>
       </c>
       <c r="K65" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4307,7 +4301,7 @@
         <v>88</v>
       </c>
       <c r="K66" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4342,7 +4336,7 @@
         <v>89</v>
       </c>
       <c r="K67" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4377,7 +4371,7 @@
         <v>90</v>
       </c>
       <c r="K68" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4412,7 +4406,7 @@
         <v>88</v>
       </c>
       <c r="K69" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4447,7 +4441,7 @@
         <v>54</v>
       </c>
       <c r="K70" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4482,7 +4476,7 @@
         <v>91</v>
       </c>
       <c r="K71" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4517,7 +4511,7 @@
         <v>54</v>
       </c>
       <c r="K72" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4552,7 +4546,7 @@
         <v>87</v>
       </c>
       <c r="K73" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4587,7 +4581,7 @@
         <v>86</v>
       </c>
       <c r="K74" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4622,7 +4616,7 @@
         <v>91</v>
       </c>
       <c r="K75" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4657,7 +4651,7 @@
         <v>54</v>
       </c>
       <c r="K76" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4692,7 +4686,7 @@
         <v>54</v>
       </c>
       <c r="K77" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4727,7 +4721,7 @@
         <v>54</v>
       </c>
       <c r="K78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4762,7 +4756,7 @@
         <v>88</v>
       </c>
       <c r="K79" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4797,7 +4791,7 @@
         <v>92</v>
       </c>
       <c r="K80" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4832,7 +4826,7 @@
         <v>54</v>
       </c>
       <c r="K81" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4867,7 +4861,7 @@
         <v>93</v>
       </c>
       <c r="K82" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4902,7 +4896,7 @@
         <v>54</v>
       </c>
       <c r="K83" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4937,7 +4931,7 @@
         <v>54</v>
       </c>
       <c r="K84" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4972,7 +4966,7 @@
         <v>94</v>
       </c>
       <c r="K85" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -5007,7 +5001,7 @@
         <v>54</v>
       </c>
       <c r="K86" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5039,10 +5033,10 @@
         <v>53</v>
       </c>
       <c r="J87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K87" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -5077,7 +5071,7 @@
         <v>54</v>
       </c>
       <c r="K88" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5112,7 +5106,7 @@
         <v>95</v>
       </c>
       <c r="K89" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5147,7 +5141,7 @@
         <v>96</v>
       </c>
       <c r="K90" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5164,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F91" s="1">
         <v>1</v>
@@ -5173,16 +5167,16 @@
         <v>11</v>
       </c>
       <c r="H91" s="4">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="I91" s="4">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="J91" t="s">
         <v>54</v>
       </c>
       <c r="K91" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5217,7 +5211,7 @@
         <v>97</v>
       </c>
       <c r="K92" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5252,7 +5246,7 @@
         <v>98</v>
       </c>
       <c r="K93" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5287,7 +5281,7 @@
         <v>86</v>
       </c>
       <c r="K94" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5322,7 +5316,7 @@
         <v>54</v>
       </c>
       <c r="K95" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5357,7 +5351,7 @@
         <v>99</v>
       </c>
       <c r="K96" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5392,7 +5386,7 @@
         <v>54</v>
       </c>
       <c r="K97" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5427,7 +5421,7 @@
         <v>54</v>
       </c>
       <c r="K98" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5462,7 +5456,7 @@
         <v>100</v>
       </c>
       <c r="K99" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5497,7 +5491,7 @@
         <v>54</v>
       </c>
       <c r="K100" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5532,7 +5526,7 @@
         <v>63</v>
       </c>
       <c r="K101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5567,7 +5561,7 @@
         <v>101</v>
       </c>
       <c r="K102" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5602,7 +5596,7 @@
         <v>54</v>
       </c>
       <c r="K103" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5637,7 +5631,7 @@
         <v>102</v>
       </c>
       <c r="K104" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5672,7 +5666,7 @@
         <v>54</v>
       </c>
       <c r="K105" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5707,7 +5701,7 @@
         <v>54</v>
       </c>
       <c r="K106" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5742,7 +5736,7 @@
         <v>103</v>
       </c>
       <c r="K107" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5777,7 +5771,7 @@
         <v>104</v>
       </c>
       <c r="K108" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5812,7 +5806,7 @@
         <v>54</v>
       </c>
       <c r="K109" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5847,7 +5841,7 @@
         <v>105</v>
       </c>
       <c r="K110" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5882,7 +5876,7 @@
         <v>106</v>
       </c>
       <c r="K111" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5914,10 +5908,10 @@
         <v>53</v>
       </c>
       <c r="J112" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="K112" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5952,7 +5946,7 @@
         <v>54</v>
       </c>
       <c r="K113" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5987,7 +5981,7 @@
         <v>62</v>
       </c>
       <c r="K114" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -6019,10 +6013,10 @@
         <v>53</v>
       </c>
       <c r="J115" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K115" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6054,10 +6048,10 @@
         <v>53</v>
       </c>
       <c r="J116" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K116" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -6089,10 +6083,10 @@
         <v>53</v>
       </c>
       <c r="J117" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K117" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6124,10 +6118,10 @@
         <v>53</v>
       </c>
       <c r="J118" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K118" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6162,7 +6156,7 @@
         <v>93</v>
       </c>
       <c r="K119" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6194,10 +6188,10 @@
         <v>53</v>
       </c>
       <c r="J120" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K120" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6232,7 +6226,7 @@
         <v>54</v>
       </c>
       <c r="K121" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6264,10 +6258,10 @@
         <v>53</v>
       </c>
       <c r="J122" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K122" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6302,7 +6296,7 @@
         <v>54</v>
       </c>
       <c r="K123" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6337,7 +6331,7 @@
         <v>54</v>
       </c>
       <c r="K124" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6369,10 +6363,10 @@
         <v>53</v>
       </c>
       <c r="J125" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="K125" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6404,10 +6398,10 @@
         <v>53</v>
       </c>
       <c r="J126" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="K126" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6442,7 +6436,7 @@
         <v>54</v>
       </c>
       <c r="K127" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6477,7 +6471,7 @@
         <v>54</v>
       </c>
       <c r="K128" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6509,10 +6503,10 @@
         <v>53</v>
       </c>
       <c r="J129" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K129" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6544,10 +6538,10 @@
         <v>53</v>
       </c>
       <c r="J130" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K130" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6582,7 +6576,7 @@
         <v>54</v>
       </c>
       <c r="K131" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6614,10 +6608,10 @@
         <v>53</v>
       </c>
       <c r="J132" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K132" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6652,7 +6646,7 @@
         <v>54</v>
       </c>
       <c r="K133" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6687,7 +6681,7 @@
         <v>54</v>
       </c>
       <c r="K134" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -6722,7 +6716,7 @@
         <v>54</v>
       </c>
       <c r="K135" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -6754,10 +6748,10 @@
         <v>53</v>
       </c>
       <c r="J136" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K136" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6789,10 +6783,10 @@
         <v>53</v>
       </c>
       <c r="J137" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="K137" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6827,7 +6821,7 @@
         <v>54</v>
       </c>
       <c r="K138" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6859,10 +6853,10 @@
         <v>53</v>
       </c>
       <c r="J139" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K139" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6894,10 +6888,10 @@
         <v>53</v>
       </c>
       <c r="J140" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K140" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6929,10 +6923,10 @@
         <v>53</v>
       </c>
       <c r="J141" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K141" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6964,10 +6958,10 @@
         <v>53</v>
       </c>
       <c r="J142" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K142" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -7002,7 +6996,7 @@
         <v>54</v>
       </c>
       <c r="K143" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -7034,10 +7028,10 @@
         <v>53</v>
       </c>
       <c r="J144" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K144" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -7072,7 +7066,7 @@
         <v>54</v>
       </c>
       <c r="K145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -7107,7 +7101,7 @@
         <v>54</v>
       </c>
       <c r="K146" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7139,10 +7133,10 @@
         <v>53</v>
       </c>
       <c r="J147" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K147" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7177,7 +7171,7 @@
         <v>54</v>
       </c>
       <c r="K148" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7212,7 +7206,7 @@
         <v>54</v>
       </c>
       <c r="K149" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7247,7 +7241,7 @@
         <v>54</v>
       </c>
       <c r="K150" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7282,7 +7276,7 @@
         <v>54</v>
       </c>
       <c r="K151" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7317,7 +7311,7 @@
         <v>54</v>
       </c>
       <c r="K152" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7352,7 +7346,7 @@
         <v>93</v>
       </c>
       <c r="K153" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7387,7 +7381,7 @@
         <v>54</v>
       </c>
       <c r="K154" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7422,7 +7416,7 @@
         <v>54</v>
       </c>
       <c r="K155" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7454,10 +7448,10 @@
         <v>53</v>
       </c>
       <c r="J156" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K156" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -7492,7 +7486,7 @@
         <v>54</v>
       </c>
       <c r="K157" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -7527,7 +7521,7 @@
         <v>54</v>
       </c>
       <c r="K158" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -7562,7 +7556,7 @@
         <v>54</v>
       </c>
       <c r="K159" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -7597,7 +7591,7 @@
         <v>54</v>
       </c>
       <c r="K160" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -7632,7 +7626,7 @@
         <v>54</v>
       </c>
       <c r="K161" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7667,7 +7661,7 @@
         <v>54</v>
       </c>
       <c r="K162" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7702,7 +7696,7 @@
         <v>54</v>
       </c>
       <c r="K163" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -7734,10 +7728,10 @@
         <v>53</v>
       </c>
       <c r="J164" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K164" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7769,10 +7763,10 @@
         <v>53</v>
       </c>
       <c r="J165" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K165" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7807,7 +7801,7 @@
         <v>54</v>
       </c>
       <c r="K166" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7839,10 +7833,10 @@
         <v>53</v>
       </c>
       <c r="J167" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K167" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -7874,10 +7868,10 @@
         <v>53</v>
       </c>
       <c r="J168" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K168" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7912,7 +7906,7 @@
         <v>54</v>
       </c>
       <c r="K169" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -7947,7 +7941,7 @@
         <v>54</v>
       </c>
       <c r="K170" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7982,7 +7976,7 @@
         <v>54</v>
       </c>
       <c r="K171" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -8017,7 +8011,7 @@
         <v>54</v>
       </c>
       <c r="K172" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -8052,7 +8046,7 @@
         <v>54</v>
       </c>
       <c r="K173" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -8087,7 +8081,7 @@
         <v>54</v>
       </c>
       <c r="K174" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -8119,10 +8113,10 @@
         <v>53</v>
       </c>
       <c r="J175" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K175" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -8157,7 +8151,7 @@
         <v>54</v>
       </c>
       <c r="K176" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -8192,7 +8186,7 @@
         <v>54</v>
       </c>
       <c r="K177" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -8227,7 +8221,7 @@
         <v>54</v>
       </c>
       <c r="K178" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -8262,7 +8256,7 @@
         <v>54</v>
       </c>
       <c r="K179" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -8297,7 +8291,7 @@
         <v>54</v>
       </c>
       <c r="K180" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -8332,7 +8326,7 @@
         <v>54</v>
       </c>
       <c r="K181" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -8367,7 +8361,7 @@
         <v>54</v>
       </c>
       <c r="K182" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -8402,7 +8396,7 @@
         <v>54</v>
       </c>
       <c r="K183" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -8434,10 +8428,10 @@
         <v>53</v>
       </c>
       <c r="J184" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K184" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -8472,7 +8466,7 @@
         <v>54</v>
       </c>
       <c r="K185" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -8507,7 +8501,7 @@
         <v>54</v>
       </c>
       <c r="K186" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -8542,7 +8536,7 @@
         <v>54</v>
       </c>
       <c r="K187" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -8577,7 +8571,7 @@
         <v>54</v>
       </c>
       <c r="K188" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -8612,7 +8606,7 @@
         <v>54</v>
       </c>
       <c r="K189" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -8644,10 +8638,10 @@
         <v>53</v>
       </c>
       <c r="J190" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K190" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -8679,10 +8673,10 @@
         <v>53</v>
       </c>
       <c r="J191" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K191" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -8714,10 +8708,10 @@
         <v>53</v>
       </c>
       <c r="J192" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K192" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -8752,7 +8746,7 @@
         <v>54</v>
       </c>
       <c r="K193" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -8787,7 +8781,7 @@
         <v>54</v>
       </c>
       <c r="K194" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8822,7 +8816,7 @@
         <v>54</v>
       </c>
       <c r="K195" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -8857,7 +8851,7 @@
         <v>54</v>
       </c>
       <c r="K196" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -8892,7 +8886,7 @@
         <v>54</v>
       </c>
       <c r="K197" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -8927,7 +8921,7 @@
         <v>83</v>
       </c>
       <c r="K198" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -8962,7 +8956,7 @@
         <v>54</v>
       </c>
       <c r="K199" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -8997,7 +8991,7 @@
         <v>54</v>
       </c>
       <c r="K200" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -9032,7 +9026,7 @@
         <v>54</v>
       </c>
       <c r="K201" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -9064,10 +9058,10 @@
         <v>53</v>
       </c>
       <c r="J202" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K202" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -9102,7 +9096,7 @@
         <v>54</v>
       </c>
       <c r="K203" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -9137,7 +9131,7 @@
         <v>54</v>
       </c>
       <c r="K204" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -9172,7 +9166,7 @@
         <v>54</v>
       </c>
       <c r="K205" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -9207,7 +9201,7 @@
         <v>54</v>
       </c>
       <c r="K206" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -9242,7 +9236,7 @@
         <v>54</v>
       </c>
       <c r="K207" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -9274,10 +9268,10 @@
         <v>53</v>
       </c>
       <c r="J208" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K208" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -9312,7 +9306,7 @@
         <v>54</v>
       </c>
       <c r="K209" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -9347,7 +9341,7 @@
         <v>54</v>
       </c>
       <c r="K210" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -9382,7 +9376,7 @@
         <v>54</v>
       </c>
       <c r="K211" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -9417,7 +9411,7 @@
         <v>54</v>
       </c>
       <c r="K212" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -9425,16 +9419,16 @@
         <v>6174341</v>
       </c>
       <c r="B213" s="1">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="C213" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="D213" s="1">
         <v>1</v>
       </c>
       <c r="E213">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F213" s="1">
         <v>1</v>
@@ -9443,16 +9437,16 @@
         <v>13</v>
       </c>
       <c r="H213" s="4">
-        <v>45796</v>
+        <v>45818</v>
       </c>
       <c r="I213" s="4">
-        <v>45827</v>
+        <v>45848</v>
       </c>
       <c r="J213" t="s">
         <v>54</v>
       </c>
       <c r="K213" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -9487,7 +9481,7 @@
         <v>54</v>
       </c>
       <c r="K214" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -9522,7 +9516,7 @@
         <v>54</v>
       </c>
       <c r="K215" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -9557,7 +9551,7 @@
         <v>54</v>
       </c>
       <c r="K216" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -9589,10 +9583,10 @@
         <v>53</v>
       </c>
       <c r="J217" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K217" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -9627,7 +9621,7 @@
         <v>54</v>
       </c>
       <c r="K218" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -9659,10 +9653,10 @@
         <v>53</v>
       </c>
       <c r="J219" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K219" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -9697,7 +9691,7 @@
         <v>54</v>
       </c>
       <c r="K220" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -9732,7 +9726,7 @@
         <v>54</v>
       </c>
       <c r="K221" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -9767,7 +9761,7 @@
         <v>54</v>
       </c>
       <c r="K222" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -9802,7 +9796,7 @@
         <v>54</v>
       </c>
       <c r="K223" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -9837,7 +9831,7 @@
         <v>54</v>
       </c>
       <c r="K224" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -9872,7 +9866,7 @@
         <v>54</v>
       </c>
       <c r="K225" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -9907,7 +9901,7 @@
         <v>54</v>
       </c>
       <c r="K226" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -9942,7 +9936,7 @@
         <v>54</v>
       </c>
       <c r="K227" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -9977,7 +9971,7 @@
         <v>54</v>
       </c>
       <c r="K228" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -10009,10 +10003,10 @@
         <v>53</v>
       </c>
       <c r="J229" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K229" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -10047,7 +10041,7 @@
         <v>54</v>
       </c>
       <c r="K230" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -10082,7 +10076,7 @@
         <v>54</v>
       </c>
       <c r="K231" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -10114,10 +10108,10 @@
         <v>53</v>
       </c>
       <c r="J232" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K232" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -10152,7 +10146,7 @@
         <v>54</v>
       </c>
       <c r="K233" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -10187,7 +10181,7 @@
         <v>54</v>
       </c>
       <c r="K234" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -10222,7 +10216,7 @@
         <v>54</v>
       </c>
       <c r="K235" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -10254,10 +10248,10 @@
         <v>53</v>
       </c>
       <c r="J236" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K236" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -10292,7 +10286,7 @@
         <v>54</v>
       </c>
       <c r="K237" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -10327,7 +10321,7 @@
         <v>54</v>
       </c>
       <c r="K238" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -10362,7 +10356,7 @@
         <v>54</v>
       </c>
       <c r="K239" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -10397,7 +10391,7 @@
         <v>54</v>
       </c>
       <c r="K240" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -10432,7 +10426,7 @@
         <v>54</v>
       </c>
       <c r="K241" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -10467,7 +10461,7 @@
         <v>54</v>
       </c>
       <c r="K242" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -10499,10 +10493,10 @@
         <v>53</v>
       </c>
       <c r="J243" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K243" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -10537,7 +10531,7 @@
         <v>54</v>
       </c>
       <c r="K244" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -10572,7 +10566,7 @@
         <v>54</v>
       </c>
       <c r="K245" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -10604,10 +10598,10 @@
         <v>53</v>
       </c>
       <c r="J246" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K246" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -10642,7 +10636,7 @@
         <v>54</v>
       </c>
       <c r="K247" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -10677,7 +10671,7 @@
         <v>84</v>
       </c>
       <c r="K248" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -10712,7 +10706,7 @@
         <v>54</v>
       </c>
       <c r="K249" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -10747,7 +10741,7 @@
         <v>54</v>
       </c>
       <c r="K250" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -10782,7 +10776,7 @@
         <v>54</v>
       </c>
       <c r="K251" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -10814,10 +10808,10 @@
         <v>53</v>
       </c>
       <c r="J252" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K252" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -10849,10 +10843,10 @@
         <v>53</v>
       </c>
       <c r="J253" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K253" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -10887,7 +10881,7 @@
         <v>54</v>
       </c>
       <c r="K254" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -10922,7 +10916,7 @@
         <v>54</v>
       </c>
       <c r="K255" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -10957,7 +10951,7 @@
         <v>54</v>
       </c>
       <c r="K256" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -10989,10 +10983,10 @@
         <v>53</v>
       </c>
       <c r="J257" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K257" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -11027,7 +11021,7 @@
         <v>54</v>
       </c>
       <c r="K258" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -11062,7 +11056,7 @@
         <v>54</v>
       </c>
       <c r="K259" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -11094,10 +11088,10 @@
         <v>53</v>
       </c>
       <c r="J260" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K260" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -11132,7 +11126,7 @@
         <v>54</v>
       </c>
       <c r="K261" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -11167,7 +11161,7 @@
         <v>54</v>
       </c>
       <c r="K262" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -11202,7 +11196,7 @@
         <v>54</v>
       </c>
       <c r="K263" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -11234,10 +11228,10 @@
         <v>53</v>
       </c>
       <c r="J264" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="K264" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -11272,7 +11266,7 @@
         <v>54</v>
       </c>
       <c r="K265" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -11307,7 +11301,7 @@
         <v>54</v>
       </c>
       <c r="K266" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -11342,7 +11336,7 @@
         <v>54</v>
       </c>
       <c r="K267" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -11377,7 +11371,7 @@
         <v>54</v>
       </c>
       <c r="K268" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -11412,7 +11406,7 @@
         <v>54</v>
       </c>
       <c r="K269" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -11447,7 +11441,7 @@
         <v>146</v>
       </c>
       <c r="K270" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -11482,7 +11476,7 @@
         <v>54</v>
       </c>
       <c r="K271" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -11517,7 +11511,7 @@
         <v>54</v>
       </c>
       <c r="K272" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -11552,7 +11546,7 @@
         <v>54</v>
       </c>
       <c r="K273" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -11587,7 +11581,7 @@
         <v>147</v>
       </c>
       <c r="K274" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -11622,7 +11616,7 @@
         <v>54</v>
       </c>
       <c r="K275" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -11657,7 +11651,7 @@
         <v>54</v>
       </c>
       <c r="K276" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -11692,7 +11686,7 @@
         <v>54</v>
       </c>
       <c r="K277" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -11727,7 +11721,7 @@
         <v>54</v>
       </c>
       <c r="K278" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -11762,7 +11756,7 @@
         <v>54</v>
       </c>
       <c r="K279" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -11797,7 +11791,7 @@
         <v>54</v>
       </c>
       <c r="K280" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -11832,7 +11826,7 @@
         <v>54</v>
       </c>
       <c r="K281" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -11867,7 +11861,7 @@
         <v>54</v>
       </c>
       <c r="K282" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -11902,7 +11896,7 @@
         <v>148</v>
       </c>
       <c r="K283" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -11937,7 +11931,7 @@
         <v>54</v>
       </c>
       <c r="K284" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -11972,7 +11966,7 @@
         <v>54</v>
       </c>
       <c r="K285" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -12007,7 +12001,7 @@
         <v>54</v>
       </c>
       <c r="K286" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -12042,7 +12036,7 @@
         <v>54</v>
       </c>
       <c r="K287" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -12077,7 +12071,7 @@
         <v>54</v>
       </c>
       <c r="K288" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -12112,7 +12106,7 @@
         <v>149</v>
       </c>
       <c r="K289" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -12147,7 +12141,7 @@
         <v>54</v>
       </c>
       <c r="K290" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -12182,7 +12176,7 @@
         <v>54</v>
       </c>
       <c r="K291" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -12217,7 +12211,7 @@
         <v>54</v>
       </c>
       <c r="K292" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -12252,7 +12246,7 @@
         <v>54</v>
       </c>
       <c r="K293" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -12287,7 +12281,7 @@
         <v>90</v>
       </c>
       <c r="K294" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -12322,7 +12316,7 @@
         <v>54</v>
       </c>
       <c r="K295" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -12357,7 +12351,7 @@
         <v>54</v>
       </c>
       <c r="K296" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -12392,7 +12386,7 @@
         <v>54</v>
       </c>
       <c r="K297" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -12427,7 +12421,7 @@
         <v>150</v>
       </c>
       <c r="K298" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -12462,7 +12456,7 @@
         <v>54</v>
       </c>
       <c r="K299" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -12497,7 +12491,7 @@
         <v>54</v>
       </c>
       <c r="K300" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -12532,7 +12526,7 @@
         <v>54</v>
       </c>
       <c r="K301" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -12567,7 +12561,7 @@
         <v>54</v>
       </c>
       <c r="K302" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -12602,7 +12596,7 @@
         <v>54</v>
       </c>
       <c r="K303" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -12637,7 +12631,7 @@
         <v>54</v>
       </c>
       <c r="K304" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -12672,7 +12666,7 @@
         <v>54</v>
       </c>
       <c r="K305" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -12707,7 +12701,7 @@
         <v>54</v>
       </c>
       <c r="K306" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -12739,10 +12733,10 @@
         <v>53</v>
       </c>
       <c r="J307" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K307" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -12777,7 +12771,7 @@
         <v>54</v>
       </c>
       <c r="K308" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -12812,7 +12806,7 @@
         <v>54</v>
       </c>
       <c r="K309" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -12847,7 +12841,7 @@
         <v>54</v>
       </c>
       <c r="K310" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -12879,10 +12873,10 @@
         <v>53</v>
       </c>
       <c r="J311" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K311" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -12917,7 +12911,7 @@
         <v>54</v>
       </c>
       <c r="K312" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -12952,7 +12946,7 @@
         <v>54</v>
       </c>
       <c r="K313" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -12969,7 +12963,7 @@
         <v>0.83</v>
       </c>
       <c r="E314">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F314" s="1">
         <v>0.83</v>
@@ -12978,16 +12972,16 @@
         <v>18</v>
       </c>
       <c r="H314" s="4">
-        <v>45782</v>
+        <v>45818</v>
       </c>
       <c r="I314" s="4">
-        <v>45797</v>
+        <v>45833</v>
       </c>
       <c r="J314" t="s">
         <v>54</v>
       </c>
       <c r="K314" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -13019,10 +13013,10 @@
         <v>53</v>
       </c>
       <c r="J315" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K315" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -13057,7 +13051,7 @@
         <v>54</v>
       </c>
       <c r="K316" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -13092,7 +13086,7 @@
         <v>54</v>
       </c>
       <c r="K317" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -13127,7 +13121,7 @@
         <v>54</v>
       </c>
       <c r="K318" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -13162,7 +13156,7 @@
         <v>54</v>
       </c>
       <c r="K319" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -13197,7 +13191,7 @@
         <v>54</v>
       </c>
       <c r="K320" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -13232,7 +13226,7 @@
         <v>54</v>
       </c>
       <c r="K321" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -13267,7 +13261,7 @@
         <v>54</v>
       </c>
       <c r="K322" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -13299,10 +13293,10 @@
         <v>53</v>
       </c>
       <c r="J323" t="s">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="K323" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -13337,7 +13331,7 @@
         <v>54</v>
       </c>
       <c r="K324" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -13372,7 +13366,7 @@
         <v>54</v>
       </c>
       <c r="K325" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -13404,10 +13398,10 @@
         <v>53</v>
       </c>
       <c r="J326" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K326" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -13442,7 +13436,7 @@
         <v>54</v>
       </c>
       <c r="K327" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -13477,7 +13471,7 @@
         <v>54</v>
       </c>
       <c r="K328" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -13509,10 +13503,10 @@
         <v>53</v>
       </c>
       <c r="J329" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K329" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -13544,10 +13538,10 @@
         <v>53</v>
       </c>
       <c r="J330" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="K330" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -13582,7 +13576,7 @@
         <v>54</v>
       </c>
       <c r="K331" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -13614,10 +13608,10 @@
         <v>53</v>
       </c>
       <c r="J332" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K332" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -13652,7 +13646,7 @@
         <v>54</v>
       </c>
       <c r="K333" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -13684,10 +13678,10 @@
         <v>53</v>
       </c>
       <c r="J334" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K334" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -13719,10 +13713,10 @@
         <v>53</v>
       </c>
       <c r="J335" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K335" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -13757,7 +13751,7 @@
         <v>54</v>
       </c>
       <c r="K336" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -13792,7 +13786,7 @@
         <v>54</v>
       </c>
       <c r="K337" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -13827,7 +13821,7 @@
         <v>54</v>
       </c>
       <c r="K338" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -13859,10 +13853,10 @@
         <v>53</v>
       </c>
       <c r="J339" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K339" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -13897,7 +13891,7 @@
         <v>54</v>
       </c>
       <c r="K340" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -13932,7 +13926,7 @@
         <v>54</v>
       </c>
       <c r="K341" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -13967,7 +13961,7 @@
         <v>54</v>
       </c>
       <c r="K342" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -14002,7 +13996,7 @@
         <v>54</v>
       </c>
       <c r="K343" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -14037,7 +14031,7 @@
         <v>54</v>
       </c>
       <c r="K344" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -14072,7 +14066,7 @@
         <v>54</v>
       </c>
       <c r="K345" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -14104,10 +14098,10 @@
         <v>53</v>
       </c>
       <c r="J346" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K346" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -14142,7 +14136,7 @@
         <v>54</v>
       </c>
       <c r="K347" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -14177,7 +14171,7 @@
         <v>54</v>
       </c>
       <c r="K348" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -14212,7 +14206,7 @@
         <v>54</v>
       </c>
       <c r="K349" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -14247,7 +14241,7 @@
         <v>54</v>
       </c>
       <c r="K350" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -14282,7 +14276,7 @@
         <v>54</v>
       </c>
       <c r="K351" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -14314,10 +14308,10 @@
         <v>53</v>
       </c>
       <c r="J352" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K352" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -14352,7 +14346,7 @@
         <v>54</v>
       </c>
       <c r="K353" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -14387,7 +14381,7 @@
         <v>54</v>
       </c>
       <c r="K354" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -14422,7 +14416,7 @@
         <v>54</v>
       </c>
       <c r="K355" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -14457,7 +14451,7 @@
         <v>54</v>
       </c>
       <c r="K356" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -14492,7 +14486,7 @@
         <v>54</v>
       </c>
       <c r="K357" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -14527,7 +14521,7 @@
         <v>54</v>
       </c>
       <c r="K358" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -14562,7 +14556,7 @@
         <v>54</v>
       </c>
       <c r="K359" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -14597,7 +14591,7 @@
         <v>54</v>
       </c>
       <c r="K360" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -14632,7 +14626,7 @@
         <v>54</v>
       </c>
       <c r="K361" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -14667,7 +14661,7 @@
         <v>54</v>
       </c>
       <c r="K362" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -14702,7 +14696,7 @@
         <v>54</v>
       </c>
       <c r="K363" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -14737,7 +14731,7 @@
         <v>54</v>
       </c>
       <c r="K364" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -14772,7 +14766,7 @@
         <v>54</v>
       </c>
       <c r="K365" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -14807,7 +14801,7 @@
         <v>54</v>
       </c>
       <c r="K366" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -14842,7 +14836,7 @@
         <v>54</v>
       </c>
       <c r="K367" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -14877,7 +14871,7 @@
         <v>54</v>
       </c>
       <c r="K368" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -14912,7 +14906,7 @@
         <v>54</v>
       </c>
       <c r="K369" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -14947,7 +14941,7 @@
         <v>54</v>
       </c>
       <c r="K370" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -14982,7 +14976,7 @@
         <v>54</v>
       </c>
       <c r="K371" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -15017,7 +15011,7 @@
         <v>54</v>
       </c>
       <c r="K372" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -15052,7 +15046,7 @@
         <v>54</v>
       </c>
       <c r="K373" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -15087,7 +15081,7 @@
         <v>54</v>
       </c>
       <c r="K374" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -15122,7 +15116,7 @@
         <v>54</v>
       </c>
       <c r="K375" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -15157,7 +15151,7 @@
         <v>54</v>
       </c>
       <c r="K376" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -15192,7 +15186,7 @@
         <v>54</v>
       </c>
       <c r="K377" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -15227,7 +15221,7 @@
         <v>54</v>
       </c>
       <c r="K378" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -15262,7 +15256,7 @@
         <v>54</v>
       </c>
       <c r="K379" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -15297,7 +15291,7 @@
         <v>54</v>
       </c>
       <c r="K380" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -15332,7 +15326,7 @@
         <v>54</v>
       </c>
       <c r="K381" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -15367,7 +15361,7 @@
         <v>54</v>
       </c>
       <c r="K382" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -15402,7 +15396,7 @@
         <v>54</v>
       </c>
       <c r="K383" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -15437,7 +15431,7 @@
         <v>54</v>
       </c>
       <c r="K384" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -15472,7 +15466,7 @@
         <v>54</v>
       </c>
       <c r="K385" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -15489,7 +15483,7 @@
         <v>0.67</v>
       </c>
       <c r="E386">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F386" s="1">
         <v>0.67</v>
@@ -15498,16 +15492,16 @@
         <v>15</v>
       </c>
       <c r="H386" s="4">
-        <v>45737</v>
+        <v>45818</v>
       </c>
       <c r="I386" s="4">
-        <v>45768</v>
+        <v>45848</v>
       </c>
       <c r="J386" t="s">
         <v>54</v>
       </c>
       <c r="K386" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -15542,7 +15536,7 @@
         <v>54</v>
       </c>
       <c r="K387" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -15577,7 +15571,7 @@
         <v>54</v>
       </c>
       <c r="K388" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -15588,31 +15582,31 @@
         <v>0.58</v>
       </c>
       <c r="C389" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D389" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="E389">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F389" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G389" t="s">
         <v>28</v>
       </c>
       <c r="H389" s="4">
-        <v>45807</v>
+        <v>45818</v>
       </c>
       <c r="I389" s="4">
-        <v>45822</v>
+        <v>45833</v>
       </c>
       <c r="J389" t="s">
         <v>54</v>
       </c>
       <c r="K389" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -15647,7 +15641,7 @@
         <v>54</v>
       </c>
       <c r="K390" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -15682,7 +15676,7 @@
         <v>54</v>
       </c>
       <c r="K391" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -15717,7 +15711,7 @@
         <v>54</v>
       </c>
       <c r="K392" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -15752,7 +15746,7 @@
         <v>54</v>
       </c>
       <c r="K393" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -15787,7 +15781,7 @@
         <v>54</v>
       </c>
       <c r="K394" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -15822,7 +15816,7 @@
         <v>54</v>
       </c>
       <c r="K395" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -15839,7 +15833,7 @@
         <v>1</v>
       </c>
       <c r="E396">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F396" s="1">
         <v>1</v>
@@ -15848,16 +15842,16 @@
         <v>18</v>
       </c>
       <c r="H396" s="4">
-        <v>45810</v>
+        <v>45814</v>
       </c>
       <c r="I396" s="4">
-        <v>45825</v>
+        <v>45829</v>
       </c>
       <c r="J396" t="s">
         <v>54</v>
       </c>
       <c r="K396" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -15892,7 +15886,7 @@
         <v>54</v>
       </c>
       <c r="K397" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -15927,7 +15921,7 @@
         <v>54</v>
       </c>
       <c r="K398" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -15962,7 +15956,7 @@
         <v>54</v>
       </c>
       <c r="K399" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -15997,7 +15991,7 @@
         <v>54</v>
       </c>
       <c r="K400" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -16032,7 +16026,7 @@
         <v>54</v>
       </c>
       <c r="K401" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -16064,10 +16058,10 @@
         <v>53</v>
       </c>
       <c r="J402" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K402" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -16102,7 +16096,7 @@
         <v>54</v>
       </c>
       <c r="K403" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -16137,7 +16131,7 @@
         <v>54</v>
       </c>
       <c r="K404" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -16172,7 +16166,7 @@
         <v>54</v>
       </c>
       <c r="K405" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -16180,34 +16174,34 @@
         <v>45106276</v>
       </c>
       <c r="B406" s="1">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="C406" s="1">
         <v>0.67</v>
       </c>
       <c r="D406" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="E406">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F406" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G406" t="s">
         <v>18</v>
       </c>
       <c r="H406" s="4">
-        <v>45807</v>
+        <v>45817</v>
       </c>
       <c r="I406" s="4">
-        <v>45822</v>
+        <v>45832</v>
       </c>
       <c r="J406" t="s">
         <v>54</v>
       </c>
       <c r="K406" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -16242,7 +16236,7 @@
         <v>54</v>
       </c>
       <c r="K407" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -16277,7 +16271,7 @@
         <v>54</v>
       </c>
       <c r="K408" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -16312,7 +16306,7 @@
         <v>54</v>
       </c>
       <c r="K409" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -16347,7 +16341,7 @@
         <v>54</v>
       </c>
       <c r="K410" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -16382,7 +16376,7 @@
         <v>54</v>
       </c>
       <c r="K411" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -16417,7 +16411,7 @@
         <v>54</v>
       </c>
       <c r="K412" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -16452,7 +16446,7 @@
         <v>54</v>
       </c>
       <c r="K413" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -16487,7 +16481,7 @@
         <v>54</v>
       </c>
       <c r="K414" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -16522,7 +16516,7 @@
         <v>54</v>
       </c>
       <c r="K415" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -16557,7 +16551,7 @@
         <v>54</v>
       </c>
       <c r="K416" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -16592,7 +16586,7 @@
         <v>54</v>
       </c>
       <c r="K417" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="418" spans="1:11">
@@ -16627,7 +16621,7 @@
         <v>54</v>
       </c>
       <c r="K418" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="419" spans="1:11">
@@ -16662,7 +16656,7 @@
         <v>54</v>
       </c>
       <c r="K419" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="420" spans="1:11">
@@ -16697,7 +16691,7 @@
         <v>54</v>
       </c>
       <c r="K420" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="421" spans="1:11">
@@ -16732,7 +16726,7 @@
         <v>54</v>
       </c>
       <c r="K421" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="422" spans="1:11">
@@ -16767,7 +16761,7 @@
         <v>54</v>
       </c>
       <c r="K422" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="423" spans="1:11">
@@ -16802,7 +16796,7 @@
         <v>54</v>
       </c>
       <c r="K423" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="424" spans="1:11">
@@ -16837,7 +16831,7 @@
         <v>54</v>
       </c>
       <c r="K424" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="425" spans="1:11">
@@ -16872,7 +16866,7 @@
         <v>54</v>
       </c>
       <c r="K425" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
+++ b/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="532">
   <si>
     <t>id_cliente</t>
   </si>
@@ -196,235 +196,244 @@
     <t>INATIVO - 39.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 42.2 meses sem comprar</t>
+    <t>INATIVO - 42.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 50.0 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 45.8 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 29.7 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 39.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 49.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 46.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.3 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 39.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 48.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.7 meses sem comprar</t>
+    <t>INATIVO - 35.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 49.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 46.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.5 meses sem comprar</t>
+    <t>INATIVO - 12.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 33.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 19.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.1 meses sem comprar</t>
+    <t>INATIVO - 19.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 24.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 29.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.0 meses sem comprar</t>
+    <t>INATIVO - 29.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 30.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 16.6 meses sem comprar</t>
+    <t>INATIVO - 16.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 34.6 meses sem comprar</t>
@@ -442,6 +451,9 @@
     <t>INATIVO - 13.6 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 14.6 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 18.0 meses sem comprar</t>
   </si>
   <si>
@@ -451,13 +463,13 @@
     <t>INATIVO - 7.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 17.2 meses sem comprar</t>
+    <t>INATIVO - 17.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 13.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 13.9 meses sem comprar</t>
+    <t>INATIVO - 14.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.9 meses sem comprar</t>
@@ -466,7 +478,7 @@
     <t>INATIVO - 11.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 9.7 meses sem comprar</t>
+    <t>INATIVO - 9.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 8.2 meses sem comprar</t>
@@ -481,16 +493,16 @@
     <t>INATIVO - 7.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.9 meses sem comprar</t>
+    <t>INATIVO - 11.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 8.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.4 meses sem comprar</t>
+    <t>INATIVO - 10.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.5 meses sem comprar</t>
   </si>
   <si>
     <t>FRANCISCO SAMPAIO</t>
@@ -1277,6 +1289,9 @@
   </si>
   <si>
     <t>L F SARMENTO NICOLAU LTDA</t>
+  </si>
+  <si>
+    <t>ILUMINAR OFTALMOLOGIA LTDA</t>
   </si>
   <si>
     <t>GERTEC BRASIL LTDA</t>
@@ -1981,7 +1996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K425"/>
+  <dimension ref="A1:K426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2061,7 +2076,7 @@
         <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2096,7 +2111,7 @@
         <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2131,7 +2146,7 @@
         <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2166,7 +2181,7 @@
         <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2201,7 +2216,7 @@
         <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2236,7 +2251,7 @@
         <v>57</v>
       </c>
       <c r="K7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2271,7 +2286,7 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2306,7 +2321,7 @@
         <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2341,7 +2356,7 @@
         <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2376,7 +2391,7 @@
         <v>61</v>
       </c>
       <c r="K11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2408,10 +2423,10 @@
         <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K12" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2443,10 +2458,10 @@
         <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K13" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2478,10 +2493,10 @@
         <v>53</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K14" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2513,10 +2528,10 @@
         <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K15" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2548,10 +2563,10 @@
         <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2586,7 +2601,7 @@
         <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2621,7 +2636,7 @@
         <v>54</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2653,10 +2668,10 @@
         <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2688,10 +2703,10 @@
         <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K20" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2723,10 +2738,10 @@
         <v>53</v>
       </c>
       <c r="J21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K21" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2758,10 +2773,10 @@
         <v>53</v>
       </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K22" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2793,10 +2808,10 @@
         <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K23" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2828,10 +2843,10 @@
         <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K24" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2863,10 +2878,10 @@
         <v>53</v>
       </c>
       <c r="J25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K25" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2901,7 +2916,7 @@
         <v>54</v>
       </c>
       <c r="K26" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2933,10 +2948,10 @@
         <v>53</v>
       </c>
       <c r="J27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2968,10 +2983,10 @@
         <v>53</v>
       </c>
       <c r="J28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K28" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3006,7 +3021,7 @@
         <v>54</v>
       </c>
       <c r="K29" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3038,10 +3053,10 @@
         <v>53</v>
       </c>
       <c r="J30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3076,7 +3091,7 @@
         <v>54</v>
       </c>
       <c r="K31" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3111,7 +3126,7 @@
         <v>54</v>
       </c>
       <c r="K32" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3146,7 +3161,7 @@
         <v>54</v>
       </c>
       <c r="K33" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3181,7 +3196,7 @@
         <v>54</v>
       </c>
       <c r="K34" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3213,10 +3228,10 @@
         <v>53</v>
       </c>
       <c r="J35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3248,10 +3263,10 @@
         <v>53</v>
       </c>
       <c r="J36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3283,10 +3298,10 @@
         <v>53</v>
       </c>
       <c r="J37" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3318,10 +3333,10 @@
         <v>53</v>
       </c>
       <c r="J38" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3356,7 +3371,7 @@
         <v>54</v>
       </c>
       <c r="K39" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3391,7 +3406,7 @@
         <v>54</v>
       </c>
       <c r="K40" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3426,7 +3441,7 @@
         <v>54</v>
       </c>
       <c r="K41" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3458,10 +3473,10 @@
         <v>53</v>
       </c>
       <c r="J42" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K42" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3493,10 +3508,10 @@
         <v>53</v>
       </c>
       <c r="J43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3531,7 +3546,7 @@
         <v>54</v>
       </c>
       <c r="K44" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3563,10 +3578,10 @@
         <v>53</v>
       </c>
       <c r="J45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3601,7 +3616,7 @@
         <v>54</v>
       </c>
       <c r="K46" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3633,10 +3648,10 @@
         <v>53</v>
       </c>
       <c r="J47" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K47" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3671,7 +3686,7 @@
         <v>54</v>
       </c>
       <c r="K48" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3706,7 +3721,7 @@
         <v>54</v>
       </c>
       <c r="K49" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3741,7 +3756,7 @@
         <v>54</v>
       </c>
       <c r="K50" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3776,7 +3791,7 @@
         <v>54</v>
       </c>
       <c r="K51" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3808,10 +3823,10 @@
         <v>53</v>
       </c>
       <c r="J52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K52" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3828,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F53" s="1">
         <v>1</v>
@@ -3837,16 +3852,16 @@
         <v>18</v>
       </c>
       <c r="H53" s="4">
-        <v>45811</v>
+        <v>45819</v>
       </c>
       <c r="I53" s="4">
-        <v>45826</v>
+        <v>45834</v>
       </c>
       <c r="J53" t="s">
         <v>54</v>
       </c>
       <c r="K53" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3881,7 +3896,7 @@
         <v>54</v>
       </c>
       <c r="K54" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3913,10 +3928,10 @@
         <v>53</v>
       </c>
       <c r="J55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3948,10 +3963,10 @@
         <v>53</v>
       </c>
       <c r="J56" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K56" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3986,7 +4001,7 @@
         <v>54</v>
       </c>
       <c r="K57" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -4018,10 +4033,10 @@
         <v>53</v>
       </c>
       <c r="J58" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K58" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4053,10 +4068,10 @@
         <v>53</v>
       </c>
       <c r="J59" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4088,10 +4103,10 @@
         <v>53</v>
       </c>
       <c r="J60" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4123,10 +4138,10 @@
         <v>53</v>
       </c>
       <c r="J61" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4158,10 +4173,10 @@
         <v>53</v>
       </c>
       <c r="J62" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K62" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4193,10 +4208,10 @@
         <v>53</v>
       </c>
       <c r="J63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4228,10 +4243,10 @@
         <v>53</v>
       </c>
       <c r="J64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K64" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4263,10 +4278,10 @@
         <v>53</v>
       </c>
       <c r="J65" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K65" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4298,10 +4313,10 @@
         <v>53</v>
       </c>
       <c r="J66" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K66" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4333,10 +4348,10 @@
         <v>53</v>
       </c>
       <c r="J67" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4368,10 +4383,10 @@
         <v>53</v>
       </c>
       <c r="J68" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K68" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4403,10 +4418,10 @@
         <v>53</v>
       </c>
       <c r="J69" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K69" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4441,7 +4456,7 @@
         <v>54</v>
       </c>
       <c r="K70" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4473,10 +4488,10 @@
         <v>53</v>
       </c>
       <c r="J71" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K71" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4511,7 +4526,7 @@
         <v>54</v>
       </c>
       <c r="K72" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4543,10 +4558,10 @@
         <v>53</v>
       </c>
       <c r="J73" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4578,10 +4593,10 @@
         <v>53</v>
       </c>
       <c r="J74" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K74" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4613,10 +4628,10 @@
         <v>53</v>
       </c>
       <c r="J75" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K75" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4651,7 +4666,7 @@
         <v>54</v>
       </c>
       <c r="K76" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4686,7 +4701,7 @@
         <v>54</v>
       </c>
       <c r="K77" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4721,7 +4736,7 @@
         <v>54</v>
       </c>
       <c r="K78" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4753,10 +4768,10 @@
         <v>53</v>
       </c>
       <c r="J79" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K79" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4788,10 +4803,10 @@
         <v>53</v>
       </c>
       <c r="J80" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K80" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4826,7 +4841,7 @@
         <v>54</v>
       </c>
       <c r="K81" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4858,10 +4873,10 @@
         <v>53</v>
       </c>
       <c r="J82" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K82" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4896,7 +4911,7 @@
         <v>54</v>
       </c>
       <c r="K83" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4931,7 +4946,7 @@
         <v>54</v>
       </c>
       <c r="K84" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4963,10 +4978,10 @@
         <v>53</v>
       </c>
       <c r="J85" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K85" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -5001,7 +5016,7 @@
         <v>54</v>
       </c>
       <c r="K86" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5033,10 +5048,10 @@
         <v>53</v>
       </c>
       <c r="J87" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K87" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -5071,7 +5086,7 @@
         <v>54</v>
       </c>
       <c r="K88" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5103,10 +5118,10 @@
         <v>53</v>
       </c>
       <c r="J89" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K89" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5138,10 +5153,10 @@
         <v>53</v>
       </c>
       <c r="J90" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K90" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5176,7 +5191,7 @@
         <v>54</v>
       </c>
       <c r="K91" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5208,10 +5223,10 @@
         <v>53</v>
       </c>
       <c r="J92" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K92" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5243,10 +5258,10 @@
         <v>53</v>
       </c>
       <c r="J93" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K93" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5278,10 +5293,10 @@
         <v>53</v>
       </c>
       <c r="J94" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K94" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5316,7 +5331,7 @@
         <v>54</v>
       </c>
       <c r="K95" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5348,10 +5363,10 @@
         <v>53</v>
       </c>
       <c r="J96" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K96" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5359,34 +5374,34 @@
         <v>3947921</v>
       </c>
       <c r="B97" s="1">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C97" s="1">
         <v>0.17</v>
       </c>
       <c r="D97" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E97">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G97" t="s">
         <v>32</v>
       </c>
       <c r="H97" s="4">
-        <v>45734</v>
+        <v>45819</v>
       </c>
       <c r="I97" s="4">
-        <v>45887</v>
+        <v>45972</v>
       </c>
       <c r="J97" t="s">
         <v>54</v>
       </c>
       <c r="K97" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5421,7 +5436,7 @@
         <v>54</v>
       </c>
       <c r="K98" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5453,10 +5468,10 @@
         <v>53</v>
       </c>
       <c r="J99" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K99" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5491,7 +5506,7 @@
         <v>54</v>
       </c>
       <c r="K100" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5523,10 +5538,10 @@
         <v>53</v>
       </c>
       <c r="J101" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="K101" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5558,10 +5573,10 @@
         <v>53</v>
       </c>
       <c r="J102" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K102" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5596,7 +5611,7 @@
         <v>54</v>
       </c>
       <c r="K103" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5628,10 +5643,10 @@
         <v>53</v>
       </c>
       <c r="J104" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K104" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5666,7 +5681,7 @@
         <v>54</v>
       </c>
       <c r="K105" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5683,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F106" s="1">
         <v>1</v>
@@ -5692,16 +5707,16 @@
         <v>11</v>
       </c>
       <c r="H106" s="4">
-        <v>45813</v>
+        <v>45819</v>
       </c>
       <c r="I106" s="4">
-        <v>45820</v>
+        <v>45826</v>
       </c>
       <c r="J106" t="s">
         <v>54</v>
       </c>
       <c r="K106" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5733,10 +5748,10 @@
         <v>53</v>
       </c>
       <c r="J107" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K107" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5768,10 +5783,10 @@
         <v>53</v>
       </c>
       <c r="J108" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K108" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5806,7 +5821,7 @@
         <v>54</v>
       </c>
       <c r="K109" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5838,10 +5853,10 @@
         <v>53</v>
       </c>
       <c r="J110" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K110" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5873,10 +5888,10 @@
         <v>53</v>
       </c>
       <c r="J111" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K111" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5908,10 +5923,10 @@
         <v>53</v>
       </c>
       <c r="J112" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K112" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5946,7 +5961,7 @@
         <v>54</v>
       </c>
       <c r="K113" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5978,10 +5993,10 @@
         <v>53</v>
       </c>
       <c r="J114" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K114" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -6013,10 +6028,10 @@
         <v>53</v>
       </c>
       <c r="J115" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K115" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6048,10 +6063,10 @@
         <v>53</v>
       </c>
       <c r="J116" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K116" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -6083,10 +6098,10 @@
         <v>53</v>
       </c>
       <c r="J117" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K117" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6118,10 +6133,10 @@
         <v>53</v>
       </c>
       <c r="J118" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K118" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6153,10 +6168,10 @@
         <v>53</v>
       </c>
       <c r="J119" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K119" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6188,10 +6203,10 @@
         <v>53</v>
       </c>
       <c r="J120" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K120" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6226,7 +6241,7 @@
         <v>54</v>
       </c>
       <c r="K121" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6258,10 +6273,10 @@
         <v>53</v>
       </c>
       <c r="J122" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K122" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6296,7 +6311,7 @@
         <v>54</v>
       </c>
       <c r="K123" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6331,7 +6346,7 @@
         <v>54</v>
       </c>
       <c r="K124" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6363,10 +6378,10 @@
         <v>53</v>
       </c>
       <c r="J125" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="K125" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6398,10 +6413,10 @@
         <v>53</v>
       </c>
       <c r="J126" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="K126" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6436,7 +6451,7 @@
         <v>54</v>
       </c>
       <c r="K127" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6471,7 +6486,7 @@
         <v>54</v>
       </c>
       <c r="K128" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6503,10 +6518,10 @@
         <v>53</v>
       </c>
       <c r="J129" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="K129" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6538,10 +6553,10 @@
         <v>53</v>
       </c>
       <c r="J130" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K130" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6576,7 +6591,7 @@
         <v>54</v>
       </c>
       <c r="K131" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6608,10 +6623,10 @@
         <v>53</v>
       </c>
       <c r="J132" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K132" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6646,7 +6661,7 @@
         <v>54</v>
       </c>
       <c r="K133" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6681,7 +6696,7 @@
         <v>54</v>
       </c>
       <c r="K134" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -6716,7 +6731,7 @@
         <v>54</v>
       </c>
       <c r="K135" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -6748,10 +6763,10 @@
         <v>53</v>
       </c>
       <c r="J136" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K136" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6783,10 +6798,10 @@
         <v>53</v>
       </c>
       <c r="J137" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="K137" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6821,7 +6836,7 @@
         <v>54</v>
       </c>
       <c r="K138" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6853,10 +6868,10 @@
         <v>53</v>
       </c>
       <c r="J139" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K139" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6888,10 +6903,10 @@
         <v>53</v>
       </c>
       <c r="J140" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K140" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6923,10 +6938,10 @@
         <v>53</v>
       </c>
       <c r="J141" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K141" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6958,10 +6973,10 @@
         <v>53</v>
       </c>
       <c r="J142" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K142" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -6996,7 +7011,7 @@
         <v>54</v>
       </c>
       <c r="K143" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -7028,10 +7043,10 @@
         <v>53</v>
       </c>
       <c r="J144" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K144" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -7066,7 +7081,7 @@
         <v>54</v>
       </c>
       <c r="K145" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -7101,7 +7116,7 @@
         <v>54</v>
       </c>
       <c r="K146" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7133,10 +7148,10 @@
         <v>53</v>
       </c>
       <c r="J147" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K147" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7171,7 +7186,7 @@
         <v>54</v>
       </c>
       <c r="K148" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7206,7 +7221,7 @@
         <v>54</v>
       </c>
       <c r="K149" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7241,7 +7256,7 @@
         <v>54</v>
       </c>
       <c r="K150" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7276,7 +7291,7 @@
         <v>54</v>
       </c>
       <c r="K151" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7311,7 +7326,7 @@
         <v>54</v>
       </c>
       <c r="K152" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7343,10 +7358,10 @@
         <v>53</v>
       </c>
       <c r="J153" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K153" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7381,7 +7396,7 @@
         <v>54</v>
       </c>
       <c r="K154" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7416,7 +7431,7 @@
         <v>54</v>
       </c>
       <c r="K155" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7448,10 +7463,10 @@
         <v>53</v>
       </c>
       <c r="J156" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K156" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -7486,7 +7501,7 @@
         <v>54</v>
       </c>
       <c r="K157" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -7521,7 +7536,7 @@
         <v>54</v>
       </c>
       <c r="K158" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -7556,7 +7571,7 @@
         <v>54</v>
       </c>
       <c r="K159" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -7591,7 +7606,7 @@
         <v>54</v>
       </c>
       <c r="K160" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -7626,7 +7641,7 @@
         <v>54</v>
       </c>
       <c r="K161" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7661,7 +7676,7 @@
         <v>54</v>
       </c>
       <c r="K162" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7696,7 +7711,7 @@
         <v>54</v>
       </c>
       <c r="K163" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -7728,10 +7743,10 @@
         <v>53</v>
       </c>
       <c r="J164" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K164" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7763,10 +7778,10 @@
         <v>53</v>
       </c>
       <c r="J165" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K165" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7801,7 +7816,7 @@
         <v>54</v>
       </c>
       <c r="K166" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7833,10 +7848,10 @@
         <v>53</v>
       </c>
       <c r="J167" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="K167" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -7868,10 +7883,10 @@
         <v>53</v>
       </c>
       <c r="J168" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K168" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7906,7 +7921,7 @@
         <v>54</v>
       </c>
       <c r="K169" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -7941,7 +7956,7 @@
         <v>54</v>
       </c>
       <c r="K170" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7976,7 +7991,7 @@
         <v>54</v>
       </c>
       <c r="K171" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -8011,7 +8026,7 @@
         <v>54</v>
       </c>
       <c r="K172" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -8046,7 +8061,7 @@
         <v>54</v>
       </c>
       <c r="K173" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -8081,7 +8096,7 @@
         <v>54</v>
       </c>
       <c r="K174" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -8113,10 +8128,10 @@
         <v>53</v>
       </c>
       <c r="J175" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K175" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -8151,7 +8166,7 @@
         <v>54</v>
       </c>
       <c r="K176" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -8186,7 +8201,7 @@
         <v>54</v>
       </c>
       <c r="K177" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -8221,7 +8236,7 @@
         <v>54</v>
       </c>
       <c r="K178" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -8256,7 +8271,7 @@
         <v>54</v>
       </c>
       <c r="K179" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -8264,16 +8279,16 @@
         <v>5238925</v>
       </c>
       <c r="B180" s="1">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="C180" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="D180" s="1">
         <v>1</v>
       </c>
       <c r="E180">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F180" s="1">
         <v>1</v>
@@ -8282,16 +8297,16 @@
         <v>11</v>
       </c>
       <c r="H180" s="4">
-        <v>45807</v>
+        <v>45819</v>
       </c>
       <c r="I180" s="4">
-        <v>45814</v>
+        <v>45826</v>
       </c>
       <c r="J180" t="s">
         <v>54</v>
       </c>
       <c r="K180" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -8326,7 +8341,7 @@
         <v>54</v>
       </c>
       <c r="K181" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -8361,7 +8376,7 @@
         <v>54</v>
       </c>
       <c r="K182" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -8396,7 +8411,7 @@
         <v>54</v>
       </c>
       <c r="K183" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -8428,10 +8443,10 @@
         <v>53</v>
       </c>
       <c r="J184" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K184" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -8466,7 +8481,7 @@
         <v>54</v>
       </c>
       <c r="K185" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -8501,7 +8516,7 @@
         <v>54</v>
       </c>
       <c r="K186" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -8536,7 +8551,7 @@
         <v>54</v>
       </c>
       <c r="K187" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -8571,7 +8586,7 @@
         <v>54</v>
       </c>
       <c r="K188" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -8606,7 +8621,7 @@
         <v>54</v>
       </c>
       <c r="K189" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -8638,10 +8653,10 @@
         <v>53</v>
       </c>
       <c r="J190" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K190" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -8673,10 +8688,10 @@
         <v>53</v>
       </c>
       <c r="J191" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K191" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -8708,10 +8723,10 @@
         <v>53</v>
       </c>
       <c r="J192" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K192" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -8746,7 +8761,7 @@
         <v>54</v>
       </c>
       <c r="K193" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -8781,7 +8796,7 @@
         <v>54</v>
       </c>
       <c r="K194" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8816,7 +8831,7 @@
         <v>54</v>
       </c>
       <c r="K195" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -8851,7 +8866,7 @@
         <v>54</v>
       </c>
       <c r="K196" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -8886,7 +8901,7 @@
         <v>54</v>
       </c>
       <c r="K197" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -8918,10 +8933,10 @@
         <v>53</v>
       </c>
       <c r="J198" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K198" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -8956,7 +8971,7 @@
         <v>54</v>
       </c>
       <c r="K199" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -8991,7 +9006,7 @@
         <v>54</v>
       </c>
       <c r="K200" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -9026,7 +9041,7 @@
         <v>54</v>
       </c>
       <c r="K201" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -9058,10 +9073,10 @@
         <v>53</v>
       </c>
       <c r="J202" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K202" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -9078,7 +9093,7 @@
         <v>0.67</v>
       </c>
       <c r="E203">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F203" s="1">
         <v>0.67</v>
@@ -9087,16 +9102,16 @@
         <v>13</v>
       </c>
       <c r="H203" s="4">
-        <v>45814</v>
+        <v>45819</v>
       </c>
       <c r="I203" s="4">
-        <v>45844</v>
+        <v>45849</v>
       </c>
       <c r="J203" t="s">
         <v>54</v>
       </c>
       <c r="K203" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -9131,7 +9146,7 @@
         <v>54</v>
       </c>
       <c r="K204" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -9166,7 +9181,7 @@
         <v>54</v>
       </c>
       <c r="K205" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -9201,7 +9216,7 @@
         <v>54</v>
       </c>
       <c r="K206" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -9236,7 +9251,7 @@
         <v>54</v>
       </c>
       <c r="K207" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -9268,10 +9283,10 @@
         <v>53</v>
       </c>
       <c r="J208" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K208" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -9306,7 +9321,7 @@
         <v>54</v>
       </c>
       <c r="K209" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -9341,7 +9356,7 @@
         <v>54</v>
       </c>
       <c r="K210" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -9376,7 +9391,7 @@
         <v>54</v>
       </c>
       <c r="K211" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -9411,7 +9426,7 @@
         <v>54</v>
       </c>
       <c r="K212" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -9446,7 +9461,7 @@
         <v>54</v>
       </c>
       <c r="K213" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -9481,7 +9496,7 @@
         <v>54</v>
       </c>
       <c r="K214" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -9516,7 +9531,7 @@
         <v>54</v>
       </c>
       <c r="K215" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -9551,7 +9566,7 @@
         <v>54</v>
       </c>
       <c r="K216" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -9583,10 +9598,10 @@
         <v>53</v>
       </c>
       <c r="J217" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K217" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -9621,7 +9636,7 @@
         <v>54</v>
       </c>
       <c r="K218" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -9653,10 +9668,10 @@
         <v>53</v>
       </c>
       <c r="J219" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K219" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -9664,16 +9679,16 @@
         <v>6335272</v>
       </c>
       <c r="B220" s="1">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="C220" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D220" s="1">
         <v>0.33</v>
       </c>
       <c r="E220">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F220" s="1">
         <v>0.33</v>
@@ -9682,16 +9697,16 @@
         <v>41</v>
       </c>
       <c r="H220" s="4">
-        <v>45789</v>
+        <v>45819</v>
       </c>
       <c r="I220" s="4">
-        <v>45820</v>
+        <v>45849</v>
       </c>
       <c r="J220" t="s">
         <v>54</v>
       </c>
       <c r="K220" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -9726,7 +9741,7 @@
         <v>54</v>
       </c>
       <c r="K221" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -9761,7 +9776,7 @@
         <v>54</v>
       </c>
       <c r="K222" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -9796,7 +9811,7 @@
         <v>54</v>
       </c>
       <c r="K223" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -9831,7 +9846,7 @@
         <v>54</v>
       </c>
       <c r="K224" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -9866,7 +9881,7 @@
         <v>54</v>
       </c>
       <c r="K225" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -9901,7 +9916,7 @@
         <v>54</v>
       </c>
       <c r="K226" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -9936,7 +9951,7 @@
         <v>54</v>
       </c>
       <c r="K227" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -9971,7 +9986,7 @@
         <v>54</v>
       </c>
       <c r="K228" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -10003,10 +10018,10 @@
         <v>53</v>
       </c>
       <c r="J229" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K229" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -10023,7 +10038,7 @@
         <v>0.83</v>
       </c>
       <c r="E230">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F230" s="1">
         <v>0.83</v>
@@ -10032,16 +10047,16 @@
         <v>15</v>
       </c>
       <c r="H230" s="4">
-        <v>45814</v>
+        <v>45819</v>
       </c>
       <c r="I230" s="4">
-        <v>45844</v>
+        <v>45849</v>
       </c>
       <c r="J230" t="s">
         <v>54</v>
       </c>
       <c r="K230" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -10076,7 +10091,7 @@
         <v>54</v>
       </c>
       <c r="K231" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -10108,10 +10123,10 @@
         <v>53</v>
       </c>
       <c r="J232" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K232" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -10146,7 +10161,7 @@
         <v>54</v>
       </c>
       <c r="K233" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -10154,16 +10169,16 @@
         <v>6535511</v>
       </c>
       <c r="B234" s="1">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="C234" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D234" s="1">
         <v>0.67</v>
       </c>
       <c r="E234">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F234" s="1">
         <v>0.67</v>
@@ -10172,16 +10187,16 @@
         <v>14</v>
       </c>
       <c r="H234" s="4">
-        <v>45786</v>
+        <v>45819</v>
       </c>
       <c r="I234" s="4">
-        <v>45847</v>
+        <v>45880</v>
       </c>
       <c r="J234" t="s">
         <v>54</v>
       </c>
       <c r="K234" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -10216,7 +10231,7 @@
         <v>54</v>
       </c>
       <c r="K235" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -10248,10 +10263,10 @@
         <v>53</v>
       </c>
       <c r="J236" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K236" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -10286,7 +10301,7 @@
         <v>54</v>
       </c>
       <c r="K237" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -10321,7 +10336,7 @@
         <v>54</v>
       </c>
       <c r="K238" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -10356,7 +10371,7 @@
         <v>54</v>
       </c>
       <c r="K239" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -10391,7 +10406,7 @@
         <v>54</v>
       </c>
       <c r="K240" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -10426,7 +10441,7 @@
         <v>54</v>
       </c>
       <c r="K241" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -10461,7 +10476,7 @@
         <v>54</v>
       </c>
       <c r="K242" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -10493,10 +10508,10 @@
         <v>53</v>
       </c>
       <c r="J243" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K243" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -10531,7 +10546,7 @@
         <v>54</v>
       </c>
       <c r="K244" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -10566,7 +10581,7 @@
         <v>54</v>
       </c>
       <c r="K245" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -10598,10 +10613,10 @@
         <v>53</v>
       </c>
       <c r="J246" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K246" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -10636,7 +10651,7 @@
         <v>54</v>
       </c>
       <c r="K247" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -10668,10 +10683,10 @@
         <v>53</v>
       </c>
       <c r="J248" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="K248" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -10706,7 +10721,7 @@
         <v>54</v>
       </c>
       <c r="K249" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -10741,7 +10756,7 @@
         <v>54</v>
       </c>
       <c r="K250" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -10776,7 +10791,7 @@
         <v>54</v>
       </c>
       <c r="K251" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -10808,10 +10823,10 @@
         <v>53</v>
       </c>
       <c r="J252" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K252" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -10843,10 +10858,10 @@
         <v>53</v>
       </c>
       <c r="J253" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K253" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -10881,7 +10896,7 @@
         <v>54</v>
       </c>
       <c r="K254" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -10916,7 +10931,7 @@
         <v>54</v>
       </c>
       <c r="K255" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -10951,7 +10966,7 @@
         <v>54</v>
       </c>
       <c r="K256" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -10983,10 +10998,10 @@
         <v>53</v>
       </c>
       <c r="J257" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K257" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -11021,7 +11036,7 @@
         <v>54</v>
       </c>
       <c r="K258" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -11056,7 +11071,7 @@
         <v>54</v>
       </c>
       <c r="K259" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -11088,10 +11103,10 @@
         <v>53</v>
       </c>
       <c r="J260" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K260" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -11126,7 +11141,7 @@
         <v>54</v>
       </c>
       <c r="K261" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -11161,7 +11176,7 @@
         <v>54</v>
       </c>
       <c r="K262" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -11196,7 +11211,7 @@
         <v>54</v>
       </c>
       <c r="K263" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -11228,10 +11243,10 @@
         <v>53</v>
       </c>
       <c r="J264" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K264" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -11266,7 +11281,7 @@
         <v>54</v>
       </c>
       <c r="K265" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -11301,7 +11316,7 @@
         <v>54</v>
       </c>
       <c r="K266" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -11336,7 +11351,7 @@
         <v>54</v>
       </c>
       <c r="K267" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -11371,7 +11386,7 @@
         <v>54</v>
       </c>
       <c r="K268" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -11406,7 +11421,7 @@
         <v>54</v>
       </c>
       <c r="K269" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -11438,10 +11453,10 @@
         <v>53</v>
       </c>
       <c r="J270" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K270" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -11476,7 +11491,7 @@
         <v>54</v>
       </c>
       <c r="K271" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -11493,7 +11508,7 @@
         <v>0.83</v>
       </c>
       <c r="E272">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F272" s="1">
         <v>0.83</v>
@@ -11502,16 +11517,16 @@
         <v>30</v>
       </c>
       <c r="H272" s="4">
-        <v>45792</v>
+        <v>45819</v>
       </c>
       <c r="I272" s="4">
-        <v>45915</v>
+        <v>45941</v>
       </c>
       <c r="J272" t="s">
         <v>54</v>
       </c>
       <c r="K272" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -11546,7 +11561,7 @@
         <v>54</v>
       </c>
       <c r="K273" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -11578,10 +11593,10 @@
         <v>53</v>
       </c>
       <c r="J274" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K274" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -11616,7 +11631,7 @@
         <v>54</v>
       </c>
       <c r="K275" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -11651,7 +11666,7 @@
         <v>54</v>
       </c>
       <c r="K276" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -11686,7 +11701,7 @@
         <v>54</v>
       </c>
       <c r="K277" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -11721,7 +11736,7 @@
         <v>54</v>
       </c>
       <c r="K278" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -11756,7 +11771,7 @@
         <v>54</v>
       </c>
       <c r="K279" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -11791,7 +11806,7 @@
         <v>54</v>
       </c>
       <c r="K280" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -11826,7 +11841,7 @@
         <v>54</v>
       </c>
       <c r="K281" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -11861,7 +11876,7 @@
         <v>54</v>
       </c>
       <c r="K282" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -11893,10 +11908,10 @@
         <v>53</v>
       </c>
       <c r="J283" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K283" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -11931,7 +11946,7 @@
         <v>54</v>
       </c>
       <c r="K284" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -11966,7 +11981,7 @@
         <v>54</v>
       </c>
       <c r="K285" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -12001,7 +12016,7 @@
         <v>54</v>
       </c>
       <c r="K286" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -12036,7 +12051,7 @@
         <v>54</v>
       </c>
       <c r="K287" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -12071,7 +12086,7 @@
         <v>54</v>
       </c>
       <c r="K288" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -12103,10 +12118,10 @@
         <v>53</v>
       </c>
       <c r="J289" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K289" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -12141,7 +12156,7 @@
         <v>54</v>
       </c>
       <c r="K290" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -12176,7 +12191,7 @@
         <v>54</v>
       </c>
       <c r="K291" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -12211,7 +12226,7 @@
         <v>54</v>
       </c>
       <c r="K292" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -12228,7 +12243,7 @@
         <v>0.5</v>
       </c>
       <c r="E293">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F293" s="1">
         <v>0.5</v>
@@ -12237,16 +12252,16 @@
         <v>18</v>
       </c>
       <c r="H293" s="4">
-        <v>45783</v>
+        <v>45819</v>
       </c>
       <c r="I293" s="4">
-        <v>45798</v>
+        <v>45834</v>
       </c>
       <c r="J293" t="s">
         <v>54</v>
       </c>
       <c r="K293" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -12278,10 +12293,10 @@
         <v>53</v>
       </c>
       <c r="J294" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K294" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -12316,7 +12331,7 @@
         <v>54</v>
       </c>
       <c r="K295" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -12351,7 +12366,7 @@
         <v>54</v>
       </c>
       <c r="K296" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -12386,7 +12401,7 @@
         <v>54</v>
       </c>
       <c r="K297" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -12418,10 +12433,10 @@
         <v>53</v>
       </c>
       <c r="J298" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K298" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -12456,7 +12471,7 @@
         <v>54</v>
       </c>
       <c r="K299" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -12491,7 +12506,7 @@
         <v>54</v>
       </c>
       <c r="K300" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -12526,7 +12541,7 @@
         <v>54</v>
       </c>
       <c r="K301" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -12561,7 +12576,7 @@
         <v>54</v>
       </c>
       <c r="K302" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -12596,7 +12611,7 @@
         <v>54</v>
       </c>
       <c r="K303" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -12631,7 +12646,7 @@
         <v>54</v>
       </c>
       <c r="K304" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -12666,7 +12681,7 @@
         <v>54</v>
       </c>
       <c r="K305" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -12701,7 +12716,7 @@
         <v>54</v>
       </c>
       <c r="K306" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -12733,1695 +12748,1695 @@
         <v>53</v>
       </c>
       <c r="J307" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K307" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="308" spans="1:11">
       <c r="A308">
-        <v>32930447</v>
+        <v>32525682</v>
       </c>
       <c r="B308" s="1">
-        <v>0.83</v>
+        <v>0.25</v>
       </c>
       <c r="C308" s="1">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="D308" s="1">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="E308">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F308" s="1">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="G308" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H308" s="4">
-        <v>45800</v>
+        <v>45819</v>
       </c>
       <c r="I308" s="4">
-        <v>45815</v>
+        <v>45972</v>
       </c>
       <c r="J308" t="s">
         <v>54</v>
       </c>
       <c r="K308" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="309" spans="1:11">
       <c r="A309">
-        <v>33581309</v>
+        <v>32930447</v>
       </c>
       <c r="B309" s="1">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="C309" s="1">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="D309" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="E309">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F309" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="G309" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H309" s="4">
-        <v>45791</v>
+        <v>45800</v>
       </c>
       <c r="I309" s="4">
-        <v>45822</v>
+        <v>45815</v>
       </c>
       <c r="J309" t="s">
         <v>54</v>
       </c>
       <c r="K309" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="310" spans="1:11">
       <c r="A310">
-        <v>34141508</v>
+        <v>33581309</v>
       </c>
       <c r="B310" s="1">
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
       <c r="C310" s="1">
         <v>0.17</v>
       </c>
       <c r="D310" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="E310">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F310" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="G310" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="H310" s="4">
-        <v>45797</v>
+        <v>45819</v>
       </c>
       <c r="I310" s="4">
-        <v>45889</v>
+        <v>45849</v>
       </c>
       <c r="J310" t="s">
         <v>54</v>
       </c>
       <c r="K310" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="311" spans="1:11">
       <c r="A311">
-        <v>34259352</v>
+        <v>34141508</v>
       </c>
       <c r="B311" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="C311" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D311" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E311">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F311" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G311" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="H311" s="4">
-        <v>45418</v>
-      </c>
-      <c r="I311" s="2" t="s">
-        <v>53</v>
+        <v>45797</v>
+      </c>
+      <c r="I311" s="4">
+        <v>45889</v>
       </c>
       <c r="J311" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="K311" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="312" spans="1:11">
       <c r="A312">
-        <v>34262556</v>
+        <v>34259352</v>
       </c>
       <c r="B312" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="C312" s="1">
         <v>0.33</v>
       </c>
       <c r="D312" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E312">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="F312" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G312" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="H312" s="4">
-        <v>45705</v>
-      </c>
-      <c r="I312" s="4">
-        <v>45712</v>
+        <v>45418</v>
+      </c>
+      <c r="I312" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="J312" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="K312" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="313" spans="1:11">
       <c r="A313">
-        <v>34283769</v>
+        <v>34262556</v>
       </c>
       <c r="B313" s="1">
         <v>0.5</v>
       </c>
       <c r="C313" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D313" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E313">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="F313" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G313" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H313" s="4">
-        <v>45761</v>
+        <v>45705</v>
       </c>
       <c r="I313" s="4">
-        <v>45776</v>
+        <v>45712</v>
       </c>
       <c r="J313" t="s">
         <v>54</v>
       </c>
       <c r="K313" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="314" spans="1:11">
       <c r="A314">
-        <v>34386066</v>
+        <v>34283769</v>
       </c>
       <c r="B314" s="1">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="C314" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D314" s="1">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="E314">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F314" s="1">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="G314" t="s">
         <v>18</v>
       </c>
       <c r="H314" s="4">
-        <v>45818</v>
+        <v>45761</v>
       </c>
       <c r="I314" s="4">
-        <v>45833</v>
+        <v>45776</v>
       </c>
       <c r="J314" t="s">
         <v>54</v>
       </c>
       <c r="K314" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="315" spans="1:11">
       <c r="A315">
-        <v>34406187</v>
+        <v>34386066</v>
       </c>
       <c r="B315" s="1">
         <v>0.58</v>
       </c>
       <c r="C315" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D315" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="E315">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F315" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G315" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H315" s="4">
-        <v>45574</v>
-      </c>
-      <c r="I315" s="2" t="s">
-        <v>53</v>
+        <v>45818</v>
+      </c>
+      <c r="I315" s="4">
+        <v>45833</v>
       </c>
       <c r="J315" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="K315" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="316" spans="1:11">
       <c r="A316">
-        <v>34522225</v>
+        <v>34406187</v>
       </c>
       <c r="B316" s="1">
-        <v>0.42</v>
+        <v>0.58</v>
       </c>
       <c r="C316" s="1">
         <v>0.17</v>
       </c>
       <c r="D316" s="1">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="E316">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F316" s="1">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="G316" t="s">
         <v>13</v>
       </c>
       <c r="H316" s="4">
-        <v>45813</v>
-      </c>
-      <c r="I316" s="4">
-        <v>45843</v>
+        <v>45574</v>
+      </c>
+      <c r="I316" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="J316" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K316" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="317" spans="1:11">
       <c r="A317">
-        <v>34673926</v>
+        <v>34522225</v>
       </c>
       <c r="B317" s="1">
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
       <c r="C317" s="1">
         <v>0.17</v>
       </c>
       <c r="D317" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="E317">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F317" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="G317" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="H317" s="4">
-        <v>45792</v>
+        <v>45813</v>
       </c>
       <c r="I317" s="4">
-        <v>45915</v>
+        <v>45843</v>
       </c>
       <c r="J317" t="s">
         <v>54</v>
       </c>
       <c r="K317" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="318" spans="1:11">
       <c r="A318">
-        <v>34926124</v>
+        <v>34673926</v>
       </c>
       <c r="B318" s="1">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="C318" s="1">
         <v>0.17</v>
       </c>
       <c r="D318" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E318">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F318" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G318" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H318" s="4">
-        <v>45673</v>
+        <v>45792</v>
       </c>
       <c r="I318" s="4">
-        <v>45704</v>
+        <v>45915</v>
       </c>
       <c r="J318" t="s">
         <v>54</v>
       </c>
       <c r="K318" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="319" spans="1:11">
       <c r="A319">
-        <v>35307248</v>
+        <v>34926124</v>
       </c>
       <c r="B319" s="1">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="C319" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D319" s="1">
         <v>0.33</v>
       </c>
       <c r="E319">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F319" s="1">
         <v>0.33</v>
       </c>
       <c r="G319" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H319" s="4">
-        <v>45750</v>
+        <v>45673</v>
       </c>
       <c r="I319" s="4">
-        <v>45780</v>
+        <v>45704</v>
       </c>
       <c r="J319" t="s">
         <v>54</v>
       </c>
       <c r="K319" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="320" spans="1:11">
       <c r="A320">
-        <v>35432430</v>
+        <v>35307248</v>
       </c>
       <c r="B320" s="1">
-        <v>0.58</v>
+        <v>0.33</v>
       </c>
       <c r="C320" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D320" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E320">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F320" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G320" t="s">
         <v>13</v>
       </c>
       <c r="H320" s="4">
-        <v>45805</v>
+        <v>45750</v>
       </c>
       <c r="I320" s="4">
-        <v>45836</v>
+        <v>45780</v>
       </c>
       <c r="J320" t="s">
         <v>54</v>
       </c>
       <c r="K320" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="321" spans="1:11">
       <c r="A321">
-        <v>35620172</v>
+        <v>35432430</v>
       </c>
       <c r="B321" s="1">
-        <v>0.92</v>
+        <v>0.58</v>
       </c>
       <c r="C321" s="1">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="D321" s="1">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="E321">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="F321" s="1">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="G321" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="H321" s="4">
-        <v>45812</v>
+        <v>45805</v>
       </c>
       <c r="I321" s="4">
-        <v>45819</v>
+        <v>45836</v>
       </c>
       <c r="J321" t="s">
         <v>54</v>
       </c>
       <c r="K321" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="322" spans="1:11">
       <c r="A322">
-        <v>35700662</v>
+        <v>35620172</v>
       </c>
       <c r="B322" s="1">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="C322" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="D322" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E322">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="F322" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G322" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H322" s="4">
         <v>45812</v>
       </c>
       <c r="I322" s="4">
-        <v>45842</v>
+        <v>45819</v>
       </c>
       <c r="J322" t="s">
         <v>54</v>
       </c>
       <c r="K322" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="323" spans="1:11">
       <c r="A323">
-        <v>36012490</v>
+        <v>35700662</v>
       </c>
       <c r="B323" s="1">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="C323" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="D323" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E323">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F323" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G323" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H323" s="4">
-        <v>45472</v>
-      </c>
-      <c r="I323" s="2" t="s">
-        <v>53</v>
+        <v>45812</v>
+      </c>
+      <c r="I323" s="4">
+        <v>45842</v>
       </c>
       <c r="J323" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="K323" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="324" spans="1:11">
       <c r="A324">
-        <v>36362245</v>
+        <v>36012490</v>
       </c>
       <c r="B324" s="1">
-        <v>0.42</v>
+        <v>0.58</v>
       </c>
       <c r="C324" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D324" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E324">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F324" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G324" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="H324" s="4">
-        <v>45811</v>
-      </c>
-      <c r="I324" s="4">
-        <v>45841</v>
+        <v>45472</v>
+      </c>
+      <c r="I324" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="J324" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="K324" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="325" spans="1:11">
       <c r="A325">
-        <v>36957616</v>
+        <v>36362245</v>
       </c>
       <c r="B325" s="1">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="C325" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D325" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="E325">
         <v>19</v>
       </c>
       <c r="F325" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="G325" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="H325" s="4">
-        <v>45789</v>
+        <v>45811</v>
       </c>
       <c r="I325" s="4">
-        <v>45820</v>
+        <v>45841</v>
       </c>
       <c r="J325" t="s">
         <v>54</v>
       </c>
       <c r="K325" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="326" spans="1:11">
       <c r="A326">
-        <v>37391877</v>
+        <v>36957616</v>
       </c>
       <c r="B326" s="1">
-        <v>0.58</v>
+        <v>0.42</v>
       </c>
       <c r="C326" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D326" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="E326">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F326" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G326" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H326" s="4">
-        <v>45435</v>
-      </c>
-      <c r="I326" s="2" t="s">
-        <v>53</v>
+        <v>45819</v>
+      </c>
+      <c r="I326" s="4">
+        <v>45849</v>
       </c>
       <c r="J326" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="K326" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="327" spans="1:11">
       <c r="A327">
-        <v>37499299</v>
+        <v>37391877</v>
       </c>
       <c r="B327" s="1">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="C327" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D327" s="1">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="E327">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F327" s="1">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="G327" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H327" s="4">
-        <v>45810</v>
-      </c>
-      <c r="I327" s="4">
-        <v>45840</v>
+        <v>45435</v>
+      </c>
+      <c r="I327" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="J327" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="K327" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="328" spans="1:11">
       <c r="A328">
-        <v>38114272</v>
+        <v>37499299</v>
       </c>
       <c r="B328" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="C328" s="1">
         <v>0</v>
       </c>
       <c r="D328" s="1">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E328">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F328" s="1">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G328" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H328" s="4">
-        <v>45779</v>
+        <v>45810</v>
       </c>
       <c r="I328" s="4">
-        <v>45871</v>
+        <v>45840</v>
       </c>
       <c r="J328" t="s">
         <v>54</v>
       </c>
       <c r="K328" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="329" spans="1:11">
       <c r="A329">
-        <v>38177286</v>
+        <v>38114272</v>
       </c>
       <c r="B329" s="1">
-        <v>0.42</v>
+        <v>0.17</v>
       </c>
       <c r="C329" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D329" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E329">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F329" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G329" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H329" s="4">
-        <v>45601</v>
-      </c>
-      <c r="I329" s="2" t="s">
-        <v>53</v>
+        <v>45779</v>
+      </c>
+      <c r="I329" s="4">
+        <v>45871</v>
       </c>
       <c r="J329" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="K329" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="330" spans="1:11">
       <c r="A330">
-        <v>38340947</v>
+        <v>38177286</v>
       </c>
       <c r="B330" s="1">
-        <v>0.58</v>
+        <v>0.42</v>
       </c>
       <c r="C330" s="1">
         <v>0.17</v>
       </c>
       <c r="D330" s="1">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="E330">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F330" s="1">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="G330" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H330" s="4">
-        <v>45595</v>
+        <v>45601</v>
       </c>
       <c r="I330" s="2" t="s">
         <v>53</v>
       </c>
       <c r="J330" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K330" t="s">
-        <v>179</v>
+        <v>447</v>
       </c>
     </row>
     <row r="331" spans="1:11">
       <c r="A331">
-        <v>38379570</v>
+        <v>38340947</v>
       </c>
       <c r="B331" s="1">
-        <v>0.42</v>
+        <v>0.58</v>
       </c>
       <c r="C331" s="1">
         <v>0.17</v>
       </c>
       <c r="D331" s="1">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="E331">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F331" s="1">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="G331" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H331" s="4">
-        <v>45804</v>
-      </c>
-      <c r="I331" s="4">
-        <v>45835</v>
+        <v>45595</v>
+      </c>
+      <c r="I331" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="J331" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="K331" t="s">
-        <v>443</v>
+        <v>183</v>
       </c>
     </row>
     <row r="332" spans="1:11">
       <c r="A332">
-        <v>38566273</v>
+        <v>38379570</v>
       </c>
       <c r="B332" s="1">
-        <v>0.75</v>
+        <v>0.42</v>
       </c>
       <c r="C332" s="1">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="D332" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="E332">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F332" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G332" t="s">
         <v>13</v>
       </c>
       <c r="H332" s="4">
-        <v>45491</v>
-      </c>
-      <c r="I332" s="2" t="s">
-        <v>53</v>
+        <v>45804</v>
+      </c>
+      <c r="I332" s="4">
+        <v>45835</v>
       </c>
       <c r="J332" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="K332" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="333" spans="1:11">
       <c r="A333">
-        <v>38659938</v>
+        <v>38566273</v>
       </c>
       <c r="B333" s="1">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C333" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="D333" s="1">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="E333">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F333" s="1">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="G333" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H333" s="4">
-        <v>45811</v>
-      </c>
-      <c r="I333" s="4">
-        <v>45872</v>
+        <v>45491</v>
+      </c>
+      <c r="I333" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="J333" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="K333" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="334" spans="1:11">
       <c r="A334">
-        <v>38768325</v>
+        <v>38659938</v>
       </c>
       <c r="B334" s="1">
-        <v>0.58</v>
+        <v>0.25</v>
       </c>
       <c r="C334" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="D334" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E334">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F334" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G334" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H334" s="4">
-        <v>45558</v>
-      </c>
-      <c r="I334" s="2" t="s">
-        <v>53</v>
+        <v>45811</v>
+      </c>
+      <c r="I334" s="4">
+        <v>45872</v>
       </c>
       <c r="J334" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="K334" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="335" spans="1:11">
       <c r="A335">
-        <v>38790405</v>
+        <v>38768325</v>
       </c>
       <c r="B335" s="1">
-        <v>0.3</v>
+        <v>0.58</v>
       </c>
       <c r="C335" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D335" s="1">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="E335">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F335" s="1">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="G335" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H335" s="4">
-        <v>45457</v>
+        <v>45558</v>
       </c>
       <c r="I335" s="2" t="s">
         <v>53</v>
       </c>
       <c r="J335" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="K335" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="336" spans="1:11">
       <c r="A336">
-        <v>38962195</v>
+        <v>38790405</v>
       </c>
       <c r="B336" s="1">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="C336" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D336" s="1">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="E336">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F336" s="1">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="G336" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H336" s="4">
-        <v>45762</v>
-      </c>
-      <c r="I336" s="4">
-        <v>45823</v>
+        <v>45457</v>
+      </c>
+      <c r="I336" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="J336" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="K336" t="s">
-        <v>197</v>
+        <v>452</v>
       </c>
     </row>
     <row r="337" spans="1:11">
       <c r="A337">
-        <v>39083381</v>
+        <v>38962195</v>
       </c>
       <c r="B337" s="1">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="C337" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D337" s="1">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="E337">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F337" s="1">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="G337" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H337" s="4">
-        <v>45686</v>
+        <v>45762</v>
       </c>
       <c r="I337" s="4">
-        <v>45701</v>
+        <v>45823</v>
       </c>
       <c r="J337" t="s">
         <v>54</v>
       </c>
       <c r="K337" t="s">
-        <v>448</v>
+        <v>201</v>
       </c>
     </row>
     <row r="338" spans="1:11">
       <c r="A338">
-        <v>39084614</v>
+        <v>39083381</v>
       </c>
       <c r="B338" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="C338" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="D338" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E338">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F338" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G338" t="s">
         <v>18</v>
       </c>
       <c r="H338" s="4">
-        <v>45803</v>
+        <v>45686</v>
       </c>
       <c r="I338" s="4">
-        <v>45818</v>
+        <v>45701</v>
       </c>
       <c r="J338" t="s">
         <v>54</v>
       </c>
       <c r="K338" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="339" spans="1:11">
       <c r="A339">
-        <v>39108615</v>
+        <v>39084614</v>
       </c>
       <c r="B339" s="1">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
       <c r="C339" s="1">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
       <c r="D339" s="1">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
       <c r="E339">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F339" s="1">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
       <c r="G339" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H339" s="4">
-        <v>45471</v>
-      </c>
-      <c r="I339" s="2" t="s">
-        <v>53</v>
+        <v>45803</v>
+      </c>
+      <c r="I339" s="4">
+        <v>45818</v>
       </c>
       <c r="J339" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="K339" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="340" spans="1:11">
       <c r="A340">
-        <v>39145289</v>
+        <v>39108615</v>
       </c>
       <c r="B340" s="1">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="C340" s="1">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="D340" s="1">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="E340">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F340" s="1">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="G340" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H340" s="4">
-        <v>45790</v>
-      </c>
-      <c r="I340" s="4">
-        <v>45805</v>
+        <v>45471</v>
+      </c>
+      <c r="I340" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="J340" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="K340" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="341" spans="1:11">
       <c r="A341">
-        <v>39273367</v>
+        <v>39145289</v>
       </c>
       <c r="B341" s="1">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="C341" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="D341" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E341">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F341" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G341" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H341" s="4">
-        <v>45803</v>
+        <v>45790</v>
       </c>
       <c r="I341" s="4">
-        <v>45864</v>
+        <v>45805</v>
       </c>
       <c r="J341" t="s">
         <v>54</v>
       </c>
       <c r="K341" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="342" spans="1:11">
       <c r="A342">
-        <v>39327763</v>
+        <v>39273367</v>
       </c>
       <c r="B342" s="1">
-        <v>0.58</v>
+        <v>0.33</v>
       </c>
       <c r="C342" s="1">
         <v>0.17</v>
       </c>
       <c r="D342" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E342">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F342" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G342" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H342" s="4">
-        <v>45776</v>
+        <v>45803</v>
       </c>
       <c r="I342" s="4">
-        <v>45806</v>
+        <v>45864</v>
       </c>
       <c r="J342" t="s">
         <v>54</v>
       </c>
       <c r="K342" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="343" spans="1:11">
       <c r="A343">
-        <v>39476847</v>
+        <v>39327763</v>
       </c>
       <c r="B343" s="1">
-        <v>0.33</v>
+        <v>0.58</v>
       </c>
       <c r="C343" s="1">
         <v>0.17</v>
       </c>
       <c r="D343" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E343">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F343" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G343" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="H343" s="4">
-        <v>45784</v>
+        <v>45776</v>
       </c>
       <c r="I343" s="4">
-        <v>45845</v>
+        <v>45806</v>
       </c>
       <c r="J343" t="s">
         <v>54</v>
       </c>
       <c r="K343" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
     </row>
     <row r="344" spans="1:11">
       <c r="A344">
-        <v>39723847</v>
+        <v>39476847</v>
       </c>
       <c r="B344" s="1">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="C344" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D344" s="1">
         <v>0.5</v>
       </c>
       <c r="E344">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F344" s="1">
         <v>0.5</v>
       </c>
       <c r="G344" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H344" s="4">
-        <v>45806</v>
+        <v>45784</v>
       </c>
       <c r="I344" s="4">
-        <v>45821</v>
+        <v>45845</v>
       </c>
       <c r="J344" t="s">
         <v>54</v>
       </c>
       <c r="K344" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
     </row>
     <row r="345" spans="1:11">
       <c r="A345">
-        <v>39794827</v>
+        <v>39723847</v>
       </c>
       <c r="B345" s="1">
-        <v>0.58</v>
+        <v>0.42</v>
       </c>
       <c r="C345" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D345" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="E345">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F345" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G345" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H345" s="4">
-        <v>45798</v>
+        <v>45806</v>
       </c>
       <c r="I345" s="4">
-        <v>45829</v>
+        <v>45821</v>
       </c>
       <c r="J345" t="s">
         <v>54</v>
       </c>
       <c r="K345" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="346" spans="1:11">
       <c r="A346">
-        <v>39929995</v>
+        <v>39794827</v>
       </c>
       <c r="B346" s="1">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="C346" s="1">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D346" s="1">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="E346">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F346" s="1">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="G346" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H346" s="4">
-        <v>45503</v>
-      </c>
-      <c r="I346" s="2" t="s">
-        <v>53</v>
+        <v>45798</v>
+      </c>
+      <c r="I346" s="4">
+        <v>45829</v>
       </c>
       <c r="J346" t="s">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="K346" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="347" spans="1:11">
       <c r="A347">
-        <v>39947541</v>
+        <v>39929995</v>
       </c>
       <c r="B347" s="1">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="C347" s="1">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="D347" s="1">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="E347">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F347" s="1">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="G347" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H347" s="4">
-        <v>45758</v>
-      </c>
-      <c r="I347" s="4">
-        <v>45819</v>
+        <v>45503</v>
+      </c>
+      <c r="I347" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="J347" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="K347" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="348" spans="1:11">
       <c r="A348">
-        <v>39981051</v>
+        <v>39947541</v>
       </c>
       <c r="B348" s="1">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="C348" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D348" s="1">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="E348">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F348" s="1">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="G348" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H348" s="4">
-        <v>45805</v>
+        <v>45758</v>
       </c>
       <c r="I348" s="4">
-        <v>45836</v>
+        <v>45819</v>
       </c>
       <c r="J348" t="s">
         <v>54</v>
       </c>
       <c r="K348" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="349" spans="1:11">
       <c r="A349">
-        <v>40337092</v>
+        <v>39981051</v>
       </c>
       <c r="B349" s="1">
         <v>0.42</v>
       </c>
       <c r="C349" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D349" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="E349">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F349" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="G349" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="H349" s="4">
-        <v>45810</v>
+        <v>45805</v>
       </c>
       <c r="I349" s="4">
-        <v>45871</v>
+        <v>45836</v>
       </c>
       <c r="J349" t="s">
         <v>54</v>
       </c>
       <c r="K349" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="350" spans="1:11">
       <c r="A350">
-        <v>40435895</v>
+        <v>40337092</v>
       </c>
       <c r="B350" s="1">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="C350" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D350" s="1">
         <v>0.5</v>
       </c>
       <c r="E350">
+        <v>8</v>
+      </c>
+      <c r="F350" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G350" t="s">
         <v>14</v>
       </c>
-      <c r="F350" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G350" t="s">
-        <v>13</v>
-      </c>
       <c r="H350" s="4">
-        <v>45792</v>
+        <v>45810</v>
       </c>
       <c r="I350" s="4">
-        <v>45823</v>
+        <v>45871</v>
       </c>
       <c r="J350" t="s">
         <v>54</v>
       </c>
       <c r="K350" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="351" spans="1:11">
       <c r="A351">
-        <v>40509286</v>
+        <v>40435895</v>
       </c>
       <c r="B351" s="1">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="C351" s="1">
         <v>0.17</v>
       </c>
       <c r="D351" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E351">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F351" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G351" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H351" s="4">
-        <v>45722</v>
+        <v>45792</v>
       </c>
       <c r="I351" s="4">
-        <v>45753</v>
+        <v>45823</v>
       </c>
       <c r="J351" t="s">
         <v>54</v>
       </c>
       <c r="K351" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
     </row>
     <row r="352" spans="1:11">
       <c r="A352">
-        <v>40511639</v>
+        <v>40509286</v>
       </c>
       <c r="B352" s="1">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="C352" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D352" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E352">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F352" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G352" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H352" s="4">
-        <v>45594</v>
-      </c>
-      <c r="I352" s="2" t="s">
-        <v>53</v>
+        <v>45722</v>
+      </c>
+      <c r="I352" s="4">
+        <v>45753</v>
       </c>
       <c r="J352" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="K352" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="353" spans="1:11">
       <c r="A353">
-        <v>40765433</v>
+        <v>40511639</v>
       </c>
       <c r="B353" s="1">
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
       <c r="C353" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D353" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E353">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F353" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G353" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H353" s="4">
-        <v>45764</v>
-      </c>
-      <c r="I353" s="4">
-        <v>45825</v>
+        <v>45594</v>
+      </c>
+      <c r="I353" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="J353" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="K353" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="354" spans="1:11">
       <c r="A354">
-        <v>40799650</v>
+        <v>40765433</v>
       </c>
       <c r="B354" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="C354" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D354" s="1">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="E354">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F354" s="1">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G354" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H354" s="4">
-        <v>45806</v>
+        <v>45764</v>
       </c>
       <c r="I354" s="4">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="J354" t="s">
         <v>54</v>
       </c>
       <c r="K354" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="355" spans="1:11">
       <c r="A355">
-        <v>41057898</v>
+        <v>40799650</v>
       </c>
       <c r="B355" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C355" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D355" s="1">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="E355">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F355" s="1">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="G355" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H355" s="4">
-        <v>45811</v>
+        <v>45806</v>
       </c>
       <c r="I355" s="4">
-        <v>45841</v>
+        <v>45821</v>
       </c>
       <c r="J355" t="s">
         <v>54</v>
       </c>
       <c r="K355" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="356" spans="1:11">
       <c r="A356">
-        <v>41124989</v>
+        <v>41057898</v>
       </c>
       <c r="B356" s="1">
         <v>0.42</v>
@@ -14433,252 +14448,252 @@
         <v>0.67</v>
       </c>
       <c r="E356">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F356" s="1">
         <v>0.67</v>
       </c>
       <c r="G356" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H356" s="4">
-        <v>45792</v>
+        <v>45811</v>
       </c>
       <c r="I356" s="4">
-        <v>45853</v>
+        <v>45841</v>
       </c>
       <c r="J356" t="s">
         <v>54</v>
       </c>
       <c r="K356" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="357" spans="1:11">
       <c r="A357">
-        <v>41196087</v>
+        <v>41124989</v>
       </c>
       <c r="B357" s="1">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="C357" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="D357" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E357">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F357" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G357" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H357" s="4">
-        <v>45789</v>
+        <v>45792</v>
       </c>
       <c r="I357" s="4">
-        <v>45820</v>
+        <v>45853</v>
       </c>
       <c r="J357" t="s">
         <v>54</v>
       </c>
       <c r="K357" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="358" spans="1:11">
       <c r="A358">
-        <v>41201605</v>
+        <v>41196087</v>
       </c>
       <c r="B358" s="1">
-        <v>0.83</v>
+        <v>0.42</v>
       </c>
       <c r="C358" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="D358" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E358">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F358" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G358" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H358" s="4">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="I358" s="4">
-        <v>45819</v>
+        <v>45849</v>
       </c>
       <c r="J358" t="s">
         <v>54</v>
       </c>
       <c r="K358" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="359" spans="1:11">
       <c r="A359">
-        <v>41204441</v>
+        <v>41201605</v>
       </c>
       <c r="B359" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="C359" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="D359" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E359">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F359" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G359" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H359" s="4">
-        <v>45793</v>
+        <v>45812</v>
       </c>
       <c r="I359" s="4">
-        <v>45824</v>
+        <v>45819</v>
       </c>
       <c r="J359" t="s">
         <v>54</v>
       </c>
       <c r="K359" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="360" spans="1:11">
       <c r="A360">
-        <v>41216854</v>
+        <v>41204441</v>
       </c>
       <c r="B360" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C360" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="D360" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E360">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F360" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G360" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H360" s="4">
-        <v>45728</v>
+        <v>45793</v>
       </c>
       <c r="I360" s="4">
-        <v>45789</v>
+        <v>45824</v>
       </c>
       <c r="J360" t="s">
         <v>54</v>
       </c>
       <c r="K360" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="361" spans="1:11">
       <c r="A361">
-        <v>41223913</v>
+        <v>41216854</v>
       </c>
       <c r="B361" s="1">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="C361" s="1">
         <v>0.17</v>
       </c>
       <c r="D361" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E361">
+        <v>6</v>
+      </c>
+      <c r="F361" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G361" t="s">
         <v>12</v>
       </c>
-      <c r="F361" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G361" t="s">
-        <v>31</v>
-      </c>
       <c r="H361" s="4">
-        <v>45810</v>
+        <v>45728</v>
       </c>
       <c r="I361" s="4">
-        <v>45871</v>
+        <v>45789</v>
       </c>
       <c r="J361" t="s">
         <v>54</v>
       </c>
       <c r="K361" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="362" spans="1:11">
       <c r="A362">
-        <v>41224053</v>
+        <v>41223913</v>
       </c>
       <c r="B362" s="1">
-        <v>0.58</v>
+        <v>0.33</v>
       </c>
       <c r="C362" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="D362" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="E362">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="F362" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G362" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H362" s="4">
-        <v>45817</v>
+        <v>45810</v>
       </c>
       <c r="I362" s="4">
-        <v>45824</v>
+        <v>45871</v>
       </c>
       <c r="J362" t="s">
         <v>54</v>
       </c>
       <c r="K362" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="363" spans="1:11">
       <c r="A363">
-        <v>41224247</v>
+        <v>41224053</v>
       </c>
       <c r="B363" s="1">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="C363" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="D363" s="1">
         <v>0.67</v>
       </c>
       <c r="E363">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="F363" s="1">
         <v>0.67</v>
@@ -14687,138 +14702,138 @@
         <v>11</v>
       </c>
       <c r="H363" s="4">
-        <v>45814</v>
+        <v>45817</v>
       </c>
       <c r="I363" s="4">
-        <v>45821</v>
+        <v>45824</v>
       </c>
       <c r="J363" t="s">
         <v>54</v>
       </c>
       <c r="K363" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="364" spans="1:11">
       <c r="A364">
-        <v>41224831</v>
+        <v>41224247</v>
       </c>
       <c r="B364" s="1">
-        <v>0.08</v>
+        <v>0.67</v>
       </c>
       <c r="C364" s="1">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="D364" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="E364">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="F364" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="G364" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H364" s="4">
-        <v>45792</v>
+        <v>45814</v>
       </c>
       <c r="I364" s="4">
-        <v>45853</v>
+        <v>45821</v>
       </c>
       <c r="J364" t="s">
         <v>54</v>
       </c>
       <c r="K364" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="365" spans="1:11">
       <c r="A365">
-        <v>41336516</v>
+        <v>41224831</v>
       </c>
       <c r="B365" s="1">
-        <v>0.58</v>
+        <v>0.08</v>
       </c>
       <c r="C365" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D365" s="1">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="E365">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F365" s="1">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="G365" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H365" s="4">
-        <v>45804</v>
+        <v>45792</v>
       </c>
       <c r="I365" s="4">
-        <v>45819</v>
+        <v>45853</v>
       </c>
       <c r="J365" t="s">
         <v>54</v>
       </c>
       <c r="K365" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="366" spans="1:11">
       <c r="A366">
-        <v>41339798</v>
+        <v>41336516</v>
       </c>
       <c r="B366" s="1">
         <v>0.58</v>
       </c>
       <c r="C366" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D366" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="E366">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F366" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="G366" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H366" s="4">
-        <v>45730</v>
+        <v>45804</v>
       </c>
       <c r="I366" s="4">
-        <v>45761</v>
+        <v>45819</v>
       </c>
       <c r="J366" t="s">
         <v>54</v>
       </c>
       <c r="K366" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="367" spans="1:11">
       <c r="A367">
-        <v>41403383</v>
+        <v>41339798</v>
       </c>
       <c r="B367" s="1">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="C367" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D367" s="1">
         <v>0.67</v>
       </c>
       <c r="E367">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F367" s="1">
         <v>0.67</v>
@@ -14827,161 +14842,161 @@
         <v>13</v>
       </c>
       <c r="H367" s="4">
-        <v>45806</v>
+        <v>45730</v>
       </c>
       <c r="I367" s="4">
-        <v>45837</v>
+        <v>45761</v>
       </c>
       <c r="J367" t="s">
         <v>54</v>
       </c>
       <c r="K367" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="368" spans="1:11">
       <c r="A368">
-        <v>41403389</v>
+        <v>41403383</v>
       </c>
       <c r="B368" s="1">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="C368" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D368" s="1">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="E368">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F368" s="1">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="G368" t="s">
         <v>13</v>
       </c>
       <c r="H368" s="4">
-        <v>45810</v>
+        <v>45806</v>
       </c>
       <c r="I368" s="4">
-        <v>45840</v>
+        <v>45837</v>
       </c>
       <c r="J368" t="s">
         <v>54</v>
       </c>
       <c r="K368" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="369" spans="1:11">
       <c r="A369">
-        <v>41542628</v>
+        <v>41403389</v>
       </c>
       <c r="B369" s="1">
-        <v>0.33</v>
+        <v>0.58</v>
       </c>
       <c r="C369" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D369" s="1">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E369">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F369" s="1">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G369" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H369" s="4">
-        <v>45817</v>
+        <v>45810</v>
       </c>
       <c r="I369" s="4">
-        <v>45878</v>
+        <v>45840</v>
       </c>
       <c r="J369" t="s">
         <v>54</v>
       </c>
       <c r="K369" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="370" spans="1:11">
       <c r="A370">
-        <v>41650084</v>
+        <v>41542628</v>
       </c>
       <c r="B370" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="C370" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D370" s="1">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="E370">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F370" s="1">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="G370" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H370" s="4">
         <v>45817</v>
       </c>
       <c r="I370" s="4">
-        <v>45847</v>
+        <v>45878</v>
       </c>
       <c r="J370" t="s">
         <v>54</v>
       </c>
       <c r="K370" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="371" spans="1:11">
       <c r="A371">
-        <v>41713947</v>
+        <v>41650084</v>
       </c>
       <c r="B371" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="C371" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="D371" s="1">
         <v>0.83</v>
       </c>
       <c r="E371">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F371" s="1">
         <v>0.83</v>
       </c>
       <c r="G371" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="H371" s="4">
-        <v>45792</v>
+        <v>45817</v>
       </c>
       <c r="I371" s="4">
-        <v>45799</v>
+        <v>45847</v>
       </c>
       <c r="J371" t="s">
         <v>54</v>
       </c>
       <c r="K371" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="372" spans="1:11">
       <c r="A372">
-        <v>41715130</v>
+        <v>41713947</v>
       </c>
       <c r="B372" s="1">
         <v>0.5</v>
@@ -14993,170 +15008,170 @@
         <v>0.83</v>
       </c>
       <c r="E372">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="F372" s="1">
         <v>0.83</v>
       </c>
       <c r="G372" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H372" s="4">
-        <v>45740</v>
+        <v>45792</v>
       </c>
       <c r="I372" s="4">
-        <v>45771</v>
+        <v>45799</v>
       </c>
       <c r="J372" t="s">
         <v>54</v>
       </c>
       <c r="K372" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="373" spans="1:11">
       <c r="A373">
-        <v>41729320</v>
+        <v>41715130</v>
       </c>
       <c r="B373" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C373" s="1">
         <v>0.17</v>
       </c>
       <c r="D373" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="E373">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F373" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="G373" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H373" s="4">
-        <v>45761</v>
+        <v>45740</v>
       </c>
       <c r="I373" s="4">
-        <v>45791</v>
+        <v>45771</v>
       </c>
       <c r="J373" t="s">
         <v>54</v>
       </c>
       <c r="K373" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="374" spans="1:11">
       <c r="A374">
-        <v>41730430</v>
+        <v>41729320</v>
       </c>
       <c r="B374" s="1">
-        <v>0.58</v>
+        <v>0.42</v>
       </c>
       <c r="C374" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D374" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="E374">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F374" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G374" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H374" s="4">
-        <v>45814</v>
+        <v>45761</v>
       </c>
       <c r="I374" s="4">
-        <v>45829</v>
+        <v>45791</v>
       </c>
       <c r="J374" t="s">
         <v>54</v>
       </c>
       <c r="K374" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="375" spans="1:11">
       <c r="A375">
-        <v>41731146</v>
+        <v>41730430</v>
       </c>
       <c r="B375" s="1">
-        <v>0.25</v>
+        <v>0.58</v>
       </c>
       <c r="C375" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D375" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="E375">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="F375" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="G375" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H375" s="4">
-        <v>45677</v>
+        <v>45819</v>
       </c>
       <c r="I375" s="4">
-        <v>45736</v>
+        <v>45826</v>
       </c>
       <c r="J375" t="s">
         <v>54</v>
       </c>
       <c r="K375" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="376" spans="1:11">
       <c r="A376">
-        <v>41732871</v>
+        <v>41731146</v>
       </c>
       <c r="B376" s="1">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="C376" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D376" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E376">
+        <v>7</v>
+      </c>
+      <c r="F376" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G376" t="s">
         <v>16</v>
       </c>
-      <c r="F376" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="G376" t="s">
-        <v>13</v>
-      </c>
       <c r="H376" s="4">
-        <v>45804</v>
+        <v>45677</v>
       </c>
       <c r="I376" s="4">
-        <v>45835</v>
+        <v>45736</v>
       </c>
       <c r="J376" t="s">
         <v>54</v>
       </c>
       <c r="K376" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="377" spans="1:11">
       <c r="A377">
-        <v>41733544</v>
+        <v>41732871</v>
       </c>
       <c r="B377" s="1">
         <v>0.33</v>
@@ -15168,258 +15183,258 @@
         <v>0.33</v>
       </c>
       <c r="E377">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F377" s="1">
         <v>0.33</v>
       </c>
       <c r="G377" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H377" s="4">
-        <v>45695</v>
+        <v>45804</v>
       </c>
       <c r="I377" s="4">
-        <v>45754</v>
+        <v>45835</v>
       </c>
       <c r="J377" t="s">
         <v>54</v>
       </c>
       <c r="K377" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="378" spans="1:11">
       <c r="A378">
-        <v>41813556</v>
+        <v>41733544</v>
       </c>
       <c r="B378" s="1">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="C378" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D378" s="1">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="E378">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F378" s="1">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G378" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H378" s="4">
-        <v>45806</v>
+        <v>45695</v>
       </c>
       <c r="I378" s="4">
-        <v>45821</v>
+        <v>45754</v>
       </c>
       <c r="J378" t="s">
         <v>54</v>
       </c>
       <c r="K378" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="379" spans="1:11">
       <c r="A379">
-        <v>41813612</v>
+        <v>41813556</v>
       </c>
       <c r="B379" s="1">
-        <v>0.58</v>
+        <v>0.75</v>
       </c>
       <c r="C379" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="D379" s="1">
         <v>1</v>
       </c>
       <c r="E379">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F379" s="1">
         <v>1</v>
       </c>
       <c r="G379" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H379" s="4">
-        <v>45803</v>
+        <v>45806</v>
       </c>
       <c r="I379" s="4">
-        <v>45834</v>
+        <v>45821</v>
       </c>
       <c r="J379" t="s">
         <v>54</v>
       </c>
       <c r="K379" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="380" spans="1:11">
       <c r="A380">
-        <v>41864979</v>
+        <v>41813612</v>
       </c>
       <c r="B380" s="1">
         <v>0.58</v>
       </c>
       <c r="C380" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="D380" s="1">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="E380">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F380" s="1">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="G380" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H380" s="4">
-        <v>45672</v>
+        <v>45803</v>
       </c>
       <c r="I380" s="4">
-        <v>45687</v>
+        <v>45834</v>
       </c>
       <c r="J380" t="s">
         <v>54</v>
       </c>
       <c r="K380" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="381" spans="1:11">
       <c r="A381">
-        <v>41865386</v>
+        <v>41864979</v>
       </c>
       <c r="B381" s="1">
         <v>0.58</v>
       </c>
       <c r="C381" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D381" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="E381">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F381" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G381" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H381" s="4">
-        <v>45779</v>
+        <v>45672</v>
       </c>
       <c r="I381" s="4">
-        <v>45794</v>
+        <v>45687</v>
       </c>
       <c r="J381" t="s">
         <v>54</v>
       </c>
       <c r="K381" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="382" spans="1:11">
       <c r="A382">
-        <v>41997778</v>
+        <v>41865386</v>
       </c>
       <c r="B382" s="1">
-        <v>0.42</v>
+        <v>0.58</v>
       </c>
       <c r="C382" s="1">
         <v>0.33</v>
       </c>
       <c r="D382" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="E382">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F382" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="G382" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H382" s="4">
-        <v>45817</v>
+        <v>45779</v>
       </c>
       <c r="I382" s="4">
-        <v>45878</v>
+        <v>45794</v>
       </c>
       <c r="J382" t="s">
         <v>54</v>
       </c>
       <c r="K382" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="383" spans="1:11">
       <c r="A383">
-        <v>42017745</v>
+        <v>41997778</v>
       </c>
       <c r="B383" s="1">
-        <v>0.83</v>
+        <v>0.42</v>
       </c>
       <c r="C383" s="1">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="D383" s="1">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="E383">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="F383" s="1">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="G383" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="H383" s="4">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="I383" s="4">
-        <v>45817</v>
+        <v>45878</v>
       </c>
       <c r="J383" t="s">
         <v>54</v>
       </c>
       <c r="K383" t="s">
-        <v>179</v>
+        <v>494</v>
       </c>
     </row>
     <row r="384" spans="1:11">
       <c r="A384">
-        <v>42017749</v>
+        <v>42017745</v>
       </c>
       <c r="B384" s="1">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="C384" s="1">
         <v>0.83</v>
       </c>
       <c r="D384" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="E384">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F384" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G384" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H384" s="4">
         <v>45810</v>
@@ -15431,762 +15446,762 @@
         <v>54</v>
       </c>
       <c r="K384" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="385" spans="1:11">
       <c r="A385">
-        <v>42083315</v>
+        <v>42017749</v>
       </c>
       <c r="B385" s="1">
-        <v>0.42</v>
+        <v>0.92</v>
       </c>
       <c r="C385" s="1">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="D385" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E385">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F385" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G385" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H385" s="4">
-        <v>45693</v>
+        <v>45810</v>
       </c>
       <c r="I385" s="4">
-        <v>45721</v>
+        <v>45817</v>
       </c>
       <c r="J385" t="s">
         <v>54</v>
       </c>
       <c r="K385" t="s">
-        <v>490</v>
+        <v>183</v>
       </c>
     </row>
     <row r="386" spans="1:11">
       <c r="A386">
-        <v>42220608</v>
+        <v>42083315</v>
       </c>
       <c r="B386" s="1">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="C386" s="1">
         <v>0.33</v>
       </c>
       <c r="D386" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="E386">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F386" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G386" t="s">
         <v>15</v>
       </c>
       <c r="H386" s="4">
-        <v>45818</v>
+        <v>45693</v>
       </c>
       <c r="I386" s="4">
-        <v>45848</v>
+        <v>45721</v>
       </c>
       <c r="J386" t="s">
         <v>54</v>
       </c>
       <c r="K386" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="387" spans="1:11">
       <c r="A387">
-        <v>42286627</v>
+        <v>42220608</v>
       </c>
       <c r="B387" s="1">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="C387" s="1">
         <v>0.33</v>
       </c>
       <c r="D387" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="E387">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="F387" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G387" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="H387" s="4">
-        <v>45814</v>
+        <v>45818</v>
       </c>
       <c r="I387" s="4">
-        <v>45821</v>
+        <v>45848</v>
       </c>
       <c r="J387" t="s">
         <v>54</v>
       </c>
       <c r="K387" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="388" spans="1:11">
       <c r="A388">
-        <v>42420174</v>
+        <v>42286627</v>
       </c>
       <c r="B388" s="1">
-        <v>0.25</v>
+        <v>0.58</v>
       </c>
       <c r="C388" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D388" s="1">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="E388">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F388" s="1">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="G388" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H388" s="4">
-        <v>45797</v>
+        <v>45819</v>
       </c>
       <c r="I388" s="4">
-        <v>45858</v>
+        <v>45826</v>
       </c>
       <c r="J388" t="s">
         <v>54</v>
       </c>
       <c r="K388" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="389" spans="1:11">
       <c r="A389">
-        <v>42470906</v>
+        <v>42420174</v>
       </c>
       <c r="B389" s="1">
-        <v>0.58</v>
+        <v>0.25</v>
       </c>
       <c r="C389" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D389" s="1">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="E389">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F389" s="1">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="G389" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H389" s="4">
-        <v>45818</v>
+        <v>45797</v>
       </c>
       <c r="I389" s="4">
-        <v>45833</v>
+        <v>45858</v>
       </c>
       <c r="J389" t="s">
         <v>54</v>
       </c>
       <c r="K389" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="390" spans="1:11">
       <c r="A390">
-        <v>42540364</v>
+        <v>42470906</v>
       </c>
       <c r="B390" s="1">
-        <v>0.25</v>
+        <v>0.58</v>
       </c>
       <c r="C390" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D390" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="E390">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F390" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="G390" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H390" s="4">
-        <v>45702</v>
+        <v>45818</v>
       </c>
       <c r="I390" s="4">
-        <v>45761</v>
+        <v>45833</v>
       </c>
       <c r="J390" t="s">
         <v>54</v>
       </c>
       <c r="K390" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="391" spans="1:11">
       <c r="A391">
-        <v>42541112</v>
+        <v>42540364</v>
       </c>
       <c r="B391" s="1">
         <v>0.25</v>
       </c>
       <c r="C391" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D391" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E391">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F391" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G391" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H391" s="4">
-        <v>45807</v>
+        <v>45702</v>
       </c>
       <c r="I391" s="4">
-        <v>45868</v>
+        <v>45761</v>
       </c>
       <c r="J391" t="s">
         <v>54</v>
       </c>
       <c r="K391" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="392" spans="1:11">
       <c r="A392">
-        <v>42552059</v>
+        <v>42541112</v>
       </c>
       <c r="B392" s="1">
-        <v>0.58</v>
+        <v>0.25</v>
       </c>
       <c r="C392" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="D392" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E392">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F392" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G392" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H392" s="4">
-        <v>45786</v>
+        <v>45807</v>
       </c>
       <c r="I392" s="4">
-        <v>45817</v>
+        <v>45868</v>
       </c>
       <c r="J392" t="s">
         <v>54</v>
       </c>
       <c r="K392" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="393" spans="1:11">
       <c r="A393">
-        <v>42552469</v>
+        <v>42552059</v>
       </c>
       <c r="B393" s="1">
-        <v>0.25</v>
+        <v>0.58</v>
       </c>
       <c r="C393" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="D393" s="1">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="E393">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F393" s="1">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="G393" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H393" s="4">
-        <v>45803</v>
+        <v>45786</v>
       </c>
       <c r="I393" s="4">
-        <v>45818</v>
+        <v>45817</v>
       </c>
       <c r="J393" t="s">
         <v>54</v>
       </c>
       <c r="K393" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="394" spans="1:11">
       <c r="A394">
-        <v>42552750</v>
+        <v>42552469</v>
       </c>
       <c r="B394" s="1">
-        <v>0.58</v>
+        <v>0.25</v>
       </c>
       <c r="C394" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D394" s="1">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="E394">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F394" s="1">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="G394" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H394" s="4">
-        <v>45681</v>
+        <v>45803</v>
       </c>
       <c r="I394" s="4">
-        <v>45712</v>
+        <v>45818</v>
       </c>
       <c r="J394" t="s">
         <v>54</v>
       </c>
       <c r="K394" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="395" spans="1:11">
       <c r="A395">
-        <v>42661492</v>
+        <v>42552750</v>
       </c>
       <c r="B395" s="1">
-        <v>0.25</v>
+        <v>0.58</v>
       </c>
       <c r="C395" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D395" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="E395">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F395" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="G395" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="H395" s="4">
-        <v>45784</v>
+        <v>45681</v>
       </c>
       <c r="I395" s="4">
-        <v>45845</v>
+        <v>45712</v>
       </c>
       <c r="J395" t="s">
         <v>54</v>
       </c>
       <c r="K395" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="396" spans="1:11">
       <c r="A396">
-        <v>42714199</v>
+        <v>42661492</v>
       </c>
       <c r="B396" s="1">
-        <v>0.92</v>
+        <v>0.33</v>
       </c>
       <c r="C396" s="1">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="D396" s="1">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="E396">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F396" s="1">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="G396" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H396" s="4">
-        <v>45814</v>
+        <v>45819</v>
       </c>
       <c r="I396" s="4">
-        <v>45829</v>
+        <v>45880</v>
       </c>
       <c r="J396" t="s">
         <v>54</v>
       </c>
       <c r="K396" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="397" spans="1:11">
       <c r="A397">
-        <v>42821101</v>
+        <v>42714199</v>
       </c>
       <c r="B397" s="1">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="C397" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="D397" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E397">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F397" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G397" t="s">
         <v>18</v>
       </c>
       <c r="H397" s="4">
-        <v>45805</v>
+        <v>45814</v>
       </c>
       <c r="I397" s="4">
-        <v>45820</v>
+        <v>45829</v>
       </c>
       <c r="J397" t="s">
         <v>54</v>
       </c>
       <c r="K397" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="398" spans="1:11">
       <c r="A398">
-        <v>43021223</v>
+        <v>42821101</v>
       </c>
       <c r="B398" s="1">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C398" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="D398" s="1">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="E398">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F398" s="1">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="G398" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H398" s="4">
-        <v>45770</v>
+        <v>45819</v>
       </c>
       <c r="I398" s="4">
-        <v>45831</v>
+        <v>45834</v>
       </c>
       <c r="J398" t="s">
         <v>54</v>
       </c>
       <c r="K398" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
     </row>
     <row r="399" spans="1:11">
       <c r="A399">
-        <v>43069321</v>
+        <v>43021223</v>
       </c>
       <c r="B399" s="1">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="C399" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D399" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E399">
+        <v>7</v>
+      </c>
+      <c r="F399" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G399" t="s">
         <v>12</v>
       </c>
-      <c r="F399" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G399" t="s">
-        <v>13</v>
-      </c>
       <c r="H399" s="4">
-        <v>45751</v>
+        <v>45770</v>
       </c>
       <c r="I399" s="4">
-        <v>45781</v>
+        <v>45831</v>
       </c>
       <c r="J399" t="s">
         <v>54</v>
       </c>
       <c r="K399" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="400" spans="1:11">
       <c r="A400">
-        <v>43406890</v>
+        <v>43069321</v>
       </c>
       <c r="B400" s="1">
         <v>0.42</v>
       </c>
       <c r="C400" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D400" s="1">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="E400">
+        <v>12</v>
+      </c>
+      <c r="F400" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G400" t="s">
         <v>13</v>
       </c>
-      <c r="F400" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="G400" t="s">
-        <v>15</v>
-      </c>
       <c r="H400" s="4">
-        <v>45783</v>
+        <v>45751</v>
       </c>
       <c r="I400" s="4">
-        <v>45814</v>
+        <v>45781</v>
       </c>
       <c r="J400" t="s">
         <v>54</v>
       </c>
       <c r="K400" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="401" spans="1:11">
       <c r="A401">
-        <v>43619679</v>
+        <v>43406890</v>
       </c>
       <c r="B401" s="1">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="C401" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D401" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="E401">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F401" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="G401" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H401" s="4">
-        <v>45805</v>
+        <v>45819</v>
       </c>
       <c r="I401" s="4">
-        <v>45836</v>
+        <v>45849</v>
       </c>
       <c r="J401" t="s">
         <v>54</v>
       </c>
       <c r="K401" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="402" spans="1:11">
       <c r="A402">
-        <v>43625606</v>
+        <v>43619679</v>
       </c>
       <c r="B402" s="1">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="C402" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D402" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E402">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F402" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G402" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H402" s="4">
-        <v>45566</v>
-      </c>
-      <c r="I402" s="2" t="s">
-        <v>53</v>
+        <v>45805</v>
+      </c>
+      <c r="I402" s="4">
+        <v>45836</v>
       </c>
       <c r="J402" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="K402" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="403" spans="1:11">
       <c r="A403">
-        <v>43854910</v>
+        <v>43625606</v>
       </c>
       <c r="B403" s="1">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="C403" s="1">
-        <v>0.67</v>
+        <v>0.25</v>
       </c>
       <c r="D403" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E403">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="F403" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G403" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H403" s="4">
-        <v>45817</v>
-      </c>
-      <c r="I403" s="4">
-        <v>45824</v>
+        <v>45566</v>
+      </c>
+      <c r="I403" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="J403" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="K403" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="404" spans="1:11">
       <c r="A404">
-        <v>44111256</v>
+        <v>43854910</v>
       </c>
       <c r="B404" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="C404" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="D404" s="1">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="E404">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="F404" s="1">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="G404" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H404" s="4">
-        <v>45789</v>
+        <v>45819</v>
       </c>
       <c r="I404" s="4">
-        <v>45850</v>
+        <v>45826</v>
       </c>
       <c r="J404" t="s">
         <v>54</v>
       </c>
       <c r="K404" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="405" spans="1:11">
       <c r="A405">
-        <v>44116467</v>
+        <v>44111256</v>
       </c>
       <c r="B405" s="1">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="C405" s="1">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="D405" s="1">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="E405">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="F405" s="1">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G405" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H405" s="4">
-        <v>45817</v>
+        <v>45789</v>
       </c>
       <c r="I405" s="4">
-        <v>45832</v>
+        <v>45850</v>
       </c>
       <c r="J405" t="s">
         <v>54</v>
       </c>
       <c r="K405" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="406" spans="1:11">
       <c r="A406">
-        <v>45106276</v>
+        <v>44116467</v>
       </c>
       <c r="B406" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="C406" s="1">
         <v>0.67</v>
       </c>
       <c r="D406" s="1">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="E406">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F406" s="1">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="G406" t="s">
         <v>18</v>
@@ -16201,672 +16216,707 @@
         <v>54</v>
       </c>
       <c r="K406" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="407" spans="1:11">
       <c r="A407">
-        <v>45352640</v>
+        <v>45106276</v>
       </c>
       <c r="B407" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="C407" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="D407" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E407">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F407" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G407" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="H407" s="4">
-        <v>45792</v>
+        <v>45817</v>
       </c>
       <c r="I407" s="4">
-        <v>45823</v>
+        <v>45832</v>
       </c>
       <c r="J407" t="s">
         <v>54</v>
       </c>
       <c r="K407" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="408" spans="1:11">
       <c r="A408">
-        <v>46101447</v>
+        <v>45352640</v>
       </c>
       <c r="B408" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C408" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D408" s="1">
         <v>0.5</v>
       </c>
       <c r="E408">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F408" s="1">
         <v>0.5</v>
       </c>
       <c r="G408" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H408" s="4">
-        <v>45750</v>
+        <v>45792</v>
       </c>
       <c r="I408" s="4">
-        <v>45765</v>
+        <v>45823</v>
       </c>
       <c r="J408" t="s">
         <v>54</v>
       </c>
       <c r="K408" t="s">
-        <v>179</v>
+        <v>515</v>
       </c>
     </row>
     <row r="409" spans="1:11">
       <c r="A409">
-        <v>46420329</v>
+        <v>46101447</v>
       </c>
       <c r="B409" s="1">
-        <v>0.92</v>
+        <v>0.42</v>
       </c>
       <c r="C409" s="1">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="D409" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E409">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F409" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G409" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H409" s="4">
-        <v>45803</v>
+        <v>45750</v>
       </c>
       <c r="I409" s="4">
-        <v>45818</v>
+        <v>45765</v>
       </c>
       <c r="J409" t="s">
         <v>54</v>
       </c>
       <c r="K409" t="s">
-        <v>511</v>
+        <v>183</v>
       </c>
     </row>
     <row r="410" spans="1:11">
       <c r="A410">
-        <v>46434280</v>
+        <v>46420329</v>
       </c>
       <c r="B410" s="1">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="C410" s="1">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="D410" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E410">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F410" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G410" t="s">
         <v>33</v>
       </c>
       <c r="H410" s="4">
-        <v>45811</v>
+        <v>45803</v>
       </c>
       <c r="I410" s="4">
-        <v>45826</v>
+        <v>45818</v>
       </c>
       <c r="J410" t="s">
         <v>54</v>
       </c>
       <c r="K410" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="411" spans="1:11">
       <c r="A411">
-        <v>46607426</v>
+        <v>46434280</v>
       </c>
       <c r="B411" s="1">
         <v>0.5</v>
       </c>
       <c r="C411" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D411" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="E411">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F411" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="G411" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H411" s="4">
-        <v>45812</v>
+        <v>45811</v>
       </c>
       <c r="I411" s="4">
-        <v>45873</v>
+        <v>45826</v>
       </c>
       <c r="J411" t="s">
         <v>54</v>
       </c>
       <c r="K411" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="412" spans="1:11">
       <c r="A412">
-        <v>46627477</v>
+        <v>46607426</v>
       </c>
       <c r="B412" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="C412" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D412" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="E412">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F412" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G412" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H412" s="4">
-        <v>45803</v>
+        <v>45812</v>
       </c>
       <c r="I412" s="4">
-        <v>45818</v>
+        <v>45873</v>
       </c>
       <c r="J412" t="s">
         <v>54</v>
       </c>
       <c r="K412" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="413" spans="1:11">
       <c r="A413">
-        <v>46892702</v>
+        <v>46627477</v>
       </c>
       <c r="B413" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="C413" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D413" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="E413">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F413" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="G413" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H413" s="4">
-        <v>45805</v>
+        <v>45803</v>
       </c>
       <c r="I413" s="4">
-        <v>45836</v>
+        <v>45818</v>
       </c>
       <c r="J413" t="s">
         <v>54</v>
       </c>
       <c r="K413" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="414" spans="1:11">
       <c r="A414">
-        <v>46894433</v>
+        <v>46892702</v>
       </c>
       <c r="B414" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C414" s="1">
         <v>0.33</v>
       </c>
       <c r="D414" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E414">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F414" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G414" t="s">
         <v>13</v>
       </c>
       <c r="H414" s="4">
-        <v>45807</v>
+        <v>45805</v>
       </c>
       <c r="I414" s="4">
-        <v>45838</v>
+        <v>45836</v>
       </c>
       <c r="J414" t="s">
         <v>54</v>
       </c>
       <c r="K414" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="415" spans="1:11">
       <c r="A415">
-        <v>47233429</v>
+        <v>46894433</v>
       </c>
       <c r="B415" s="1">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
       <c r="C415" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D415" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E415">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F415" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G415" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="H415" s="4">
-        <v>45666</v>
+        <v>45807</v>
       </c>
       <c r="I415" s="4">
-        <v>45673</v>
+        <v>45838</v>
       </c>
       <c r="J415" t="s">
         <v>54</v>
       </c>
       <c r="K415" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="416" spans="1:11">
       <c r="A416">
-        <v>47345090</v>
+        <v>47233429</v>
       </c>
       <c r="B416" s="1">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
       <c r="C416" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="D416" s="1">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="E416">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F416" s="1">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="G416" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H416" s="4">
-        <v>45817</v>
+        <v>45666</v>
       </c>
       <c r="I416" s="4">
-        <v>45847</v>
+        <v>45673</v>
       </c>
       <c r="J416" t="s">
         <v>54</v>
       </c>
       <c r="K416" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="417" spans="1:11">
       <c r="A417">
-        <v>47365963</v>
+        <v>47345090</v>
       </c>
       <c r="B417" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="C417" s="1">
         <v>0.17</v>
       </c>
       <c r="D417" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="E417">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F417" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="G417" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H417" s="4">
-        <v>45790</v>
+        <v>45817</v>
       </c>
       <c r="I417" s="4">
-        <v>45851</v>
+        <v>45847</v>
       </c>
       <c r="J417" t="s">
         <v>54</v>
       </c>
       <c r="K417" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="418" spans="1:11">
       <c r="A418">
-        <v>47493967</v>
+        <v>47365963</v>
       </c>
       <c r="B418" s="1">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="C418" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D418" s="1">
         <v>0.5</v>
       </c>
       <c r="E418">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F418" s="1">
         <v>0.5</v>
       </c>
       <c r="G418" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H418" s="4">
-        <v>45817</v>
+        <v>45790</v>
       </c>
       <c r="I418" s="4">
-        <v>45847</v>
+        <v>45851</v>
       </c>
       <c r="J418" t="s">
         <v>54</v>
       </c>
       <c r="K418" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="419" spans="1:11">
       <c r="A419">
-        <v>48108538</v>
+        <v>47493967</v>
       </c>
       <c r="B419" s="1">
-        <v>0.7</v>
+        <v>0.42</v>
       </c>
       <c r="C419" s="1">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="D419" s="1">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E419">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F419" s="1">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G419" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H419" s="4">
-        <v>45770</v>
+        <v>45817</v>
       </c>
       <c r="I419" s="4">
-        <v>45785</v>
+        <v>45847</v>
       </c>
       <c r="J419" t="s">
         <v>54</v>
       </c>
       <c r="K419" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="420" spans="1:11">
       <c r="A420">
-        <v>48544566</v>
+        <v>48108538</v>
       </c>
       <c r="B420" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C420" s="1">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D420" s="1">
         <v>0.8</v>
       </c>
       <c r="E420">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F420" s="1">
         <v>0.8</v>
       </c>
       <c r="G420" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H420" s="4">
-        <v>45803</v>
+        <v>45770</v>
       </c>
       <c r="I420" s="4">
-        <v>45834</v>
+        <v>45785</v>
       </c>
       <c r="J420" t="s">
         <v>54</v>
       </c>
       <c r="K420" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="421" spans="1:11">
       <c r="A421">
-        <v>48999595</v>
+        <v>48544566</v>
       </c>
       <c r="B421" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="C421" s="1">
-        <v>0.67</v>
+        <v>0.2</v>
       </c>
       <c r="D421" s="1">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="E421">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F421" s="1">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="G421" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="H421" s="4">
-        <v>45811</v>
+        <v>45803</v>
       </c>
       <c r="I421" s="4">
-        <v>45818</v>
+        <v>45834</v>
       </c>
       <c r="J421" t="s">
         <v>54</v>
       </c>
       <c r="K421" t="s">
-        <v>179</v>
+        <v>527</v>
       </c>
     </row>
     <row r="422" spans="1:11">
       <c r="A422">
-        <v>49339926</v>
+        <v>48999595</v>
       </c>
       <c r="B422" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="C422" s="1">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="D422" s="1">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="E422">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F422" s="1">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="G422" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H422" s="4">
-        <v>45797</v>
+        <v>45811</v>
       </c>
       <c r="I422" s="4">
-        <v>45812</v>
+        <v>45818</v>
       </c>
       <c r="J422" t="s">
         <v>54</v>
       </c>
       <c r="K422" t="s">
-        <v>523</v>
+        <v>183</v>
       </c>
     </row>
     <row r="423" spans="1:11">
       <c r="A423">
-        <v>49788489</v>
+        <v>49339926</v>
       </c>
       <c r="B423" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C423" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D423" s="1">
         <v>1</v>
       </c>
       <c r="E423">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F423" s="1">
         <v>1</v>
       </c>
       <c r="G423" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H423" s="4">
-        <v>45807</v>
+        <v>45797</v>
       </c>
       <c r="I423" s="4">
-        <v>45814</v>
+        <v>45812</v>
       </c>
       <c r="J423" t="s">
         <v>54</v>
       </c>
       <c r="K423" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="424" spans="1:11">
       <c r="A424">
-        <v>50596239</v>
+        <v>49788489</v>
       </c>
       <c r="B424" s="1">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="C424" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D424" s="1">
         <v>1</v>
       </c>
       <c r="E424">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F424" s="1">
         <v>1</v>
       </c>
       <c r="G424" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H424" s="4">
-        <v>45791</v>
+        <v>45807</v>
       </c>
       <c r="I424" s="4">
-        <v>45806</v>
+        <v>45814</v>
       </c>
       <c r="J424" t="s">
         <v>54</v>
       </c>
       <c r="K424" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="425" spans="1:11">
       <c r="A425">
-        <v>51584143</v>
+        <v>50596239</v>
       </c>
       <c r="B425" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="C425" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="D425" s="1">
         <v>1</v>
       </c>
       <c r="E425">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F425" s="1">
         <v>1</v>
       </c>
       <c r="G425" t="s">
+        <v>33</v>
+      </c>
+      <c r="H425" s="4">
+        <v>45791</v>
+      </c>
+      <c r="I425" s="4">
+        <v>45806</v>
+      </c>
+      <c r="J425" t="s">
+        <v>54</v>
+      </c>
+      <c r="K425" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11">
+      <c r="A426">
+        <v>51584143</v>
+      </c>
+      <c r="B426" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="C426" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="D426" s="1">
+        <v>1</v>
+      </c>
+      <c r="E426">
+        <v>14</v>
+      </c>
+      <c r="F426" s="1">
+        <v>1</v>
+      </c>
+      <c r="G426" t="s">
         <v>44</v>
       </c>
-      <c r="H425" s="4">
+      <c r="H426" s="4">
         <v>45814</v>
       </c>
-      <c r="I425" s="4">
+      <c r="I426" s="4">
         <v>45821</v>
       </c>
-      <c r="J425" t="s">
-        <v>54</v>
-      </c>
-      <c r="K425" t="s">
-        <v>526</v>
+      <c r="J426" t="s">
+        <v>54</v>
+      </c>
+      <c r="K426" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
+++ b/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="530">
   <si>
     <t>id_cliente</t>
   </si>
@@ -181,10 +181,10 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 45.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 45.5 meses sem comprar</t>
+    <t>INATIVO - 45.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 45.3 meses sem comprar</t>
@@ -193,7 +193,7 @@
     <t>INATIVO - 38.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 39.2 meses sem comprar</t>
+    <t>INATIVO - 39.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 42.3 meses sem comprar</t>
@@ -202,22 +202,19 @@
     <t>INATIVO - 50.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 45.8 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 29.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 39.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 48.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 45.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.7 meses sem comprar</t>
+    <t>INATIVO - 48.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.8 meses sem comprar</t>
@@ -226,280 +223,277 @@
     <t>INATIVO - 49.1 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 11.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 46.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.2 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 11.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 0.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 46.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.8 meses sem comprar</t>
+    <t>INATIVO - 12.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 11.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 8.7 meses sem comprar</t>
+    <t>INATIVO - 8.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 10.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 8.5 meses sem comprar</t>
@@ -2076,7 +2070,7 @@
         <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2111,7 +2105,7 @@
         <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2146,7 +2140,7 @@
         <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2181,7 +2175,7 @@
         <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2216,7 +2210,7 @@
         <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2251,7 +2245,7 @@
         <v>57</v>
       </c>
       <c r="K7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2286,7 +2280,7 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2321,7 +2315,7 @@
         <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2356,7 +2350,7 @@
         <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2391,7 +2385,7 @@
         <v>61</v>
       </c>
       <c r="K11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2423,10 +2417,10 @@
         <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2458,10 +2452,10 @@
         <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2493,10 +2487,10 @@
         <v>53</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2528,10 +2522,10 @@
         <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2563,10 +2557,10 @@
         <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2598,10 +2592,10 @@
         <v>53</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2636,7 +2630,7 @@
         <v>54</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2668,10 +2662,10 @@
         <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2703,10 +2697,10 @@
         <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2738,10 +2732,10 @@
         <v>53</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2773,10 +2767,10 @@
         <v>53</v>
       </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2808,10 +2802,10 @@
         <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2843,10 +2837,10 @@
         <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2878,10 +2872,10 @@
         <v>53</v>
       </c>
       <c r="J25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2916,7 +2910,7 @@
         <v>54</v>
       </c>
       <c r="K26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2948,10 +2942,10 @@
         <v>53</v>
       </c>
       <c r="J27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2983,10 +2977,10 @@
         <v>53</v>
       </c>
       <c r="J28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3021,7 +3015,7 @@
         <v>54</v>
       </c>
       <c r="K29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3053,10 +3047,10 @@
         <v>53</v>
       </c>
       <c r="J30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3091,7 +3085,7 @@
         <v>54</v>
       </c>
       <c r="K31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3126,7 +3120,7 @@
         <v>54</v>
       </c>
       <c r="K32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3143,7 +3137,7 @@
         <v>0.83</v>
       </c>
       <c r="E33">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F33" s="1">
         <v>0.83</v>
@@ -3152,16 +3146,16 @@
         <v>18</v>
       </c>
       <c r="H33" s="4">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="I33" s="4">
-        <v>45827</v>
+        <v>45835</v>
       </c>
       <c r="J33" t="s">
         <v>54</v>
       </c>
       <c r="K33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3196,7 +3190,7 @@
         <v>54</v>
       </c>
       <c r="K34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3228,10 +3222,10 @@
         <v>53</v>
       </c>
       <c r="J35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3263,10 +3257,10 @@
         <v>53</v>
       </c>
       <c r="J36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3298,10 +3292,10 @@
         <v>53</v>
       </c>
       <c r="J37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3333,10 +3327,10 @@
         <v>53</v>
       </c>
       <c r="J38" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3371,7 +3365,7 @@
         <v>54</v>
       </c>
       <c r="K39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3379,16 +3373,16 @@
         <v>3305020</v>
       </c>
       <c r="B40" s="1">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="C40" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="D40" s="1">
         <v>0.67</v>
       </c>
       <c r="E40">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F40" s="1">
         <v>0.67</v>
@@ -3397,16 +3391,16 @@
         <v>13</v>
       </c>
       <c r="H40" s="4">
-        <v>45791</v>
+        <v>45820</v>
       </c>
       <c r="I40" s="4">
-        <v>45822</v>
+        <v>45850</v>
       </c>
       <c r="J40" t="s">
         <v>54</v>
       </c>
       <c r="K40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3441,7 +3435,7 @@
         <v>54</v>
       </c>
       <c r="K41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3473,10 +3467,10 @@
         <v>53</v>
       </c>
       <c r="J42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3508,10 +3502,10 @@
         <v>53</v>
       </c>
       <c r="J43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3546,7 +3540,7 @@
         <v>54</v>
       </c>
       <c r="K44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3578,10 +3572,10 @@
         <v>53</v>
       </c>
       <c r="J45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3616,7 +3610,7 @@
         <v>54</v>
       </c>
       <c r="K46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3648,10 +3642,10 @@
         <v>53</v>
       </c>
       <c r="J47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3686,7 +3680,7 @@
         <v>54</v>
       </c>
       <c r="K48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3721,7 +3715,7 @@
         <v>54</v>
       </c>
       <c r="K49" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3756,7 +3750,7 @@
         <v>54</v>
       </c>
       <c r="K50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3791,7 +3785,7 @@
         <v>54</v>
       </c>
       <c r="K51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3823,10 +3817,10 @@
         <v>53</v>
       </c>
       <c r="J52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3861,7 +3855,7 @@
         <v>54</v>
       </c>
       <c r="K53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3896,7 +3890,7 @@
         <v>54</v>
       </c>
       <c r="K54" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3928,10 +3922,10 @@
         <v>53</v>
       </c>
       <c r="J55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K55" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3963,10 +3957,10 @@
         <v>53</v>
       </c>
       <c r="J56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -4001,7 +3995,7 @@
         <v>54</v>
       </c>
       <c r="K57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -4033,10 +4027,10 @@
         <v>53</v>
       </c>
       <c r="J58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4068,10 +4062,10 @@
         <v>53</v>
       </c>
       <c r="J59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4103,10 +4097,10 @@
         <v>53</v>
       </c>
       <c r="J60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4138,10 +4132,10 @@
         <v>53</v>
       </c>
       <c r="J61" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4173,10 +4167,10 @@
         <v>53</v>
       </c>
       <c r="J62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4208,10 +4202,10 @@
         <v>53</v>
       </c>
       <c r="J63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4243,10 +4237,10 @@
         <v>53</v>
       </c>
       <c r="J64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4278,10 +4272,10 @@
         <v>53</v>
       </c>
       <c r="J65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4313,10 +4307,10 @@
         <v>53</v>
       </c>
       <c r="J66" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K66" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4348,10 +4342,10 @@
         <v>53</v>
       </c>
       <c r="J67" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4383,10 +4377,10 @@
         <v>53</v>
       </c>
       <c r="J68" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K68" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4418,10 +4412,10 @@
         <v>53</v>
       </c>
       <c r="J69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K69" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4429,34 +4423,34 @@
         <v>3515790</v>
       </c>
       <c r="B70" s="1">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="C70" s="1">
         <v>0.33</v>
       </c>
       <c r="D70" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="E70">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F70" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G70" t="s">
         <v>28</v>
       </c>
       <c r="H70" s="4">
-        <v>45806</v>
+        <v>45820</v>
       </c>
       <c r="I70" s="4">
-        <v>45821</v>
+        <v>45835</v>
       </c>
       <c r="J70" t="s">
         <v>54</v>
       </c>
       <c r="K70" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4488,10 +4482,10 @@
         <v>53</v>
       </c>
       <c r="J71" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4526,7 +4520,7 @@
         <v>54</v>
       </c>
       <c r="K72" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4558,10 +4552,10 @@
         <v>53</v>
       </c>
       <c r="J73" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K73" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4593,10 +4587,10 @@
         <v>53</v>
       </c>
       <c r="J74" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K74" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4628,10 +4622,10 @@
         <v>53</v>
       </c>
       <c r="J75" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K75" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4666,7 +4660,7 @@
         <v>54</v>
       </c>
       <c r="K76" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4701,7 +4695,7 @@
         <v>54</v>
       </c>
       <c r="K77" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4736,7 +4730,7 @@
         <v>54</v>
       </c>
       <c r="K78" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4768,10 +4762,10 @@
         <v>53</v>
       </c>
       <c r="J79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K79" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4803,10 +4797,10 @@
         <v>53</v>
       </c>
       <c r="J80" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K80" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4841,7 +4835,7 @@
         <v>54</v>
       </c>
       <c r="K81" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4873,10 +4867,10 @@
         <v>53</v>
       </c>
       <c r="J82" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K82" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4911,7 +4905,7 @@
         <v>54</v>
       </c>
       <c r="K83" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4946,7 +4940,7 @@
         <v>54</v>
       </c>
       <c r="K84" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4978,10 +4972,10 @@
         <v>53</v>
       </c>
       <c r="J85" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K85" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -5016,7 +5010,7 @@
         <v>54</v>
       </c>
       <c r="K86" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5048,10 +5042,10 @@
         <v>53</v>
       </c>
       <c r="J87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K87" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -5086,7 +5080,7 @@
         <v>54</v>
       </c>
       <c r="K88" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5118,10 +5112,10 @@
         <v>53</v>
       </c>
       <c r="J89" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K89" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5153,10 +5147,10 @@
         <v>53</v>
       </c>
       <c r="J90" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K90" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5191,7 +5185,7 @@
         <v>54</v>
       </c>
       <c r="K91" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5223,10 +5217,10 @@
         <v>53</v>
       </c>
       <c r="J92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K92" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5258,10 +5252,10 @@
         <v>53</v>
       </c>
       <c r="J93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K93" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5293,10 +5287,10 @@
         <v>53</v>
       </c>
       <c r="J94" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K94" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5331,7 +5325,7 @@
         <v>54</v>
       </c>
       <c r="K95" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5363,10 +5357,10 @@
         <v>53</v>
       </c>
       <c r="J96" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K96" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5401,7 +5395,7 @@
         <v>54</v>
       </c>
       <c r="K97" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5436,7 +5430,7 @@
         <v>54</v>
       </c>
       <c r="K98" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5468,10 +5462,10 @@
         <v>53</v>
       </c>
       <c r="J99" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K99" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5506,7 +5500,7 @@
         <v>54</v>
       </c>
       <c r="K100" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5538,10 +5532,10 @@
         <v>53</v>
       </c>
       <c r="J101" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5573,10 +5567,10 @@
         <v>53</v>
       </c>
       <c r="J102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K102" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5611,7 +5605,7 @@
         <v>54</v>
       </c>
       <c r="K103" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5643,10 +5637,10 @@
         <v>53</v>
       </c>
       <c r="J104" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K104" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5681,7 +5675,7 @@
         <v>54</v>
       </c>
       <c r="K105" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5716,7 +5710,7 @@
         <v>54</v>
       </c>
       <c r="K106" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5748,10 +5742,10 @@
         <v>53</v>
       </c>
       <c r="J107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K107" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5783,10 +5777,10 @@
         <v>53</v>
       </c>
       <c r="J108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K108" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5821,7 +5815,7 @@
         <v>54</v>
       </c>
       <c r="K109" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5853,10 +5847,10 @@
         <v>53</v>
       </c>
       <c r="J110" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K110" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5888,10 +5882,10 @@
         <v>53</v>
       </c>
       <c r="J111" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K111" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5923,10 +5917,10 @@
         <v>53</v>
       </c>
       <c r="J112" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="K112" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5961,7 +5955,7 @@
         <v>54</v>
       </c>
       <c r="K113" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5993,10 +5987,10 @@
         <v>53</v>
       </c>
       <c r="J114" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K114" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -6028,10 +6022,10 @@
         <v>53</v>
       </c>
       <c r="J115" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K115" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6063,10 +6057,10 @@
         <v>53</v>
       </c>
       <c r="J116" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K116" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -6098,10 +6092,10 @@
         <v>53</v>
       </c>
       <c r="J117" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K117" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6133,10 +6127,10 @@
         <v>53</v>
       </c>
       <c r="J118" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K118" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6168,10 +6162,10 @@
         <v>53</v>
       </c>
       <c r="J119" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K119" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6203,10 +6197,10 @@
         <v>53</v>
       </c>
       <c r="J120" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K120" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6241,7 +6235,7 @@
         <v>54</v>
       </c>
       <c r="K121" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6273,10 +6267,10 @@
         <v>53</v>
       </c>
       <c r="J122" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K122" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6311,7 +6305,7 @@
         <v>54</v>
       </c>
       <c r="K123" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6346,7 +6340,7 @@
         <v>54</v>
       </c>
       <c r="K124" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6378,10 +6372,10 @@
         <v>53</v>
       </c>
       <c r="J125" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K125" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6413,10 +6407,10 @@
         <v>53</v>
       </c>
       <c r="J126" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K126" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6451,7 +6445,7 @@
         <v>54</v>
       </c>
       <c r="K127" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6486,7 +6480,7 @@
         <v>54</v>
       </c>
       <c r="K128" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6518,10 +6512,10 @@
         <v>53</v>
       </c>
       <c r="J129" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K129" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6553,10 +6547,10 @@
         <v>53</v>
       </c>
       <c r="J130" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K130" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6591,7 +6585,7 @@
         <v>54</v>
       </c>
       <c r="K131" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6623,10 +6617,10 @@
         <v>53</v>
       </c>
       <c r="J132" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K132" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6634,34 +6628,34 @@
         <v>4967086</v>
       </c>
       <c r="B133" s="1">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="C133" s="1">
         <v>0</v>
       </c>
       <c r="D133" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="E133">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F133" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G133" t="s">
         <v>17</v>
       </c>
       <c r="H133" s="4">
-        <v>45762</v>
+        <v>45820</v>
       </c>
       <c r="I133" s="4">
-        <v>45823</v>
+        <v>45881</v>
       </c>
       <c r="J133" t="s">
         <v>54</v>
       </c>
       <c r="K133" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6696,7 +6690,7 @@
         <v>54</v>
       </c>
       <c r="K134" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -6731,7 +6725,7 @@
         <v>54</v>
       </c>
       <c r="K135" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -6763,10 +6757,10 @@
         <v>53</v>
       </c>
       <c r="J136" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K136" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6798,10 +6792,10 @@
         <v>53</v>
       </c>
       <c r="J137" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K137" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6836,7 +6830,7 @@
         <v>54</v>
       </c>
       <c r="K138" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6868,10 +6862,10 @@
         <v>53</v>
       </c>
       <c r="J139" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K139" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6903,10 +6897,10 @@
         <v>53</v>
       </c>
       <c r="J140" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K140" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6938,10 +6932,10 @@
         <v>53</v>
       </c>
       <c r="J141" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K141" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6973,10 +6967,10 @@
         <v>53</v>
       </c>
       <c r="J142" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K142" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -7011,7 +7005,7 @@
         <v>54</v>
       </c>
       <c r="K143" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -7043,10 +7037,10 @@
         <v>53</v>
       </c>
       <c r="J144" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K144" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -7081,7 +7075,7 @@
         <v>54</v>
       </c>
       <c r="K145" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -7116,7 +7110,7 @@
         <v>54</v>
       </c>
       <c r="K146" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7148,10 +7142,10 @@
         <v>53</v>
       </c>
       <c r="J147" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7186,7 +7180,7 @@
         <v>54</v>
       </c>
       <c r="K148" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7221,7 +7215,7 @@
         <v>54</v>
       </c>
       <c r="K149" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7256,7 +7250,7 @@
         <v>54</v>
       </c>
       <c r="K150" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7291,7 +7285,7 @@
         <v>54</v>
       </c>
       <c r="K151" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7326,7 +7320,7 @@
         <v>54</v>
       </c>
       <c r="K152" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7358,10 +7352,10 @@
         <v>53</v>
       </c>
       <c r="J153" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K153" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7396,7 +7390,7 @@
         <v>54</v>
       </c>
       <c r="K154" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7431,7 +7425,7 @@
         <v>54</v>
       </c>
       <c r="K155" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7463,10 +7457,10 @@
         <v>53</v>
       </c>
       <c r="J156" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K156" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -7501,7 +7495,7 @@
         <v>54</v>
       </c>
       <c r="K157" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -7536,7 +7530,7 @@
         <v>54</v>
       </c>
       <c r="K158" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -7571,7 +7565,7 @@
         <v>54</v>
       </c>
       <c r="K159" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -7606,7 +7600,7 @@
         <v>54</v>
       </c>
       <c r="K160" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -7641,7 +7635,7 @@
         <v>54</v>
       </c>
       <c r="K161" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7676,7 +7670,7 @@
         <v>54</v>
       </c>
       <c r="K162" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7711,7 +7705,7 @@
         <v>54</v>
       </c>
       <c r="K163" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -7743,10 +7737,10 @@
         <v>53</v>
       </c>
       <c r="J164" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K164" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7778,10 +7772,10 @@
         <v>53</v>
       </c>
       <c r="J165" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K165" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7816,7 +7810,7 @@
         <v>54</v>
       </c>
       <c r="K166" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7848,10 +7842,10 @@
         <v>53</v>
       </c>
       <c r="J167" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="K167" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -7883,10 +7877,10 @@
         <v>53</v>
       </c>
       <c r="J168" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K168" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7921,7 +7915,7 @@
         <v>54</v>
       </c>
       <c r="K169" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -7956,7 +7950,7 @@
         <v>54</v>
       </c>
       <c r="K170" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7991,7 +7985,7 @@
         <v>54</v>
       </c>
       <c r="K171" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -8026,7 +8020,7 @@
         <v>54</v>
       </c>
       <c r="K172" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -8061,7 +8055,7 @@
         <v>54</v>
       </c>
       <c r="K173" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -8096,7 +8090,7 @@
         <v>54</v>
       </c>
       <c r="K174" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -8128,10 +8122,10 @@
         <v>53</v>
       </c>
       <c r="J175" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K175" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -8166,7 +8160,7 @@
         <v>54</v>
       </c>
       <c r="K176" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -8201,7 +8195,7 @@
         <v>54</v>
       </c>
       <c r="K177" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -8236,7 +8230,7 @@
         <v>54</v>
       </c>
       <c r="K178" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -8271,7 +8265,7 @@
         <v>54</v>
       </c>
       <c r="K179" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -8306,7 +8300,7 @@
         <v>54</v>
       </c>
       <c r="K180" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -8341,7 +8335,7 @@
         <v>54</v>
       </c>
       <c r="K181" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -8358,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="E182">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F182" s="1">
         <v>1</v>
@@ -8367,16 +8361,16 @@
         <v>11</v>
       </c>
       <c r="H182" s="4">
-        <v>45810</v>
+        <v>45820</v>
       </c>
       <c r="I182" s="4">
-        <v>45817</v>
+        <v>45827</v>
       </c>
       <c r="J182" t="s">
         <v>54</v>
       </c>
       <c r="K182" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -8411,7 +8405,7 @@
         <v>54</v>
       </c>
       <c r="K183" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -8443,10 +8437,10 @@
         <v>53</v>
       </c>
       <c r="J184" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K184" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -8481,7 +8475,7 @@
         <v>54</v>
       </c>
       <c r="K185" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -8516,7 +8510,7 @@
         <v>54</v>
       </c>
       <c r="K186" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -8533,7 +8527,7 @@
         <v>0.83</v>
       </c>
       <c r="E187">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F187" s="1">
         <v>0.83</v>
@@ -8542,16 +8536,16 @@
         <v>28</v>
       </c>
       <c r="H187" s="4">
-        <v>45810</v>
+        <v>45820</v>
       </c>
       <c r="I187" s="4">
-        <v>45825</v>
+        <v>45835</v>
       </c>
       <c r="J187" t="s">
         <v>54</v>
       </c>
       <c r="K187" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -8559,34 +8553,34 @@
         <v>5428344</v>
       </c>
       <c r="B188" s="1">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="C188" s="1">
         <v>0.17</v>
       </c>
       <c r="D188" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E188">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F188" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G188" t="s">
         <v>20</v>
       </c>
       <c r="H188" s="4">
-        <v>45679</v>
+        <v>45820</v>
       </c>
       <c r="I188" s="4">
-        <v>45769</v>
+        <v>45912</v>
       </c>
       <c r="J188" t="s">
         <v>54</v>
       </c>
       <c r="K188" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -8621,7 +8615,7 @@
         <v>54</v>
       </c>
       <c r="K189" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -8653,10 +8647,10 @@
         <v>53</v>
       </c>
       <c r="J190" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K190" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -8688,10 +8682,10 @@
         <v>53</v>
       </c>
       <c r="J191" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K191" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -8723,10 +8717,10 @@
         <v>53</v>
       </c>
       <c r="J192" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K192" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -8761,7 +8755,7 @@
         <v>54</v>
       </c>
       <c r="K193" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -8796,7 +8790,7 @@
         <v>54</v>
       </c>
       <c r="K194" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8831,7 +8825,7 @@
         <v>54</v>
       </c>
       <c r="K195" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -8866,7 +8860,7 @@
         <v>54</v>
       </c>
       <c r="K196" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -8901,7 +8895,7 @@
         <v>54</v>
       </c>
       <c r="K197" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -8933,10 +8927,10 @@
         <v>53</v>
       </c>
       <c r="J198" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K198" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -8971,7 +8965,7 @@
         <v>54</v>
       </c>
       <c r="K199" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -9006,7 +9000,7 @@
         <v>54</v>
       </c>
       <c r="K200" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -9041,7 +9035,7 @@
         <v>54</v>
       </c>
       <c r="K201" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -9073,10 +9067,10 @@
         <v>53</v>
       </c>
       <c r="J202" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K202" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -9111,7 +9105,7 @@
         <v>54</v>
       </c>
       <c r="K203" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -9146,7 +9140,7 @@
         <v>54</v>
       </c>
       <c r="K204" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -9181,7 +9175,7 @@
         <v>54</v>
       </c>
       <c r="K205" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -9216,7 +9210,7 @@
         <v>54</v>
       </c>
       <c r="K206" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -9251,7 +9245,7 @@
         <v>54</v>
       </c>
       <c r="K207" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -9283,10 +9277,10 @@
         <v>53</v>
       </c>
       <c r="J208" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K208" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -9321,7 +9315,7 @@
         <v>54</v>
       </c>
       <c r="K209" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -9356,7 +9350,7 @@
         <v>54</v>
       </c>
       <c r="K210" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -9391,7 +9385,7 @@
         <v>54</v>
       </c>
       <c r="K211" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -9426,7 +9420,7 @@
         <v>54</v>
       </c>
       <c r="K212" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -9461,7 +9455,7 @@
         <v>54</v>
       </c>
       <c r="K213" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -9496,7 +9490,7 @@
         <v>54</v>
       </c>
       <c r="K214" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -9531,7 +9525,7 @@
         <v>54</v>
       </c>
       <c r="K215" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -9566,7 +9560,7 @@
         <v>54</v>
       </c>
       <c r="K216" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -9598,10 +9592,10 @@
         <v>53</v>
       </c>
       <c r="J217" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K217" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -9636,7 +9630,7 @@
         <v>54</v>
       </c>
       <c r="K218" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -9668,10 +9662,10 @@
         <v>53</v>
       </c>
       <c r="J219" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K219" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -9706,7 +9700,7 @@
         <v>54</v>
       </c>
       <c r="K220" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -9741,7 +9735,7 @@
         <v>54</v>
       </c>
       <c r="K221" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -9776,7 +9770,7 @@
         <v>54</v>
       </c>
       <c r="K222" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -9811,7 +9805,7 @@
         <v>54</v>
       </c>
       <c r="K223" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -9846,7 +9840,7 @@
         <v>54</v>
       </c>
       <c r="K224" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -9881,7 +9875,7 @@
         <v>54</v>
       </c>
       <c r="K225" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -9916,7 +9910,7 @@
         <v>54</v>
       </c>
       <c r="K226" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -9951,7 +9945,7 @@
         <v>54</v>
       </c>
       <c r="K227" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -9986,7 +9980,7 @@
         <v>54</v>
       </c>
       <c r="K228" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -10018,10 +10012,10 @@
         <v>53</v>
       </c>
       <c r="J229" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K229" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -10056,7 +10050,7 @@
         <v>54</v>
       </c>
       <c r="K230" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -10091,7 +10085,7 @@
         <v>54</v>
       </c>
       <c r="K231" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -10123,10 +10117,10 @@
         <v>53</v>
       </c>
       <c r="J232" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K232" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -10161,7 +10155,7 @@
         <v>54</v>
       </c>
       <c r="K233" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -10196,7 +10190,7 @@
         <v>54</v>
       </c>
       <c r="K234" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -10231,7 +10225,7 @@
         <v>54</v>
       </c>
       <c r="K235" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -10263,10 +10257,10 @@
         <v>53</v>
       </c>
       <c r="J236" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K236" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -10301,7 +10295,7 @@
         <v>54</v>
       </c>
       <c r="K237" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -10336,7 +10330,7 @@
         <v>54</v>
       </c>
       <c r="K238" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -10371,7 +10365,7 @@
         <v>54</v>
       </c>
       <c r="K239" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -10406,7 +10400,7 @@
         <v>54</v>
       </c>
       <c r="K240" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -10441,7 +10435,7 @@
         <v>54</v>
       </c>
       <c r="K241" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -10476,7 +10470,7 @@
         <v>54</v>
       </c>
       <c r="K242" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -10508,10 +10502,10 @@
         <v>53</v>
       </c>
       <c r="J243" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K243" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -10546,7 +10540,7 @@
         <v>54</v>
       </c>
       <c r="K244" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -10581,7 +10575,7 @@
         <v>54</v>
       </c>
       <c r="K245" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -10613,10 +10607,10 @@
         <v>53</v>
       </c>
       <c r="J246" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K246" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -10651,7 +10645,7 @@
         <v>54</v>
       </c>
       <c r="K247" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -10683,10 +10677,10 @@
         <v>53</v>
       </c>
       <c r="J248" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="K248" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -10721,7 +10715,7 @@
         <v>54</v>
       </c>
       <c r="K249" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -10756,7 +10750,7 @@
         <v>54</v>
       </c>
       <c r="K250" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -10791,7 +10785,7 @@
         <v>54</v>
       </c>
       <c r="K251" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -10823,10 +10817,10 @@
         <v>53</v>
       </c>
       <c r="J252" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K252" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -10858,10 +10852,10 @@
         <v>53</v>
       </c>
       <c r="J253" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K253" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -10896,7 +10890,7 @@
         <v>54</v>
       </c>
       <c r="K254" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -10931,7 +10925,7 @@
         <v>54</v>
       </c>
       <c r="K255" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -10966,7 +10960,7 @@
         <v>54</v>
       </c>
       <c r="K256" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -10998,10 +10992,10 @@
         <v>53</v>
       </c>
       <c r="J257" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K257" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -11036,7 +11030,7 @@
         <v>54</v>
       </c>
       <c r="K258" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -11071,7 +11065,7 @@
         <v>54</v>
       </c>
       <c r="K259" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -11103,10 +11097,10 @@
         <v>53</v>
       </c>
       <c r="J260" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K260" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -11141,7 +11135,7 @@
         <v>54</v>
       </c>
       <c r="K261" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -11176,7 +11170,7 @@
         <v>54</v>
       </c>
       <c r="K262" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -11211,7 +11205,7 @@
         <v>54</v>
       </c>
       <c r="K263" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -11243,10 +11237,10 @@
         <v>53</v>
       </c>
       <c r="J264" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="K264" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -11281,7 +11275,7 @@
         <v>54</v>
       </c>
       <c r="K265" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -11316,7 +11310,7 @@
         <v>54</v>
       </c>
       <c r="K266" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -11351,7 +11345,7 @@
         <v>54</v>
       </c>
       <c r="K267" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -11386,7 +11380,7 @@
         <v>54</v>
       </c>
       <c r="K268" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -11421,7 +11415,7 @@
         <v>54</v>
       </c>
       <c r="K269" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -11453,10 +11447,10 @@
         <v>53</v>
       </c>
       <c r="J270" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K270" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -11491,7 +11485,7 @@
         <v>54</v>
       </c>
       <c r="K271" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -11526,7 +11520,7 @@
         <v>54</v>
       </c>
       <c r="K272" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -11561,7 +11555,7 @@
         <v>54</v>
       </c>
       <c r="K273" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -11593,10 +11587,10 @@
         <v>53</v>
       </c>
       <c r="J274" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K274" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -11631,7 +11625,7 @@
         <v>54</v>
       </c>
       <c r="K275" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -11666,7 +11660,7 @@
         <v>54</v>
       </c>
       <c r="K276" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -11701,7 +11695,7 @@
         <v>54</v>
       </c>
       <c r="K277" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -11736,7 +11730,7 @@
         <v>54</v>
       </c>
       <c r="K278" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -11771,7 +11765,7 @@
         <v>54</v>
       </c>
       <c r="K279" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -11806,7 +11800,7 @@
         <v>54</v>
       </c>
       <c r="K280" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -11841,7 +11835,7 @@
         <v>54</v>
       </c>
       <c r="K281" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -11876,7 +11870,7 @@
         <v>54</v>
       </c>
       <c r="K282" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -11908,10 +11902,10 @@
         <v>53</v>
       </c>
       <c r="J283" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K283" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -11946,7 +11940,7 @@
         <v>54</v>
       </c>
       <c r="K284" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -11981,7 +11975,7 @@
         <v>54</v>
       </c>
       <c r="K285" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -12016,7 +12010,7 @@
         <v>54</v>
       </c>
       <c r="K286" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -12051,7 +12045,7 @@
         <v>54</v>
       </c>
       <c r="K287" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -12086,7 +12080,7 @@
         <v>54</v>
       </c>
       <c r="K288" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -12118,10 +12112,10 @@
         <v>53</v>
       </c>
       <c r="J289" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K289" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -12156,7 +12150,7 @@
         <v>54</v>
       </c>
       <c r="K290" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -12191,7 +12185,7 @@
         <v>54</v>
       </c>
       <c r="K291" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -12226,7 +12220,7 @@
         <v>54</v>
       </c>
       <c r="K292" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -12261,7 +12255,7 @@
         <v>54</v>
       </c>
       <c r="K293" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -12293,10 +12287,10 @@
         <v>53</v>
       </c>
       <c r="J294" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K294" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -12331,7 +12325,7 @@
         <v>54</v>
       </c>
       <c r="K295" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -12366,7 +12360,7 @@
         <v>54</v>
       </c>
       <c r="K296" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -12401,7 +12395,7 @@
         <v>54</v>
       </c>
       <c r="K297" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -12433,10 +12427,10 @@
         <v>53</v>
       </c>
       <c r="J298" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K298" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -12471,7 +12465,7 @@
         <v>54</v>
       </c>
       <c r="K299" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -12506,7 +12500,7 @@
         <v>54</v>
       </c>
       <c r="K300" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -12541,7 +12535,7 @@
         <v>54</v>
       </c>
       <c r="K301" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -12576,7 +12570,7 @@
         <v>54</v>
       </c>
       <c r="K302" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -12611,7 +12605,7 @@
         <v>54</v>
       </c>
       <c r="K303" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -12646,7 +12640,7 @@
         <v>54</v>
       </c>
       <c r="K304" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -12681,7 +12675,7 @@
         <v>54</v>
       </c>
       <c r="K305" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -12716,7 +12710,7 @@
         <v>54</v>
       </c>
       <c r="K306" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -12748,10 +12742,10 @@
         <v>53</v>
       </c>
       <c r="J307" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K307" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -12786,7 +12780,7 @@
         <v>54</v>
       </c>
       <c r="K308" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -12821,7 +12815,7 @@
         <v>54</v>
       </c>
       <c r="K309" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -12856,7 +12850,7 @@
         <v>54</v>
       </c>
       <c r="K310" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -12891,7 +12885,7 @@
         <v>54</v>
       </c>
       <c r="K311" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -12923,10 +12917,10 @@
         <v>53</v>
       </c>
       <c r="J312" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K312" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -12961,7 +12955,7 @@
         <v>54</v>
       </c>
       <c r="K313" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -12996,7 +12990,7 @@
         <v>54</v>
       </c>
       <c r="K314" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -13031,7 +13025,7 @@
         <v>54</v>
       </c>
       <c r="K315" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -13063,10 +13057,10 @@
         <v>53</v>
       </c>
       <c r="J316" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K316" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -13101,7 +13095,7 @@
         <v>54</v>
       </c>
       <c r="K317" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -13136,7 +13130,7 @@
         <v>54</v>
       </c>
       <c r="K318" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -13171,7 +13165,7 @@
         <v>54</v>
       </c>
       <c r="K319" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -13206,7 +13200,7 @@
         <v>54</v>
       </c>
       <c r="K320" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -13241,7 +13235,7 @@
         <v>54</v>
       </c>
       <c r="K321" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -13276,7 +13270,7 @@
         <v>54</v>
       </c>
       <c r="K322" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -13311,7 +13305,7 @@
         <v>54</v>
       </c>
       <c r="K323" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -13343,10 +13337,10 @@
         <v>53</v>
       </c>
       <c r="J324" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="K324" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -13381,7 +13375,7 @@
         <v>54</v>
       </c>
       <c r="K325" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -13416,7 +13410,7 @@
         <v>54</v>
       </c>
       <c r="K326" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -13448,10 +13442,10 @@
         <v>53</v>
       </c>
       <c r="J327" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K327" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -13486,7 +13480,7 @@
         <v>54</v>
       </c>
       <c r="K328" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -13521,7 +13515,7 @@
         <v>54</v>
       </c>
       <c r="K329" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -13553,10 +13547,10 @@
         <v>53</v>
       </c>
       <c r="J330" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K330" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -13588,10 +13582,10 @@
         <v>53</v>
       </c>
       <c r="J331" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="K331" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -13626,7 +13620,7 @@
         <v>54</v>
       </c>
       <c r="K332" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -13658,10 +13652,10 @@
         <v>53</v>
       </c>
       <c r="J333" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K333" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -13696,7 +13690,7 @@
         <v>54</v>
       </c>
       <c r="K334" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -13728,10 +13722,10 @@
         <v>53</v>
       </c>
       <c r="J335" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K335" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -13763,10 +13757,10 @@
         <v>53</v>
       </c>
       <c r="J336" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K336" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -13801,7 +13795,7 @@
         <v>54</v>
       </c>
       <c r="K337" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -13836,7 +13830,7 @@
         <v>54</v>
       </c>
       <c r="K338" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -13871,7 +13865,7 @@
         <v>54</v>
       </c>
       <c r="K339" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -13903,10 +13897,10 @@
         <v>53</v>
       </c>
       <c r="J340" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K340" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -13941,7 +13935,7 @@
         <v>54</v>
       </c>
       <c r="K341" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -13976,7 +13970,7 @@
         <v>54</v>
       </c>
       <c r="K342" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -14011,7 +14005,7 @@
         <v>54</v>
       </c>
       <c r="K343" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -14046,7 +14040,7 @@
         <v>54</v>
       </c>
       <c r="K344" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -14081,7 +14075,7 @@
         <v>54</v>
       </c>
       <c r="K345" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -14116,7 +14110,7 @@
         <v>54</v>
       </c>
       <c r="K346" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -14148,10 +14142,10 @@
         <v>53</v>
       </c>
       <c r="J347" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K347" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -14186,7 +14180,7 @@
         <v>54</v>
       </c>
       <c r="K348" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -14221,7 +14215,7 @@
         <v>54</v>
       </c>
       <c r="K349" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -14256,7 +14250,7 @@
         <v>54</v>
       </c>
       <c r="K350" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -14291,7 +14285,7 @@
         <v>54</v>
       </c>
       <c r="K351" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -14326,7 +14320,7 @@
         <v>54</v>
       </c>
       <c r="K352" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -14358,10 +14352,10 @@
         <v>53</v>
       </c>
       <c r="J353" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K353" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -14396,7 +14390,7 @@
         <v>54</v>
       </c>
       <c r="K354" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -14431,7 +14425,7 @@
         <v>54</v>
       </c>
       <c r="K355" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -14466,7 +14460,7 @@
         <v>54</v>
       </c>
       <c r="K356" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -14501,7 +14495,7 @@
         <v>54</v>
       </c>
       <c r="K357" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -14536,7 +14530,7 @@
         <v>54</v>
       </c>
       <c r="K358" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -14571,7 +14565,7 @@
         <v>54</v>
       </c>
       <c r="K359" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -14606,7 +14600,7 @@
         <v>54</v>
       </c>
       <c r="K360" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -14641,7 +14635,7 @@
         <v>54</v>
       </c>
       <c r="K361" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -14676,7 +14670,7 @@
         <v>54</v>
       </c>
       <c r="K362" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -14711,7 +14705,7 @@
         <v>54</v>
       </c>
       <c r="K363" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -14746,7 +14740,7 @@
         <v>54</v>
       </c>
       <c r="K364" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -14781,7 +14775,7 @@
         <v>54</v>
       </c>
       <c r="K365" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -14816,7 +14810,7 @@
         <v>54</v>
       </c>
       <c r="K366" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -14851,7 +14845,7 @@
         <v>54</v>
       </c>
       <c r="K367" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -14886,7 +14880,7 @@
         <v>54</v>
       </c>
       <c r="K368" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -14921,7 +14915,7 @@
         <v>54</v>
       </c>
       <c r="K369" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -14956,7 +14950,7 @@
         <v>54</v>
       </c>
       <c r="K370" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -14991,7 +14985,7 @@
         <v>54</v>
       </c>
       <c r="K371" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -15026,7 +15020,7 @@
         <v>54</v>
       </c>
       <c r="K372" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -15061,7 +15055,7 @@
         <v>54</v>
       </c>
       <c r="K373" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -15096,7 +15090,7 @@
         <v>54</v>
       </c>
       <c r="K374" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -15131,7 +15125,7 @@
         <v>54</v>
       </c>
       <c r="K375" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -15166,7 +15160,7 @@
         <v>54</v>
       </c>
       <c r="K376" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -15201,7 +15195,7 @@
         <v>54</v>
       </c>
       <c r="K377" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -15236,7 +15230,7 @@
         <v>54</v>
       </c>
       <c r="K378" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -15244,34 +15238,34 @@
         <v>41813556</v>
       </c>
       <c r="B379" s="1">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="C379" s="1">
         <v>0.5</v>
       </c>
       <c r="D379" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="E379">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F379" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G379" t="s">
         <v>28</v>
       </c>
       <c r="H379" s="4">
-        <v>45806</v>
+        <v>45820</v>
       </c>
       <c r="I379" s="4">
-        <v>45821</v>
+        <v>45835</v>
       </c>
       <c r="J379" t="s">
         <v>54</v>
       </c>
       <c r="K379" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -15306,7 +15300,7 @@
         <v>54</v>
       </c>
       <c r="K380" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -15341,7 +15335,7 @@
         <v>54</v>
       </c>
       <c r="K381" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -15376,7 +15370,7 @@
         <v>54</v>
       </c>
       <c r="K382" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -15411,7 +15405,7 @@
         <v>54</v>
       </c>
       <c r="K383" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -15428,7 +15422,7 @@
         <v>0.83</v>
       </c>
       <c r="E384">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F384" s="1">
         <v>0.83</v>
@@ -15437,16 +15431,16 @@
         <v>42</v>
       </c>
       <c r="H384" s="4">
-        <v>45810</v>
+        <v>45820</v>
       </c>
       <c r="I384" s="4">
-        <v>45817</v>
+        <v>45827</v>
       </c>
       <c r="J384" t="s">
         <v>54</v>
       </c>
       <c r="K384" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -15481,7 +15475,7 @@
         <v>54</v>
       </c>
       <c r="K385" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -15516,7 +15510,7 @@
         <v>54</v>
       </c>
       <c r="K386" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -15551,7 +15545,7 @@
         <v>54</v>
       </c>
       <c r="K387" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -15586,7 +15580,7 @@
         <v>54</v>
       </c>
       <c r="K388" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -15621,7 +15615,7 @@
         <v>54</v>
       </c>
       <c r="K389" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -15656,7 +15650,7 @@
         <v>54</v>
       </c>
       <c r="K390" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -15691,7 +15685,7 @@
         <v>54</v>
       </c>
       <c r="K391" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -15726,7 +15720,7 @@
         <v>54</v>
       </c>
       <c r="K392" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -15761,7 +15755,7 @@
         <v>54</v>
       </c>
       <c r="K393" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -15796,7 +15790,7 @@
         <v>54</v>
       </c>
       <c r="K394" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -15831,7 +15825,7 @@
         <v>54</v>
       </c>
       <c r="K395" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -15866,7 +15860,7 @@
         <v>54</v>
       </c>
       <c r="K396" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -15901,7 +15895,7 @@
         <v>54</v>
       </c>
       <c r="K397" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -15936,7 +15930,7 @@
         <v>54</v>
       </c>
       <c r="K398" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -15971,7 +15965,7 @@
         <v>54</v>
       </c>
       <c r="K399" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -16006,7 +16000,7 @@
         <v>54</v>
       </c>
       <c r="K400" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -16023,7 +16017,7 @@
         <v>0.83</v>
       </c>
       <c r="E401">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F401" s="1">
         <v>0.83</v>
@@ -16032,16 +16026,16 @@
         <v>15</v>
       </c>
       <c r="H401" s="4">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="I401" s="4">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="J401" t="s">
         <v>54</v>
       </c>
       <c r="K401" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -16076,7 +16070,7 @@
         <v>54</v>
       </c>
       <c r="K402" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -16108,10 +16102,10 @@
         <v>53</v>
       </c>
       <c r="J403" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K403" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -16146,7 +16140,7 @@
         <v>54</v>
       </c>
       <c r="K404" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -16181,7 +16175,7 @@
         <v>54</v>
       </c>
       <c r="K405" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -16216,7 +16210,7 @@
         <v>54</v>
       </c>
       <c r="K406" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -16251,7 +16245,7 @@
         <v>54</v>
       </c>
       <c r="K407" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -16286,7 +16280,7 @@
         <v>54</v>
       </c>
       <c r="K408" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -16321,7 +16315,7 @@
         <v>54</v>
       </c>
       <c r="K409" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -16356,7 +16350,7 @@
         <v>54</v>
       </c>
       <c r="K410" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -16391,7 +16385,7 @@
         <v>54</v>
       </c>
       <c r="K411" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -16426,7 +16420,7 @@
         <v>54</v>
       </c>
       <c r="K412" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -16461,7 +16455,7 @@
         <v>54</v>
       </c>
       <c r="K413" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -16496,7 +16490,7 @@
         <v>54</v>
       </c>
       <c r="K414" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -16531,7 +16525,7 @@
         <v>54</v>
       </c>
       <c r="K415" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -16566,7 +16560,7 @@
         <v>54</v>
       </c>
       <c r="K416" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -16601,7 +16595,7 @@
         <v>54</v>
       </c>
       <c r="K417" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="418" spans="1:11">
@@ -16636,7 +16630,7 @@
         <v>54</v>
       </c>
       <c r="K418" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="419" spans="1:11">
@@ -16671,7 +16665,7 @@
         <v>54</v>
       </c>
       <c r="K419" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="420" spans="1:11">
@@ -16706,7 +16700,7 @@
         <v>54</v>
       </c>
       <c r="K420" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="421" spans="1:11">
@@ -16741,7 +16735,7 @@
         <v>54</v>
       </c>
       <c r="K421" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="422" spans="1:11">
@@ -16776,7 +16770,7 @@
         <v>54</v>
       </c>
       <c r="K422" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="423" spans="1:11">
@@ -16811,7 +16805,7 @@
         <v>54</v>
       </c>
       <c r="K423" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="424" spans="1:11">
@@ -16846,7 +16840,7 @@
         <v>54</v>
       </c>
       <c r="K424" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="425" spans="1:11">
@@ -16881,7 +16875,7 @@
         <v>54</v>
       </c>
       <c r="K425" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="426" spans="1:11">
@@ -16916,7 +16910,7 @@
         <v>54</v>
       </c>
       <c r="K426" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
+++ b/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="533">
   <si>
     <t>id_cliente</t>
   </si>
@@ -187,10 +187,10 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 45.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 45.6 meses sem comprar</t>
+    <t>INATIVO - 45.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 45.4 meses sem comprar</t>
@@ -199,10 +199,10 @@
     <t>INATIVO - 38.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 39.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.3 meses sem comprar</t>
+    <t>INATIVO - 39.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 50.1 meses sem comprar</t>
@@ -211,292 +211,298 @@
     <t>INATIVO - 29.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 39.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.8 meses sem comprar</t>
+    <t>INATIVO - 39.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 49.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 46.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 49.1 meses sem comprar</t>
+    <t>INATIVO - 25.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 11.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 0.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 46.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 45.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.1 meses sem comprar</t>
+    <t>INATIVO - 13.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 8.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.5 meses sem comprar</t>
+    <t>INATIVO - 8.6 meses sem comprar</t>
   </si>
   <si>
     <t>FRANCISCO SAMPAIO</t>
@@ -2073,7 +2079,7 @@
         <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2108,7 +2114,7 @@
         <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2143,7 +2149,7 @@
         <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2178,7 +2184,7 @@
         <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2213,7 +2219,7 @@
         <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2248,7 +2254,7 @@
         <v>59</v>
       </c>
       <c r="K7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2283,7 +2289,7 @@
         <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2318,7 +2324,7 @@
         <v>61</v>
       </c>
       <c r="K9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2353,7 +2359,7 @@
         <v>62</v>
       </c>
       <c r="K10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2388,7 +2394,7 @@
         <v>63</v>
       </c>
       <c r="K11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2423,7 +2429,7 @@
         <v>57</v>
       </c>
       <c r="K12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2458,7 +2464,7 @@
         <v>64</v>
       </c>
       <c r="K13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2493,7 +2499,7 @@
         <v>65</v>
       </c>
       <c r="K14" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2528,7 +2534,7 @@
         <v>66</v>
       </c>
       <c r="K15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2563,7 +2569,7 @@
         <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2595,10 +2601,10 @@
         <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2633,7 +2639,7 @@
         <v>56</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2665,10 +2671,10 @@
         <v>55</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2700,10 +2706,10 @@
         <v>55</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2735,10 +2741,10 @@
         <v>55</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2770,10 +2776,10 @@
         <v>55</v>
       </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2805,10 +2811,10 @@
         <v>55</v>
       </c>
       <c r="J23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2840,10 +2846,10 @@
         <v>55</v>
       </c>
       <c r="J24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2875,10 +2881,10 @@
         <v>55</v>
       </c>
       <c r="J25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2913,7 +2919,7 @@
         <v>56</v>
       </c>
       <c r="K26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2945,10 +2951,10 @@
         <v>55</v>
       </c>
       <c r="J27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2980,10 +2986,10 @@
         <v>55</v>
       </c>
       <c r="J28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3018,7 +3024,7 @@
         <v>56</v>
       </c>
       <c r="K29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3050,10 +3056,10 @@
         <v>55</v>
       </c>
       <c r="J30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3088,7 +3094,7 @@
         <v>56</v>
       </c>
       <c r="K31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3123,7 +3129,7 @@
         <v>56</v>
       </c>
       <c r="K32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3158,7 +3164,7 @@
         <v>56</v>
       </c>
       <c r="K33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3193,7 +3199,7 @@
         <v>56</v>
       </c>
       <c r="K34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3225,10 +3231,10 @@
         <v>55</v>
       </c>
       <c r="J35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3260,10 +3266,10 @@
         <v>55</v>
       </c>
       <c r="J36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K36" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3295,10 +3301,10 @@
         <v>55</v>
       </c>
       <c r="J37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3333,7 +3339,7 @@
         <v>65</v>
       </c>
       <c r="K38" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3368,7 +3374,7 @@
         <v>56</v>
       </c>
       <c r="K39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3403,7 +3409,7 @@
         <v>56</v>
       </c>
       <c r="K40" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3438,7 +3444,7 @@
         <v>56</v>
       </c>
       <c r="K41" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3470,10 +3476,10 @@
         <v>55</v>
       </c>
       <c r="J42" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K42" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3508,7 +3514,7 @@
         <v>81</v>
       </c>
       <c r="K43" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3543,7 +3549,7 @@
         <v>56</v>
       </c>
       <c r="K44" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3578,7 +3584,7 @@
         <v>82</v>
       </c>
       <c r="K45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3613,7 +3619,7 @@
         <v>56</v>
       </c>
       <c r="K46" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3648,7 +3654,7 @@
         <v>83</v>
       </c>
       <c r="K47" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3683,7 +3689,7 @@
         <v>56</v>
       </c>
       <c r="K48" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3718,7 +3724,7 @@
         <v>56</v>
       </c>
       <c r="K49" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3753,7 +3759,7 @@
         <v>56</v>
       </c>
       <c r="K50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3788,7 +3794,7 @@
         <v>56</v>
       </c>
       <c r="K51" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3823,7 +3829,7 @@
         <v>84</v>
       </c>
       <c r="K52" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3858,7 +3864,7 @@
         <v>56</v>
       </c>
       <c r="K53" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3893,7 +3899,7 @@
         <v>56</v>
       </c>
       <c r="K54" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3928,7 +3934,7 @@
         <v>85</v>
       </c>
       <c r="K55" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3963,7 +3969,7 @@
         <v>86</v>
       </c>
       <c r="K56" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3998,7 +4004,7 @@
         <v>56</v>
       </c>
       <c r="K57" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -4033,7 +4039,7 @@
         <v>87</v>
       </c>
       <c r="K58" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4068,7 +4074,7 @@
         <v>88</v>
       </c>
       <c r="K59" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4103,7 +4109,7 @@
         <v>89</v>
       </c>
       <c r="K60" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4138,7 +4144,7 @@
         <v>90</v>
       </c>
       <c r="K61" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4173,7 +4179,7 @@
         <v>90</v>
       </c>
       <c r="K62" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4208,7 +4214,7 @@
         <v>89</v>
       </c>
       <c r="K63" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4243,7 +4249,7 @@
         <v>90</v>
       </c>
       <c r="K64" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4278,7 +4284,7 @@
         <v>90</v>
       </c>
       <c r="K65" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4313,7 +4319,7 @@
         <v>90</v>
       </c>
       <c r="K66" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4348,7 +4354,7 @@
         <v>91</v>
       </c>
       <c r="K67" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4383,7 +4389,7 @@
         <v>92</v>
       </c>
       <c r="K68" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4418,7 +4424,7 @@
         <v>90</v>
       </c>
       <c r="K69" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4453,7 +4459,7 @@
         <v>56</v>
       </c>
       <c r="K70" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4488,7 +4494,7 @@
         <v>93</v>
       </c>
       <c r="K71" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4523,7 +4529,7 @@
         <v>56</v>
       </c>
       <c r="K72" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4558,7 +4564,7 @@
         <v>89</v>
       </c>
       <c r="K73" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4593,7 +4599,7 @@
         <v>88</v>
       </c>
       <c r="K74" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4628,7 +4634,7 @@
         <v>93</v>
       </c>
       <c r="K75" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4663,7 +4669,7 @@
         <v>56</v>
       </c>
       <c r="K76" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4698,7 +4704,7 @@
         <v>56</v>
       </c>
       <c r="K77" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4733,7 +4739,7 @@
         <v>56</v>
       </c>
       <c r="K78" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4768,7 +4774,7 @@
         <v>90</v>
       </c>
       <c r="K79" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4803,7 +4809,7 @@
         <v>94</v>
       </c>
       <c r="K80" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4838,7 +4844,7 @@
         <v>56</v>
       </c>
       <c r="K81" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4873,7 +4879,7 @@
         <v>95</v>
       </c>
       <c r="K82" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4908,7 +4914,7 @@
         <v>56</v>
       </c>
       <c r="K83" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4943,7 +4949,7 @@
         <v>56</v>
       </c>
       <c r="K84" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4978,7 +4984,7 @@
         <v>96</v>
       </c>
       <c r="K85" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -5013,7 +5019,7 @@
         <v>56</v>
       </c>
       <c r="K86" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5045,10 +5051,10 @@
         <v>55</v>
       </c>
       <c r="J87" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K87" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -5083,7 +5089,7 @@
         <v>56</v>
       </c>
       <c r="K88" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5118,7 +5124,7 @@
         <v>97</v>
       </c>
       <c r="K89" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5153,7 +5159,7 @@
         <v>98</v>
       </c>
       <c r="K90" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5188,7 +5194,7 @@
         <v>56</v>
       </c>
       <c r="K91" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5223,7 +5229,7 @@
         <v>99</v>
       </c>
       <c r="K92" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5258,7 +5264,7 @@
         <v>100</v>
       </c>
       <c r="K93" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5293,7 +5299,7 @@
         <v>88</v>
       </c>
       <c r="K94" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5328,7 +5334,7 @@
         <v>56</v>
       </c>
       <c r="K95" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5363,7 +5369,7 @@
         <v>101</v>
       </c>
       <c r="K96" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5398,7 +5404,7 @@
         <v>56</v>
       </c>
       <c r="K97" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5433,7 +5439,7 @@
         <v>56</v>
       </c>
       <c r="K98" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5468,7 +5474,7 @@
         <v>102</v>
       </c>
       <c r="K99" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5503,7 +5509,7 @@
         <v>56</v>
       </c>
       <c r="K100" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5538,7 +5544,7 @@
         <v>65</v>
       </c>
       <c r="K101" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5573,7 +5579,7 @@
         <v>103</v>
       </c>
       <c r="K102" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5608,7 +5614,7 @@
         <v>56</v>
       </c>
       <c r="K103" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5643,7 +5649,7 @@
         <v>104</v>
       </c>
       <c r="K104" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5678,7 +5684,7 @@
         <v>56</v>
       </c>
       <c r="K105" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5713,7 +5719,7 @@
         <v>56</v>
       </c>
       <c r="K106" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5748,7 +5754,7 @@
         <v>105</v>
       </c>
       <c r="K107" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5783,7 +5789,7 @@
         <v>106</v>
       </c>
       <c r="K108" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5818,7 +5824,7 @@
         <v>56</v>
       </c>
       <c r="K109" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5853,7 +5859,7 @@
         <v>107</v>
       </c>
       <c r="K110" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5888,7 +5894,7 @@
         <v>108</v>
       </c>
       <c r="K111" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5920,10 +5926,10 @@
         <v>55</v>
       </c>
       <c r="J112" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="K112" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5958,7 +5964,7 @@
         <v>56</v>
       </c>
       <c r="K113" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5993,7 +5999,7 @@
         <v>64</v>
       </c>
       <c r="K114" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -6025,10 +6031,10 @@
         <v>55</v>
       </c>
       <c r="J115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K115" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6060,10 +6066,10 @@
         <v>55</v>
       </c>
       <c r="J116" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K116" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -6095,10 +6101,10 @@
         <v>55</v>
       </c>
       <c r="J117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K117" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6130,10 +6136,10 @@
         <v>55</v>
       </c>
       <c r="J118" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K118" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6168,7 +6174,7 @@
         <v>95</v>
       </c>
       <c r="K119" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6200,10 +6206,10 @@
         <v>55</v>
       </c>
       <c r="J120" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K120" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6238,7 +6244,7 @@
         <v>56</v>
       </c>
       <c r="K121" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6270,10 +6276,10 @@
         <v>55</v>
       </c>
       <c r="J122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K122" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6308,7 +6314,7 @@
         <v>56</v>
       </c>
       <c r="K123" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6343,7 +6349,7 @@
         <v>56</v>
       </c>
       <c r="K124" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6375,10 +6381,10 @@
         <v>55</v>
       </c>
       <c r="J125" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="K125" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6410,10 +6416,10 @@
         <v>55</v>
       </c>
       <c r="J126" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="K126" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6448,7 +6454,7 @@
         <v>56</v>
       </c>
       <c r="K127" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6483,7 +6489,7 @@
         <v>56</v>
       </c>
       <c r="K128" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6515,10 +6521,10 @@
         <v>55</v>
       </c>
       <c r="J129" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="K129" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6550,10 +6556,10 @@
         <v>55</v>
       </c>
       <c r="J130" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K130" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6588,7 +6594,7 @@
         <v>56</v>
       </c>
       <c r="K131" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6620,10 +6626,10 @@
         <v>55</v>
       </c>
       <c r="J132" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K132" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6658,7 +6664,7 @@
         <v>56</v>
       </c>
       <c r="K133" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6693,7 +6699,7 @@
         <v>56</v>
       </c>
       <c r="K134" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -6728,7 +6734,7 @@
         <v>56</v>
       </c>
       <c r="K135" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -6760,10 +6766,10 @@
         <v>55</v>
       </c>
       <c r="J136" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K136" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6795,10 +6801,10 @@
         <v>55</v>
       </c>
       <c r="J137" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="K137" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6833,7 +6839,7 @@
         <v>56</v>
       </c>
       <c r="K138" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6865,10 +6871,10 @@
         <v>55</v>
       </c>
       <c r="J139" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K139" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6900,10 +6906,10 @@
         <v>55</v>
       </c>
       <c r="J140" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K140" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6935,10 +6941,10 @@
         <v>55</v>
       </c>
       <c r="J141" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K141" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6970,10 +6976,10 @@
         <v>55</v>
       </c>
       <c r="J142" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K142" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -7008,7 +7014,7 @@
         <v>56</v>
       </c>
       <c r="K143" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -7040,10 +7046,10 @@
         <v>55</v>
       </c>
       <c r="J144" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K144" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -7078,7 +7084,7 @@
         <v>56</v>
       </c>
       <c r="K145" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -7113,7 +7119,7 @@
         <v>56</v>
       </c>
       <c r="K146" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7145,10 +7151,10 @@
         <v>55</v>
       </c>
       <c r="J147" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K147" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7183,7 +7189,7 @@
         <v>56</v>
       </c>
       <c r="K148" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7218,7 +7224,7 @@
         <v>56</v>
       </c>
       <c r="K149" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7253,7 +7259,7 @@
         <v>56</v>
       </c>
       <c r="K150" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7288,7 +7294,7 @@
         <v>56</v>
       </c>
       <c r="K151" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7323,7 +7329,7 @@
         <v>56</v>
       </c>
       <c r="K152" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7358,7 +7364,7 @@
         <v>95</v>
       </c>
       <c r="K153" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7393,7 +7399,7 @@
         <v>56</v>
       </c>
       <c r="K154" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7428,7 +7434,7 @@
         <v>56</v>
       </c>
       <c r="K155" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7460,10 +7466,10 @@
         <v>55</v>
       </c>
       <c r="J156" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K156" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -7498,7 +7504,7 @@
         <v>56</v>
       </c>
       <c r="K157" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -7533,7 +7539,7 @@
         <v>56</v>
       </c>
       <c r="K158" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -7568,7 +7574,7 @@
         <v>56</v>
       </c>
       <c r="K159" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -7603,7 +7609,7 @@
         <v>56</v>
       </c>
       <c r="K160" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -7638,7 +7644,7 @@
         <v>56</v>
       </c>
       <c r="K161" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7673,7 +7679,7 @@
         <v>56</v>
       </c>
       <c r="K162" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7708,7 +7714,7 @@
         <v>56</v>
       </c>
       <c r="K163" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -7740,10 +7746,10 @@
         <v>55</v>
       </c>
       <c r="J164" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K164" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7775,10 +7781,10 @@
         <v>55</v>
       </c>
       <c r="J165" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K165" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7813,7 +7819,7 @@
         <v>56</v>
       </c>
       <c r="K166" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7845,10 +7851,10 @@
         <v>55</v>
       </c>
       <c r="J167" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K167" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -7880,10 +7886,10 @@
         <v>55</v>
       </c>
       <c r="J168" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K168" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7918,7 +7924,7 @@
         <v>56</v>
       </c>
       <c r="K169" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -7953,7 +7959,7 @@
         <v>56</v>
       </c>
       <c r="K170" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7988,7 +7994,7 @@
         <v>56</v>
       </c>
       <c r="K171" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -8023,7 +8029,7 @@
         <v>56</v>
       </c>
       <c r="K172" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -8058,7 +8064,7 @@
         <v>56</v>
       </c>
       <c r="K173" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -8093,7 +8099,7 @@
         <v>56</v>
       </c>
       <c r="K174" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -8125,10 +8131,10 @@
         <v>55</v>
       </c>
       <c r="J175" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K175" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -8163,7 +8169,7 @@
         <v>56</v>
       </c>
       <c r="K176" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -8198,7 +8204,7 @@
         <v>56</v>
       </c>
       <c r="K177" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -8233,7 +8239,7 @@
         <v>56</v>
       </c>
       <c r="K178" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -8268,7 +8274,7 @@
         <v>56</v>
       </c>
       <c r="K179" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -8303,7 +8309,7 @@
         <v>56</v>
       </c>
       <c r="K180" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -8338,7 +8344,7 @@
         <v>56</v>
       </c>
       <c r="K181" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -8373,7 +8379,7 @@
         <v>56</v>
       </c>
       <c r="K182" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -8408,7 +8414,7 @@
         <v>56</v>
       </c>
       <c r="K183" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -8440,10 +8446,10 @@
         <v>55</v>
       </c>
       <c r="J184" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K184" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -8478,7 +8484,7 @@
         <v>56</v>
       </c>
       <c r="K185" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -8513,7 +8519,7 @@
         <v>56</v>
       </c>
       <c r="K186" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -8548,7 +8554,7 @@
         <v>56</v>
       </c>
       <c r="K187" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -8583,7 +8589,7 @@
         <v>56</v>
       </c>
       <c r="K188" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -8618,7 +8624,7 @@
         <v>56</v>
       </c>
       <c r="K189" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -8650,10 +8656,10 @@
         <v>55</v>
       </c>
       <c r="J190" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K190" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -8685,10 +8691,10 @@
         <v>55</v>
       </c>
       <c r="J191" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K191" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -8720,10 +8726,10 @@
         <v>55</v>
       </c>
       <c r="J192" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K192" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -8758,7 +8764,7 @@
         <v>56</v>
       </c>
       <c r="K193" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -8793,7 +8799,7 @@
         <v>56</v>
       </c>
       <c r="K194" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8828,7 +8834,7 @@
         <v>56</v>
       </c>
       <c r="K195" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -8863,7 +8869,7 @@
         <v>56</v>
       </c>
       <c r="K196" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -8898,7 +8904,7 @@
         <v>56</v>
       </c>
       <c r="K197" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -8933,7 +8939,7 @@
         <v>85</v>
       </c>
       <c r="K198" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -8968,7 +8974,7 @@
         <v>56</v>
       </c>
       <c r="K199" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -9003,7 +9009,7 @@
         <v>56</v>
       </c>
       <c r="K200" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -9038,7 +9044,7 @@
         <v>56</v>
       </c>
       <c r="K201" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -9070,10 +9076,10 @@
         <v>55</v>
       </c>
       <c r="J202" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K202" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -9108,7 +9114,7 @@
         <v>56</v>
       </c>
       <c r="K203" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -9143,7 +9149,7 @@
         <v>56</v>
       </c>
       <c r="K204" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -9178,7 +9184,7 @@
         <v>56</v>
       </c>
       <c r="K205" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -9213,7 +9219,7 @@
         <v>56</v>
       </c>
       <c r="K206" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -9248,7 +9254,7 @@
         <v>56</v>
       </c>
       <c r="K207" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -9280,10 +9286,10 @@
         <v>55</v>
       </c>
       <c r="J208" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K208" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -9318,7 +9324,7 @@
         <v>56</v>
       </c>
       <c r="K209" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -9353,7 +9359,7 @@
         <v>56</v>
       </c>
       <c r="K210" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -9388,7 +9394,7 @@
         <v>56</v>
       </c>
       <c r="K211" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -9423,7 +9429,7 @@
         <v>56</v>
       </c>
       <c r="K212" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -9458,7 +9464,7 @@
         <v>56</v>
       </c>
       <c r="K213" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -9493,7 +9499,7 @@
         <v>56</v>
       </c>
       <c r="K214" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -9528,7 +9534,7 @@
         <v>56</v>
       </c>
       <c r="K215" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -9563,7 +9569,7 @@
         <v>56</v>
       </c>
       <c r="K216" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -9595,10 +9601,10 @@
         <v>55</v>
       </c>
       <c r="J217" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K217" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -9633,7 +9639,7 @@
         <v>56</v>
       </c>
       <c r="K218" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -9665,10 +9671,10 @@
         <v>55</v>
       </c>
       <c r="J219" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K219" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -9703,7 +9709,7 @@
         <v>56</v>
       </c>
       <c r="K220" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -9738,7 +9744,7 @@
         <v>56</v>
       </c>
       <c r="K221" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -9773,7 +9779,7 @@
         <v>56</v>
       </c>
       <c r="K222" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -9808,7 +9814,7 @@
         <v>56</v>
       </c>
       <c r="K223" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -9843,7 +9849,7 @@
         <v>56</v>
       </c>
       <c r="K224" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -9878,7 +9884,7 @@
         <v>56</v>
       </c>
       <c r="K225" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -9913,7 +9919,7 @@
         <v>56</v>
       </c>
       <c r="K226" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -9948,7 +9954,7 @@
         <v>56</v>
       </c>
       <c r="K227" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -9983,7 +9989,7 @@
         <v>56</v>
       </c>
       <c r="K228" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -10015,10 +10021,10 @@
         <v>55</v>
       </c>
       <c r="J229" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K229" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -10053,7 +10059,7 @@
         <v>56</v>
       </c>
       <c r="K230" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -10088,7 +10094,7 @@
         <v>56</v>
       </c>
       <c r="K231" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -10120,10 +10126,10 @@
         <v>55</v>
       </c>
       <c r="J232" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K232" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -10158,7 +10164,7 @@
         <v>56</v>
       </c>
       <c r="K233" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -10193,7 +10199,7 @@
         <v>56</v>
       </c>
       <c r="K234" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -10228,7 +10234,7 @@
         <v>56</v>
       </c>
       <c r="K235" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -10260,10 +10266,10 @@
         <v>55</v>
       </c>
       <c r="J236" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K236" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -10298,7 +10304,7 @@
         <v>56</v>
       </c>
       <c r="K237" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -10333,7 +10339,7 @@
         <v>56</v>
       </c>
       <c r="K238" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -10368,7 +10374,7 @@
         <v>56</v>
       </c>
       <c r="K239" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -10403,7 +10409,7 @@
         <v>56</v>
       </c>
       <c r="K240" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -10438,7 +10444,7 @@
         <v>56</v>
       </c>
       <c r="K241" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -10473,7 +10479,7 @@
         <v>56</v>
       </c>
       <c r="K242" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -10505,10 +10511,10 @@
         <v>55</v>
       </c>
       <c r="J243" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K243" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -10543,7 +10549,7 @@
         <v>56</v>
       </c>
       <c r="K244" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -10578,7 +10584,7 @@
         <v>56</v>
       </c>
       <c r="K245" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -10610,10 +10616,10 @@
         <v>55</v>
       </c>
       <c r="J246" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K246" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -10648,7 +10654,7 @@
         <v>56</v>
       </c>
       <c r="K247" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -10683,7 +10689,7 @@
         <v>86</v>
       </c>
       <c r="K248" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -10718,7 +10724,7 @@
         <v>56</v>
       </c>
       <c r="K249" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -10753,7 +10759,7 @@
         <v>56</v>
       </c>
       <c r="K250" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -10788,7 +10794,7 @@
         <v>56</v>
       </c>
       <c r="K251" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -10820,10 +10826,10 @@
         <v>55</v>
       </c>
       <c r="J252" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K252" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -10855,10 +10861,10 @@
         <v>55</v>
       </c>
       <c r="J253" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K253" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -10893,7 +10899,7 @@
         <v>56</v>
       </c>
       <c r="K254" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -10928,7 +10934,7 @@
         <v>56</v>
       </c>
       <c r="K255" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -10963,7 +10969,7 @@
         <v>56</v>
       </c>
       <c r="K256" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -10995,10 +11001,10 @@
         <v>55</v>
       </c>
       <c r="J257" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K257" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -11033,7 +11039,7 @@
         <v>56</v>
       </c>
       <c r="K258" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -11068,7 +11074,7 @@
         <v>56</v>
       </c>
       <c r="K259" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -11100,10 +11106,10 @@
         <v>55</v>
       </c>
       <c r="J260" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K260" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -11138,7 +11144,7 @@
         <v>56</v>
       </c>
       <c r="K261" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -11173,7 +11179,7 @@
         <v>56</v>
       </c>
       <c r="K262" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -11208,7 +11214,7 @@
         <v>56</v>
       </c>
       <c r="K263" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -11243,7 +11249,7 @@
         <v>56</v>
       </c>
       <c r="K264" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -11275,10 +11281,10 @@
         <v>55</v>
       </c>
       <c r="J265" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="K265" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -11313,7 +11319,7 @@
         <v>56</v>
       </c>
       <c r="K266" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -11348,7 +11354,7 @@
         <v>56</v>
       </c>
       <c r="K267" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -11383,7 +11389,7 @@
         <v>56</v>
       </c>
       <c r="K268" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -11418,7 +11424,7 @@
         <v>56</v>
       </c>
       <c r="K269" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -11453,7 +11459,7 @@
         <v>56</v>
       </c>
       <c r="K270" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -11488,7 +11494,7 @@
         <v>148</v>
       </c>
       <c r="K271" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -11523,7 +11529,7 @@
         <v>56</v>
       </c>
       <c r="K272" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -11558,7 +11564,7 @@
         <v>56</v>
       </c>
       <c r="K273" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -11593,7 +11599,7 @@
         <v>56</v>
       </c>
       <c r="K274" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -11628,7 +11634,7 @@
         <v>149</v>
       </c>
       <c r="K275" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -11663,7 +11669,7 @@
         <v>56</v>
       </c>
       <c r="K276" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -11698,7 +11704,7 @@
         <v>56</v>
       </c>
       <c r="K277" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -11733,7 +11739,7 @@
         <v>56</v>
       </c>
       <c r="K278" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -11768,7 +11774,7 @@
         <v>56</v>
       </c>
       <c r="K279" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -11803,7 +11809,7 @@
         <v>56</v>
       </c>
       <c r="K280" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -11838,7 +11844,7 @@
         <v>56</v>
       </c>
       <c r="K281" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -11873,7 +11879,7 @@
         <v>56</v>
       </c>
       <c r="K282" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -11908,7 +11914,7 @@
         <v>56</v>
       </c>
       <c r="K283" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -11943,7 +11949,7 @@
         <v>150</v>
       </c>
       <c r="K284" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -11978,7 +11984,7 @@
         <v>56</v>
       </c>
       <c r="K285" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -12013,7 +12019,7 @@
         <v>56</v>
       </c>
       <c r="K286" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -12048,7 +12054,7 @@
         <v>56</v>
       </c>
       <c r="K287" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -12083,7 +12089,7 @@
         <v>56</v>
       </c>
       <c r="K288" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -12118,7 +12124,7 @@
         <v>56</v>
       </c>
       <c r="K289" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -12153,7 +12159,7 @@
         <v>151</v>
       </c>
       <c r="K290" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -12188,7 +12194,7 @@
         <v>56</v>
       </c>
       <c r="K291" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -12223,7 +12229,7 @@
         <v>56</v>
       </c>
       <c r="K292" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -12258,7 +12264,7 @@
         <v>56</v>
       </c>
       <c r="K293" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -12293,7 +12299,7 @@
         <v>56</v>
       </c>
       <c r="K294" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -12328,7 +12334,7 @@
         <v>92</v>
       </c>
       <c r="K295" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -12363,7 +12369,7 @@
         <v>56</v>
       </c>
       <c r="K296" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -12398,7 +12404,7 @@
         <v>56</v>
       </c>
       <c r="K297" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -12433,7 +12439,7 @@
         <v>56</v>
       </c>
       <c r="K298" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -12468,7 +12474,7 @@
         <v>152</v>
       </c>
       <c r="K299" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -12503,7 +12509,7 @@
         <v>56</v>
       </c>
       <c r="K300" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -12538,7 +12544,7 @@
         <v>56</v>
       </c>
       <c r="K301" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -12573,7 +12579,7 @@
         <v>56</v>
       </c>
       <c r="K302" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -12608,7 +12614,7 @@
         <v>56</v>
       </c>
       <c r="K303" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -12643,7 +12649,7 @@
         <v>56</v>
       </c>
       <c r="K304" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -12678,7 +12684,7 @@
         <v>56</v>
       </c>
       <c r="K305" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -12713,7 +12719,7 @@
         <v>56</v>
       </c>
       <c r="K306" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -12748,7 +12754,7 @@
         <v>56</v>
       </c>
       <c r="K307" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -12780,10 +12786,10 @@
         <v>55</v>
       </c>
       <c r="J308" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K308" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -12818,7 +12824,7 @@
         <v>56</v>
       </c>
       <c r="K309" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -12853,7 +12859,7 @@
         <v>56</v>
       </c>
       <c r="K310" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -12888,7 +12894,7 @@
         <v>56</v>
       </c>
       <c r="K311" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -12923,7 +12929,7 @@
         <v>56</v>
       </c>
       <c r="K312" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -12955,10 +12961,10 @@
         <v>55</v>
       </c>
       <c r="J313" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K313" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -12993,7 +12999,7 @@
         <v>56</v>
       </c>
       <c r="K314" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -13028,7 +13034,7 @@
         <v>56</v>
       </c>
       <c r="K315" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -13063,7 +13069,7 @@
         <v>56</v>
       </c>
       <c r="K316" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -13095,10 +13101,10 @@
         <v>55</v>
       </c>
       <c r="J317" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K317" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -13133,7 +13139,7 @@
         <v>56</v>
       </c>
       <c r="K318" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -13168,7 +13174,7 @@
         <v>56</v>
       </c>
       <c r="K319" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -13203,7 +13209,7 @@
         <v>56</v>
       </c>
       <c r="K320" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -13238,7 +13244,7 @@
         <v>56</v>
       </c>
       <c r="K321" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -13273,7 +13279,7 @@
         <v>56</v>
       </c>
       <c r="K322" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -13308,7 +13314,7 @@
         <v>56</v>
       </c>
       <c r="K323" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -13343,7 +13349,7 @@
         <v>56</v>
       </c>
       <c r="K324" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -13375,10 +13381,10 @@
         <v>55</v>
       </c>
       <c r="J325" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="K325" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -13413,7 +13419,7 @@
         <v>56</v>
       </c>
       <c r="K326" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -13448,7 +13454,7 @@
         <v>56</v>
       </c>
       <c r="K327" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -13480,10 +13486,10 @@
         <v>55</v>
       </c>
       <c r="J328" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K328" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -13518,7 +13524,7 @@
         <v>56</v>
       </c>
       <c r="K329" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -13553,7 +13559,7 @@
         <v>56</v>
       </c>
       <c r="K330" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -13585,10 +13591,10 @@
         <v>55</v>
       </c>
       <c r="J331" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K331" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -13620,10 +13626,10 @@
         <v>55</v>
       </c>
       <c r="J332" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="K332" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -13658,7 +13664,7 @@
         <v>56</v>
       </c>
       <c r="K333" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -13690,10 +13696,10 @@
         <v>55</v>
       </c>
       <c r="J334" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K334" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -13728,7 +13734,7 @@
         <v>56</v>
       </c>
       <c r="K335" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -13760,10 +13766,10 @@
         <v>55</v>
       </c>
       <c r="J336" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K336" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -13795,10 +13801,10 @@
         <v>55</v>
       </c>
       <c r="J337" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K337" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -13833,7 +13839,7 @@
         <v>56</v>
       </c>
       <c r="K338" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -13868,7 +13874,7 @@
         <v>56</v>
       </c>
       <c r="K339" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -13903,7 +13909,7 @@
         <v>56</v>
       </c>
       <c r="K340" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -13935,10 +13941,10 @@
         <v>55</v>
       </c>
       <c r="J341" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K341" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -13973,7 +13979,7 @@
         <v>56</v>
       </c>
       <c r="K342" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -14008,7 +14014,7 @@
         <v>56</v>
       </c>
       <c r="K343" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -14043,7 +14049,7 @@
         <v>56</v>
       </c>
       <c r="K344" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -14078,7 +14084,7 @@
         <v>56</v>
       </c>
       <c r="K345" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -14113,7 +14119,7 @@
         <v>56</v>
       </c>
       <c r="K346" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -14148,7 +14154,7 @@
         <v>56</v>
       </c>
       <c r="K347" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -14180,10 +14186,10 @@
         <v>55</v>
       </c>
       <c r="J348" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K348" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -14218,7 +14224,7 @@
         <v>56</v>
       </c>
       <c r="K349" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -14253,7 +14259,7 @@
         <v>56</v>
       </c>
       <c r="K350" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -14288,7 +14294,7 @@
         <v>56</v>
       </c>
       <c r="K351" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -14323,7 +14329,7 @@
         <v>56</v>
       </c>
       <c r="K352" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -14358,7 +14364,7 @@
         <v>56</v>
       </c>
       <c r="K353" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -14390,10 +14396,10 @@
         <v>55</v>
       </c>
       <c r="J354" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K354" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -14428,7 +14434,7 @@
         <v>56</v>
       </c>
       <c r="K355" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -14463,7 +14469,7 @@
         <v>56</v>
       </c>
       <c r="K356" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -14498,7 +14504,7 @@
         <v>56</v>
       </c>
       <c r="K357" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -14533,7 +14539,7 @@
         <v>56</v>
       </c>
       <c r="K358" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -14568,7 +14574,7 @@
         <v>56</v>
       </c>
       <c r="K359" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -14603,7 +14609,7 @@
         <v>56</v>
       </c>
       <c r="K360" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -14638,7 +14644,7 @@
         <v>56</v>
       </c>
       <c r="K361" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -14673,7 +14679,7 @@
         <v>56</v>
       </c>
       <c r="K362" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -14708,7 +14714,7 @@
         <v>56</v>
       </c>
       <c r="K363" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -14743,7 +14749,7 @@
         <v>56</v>
       </c>
       <c r="K364" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -14778,7 +14784,7 @@
         <v>56</v>
       </c>
       <c r="K365" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -14813,7 +14819,7 @@
         <v>56</v>
       </c>
       <c r="K366" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -14848,7 +14854,7 @@
         <v>56</v>
       </c>
       <c r="K367" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -14883,7 +14889,7 @@
         <v>56</v>
       </c>
       <c r="K368" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -14918,7 +14924,7 @@
         <v>56</v>
       </c>
       <c r="K369" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -14953,7 +14959,7 @@
         <v>56</v>
       </c>
       <c r="K370" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -14988,7 +14994,7 @@
         <v>56</v>
       </c>
       <c r="K371" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -15023,7 +15029,7 @@
         <v>56</v>
       </c>
       <c r="K372" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -15058,7 +15064,7 @@
         <v>56</v>
       </c>
       <c r="K373" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -15093,7 +15099,7 @@
         <v>56</v>
       </c>
       <c r="K374" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -15128,7 +15134,7 @@
         <v>56</v>
       </c>
       <c r="K375" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -15163,7 +15169,7 @@
         <v>56</v>
       </c>
       <c r="K376" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -15198,7 +15204,7 @@
         <v>56</v>
       </c>
       <c r="K377" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -15233,7 +15239,7 @@
         <v>56</v>
       </c>
       <c r="K378" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -15268,7 +15274,7 @@
         <v>56</v>
       </c>
       <c r="K379" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -15303,7 +15309,7 @@
         <v>56</v>
       </c>
       <c r="K380" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -15338,7 +15344,7 @@
         <v>56</v>
       </c>
       <c r="K381" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -15373,7 +15379,7 @@
         <v>56</v>
       </c>
       <c r="K382" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -15408,7 +15414,7 @@
         <v>56</v>
       </c>
       <c r="K383" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -15443,7 +15449,7 @@
         <v>56</v>
       </c>
       <c r="K384" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -15478,7 +15484,7 @@
         <v>56</v>
       </c>
       <c r="K385" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -15513,7 +15519,7 @@
         <v>56</v>
       </c>
       <c r="K386" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -15548,7 +15554,7 @@
         <v>56</v>
       </c>
       <c r="K387" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -15583,7 +15589,7 @@
         <v>56</v>
       </c>
       <c r="K388" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -15618,7 +15624,7 @@
         <v>56</v>
       </c>
       <c r="K389" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -15653,7 +15659,7 @@
         <v>56</v>
       </c>
       <c r="K390" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -15688,7 +15694,7 @@
         <v>56</v>
       </c>
       <c r="K391" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -15723,7 +15729,7 @@
         <v>56</v>
       </c>
       <c r="K392" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -15758,7 +15764,7 @@
         <v>56</v>
       </c>
       <c r="K393" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -15793,7 +15799,7 @@
         <v>56</v>
       </c>
       <c r="K394" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -15828,7 +15834,7 @@
         <v>56</v>
       </c>
       <c r="K395" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -15863,7 +15869,7 @@
         <v>56</v>
       </c>
       <c r="K396" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -15898,7 +15904,7 @@
         <v>56</v>
       </c>
       <c r="K397" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -15933,7 +15939,7 @@
         <v>56</v>
       </c>
       <c r="K398" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -15968,7 +15974,7 @@
         <v>56</v>
       </c>
       <c r="K399" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -16003,7 +16009,7 @@
         <v>56</v>
       </c>
       <c r="K400" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -16038,7 +16044,7 @@
         <v>56</v>
       </c>
       <c r="K401" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -16073,7 +16079,7 @@
         <v>56</v>
       </c>
       <c r="K402" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -16108,7 +16114,7 @@
         <v>56</v>
       </c>
       <c r="K403" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -16140,10 +16146,10 @@
         <v>55</v>
       </c>
       <c r="J404" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K404" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -16178,7 +16184,7 @@
         <v>56</v>
       </c>
       <c r="K405" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -16213,7 +16219,7 @@
         <v>56</v>
       </c>
       <c r="K406" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -16248,7 +16254,7 @@
         <v>56</v>
       </c>
       <c r="K407" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -16283,7 +16289,7 @@
         <v>56</v>
       </c>
       <c r="K408" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -16318,7 +16324,7 @@
         <v>56</v>
       </c>
       <c r="K409" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -16353,7 +16359,7 @@
         <v>56</v>
       </c>
       <c r="K410" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -16388,7 +16394,7 @@
         <v>56</v>
       </c>
       <c r="K411" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -16423,7 +16429,7 @@
         <v>56</v>
       </c>
       <c r="K412" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -16458,7 +16464,7 @@
         <v>56</v>
       </c>
       <c r="K413" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -16493,7 +16499,7 @@
         <v>56</v>
       </c>
       <c r="K414" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -16528,7 +16534,7 @@
         <v>56</v>
       </c>
       <c r="K415" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -16563,7 +16569,7 @@
         <v>56</v>
       </c>
       <c r="K416" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -16598,7 +16604,7 @@
         <v>56</v>
       </c>
       <c r="K417" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="418" spans="1:11">
@@ -16633,7 +16639,7 @@
         <v>56</v>
       </c>
       <c r="K418" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="419" spans="1:11">
@@ -16668,7 +16674,7 @@
         <v>56</v>
       </c>
       <c r="K419" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="420" spans="1:11">
@@ -16703,7 +16709,7 @@
         <v>56</v>
       </c>
       <c r="K420" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="421" spans="1:11">
@@ -16738,7 +16744,7 @@
         <v>56</v>
       </c>
       <c r="K421" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="422" spans="1:11">
@@ -16773,7 +16779,7 @@
         <v>56</v>
       </c>
       <c r="K422" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="423" spans="1:11">
@@ -16808,7 +16814,7 @@
         <v>56</v>
       </c>
       <c r="K423" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="424" spans="1:11">
@@ -16843,7 +16849,7 @@
         <v>56</v>
       </c>
       <c r="K424" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="425" spans="1:11">
@@ -16878,7 +16884,7 @@
         <v>56</v>
       </c>
       <c r="K425" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="426" spans="1:11">
@@ -16913,7 +16919,7 @@
         <v>56</v>
       </c>
       <c r="K426" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="427" spans="1:11">
@@ -16948,7 +16954,7 @@
         <v>56</v>
       </c>
       <c r="K427" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
+++ b/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="531">
   <si>
     <t>id_cliente</t>
   </si>
@@ -193,10 +193,10 @@
     <t>INATIVO - 45.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 45.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.9 meses sem comprar</t>
+    <t>INATIVO - 45.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 39.4 meses sem comprar</t>
@@ -205,10 +205,10 @@
     <t>INATIVO - 42.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 50.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.8 meses sem comprar</t>
+    <t>INATIVO - 50.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 39.9 meses sem comprar</t>
@@ -217,9 +217,6 @@
     <t>INATIVO - 48.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 45.5 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 48.9 meses sem comprar</t>
   </si>
   <si>
@@ -235,10 +232,10 @@
     <t>INATIVO - 0.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.7 meses sem comprar</t>
+    <t>INATIVO - 18.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 45.0 meses sem comprar</t>
@@ -253,55 +250,58 @@
     <t>INATIVO - 12.1 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 8.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.2 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 8.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 28.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.0 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 7.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.9 meses sem comprar</t>
+    <t>INATIVO - 15.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 16.5 meses sem comprar</t>
@@ -319,7 +319,7 @@
     <t>INATIVO - 42.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.3 meses sem comprar</t>
+    <t>INATIVO - 18.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 26.6 meses sem comprar</t>
@@ -328,7 +328,7 @@
     <t>INATIVO - 21.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.2 meses sem comprar</t>
+    <t>INATIVO - 38.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 15.4 meses sem comprar</t>
@@ -340,7 +340,10 @@
     <t>INATIVO - 41.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 35.4 meses sem comprar</t>
+    <t>INATIVO - 35.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 1.4 meses sem comprar</t>
@@ -352,16 +355,19 @@
     <t>INATIVO - 25.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 26.8 meses sem comprar</t>
+    <t>INATIVO - 26.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 10.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 28.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.1 meses sem comprar</t>
+    <t>INATIVO - 38.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.8 meses sem comprar</t>
@@ -370,22 +376,19 @@
     <t>INATIVO - 8.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 33.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.7 meses sem comprar</t>
+    <t>INATIVO - 40.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 19.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 34.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.2 meses sem comprar</t>
+    <t>INATIVO - 34.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 9.8 meses sem comprar</t>
@@ -394,75 +397,72 @@
     <t>INATIVO - 26.1 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 13.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.4 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 13.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 6.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.4 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 14.1 meses sem comprar</t>
   </si>
   <si>
@@ -475,19 +475,16 @@
     <t>INATIVO - 9.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 11.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.7 meses sem comprar</t>
+    <t>INATIVO - 8.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 13.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
+    <t>INATIVO - 7.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 11.1 meses sem comprar</t>
@@ -497,9 +494,6 @@
   </si>
   <si>
     <t>INATIVO - 10.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 8.6 meses sem comprar</t>
@@ -2079,7 +2073,7 @@
         <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2114,7 +2108,7 @@
         <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2149,7 +2143,7 @@
         <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2184,7 +2178,7 @@
         <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2219,7 +2213,7 @@
         <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2254,7 +2248,7 @@
         <v>59</v>
       </c>
       <c r="K7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2289,7 +2283,7 @@
         <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2324,7 +2318,7 @@
         <v>61</v>
       </c>
       <c r="K9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2359,7 +2353,7 @@
         <v>62</v>
       </c>
       <c r="K10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2394,7 +2388,7 @@
         <v>63</v>
       </c>
       <c r="K11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2429,7 +2423,7 @@
         <v>57</v>
       </c>
       <c r="K12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2464,7 +2458,7 @@
         <v>64</v>
       </c>
       <c r="K13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2499,7 +2493,7 @@
         <v>65</v>
       </c>
       <c r="K14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2534,7 +2528,7 @@
         <v>66</v>
       </c>
       <c r="K15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2569,7 +2563,7 @@
         <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2601,10 +2595,10 @@
         <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2612,16 +2606,16 @@
         <v>3148947</v>
       </c>
       <c r="B18" s="1">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="C18" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D18" s="1">
         <v>0.67</v>
       </c>
       <c r="E18">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18" s="1">
         <v>0.67</v>
@@ -2630,16 +2624,16 @@
         <v>13</v>
       </c>
       <c r="H18" s="4">
-        <v>45804</v>
+        <v>45824</v>
       </c>
       <c r="I18" s="4">
-        <v>45835</v>
+        <v>45854</v>
       </c>
       <c r="J18" t="s">
         <v>56</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2671,10 +2665,10 @@
         <v>55</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2706,10 +2700,10 @@
         <v>55</v>
       </c>
       <c r="J20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2741,10 +2735,10 @@
         <v>55</v>
       </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2776,10 +2770,10 @@
         <v>55</v>
       </c>
       <c r="J22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2811,10 +2805,10 @@
         <v>55</v>
       </c>
       <c r="J23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2846,10 +2840,10 @@
         <v>55</v>
       </c>
       <c r="J24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2881,10 +2875,10 @@
         <v>55</v>
       </c>
       <c r="J25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2919,7 +2913,7 @@
         <v>56</v>
       </c>
       <c r="K26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2951,10 +2945,10 @@
         <v>55</v>
       </c>
       <c r="J27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2986,10 +2980,10 @@
         <v>55</v>
       </c>
       <c r="J28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3024,7 +3018,7 @@
         <v>56</v>
       </c>
       <c r="K29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3056,10 +3050,10 @@
         <v>55</v>
       </c>
       <c r="J30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3094,7 +3088,7 @@
         <v>56</v>
       </c>
       <c r="K31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3129,7 +3123,7 @@
         <v>56</v>
       </c>
       <c r="K32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3164,7 +3158,7 @@
         <v>56</v>
       </c>
       <c r="K33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3199,7 +3193,7 @@
         <v>56</v>
       </c>
       <c r="K34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3231,10 +3225,10 @@
         <v>55</v>
       </c>
       <c r="J35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3266,10 +3260,10 @@
         <v>55</v>
       </c>
       <c r="J36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3301,10 +3295,10 @@
         <v>55</v>
       </c>
       <c r="J37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3339,7 +3333,7 @@
         <v>65</v>
       </c>
       <c r="K38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3374,7 +3368,7 @@
         <v>56</v>
       </c>
       <c r="K39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3409,7 +3403,7 @@
         <v>56</v>
       </c>
       <c r="K40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3444,7 +3438,7 @@
         <v>56</v>
       </c>
       <c r="K41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3476,10 +3470,10 @@
         <v>55</v>
       </c>
       <c r="J42" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3514,7 +3508,7 @@
         <v>81</v>
       </c>
       <c r="K43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3549,7 +3543,7 @@
         <v>56</v>
       </c>
       <c r="K44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3584,7 +3578,7 @@
         <v>82</v>
       </c>
       <c r="K45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3619,7 +3613,7 @@
         <v>56</v>
       </c>
       <c r="K46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3654,7 +3648,7 @@
         <v>83</v>
       </c>
       <c r="K47" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3689,7 +3683,7 @@
         <v>56</v>
       </c>
       <c r="K48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3724,7 +3718,7 @@
         <v>56</v>
       </c>
       <c r="K49" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3759,7 +3753,7 @@
         <v>56</v>
       </c>
       <c r="K50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3794,7 +3788,7 @@
         <v>56</v>
       </c>
       <c r="K51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3829,7 +3823,7 @@
         <v>84</v>
       </c>
       <c r="K52" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3864,7 +3858,7 @@
         <v>56</v>
       </c>
       <c r="K53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3899,7 +3893,7 @@
         <v>56</v>
       </c>
       <c r="K54" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3934,7 +3928,7 @@
         <v>85</v>
       </c>
       <c r="K55" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3969,7 +3963,7 @@
         <v>86</v>
       </c>
       <c r="K56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -4004,7 +3998,7 @@
         <v>56</v>
       </c>
       <c r="K57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -4039,7 +4033,7 @@
         <v>87</v>
       </c>
       <c r="K58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4074,7 +4068,7 @@
         <v>88</v>
       </c>
       <c r="K59" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4109,7 +4103,7 @@
         <v>89</v>
       </c>
       <c r="K60" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4144,7 +4138,7 @@
         <v>90</v>
       </c>
       <c r="K61" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4179,7 +4173,7 @@
         <v>90</v>
       </c>
       <c r="K62" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4214,7 +4208,7 @@
         <v>89</v>
       </c>
       <c r="K63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4249,7 +4243,7 @@
         <v>90</v>
       </c>
       <c r="K64" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4284,7 +4278,7 @@
         <v>90</v>
       </c>
       <c r="K65" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4319,7 +4313,7 @@
         <v>90</v>
       </c>
       <c r="K66" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4354,7 +4348,7 @@
         <v>91</v>
       </c>
       <c r="K67" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4389,7 +4383,7 @@
         <v>92</v>
       </c>
       <c r="K68" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4424,7 +4418,7 @@
         <v>90</v>
       </c>
       <c r="K69" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4459,7 +4453,7 @@
         <v>56</v>
       </c>
       <c r="K70" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4494,7 +4488,7 @@
         <v>93</v>
       </c>
       <c r="K71" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4529,7 +4523,7 @@
         <v>56</v>
       </c>
       <c r="K72" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4564,7 +4558,7 @@
         <v>89</v>
       </c>
       <c r="K73" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4599,7 +4593,7 @@
         <v>88</v>
       </c>
       <c r="K74" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4634,7 +4628,7 @@
         <v>93</v>
       </c>
       <c r="K75" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4669,7 +4663,7 @@
         <v>56</v>
       </c>
       <c r="K76" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4704,7 +4698,7 @@
         <v>56</v>
       </c>
       <c r="K77" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4739,7 +4733,7 @@
         <v>56</v>
       </c>
       <c r="K78" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4774,7 +4768,7 @@
         <v>90</v>
       </c>
       <c r="K79" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4809,7 +4803,7 @@
         <v>94</v>
       </c>
       <c r="K80" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4844,7 +4838,7 @@
         <v>56</v>
       </c>
       <c r="K81" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4879,7 +4873,7 @@
         <v>95</v>
       </c>
       <c r="K82" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4914,7 +4908,7 @@
         <v>56</v>
       </c>
       <c r="K83" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4949,7 +4943,7 @@
         <v>56</v>
       </c>
       <c r="K84" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4984,7 +4978,7 @@
         <v>96</v>
       </c>
       <c r="K85" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -5019,7 +5013,7 @@
         <v>56</v>
       </c>
       <c r="K86" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5051,10 +5045,10 @@
         <v>55</v>
       </c>
       <c r="J87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K87" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -5089,7 +5083,7 @@
         <v>56</v>
       </c>
       <c r="K88" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5124,7 +5118,7 @@
         <v>97</v>
       </c>
       <c r="K89" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5159,7 +5153,7 @@
         <v>98</v>
       </c>
       <c r="K90" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5167,16 +5161,16 @@
         <v>3900956</v>
       </c>
       <c r="B91" s="1">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="D91" s="1">
         <v>1</v>
       </c>
       <c r="E91">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F91" s="1">
         <v>1</v>
@@ -5185,16 +5179,16 @@
         <v>11</v>
       </c>
       <c r="H91" s="4">
-        <v>45818</v>
+        <v>45824</v>
       </c>
       <c r="I91" s="4">
-        <v>45825</v>
+        <v>45831</v>
       </c>
       <c r="J91" t="s">
         <v>56</v>
       </c>
       <c r="K91" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5229,7 +5223,7 @@
         <v>99</v>
       </c>
       <c r="K92" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5264,7 +5258,7 @@
         <v>100</v>
       </c>
       <c r="K93" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5299,7 +5293,7 @@
         <v>88</v>
       </c>
       <c r="K94" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5334,7 +5328,7 @@
         <v>56</v>
       </c>
       <c r="K95" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5369,7 +5363,7 @@
         <v>101</v>
       </c>
       <c r="K96" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5404,7 +5398,7 @@
         <v>56</v>
       </c>
       <c r="K97" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5439,7 +5433,7 @@
         <v>56</v>
       </c>
       <c r="K98" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5474,7 +5468,7 @@
         <v>102</v>
       </c>
       <c r="K99" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5482,16 +5476,16 @@
         <v>3966030</v>
       </c>
       <c r="B100" s="1">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="C100" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="D100" s="1">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F100" s="1">
         <v>1</v>
@@ -5500,16 +5494,16 @@
         <v>11</v>
       </c>
       <c r="H100" s="4">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="I100" s="4">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="J100" t="s">
         <v>56</v>
       </c>
       <c r="K100" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5544,7 +5538,7 @@
         <v>65</v>
       </c>
       <c r="K101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5579,7 +5573,7 @@
         <v>103</v>
       </c>
       <c r="K102" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5614,7 +5608,7 @@
         <v>56</v>
       </c>
       <c r="K103" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5649,7 +5643,7 @@
         <v>104</v>
       </c>
       <c r="K104" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5684,7 +5678,7 @@
         <v>56</v>
       </c>
       <c r="K105" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5692,16 +5686,16 @@
         <v>4206822</v>
       </c>
       <c r="B106" s="1">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="C106" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="D106" s="1">
         <v>1</v>
       </c>
       <c r="E106">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F106" s="1">
         <v>1</v>
@@ -5710,16 +5704,16 @@
         <v>11</v>
       </c>
       <c r="H106" s="4">
-        <v>45819</v>
+        <v>45824</v>
       </c>
       <c r="I106" s="4">
-        <v>45826</v>
+        <v>45831</v>
       </c>
       <c r="J106" t="s">
         <v>56</v>
       </c>
       <c r="K106" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5754,7 +5748,7 @@
         <v>105</v>
       </c>
       <c r="K107" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5789,7 +5783,7 @@
         <v>106</v>
       </c>
       <c r="K108" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5824,7 +5818,7 @@
         <v>56</v>
       </c>
       <c r="K109" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5859,7 +5853,7 @@
         <v>107</v>
       </c>
       <c r="K110" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5894,7 +5888,7 @@
         <v>108</v>
       </c>
       <c r="K111" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5926,10 +5920,10 @@
         <v>55</v>
       </c>
       <c r="J112" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="K112" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5964,7 +5958,7 @@
         <v>56</v>
       </c>
       <c r="K113" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5999,7 +5993,7 @@
         <v>64</v>
       </c>
       <c r="K114" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -6031,10 +6025,10 @@
         <v>55</v>
       </c>
       <c r="J115" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K115" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6066,10 +6060,10 @@
         <v>55</v>
       </c>
       <c r="J116" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K116" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -6101,10 +6095,10 @@
         <v>55</v>
       </c>
       <c r="J117" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K117" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6136,10 +6130,10 @@
         <v>55</v>
       </c>
       <c r="J118" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K118" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6174,7 +6168,7 @@
         <v>95</v>
       </c>
       <c r="K119" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6206,10 +6200,10 @@
         <v>55</v>
       </c>
       <c r="J120" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K120" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6244,7 +6238,7 @@
         <v>56</v>
       </c>
       <c r="K121" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6276,10 +6270,10 @@
         <v>55</v>
       </c>
       <c r="J122" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K122" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6314,7 +6308,7 @@
         <v>56</v>
       </c>
       <c r="K123" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6349,7 +6343,7 @@
         <v>56</v>
       </c>
       <c r="K124" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6381,10 +6375,10 @@
         <v>55</v>
       </c>
       <c r="J125" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="K125" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6416,10 +6410,10 @@
         <v>55</v>
       </c>
       <c r="J126" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="K126" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6454,7 +6448,7 @@
         <v>56</v>
       </c>
       <c r="K127" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6489,7 +6483,7 @@
         <v>56</v>
       </c>
       <c r="K128" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6521,10 +6515,10 @@
         <v>55</v>
       </c>
       <c r="J129" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="K129" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6556,10 +6550,10 @@
         <v>55</v>
       </c>
       <c r="J130" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K130" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6594,7 +6588,7 @@
         <v>56</v>
       </c>
       <c r="K131" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6626,10 +6620,10 @@
         <v>55</v>
       </c>
       <c r="J132" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K132" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6664,7 +6658,7 @@
         <v>56</v>
       </c>
       <c r="K133" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6699,7 +6693,7 @@
         <v>56</v>
       </c>
       <c r="K134" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -6734,7 +6728,7 @@
         <v>56</v>
       </c>
       <c r="K135" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -6766,10 +6760,10 @@
         <v>55</v>
       </c>
       <c r="J136" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K136" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6801,10 +6795,10 @@
         <v>55</v>
       </c>
       <c r="J137" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="K137" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6839,7 +6833,7 @@
         <v>56</v>
       </c>
       <c r="K138" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6871,10 +6865,10 @@
         <v>55</v>
       </c>
       <c r="J139" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K139" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6906,10 +6900,10 @@
         <v>55</v>
       </c>
       <c r="J140" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K140" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6941,10 +6935,10 @@
         <v>55</v>
       </c>
       <c r="J141" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K141" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6976,10 +6970,10 @@
         <v>55</v>
       </c>
       <c r="J142" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K142" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -7014,7 +7008,7 @@
         <v>56</v>
       </c>
       <c r="K143" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -7046,10 +7040,10 @@
         <v>55</v>
       </c>
       <c r="J144" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K144" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -7084,7 +7078,7 @@
         <v>56</v>
       </c>
       <c r="K145" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -7119,7 +7113,7 @@
         <v>56</v>
       </c>
       <c r="K146" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7151,10 +7145,10 @@
         <v>55</v>
       </c>
       <c r="J147" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7189,7 +7183,7 @@
         <v>56</v>
       </c>
       <c r="K148" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7224,7 +7218,7 @@
         <v>56</v>
       </c>
       <c r="K149" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7259,7 +7253,7 @@
         <v>56</v>
       </c>
       <c r="K150" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7294,7 +7288,7 @@
         <v>56</v>
       </c>
       <c r="K151" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7329,7 +7323,7 @@
         <v>56</v>
       </c>
       <c r="K152" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7364,7 +7358,7 @@
         <v>95</v>
       </c>
       <c r="K153" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7399,7 +7393,7 @@
         <v>56</v>
       </c>
       <c r="K154" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7434,7 +7428,7 @@
         <v>56</v>
       </c>
       <c r="K155" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7466,10 +7460,10 @@
         <v>55</v>
       </c>
       <c r="J156" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K156" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -7504,7 +7498,7 @@
         <v>56</v>
       </c>
       <c r="K157" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -7539,7 +7533,7 @@
         <v>56</v>
       </c>
       <c r="K158" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -7574,7 +7568,7 @@
         <v>56</v>
       </c>
       <c r="K159" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -7609,7 +7603,7 @@
         <v>56</v>
       </c>
       <c r="K160" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -7644,7 +7638,7 @@
         <v>56</v>
       </c>
       <c r="K161" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7679,7 +7673,7 @@
         <v>56</v>
       </c>
       <c r="K162" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7714,7 +7708,7 @@
         <v>56</v>
       </c>
       <c r="K163" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -7746,10 +7740,10 @@
         <v>55</v>
       </c>
       <c r="J164" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K164" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7781,10 +7775,10 @@
         <v>55</v>
       </c>
       <c r="J165" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K165" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7819,7 +7813,7 @@
         <v>56</v>
       </c>
       <c r="K166" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7851,10 +7845,10 @@
         <v>55</v>
       </c>
       <c r="J167" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K167" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -7886,10 +7880,10 @@
         <v>55</v>
       </c>
       <c r="J168" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K168" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7897,34 +7891,34 @@
         <v>5216904</v>
       </c>
       <c r="B169" s="1">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="C169" s="1">
         <v>0.67</v>
       </c>
       <c r="D169" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F169" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G169" t="s">
         <v>29</v>
       </c>
       <c r="H169" s="4">
-        <v>45811</v>
+        <v>45824</v>
       </c>
       <c r="I169" s="4">
-        <v>45826</v>
+        <v>45839</v>
       </c>
       <c r="J169" t="s">
         <v>56</v>
       </c>
       <c r="K169" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -7932,34 +7926,34 @@
         <v>5216907</v>
       </c>
       <c r="B170" s="1">
-        <v>0.58</v>
+        <v>0.67</v>
       </c>
       <c r="C170" s="1">
         <v>0.5</v>
       </c>
       <c r="D170" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="E170">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F170" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="G170" t="s">
         <v>29</v>
       </c>
       <c r="H170" s="4">
-        <v>45811</v>
+        <v>45824</v>
       </c>
       <c r="I170" s="4">
-        <v>45826</v>
+        <v>45839</v>
       </c>
       <c r="J170" t="s">
         <v>56</v>
       </c>
       <c r="K170" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7967,34 +7961,34 @@
         <v>5216938</v>
       </c>
       <c r="B171" s="1">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="C171" s="1">
         <v>0.67</v>
       </c>
       <c r="D171" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="E171">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F171" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="G171" t="s">
         <v>29</v>
       </c>
       <c r="H171" s="4">
-        <v>45811</v>
+        <v>45824</v>
       </c>
       <c r="I171" s="4">
-        <v>45826</v>
+        <v>45839</v>
       </c>
       <c r="J171" t="s">
         <v>56</v>
       </c>
       <c r="K171" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -8002,34 +7996,34 @@
         <v>5216945</v>
       </c>
       <c r="B172" s="1">
-        <v>0.58</v>
+        <v>0.67</v>
       </c>
       <c r="C172" s="1">
         <v>0.5</v>
       </c>
       <c r="D172" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="E172">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F172" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="G172" t="s">
         <v>29</v>
       </c>
       <c r="H172" s="4">
-        <v>45811</v>
+        <v>45824</v>
       </c>
       <c r="I172" s="4">
-        <v>45826</v>
+        <v>45839</v>
       </c>
       <c r="J172" t="s">
         <v>56</v>
       </c>
       <c r="K172" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -8064,7 +8058,7 @@
         <v>56</v>
       </c>
       <c r="K173" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -8072,34 +8066,34 @@
         <v>5216980</v>
       </c>
       <c r="B174" s="1">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="C174" s="1">
         <v>0.5</v>
       </c>
       <c r="D174" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E174">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F174" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G174" t="s">
         <v>29</v>
       </c>
       <c r="H174" s="4">
-        <v>45811</v>
+        <v>45824</v>
       </c>
       <c r="I174" s="4">
-        <v>45826</v>
+        <v>45839</v>
       </c>
       <c r="J174" t="s">
         <v>56</v>
       </c>
       <c r="K174" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -8131,10 +8125,10 @@
         <v>55</v>
       </c>
       <c r="J175" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K175" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -8169,7 +8163,7 @@
         <v>56</v>
       </c>
       <c r="K176" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -8177,34 +8171,34 @@
         <v>5216993</v>
       </c>
       <c r="B177" s="1">
-        <v>0.58</v>
+        <v>0.67</v>
       </c>
       <c r="C177" s="1">
         <v>0.5</v>
       </c>
       <c r="D177" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="E177">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F177" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="G177" t="s">
         <v>29</v>
       </c>
       <c r="H177" s="4">
-        <v>45811</v>
+        <v>45824</v>
       </c>
       <c r="I177" s="4">
-        <v>45826</v>
+        <v>45839</v>
       </c>
       <c r="J177" t="s">
         <v>56</v>
       </c>
       <c r="K177" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -8239,7 +8233,7 @@
         <v>56</v>
       </c>
       <c r="K178" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -8274,7 +8268,7 @@
         <v>56</v>
       </c>
       <c r="K179" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -8282,16 +8276,16 @@
         <v>5238925</v>
       </c>
       <c r="B180" s="1">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="C180" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="D180" s="1">
         <v>1</v>
       </c>
       <c r="E180">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F180" s="1">
         <v>1</v>
@@ -8300,16 +8294,16 @@
         <v>11</v>
       </c>
       <c r="H180" s="4">
-        <v>45819</v>
+        <v>45824</v>
       </c>
       <c r="I180" s="4">
-        <v>45826</v>
+        <v>45831</v>
       </c>
       <c r="J180" t="s">
         <v>56</v>
       </c>
       <c r="K180" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -8344,7 +8338,7 @@
         <v>56</v>
       </c>
       <c r="K181" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -8352,16 +8346,16 @@
         <v>5264813</v>
       </c>
       <c r="B182" s="1">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="C182" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="D182" s="1">
         <v>1</v>
       </c>
       <c r="E182">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F182" s="1">
         <v>1</v>
@@ -8370,16 +8364,16 @@
         <v>11</v>
       </c>
       <c r="H182" s="4">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="I182" s="4">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="J182" t="s">
         <v>56</v>
       </c>
       <c r="K182" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -8387,34 +8381,34 @@
         <v>5287027</v>
       </c>
       <c r="B183" s="1">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="C183" s="1">
         <v>0.33</v>
       </c>
       <c r="D183" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E183">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G183" t="s">
         <v>23</v>
       </c>
       <c r="H183" s="4">
-        <v>45792</v>
+        <v>45824</v>
       </c>
       <c r="I183" s="4">
-        <v>45915</v>
+        <v>45946</v>
       </c>
       <c r="J183" t="s">
         <v>56</v>
       </c>
       <c r="K183" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -8446,10 +8440,10 @@
         <v>55</v>
       </c>
       <c r="J184" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K184" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -8457,34 +8451,34 @@
         <v>5342620</v>
       </c>
       <c r="B185" s="1">
-        <v>0.58</v>
+        <v>0.67</v>
       </c>
       <c r="C185" s="1">
         <v>0.5</v>
       </c>
       <c r="D185" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="E185">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F185" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="G185" t="s">
         <v>43</v>
       </c>
       <c r="H185" s="4">
-        <v>45811</v>
+        <v>45824</v>
       </c>
       <c r="I185" s="4">
-        <v>45818</v>
+        <v>45831</v>
       </c>
       <c r="J185" t="s">
         <v>56</v>
       </c>
       <c r="K185" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -8519,7 +8513,7 @@
         <v>56</v>
       </c>
       <c r="K186" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -8554,7 +8548,7 @@
         <v>56</v>
       </c>
       <c r="K187" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -8589,7 +8583,7 @@
         <v>56</v>
       </c>
       <c r="K188" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -8624,7 +8618,7 @@
         <v>56</v>
       </c>
       <c r="K189" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -8656,10 +8650,10 @@
         <v>55</v>
       </c>
       <c r="J190" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K190" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -8691,10 +8685,10 @@
         <v>55</v>
       </c>
       <c r="J191" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K191" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -8726,10 +8720,10 @@
         <v>55</v>
       </c>
       <c r="J192" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K192" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -8764,7 +8758,7 @@
         <v>56</v>
       </c>
       <c r="K193" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -8772,16 +8766,16 @@
         <v>5710471</v>
       </c>
       <c r="B194" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C194" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D194" s="1">
         <v>0.5</v>
       </c>
       <c r="E194">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F194" s="1">
         <v>0.5</v>
@@ -8790,16 +8784,16 @@
         <v>29</v>
       </c>
       <c r="H194" s="4">
-        <v>45811</v>
+        <v>45824</v>
       </c>
       <c r="I194" s="4">
-        <v>45826</v>
+        <v>45839</v>
       </c>
       <c r="J194" t="s">
         <v>56</v>
       </c>
       <c r="K194" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8834,7 +8828,7 @@
         <v>56</v>
       </c>
       <c r="K195" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -8869,7 +8863,7 @@
         <v>56</v>
       </c>
       <c r="K196" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -8904,7 +8898,7 @@
         <v>56</v>
       </c>
       <c r="K197" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -8939,7 +8933,7 @@
         <v>85</v>
       </c>
       <c r="K198" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -8974,7 +8968,7 @@
         <v>56</v>
       </c>
       <c r="K199" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -9009,7 +9003,7 @@
         <v>56</v>
       </c>
       <c r="K200" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -9044,7 +9038,7 @@
         <v>56</v>
       </c>
       <c r="K201" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -9076,10 +9070,10 @@
         <v>55</v>
       </c>
       <c r="J202" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K202" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -9114,7 +9108,7 @@
         <v>56</v>
       </c>
       <c r="K203" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -9149,7 +9143,7 @@
         <v>56</v>
       </c>
       <c r="K204" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -9184,7 +9178,7 @@
         <v>56</v>
       </c>
       <c r="K205" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -9219,7 +9213,7 @@
         <v>56</v>
       </c>
       <c r="K206" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -9254,7 +9248,7 @@
         <v>56</v>
       </c>
       <c r="K207" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -9286,10 +9280,10 @@
         <v>55</v>
       </c>
       <c r="J208" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K208" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -9297,34 +9291,34 @@
         <v>6074351</v>
       </c>
       <c r="B209" s="1">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="C209" s="1">
         <v>0.5</v>
       </c>
       <c r="D209" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E209">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F209" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G209" t="s">
         <v>29</v>
       </c>
       <c r="H209" s="4">
-        <v>45811</v>
+        <v>45824</v>
       </c>
       <c r="I209" s="4">
-        <v>45826</v>
+        <v>45839</v>
       </c>
       <c r="J209" t="s">
         <v>56</v>
       </c>
       <c r="K209" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -9359,7 +9353,7 @@
         <v>56</v>
       </c>
       <c r="K210" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -9394,7 +9388,7 @@
         <v>56</v>
       </c>
       <c r="K211" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -9402,16 +9396,16 @@
         <v>6161980</v>
       </c>
       <c r="B212" s="1">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="C212" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
       </c>
       <c r="E212">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F212" s="1">
         <v>1</v>
@@ -9420,16 +9414,16 @@
         <v>45</v>
       </c>
       <c r="H212" s="4">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="I212" s="4">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="J212" t="s">
         <v>56</v>
       </c>
       <c r="K212" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -9437,16 +9431,16 @@
         <v>6174341</v>
       </c>
       <c r="B213" s="1">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="C213" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="D213" s="1">
         <v>1</v>
       </c>
       <c r="E213">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F213" s="1">
         <v>1</v>
@@ -9455,16 +9449,16 @@
         <v>13</v>
       </c>
       <c r="H213" s="4">
-        <v>45818</v>
+        <v>45824</v>
       </c>
       <c r="I213" s="4">
-        <v>45848</v>
+        <v>45854</v>
       </c>
       <c r="J213" t="s">
         <v>56</v>
       </c>
       <c r="K213" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -9472,16 +9466,16 @@
         <v>6178316</v>
       </c>
       <c r="B214" s="1">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="C214" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="D214" s="1">
         <v>1</v>
       </c>
       <c r="E214">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F214" s="1">
         <v>1</v>
@@ -9490,16 +9484,16 @@
         <v>45</v>
       </c>
       <c r="H214" s="4">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="I214" s="4">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="J214" t="s">
         <v>56</v>
       </c>
       <c r="K214" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -9510,31 +9504,31 @@
         <v>0.33</v>
       </c>
       <c r="C215" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D215" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E215">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F215" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G215" t="s">
         <v>13</v>
       </c>
       <c r="H215" s="4">
-        <v>45770</v>
+        <v>45824</v>
       </c>
       <c r="I215" s="4">
-        <v>45800</v>
+        <v>45854</v>
       </c>
       <c r="J215" t="s">
         <v>56</v>
       </c>
       <c r="K215" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -9569,7 +9563,7 @@
         <v>56</v>
       </c>
       <c r="K216" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -9601,10 +9595,10 @@
         <v>55</v>
       </c>
       <c r="J217" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K217" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -9639,7 +9633,7 @@
         <v>56</v>
       </c>
       <c r="K218" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -9671,10 +9665,10 @@
         <v>55</v>
       </c>
       <c r="J219" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K219" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -9709,7 +9703,7 @@
         <v>56</v>
       </c>
       <c r="K220" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -9744,7 +9738,7 @@
         <v>56</v>
       </c>
       <c r="K221" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -9779,7 +9773,7 @@
         <v>56</v>
       </c>
       <c r="K222" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -9814,7 +9808,7 @@
         <v>56</v>
       </c>
       <c r="K223" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -9849,7 +9843,7 @@
         <v>56</v>
       </c>
       <c r="K224" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -9884,7 +9878,7 @@
         <v>56</v>
       </c>
       <c r="K225" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -9919,7 +9913,7 @@
         <v>56</v>
       </c>
       <c r="K226" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -9954,7 +9948,7 @@
         <v>56</v>
       </c>
       <c r="K227" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -9989,7 +9983,7 @@
         <v>56</v>
       </c>
       <c r="K228" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -10021,10 +10015,10 @@
         <v>55</v>
       </c>
       <c r="J229" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K229" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -10059,7 +10053,7 @@
         <v>56</v>
       </c>
       <c r="K230" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -10094,7 +10088,7 @@
         <v>56</v>
       </c>
       <c r="K231" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -10126,10 +10120,10 @@
         <v>55</v>
       </c>
       <c r="J232" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K232" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -10164,7 +10158,7 @@
         <v>56</v>
       </c>
       <c r="K233" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -10199,7 +10193,7 @@
         <v>56</v>
       </c>
       <c r="K234" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -10234,7 +10228,7 @@
         <v>56</v>
       </c>
       <c r="K235" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -10266,10 +10260,10 @@
         <v>55</v>
       </c>
       <c r="J236" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K236" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -10304,7 +10298,7 @@
         <v>56</v>
       </c>
       <c r="K237" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -10339,7 +10333,7 @@
         <v>56</v>
       </c>
       <c r="K238" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -10374,7 +10368,7 @@
         <v>56</v>
       </c>
       <c r="K239" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -10409,7 +10403,7 @@
         <v>56</v>
       </c>
       <c r="K240" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -10444,7 +10438,7 @@
         <v>56</v>
       </c>
       <c r="K241" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -10479,7 +10473,7 @@
         <v>56</v>
       </c>
       <c r="K242" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -10511,10 +10505,10 @@
         <v>55</v>
       </c>
       <c r="J243" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K243" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -10549,7 +10543,7 @@
         <v>56</v>
       </c>
       <c r="K244" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -10584,7 +10578,7 @@
         <v>56</v>
       </c>
       <c r="K245" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -10616,10 +10610,10 @@
         <v>55</v>
       </c>
       <c r="J246" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K246" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -10654,7 +10648,7 @@
         <v>56</v>
       </c>
       <c r="K247" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -10689,7 +10683,7 @@
         <v>86</v>
       </c>
       <c r="K248" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -10724,7 +10718,7 @@
         <v>56</v>
       </c>
       <c r="K249" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -10732,16 +10726,16 @@
         <v>12211770</v>
       </c>
       <c r="B250" s="1">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="C250" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D250" s="1">
         <v>0.83</v>
       </c>
       <c r="E250">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F250" s="1">
         <v>0.83</v>
@@ -10750,16 +10744,16 @@
         <v>13</v>
       </c>
       <c r="H250" s="4">
-        <v>45785</v>
+        <v>45824</v>
       </c>
       <c r="I250" s="4">
-        <v>45816</v>
+        <v>45854</v>
       </c>
       <c r="J250" t="s">
         <v>56</v>
       </c>
       <c r="K250" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -10794,7 +10788,7 @@
         <v>56</v>
       </c>
       <c r="K251" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -10826,10 +10820,10 @@
         <v>55</v>
       </c>
       <c r="J252" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K252" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -10861,10 +10855,10 @@
         <v>55</v>
       </c>
       <c r="J253" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K253" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -10899,7 +10893,7 @@
         <v>56</v>
       </c>
       <c r="K254" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -10934,7 +10928,7 @@
         <v>56</v>
       </c>
       <c r="K255" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -10969,7 +10963,7 @@
         <v>56</v>
       </c>
       <c r="K256" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -11001,10 +10995,10 @@
         <v>55</v>
       </c>
       <c r="J257" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K257" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -11039,7 +11033,7 @@
         <v>56</v>
       </c>
       <c r="K258" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -11074,7 +11068,7 @@
         <v>56</v>
       </c>
       <c r="K259" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -11106,10 +11100,10 @@
         <v>55</v>
       </c>
       <c r="J260" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K260" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -11144,7 +11138,7 @@
         <v>56</v>
       </c>
       <c r="K261" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -11179,7 +11173,7 @@
         <v>56</v>
       </c>
       <c r="K262" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -11214,7 +11208,7 @@
         <v>56</v>
       </c>
       <c r="K263" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -11249,7 +11243,7 @@
         <v>56</v>
       </c>
       <c r="K264" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -11281,10 +11275,10 @@
         <v>55</v>
       </c>
       <c r="J265" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="K265" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -11319,7 +11313,7 @@
         <v>56</v>
       </c>
       <c r="K266" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -11354,7 +11348,7 @@
         <v>56</v>
       </c>
       <c r="K267" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -11389,7 +11383,7 @@
         <v>56</v>
       </c>
       <c r="K268" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -11424,7 +11418,7 @@
         <v>56</v>
       </c>
       <c r="K269" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -11459,7 +11453,7 @@
         <v>56</v>
       </c>
       <c r="K270" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -11494,7 +11488,7 @@
         <v>148</v>
       </c>
       <c r="K271" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -11529,7 +11523,7 @@
         <v>56</v>
       </c>
       <c r="K272" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -11564,7 +11558,7 @@
         <v>56</v>
       </c>
       <c r="K273" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -11599,7 +11593,7 @@
         <v>56</v>
       </c>
       <c r="K274" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -11634,7 +11628,7 @@
         <v>149</v>
       </c>
       <c r="K275" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -11669,7 +11663,7 @@
         <v>56</v>
       </c>
       <c r="K276" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -11704,7 +11698,7 @@
         <v>56</v>
       </c>
       <c r="K277" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -11739,7 +11733,7 @@
         <v>56</v>
       </c>
       <c r="K278" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -11756,25 +11750,25 @@
         <v>0.67</v>
       </c>
       <c r="E279">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F279" s="1">
         <v>0.67</v>
       </c>
       <c r="G279" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H279" s="4">
-        <v>45811</v>
+        <v>45821</v>
       </c>
       <c r="I279" s="4">
-        <v>45964</v>
+        <v>45943</v>
       </c>
       <c r="J279" t="s">
         <v>56</v>
       </c>
       <c r="K279" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -11809,7 +11803,7 @@
         <v>56</v>
       </c>
       <c r="K280" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -11817,34 +11811,34 @@
         <v>22674418</v>
       </c>
       <c r="B281" s="1">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C281" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D281" s="1">
         <v>0.33</v>
       </c>
       <c r="E281">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F281" s="1">
         <v>0.33</v>
       </c>
       <c r="G281" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H281" s="4">
-        <v>45792</v>
+        <v>45824</v>
       </c>
       <c r="I281" s="4">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="J281" t="s">
         <v>56</v>
       </c>
       <c r="K281" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -11879,7 +11873,7 @@
         <v>56</v>
       </c>
       <c r="K282" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -11914,7 +11908,7 @@
         <v>56</v>
       </c>
       <c r="K283" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -11949,7 +11943,7 @@
         <v>150</v>
       </c>
       <c r="K284" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -11984,7 +11978,7 @@
         <v>56</v>
       </c>
       <c r="K285" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -12019,7 +12013,7 @@
         <v>56</v>
       </c>
       <c r="K286" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -12054,7 +12048,7 @@
         <v>56</v>
       </c>
       <c r="K287" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -12089,7 +12083,7 @@
         <v>56</v>
       </c>
       <c r="K288" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -12124,7 +12118,7 @@
         <v>56</v>
       </c>
       <c r="K289" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -12159,7 +12153,7 @@
         <v>151</v>
       </c>
       <c r="K290" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -12194,7 +12188,7 @@
         <v>56</v>
       </c>
       <c r="K291" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -12229,7 +12223,7 @@
         <v>56</v>
       </c>
       <c r="K292" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -12264,7 +12258,7 @@
         <v>56</v>
       </c>
       <c r="K293" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -12299,7 +12293,7 @@
         <v>56</v>
       </c>
       <c r="K294" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -12334,7 +12328,7 @@
         <v>92</v>
       </c>
       <c r="K295" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -12369,7 +12363,7 @@
         <v>56</v>
       </c>
       <c r="K296" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -12404,7 +12398,7 @@
         <v>56</v>
       </c>
       <c r="K297" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -12439,7 +12433,7 @@
         <v>56</v>
       </c>
       <c r="K298" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -12474,7 +12468,7 @@
         <v>152</v>
       </c>
       <c r="K299" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -12509,7 +12503,7 @@
         <v>56</v>
       </c>
       <c r="K300" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -12544,7 +12538,7 @@
         <v>56</v>
       </c>
       <c r="K301" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -12579,7 +12573,7 @@
         <v>56</v>
       </c>
       <c r="K302" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -12614,7 +12608,7 @@
         <v>56</v>
       </c>
       <c r="K303" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -12622,34 +12616,34 @@
         <v>30516996</v>
       </c>
       <c r="B304" s="1">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="C304" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D304" s="1">
         <v>0.5</v>
       </c>
       <c r="E304">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F304" s="1">
         <v>0.5</v>
       </c>
       <c r="G304" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H304" s="4">
-        <v>45790</v>
+        <v>45824</v>
       </c>
       <c r="I304" s="4">
-        <v>45851</v>
+        <v>45885</v>
       </c>
       <c r="J304" t="s">
         <v>56</v>
       </c>
       <c r="K304" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -12684,7 +12678,7 @@
         <v>56</v>
       </c>
       <c r="K305" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -12719,7 +12713,7 @@
         <v>56</v>
       </c>
       <c r="K306" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -12754,7 +12748,7 @@
         <v>56</v>
       </c>
       <c r="K307" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -12786,10 +12780,10 @@
         <v>55</v>
       </c>
       <c r="J308" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K308" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -12824,7 +12818,7 @@
         <v>56</v>
       </c>
       <c r="K309" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -12859,7 +12853,7 @@
         <v>56</v>
       </c>
       <c r="K310" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -12894,7 +12888,7 @@
         <v>56</v>
       </c>
       <c r="K311" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -12929,7 +12923,7 @@
         <v>56</v>
       </c>
       <c r="K312" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -12961,10 +12955,10 @@
         <v>55</v>
       </c>
       <c r="J313" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K313" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -12999,7 +12993,7 @@
         <v>56</v>
       </c>
       <c r="K314" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -13034,7 +13028,7 @@
         <v>56</v>
       </c>
       <c r="K315" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -13069,7 +13063,7 @@
         <v>56</v>
       </c>
       <c r="K316" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -13101,10 +13095,10 @@
         <v>55</v>
       </c>
       <c r="J317" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K317" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -13139,7 +13133,7 @@
         <v>56</v>
       </c>
       <c r="K318" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -13174,7 +13168,7 @@
         <v>56</v>
       </c>
       <c r="K319" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -13209,7 +13203,7 @@
         <v>56</v>
       </c>
       <c r="K320" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -13244,7 +13238,7 @@
         <v>56</v>
       </c>
       <c r="K321" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -13279,7 +13273,7 @@
         <v>56</v>
       </c>
       <c r="K322" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -13314,7 +13308,7 @@
         <v>56</v>
       </c>
       <c r="K323" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -13349,7 +13343,7 @@
         <v>56</v>
       </c>
       <c r="K324" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -13381,10 +13375,10 @@
         <v>55</v>
       </c>
       <c r="J325" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="K325" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -13419,7 +13413,7 @@
         <v>56</v>
       </c>
       <c r="K326" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -13454,7 +13448,7 @@
         <v>56</v>
       </c>
       <c r="K327" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -13486,10 +13480,10 @@
         <v>55</v>
       </c>
       <c r="J328" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K328" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -13524,7 +13518,7 @@
         <v>56</v>
       </c>
       <c r="K329" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -13559,7 +13553,7 @@
         <v>56</v>
       </c>
       <c r="K330" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -13591,10 +13585,10 @@
         <v>55</v>
       </c>
       <c r="J331" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K331" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -13626,10 +13620,10 @@
         <v>55</v>
       </c>
       <c r="J332" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="K332" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -13664,7 +13658,7 @@
         <v>56</v>
       </c>
       <c r="K333" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -13696,10 +13690,10 @@
         <v>55</v>
       </c>
       <c r="J334" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K334" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -13734,7 +13728,7 @@
         <v>56</v>
       </c>
       <c r="K335" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -13766,10 +13760,10 @@
         <v>55</v>
       </c>
       <c r="J336" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K336" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -13801,10 +13795,10 @@
         <v>55</v>
       </c>
       <c r="J337" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K337" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -13839,7 +13833,7 @@
         <v>56</v>
       </c>
       <c r="K338" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -13874,7 +13868,7 @@
         <v>56</v>
       </c>
       <c r="K339" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -13909,7 +13903,7 @@
         <v>56</v>
       </c>
       <c r="K340" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -13941,10 +13935,10 @@
         <v>55</v>
       </c>
       <c r="J341" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K341" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -13979,7 +13973,7 @@
         <v>56</v>
       </c>
       <c r="K342" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -14014,7 +14008,7 @@
         <v>56</v>
       </c>
       <c r="K343" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -14049,7 +14043,7 @@
         <v>56</v>
       </c>
       <c r="K344" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -14084,7 +14078,7 @@
         <v>56</v>
       </c>
       <c r="K345" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -14119,7 +14113,7 @@
         <v>56</v>
       </c>
       <c r="K346" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -14154,7 +14148,7 @@
         <v>56</v>
       </c>
       <c r="K347" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -14186,10 +14180,10 @@
         <v>55</v>
       </c>
       <c r="J348" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K348" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -14224,7 +14218,7 @@
         <v>56</v>
       </c>
       <c r="K349" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -14259,7 +14253,7 @@
         <v>56</v>
       </c>
       <c r="K350" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -14294,7 +14288,7 @@
         <v>56</v>
       </c>
       <c r="K351" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -14329,7 +14323,7 @@
         <v>56</v>
       </c>
       <c r="K352" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -14364,7 +14358,7 @@
         <v>56</v>
       </c>
       <c r="K353" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -14396,10 +14390,10 @@
         <v>55</v>
       </c>
       <c r="J354" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K354" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -14434,7 +14428,7 @@
         <v>56</v>
       </c>
       <c r="K355" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -14469,7 +14463,7 @@
         <v>56</v>
       </c>
       <c r="K356" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -14504,7 +14498,7 @@
         <v>56</v>
       </c>
       <c r="K357" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -14539,7 +14533,7 @@
         <v>56</v>
       </c>
       <c r="K358" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -14574,7 +14568,7 @@
         <v>56</v>
       </c>
       <c r="K359" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -14609,7 +14603,7 @@
         <v>56</v>
       </c>
       <c r="K360" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -14644,7 +14638,7 @@
         <v>56</v>
       </c>
       <c r="K361" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -14679,7 +14673,7 @@
         <v>56</v>
       </c>
       <c r="K362" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -14714,7 +14708,7 @@
         <v>56</v>
       </c>
       <c r="K363" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -14749,7 +14743,7 @@
         <v>56</v>
       </c>
       <c r="K364" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -14757,34 +14751,34 @@
         <v>41224247</v>
       </c>
       <c r="B365" s="1">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="C365" s="1">
         <v>0.67</v>
       </c>
       <c r="D365" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="E365">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F365" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="G365" t="s">
         <v>11</v>
       </c>
       <c r="H365" s="4">
-        <v>45814</v>
+        <v>45824</v>
       </c>
       <c r="I365" s="4">
-        <v>45821</v>
+        <v>45831</v>
       </c>
       <c r="J365" t="s">
         <v>56</v>
       </c>
       <c r="K365" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -14792,16 +14786,16 @@
         <v>41224831</v>
       </c>
       <c r="B366" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C366" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D366" s="1">
         <v>0.17</v>
       </c>
       <c r="E366">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F366" s="1">
         <v>0.17</v>
@@ -14810,16 +14804,16 @@
         <v>12</v>
       </c>
       <c r="H366" s="4">
-        <v>45792</v>
+        <v>45824</v>
       </c>
       <c r="I366" s="4">
-        <v>45853</v>
+        <v>45885</v>
       </c>
       <c r="J366" t="s">
         <v>56</v>
       </c>
       <c r="K366" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -14854,7 +14848,7 @@
         <v>56</v>
       </c>
       <c r="K367" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -14889,7 +14883,7 @@
         <v>56</v>
       </c>
       <c r="K368" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -14924,7 +14918,7 @@
         <v>56</v>
       </c>
       <c r="K369" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -14959,7 +14953,7 @@
         <v>56</v>
       </c>
       <c r="K370" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -14994,7 +14988,7 @@
         <v>56</v>
       </c>
       <c r="K371" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -15029,7 +15023,7 @@
         <v>56</v>
       </c>
       <c r="K372" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -15064,7 +15058,7 @@
         <v>56</v>
       </c>
       <c r="K373" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -15099,7 +15093,7 @@
         <v>56</v>
       </c>
       <c r="K374" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -15134,7 +15128,7 @@
         <v>56</v>
       </c>
       <c r="K375" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -15169,7 +15163,7 @@
         <v>56</v>
       </c>
       <c r="K376" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -15204,7 +15198,7 @@
         <v>56</v>
       </c>
       <c r="K377" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -15239,7 +15233,7 @@
         <v>56</v>
       </c>
       <c r="K378" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -15274,7 +15268,7 @@
         <v>56</v>
       </c>
       <c r="K379" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -15309,7 +15303,7 @@
         <v>56</v>
       </c>
       <c r="K380" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -15344,7 +15338,7 @@
         <v>56</v>
       </c>
       <c r="K381" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -15379,7 +15373,7 @@
         <v>56</v>
       </c>
       <c r="K382" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -15414,7 +15408,7 @@
         <v>56</v>
       </c>
       <c r="K383" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -15449,7 +15443,7 @@
         <v>56</v>
       </c>
       <c r="K384" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -15484,7 +15478,7 @@
         <v>56</v>
       </c>
       <c r="K385" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -15492,16 +15486,16 @@
         <v>42017749</v>
       </c>
       <c r="B386" s="1">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="C386" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="D386" s="1">
         <v>1</v>
       </c>
       <c r="E386">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F386" s="1">
         <v>1</v>
@@ -15510,16 +15504,16 @@
         <v>11</v>
       </c>
       <c r="H386" s="4">
-        <v>45810</v>
+        <v>45824</v>
       </c>
       <c r="I386" s="4">
-        <v>45817</v>
+        <v>45831</v>
       </c>
       <c r="J386" t="s">
         <v>56</v>
       </c>
       <c r="K386" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -15554,7 +15548,7 @@
         <v>56</v>
       </c>
       <c r="K387" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -15562,16 +15556,16 @@
         <v>42220608</v>
       </c>
       <c r="B388" s="1">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="C388" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D388" s="1">
         <v>0.67</v>
       </c>
       <c r="E388">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F388" s="1">
         <v>0.67</v>
@@ -15580,16 +15574,16 @@
         <v>15</v>
       </c>
       <c r="H388" s="4">
-        <v>45818</v>
+        <v>45824</v>
       </c>
       <c r="I388" s="4">
-        <v>45848</v>
+        <v>45854</v>
       </c>
       <c r="J388" t="s">
         <v>56</v>
       </c>
       <c r="K388" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -15624,7 +15618,7 @@
         <v>56</v>
       </c>
       <c r="K389" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -15659,7 +15653,7 @@
         <v>56</v>
       </c>
       <c r="K390" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -15694,7 +15688,7 @@
         <v>56</v>
       </c>
       <c r="K391" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -15729,7 +15723,7 @@
         <v>56</v>
       </c>
       <c r="K392" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -15764,7 +15758,7 @@
         <v>56</v>
       </c>
       <c r="K393" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -15799,7 +15793,7 @@
         <v>56</v>
       </c>
       <c r="K394" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -15834,7 +15828,7 @@
         <v>56</v>
       </c>
       <c r="K395" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -15869,7 +15863,7 @@
         <v>56</v>
       </c>
       <c r="K396" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -15904,7 +15898,7 @@
         <v>56</v>
       </c>
       <c r="K397" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -15939,7 +15933,7 @@
         <v>56</v>
       </c>
       <c r="K398" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -15974,7 +15968,7 @@
         <v>56</v>
       </c>
       <c r="K399" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -16009,7 +16003,7 @@
         <v>56</v>
       </c>
       <c r="K400" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -16044,7 +16038,7 @@
         <v>56</v>
       </c>
       <c r="K401" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -16079,7 +16073,7 @@
         <v>56</v>
       </c>
       <c r="K402" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -16114,7 +16108,7 @@
         <v>56</v>
       </c>
       <c r="K403" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -16146,10 +16140,10 @@
         <v>55</v>
       </c>
       <c r="J404" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K404" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -16184,7 +16178,7 @@
         <v>56</v>
       </c>
       <c r="K405" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -16219,7 +16213,7 @@
         <v>56</v>
       </c>
       <c r="K406" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -16254,7 +16248,7 @@
         <v>56</v>
       </c>
       <c r="K407" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -16289,7 +16283,7 @@
         <v>56</v>
       </c>
       <c r="K408" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -16324,7 +16318,7 @@
         <v>56</v>
       </c>
       <c r="K409" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -16359,7 +16353,7 @@
         <v>56</v>
       </c>
       <c r="K410" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -16394,7 +16388,7 @@
         <v>56</v>
       </c>
       <c r="K411" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -16429,7 +16423,7 @@
         <v>56</v>
       </c>
       <c r="K412" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -16464,7 +16458,7 @@
         <v>56</v>
       </c>
       <c r="K413" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -16499,7 +16493,7 @@
         <v>56</v>
       </c>
       <c r="K414" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -16534,7 +16528,7 @@
         <v>56</v>
       </c>
       <c r="K415" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -16569,7 +16563,7 @@
         <v>56</v>
       </c>
       <c r="K416" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -16604,7 +16598,7 @@
         <v>56</v>
       </c>
       <c r="K417" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="418" spans="1:11">
@@ -16639,7 +16633,7 @@
         <v>56</v>
       </c>
       <c r="K418" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="419" spans="1:11">
@@ -16674,7 +16668,7 @@
         <v>56</v>
       </c>
       <c r="K419" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="420" spans="1:11">
@@ -16709,7 +16703,7 @@
         <v>56</v>
       </c>
       <c r="K420" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="421" spans="1:11">
@@ -16744,7 +16738,7 @@
         <v>56</v>
       </c>
       <c r="K421" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="422" spans="1:11">
@@ -16779,7 +16773,7 @@
         <v>56</v>
       </c>
       <c r="K422" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="423" spans="1:11">
@@ -16787,34 +16781,34 @@
         <v>48999595</v>
       </c>
       <c r="B423" s="1">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="C423" s="1">
         <v>0.67</v>
       </c>
       <c r="D423" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="E423">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F423" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="G423" t="s">
         <v>11</v>
       </c>
       <c r="H423" s="4">
-        <v>45811</v>
+        <v>45824</v>
       </c>
       <c r="I423" s="4">
-        <v>45818</v>
+        <v>45831</v>
       </c>
       <c r="J423" t="s">
         <v>56</v>
       </c>
       <c r="K423" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="424" spans="1:11">
@@ -16849,7 +16843,7 @@
         <v>56</v>
       </c>
       <c r="K424" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="425" spans="1:11">
@@ -16884,7 +16878,7 @@
         <v>56</v>
       </c>
       <c r="K425" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="426" spans="1:11">
@@ -16919,7 +16913,7 @@
         <v>56</v>
       </c>
       <c r="K426" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="427" spans="1:11">
@@ -16954,7 +16948,7 @@
         <v>56</v>
       </c>
       <c r="K427" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
+++ b/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="529">
   <si>
     <t>id_cliente</t>
   </si>
@@ -163,7 +163,7 @@
     <t>1x por mês - regular</t>
   </si>
   <si>
-    <t>1x a cada 3 meses - regular</t>
+    <t>1x a cada 3 meses - regular (preferencialmente na 2ª quinzena)</t>
   </si>
   <si>
     <t>1x a cada 4 meses - muito regular (preferencialmente na 2ª quinzena)</t>
@@ -181,43 +181,37 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 45.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 45.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 45.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.4 meses sem comprar</t>
+    <t>INATIVO - 46.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 42.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 50.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 46.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.9 meses sem comprar</t>
+    <t>INATIVO - 50.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 40.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 48.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 45.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.9 meses sem comprar</t>
+    <t>INATIVO - 48.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 49.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 21.0 meses sem comprar</t>
@@ -226,16 +220,16 @@
     <t>INATIVO - 49.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 11.8 meses sem comprar</t>
+    <t>INATIVO - 11.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 0.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.8 meses sem comprar</t>
+    <t>INATIVO - 19.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 45.1 meses sem comprar</t>
@@ -250,145 +244,148 @@
     <t>INATIVO - 12.2 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 8.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.3 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 8.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 28.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.1 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 8.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.0 meses sem comprar</t>
+    <t>INATIVO - 15.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 16.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 48.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.1 meses sem comprar</t>
+    <t>INATIVO - 48.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 38.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 42.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
+    <t>INATIVO - 15.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 44.8 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 41.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.6 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 41.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 35.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.3 meses sem comprar</t>
+    <t>INATIVO - 23.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 9.9 meses sem comprar</t>
@@ -397,106 +394,100 @@
     <t>INATIVO - 26.2 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 13.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.5 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 13.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.7 meses sem comprar</t>
+    <t>INATIVO - 14.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 17.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
+    <t>INATIVO - 7.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 11.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 8.9 meses sem comprar</t>
+    <t>INATIVO - 9.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 10.8 meses sem comprar</t>
@@ -2076,7 +2067,7 @@
         <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2111,7 +2102,7 @@
         <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2146,7 +2137,7 @@
         <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2181,7 +2172,7 @@
         <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2216,7 +2207,7 @@
         <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2251,7 +2242,7 @@
         <v>57</v>
       </c>
       <c r="K7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2286,7 +2277,7 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2321,7 +2312,7 @@
         <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2356,7 +2347,7 @@
         <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2391,7 +2382,7 @@
         <v>61</v>
       </c>
       <c r="K11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2423,10 +2414,10 @@
         <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2458,10 +2449,10 @@
         <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2493,10 +2484,10 @@
         <v>53</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2528,10 +2519,10 @@
         <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2563,10 +2554,10 @@
         <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2601,7 +2592,7 @@
         <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2636,7 +2627,7 @@
         <v>54</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2668,10 +2659,10 @@
         <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2703,10 +2694,10 @@
         <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2738,10 +2729,10 @@
         <v>53</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2773,10 +2764,10 @@
         <v>53</v>
       </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K22" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2808,10 +2799,10 @@
         <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2843,10 +2834,10 @@
         <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K24" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2878,10 +2869,10 @@
         <v>53</v>
       </c>
       <c r="J25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2916,7 +2907,7 @@
         <v>54</v>
       </c>
       <c r="K26" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2948,10 +2939,10 @@
         <v>53</v>
       </c>
       <c r="J27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2983,10 +2974,10 @@
         <v>53</v>
       </c>
       <c r="J28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K28" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3021,7 +3012,7 @@
         <v>54</v>
       </c>
       <c r="K29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3053,10 +3044,10 @@
         <v>53</v>
       </c>
       <c r="J30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3091,7 +3082,7 @@
         <v>54</v>
       </c>
       <c r="K31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3099,16 +3090,16 @@
         <v>3241472</v>
       </c>
       <c r="B32" s="1">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="C32" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="D32" s="1">
         <v>0.83</v>
       </c>
       <c r="E32">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F32" s="1">
         <v>0.83</v>
@@ -3117,16 +3108,16 @@
         <v>11</v>
       </c>
       <c r="H32" s="4">
-        <v>45821</v>
+        <v>45826</v>
       </c>
       <c r="I32" s="4">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="J32" t="s">
         <v>54</v>
       </c>
       <c r="K32" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3161,7 +3152,7 @@
         <v>54</v>
       </c>
       <c r="K33" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3196,7 +3187,7 @@
         <v>54</v>
       </c>
       <c r="K34" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3228,10 +3219,10 @@
         <v>53</v>
       </c>
       <c r="J35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3263,10 +3254,10 @@
         <v>53</v>
       </c>
       <c r="J36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3298,10 +3289,10 @@
         <v>53</v>
       </c>
       <c r="J37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3333,10 +3324,10 @@
         <v>53</v>
       </c>
       <c r="J38" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3371,7 +3362,7 @@
         <v>54</v>
       </c>
       <c r="K39" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3406,7 +3397,7 @@
         <v>54</v>
       </c>
       <c r="K40" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3441,7 +3432,7 @@
         <v>54</v>
       </c>
       <c r="K41" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3473,10 +3464,10 @@
         <v>53</v>
       </c>
       <c r="J42" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3508,10 +3499,10 @@
         <v>53</v>
       </c>
       <c r="J43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3546,7 +3537,7 @@
         <v>54</v>
       </c>
       <c r="K44" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3578,10 +3569,10 @@
         <v>53</v>
       </c>
       <c r="J45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3616,7 +3607,7 @@
         <v>54</v>
       </c>
       <c r="K46" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3648,10 +3639,10 @@
         <v>53</v>
       </c>
       <c r="J47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3686,7 +3677,7 @@
         <v>54</v>
       </c>
       <c r="K48" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3697,31 +3688,31 @@
         <v>0.58</v>
       </c>
       <c r="C49" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D49" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="E49">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G49" t="s">
         <v>15</v>
       </c>
       <c r="H49" s="4">
-        <v>45796</v>
+        <v>45826</v>
       </c>
       <c r="I49" s="4">
-        <v>45827</v>
+        <v>45856</v>
       </c>
       <c r="J49" t="s">
         <v>54</v>
       </c>
       <c r="K49" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3756,7 +3747,7 @@
         <v>54</v>
       </c>
       <c r="K50" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3791,7 +3782,7 @@
         <v>54</v>
       </c>
       <c r="K51" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3823,10 +3814,10 @@
         <v>53</v>
       </c>
       <c r="J52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3843,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F53" s="1">
         <v>1</v>
@@ -3852,16 +3843,16 @@
         <v>18</v>
       </c>
       <c r="H53" s="4">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="I53" s="4">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="J53" t="s">
         <v>54</v>
       </c>
       <c r="K53" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3896,7 +3887,7 @@
         <v>54</v>
       </c>
       <c r="K54" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3928,10 +3919,10 @@
         <v>53</v>
       </c>
       <c r="J55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K55" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3963,10 +3954,10 @@
         <v>53</v>
       </c>
       <c r="J56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K56" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -4001,7 +3992,7 @@
         <v>54</v>
       </c>
       <c r="K57" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -4033,10 +4024,10 @@
         <v>53</v>
       </c>
       <c r="J58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4068,10 +4059,10 @@
         <v>53</v>
       </c>
       <c r="J59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4103,10 +4094,10 @@
         <v>53</v>
       </c>
       <c r="J60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4138,10 +4129,10 @@
         <v>53</v>
       </c>
       <c r="J61" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4173,10 +4164,10 @@
         <v>53</v>
       </c>
       <c r="J62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4208,10 +4199,10 @@
         <v>53</v>
       </c>
       <c r="J63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K63" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4243,10 +4234,10 @@
         <v>53</v>
       </c>
       <c r="J64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4278,10 +4269,10 @@
         <v>53</v>
       </c>
       <c r="J65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4313,10 +4304,10 @@
         <v>53</v>
       </c>
       <c r="J66" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K66" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4348,10 +4339,10 @@
         <v>53</v>
       </c>
       <c r="J67" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4383,10 +4374,10 @@
         <v>53</v>
       </c>
       <c r="J68" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K68" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4418,10 +4409,10 @@
         <v>53</v>
       </c>
       <c r="J69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K69" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4456,7 +4447,7 @@
         <v>54</v>
       </c>
       <c r="K70" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4488,10 +4479,10 @@
         <v>53</v>
       </c>
       <c r="J71" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4526,7 +4517,7 @@
         <v>54</v>
       </c>
       <c r="K72" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4558,10 +4549,10 @@
         <v>53</v>
       </c>
       <c r="J73" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K73" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4593,10 +4584,10 @@
         <v>53</v>
       </c>
       <c r="J74" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K74" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4628,10 +4619,10 @@
         <v>53</v>
       </c>
       <c r="J75" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4666,7 +4657,7 @@
         <v>54</v>
       </c>
       <c r="K76" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4701,7 +4692,7 @@
         <v>54</v>
       </c>
       <c r="K77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4736,7 +4727,7 @@
         <v>54</v>
       </c>
       <c r="K78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4768,10 +4759,10 @@
         <v>53</v>
       </c>
       <c r="J79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K79" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4803,10 +4794,10 @@
         <v>53</v>
       </c>
       <c r="J80" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K80" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4841,7 +4832,7 @@
         <v>54</v>
       </c>
       <c r="K81" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4873,10 +4864,10 @@
         <v>53</v>
       </c>
       <c r="J82" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K82" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4911,7 +4902,7 @@
         <v>54</v>
       </c>
       <c r="K83" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4946,7 +4937,7 @@
         <v>54</v>
       </c>
       <c r="K84" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4978,10 +4969,10 @@
         <v>53</v>
       </c>
       <c r="J85" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K85" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -5016,7 +5007,7 @@
         <v>54</v>
       </c>
       <c r="K86" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5048,10 +5039,10 @@
         <v>53</v>
       </c>
       <c r="J87" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K87" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -5086,7 +5077,7 @@
         <v>54</v>
       </c>
       <c r="K88" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5118,10 +5109,10 @@
         <v>53</v>
       </c>
       <c r="J89" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K89" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5153,10 +5144,10 @@
         <v>53</v>
       </c>
       <c r="J90" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K90" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5191,7 +5182,7 @@
         <v>54</v>
       </c>
       <c r="K91" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5223,10 +5214,10 @@
         <v>53</v>
       </c>
       <c r="J92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K92" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5258,10 +5249,10 @@
         <v>53</v>
       </c>
       <c r="J93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K93" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5293,10 +5284,10 @@
         <v>53</v>
       </c>
       <c r="J94" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K94" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5331,7 +5322,7 @@
         <v>54</v>
       </c>
       <c r="K95" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5363,10 +5354,10 @@
         <v>53</v>
       </c>
       <c r="J96" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K96" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5401,7 +5392,7 @@
         <v>54</v>
       </c>
       <c r="K97" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5436,7 +5427,7 @@
         <v>54</v>
       </c>
       <c r="K98" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5468,10 +5459,10 @@
         <v>53</v>
       </c>
       <c r="J99" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K99" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5506,7 +5497,7 @@
         <v>54</v>
       </c>
       <c r="K100" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5538,10 +5529,10 @@
         <v>53</v>
       </c>
       <c r="J101" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5573,10 +5564,10 @@
         <v>53</v>
       </c>
       <c r="J102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K102" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5611,7 +5602,7 @@
         <v>54</v>
       </c>
       <c r="K103" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5643,10 +5634,10 @@
         <v>53</v>
       </c>
       <c r="J104" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K104" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5681,7 +5672,7 @@
         <v>54</v>
       </c>
       <c r="K105" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5716,7 +5707,7 @@
         <v>54</v>
       </c>
       <c r="K106" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5748,10 +5739,10 @@
         <v>53</v>
       </c>
       <c r="J107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K107" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5783,10 +5774,10 @@
         <v>53</v>
       </c>
       <c r="J108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K108" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5821,7 +5812,7 @@
         <v>54</v>
       </c>
       <c r="K109" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5853,10 +5844,10 @@
         <v>53</v>
       </c>
       <c r="J110" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K110" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5888,10 +5879,10 @@
         <v>53</v>
       </c>
       <c r="J111" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K111" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5923,10 +5914,10 @@
         <v>53</v>
       </c>
       <c r="J112" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K112" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5961,7 +5952,7 @@
         <v>54</v>
       </c>
       <c r="K113" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5993,10 +5984,10 @@
         <v>53</v>
       </c>
       <c r="J114" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K114" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -6028,10 +6019,10 @@
         <v>53</v>
       </c>
       <c r="J115" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K115" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6063,10 +6054,10 @@
         <v>53</v>
       </c>
       <c r="J116" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K116" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -6098,10 +6089,10 @@
         <v>53</v>
       </c>
       <c r="J117" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K117" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6133,10 +6124,10 @@
         <v>53</v>
       </c>
       <c r="J118" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K118" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6168,10 +6159,10 @@
         <v>53</v>
       </c>
       <c r="J119" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K119" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6203,10 +6194,10 @@
         <v>53</v>
       </c>
       <c r="J120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K120" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6241,7 +6232,7 @@
         <v>54</v>
       </c>
       <c r="K121" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6273,10 +6264,10 @@
         <v>53</v>
       </c>
       <c r="J122" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K122" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6311,7 +6302,7 @@
         <v>54</v>
       </c>
       <c r="K123" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6346,7 +6337,7 @@
         <v>54</v>
       </c>
       <c r="K124" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6378,10 +6369,10 @@
         <v>53</v>
       </c>
       <c r="J125" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="K125" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6413,10 +6404,10 @@
         <v>53</v>
       </c>
       <c r="J126" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="K126" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6451,7 +6442,7 @@
         <v>54</v>
       </c>
       <c r="K127" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6479,14 +6470,14 @@
       <c r="H128" s="4">
         <v>45646</v>
       </c>
-      <c r="I128" s="4">
-        <v>45677</v>
+      <c r="I128" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="J128" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="K128" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6518,10 +6509,10 @@
         <v>53</v>
       </c>
       <c r="J129" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="K129" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6556,7 +6547,7 @@
         <v>116</v>
       </c>
       <c r="K130" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6591,7 +6582,7 @@
         <v>54</v>
       </c>
       <c r="K131" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6626,7 +6617,7 @@
         <v>117</v>
       </c>
       <c r="K132" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6661,7 +6652,7 @@
         <v>54</v>
       </c>
       <c r="K133" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6696,7 +6687,7 @@
         <v>54</v>
       </c>
       <c r="K134" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -6731,7 +6722,7 @@
         <v>54</v>
       </c>
       <c r="K135" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -6766,7 +6757,7 @@
         <v>118</v>
       </c>
       <c r="K136" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6798,10 +6789,10 @@
         <v>53</v>
       </c>
       <c r="J137" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="K137" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6836,7 +6827,7 @@
         <v>54</v>
       </c>
       <c r="K138" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6868,10 +6859,10 @@
         <v>53</v>
       </c>
       <c r="J139" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K139" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6903,10 +6894,10 @@
         <v>53</v>
       </c>
       <c r="J140" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K140" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6938,10 +6929,10 @@
         <v>53</v>
       </c>
       <c r="J141" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K141" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6973,10 +6964,10 @@
         <v>53</v>
       </c>
       <c r="J142" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K142" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -7011,7 +7002,7 @@
         <v>54</v>
       </c>
       <c r="K143" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -7043,10 +7034,10 @@
         <v>53</v>
       </c>
       <c r="J144" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K144" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -7081,7 +7072,7 @@
         <v>54</v>
       </c>
       <c r="K145" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -7116,7 +7107,7 @@
         <v>54</v>
       </c>
       <c r="K146" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7148,10 +7139,10 @@
         <v>53</v>
       </c>
       <c r="J147" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K147" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7186,7 +7177,7 @@
         <v>54</v>
       </c>
       <c r="K148" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7221,7 +7212,7 @@
         <v>54</v>
       </c>
       <c r="K149" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7256,7 +7247,7 @@
         <v>54</v>
       </c>
       <c r="K150" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7291,7 +7282,7 @@
         <v>54</v>
       </c>
       <c r="K151" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7326,7 +7317,7 @@
         <v>54</v>
       </c>
       <c r="K152" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7358,10 +7349,10 @@
         <v>53</v>
       </c>
       <c r="J153" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K153" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7396,7 +7387,7 @@
         <v>54</v>
       </c>
       <c r="K154" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7431,7 +7422,7 @@
         <v>54</v>
       </c>
       <c r="K155" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7463,10 +7454,10 @@
         <v>53</v>
       </c>
       <c r="J156" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K156" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -7501,7 +7492,7 @@
         <v>54</v>
       </c>
       <c r="K157" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -7536,7 +7527,7 @@
         <v>54</v>
       </c>
       <c r="K158" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -7571,7 +7562,7 @@
         <v>54</v>
       </c>
       <c r="K159" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -7606,7 +7597,7 @@
         <v>54</v>
       </c>
       <c r="K160" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -7641,7 +7632,7 @@
         <v>54</v>
       </c>
       <c r="K161" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7658,7 +7649,7 @@
         <v>0.67</v>
       </c>
       <c r="E162">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F162" s="1">
         <v>0.67</v>
@@ -7667,16 +7658,16 @@
         <v>13</v>
       </c>
       <c r="H162" s="4">
-        <v>45798</v>
+        <v>45828</v>
       </c>
       <c r="I162" s="4">
-        <v>45829</v>
+        <v>45858</v>
       </c>
       <c r="J162" t="s">
         <v>54</v>
       </c>
       <c r="K162" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7711,7 +7702,7 @@
         <v>54</v>
       </c>
       <c r="K163" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -7743,10 +7734,10 @@
         <v>53</v>
       </c>
       <c r="J164" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K164" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7778,10 +7769,10 @@
         <v>53</v>
       </c>
       <c r="J165" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K165" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7816,7 +7807,7 @@
         <v>54</v>
       </c>
       <c r="K166" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7848,10 +7839,10 @@
         <v>53</v>
       </c>
       <c r="J167" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="K167" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -7883,10 +7874,10 @@
         <v>53</v>
       </c>
       <c r="J168" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K168" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7921,7 +7912,7 @@
         <v>54</v>
       </c>
       <c r="K169" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -7956,7 +7947,7 @@
         <v>54</v>
       </c>
       <c r="K170" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7991,7 +7982,7 @@
         <v>54</v>
       </c>
       <c r="K171" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -8026,7 +8017,7 @@
         <v>54</v>
       </c>
       <c r="K172" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -8061,7 +8052,7 @@
         <v>54</v>
       </c>
       <c r="K173" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -8096,7 +8087,7 @@
         <v>54</v>
       </c>
       <c r="K174" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -8128,10 +8119,10 @@
         <v>53</v>
       </c>
       <c r="J175" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K175" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -8166,7 +8157,7 @@
         <v>54</v>
       </c>
       <c r="K176" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -8201,7 +8192,7 @@
         <v>54</v>
       </c>
       <c r="K177" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -8236,7 +8227,7 @@
         <v>54</v>
       </c>
       <c r="K178" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -8271,7 +8262,7 @@
         <v>54</v>
       </c>
       <c r="K179" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -8306,7 +8297,7 @@
         <v>54</v>
       </c>
       <c r="K180" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -8341,7 +8332,7 @@
         <v>54</v>
       </c>
       <c r="K181" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -8376,7 +8367,7 @@
         <v>54</v>
       </c>
       <c r="K182" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -8411,7 +8402,7 @@
         <v>54</v>
       </c>
       <c r="K183" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -8443,10 +8434,10 @@
         <v>53</v>
       </c>
       <c r="J184" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K184" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -8481,7 +8472,7 @@
         <v>54</v>
       </c>
       <c r="K185" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -8516,7 +8507,7 @@
         <v>54</v>
       </c>
       <c r="K186" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -8551,7 +8542,7 @@
         <v>54</v>
       </c>
       <c r="K187" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -8586,7 +8577,7 @@
         <v>54</v>
       </c>
       <c r="K188" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -8621,7 +8612,7 @@
         <v>54</v>
       </c>
       <c r="K189" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -8653,10 +8644,10 @@
         <v>53</v>
       </c>
       <c r="J190" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K190" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -8688,10 +8679,10 @@
         <v>53</v>
       </c>
       <c r="J191" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K191" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -8723,10 +8714,10 @@
         <v>53</v>
       </c>
       <c r="J192" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K192" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -8761,7 +8752,7 @@
         <v>54</v>
       </c>
       <c r="K193" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -8796,7 +8787,7 @@
         <v>54</v>
       </c>
       <c r="K194" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8831,7 +8822,7 @@
         <v>54</v>
       </c>
       <c r="K195" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -8866,7 +8857,7 @@
         <v>54</v>
       </c>
       <c r="K196" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -8901,7 +8892,7 @@
         <v>54</v>
       </c>
       <c r="K197" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -8933,10 +8924,10 @@
         <v>53</v>
       </c>
       <c r="J198" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K198" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -8971,7 +8962,7 @@
         <v>54</v>
       </c>
       <c r="K199" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -9006,7 +8997,7 @@
         <v>54</v>
       </c>
       <c r="K200" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -9041,7 +9032,7 @@
         <v>54</v>
       </c>
       <c r="K201" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -9073,10 +9064,10 @@
         <v>53</v>
       </c>
       <c r="J202" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K202" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -9111,7 +9102,7 @@
         <v>54</v>
       </c>
       <c r="K203" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -9146,7 +9137,7 @@
         <v>54</v>
       </c>
       <c r="K204" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -9181,7 +9172,7 @@
         <v>54</v>
       </c>
       <c r="K205" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -9216,7 +9207,7 @@
         <v>54</v>
       </c>
       <c r="K206" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -9251,7 +9242,7 @@
         <v>54</v>
       </c>
       <c r="K207" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -9283,10 +9274,10 @@
         <v>53</v>
       </c>
       <c r="J208" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K208" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -9321,7 +9312,7 @@
         <v>54</v>
       </c>
       <c r="K209" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -9356,7 +9347,7 @@
         <v>54</v>
       </c>
       <c r="K210" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -9391,7 +9382,7 @@
         <v>54</v>
       </c>
       <c r="K211" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -9426,7 +9417,7 @@
         <v>54</v>
       </c>
       <c r="K212" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -9461,7 +9452,7 @@
         <v>54</v>
       </c>
       <c r="K213" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -9496,7 +9487,7 @@
         <v>54</v>
       </c>
       <c r="K214" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -9531,7 +9522,7 @@
         <v>54</v>
       </c>
       <c r="K215" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -9566,7 +9557,7 @@
         <v>54</v>
       </c>
       <c r="K216" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -9598,10 +9589,10 @@
         <v>53</v>
       </c>
       <c r="J217" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K217" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -9636,7 +9627,7 @@
         <v>54</v>
       </c>
       <c r="K218" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -9668,10 +9659,10 @@
         <v>53</v>
       </c>
       <c r="J219" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K219" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -9706,7 +9697,7 @@
         <v>54</v>
       </c>
       <c r="K220" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -9741,7 +9732,7 @@
         <v>54</v>
       </c>
       <c r="K221" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -9776,7 +9767,7 @@
         <v>54</v>
       </c>
       <c r="K222" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -9811,7 +9802,7 @@
         <v>54</v>
       </c>
       <c r="K223" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -9846,7 +9837,7 @@
         <v>54</v>
       </c>
       <c r="K224" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -9881,7 +9872,7 @@
         <v>54</v>
       </c>
       <c r="K225" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -9916,7 +9907,7 @@
         <v>54</v>
       </c>
       <c r="K226" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -9951,7 +9942,7 @@
         <v>54</v>
       </c>
       <c r="K227" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -9986,7 +9977,7 @@
         <v>54</v>
       </c>
       <c r="K228" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -10018,10 +10009,10 @@
         <v>53</v>
       </c>
       <c r="J229" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K229" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -10056,7 +10047,7 @@
         <v>54</v>
       </c>
       <c r="K230" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -10067,31 +10058,31 @@
         <v>0.5</v>
       </c>
       <c r="C231" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D231" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="E231">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F231" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G231" t="s">
         <v>17</v>
       </c>
       <c r="H231" s="4">
-        <v>45784</v>
+        <v>45826</v>
       </c>
       <c r="I231" s="4">
-        <v>45845</v>
+        <v>45887</v>
       </c>
       <c r="J231" t="s">
         <v>54</v>
       </c>
       <c r="K231" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -10123,10 +10114,10 @@
         <v>53</v>
       </c>
       <c r="J232" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K232" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -10161,7 +10152,7 @@
         <v>54</v>
       </c>
       <c r="K233" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -10169,16 +10160,16 @@
         <v>6535511</v>
       </c>
       <c r="B234" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C234" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D234" s="1">
         <v>0.67</v>
       </c>
       <c r="E234">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F234" s="1">
         <v>0.67</v>
@@ -10187,16 +10178,16 @@
         <v>14</v>
       </c>
       <c r="H234" s="4">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="I234" s="4">
-        <v>45880</v>
+        <v>45887</v>
       </c>
       <c r="J234" t="s">
         <v>54</v>
       </c>
       <c r="K234" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -10231,7 +10222,7 @@
         <v>54</v>
       </c>
       <c r="K235" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -10263,10 +10254,10 @@
         <v>53</v>
       </c>
       <c r="J236" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K236" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -10274,16 +10265,16 @@
         <v>7050612</v>
       </c>
       <c r="B237" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C237" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D237" s="1">
         <v>0.5</v>
       </c>
       <c r="E237">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F237" s="1">
         <v>0.5</v>
@@ -10292,16 +10283,16 @@
         <v>14</v>
       </c>
       <c r="H237" s="4">
-        <v>45810</v>
+        <v>45826</v>
       </c>
       <c r="I237" s="4">
-        <v>45871</v>
+        <v>45887</v>
       </c>
       <c r="J237" t="s">
         <v>54</v>
       </c>
       <c r="K237" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -10336,7 +10327,7 @@
         <v>54</v>
       </c>
       <c r="K238" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -10371,7 +10362,7 @@
         <v>54</v>
       </c>
       <c r="K239" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -10406,7 +10397,7 @@
         <v>54</v>
       </c>
       <c r="K240" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -10441,7 +10432,7 @@
         <v>54</v>
       </c>
       <c r="K241" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -10476,7 +10467,7 @@
         <v>54</v>
       </c>
       <c r="K242" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -10508,10 +10499,10 @@
         <v>53</v>
       </c>
       <c r="J243" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K243" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -10546,7 +10537,7 @@
         <v>54</v>
       </c>
       <c r="K244" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -10581,7 +10572,7 @@
         <v>54</v>
       </c>
       <c r="K245" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -10613,10 +10604,10 @@
         <v>53</v>
       </c>
       <c r="J246" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K246" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -10651,7 +10642,7 @@
         <v>54</v>
       </c>
       <c r="K247" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -10683,10 +10674,10 @@
         <v>53</v>
       </c>
       <c r="J248" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="K248" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -10703,7 +10694,7 @@
         <v>1</v>
       </c>
       <c r="E249">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F249" s="1">
         <v>1</v>
@@ -10712,16 +10703,16 @@
         <v>33</v>
       </c>
       <c r="H249" s="4">
-        <v>45811</v>
+        <v>45817</v>
       </c>
       <c r="I249" s="4">
-        <v>45826</v>
+        <v>45832</v>
       </c>
       <c r="J249" t="s">
         <v>54</v>
       </c>
       <c r="K249" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -10738,7 +10729,7 @@
         <v>0.83</v>
       </c>
       <c r="E250">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F250" s="1">
         <v>0.83</v>
@@ -10747,16 +10738,16 @@
         <v>13</v>
       </c>
       <c r="H250" s="4">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="I250" s="4">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="J250" t="s">
         <v>54</v>
       </c>
       <c r="K250" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -10791,7 +10782,7 @@
         <v>54</v>
       </c>
       <c r="K251" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -10823,10 +10814,10 @@
         <v>53</v>
       </c>
       <c r="J252" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K252" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -10858,10 +10849,10 @@
         <v>53</v>
       </c>
       <c r="J253" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K253" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -10896,7 +10887,7 @@
         <v>54</v>
       </c>
       <c r="K254" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -10913,7 +10904,7 @@
         <v>0.67</v>
       </c>
       <c r="E255">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F255" s="1">
         <v>0.67</v>
@@ -10922,16 +10913,16 @@
         <v>13</v>
       </c>
       <c r="H255" s="4">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="I255" s="4">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="J255" t="s">
         <v>54</v>
       </c>
       <c r="K255" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -10966,7 +10957,7 @@
         <v>54</v>
       </c>
       <c r="K256" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -10998,10 +10989,10 @@
         <v>53</v>
       </c>
       <c r="J257" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K257" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -11036,7 +11027,7 @@
         <v>54</v>
       </c>
       <c r="K258" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -11071,7 +11062,7 @@
         <v>54</v>
       </c>
       <c r="K259" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -11103,10 +11094,10 @@
         <v>53</v>
       </c>
       <c r="J260" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K260" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -11141,7 +11132,7 @@
         <v>54</v>
       </c>
       <c r="K261" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -11176,7 +11167,7 @@
         <v>54</v>
       </c>
       <c r="K262" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -11211,7 +11202,7 @@
         <v>54</v>
       </c>
       <c r="K263" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -11243,10 +11234,10 @@
         <v>53</v>
       </c>
       <c r="J264" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K264" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -11281,7 +11272,7 @@
         <v>54</v>
       </c>
       <c r="K265" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -11316,7 +11307,7 @@
         <v>54</v>
       </c>
       <c r="K266" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -11351,7 +11342,7 @@
         <v>54</v>
       </c>
       <c r="K267" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -11386,7 +11377,7 @@
         <v>54</v>
       </c>
       <c r="K268" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -11421,7 +11412,7 @@
         <v>54</v>
       </c>
       <c r="K269" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -11453,10 +11444,10 @@
         <v>53</v>
       </c>
       <c r="J270" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K270" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -11491,7 +11482,7 @@
         <v>54</v>
       </c>
       <c r="K271" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -11526,7 +11517,7 @@
         <v>54</v>
       </c>
       <c r="K272" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -11561,7 +11552,7 @@
         <v>54</v>
       </c>
       <c r="K273" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -11593,10 +11584,10 @@
         <v>53</v>
       </c>
       <c r="J274" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K274" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -11631,7 +11622,7 @@
         <v>54</v>
       </c>
       <c r="K275" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -11666,7 +11657,7 @@
         <v>54</v>
       </c>
       <c r="K276" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -11701,7 +11692,7 @@
         <v>54</v>
       </c>
       <c r="K277" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -11736,7 +11727,7 @@
         <v>54</v>
       </c>
       <c r="K278" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -11771,7 +11762,7 @@
         <v>54</v>
       </c>
       <c r="K279" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -11806,7 +11797,7 @@
         <v>54</v>
       </c>
       <c r="K280" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -11841,7 +11832,7 @@
         <v>54</v>
       </c>
       <c r="K281" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -11876,7 +11867,7 @@
         <v>54</v>
       </c>
       <c r="K282" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -11908,10 +11899,10 @@
         <v>53</v>
       </c>
       <c r="J283" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K283" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -11946,7 +11937,7 @@
         <v>54</v>
       </c>
       <c r="K284" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -11954,34 +11945,34 @@
         <v>24137388</v>
       </c>
       <c r="B285" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C285" s="1">
         <v>0</v>
       </c>
       <c r="D285" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E285">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F285" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G285" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H285" s="4">
-        <v>45735</v>
+        <v>45826</v>
       </c>
       <c r="I285" s="4">
-        <v>45888</v>
+        <v>45948</v>
       </c>
       <c r="J285" t="s">
         <v>54</v>
       </c>
       <c r="K285" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -12016,7 +12007,7 @@
         <v>54</v>
       </c>
       <c r="K286" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -12051,7 +12042,7 @@
         <v>54</v>
       </c>
       <c r="K287" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -12086,7 +12077,7 @@
         <v>54</v>
       </c>
       <c r="K288" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -12118,10 +12109,10 @@
         <v>53</v>
       </c>
       <c r="J289" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K289" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -12156,7 +12147,7 @@
         <v>54</v>
       </c>
       <c r="K290" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -12191,7 +12182,7 @@
         <v>54</v>
       </c>
       <c r="K291" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -12226,7 +12217,7 @@
         <v>54</v>
       </c>
       <c r="K292" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -12261,7 +12252,7 @@
         <v>54</v>
       </c>
       <c r="K293" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -12293,10 +12284,10 @@
         <v>53</v>
       </c>
       <c r="J294" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K294" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -12331,7 +12322,7 @@
         <v>54</v>
       </c>
       <c r="K295" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -12366,7 +12357,7 @@
         <v>54</v>
       </c>
       <c r="K296" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -12401,7 +12392,7 @@
         <v>54</v>
       </c>
       <c r="K297" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -12433,10 +12424,10 @@
         <v>53</v>
       </c>
       <c r="J298" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K298" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -12471,7 +12462,7 @@
         <v>54</v>
       </c>
       <c r="K299" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -12506,7 +12497,7 @@
         <v>54</v>
       </c>
       <c r="K300" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -12514,16 +12505,16 @@
         <v>30047607</v>
       </c>
       <c r="B301" s="1">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="C301" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="D301" s="1">
         <v>1</v>
       </c>
       <c r="E301">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F301" s="1">
         <v>1</v>
@@ -12532,16 +12523,16 @@
         <v>18</v>
       </c>
       <c r="H301" s="4">
-        <v>45820</v>
+        <v>45826</v>
       </c>
       <c r="I301" s="4">
-        <v>45835</v>
+        <v>45841</v>
       </c>
       <c r="J301" t="s">
         <v>54</v>
       </c>
       <c r="K301" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -12576,7 +12567,7 @@
         <v>54</v>
       </c>
       <c r="K302" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -12611,7 +12602,7 @@
         <v>54</v>
       </c>
       <c r="K303" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -12646,7 +12637,7 @@
         <v>54</v>
       </c>
       <c r="K304" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -12681,7 +12672,7 @@
         <v>54</v>
       </c>
       <c r="K305" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -12716,7 +12707,7 @@
         <v>54</v>
       </c>
       <c r="K306" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -12748,10 +12739,10 @@
         <v>53</v>
       </c>
       <c r="J307" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K307" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -12786,7 +12777,7 @@
         <v>54</v>
       </c>
       <c r="K308" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -12821,7 +12812,7 @@
         <v>54</v>
       </c>
       <c r="K309" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -12856,7 +12847,7 @@
         <v>54</v>
       </c>
       <c r="K310" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -12864,34 +12855,34 @@
         <v>34141508</v>
       </c>
       <c r="B311" s="1">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C311" s="1">
         <v>0.17</v>
       </c>
       <c r="D311" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E311">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F311" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G311" t="s">
         <v>49</v>
       </c>
       <c r="H311" s="4">
-        <v>45797</v>
+        <v>45826</v>
       </c>
       <c r="I311" s="4">
-        <v>45889</v>
+        <v>45918</v>
       </c>
       <c r="J311" t="s">
         <v>54</v>
       </c>
       <c r="K311" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -12923,10 +12914,10 @@
         <v>53</v>
       </c>
       <c r="J312" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K312" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -12961,7 +12952,7 @@
         <v>54</v>
       </c>
       <c r="K313" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -12996,7 +12987,7 @@
         <v>54</v>
       </c>
       <c r="K314" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -13031,7 +13022,7 @@
         <v>54</v>
       </c>
       <c r="K315" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -13063,10 +13054,10 @@
         <v>53</v>
       </c>
       <c r="J316" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K316" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -13101,7 +13092,7 @@
         <v>54</v>
       </c>
       <c r="K317" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -13136,7 +13127,7 @@
         <v>54</v>
       </c>
       <c r="K318" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -13171,7 +13162,7 @@
         <v>54</v>
       </c>
       <c r="K319" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -13206,7 +13197,7 @@
         <v>54</v>
       </c>
       <c r="K320" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -13214,16 +13205,16 @@
         <v>35432430</v>
       </c>
       <c r="B321" s="1">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="C321" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D321" s="1">
         <v>0.67</v>
       </c>
       <c r="E321">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F321" s="1">
         <v>0.67</v>
@@ -13232,16 +13223,16 @@
         <v>13</v>
       </c>
       <c r="H321" s="4">
-        <v>45805</v>
+        <v>45825</v>
       </c>
       <c r="I321" s="4">
-        <v>45836</v>
+        <v>45855</v>
       </c>
       <c r="J321" t="s">
         <v>54</v>
       </c>
       <c r="K321" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -13276,7 +13267,7 @@
         <v>54</v>
       </c>
       <c r="K322" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -13311,7 +13302,7 @@
         <v>54</v>
       </c>
       <c r="K323" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -13343,10 +13334,10 @@
         <v>53</v>
       </c>
       <c r="J324" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K324" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -13381,7 +13372,7 @@
         <v>54</v>
       </c>
       <c r="K325" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -13416,7 +13407,7 @@
         <v>54</v>
       </c>
       <c r="K326" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -13448,10 +13439,10 @@
         <v>53</v>
       </c>
       <c r="J327" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K327" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -13486,7 +13477,7 @@
         <v>54</v>
       </c>
       <c r="K328" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -13521,7 +13512,7 @@
         <v>54</v>
       </c>
       <c r="K329" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -13553,10 +13544,10 @@
         <v>53</v>
       </c>
       <c r="J330" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K330" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -13588,10 +13579,10 @@
         <v>53</v>
       </c>
       <c r="J331" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K331" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -13626,7 +13617,7 @@
         <v>54</v>
       </c>
       <c r="K332" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -13658,10 +13649,10 @@
         <v>53</v>
       </c>
       <c r="J333" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K333" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -13696,7 +13687,7 @@
         <v>54</v>
       </c>
       <c r="K334" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -13728,10 +13719,10 @@
         <v>53</v>
       </c>
       <c r="J335" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K335" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -13763,10 +13754,10 @@
         <v>53</v>
       </c>
       <c r="J336" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K336" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -13801,7 +13792,7 @@
         <v>54</v>
       </c>
       <c r="K337" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -13836,7 +13827,7 @@
         <v>54</v>
       </c>
       <c r="K338" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -13871,7 +13862,7 @@
         <v>54</v>
       </c>
       <c r="K339" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -13903,10 +13894,10 @@
         <v>53</v>
       </c>
       <c r="J340" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K340" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -13941,7 +13932,7 @@
         <v>54</v>
       </c>
       <c r="K341" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -13976,7 +13967,7 @@
         <v>54</v>
       </c>
       <c r="K342" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -14011,7 +14002,7 @@
         <v>54</v>
       </c>
       <c r="K343" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -14046,7 +14037,7 @@
         <v>54</v>
       </c>
       <c r="K344" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -14081,7 +14072,7 @@
         <v>54</v>
       </c>
       <c r="K345" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -14116,7 +14107,7 @@
         <v>54</v>
       </c>
       <c r="K346" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -14148,10 +14139,10 @@
         <v>53</v>
       </c>
       <c r="J347" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K347" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -14186,7 +14177,7 @@
         <v>54</v>
       </c>
       <c r="K348" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -14221,7 +14212,7 @@
         <v>54</v>
       </c>
       <c r="K349" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -14256,7 +14247,7 @@
         <v>54</v>
       </c>
       <c r="K350" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -14291,7 +14282,7 @@
         <v>54</v>
       </c>
       <c r="K351" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -14326,7 +14317,7 @@
         <v>54</v>
       </c>
       <c r="K352" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -14358,10 +14349,10 @@
         <v>53</v>
       </c>
       <c r="J353" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K353" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -14396,7 +14387,7 @@
         <v>54</v>
       </c>
       <c r="K354" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -14431,7 +14422,7 @@
         <v>54</v>
       </c>
       <c r="K355" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -14466,7 +14457,7 @@
         <v>54</v>
       </c>
       <c r="K356" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -14501,7 +14492,7 @@
         <v>54</v>
       </c>
       <c r="K357" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -14536,7 +14527,7 @@
         <v>54</v>
       </c>
       <c r="K358" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -14544,16 +14535,16 @@
         <v>41201605</v>
       </c>
       <c r="B359" s="1">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="C359" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="D359" s="1">
         <v>1</v>
       </c>
       <c r="E359">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F359" s="1">
         <v>1</v>
@@ -14562,16 +14553,16 @@
         <v>11</v>
       </c>
       <c r="H359" s="4">
-        <v>45812</v>
+        <v>45826</v>
       </c>
       <c r="I359" s="4">
-        <v>45819</v>
+        <v>45833</v>
       </c>
       <c r="J359" t="s">
         <v>54</v>
       </c>
       <c r="K359" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -14606,7 +14597,7 @@
         <v>54</v>
       </c>
       <c r="K360" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -14641,7 +14632,7 @@
         <v>54</v>
       </c>
       <c r="K361" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -14676,7 +14667,7 @@
         <v>54</v>
       </c>
       <c r="K362" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -14711,7 +14702,7 @@
         <v>54</v>
       </c>
       <c r="K363" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -14746,7 +14737,7 @@
         <v>54</v>
       </c>
       <c r="K364" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -14781,7 +14772,7 @@
         <v>54</v>
       </c>
       <c r="K365" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -14816,7 +14807,7 @@
         <v>54</v>
       </c>
       <c r="K366" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -14851,7 +14842,7 @@
         <v>54</v>
       </c>
       <c r="K367" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -14886,7 +14877,7 @@
         <v>54</v>
       </c>
       <c r="K368" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -14921,7 +14912,7 @@
         <v>54</v>
       </c>
       <c r="K369" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -14956,7 +14947,7 @@
         <v>54</v>
       </c>
       <c r="K370" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -14991,7 +14982,7 @@
         <v>54</v>
       </c>
       <c r="K371" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -15026,7 +15017,7 @@
         <v>54</v>
       </c>
       <c r="K372" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -15061,7 +15052,7 @@
         <v>54</v>
       </c>
       <c r="K373" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -15096,7 +15087,7 @@
         <v>54</v>
       </c>
       <c r="K374" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -15131,7 +15122,7 @@
         <v>54</v>
       </c>
       <c r="K375" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -15166,7 +15157,7 @@
         <v>54</v>
       </c>
       <c r="K376" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -15201,7 +15192,7 @@
         <v>54</v>
       </c>
       <c r="K377" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -15236,7 +15227,7 @@
         <v>54</v>
       </c>
       <c r="K378" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -15271,7 +15262,7 @@
         <v>54</v>
       </c>
       <c r="K379" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -15306,7 +15297,7 @@
         <v>54</v>
       </c>
       <c r="K380" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -15341,7 +15332,7 @@
         <v>54</v>
       </c>
       <c r="K381" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -15349,34 +15340,34 @@
         <v>41865386</v>
       </c>
       <c r="B382" s="1">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="C382" s="1">
         <v>0.33</v>
       </c>
       <c r="D382" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="E382">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F382" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G382" t="s">
         <v>18</v>
       </c>
       <c r="H382" s="4">
-        <v>45779</v>
+        <v>45826</v>
       </c>
       <c r="I382" s="4">
-        <v>45794</v>
+        <v>45841</v>
       </c>
       <c r="J382" t="s">
         <v>54</v>
       </c>
       <c r="K382" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -15411,7 +15402,7 @@
         <v>54</v>
       </c>
       <c r="K383" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -15446,7 +15437,7 @@
         <v>54</v>
       </c>
       <c r="K384" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -15481,7 +15472,7 @@
         <v>54</v>
       </c>
       <c r="K385" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -15516,7 +15507,7 @@
         <v>54</v>
       </c>
       <c r="K386" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -15551,7 +15542,7 @@
         <v>54</v>
       </c>
       <c r="K387" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -15586,7 +15577,7 @@
         <v>54</v>
       </c>
       <c r="K388" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -15621,7 +15612,7 @@
         <v>54</v>
       </c>
       <c r="K389" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -15656,7 +15647,7 @@
         <v>54</v>
       </c>
       <c r="K390" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -15691,7 +15682,7 @@
         <v>54</v>
       </c>
       <c r="K391" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -15726,7 +15717,7 @@
         <v>54</v>
       </c>
       <c r="K392" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -15761,7 +15752,7 @@
         <v>54</v>
       </c>
       <c r="K393" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -15796,7 +15787,7 @@
         <v>54</v>
       </c>
       <c r="K394" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -15831,7 +15822,7 @@
         <v>54</v>
       </c>
       <c r="K395" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -15866,7 +15857,7 @@
         <v>54</v>
       </c>
       <c r="K396" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -15874,16 +15865,16 @@
         <v>42714199</v>
       </c>
       <c r="B397" s="1">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="C397" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="D397" s="1">
         <v>1</v>
       </c>
       <c r="E397">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F397" s="1">
         <v>1</v>
@@ -15892,16 +15883,16 @@
         <v>18</v>
       </c>
       <c r="H397" s="4">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="I397" s="4">
-        <v>45836</v>
+        <v>45840</v>
       </c>
       <c r="J397" t="s">
         <v>54</v>
       </c>
       <c r="K397" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -15936,7 +15927,7 @@
         <v>54</v>
       </c>
       <c r="K398" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -15971,7 +15962,7 @@
         <v>54</v>
       </c>
       <c r="K399" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -16006,7 +15997,7 @@
         <v>54</v>
       </c>
       <c r="K400" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -16041,7 +16032,7 @@
         <v>54</v>
       </c>
       <c r="K401" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -16076,7 +16067,7 @@
         <v>54</v>
       </c>
       <c r="K402" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -16108,10 +16099,10 @@
         <v>53</v>
       </c>
       <c r="J403" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K403" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -16146,7 +16137,7 @@
         <v>54</v>
       </c>
       <c r="K404" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -16181,7 +16172,7 @@
         <v>54</v>
       </c>
       <c r="K405" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -16216,7 +16207,7 @@
         <v>54</v>
       </c>
       <c r="K406" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -16251,7 +16242,7 @@
         <v>54</v>
       </c>
       <c r="K407" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -16286,7 +16277,7 @@
         <v>54</v>
       </c>
       <c r="K408" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -16321,7 +16312,7 @@
         <v>54</v>
       </c>
       <c r="K409" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -16356,7 +16347,7 @@
         <v>54</v>
       </c>
       <c r="K410" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -16391,7 +16382,7 @@
         <v>54</v>
       </c>
       <c r="K411" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -16426,7 +16417,7 @@
         <v>54</v>
       </c>
       <c r="K412" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -16461,7 +16452,7 @@
         <v>54</v>
       </c>
       <c r="K413" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -16496,7 +16487,7 @@
         <v>54</v>
       </c>
       <c r="K414" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -16531,7 +16522,7 @@
         <v>54</v>
       </c>
       <c r="K415" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -16566,7 +16557,7 @@
         <v>54</v>
       </c>
       <c r="K416" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -16601,7 +16592,7 @@
         <v>54</v>
       </c>
       <c r="K417" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="418" spans="1:11">
@@ -16636,7 +16627,7 @@
         <v>54</v>
       </c>
       <c r="K418" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="419" spans="1:11">
@@ -16671,7 +16662,7 @@
         <v>54</v>
       </c>
       <c r="K419" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="420" spans="1:11">
@@ -16706,7 +16697,7 @@
         <v>54</v>
       </c>
       <c r="K420" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="421" spans="1:11">
@@ -16741,7 +16732,7 @@
         <v>54</v>
       </c>
       <c r="K421" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="422" spans="1:11">
@@ -16776,7 +16767,7 @@
         <v>54</v>
       </c>
       <c r="K422" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="423" spans="1:11">
@@ -16811,7 +16802,7 @@
         <v>54</v>
       </c>
       <c r="K423" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="424" spans="1:11">
@@ -16846,7 +16837,7 @@
         <v>54</v>
       </c>
       <c r="K424" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="425" spans="1:11">
@@ -16881,7 +16872,7 @@
         <v>54</v>
       </c>
       <c r="K425" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="426" spans="1:11">
@@ -16916,7 +16907,7 @@
         <v>54</v>
       </c>
       <c r="K426" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
+++ b/dados/ADD/Dados_ADD_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="531">
   <si>
     <t>id_cliente</t>
   </si>
@@ -88,6 +88,9 @@
     <t>1x a cada 4 meses - irregular</t>
   </si>
   <si>
+    <t>1x a cada 7 meses - irregular (preferencialmente na 2ª quinzena)</t>
+  </si>
+  <si>
     <t>2x por quinzena - regular</t>
   </si>
   <si>
@@ -181,319 +184,319 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 46.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 45.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 45.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 50.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 49.0 meses sem comprar</t>
+    <t>INATIVO - 46.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 50.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 49.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 49.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 47.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 45.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 43.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 48.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 42.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 44.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 21.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 49.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 45.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 46.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.2 meses sem comprar</t>
+    <t>INATIVO - 25.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 41.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 8.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 28.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 45.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 43.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 48.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 42.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 44.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.3 meses sem comprar</t>
+    <t>INATIVO - 10.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 8.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 41.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.7 meses sem comprar</t>
+    <t>INATIVO - 11.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.8 meses sem comprar</t>
   </si>
   <si>
     <t>FRANCISCO SAMPAIO</t>
@@ -1517,6 +1520,9 @@
   </si>
   <si>
     <t>GRID COMERCIO, SERVICOS, TECNOLOGIA EM PROJETOS LTDA</t>
+  </si>
+  <si>
+    <t>PINHEIROS HOTEL LTDA</t>
   </si>
   <si>
     <t>CONDOMINIO LIFE CENTRO</t>
@@ -1987,7 +1993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K426"/>
+  <dimension ref="A1:K427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2064,10 +2070,10 @@
         <v>45797</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2096,13 +2102,13 @@
         <v>44448</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2134,10 +2140,10 @@
         <v>45788</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2166,13 +2172,13 @@
         <v>44454</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2204,10 +2210,10 @@
         <v>45821</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2236,13 +2242,13 @@
         <v>44461</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2271,13 +2277,13 @@
         <v>44656</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2306,13 +2312,13 @@
         <v>44643</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2341,13 +2347,13 @@
         <v>44552</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2376,13 +2382,13 @@
         <v>44320</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2411,13 +2417,13 @@
         <v>44447</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2446,13 +2452,13 @@
         <v>44929</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2481,13 +2487,13 @@
         <v>44627</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2516,13 +2522,13 @@
         <v>44364</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2551,13 +2557,13 @@
         <v>44453</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2586,13 +2592,13 @@
         <v>44460</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2624,10 +2630,10 @@
         <v>45854</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2656,13 +2662,13 @@
         <v>44358</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2691,13 +2697,13 @@
         <v>45197</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2726,13 +2732,13 @@
         <v>44348</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2761,13 +2767,13 @@
         <v>45471</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2796,13 +2802,13 @@
         <v>45821</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2831,13 +2837,13 @@
         <v>45259</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2866,13 +2872,13 @@
         <v>44812</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2904,10 +2910,10 @@
         <v>45895</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2936,13 +2942,13 @@
         <v>44474</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2971,13 +2977,13 @@
         <v>44510</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3009,10 +3015,10 @@
         <v>45750</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3041,13 +3047,13 @@
         <v>44420</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3079,10 +3085,10 @@
         <v>45753</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3114,10 +3120,10 @@
         <v>45833</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3149,10 +3155,10 @@
         <v>45840</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3184,10 +3190,10 @@
         <v>45864</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3216,13 +3222,13 @@
         <v>45461</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3251,13 +3257,13 @@
         <v>45580</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3286,13 +3292,13 @@
         <v>44972</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3321,13 +3327,13 @@
         <v>44628</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3359,10 +3365,10 @@
         <v>45744</v>
       </c>
       <c r="J39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3370,16 +3376,16 @@
         <v>3305020</v>
       </c>
       <c r="B40" s="1">
-        <v>0.58</v>
+        <v>0.67</v>
       </c>
       <c r="C40" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="D40" s="1">
         <v>0.67</v>
       </c>
       <c r="E40">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F40" s="1">
         <v>0.67</v>
@@ -3388,16 +3394,16 @@
         <v>13</v>
       </c>
       <c r="H40" s="4">
-        <v>45820</v>
+        <v>45828</v>
       </c>
       <c r="I40" s="4">
-        <v>45850</v>
+        <v>45858</v>
       </c>
       <c r="J40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3429,10 +3435,10 @@
         <v>45871</v>
       </c>
       <c r="J41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3461,13 +3467,13 @@
         <v>44473</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3496,13 +3502,13 @@
         <v>44750</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3534,10 +3540,10 @@
         <v>45808</v>
       </c>
       <c r="J44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3566,13 +3572,13 @@
         <v>44586</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3604,10 +3610,10 @@
         <v>45861</v>
       </c>
       <c r="J46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3636,13 +3642,13 @@
         <v>44571</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K47" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3674,10 +3680,10 @@
         <v>45820</v>
       </c>
       <c r="J48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K48" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3709,10 +3715,10 @@
         <v>45856</v>
       </c>
       <c r="J49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3744,10 +3750,10 @@
         <v>45840</v>
       </c>
       <c r="J50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K50" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3779,10 +3785,10 @@
         <v>45882</v>
       </c>
       <c r="J51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3811,13 +3817,13 @@
         <v>45155</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K52" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3849,10 +3855,10 @@
         <v>45841</v>
       </c>
       <c r="J53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3884,10 +3890,10 @@
         <v>45807</v>
       </c>
       <c r="J54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3916,13 +3922,13 @@
         <v>44669</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K55" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3951,13 +3957,13 @@
         <v>45384</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3965,16 +3971,16 @@
         <v>3469356</v>
       </c>
       <c r="B57" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C57" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D57" s="1">
         <v>0.67</v>
       </c>
       <c r="E57">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F57" s="1">
         <v>0.67</v>
@@ -3983,16 +3989,16 @@
         <v>12</v>
       </c>
       <c r="H57" s="4">
-        <v>45811</v>
+        <v>45828</v>
       </c>
       <c r="I57" s="4">
-        <v>45872</v>
+        <v>45889</v>
       </c>
       <c r="J57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -4009,25 +4015,25 @@
         <v>0.33</v>
       </c>
       <c r="E58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F58" s="1">
         <v>0.33</v>
       </c>
       <c r="G58" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H58" s="4">
-        <v>45825</v>
+        <v>45828</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4050,19 +4056,19 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H59" s="4">
         <v>44650</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4091,13 +4097,13 @@
         <v>44617</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4120,19 +4126,19 @@
         <v>0.83</v>
       </c>
       <c r="G61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H61" s="4">
         <v>44663</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J61" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4155,19 +4161,19 @@
         <v>0.83</v>
       </c>
       <c r="G62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H62" s="4">
         <v>44663</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4190,19 +4196,19 @@
         <v>0.83</v>
       </c>
       <c r="G63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H63" s="4">
         <v>44617</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4231,13 +4237,13 @@
         <v>44663</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4260,19 +4266,19 @@
         <v>0.67</v>
       </c>
       <c r="G65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H65" s="4">
         <v>44663</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J65" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4295,19 +4301,19 @@
         <v>0.83</v>
       </c>
       <c r="G66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H66" s="4">
         <v>44663</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4330,19 +4336,19 @@
         <v>0.67</v>
       </c>
       <c r="G67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H67" s="4">
         <v>44529</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K67" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4350,34 +4356,34 @@
         <v>3494929</v>
       </c>
       <c r="B68" s="1">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
       </c>
       <c r="D68" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E68">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F68" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G68" t="s">
         <v>13</v>
       </c>
       <c r="H68" s="4">
-        <v>45583</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>53</v>
+        <v>45828</v>
+      </c>
+      <c r="I68" s="4">
+        <v>45858</v>
       </c>
       <c r="J68" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="K68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4400,19 +4406,19 @@
         <v>0.83</v>
       </c>
       <c r="G69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H69" s="4">
         <v>44663</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J69" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4435,7 +4441,7 @@
         <v>0.83</v>
       </c>
       <c r="G70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H70" s="4">
         <v>45820</v>
@@ -4444,10 +4450,10 @@
         <v>45835</v>
       </c>
       <c r="J70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K70" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4476,13 +4482,13 @@
         <v>45587</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J71" t="s">
         <v>91</v>
       </c>
       <c r="K71" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4505,7 +4511,7 @@
         <v>0.17</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H72" s="4">
         <v>45756</v>
@@ -4514,10 +4520,10 @@
         <v>45939</v>
       </c>
       <c r="J72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K72" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4540,19 +4546,19 @@
         <v>0.83</v>
       </c>
       <c r="G73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H73" s="4">
         <v>44617</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4581,13 +4587,13 @@
         <v>44650</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4616,13 +4622,13 @@
         <v>45587</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J75" t="s">
         <v>91</v>
       </c>
       <c r="K75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4654,10 +4660,10 @@
         <v>45847</v>
       </c>
       <c r="J76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K76" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4680,7 +4686,7 @@
         <v>0.17</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H77" s="4">
         <v>45712</v>
@@ -4689,10 +4695,10 @@
         <v>45832</v>
       </c>
       <c r="J77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K77" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4724,10 +4730,10 @@
         <v>45886</v>
       </c>
       <c r="J78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K78" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4756,13 +4762,13 @@
         <v>44663</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J79" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K79" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4791,13 +4797,13 @@
         <v>45355</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J80" t="s">
         <v>92</v>
       </c>
       <c r="K80" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4829,10 +4835,10 @@
         <v>45847</v>
       </c>
       <c r="J81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K81" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4861,13 +4867,13 @@
         <v>44986</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J82" t="s">
         <v>93</v>
       </c>
       <c r="K82" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4890,7 +4896,7 @@
         <v>0.17</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H83" s="4">
         <v>45803</v>
@@ -4899,10 +4905,10 @@
         <v>45926</v>
       </c>
       <c r="J83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K83" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4925,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H84" s="4">
         <v>45804</v>
@@ -4934,10 +4940,10 @@
         <v>45865</v>
       </c>
       <c r="J84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K84" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4966,13 +4972,13 @@
         <v>45329</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J85" t="s">
         <v>94</v>
       </c>
       <c r="K85" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -5004,10 +5010,10 @@
         <v>45865</v>
       </c>
       <c r="J86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K86" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5036,13 +5042,13 @@
         <v>45580</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K87" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -5074,10 +5080,10 @@
         <v>45828</v>
       </c>
       <c r="J88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K88" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5100,19 +5106,19 @@
         <v>0.67</v>
       </c>
       <c r="G89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H89" s="4">
         <v>44370</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J89" t="s">
         <v>95</v>
       </c>
       <c r="K89" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5141,13 +5147,13 @@
         <v>45072</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J90" t="s">
         <v>96</v>
       </c>
       <c r="K90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5179,10 +5185,10 @@
         <v>45831</v>
       </c>
       <c r="J91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5211,13 +5217,13 @@
         <v>44673</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J92" t="s">
         <v>97</v>
       </c>
       <c r="K92" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5246,13 +5252,13 @@
         <v>44546</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J93" t="s">
         <v>98</v>
       </c>
       <c r="K93" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5275,19 +5281,19 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H94" s="4">
         <v>44650</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J94" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K94" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5319,10 +5325,10 @@
         <v>45859</v>
       </c>
       <c r="J95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K95" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5351,13 +5357,13 @@
         <v>45274</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J96" t="s">
         <v>99</v>
       </c>
       <c r="K96" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5380,7 +5386,7 @@
         <v>0.33</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H97" s="4">
         <v>45819</v>
@@ -5389,10 +5395,10 @@
         <v>45972</v>
       </c>
       <c r="J97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K97" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5424,10 +5430,10 @@
         <v>45909</v>
       </c>
       <c r="J98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K98" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5450,19 +5456,19 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H99" s="4">
         <v>45026</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J99" t="s">
         <v>100</v>
       </c>
       <c r="K99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5494,10 +5500,10 @@
         <v>45831</v>
       </c>
       <c r="J100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K100" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5520,19 +5526,19 @@
         <v>0.33</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H101" s="4">
         <v>44628</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J101" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K101" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5561,13 +5567,13 @@
         <v>45191</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J102" t="s">
         <v>101</v>
       </c>
       <c r="K102" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5599,10 +5605,10 @@
         <v>45742</v>
       </c>
       <c r="J103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K103" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5631,13 +5637,13 @@
         <v>44677</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J104" t="s">
         <v>102</v>
       </c>
       <c r="K104" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5669,10 +5675,10 @@
         <v>45899</v>
       </c>
       <c r="J105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K105" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5704,10 +5710,10 @@
         <v>45831</v>
       </c>
       <c r="J106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K106" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5736,13 +5742,13 @@
         <v>45363</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J107" t="s">
         <v>103</v>
       </c>
       <c r="K107" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5771,13 +5777,13 @@
         <v>44483</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J108" t="s">
         <v>104</v>
       </c>
       <c r="K108" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5809,10 +5815,10 @@
         <v>45805</v>
       </c>
       <c r="J109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K109" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5841,13 +5847,13 @@
         <v>44595</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J110" t="s">
         <v>105</v>
       </c>
       <c r="K110" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5876,13 +5882,13 @@
         <v>44761</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J111" t="s">
         <v>106</v>
       </c>
       <c r="K111" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5911,13 +5917,13 @@
         <v>44641</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J112" t="s">
         <v>107</v>
       </c>
       <c r="K112" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5940,7 +5946,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H113" s="4">
         <v>45817</v>
@@ -5949,10 +5955,10 @@
         <v>45832</v>
       </c>
       <c r="J113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K113" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5981,13 +5987,13 @@
         <v>44929</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J114" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K114" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -6010,19 +6016,19 @@
         <v>0.33</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H115" s="4">
         <v>45782</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J115" t="s">
         <v>108</v>
       </c>
       <c r="K115" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6051,13 +6057,13 @@
         <v>45201</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J116" t="s">
         <v>109</v>
       </c>
       <c r="K116" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -6086,13 +6092,13 @@
         <v>45063</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J117" t="s">
         <v>110</v>
       </c>
       <c r="K117" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6115,19 +6121,19 @@
         <v>0.75</v>
       </c>
       <c r="G118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H118" s="4">
         <v>44473</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J118" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K118" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6156,13 +6162,13 @@
         <v>44986</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J119" t="s">
         <v>93</v>
       </c>
       <c r="K119" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6191,13 +6197,13 @@
         <v>45019</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J120" t="s">
         <v>111</v>
       </c>
       <c r="K120" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6229,10 +6235,10 @@
         <v>45813</v>
       </c>
       <c r="J121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K121" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6261,13 +6267,13 @@
         <v>45512</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J122" t="s">
         <v>112</v>
       </c>
       <c r="K122" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6290,7 +6296,7 @@
         <v>0.33</v>
       </c>
       <c r="G123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H123" s="4">
         <v>45813</v>
@@ -6299,10 +6305,10 @@
         <v>45966</v>
       </c>
       <c r="J123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K123" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6325,7 +6331,7 @@
         <v>0.5</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H124" s="4">
         <v>45754</v>
@@ -6334,10 +6340,10 @@
         <v>45815</v>
       </c>
       <c r="J124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K124" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6360,19 +6366,19 @@
         <v>0.67</v>
       </c>
       <c r="G125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H125" s="4">
         <v>44662</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J125" t="s">
         <v>113</v>
       </c>
       <c r="K125" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6401,13 +6407,13 @@
         <v>44971</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J126" t="s">
         <v>114</v>
       </c>
       <c r="K126" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6439,10 +6445,10 @@
         <v>45872</v>
       </c>
       <c r="J127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K127" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6471,13 +6477,13 @@
         <v>45646</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J128" t="s">
         <v>115</v>
       </c>
       <c r="K128" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6506,13 +6512,13 @@
         <v>44984</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J129" t="s">
         <v>93</v>
       </c>
       <c r="K129" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6541,13 +6547,13 @@
         <v>44740</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J130" t="s">
         <v>116</v>
       </c>
       <c r="K130" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6579,10 +6585,10 @@
         <v>45802</v>
       </c>
       <c r="J131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K131" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6611,13 +6617,13 @@
         <v>45590</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J132" t="s">
         <v>117</v>
       </c>
       <c r="K132" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6649,10 +6655,10 @@
         <v>45881</v>
       </c>
       <c r="J133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K133" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6684,10 +6690,10 @@
         <v>45844</v>
       </c>
       <c r="J134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K134" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -6719,10 +6725,10 @@
         <v>45815</v>
       </c>
       <c r="J135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K135" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -6745,19 +6751,19 @@
         <v>0.5</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H136" s="4">
         <v>45569</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J136" t="s">
         <v>118</v>
       </c>
       <c r="K136" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6786,13 +6792,13 @@
         <v>44810</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J137" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K137" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6824,10 +6830,10 @@
         <v>45873</v>
       </c>
       <c r="J138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K138" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6856,13 +6862,13 @@
         <v>44599</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J139" t="s">
         <v>119</v>
       </c>
       <c r="K139" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6891,13 +6897,13 @@
         <v>45112</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J140" t="s">
         <v>120</v>
       </c>
       <c r="K140" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6920,19 +6926,19 @@
         <v>0.83</v>
       </c>
       <c r="G141" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H141" s="4">
         <v>45237</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J141" t="s">
         <v>121</v>
       </c>
       <c r="K141" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6961,13 +6967,13 @@
         <v>44791</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J142" t="s">
         <v>122</v>
       </c>
       <c r="K142" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -6999,10 +7005,10 @@
         <v>45854</v>
       </c>
       <c r="J143" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K143" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -7031,13 +7037,13 @@
         <v>45457</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J144" t="s">
         <v>123</v>
       </c>
       <c r="K144" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -7069,10 +7075,10 @@
         <v>45855</v>
       </c>
       <c r="J145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K145" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -7104,10 +7110,10 @@
         <v>45872</v>
       </c>
       <c r="J146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K146" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7130,19 +7136,19 @@
         <v>0.17</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H147" s="4">
         <v>45530</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J147" t="s">
         <v>124</v>
       </c>
       <c r="K147" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7174,10 +7180,10 @@
         <v>45847</v>
       </c>
       <c r="J148" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K148" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7200,7 +7206,7 @@
         <v>0.67</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H149" s="4">
         <v>45806</v>
@@ -7209,10 +7215,10 @@
         <v>45837</v>
       </c>
       <c r="J149" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K149" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7244,10 +7250,10 @@
         <v>45854</v>
       </c>
       <c r="J150" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K150" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7279,10 +7285,10 @@
         <v>45845</v>
       </c>
       <c r="J151" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K151" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7314,10 +7320,10 @@
         <v>45840</v>
       </c>
       <c r="J152" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K152" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7346,13 +7352,13 @@
         <v>44986</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J153" t="s">
         <v>93</v>
       </c>
       <c r="K153" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7384,10 +7390,10 @@
         <v>45851</v>
       </c>
       <c r="J154" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K154" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7410,7 +7416,7 @@
         <v>0.83</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H155" s="4">
         <v>45772</v>
@@ -7419,10 +7425,10 @@
         <v>45894</v>
       </c>
       <c r="J155" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K155" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7451,13 +7457,13 @@
         <v>45041</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J156" t="s">
         <v>125</v>
       </c>
       <c r="K156" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -7489,10 +7495,10 @@
         <v>45873</v>
       </c>
       <c r="J157" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K157" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -7524,10 +7530,10 @@
         <v>45829</v>
       </c>
       <c r="J158" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K158" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -7559,10 +7565,10 @@
         <v>45836</v>
       </c>
       <c r="J159" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K159" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -7585,7 +7591,7 @@
         <v>0.17</v>
       </c>
       <c r="G160" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H160" s="4">
         <v>45776</v>
@@ -7594,10 +7600,10 @@
         <v>45929</v>
       </c>
       <c r="J160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K160" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -7629,10 +7635,10 @@
         <v>45829</v>
       </c>
       <c r="J161" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K161" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7664,10 +7670,10 @@
         <v>45858</v>
       </c>
       <c r="J162" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K162" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7699,10 +7705,10 @@
         <v>45886</v>
       </c>
       <c r="J163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K163" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -7731,13 +7737,13 @@
         <v>45418</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J164" t="s">
         <v>126</v>
       </c>
       <c r="K164" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7766,13 +7772,13 @@
         <v>45623</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J165" t="s">
         <v>127</v>
       </c>
       <c r="K165" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7804,10 +7810,10 @@
         <v>45803</v>
       </c>
       <c r="J166" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K166" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7830,19 +7836,19 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H167" s="4">
         <v>45198</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J167" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K167" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -7865,19 +7871,19 @@
         <v>0.67</v>
       </c>
       <c r="G168" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H168" s="4">
         <v>45443</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J168" t="s">
         <v>128</v>
       </c>
       <c r="K168" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7900,7 +7906,7 @@
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H169" s="4">
         <v>45824</v>
@@ -7909,10 +7915,10 @@
         <v>45839</v>
       </c>
       <c r="J169" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K169" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -7935,7 +7941,7 @@
         <v>0.83</v>
       </c>
       <c r="G170" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H170" s="4">
         <v>45824</v>
@@ -7944,10 +7950,10 @@
         <v>45839</v>
       </c>
       <c r="J170" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K170" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7970,7 +7976,7 @@
         <v>0.83</v>
       </c>
       <c r="G171" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H171" s="4">
         <v>45824</v>
@@ -7979,10 +7985,10 @@
         <v>45839</v>
       </c>
       <c r="J171" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K171" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -8005,7 +8011,7 @@
         <v>0.83</v>
       </c>
       <c r="G172" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H172" s="4">
         <v>45824</v>
@@ -8014,10 +8020,10 @@
         <v>45839</v>
       </c>
       <c r="J172" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K172" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -8040,7 +8046,7 @@
         <v>0.5</v>
       </c>
       <c r="G173" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H173" s="4">
         <v>45811</v>
@@ -8049,10 +8055,10 @@
         <v>45841</v>
       </c>
       <c r="J173" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K173" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -8075,7 +8081,7 @@
         <v>0.67</v>
       </c>
       <c r="G174" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H174" s="4">
         <v>45824</v>
@@ -8084,10 +8090,10 @@
         <v>45839</v>
       </c>
       <c r="J174" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K174" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -8110,19 +8116,19 @@
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H175" s="4">
         <v>44803</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J175" t="s">
         <v>129</v>
       </c>
       <c r="K175" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -8145,7 +8151,7 @@
         <v>0.67</v>
       </c>
       <c r="G176" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H176" s="4">
         <v>45811</v>
@@ -8154,10 +8160,10 @@
         <v>45826</v>
       </c>
       <c r="J176" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K176" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -8180,7 +8186,7 @@
         <v>0.83</v>
       </c>
       <c r="G177" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H177" s="4">
         <v>45824</v>
@@ -8189,10 +8195,10 @@
         <v>45839</v>
       </c>
       <c r="J177" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K177" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -8224,10 +8230,10 @@
         <v>45827</v>
       </c>
       <c r="J178" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K178" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -8259,10 +8265,10 @@
         <v>45854</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K179" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -8294,10 +8300,10 @@
         <v>45831</v>
       </c>
       <c r="J180" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K180" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -8329,10 +8335,10 @@
         <v>45846</v>
       </c>
       <c r="J181" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K181" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -8364,10 +8370,10 @@
         <v>45831</v>
       </c>
       <c r="J182" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K182" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -8399,10 +8405,10 @@
         <v>45946</v>
       </c>
       <c r="J183" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K183" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -8425,19 +8431,19 @@
         <v>0.83</v>
       </c>
       <c r="G184" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H184" s="4">
         <v>45224</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J184" t="s">
         <v>130</v>
       </c>
       <c r="K184" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -8460,7 +8466,7 @@
         <v>0.83</v>
       </c>
       <c r="G185" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H185" s="4">
         <v>45824</v>
@@ -8469,10 +8475,10 @@
         <v>45831</v>
       </c>
       <c r="J185" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K185" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -8495,7 +8501,7 @@
         <v>0.5</v>
       </c>
       <c r="G186" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H186" s="4">
         <v>45811</v>
@@ -8504,10 +8510,10 @@
         <v>45826</v>
       </c>
       <c r="J186" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K186" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -8530,7 +8536,7 @@
         <v>0.83</v>
       </c>
       <c r="G187" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H187" s="4">
         <v>45820</v>
@@ -8539,10 +8545,10 @@
         <v>45835</v>
       </c>
       <c r="J187" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K187" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -8574,10 +8580,10 @@
         <v>45912</v>
       </c>
       <c r="J188" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K188" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -8609,10 +8615,10 @@
         <v>45832</v>
       </c>
       <c r="J189" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K189" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -8641,13 +8647,13 @@
         <v>45266</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J190" t="s">
         <v>131</v>
       </c>
       <c r="K190" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -8676,13 +8682,13 @@
         <v>44825</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J191" t="s">
         <v>132</v>
       </c>
       <c r="K191" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -8711,13 +8717,13 @@
         <v>45100</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J192" t="s">
         <v>133</v>
       </c>
       <c r="K192" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -8725,16 +8731,16 @@
         <v>5656219</v>
       </c>
       <c r="B193" s="1">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="C193" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="D193" s="1">
         <v>0.83</v>
       </c>
       <c r="E193">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F193" s="1">
         <v>0.83</v>
@@ -8743,16 +8749,16 @@
         <v>18</v>
       </c>
       <c r="H193" s="4">
-        <v>45804</v>
+        <v>45828</v>
       </c>
       <c r="I193" s="4">
-        <v>45819</v>
+        <v>45843</v>
       </c>
       <c r="J193" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K193" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -8775,7 +8781,7 @@
         <v>0.5</v>
       </c>
       <c r="G194" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H194" s="4">
         <v>45824</v>
@@ -8784,10 +8790,10 @@
         <v>45839</v>
       </c>
       <c r="J194" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K194" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8810,7 +8816,7 @@
         <v>0.5</v>
       </c>
       <c r="G195" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H195" s="4">
         <v>45811</v>
@@ -8819,10 +8825,10 @@
         <v>45841</v>
       </c>
       <c r="J195" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K195" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -8854,10 +8860,10 @@
         <v>45872</v>
       </c>
       <c r="J196" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K196" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -8889,10 +8895,10 @@
         <v>45851</v>
       </c>
       <c r="J197" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K197" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -8915,19 +8921,19 @@
         <v>1</v>
       </c>
       <c r="G198" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H198" s="4">
         <v>44669</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J198" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K198" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -8950,7 +8956,7 @@
         <v>0.83</v>
       </c>
       <c r="G199" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H199" s="4">
         <v>45806</v>
@@ -8959,10 +8965,10 @@
         <v>45837</v>
       </c>
       <c r="J199" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K199" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -8994,10 +9000,10 @@
         <v>45807</v>
       </c>
       <c r="J200" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K200" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -9029,10 +9035,10 @@
         <v>45858</v>
       </c>
       <c r="J201" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K201" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -9061,13 +9067,13 @@
         <v>44924</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J202" t="s">
         <v>134</v>
       </c>
       <c r="K202" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -9099,10 +9105,10 @@
         <v>45849</v>
       </c>
       <c r="J203" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K203" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -9134,10 +9140,10 @@
         <v>45853</v>
       </c>
       <c r="J204" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K204" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -9169,10 +9175,10 @@
         <v>45835</v>
       </c>
       <c r="J205" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K205" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -9204,10 +9210,10 @@
         <v>45834</v>
       </c>
       <c r="J206" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K206" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -9239,10 +9245,10 @@
         <v>45775</v>
       </c>
       <c r="J207" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K207" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -9265,19 +9271,19 @@
         <v>0.17</v>
       </c>
       <c r="G208" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H208" s="4">
         <v>45008</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J208" t="s">
         <v>135</v>
       </c>
       <c r="K208" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -9300,7 +9306,7 @@
         <v>1</v>
       </c>
       <c r="G209" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H209" s="4">
         <v>45824</v>
@@ -9309,10 +9315,10 @@
         <v>45839</v>
       </c>
       <c r="J209" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K209" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -9344,10 +9350,10 @@
         <v>45744</v>
       </c>
       <c r="J210" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K210" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -9379,10 +9385,10 @@
         <v>45872</v>
       </c>
       <c r="J211" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K211" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -9405,7 +9411,7 @@
         <v>1</v>
       </c>
       <c r="G212" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H212" s="4">
         <v>45824</v>
@@ -9414,10 +9420,10 @@
         <v>45831</v>
       </c>
       <c r="J212" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K212" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -9449,10 +9455,10 @@
         <v>45854</v>
       </c>
       <c r="J213" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K213" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -9475,7 +9481,7 @@
         <v>1</v>
       </c>
       <c r="G214" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H214" s="4">
         <v>45824</v>
@@ -9484,10 +9490,10 @@
         <v>45831</v>
       </c>
       <c r="J214" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K214" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -9519,10 +9525,10 @@
         <v>45854</v>
       </c>
       <c r="J215" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K215" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -9554,10 +9560,10 @@
         <v>45850</v>
       </c>
       <c r="J216" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K216" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -9580,19 +9586,19 @@
         <v>1</v>
       </c>
       <c r="G217" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H217" s="4">
         <v>44911</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J217" t="s">
         <v>136</v>
       </c>
       <c r="K217" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -9624,10 +9630,10 @@
         <v>45815</v>
       </c>
       <c r="J218" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K218" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -9656,13 +9662,13 @@
         <v>45320</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J219" t="s">
         <v>137</v>
       </c>
       <c r="K219" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -9685,7 +9691,7 @@
         <v>0.33</v>
       </c>
       <c r="G220" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H220" s="4">
         <v>45819</v>
@@ -9694,10 +9700,10 @@
         <v>45849</v>
       </c>
       <c r="J220" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K220" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -9720,7 +9726,7 @@
         <v>0.67</v>
       </c>
       <c r="G221" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H221" s="4">
         <v>45714</v>
@@ -9729,10 +9735,10 @@
         <v>45864</v>
       </c>
       <c r="J221" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K221" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -9755,7 +9761,7 @@
         <v>0.5</v>
       </c>
       <c r="G222" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H222" s="4">
         <v>45799</v>
@@ -9764,10 +9770,10 @@
         <v>45922</v>
       </c>
       <c r="J222" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K222" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -9799,10 +9805,10 @@
         <v>45891</v>
       </c>
       <c r="J223" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K223" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -9825,7 +9831,7 @@
         <v>0.83</v>
       </c>
       <c r="G224" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H224" s="4">
         <v>45797</v>
@@ -9834,10 +9840,10 @@
         <v>45920</v>
       </c>
       <c r="J224" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K224" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -9869,10 +9875,10 @@
         <v>45867</v>
       </c>
       <c r="J225" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K225" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -9904,10 +9910,10 @@
         <v>45841</v>
       </c>
       <c r="J226" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K226" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -9939,10 +9945,10 @@
         <v>45859</v>
       </c>
       <c r="J227" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K227" t="s">
-       